--- a/QuantLibXL/Data2/XLS/EUR_JumpsQuotesFeedON.xlsx
+++ b/QuantLibXL/Data2/XLS/EUR_JumpsQuotesFeedON.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="15225" windowHeight="7650"/>
+    <workbookView xWindow="15225" yWindow="-15" windowWidth="15270" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="3" r:id="rId1"/>
@@ -1544,15 +1544,6 @@
     <xf numFmtId="0" fontId="16" fillId="14" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="168" fontId="9" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1570,6 +1561,15 @@
     </xf>
     <xf numFmtId="168" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1646,7 +1646,7 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="D6">
-            <v>70</v>
+            <v>46</v>
           </cell>
         </row>
       </sheetData>
@@ -1802,21 +1802,21 @@
       <sheetData sheetId="24">
         <row r="6">
           <cell r="D6">
-            <v>41940</v>
+            <v>41943</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="25">
         <row r="6">
           <cell r="D6">
-            <v>41940</v>
+            <v>41943</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="26">
         <row r="6">
           <cell r="D6">
-            <v>41941</v>
+            <v>41946</v>
           </cell>
         </row>
       </sheetData>
@@ -2206,7 +2206,7 @@
       </c>
       <c r="I4" s="96">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>41942</v>
+        <v>41946</v>
       </c>
       <c r="J4" s="55"/>
       <c r="K4" s="1"/>
@@ -2272,7 +2272,7 @@
         <v>66</v>
       </c>
       <c r="I6" s="100">
-        <v>41942.448622685188</v>
+        <v>41946.612361111111</v>
       </c>
       <c r="J6" s="55"/>
       <c r="K6" s="1"/>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="D7" s="60">
         <f>_xll.ohTrigger(Contribution!K3)</f>
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="1"/>
@@ -2309,7 +2309,7 @@
       </c>
       <c r="I7" s="99">
         <f>[1]!TriggerCounter</f>
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="J7" s="55"/>
       <c r="K7" s="1"/>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="D9" s="67">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,"2d","f",,Trigger)</f>
-        <v>41946</v>
+        <v>41948</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="1"/>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="D11" s="15" t="str">
         <f>_xll.qlPiecewiseYieldCurve(,NDays,Calendar,_xll.ohPack(Calculation!A5:A129),DayCounter,,,Accuracy,TraitsID,InterpolatorID)</f>
-        <v>obj_0049a#0001</v>
+        <v>obj_0049a#0002</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="1"/>
@@ -2755,7 +2755,7 @@
       <c r="B22" s="2"/>
       <c r="C22" s="24">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41946</v>
+        <v>41948</v>
       </c>
       <c r="D22" s="25">
         <f>_xll.qlYieldTSDiscount(YieldCurve,C22,,Trigger)</f>
@@ -2788,11 +2788,11 @@
       <c r="B23" s="2"/>
       <c r="C23" s="32">
         <f>MAX(_xll.ohPack(Calculation!D5:D129))</f>
-        <v>42677</v>
+        <v>42681</v>
       </c>
       <c r="D23" s="121">
         <f>_xll.qlYieldTSDiscount(YieldCurve,C23,,Trigger)</f>
-        <v>1.0005688124937937</v>
+        <v>1.000835332744753</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="1"/>
@@ -3800,7 +3800,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -3818,11 +3818,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B1" s="155" t="s">
+      <c r="B1" s="161" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="156"/>
-      <c r="D1" s="157"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="163"/>
       <c r="E1" s="74" t="s">
         <v>56</v>
       </c>
@@ -3868,13 +3868,13 @@
       <c r="I2" s="79">
         <v>1</v>
       </c>
-      <c r="J2" s="158">
+      <c r="J2" s="155">
         <f>_xll.qlRateHelperEarliestDate($F2)</f>
-        <v>41946</v>
-      </c>
-      <c r="K2" s="159">
+        <v>41948</v>
+      </c>
+      <c r="K2" s="156">
         <f>_xll.qlRateHelperLatestDate($F2)</f>
-        <v>41947</v>
+        <v>41949</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3909,11 +3909,11 @@
       <c r="I3" s="83">
         <v>3</v>
       </c>
-      <c r="J3" s="160">
+      <c r="J3" s="157">
         <f>_xll.qlRateHelperEarliestDate($F3)</f>
         <v>41955</v>
       </c>
-      <c r="K3" s="161">
+      <c r="K3" s="158">
         <f>_xll.qlRateHelperLatestDate($F3)</f>
         <v>41983</v>
       </c>
@@ -3951,11 +3951,11 @@
       <c r="I4" s="87">
         <v>3</v>
       </c>
-      <c r="J4" s="162">
+      <c r="J4" s="159">
         <f>_xll.qlRateHelperEarliestDate($F4)</f>
         <v>41983</v>
       </c>
-      <c r="K4" s="163">
+      <c r="K4" s="160">
         <f>_xll.qlRateHelperLatestDate($F4)</f>
         <v>42032</v>
       </c>
@@ -3993,11 +3993,11 @@
       <c r="I5" s="87">
         <v>3</v>
       </c>
-      <c r="J5" s="162">
+      <c r="J5" s="159">
         <f>_xll.qlRateHelperEarliestDate($F5)</f>
         <v>42032</v>
       </c>
-      <c r="K5" s="163">
+      <c r="K5" s="160">
         <f>_xll.qlRateHelperLatestDate($F5)</f>
         <v>42074</v>
       </c>
@@ -4034,11 +4034,11 @@
       <c r="I6" s="87">
         <v>3</v>
       </c>
-      <c r="J6" s="162">
+      <c r="J6" s="159">
         <f>_xll.qlRateHelperEarliestDate($F6)</f>
         <v>42074</v>
       </c>
-      <c r="K6" s="163">
+      <c r="K6" s="160">
         <f>_xll.qlRateHelperLatestDate($F6)</f>
         <v>42116</v>
       </c>
@@ -4075,11 +4075,11 @@
       <c r="I7" s="87">
         <v>3</v>
       </c>
-      <c r="J7" s="162">
+      <c r="J7" s="159">
         <f>_xll.qlRateHelperEarliestDate($F7)</f>
         <v>42116</v>
       </c>
-      <c r="K7" s="163">
+      <c r="K7" s="160">
         <f>_xll.qlRateHelperLatestDate($F7)</f>
         <v>42165</v>
       </c>
@@ -4116,11 +4116,11 @@
       <c r="I8" s="87">
         <v>3</v>
       </c>
-      <c r="J8" s="162">
+      <c r="J8" s="159">
         <f>_xll.qlRateHelperEarliestDate($F8)</f>
         <v>42165</v>
       </c>
-      <c r="K8" s="163">
+      <c r="K8" s="160">
         <f>_xll.qlRateHelperLatestDate($F8)</f>
         <v>42207</v>
       </c>
@@ -4157,11 +4157,11 @@
       <c r="I9" s="87">
         <v>3</v>
       </c>
-      <c r="J9" s="162">
+      <c r="J9" s="159">
         <f>_xll.qlRateHelperEarliestDate($F9)</f>
         <v>42207</v>
       </c>
-      <c r="K9" s="163">
+      <c r="K9" s="160">
         <f>_xll.qlRateHelperLatestDate($F9)</f>
         <v>42256</v>
       </c>
@@ -4198,11 +4198,11 @@
       <c r="I10" s="87">
         <v>3</v>
       </c>
-      <c r="J10" s="162">
+      <c r="J10" s="159">
         <f>_xll.qlRateHelperEarliestDate($F10)</f>
         <v>42256</v>
       </c>
-      <c r="K10" s="163">
+      <c r="K10" s="160">
         <f>_xll.qlRateHelperLatestDate($F10)</f>
         <v>42305</v>
       </c>
@@ -4239,11 +4239,11 @@
       <c r="I11" s="87">
         <v>3</v>
       </c>
-      <c r="J11" s="162">
+      <c r="J11" s="159">
         <f>_xll.qlRateHelperEarliestDate($F11)</f>
         <v>42305</v>
       </c>
-      <c r="K11" s="163">
+      <c r="K11" s="160">
         <f>_xll.qlRateHelperLatestDate($F11)</f>
         <v>42347</v>
       </c>
@@ -4280,11 +4280,11 @@
       <c r="I12" s="87">
         <v>3</v>
       </c>
-      <c r="J12" s="162" t="e">
+      <c r="J12" s="159" t="e">
         <f>_xll.qlRateHelperEarliestDate($F12)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K12" s="163" t="e">
+      <c r="K12" s="160" t="e">
         <f>_xll.qlRateHelperLatestDate($F12)</f>
         <v>#VALUE!</v>
       </c>
@@ -4321,11 +4321,11 @@
       <c r="I13" s="87">
         <v>3</v>
       </c>
-      <c r="J13" s="162" t="e">
+      <c r="J13" s="159" t="e">
         <f>_xll.qlRateHelperEarliestDate($F13)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K13" s="163" t="e">
+      <c r="K13" s="160" t="e">
         <f>_xll.qlRateHelperLatestDate($F13)</f>
         <v>#VALUE!</v>
       </c>
@@ -4357,13 +4357,13 @@
       <c r="I14" s="83">
         <v>1</v>
       </c>
-      <c r="J14" s="160">
+      <c r="J14" s="157">
         <f>_xll.qlRateHelperEarliestDate($F14)</f>
-        <v>41946</v>
-      </c>
-      <c r="K14" s="161">
+        <v>41948</v>
+      </c>
+      <c r="K14" s="158">
         <f>_xll.qlRateHelperLatestDate($F14)</f>
-        <v>41953</v>
+        <v>41955</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -4384,7 +4384,7 @@
         <v>WEUREON2W#0000</v>
       </c>
       <c r="G15" s="87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="87">
         <v>50</v>
@@ -4392,13 +4392,13 @@
       <c r="I15" s="87">
         <v>1</v>
       </c>
-      <c r="J15" s="162">
+      <c r="J15" s="159">
         <f>_xll.qlRateHelperEarliestDate($F15)</f>
-        <v>41946</v>
-      </c>
-      <c r="K15" s="163">
+        <v>41948</v>
+      </c>
+      <c r="K15" s="160">
         <f>_xll.qlRateHelperLatestDate($F15)</f>
-        <v>41960</v>
+        <v>41962</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -4419,7 +4419,7 @@
         <v>WEUREON3W#0000</v>
       </c>
       <c r="G16" s="87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="87">
         <v>50</v>
@@ -4427,13 +4427,13 @@
       <c r="I16" s="87">
         <v>1</v>
       </c>
-      <c r="J16" s="162">
+      <c r="J16" s="159">
         <f>_xll.qlRateHelperEarliestDate($F16)</f>
-        <v>41946</v>
-      </c>
-      <c r="K16" s="163">
+        <v>41948</v>
+      </c>
+      <c r="K16" s="160">
         <f>_xll.qlRateHelperLatestDate($F16)</f>
-        <v>41967</v>
+        <v>41969</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
@@ -4462,13 +4462,13 @@
       <c r="I17" s="87">
         <v>1</v>
       </c>
-      <c r="J17" s="162">
+      <c r="J17" s="159">
         <f>_xll.qlRateHelperEarliestDate($F17)</f>
-        <v>41946</v>
-      </c>
-      <c r="K17" s="163">
+        <v>41948</v>
+      </c>
+      <c r="K17" s="160">
         <f>_xll.qlRateHelperLatestDate($F17)</f>
-        <v>41976</v>
+        <v>41978</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
@@ -4497,11 +4497,11 @@
       <c r="I18" s="87">
         <v>1</v>
       </c>
-      <c r="J18" s="162">
+      <c r="J18" s="159">
         <f>_xll.qlRateHelperEarliestDate($F18)</f>
-        <v>41946</v>
-      </c>
-      <c r="K18" s="163">
+        <v>41948</v>
+      </c>
+      <c r="K18" s="160">
         <f>_xll.qlRateHelperLatestDate($F18)</f>
         <v>42009</v>
       </c>
@@ -4532,13 +4532,13 @@
       <c r="I19" s="87">
         <v>1</v>
       </c>
-      <c r="J19" s="162">
+      <c r="J19" s="159">
         <f>_xll.qlRateHelperEarliestDate($F19)</f>
-        <v>41946</v>
-      </c>
-      <c r="K19" s="163">
+        <v>41948</v>
+      </c>
+      <c r="K19" s="160">
         <f>_xll.qlRateHelperLatestDate($F19)</f>
-        <v>42038</v>
+        <v>42040</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
@@ -4567,13 +4567,13 @@
       <c r="I20" s="87">
         <v>1</v>
       </c>
-      <c r="J20" s="162">
+      <c r="J20" s="159">
         <f>_xll.qlRateHelperEarliestDate($F20)</f>
-        <v>41946</v>
-      </c>
-      <c r="K20" s="163">
+        <v>41948</v>
+      </c>
+      <c r="K20" s="160">
         <f>_xll.qlRateHelperLatestDate($F20)</f>
-        <v>42066</v>
+        <v>42068</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
@@ -4602,11 +4602,11 @@
       <c r="I21" s="87">
         <v>1</v>
       </c>
-      <c r="J21" s="162">
+      <c r="J21" s="159">
         <f>_xll.qlRateHelperEarliestDate($F21)</f>
-        <v>41946</v>
-      </c>
-      <c r="K21" s="163">
+        <v>41948</v>
+      </c>
+      <c r="K21" s="160">
         <f>_xll.qlRateHelperLatestDate($F21)</f>
         <v>42101</v>
       </c>
@@ -4637,13 +4637,13 @@
       <c r="I22" s="87">
         <v>1</v>
       </c>
-      <c r="J22" s="162">
+      <c r="J22" s="159">
         <f>_xll.qlRateHelperEarliestDate($F22)</f>
-        <v>41946</v>
-      </c>
-      <c r="K22" s="163">
+        <v>41948</v>
+      </c>
+      <c r="K22" s="160">
         <f>_xll.qlRateHelperLatestDate($F22)</f>
-        <v>42128</v>
+        <v>42129</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
@@ -4672,13 +4672,13 @@
       <c r="I23" s="87">
         <v>1</v>
       </c>
-      <c r="J23" s="162">
+      <c r="J23" s="159">
         <f>_xll.qlRateHelperEarliestDate($F23)</f>
-        <v>41946</v>
-      </c>
-      <c r="K23" s="163">
+        <v>41948</v>
+      </c>
+      <c r="K23" s="160">
         <f>_xll.qlRateHelperLatestDate($F23)</f>
-        <v>42158</v>
+        <v>42160</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
@@ -4707,13 +4707,13 @@
       <c r="I24" s="87">
         <v>1</v>
       </c>
-      <c r="J24" s="162">
+      <c r="J24" s="159">
         <f>_xll.qlRateHelperEarliestDate($F24)</f>
-        <v>41946</v>
-      </c>
-      <c r="K24" s="163">
+        <v>41948</v>
+      </c>
+      <c r="K24" s="160">
         <f>_xll.qlRateHelperLatestDate($F24)</f>
-        <v>42188</v>
+        <v>42191</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
@@ -4742,13 +4742,13 @@
       <c r="I25" s="87">
         <v>1</v>
       </c>
-      <c r="J25" s="162">
+      <c r="J25" s="159">
         <f>_xll.qlRateHelperEarliestDate($F25)</f>
-        <v>41946</v>
-      </c>
-      <c r="K25" s="163">
+        <v>41948</v>
+      </c>
+      <c r="K25" s="160">
         <f>_xll.qlRateHelperLatestDate($F25)</f>
-        <v>42219</v>
+        <v>42221</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
@@ -4777,13 +4777,13 @@
       <c r="I26" s="87">
         <v>1</v>
       </c>
-      <c r="J26" s="162">
+      <c r="J26" s="159">
         <f>_xll.qlRateHelperEarliestDate($F26)</f>
-        <v>41946</v>
-      </c>
-      <c r="K26" s="163">
+        <v>41948</v>
+      </c>
+      <c r="K26" s="160">
         <f>_xll.qlRateHelperLatestDate($F26)</f>
-        <v>42250</v>
+        <v>42254</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
@@ -4812,11 +4812,11 @@
       <c r="I27" s="87">
         <v>1</v>
       </c>
-      <c r="J27" s="162">
+      <c r="J27" s="159">
         <f>_xll.qlRateHelperEarliestDate($F27)</f>
-        <v>41946</v>
-      </c>
-      <c r="K27" s="163">
+        <v>41948</v>
+      </c>
+      <c r="K27" s="160">
         <f>_xll.qlRateHelperLatestDate($F27)</f>
         <v>42282</v>
       </c>
@@ -4847,13 +4847,13 @@
       <c r="I28" s="87">
         <v>1</v>
       </c>
-      <c r="J28" s="162">
+      <c r="J28" s="159">
         <f>_xll.qlRateHelperEarliestDate($F28)</f>
-        <v>41946</v>
-      </c>
-      <c r="K28" s="163">
+        <v>41948</v>
+      </c>
+      <c r="K28" s="160">
         <f>_xll.qlRateHelperLatestDate($F28)</f>
-        <v>42311</v>
+        <v>42313</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
@@ -4882,13 +4882,13 @@
       <c r="I29" s="87">
         <v>1</v>
       </c>
-      <c r="J29" s="162">
+      <c r="J29" s="159">
         <f>_xll.qlRateHelperEarliestDate($F29)</f>
-        <v>41946</v>
-      </c>
-      <c r="K29" s="163">
+        <v>41948</v>
+      </c>
+      <c r="K29" s="160">
         <f>_xll.qlRateHelperLatestDate($F29)</f>
-        <v>42403</v>
+        <v>42405</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
@@ -4917,13 +4917,13 @@
       <c r="I30" s="87">
         <v>1</v>
       </c>
-      <c r="J30" s="162">
+      <c r="J30" s="159">
         <f>_xll.qlRateHelperEarliestDate($F30)</f>
-        <v>41946</v>
-      </c>
-      <c r="K30" s="163">
+        <v>41948</v>
+      </c>
+      <c r="K30" s="160">
         <f>_xll.qlRateHelperLatestDate($F30)</f>
-        <v>42493</v>
+        <v>42495</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
@@ -4952,13 +4952,13 @@
       <c r="I31" s="87">
         <v>1</v>
       </c>
-      <c r="J31" s="162">
+      <c r="J31" s="159">
         <f>_xll.qlRateHelperEarliestDate($F31)</f>
-        <v>41946</v>
-      </c>
-      <c r="K31" s="163">
+        <v>41948</v>
+      </c>
+      <c r="K31" s="160">
         <f>_xll.qlRateHelperLatestDate($F31)</f>
-        <v>42585</v>
+        <v>42587</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
@@ -4987,13 +4987,13 @@
       <c r="I32" s="87">
         <v>1</v>
       </c>
-      <c r="J32" s="162">
+      <c r="J32" s="159">
         <f>_xll.qlRateHelperEarliestDate($F32)</f>
-        <v>41946</v>
-      </c>
-      <c r="K32" s="163">
+        <v>41948</v>
+      </c>
+      <c r="K32" s="160">
         <f>_xll.qlRateHelperLatestDate($F32)</f>
-        <v>42677</v>
+        <v>42681</v>
       </c>
     </row>
     <row r="33" spans="4:11" x14ac:dyDescent="0.2">
@@ -5057,9 +5057,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:BK130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5139,55 +5137,55 @@
     <row r="1" spans="1:63" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="O1" s="52">
         <f>MAX(O5:O129)</f>
-        <v>0.9999910714707797</v>
+        <v>0.99997916710068535</v>
       </c>
       <c r="S1" s="52">
         <f>MAX(S5:S129)</f>
-        <v>0.99998827940486623</v>
+        <v>0.99998706236885704</v>
       </c>
       <c r="W1" s="52">
         <f>MAX(W5:W129)</f>
-        <v>0.99998918306872864</v>
+        <v>0.99998514551601414</v>
       </c>
       <c r="AA1" s="52">
         <f>MAX(AA5:AA129)</f>
-        <v>0.99998036447809902</v>
+        <v>0.99998316731908776</v>
       </c>
       <c r="AE1" s="52">
         <f>MAX(AE5:AE129)</f>
-        <v>0.99998975467671236</v>
+        <v>0.99998752975462957</v>
       </c>
       <c r="AI1" s="52">
         <f>MAX(AI5:AI129)</f>
-        <v>0.99999014566393485</v>
+        <v>0.99999106179371078</v>
       </c>
       <c r="AM1" s="52">
         <f>MAX(AM5:AM129)</f>
-        <v>0.99999613784092778</v>
+        <v>0.99998204752397246</v>
       </c>
       <c r="AQ1" s="52">
         <f>MAX(AQ5:AQ129)</f>
-        <v>0.99999677787919716</v>
+        <v>0.99998016036305648</v>
       </c>
       <c r="AU1" s="52">
         <f>MAX(AU5:AU129)</f>
-        <v>0.99999412095513629</v>
+        <v>0.99999390271619915</v>
       </c>
       <c r="AY1" s="52">
         <f>MAX(AY5:AY129)</f>
-        <v>0.99999696786400905</v>
+        <v>0.99999882641367421</v>
       </c>
       <c r="BC1" s="52">
         <f>MAX(BC5:BC129)</f>
-        <v>0.99998912398666806</v>
+        <v>0.99999395178591322</v>
       </c>
       <c r="BG1" s="52">
         <f>MAX(BG5:BG129)</f>
-        <v>1</v>
+        <v>0.99999781781146535</v>
       </c>
       <c r="BK1" s="52">
         <f>MAX(BK5:BK129)</f>
-        <v>0.99999035684358739</v>
+        <v>0.99995632402025625</v>
       </c>
     </row>
     <row r="2" spans="1:63" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -5378,7 +5376,7 @@
       <c r="L3" s="101"/>
       <c r="M3" s="118" t="str">
         <f>_xll.qlInterpolation(,FwdInterpolation,_xll.ohFilter($F5:$F129,M5:M129),_xll.ohFilter(J5:J129,M5:M129))</f>
-        <v>obj_0049b#0069</v>
+        <v>obj_0049b#0044</v>
       </c>
       <c r="N3" s="119" t="s">
         <v>70</v>
@@ -5389,7 +5387,7 @@
       <c r="P3" s="109"/>
       <c r="Q3" s="118" t="str">
         <f>_xll.qlInterpolation(,FwdInterpolation,_xll.ohFilter($F5:$F129,Q5:Q129),_xll.ohFilter(N5:N129,Q5:Q129))</f>
-        <v>obj_0049c#0069</v>
+        <v>obj_0049c#0044</v>
       </c>
       <c r="R3" s="119" t="s">
         <v>70</v>
@@ -5400,7 +5398,7 @@
       <c r="T3" s="110"/>
       <c r="U3" s="118" t="str">
         <f>_xll.qlInterpolation(,FwdInterpolation,_xll.ohFilter($F5:$F129,U5:U129),_xll.ohFilter(R5:R129,U5:U129))</f>
-        <v>obj_0049d#0069</v>
+        <v>obj_0049d#0043</v>
       </c>
       <c r="V3" s="119" t="s">
         <v>70</v>
@@ -5411,7 +5409,7 @@
       <c r="X3" s="110"/>
       <c r="Y3" s="118" t="str">
         <f>_xll.qlInterpolation(,FwdInterpolation,_xll.ohFilter($F5:$F129,Y5:Y129),_xll.ohFilter(V5:V129,Y5:Y129))</f>
-        <v>obj_0049e#0069</v>
+        <v>obj_0049e#0042</v>
       </c>
       <c r="Z3" s="119" t="s">
         <v>70</v>
@@ -5422,7 +5420,7 @@
       <c r="AB3" s="110"/>
       <c r="AC3" s="118" t="str">
         <f>_xll.qlInterpolation(,FwdInterpolation,_xll.ohFilter($F5:$F129,AC5:AC129),_xll.ohFilter(Z5:Z129,AC5:AC129))</f>
-        <v>obj_0049f#0069</v>
+        <v>obj_0049f#0042</v>
       </c>
       <c r="AD3" s="119" t="s">
         <v>70</v>
@@ -5433,7 +5431,7 @@
       <c r="AF3" s="110"/>
       <c r="AG3" s="118" t="str">
         <f>_xll.qlInterpolation(,FwdInterpolation,_xll.ohFilter($F5:$F129,AG5:AG129),_xll.ohFilter(AD5:AD129,AG5:AG129))</f>
-        <v>obj_004a0#0069</v>
+        <v>obj_004a0#0042</v>
       </c>
       <c r="AH3" s="119" t="s">
         <v>70</v>
@@ -5444,7 +5442,7 @@
       <c r="AJ3" s="110"/>
       <c r="AK3" s="118" t="str">
         <f>_xll.qlInterpolation(,FwdInterpolation,_xll.ohFilter($F5:$F129,AK5:AK129),_xll.ohFilter(AH5:AH129,AK5:AK129))</f>
-        <v>obj_004a1#0069</v>
+        <v>obj_004a1#0042</v>
       </c>
       <c r="AL3" s="119" t="s">
         <v>70</v>
@@ -5454,7 +5452,7 @@
       </c>
       <c r="AO3" s="118" t="str">
         <f>_xll.qlInterpolation(,FwdInterpolation,_xll.ohFilter($F5:$F129,AO5:AO129),_xll.ohFilter(AL5:AL129,AO5:AO129))</f>
-        <v>obj_004a2#0069</v>
+        <v>obj_004a2#0042</v>
       </c>
       <c r="AP3" s="119" t="s">
         <v>70</v>
@@ -5464,7 +5462,7 @@
       </c>
       <c r="AS3" s="118" t="str">
         <f>_xll.qlInterpolation(,FwdInterpolation,_xll.ohFilter($F5:$F129,AS5:AS129),_xll.ohFilter(AP5:AP129,AS5:AS129))</f>
-        <v>obj_004a3#0069</v>
+        <v>obj_004a3#0042</v>
       </c>
       <c r="AT3" s="119" t="s">
         <v>70</v>
@@ -5474,7 +5472,7 @@
       </c>
       <c r="AW3" s="118" t="str">
         <f>_xll.qlInterpolation(,FwdInterpolation,_xll.ohFilter($F5:$F129,AW5:AW129),_xll.ohFilter(AT5:AT129,AW5:AW129))</f>
-        <v>obj_004a4#0069</v>
+        <v>obj_004a4#0039</v>
       </c>
       <c r="AX3" s="119" t="s">
         <v>70</v>
@@ -5484,7 +5482,7 @@
       </c>
       <c r="BA3" s="118" t="str">
         <f>_xll.qlInterpolation(,FwdInterpolation,_xll.ohFilter($F5:$F129,BA5:BA129),_xll.ohFilter(AX5:AX129,BA5:BA129))</f>
-        <v>obj_004a5#0069</v>
+        <v>obj_004a5#0039</v>
       </c>
       <c r="BB3" s="119" t="s">
         <v>70</v>
@@ -5494,7 +5492,7 @@
       </c>
       <c r="BE3" s="118" t="str">
         <f>_xll.qlInterpolation(,FwdInterpolation,_xll.ohFilter($F5:$F129,BE5:BE129),_xll.ohFilter(BB5:BB129,BE5:BE129))</f>
-        <v>obj_004a6#0069</v>
+        <v>obj_004a6#0038</v>
       </c>
       <c r="BF3" s="119" t="s">
         <v>70</v>
@@ -5504,7 +5502,7 @@
       </c>
       <c r="BI3" s="118" t="str">
         <f>_xll.qlInterpolation(,FwdInterpolation,_xll.ohFilter($F5:$F129,BI5:BI129),_xll.ohFilter(BF5:BF129,BI5:BI129))</f>
-        <v>obj_004a7#0069</v>
+        <v>obj_004a7#0038</v>
       </c>
       <c r="BJ3" s="119" t="s">
         <v>70</v>
@@ -5519,7 +5517,7 @@
       <c r="C4" s="151"/>
       <c r="D4" s="31">
         <f>'General Settings'!C22</f>
-        <v>41946</v>
+        <v>41948</v>
       </c>
       <c r="F4" s="126"/>
       <c r="G4" s="127"/>
@@ -5528,19 +5526,21 @@
       </c>
       <c r="J4" s="146">
         <f t="array" ref="J4:J129">_xll.qlPiecewiseYieldCurveData(YieldCurve,InterestRatesTrigger)</f>
-        <v>-7.0000047631756606E-5</v>
+        <v>-1.8000031499519392E-4</v>
       </c>
       <c r="K4" s="112">
         <f>D4</f>
-        <v>41946</v>
+        <v>41948</v>
       </c>
       <c r="M4" s="107" t="b">
         <v>1</v>
       </c>
-      <c r="N4" s="116"/>
+      <c r="N4" s="116">
+        <v>2.5000000000000001E-3</v>
+      </c>
       <c r="O4" s="117">
         <f>-LN(MAX(O5:O33))/O$2</f>
-        <v>1.0714282895822559E-3</v>
+        <v>2.4999739587011766E-3</v>
       </c>
       <c r="P4" s="109"/>
       <c r="Q4" s="107" t="b">
@@ -5549,7 +5549,7 @@
       <c r="R4" s="116"/>
       <c r="S4" s="117">
         <f>-LN(MAX(S5:S33))/S$2</f>
-        <v>2.1097194876864515E-3</v>
+        <v>2.3287886702700327E-3</v>
       </c>
       <c r="T4" s="110"/>
       <c r="U4" s="107" t="b">
@@ -5558,7 +5558,7 @@
       <c r="V4" s="116"/>
       <c r="W4" s="117">
         <f>-LN(MAX(W5:W33))/W$2</f>
-        <v>1.2980387729742428E-3</v>
+        <v>1.782551317775977E-3</v>
       </c>
       <c r="X4" s="110"/>
       <c r="Y4" s="107" t="b">
@@ -5567,7 +5567,7 @@
       <c r="Z4" s="116"/>
       <c r="AA4" s="117">
         <f>-LN(MAX(AA5:AA33))/AA$2</f>
-        <v>2.3562857616442122E-3</v>
+        <v>2.0199387100080981E-3</v>
       </c>
       <c r="AB4" s="110"/>
       <c r="AC4" s="107" t="b">
@@ -5576,7 +5576,7 @@
       <c r="AD4" s="116"/>
       <c r="AE4" s="117">
         <f>-LN(MAX(AE5:AE33))/AE$2</f>
-        <v>3.6883352776758585E-3</v>
+        <v>4.4893163248520577E-3</v>
       </c>
       <c r="AF4" s="110"/>
       <c r="AG4" s="107" t="b">
@@ -5585,7 +5585,7 @@
       <c r="AH4" s="116"/>
       <c r="AI4" s="117">
         <f>-LN(MAX(AI5:AI33))/AI$2</f>
-        <v>8.8689461574961226E-4</v>
+        <v>8.0444216117031141E-4</v>
       </c>
       <c r="AJ4" s="110"/>
       <c r="AK4" s="107" t="b">
@@ -5594,7 +5594,7 @@
       <c r="AL4" s="116"/>
       <c r="AM4" s="117">
         <f>-LN(MAX(AM5:AM33))/AM$2</f>
-        <v>4.6345998364518423E-4</v>
+        <v>2.1543164610197873E-3</v>
       </c>
       <c r="AO4" s="107" t="b">
         <v>1</v>
@@ -5602,7 +5602,7 @@
       <c r="AP4" s="116"/>
       <c r="AQ4" s="117">
         <f>-LN(MAX(AQ5:AQ33))/AQ$2</f>
-        <v>1.1599653577966235E-3</v>
+        <v>7.1423401506190273E-3</v>
       </c>
       <c r="AS4" s="107" t="b">
         <v>1</v>
@@ -5610,7 +5610,7 @@
       <c r="AT4" s="116"/>
       <c r="AU4" s="117">
         <f>-LN(MAX(AU5:AU33))/AU$2</f>
-        <v>7.0548745744347099E-4</v>
+        <v>7.3167628672377906E-4</v>
       </c>
       <c r="AW4" s="107" t="b">
         <v>1</v>
@@ -5618,7 +5618,7 @@
       <c r="AX4" s="116"/>
       <c r="AY4" s="117">
         <f>-LN(MAX(AY5:AY33))/AY$2</f>
-        <v>1.0915706116397768E-3</v>
+        <v>4.2249132519827417E-4</v>
       </c>
       <c r="BA4" s="107" t="b">
         <v>1</v>
@@ -5626,7 +5626,7 @@
       <c r="BB4" s="116"/>
       <c r="BC4" s="117">
         <f>-LN(MAX(BC5:BC33))/BC$2</f>
-        <v>3.9153860914325385E-3</v>
+        <v>2.1773636558298521E-3</v>
       </c>
       <c r="BE4" s="107" t="b">
         <v>1</v>
@@ -5634,7 +5634,7 @@
       <c r="BF4" s="116"/>
       <c r="BG4" s="117">
         <f>-LN(MAX(BG5:BG33))/BG$2</f>
-        <v>0</v>
+        <v>2.6186290987517284E-4</v>
       </c>
       <c r="BI4" s="107" t="b">
         <v>1</v>
@@ -5642,7 +5642,7 @@
       <c r="BJ4" s="116"/>
       <c r="BK4" s="117">
         <f>-LN(MAX(BK5:BK33))/BK$2</f>
-        <v>8.6788826173263777E-4</v>
+        <v>3.9309240210414782E-3</v>
       </c>
     </row>
     <row r="5" spans="1:63" x14ac:dyDescent="0.2">
@@ -5652,19 +5652,19 @@
       </c>
       <c r="B5" s="27">
         <f>_xll.qlRateHelperRate($A5,InterestRatesTrigger)</f>
-        <v>-7.0000000000000021E-5</v>
+        <v>-1.7999999999999996E-4</v>
       </c>
       <c r="C5" s="30">
         <f>_xll.qlRateHelperEarliestDate($A5)</f>
-        <v>41946</v>
+        <v>41948</v>
       </c>
       <c r="D5" s="31">
         <f>_xll.qlRateHelperLatestDate($A5)</f>
-        <v>41953</v>
+        <v>41955</v>
       </c>
       <c r="F5" s="122">
         <f t="shared" ref="F5:F30" si="0">IF(ISERROR(D5),NA(),(D5-D4)/2+D4)</f>
-        <v>41949.5</v>
+        <v>41951.5</v>
       </c>
       <c r="G5" s="123">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D4,D5)</f>
@@ -5676,11 +5676,11 @@
         <v>1</v>
       </c>
       <c r="J5" s="146">
-        <v>-7.0000047631756606E-5</v>
+        <v>-1.8000031499519392E-4</v>
       </c>
       <c r="K5" s="112">
         <f>D5</f>
-        <v>41953</v>
+        <v>41955</v>
       </c>
       <c r="L5" s="101"/>
       <c r="M5" s="107" t="b">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="N5" s="103">
         <f>IF(AND(NOT(ISBLANK(N$4)),AND(NOT(M5),AND(M$4:M4))),($J5*$G5-LN(1+N$4*O$2))/$G5,_xll.qlInterpolationInterpolate(M$3,$F5,TRUE))</f>
-        <v>-7.0000047631756606E-5</v>
+        <v>-1.8000031499519392E-4</v>
       </c>
       <c r="O5" s="108" t="str">
         <f>IF(AND(NOT(M5),AND(M$4:M4)),MIN(EXP((N5-$J5)*$G5),1),"")</f>
@@ -5702,7 +5702,7 @@
       </c>
       <c r="R5" s="103">
         <f>IF(AND(NOT(ISBLANK(R$4)),AND(NOT(Q5),AND(Q$4:Q4))),($J5*$G5-LN(1+R$4*S$2))/$G5,_xll.qlInterpolationInterpolate(Q$3,$F5,TRUE))</f>
-        <v>-7.0000047631756606E-5</v>
+        <v>-1.8000031499519392E-4</v>
       </c>
       <c r="S5" s="108" t="str">
         <f>IF(AND(NOT(Q5),AND(Q$4:Q4)),MIN(EXP((R5-$J5)*$G5),1),"")</f>
@@ -5715,7 +5715,7 @@
       </c>
       <c r="V5" s="103">
         <f>IF(AND(NOT(ISBLANK(V$4)),AND(NOT(U5),AND(U$4:U4))),($J5*$G5-LN(1+V$4*W$2))/$G5,_xll.qlInterpolationInterpolate(U$3,$F5,TRUE))</f>
-        <v>-7.0000047631756606E-5</v>
+        <v>-1.8000031499519392E-4</v>
       </c>
       <c r="W5" s="108" t="str">
         <f>IF(AND(NOT(U5),AND(U$4:U4)),MIN(EXP((V5-$J5)*$G5),1),"")</f>
@@ -5728,7 +5728,7 @@
       </c>
       <c r="Z5" s="103">
         <f>IF(AND(NOT(ISBLANK(Z$4)),AND(NOT(Y5),AND(Y$4:Y4))),($J5*$G5-LN(1+Z$4*AA$2))/$G5,_xll.qlInterpolationInterpolate(Y$3,$F5,TRUE))</f>
-        <v>-7.0000047631756606E-5</v>
+        <v>-1.8000031499519392E-4</v>
       </c>
       <c r="AA5" s="108" t="str">
         <f>IF(AND(NOT(Y5),AND(Y$4:Y4)),MIN(EXP((Z5-$J5)*$G5),1),"")</f>
@@ -5741,7 +5741,7 @@
       </c>
       <c r="AD5" s="103">
         <f>IF(AND(NOT(ISBLANK(AD$4)),AND(NOT(AC5),AND(AC$4:AC4))),($J5*$G5-LN(1+AD$4*AE$2))/$G5,_xll.qlInterpolationInterpolate(AC$3,$F5,TRUE))</f>
-        <v>-7.0000047631756606E-5</v>
+        <v>-1.8000031499519392E-4</v>
       </c>
       <c r="AE5" s="108" t="str">
         <f>IF(AND(NOT(AC5),AND(AC$4:AC4)),MIN(EXP((AD5-$J5)*$G5),1),"")</f>
@@ -5754,7 +5754,7 @@
       </c>
       <c r="AH5" s="103">
         <f>IF(AND(NOT(ISBLANK(AH$4)),AND(NOT(AG5),AND(AG$4:AG4))),($J5*$G5-LN(1+AH$4*AI$2))/$G5,_xll.qlInterpolationInterpolate(AG$3,$F5,TRUE))</f>
-        <v>-7.0000047631756606E-5</v>
+        <v>-1.8000031499519392E-4</v>
       </c>
       <c r="AI5" s="108" t="str">
         <f>IF(AND(NOT(AG5),AND(AG$4:AG4)),MIN(EXP((AH5-$J5)*$G5),1),"")</f>
@@ -5767,7 +5767,7 @@
       </c>
       <c r="AL5" s="103">
         <f>IF(AND(NOT(ISBLANK(AL$4)),AND(NOT(AK5),AND(AK$4:AK4))),($J5*$G5-LN(1+AL$4*AM$2))/$G5,_xll.qlInterpolationInterpolate(AK$3,$F5,TRUE))</f>
-        <v>-7.0000047631756606E-5</v>
+        <v>-1.8000031499519392E-4</v>
       </c>
       <c r="AM5" s="108" t="str">
         <f>IF(AND(NOT(AK5),AND(AK$4:AK4)),MIN(EXP((AL5-$J5)*$G5),1),"")</f>
@@ -5779,7 +5779,7 @@
       </c>
       <c r="AP5" s="103">
         <f>IF(AND(NOT(ISBLANK(AP$4)),AND(NOT(AO5),AND(AO$4:AO4))),($J5*$G5-LN(1+AP$4*AQ$2))/$G5,_xll.qlInterpolationInterpolate(AO$3,$F5,TRUE))</f>
-        <v>-7.0000047631756606E-5</v>
+        <v>-1.8000031499519392E-4</v>
       </c>
       <c r="AQ5" s="108" t="str">
         <f>IF(AND(NOT(AO5),AND(AO$4:AO4)),MIN(EXP((AP5-$J5)*$G5),1),"")</f>
@@ -5791,7 +5791,7 @@
       </c>
       <c r="AT5" s="103">
         <f>IF(AND(NOT(ISBLANK(AT$4)),AND(NOT(AS5),AND(AS$4:AS4))),($J5*$G5-LN(1+AT$4*AU$2))/$G5,_xll.qlInterpolationInterpolate(AS$3,$F5,TRUE))</f>
-        <v>-7.0000047631756606E-5</v>
+        <v>-1.8000031499519392E-4</v>
       </c>
       <c r="AU5" s="108" t="str">
         <f>IF(AND(NOT(AS5),AND(AS$4:AS4)),MIN(EXP((AT5-$J5)*$G5),1),"")</f>
@@ -5803,7 +5803,7 @@
       </c>
       <c r="AX5" s="103">
         <f>IF(AND(NOT(ISBLANK(AX$4)),AND(NOT(AW5),AND(AW$4:AW4))),($J5*$G5-LN(1+AX$4*AY$2))/$G5,_xll.qlInterpolationInterpolate(AW$3,$F5,TRUE))</f>
-        <v>-7.0000047631756606E-5</v>
+        <v>-1.8000031499519392E-4</v>
       </c>
       <c r="AY5" s="108" t="str">
         <f>IF(AND(NOT(AW5),AND(AW$4:AW4)),MIN(EXP((AX5-$J5)*$G5),1),"")</f>
@@ -5815,7 +5815,7 @@
       </c>
       <c r="BB5" s="103">
         <f>IF(AND(NOT(ISBLANK(BB$4)),AND(NOT(BA5),AND(BA$4:BA4))),($J5*$G5-LN(1+BB$4*BC$2))/$G5,_xll.qlInterpolationInterpolate(BA$3,$F5,TRUE))</f>
-        <v>-7.0000047631756606E-5</v>
+        <v>-1.8000031499519392E-4</v>
       </c>
       <c r="BC5" s="108" t="str">
         <f>IF(AND(NOT(BA5),AND(BA$4:BA4)),MIN(EXP((BB5-$J5)*$G5),1),"")</f>
@@ -5827,19 +5827,19 @@
       </c>
       <c r="BF5" s="103">
         <f>IF(AND(NOT(ISBLANK(BF$4)),AND(NOT(BE5),AND(BE$4:BE4))),($J5*$G5-LN(1+BF$4*BG$2))/$G5,_xll.qlInterpolationInterpolate(BE$3,$F5,TRUE))</f>
-        <v>-7.0000047631756606E-5</v>
+        <v>-1.8000031499519392E-4</v>
       </c>
       <c r="BG5" s="108" t="str">
         <f>IF(AND(NOT(BE5),AND(BE$4:BE4)),MIN(EXP((BF5-$J5)*$G5),1),"")</f>
         <v/>
       </c>
       <c r="BI5" s="107" t="b">
-        <f>IF(AND(NOT(BE5),AND(BE$4:BE4)),TRUE,BE5)</f>
+        <f>IF(ISERROR(K5),FALSE,IF(YEAR(K5)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>1</v>
       </c>
       <c r="BJ5" s="103">
         <f>IF(AND(NOT(ISBLANK(BJ$4)),AND(NOT(BI5),AND(BI$4:BI4))),($J5*$G5-LN(1+BJ$4*BK$2))/$G5,_xll.qlInterpolationInterpolate(BI$3,$F5,TRUE))</f>
-        <v>-7.0000047631756606E-5</v>
+        <v>-1.8000031499519392E-4</v>
       </c>
       <c r="BK5" s="108" t="str">
         <f>IF(AND(NOT(BI5),AND(BI$4:BI4)),MIN(EXP((BJ5-$J5)*$G5),1),"")</f>
@@ -5848,52 +5848,52 @@
     </row>
     <row r="6" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A6" s="95" t="str">
-        <v>WEUREON2W</v>
+        <v>WEUREON1M</v>
       </c>
       <c r="B6" s="27">
         <f>_xll.qlRateHelperRate($A6,InterestRatesTrigger)</f>
-        <v>-6.0000000000000022E-5</v>
+        <v>3.9999999999999983E-5</v>
       </c>
       <c r="C6" s="30">
         <f>_xll.qlRateHelperEarliestDate($A6)</f>
-        <v>41946</v>
+        <v>41948</v>
       </c>
       <c r="D6" s="31">
         <f>_xll.qlRateHelperLatestDate($A6)</f>
-        <v>41960</v>
+        <v>41978</v>
       </c>
       <c r="F6" s="122">
         <f t="shared" si="0"/>
-        <v>41956.5</v>
+        <v>41966.5</v>
       </c>
       <c r="G6" s="123">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D5,D6)</f>
-        <v>1.9444444444444445E-2</v>
+        <v>6.3888888888888884E-2</v>
       </c>
       <c r="H6" s="28"/>
       <c r="I6" s="147" t="b">
         <f t="shared" ref="I6:I69" si="1">IF(ISERROR(K6),FALSE,IF(OR(MONTH(K6)-MONTH(K5)=1,YEAR(K6)-YEAR(K5)=1),FALSE,TRUE))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="146">
-        <v>-5.0000092369626104E-5</v>
+        <v>1.0695653065265311E-4</v>
       </c>
       <c r="K6" s="112">
         <f t="shared" ref="K6:K69" si="2">D6</f>
-        <v>41960</v>
+        <v>41978</v>
       </c>
       <c r="L6" s="101"/>
       <c r="M6" s="107" t="b">
         <f>IF(AND(NOT(I6),AND(I$4:I5)),TRUE,I6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="103">
         <f>IF(AND(NOT(ISBLANK(N$4)),AND(NOT(M6),AND(M$4:M5))),($J6*$G6-LN(1+N$4*O$2))/$G6,_xll.qlInterpolationInterpolate(M$3,$F6,TRUE))</f>
-        <v>-5.0000092369626104E-5</v>
-      </c>
-      <c r="O6" s="108" t="str">
+        <v>-2.191270291775303E-4</v>
+      </c>
+      <c r="O6" s="108">
         <f>IF(AND(NOT(M6),AND(M$4:M5)),MIN(EXP((N6-$J6)*$G6),1),"")</f>
-        <v/>
+        <v>0.99997916710068535</v>
       </c>
       <c r="P6" s="110"/>
       <c r="Q6" s="107" t="b">
@@ -5902,7 +5902,7 @@
       </c>
       <c r="R6" s="103">
         <f>IF(AND(NOT(ISBLANK(R$4)),AND(NOT(Q6),AND(Q$4:Q5))),($J6*$G6-LN(1+R$4*S$2))/$G6,_xll.qlInterpolationInterpolate(Q$3,$F6,TRUE))</f>
-        <v>-5.0000092369626104E-5</v>
+        <v>-2.191270291775303E-4</v>
       </c>
       <c r="S6" s="108" t="str">
         <f>IF(AND(NOT(Q6),AND(Q$4:Q5)),MIN(EXP((R6-$J6)*$G6),1),"")</f>
@@ -5915,7 +5915,7 @@
       </c>
       <c r="V6" s="103">
         <f>IF(AND(NOT(ISBLANK(V$4)),AND(NOT(U6),AND(U$4:U5))),($J6*$G6-LN(1+V$4*W$2))/$G6,_xll.qlInterpolationInterpolate(U$3,$F6,TRUE))</f>
-        <v>-5.0000092369626104E-5</v>
+        <v>-2.191270291775303E-4</v>
       </c>
       <c r="W6" s="108" t="str">
         <f>IF(AND(NOT(U6),AND(U$4:U5)),MIN(EXP((V6-$J6)*$G6),1),"")</f>
@@ -5928,7 +5928,7 @@
       </c>
       <c r="Z6" s="103">
         <f>IF(AND(NOT(ISBLANK(Z$4)),AND(NOT(Y6),AND(Y$4:Y5))),($J6*$G6-LN(1+Z$4*AA$2))/$G6,_xll.qlInterpolationInterpolate(Y$3,$F6,TRUE))</f>
-        <v>-5.0000092369626104E-5</v>
+        <v>-2.191270291775303E-4</v>
       </c>
       <c r="AA6" s="108" t="str">
         <f>IF(AND(NOT(Y6),AND(Y$4:Y5)),MIN(EXP((Z6-$J6)*$G6),1),"")</f>
@@ -5941,7 +5941,7 @@
       </c>
       <c r="AD6" s="103">
         <f>IF(AND(NOT(ISBLANK(AD$4)),AND(NOT(AC6),AND(AC$4:AC5))),($J6*$G6-LN(1+AD$4*AE$2))/$G6,_xll.qlInterpolationInterpolate(AC$3,$F6,TRUE))</f>
-        <v>-5.0000092369626104E-5</v>
+        <v>-2.191270291775303E-4</v>
       </c>
       <c r="AE6" s="108" t="str">
         <f>IF(AND(NOT(AC6),AND(AC$4:AC5)),MIN(EXP((AD6-$J6)*$G6),1),"")</f>
@@ -5954,7 +5954,7 @@
       </c>
       <c r="AH6" s="103">
         <f>IF(AND(NOT(ISBLANK(AH$4)),AND(NOT(AG6),AND(AG$4:AG5))),($J6*$G6-LN(1+AH$4*AI$2))/$G6,_xll.qlInterpolationInterpolate(AG$3,$F6,TRUE))</f>
-        <v>-5.0000092369626104E-5</v>
+        <v>-2.191270291775303E-4</v>
       </c>
       <c r="AI6" s="108" t="str">
         <f>IF(AND(NOT(AG6),AND(AG$4:AG5)),MIN(EXP((AH6-$J6)*$G6),1),"")</f>
@@ -5967,7 +5967,7 @@
       </c>
       <c r="AL6" s="103">
         <f>IF(AND(NOT(ISBLANK(AL$4)),AND(NOT(AK6),AND(AK$4:AK5))),($J6*$G6-LN(1+AL$4*AM$2))/$G6,_xll.qlInterpolationInterpolate(AK$3,$F6,TRUE))</f>
-        <v>-5.0000092369626104E-5</v>
+        <v>-2.191270291775303E-4</v>
       </c>
       <c r="AM6" s="108" t="str">
         <f>IF(AND(NOT(AK6),AND(AK$4:AK5)),MIN(EXP((AL6-$J6)*$G6),1),"")</f>
@@ -5979,7 +5979,7 @@
       </c>
       <c r="AP6" s="103">
         <f>IF(AND(NOT(ISBLANK(AP$4)),AND(NOT(AO6),AND(AO$4:AO5))),($J6*$G6-LN(1+AP$4*AQ$2))/$G6,_xll.qlInterpolationInterpolate(AO$3,$F6,TRUE))</f>
-        <v>-5.0000092369626104E-5</v>
+        <v>-2.191270291775303E-4</v>
       </c>
       <c r="AQ6" s="108" t="str">
         <f>IF(AND(NOT(AO6),AND(AO$4:AO5)),MIN(EXP((AP6-$J6)*$G6),1),"")</f>
@@ -5991,7 +5991,7 @@
       </c>
       <c r="AT6" s="103">
         <f>IF(AND(NOT(ISBLANK(AT$4)),AND(NOT(AS6),AND(AS$4:AS5))),($J6*$G6-LN(1+AT$4*AU$2))/$G6,_xll.qlInterpolationInterpolate(AS$3,$F6,TRUE))</f>
-        <v>-5.0000092369626104E-5</v>
+        <v>-2.191270291775303E-4</v>
       </c>
       <c r="AU6" s="108" t="str">
         <f>IF(AND(NOT(AS6),AND(AS$4:AS5)),MIN(EXP((AT6-$J6)*$G6),1),"")</f>
@@ -6003,7 +6003,7 @@
       </c>
       <c r="AX6" s="103">
         <f>IF(AND(NOT(ISBLANK(AX$4)),AND(NOT(AW6),AND(AW$4:AW5))),($J6*$G6-LN(1+AX$4*AY$2))/$G6,_xll.qlInterpolationInterpolate(AW$3,$F6,TRUE))</f>
-        <v>-5.0000092369626104E-5</v>
+        <v>-2.191270291775303E-4</v>
       </c>
       <c r="AY6" s="108" t="str">
         <f>IF(AND(NOT(AW6),AND(AW$4:AW5)),MIN(EXP((AX6-$J6)*$G6),1),"")</f>
@@ -6015,7 +6015,7 @@
       </c>
       <c r="BB6" s="103">
         <f>IF(AND(NOT(ISBLANK(BB$4)),AND(NOT(BA6),AND(BA$4:BA5))),($J6*$G6-LN(1+BB$4*BC$2))/$G6,_xll.qlInterpolationInterpolate(BA$3,$F6,TRUE))</f>
-        <v>-5.0000092369626104E-5</v>
+        <v>-2.191270291775303E-4</v>
       </c>
       <c r="BC6" s="108" t="str">
         <f>IF(AND(NOT(BA6),AND(BA$4:BA5)),MIN(EXP((BB6-$J6)*$G6),1),"")</f>
@@ -6027,19 +6027,19 @@
       </c>
       <c r="BF6" s="103">
         <f>IF(AND(NOT(ISBLANK(BF$4)),AND(NOT(BE6),AND(BE$4:BE5))),($J6*$G6-LN(1+BF$4*BG$2))/$G6,_xll.qlInterpolationInterpolate(BE$3,$F6,TRUE))</f>
-        <v>-5.0000092369626104E-5</v>
+        <v>-2.191270291775303E-4</v>
       </c>
       <c r="BG6" s="108" t="str">
         <f>IF(AND(NOT(BE6),AND(BE$4:BE5)),MIN(EXP((BF6-$J6)*$G6),1),"")</f>
         <v/>
       </c>
       <c r="BI6" s="107" t="b">
-        <f>IF(AND(NOT(BE6),AND(BE$4:BE5)),TRUE,BE6)</f>
+        <f>IF(ISERROR(K6),FALSE,IF(YEAR(K6)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>1</v>
       </c>
       <c r="BJ6" s="103">
         <f>IF(AND(NOT(ISBLANK(BJ$4)),AND(NOT(BI6),AND(BI$4:BI5))),($J6*$G6-LN(1+BJ$4*BK$2))/$G6,_xll.qlInterpolationInterpolate(BI$3,$F6,TRUE))</f>
-        <v>-5.0000092369626104E-5</v>
+        <v>-2.191270291775303E-4</v>
       </c>
       <c r="BK6" s="108" t="str">
         <f>IF(AND(NOT(BI6),AND(BI$4:BI5)),MIN(EXP((BJ6-$J6)*$G6),1),"")</f>
@@ -6048,38 +6048,38 @@
     </row>
     <row r="7" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A7" s="95" t="str">
-        <v>WEUREON3W</v>
+        <v>WEURECBOISNOV14</v>
       </c>
       <c r="B7" s="27">
         <f>_xll.qlRateHelperRate($A7,InterestRatesTrigger)</f>
-        <v>-5.0000000000000009E-5</v>
+        <v>7.9999999999999979E-5</v>
       </c>
       <c r="C7" s="30">
         <f>_xll.qlRateHelperEarliestDate($A7)</f>
-        <v>41946</v>
+        <v>41955</v>
       </c>
       <c r="D7" s="31">
         <f>_xll.qlRateHelperLatestDate($A7)</f>
-        <v>41967</v>
+        <v>41983</v>
       </c>
       <c r="F7" s="122">
         <f t="shared" si="0"/>
-        <v>41963.5</v>
+        <v>41980.5</v>
       </c>
       <c r="G7" s="123">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D6,D7)</f>
-        <v>1.9444444444444445E-2</v>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="I7" s="147" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J7" s="146">
-        <v>-3.0000078752823423E-5</v>
+        <v>-4.4001434779460482E-5</v>
       </c>
       <c r="K7" s="112">
         <f t="shared" si="2"/>
-        <v>41967</v>
+        <v>41983</v>
       </c>
       <c r="L7" s="101"/>
       <c r="M7" s="107" t="b">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="N7" s="103">
         <f>IF(AND(NOT(ISBLANK(N$4)),AND(NOT(M7),AND(M$4:M6))),($J7*$G7-LN(1+N$4*O$2))/$G7,_xll.qlInterpolationInterpolate(M$3,$F7,TRUE))</f>
-        <v>-3.0000078752823423E-5</v>
+        <v>-4.4001434779460482E-5</v>
       </c>
       <c r="O7" s="108" t="str">
         <f>IF(AND(NOT(M7),AND(M$4:M6)),MIN(EXP((N7-$J7)*$G7),1),"")</f>
@@ -6101,7 +6101,7 @@
       </c>
       <c r="R7" s="103">
         <f>IF(AND(NOT(ISBLANK(R$4)),AND(NOT(Q7),AND(Q$4:Q6))),($J7*$G7-LN(1+R$4*S$2))/$G7,_xll.qlInterpolationInterpolate(Q$3,$F7,TRUE))</f>
-        <v>-3.0000078752823423E-5</v>
+        <v>-4.4001434779460482E-5</v>
       </c>
       <c r="S7" s="108" t="str">
         <f>IF(AND(NOT(Q7),AND(Q$4:Q6)),MIN(EXP((R7-$J7)*$G7),1),"")</f>
@@ -6114,7 +6114,7 @@
       </c>
       <c r="V7" s="103">
         <f>IF(AND(NOT(ISBLANK(V$4)),AND(NOT(U7),AND(U$4:U6))),($J7*$G7-LN(1+V$4*W$2))/$G7,_xll.qlInterpolationInterpolate(U$3,$F7,TRUE))</f>
-        <v>-3.0000078752823423E-5</v>
+        <v>-4.4001434779460482E-5</v>
       </c>
       <c r="W7" s="108" t="str">
         <f>IF(AND(NOT(U7),AND(U$4:U6)),MIN(EXP((V7-$J7)*$G7),1),"")</f>
@@ -6127,7 +6127,7 @@
       </c>
       <c r="Z7" s="103">
         <f>IF(AND(NOT(ISBLANK(Z$4)),AND(NOT(Y7),AND(Y$4:Y6))),($J7*$G7-LN(1+Z$4*AA$2))/$G7,_xll.qlInterpolationInterpolate(Y$3,$F7,TRUE))</f>
-        <v>-3.0000078752823423E-5</v>
+        <v>-4.4001434779460482E-5</v>
       </c>
       <c r="AA7" s="108" t="str">
         <f>IF(AND(NOT(Y7),AND(Y$4:Y6)),MIN(EXP((Z7-$J7)*$G7),1),"")</f>
@@ -6140,7 +6140,7 @@
       </c>
       <c r="AD7" s="103">
         <f>IF(AND(NOT(ISBLANK(AD$4)),AND(NOT(AC7),AND(AC$4:AC6))),($J7*$G7-LN(1+AD$4*AE$2))/$G7,_xll.qlInterpolationInterpolate(AC$3,$F7,TRUE))</f>
-        <v>-3.0000078752823423E-5</v>
+        <v>-4.4001434779460482E-5</v>
       </c>
       <c r="AE7" s="108" t="str">
         <f>IF(AND(NOT(AC7),AND(AC$4:AC6)),MIN(EXP((AD7-$J7)*$G7),1),"")</f>
@@ -6153,7 +6153,7 @@
       </c>
       <c r="AH7" s="103">
         <f>IF(AND(NOT(ISBLANK(AH$4)),AND(NOT(AG7),AND(AG$4:AG6))),($J7*$G7-LN(1+AH$4*AI$2))/$G7,_xll.qlInterpolationInterpolate(AG$3,$F7,TRUE))</f>
-        <v>-3.0000078752823423E-5</v>
+        <v>-4.4001434779460482E-5</v>
       </c>
       <c r="AI7" s="108" t="str">
         <f>IF(AND(NOT(AG7),AND(AG$4:AG6)),MIN(EXP((AH7-$J7)*$G7),1),"")</f>
@@ -6166,7 +6166,7 @@
       </c>
       <c r="AL7" s="103">
         <f>IF(AND(NOT(ISBLANK(AL$4)),AND(NOT(AK7),AND(AK$4:AK6))),($J7*$G7-LN(1+AL$4*AM$2))/$G7,_xll.qlInterpolationInterpolate(AK$3,$F7,TRUE))</f>
-        <v>-3.0000078752823423E-5</v>
+        <v>-4.4001434779460482E-5</v>
       </c>
       <c r="AM7" s="108" t="str">
         <f>IF(AND(NOT(AK7),AND(AK$4:AK6)),MIN(EXP((AL7-$J7)*$G7),1),"")</f>
@@ -6178,7 +6178,7 @@
       </c>
       <c r="AP7" s="103">
         <f>IF(AND(NOT(ISBLANK(AP$4)),AND(NOT(AO7),AND(AO$4:AO6))),($J7*$G7-LN(1+AP$4*AQ$2))/$G7,_xll.qlInterpolationInterpolate(AO$3,$F7,TRUE))</f>
-        <v>-3.0000078752823423E-5</v>
+        <v>-4.4001434779460482E-5</v>
       </c>
       <c r="AQ7" s="108" t="str">
         <f>IF(AND(NOT(AO7),AND(AO$4:AO6)),MIN(EXP((AP7-$J7)*$G7),1),"")</f>
@@ -6190,7 +6190,7 @@
       </c>
       <c r="AT7" s="103">
         <f>IF(AND(NOT(ISBLANK(AT$4)),AND(NOT(AS7),AND(AS$4:AS6))),($J7*$G7-LN(1+AT$4*AU$2))/$G7,_xll.qlInterpolationInterpolate(AS$3,$F7,TRUE))</f>
-        <v>-3.0000078752823423E-5</v>
+        <v>-4.4001434779460482E-5</v>
       </c>
       <c r="AU7" s="108" t="str">
         <f>IF(AND(NOT(AS7),AND(AS$4:AS6)),MIN(EXP((AT7-$J7)*$G7),1),"")</f>
@@ -6202,7 +6202,7 @@
       </c>
       <c r="AX7" s="103">
         <f>IF(AND(NOT(ISBLANK(AX$4)),AND(NOT(AW7),AND(AW$4:AW6))),($J7*$G7-LN(1+AX$4*AY$2))/$G7,_xll.qlInterpolationInterpolate(AW$3,$F7,TRUE))</f>
-        <v>-3.0000078752823423E-5</v>
+        <v>-4.4001434779460482E-5</v>
       </c>
       <c r="AY7" s="108" t="str">
         <f>IF(AND(NOT(AW7),AND(AW$4:AW6)),MIN(EXP((AX7-$J7)*$G7),1),"")</f>
@@ -6214,7 +6214,7 @@
       </c>
       <c r="BB7" s="103">
         <f>IF(AND(NOT(ISBLANK(BB$4)),AND(NOT(BA7),AND(BA$4:BA6))),($J7*$G7-LN(1+BB$4*BC$2))/$G7,_xll.qlInterpolationInterpolate(BA$3,$F7,TRUE))</f>
-        <v>-3.0000078752823423E-5</v>
+        <v>-4.4001434779460482E-5</v>
       </c>
       <c r="BC7" s="108" t="str">
         <f>IF(AND(NOT(BA7),AND(BA$4:BA6)),MIN(EXP((BB7-$J7)*$G7),1),"")</f>
@@ -6226,19 +6226,19 @@
       </c>
       <c r="BF7" s="103">
         <f>IF(AND(NOT(ISBLANK(BF$4)),AND(NOT(BE7),AND(BE$4:BE6))),($J7*$G7-LN(1+BF$4*BG$2))/$G7,_xll.qlInterpolationInterpolate(BE$3,$F7,TRUE))</f>
-        <v>-3.0000078752823423E-5</v>
+        <v>-4.4001434779460482E-5</v>
       </c>
       <c r="BG7" s="108" t="str">
         <f>IF(AND(NOT(BE7),AND(BE$4:BE6)),MIN(EXP((BF7-$J7)*$G7),1),"")</f>
         <v/>
       </c>
       <c r="BI7" s="107" t="b">
-        <f>IF(AND(NOT(BE7),AND(BE$4:BE6)),TRUE,BE7)</f>
+        <f>IF(ISERROR(K7),FALSE,IF(YEAR(K7)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>1</v>
       </c>
       <c r="BJ7" s="103">
         <f>IF(AND(NOT(ISBLANK(BJ$4)),AND(NOT(BI7),AND(BI$4:BI6))),($J7*$G7-LN(1+BJ$4*BK$2))/$G7,_xll.qlInterpolationInterpolate(BI$3,$F7,TRUE))</f>
-        <v>-3.0000078752823423E-5</v>
+        <v>-4.4001434779460482E-5</v>
       </c>
       <c r="BK7" s="108" t="str">
         <f>IF(AND(NOT(BI7),AND(BI$4:BI6)),MIN(EXP((BJ7-$J7)*$G7),1),"")</f>
@@ -6247,38 +6247,38 @@
     </row>
     <row r="8" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A8" s="95" t="str">
-        <v>WEUREON1M</v>
+        <v>WEUREON2M</v>
       </c>
       <c r="B8" s="27">
         <f>_xll.qlRateHelperRate($A8,InterestRatesTrigger)</f>
-        <v>7.0000000000000007E-5</v>
+        <v>0</v>
       </c>
       <c r="C8" s="30">
         <f>_xll.qlRateHelperEarliestDate($A8)</f>
-        <v>41946</v>
+        <v>41948</v>
       </c>
       <c r="D8" s="31">
         <f>_xll.qlRateHelperLatestDate($A8)</f>
-        <v>41976</v>
+        <v>42009</v>
       </c>
       <c r="F8" s="122">
         <f t="shared" si="0"/>
-        <v>41971.5</v>
+        <v>41996</v>
       </c>
       <c r="G8" s="123">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D7,D8)</f>
-        <v>2.5000000000000001E-2</v>
+        <v>7.2222222222222215E-2</v>
       </c>
       <c r="I8" s="147" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J8" s="146">
-        <v>3.4999948946450802E-4</v>
+        <v>-3.7691954849331156E-5</v>
       </c>
       <c r="K8" s="112">
         <f t="shared" si="2"/>
-        <v>41976</v>
+        <v>42009</v>
       </c>
       <c r="L8" s="101"/>
       <c r="M8" s="107" t="b">
@@ -6287,24 +6287,24 @@
       </c>
       <c r="N8" s="103">
         <f>IF(AND(NOT(ISBLANK(N$4)),AND(NOT(M8),AND(M$4:M7))),($J8*$G8-LN(1+N$4*O$2))/$G8,_xll.qlInterpolationInterpolate(M$3,$F8,TRUE))</f>
-        <v>-7.1432737277854799E-6</v>
-      </c>
-      <c r="O8" s="108">
+        <v>-2.1682954486977691E-4</v>
+      </c>
+      <c r="O8" s="108" t="str">
         <f>IF(AND(NOT(M8),AND(M$4:M7)),MIN(EXP((N8-$J8)*$G8),1),"")</f>
-        <v>0.9999910714707797</v>
+        <v/>
       </c>
       <c r="P8" s="110"/>
       <c r="Q8" s="107" t="b">
         <f>IF(AND(NOT(M8),AND(M$4:M7)),TRUE,M8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" s="103">
         <f>IF(AND(NOT(ISBLANK(R$4)),AND(NOT(Q8),AND(Q$4:Q7))),($J8*$G8-LN(1+R$4*S$2))/$G8,_xll.qlInterpolationInterpolate(Q$3,$F8,TRUE))</f>
-        <v>-7.1432737277854799E-6</v>
-      </c>
-      <c r="S8" s="108" t="str">
+        <v>-2.1682954486977691E-4</v>
+      </c>
+      <c r="S8" s="108">
         <f>IF(AND(NOT(Q8),AND(Q$4:Q7)),MIN(EXP((R8-$J8)*$G8),1),"")</f>
-        <v/>
+        <v>0.99998706236885704</v>
       </c>
       <c r="T8" s="110"/>
       <c r="U8" s="107" t="b">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="V8" s="103">
         <f>IF(AND(NOT(ISBLANK(V$4)),AND(NOT(U8),AND(U$4:U7))),($J8*$G8-LN(1+V$4*W$2))/$G8,_xll.qlInterpolationInterpolate(U$3,$F8,TRUE))</f>
-        <v>-7.1432737277854799E-6</v>
+        <v>-2.1682954486977691E-4</v>
       </c>
       <c r="W8" s="108" t="str">
         <f>IF(AND(NOT(U8),AND(U$4:U7)),MIN(EXP((V8-$J8)*$G8),1),"")</f>
@@ -6326,7 +6326,7 @@
       </c>
       <c r="Z8" s="103">
         <f>IF(AND(NOT(ISBLANK(Z$4)),AND(NOT(Y8),AND(Y$4:Y7))),($J8*$G8-LN(1+Z$4*AA$2))/$G8,_xll.qlInterpolationInterpolate(Y$3,$F8,TRUE))</f>
-        <v>-7.1432737277854799E-6</v>
+        <v>-2.1682954486977691E-4</v>
       </c>
       <c r="AA8" s="108" t="str">
         <f>IF(AND(NOT(Y8),AND(Y$4:Y7)),MIN(EXP((Z8-$J8)*$G8),1),"")</f>
@@ -6339,7 +6339,7 @@
       </c>
       <c r="AD8" s="103">
         <f>IF(AND(NOT(ISBLANK(AD$4)),AND(NOT(AC8),AND(AC$4:AC7))),($J8*$G8-LN(1+AD$4*AE$2))/$G8,_xll.qlInterpolationInterpolate(AC$3,$F8,TRUE))</f>
-        <v>-7.1432737277854799E-6</v>
+        <v>-2.1682954486977691E-4</v>
       </c>
       <c r="AE8" s="108" t="str">
         <f>IF(AND(NOT(AC8),AND(AC$4:AC7)),MIN(EXP((AD8-$J8)*$G8),1),"")</f>
@@ -6352,7 +6352,7 @@
       </c>
       <c r="AH8" s="103">
         <f>IF(AND(NOT(ISBLANK(AH$4)),AND(NOT(AG8),AND(AG$4:AG7))),($J8*$G8-LN(1+AH$4*AI$2))/$G8,_xll.qlInterpolationInterpolate(AG$3,$F8,TRUE))</f>
-        <v>-7.1432737277854799E-6</v>
+        <v>-2.1682954486977691E-4</v>
       </c>
       <c r="AI8" s="108" t="str">
         <f>IF(AND(NOT(AG8),AND(AG$4:AG7)),MIN(EXP((AH8-$J8)*$G8),1),"")</f>
@@ -6365,7 +6365,7 @@
       </c>
       <c r="AL8" s="103">
         <f>IF(AND(NOT(ISBLANK(AL$4)),AND(NOT(AK8),AND(AK$4:AK7))),($J8*$G8-LN(1+AL$4*AM$2))/$G8,_xll.qlInterpolationInterpolate(AK$3,$F8,TRUE))</f>
-        <v>-7.1432737277854799E-6</v>
+        <v>-2.1682954486977691E-4</v>
       </c>
       <c r="AM8" s="108" t="str">
         <f>IF(AND(NOT(AK8),AND(AK$4:AK7)),MIN(EXP((AL8-$J8)*$G8),1),"")</f>
@@ -6377,7 +6377,7 @@
       </c>
       <c r="AP8" s="103">
         <f>IF(AND(NOT(ISBLANK(AP$4)),AND(NOT(AO8),AND(AO$4:AO7))),($J8*$G8-LN(1+AP$4*AQ$2))/$G8,_xll.qlInterpolationInterpolate(AO$3,$F8,TRUE))</f>
-        <v>-7.1432737277854799E-6</v>
+        <v>-2.1682954486977691E-4</v>
       </c>
       <c r="AQ8" s="108" t="str">
         <f>IF(AND(NOT(AO8),AND(AO$4:AO7)),MIN(EXP((AP8-$J8)*$G8),1),"")</f>
@@ -6389,7 +6389,7 @@
       </c>
       <c r="AT8" s="103">
         <f>IF(AND(NOT(ISBLANK(AT$4)),AND(NOT(AS8),AND(AS$4:AS7))),($J8*$G8-LN(1+AT$4*AU$2))/$G8,_xll.qlInterpolationInterpolate(AS$3,$F8,TRUE))</f>
-        <v>-7.1432737277854799E-6</v>
+        <v>-2.1682954486977691E-4</v>
       </c>
       <c r="AU8" s="108" t="str">
         <f>IF(AND(NOT(AS8),AND(AS$4:AS7)),MIN(EXP((AT8-$J8)*$G8),1),"")</f>
@@ -6401,7 +6401,7 @@
       </c>
       <c r="AX8" s="103">
         <f>IF(AND(NOT(ISBLANK(AX$4)),AND(NOT(AW8),AND(AW$4:AW7))),($J8*$G8-LN(1+AX$4*AY$2))/$G8,_xll.qlInterpolationInterpolate(AW$3,$F8,TRUE))</f>
-        <v>-7.1432737277854799E-6</v>
+        <v>-2.1682954486977691E-4</v>
       </c>
       <c r="AY8" s="108" t="str">
         <f>IF(AND(NOT(AW8),AND(AW$4:AW7)),MIN(EXP((AX8-$J8)*$G8),1),"")</f>
@@ -6413,7 +6413,7 @@
       </c>
       <c r="BB8" s="103">
         <f>IF(AND(NOT(ISBLANK(BB$4)),AND(NOT(BA8),AND(BA$4:BA7))),($J8*$G8-LN(1+BB$4*BC$2))/$G8,_xll.qlInterpolationInterpolate(BA$3,$F8,TRUE))</f>
-        <v>-7.1432737277854799E-6</v>
+        <v>-2.1682954486977691E-4</v>
       </c>
       <c r="BC8" s="108" t="str">
         <f>IF(AND(NOT(BA8),AND(BA$4:BA7)),MIN(EXP((BB8-$J8)*$G8),1),"")</f>
@@ -6425,19 +6425,19 @@
       </c>
       <c r="BF8" s="103">
         <f>IF(AND(NOT(ISBLANK(BF$4)),AND(NOT(BE8),AND(BE$4:BE7))),($J8*$G8-LN(1+BF$4*BG$2))/$G8,_xll.qlInterpolationInterpolate(BE$3,$F8,TRUE))</f>
-        <v>-7.1432737277854799E-6</v>
+        <v>-2.1682954486977691E-4</v>
       </c>
       <c r="BG8" s="108" t="str">
         <f>IF(AND(NOT(BE8),AND(BE$4:BE7)),MIN(EXP((BF8-$J8)*$G8),1),"")</f>
         <v/>
       </c>
       <c r="BI8" s="107" t="b">
-        <f>IF(AND(NOT(BE8),AND(BE$4:BE7)),TRUE,BE8)</f>
+        <f>IF(ISERROR(K8),FALSE,IF(YEAR(K8)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>1</v>
       </c>
       <c r="BJ8" s="103">
         <f>IF(AND(NOT(ISBLANK(BJ$4)),AND(NOT(BI8),AND(BI$4:BI7))),($J8*$G8-LN(1+BJ$4*BK$2))/$G8,_xll.qlInterpolationInterpolate(BI$3,$F8,TRUE))</f>
-        <v>-7.1432737277854799E-6</v>
+        <v>-2.1682954486977691E-4</v>
       </c>
       <c r="BK8" s="108" t="str">
         <f>IF(AND(NOT(BI8),AND(BI$4:BI7)),MIN(EXP((BJ8-$J8)*$G8),1),"")</f>
@@ -6446,38 +6446,38 @@
     </row>
     <row r="9" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A9" s="95" t="str">
-        <v>WEURECBOISNOV14</v>
+        <v>WEURECBOISDEC14</v>
       </c>
       <c r="B9" s="27">
         <f>_xll.qlRateHelperRate($A9,InterestRatesTrigger)</f>
-        <v>1.0000000000000002E-4</v>
+        <v>-2.5000000000000001E-4</v>
       </c>
       <c r="C9" s="30">
         <f>_xll.qlRateHelperEarliestDate($A9)</f>
-        <v>41955</v>
+        <v>41983</v>
       </c>
       <c r="D9" s="31">
         <f>_xll.qlRateHelperLatestDate($A9)</f>
-        <v>41983</v>
+        <v>42032</v>
       </c>
       <c r="F9" s="122">
         <f t="shared" si="0"/>
-        <v>41979.5</v>
+        <v>42020.5</v>
       </c>
       <c r="G9" s="123">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D8,D9)</f>
-        <v>1.9444444444444445E-2</v>
+        <v>6.3888888888888884E-2</v>
       </c>
       <c r="I9" s="147" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J9" s="146">
-        <v>1.5713531297252467E-5</v>
+        <v>-4.9000946081898672E-4</v>
       </c>
       <c r="K9" s="112">
         <f t="shared" si="2"/>
-        <v>41983</v>
+        <v>42032</v>
       </c>
       <c r="L9" s="101"/>
       <c r="M9" s="107" t="b">
@@ -6486,7 +6486,7 @@
       </c>
       <c r="N9" s="103">
         <f>IF(AND(NOT(ISBLANK(N$4)),AND(NOT(M9),AND(M$4:M8))),($J9*$G9-LN(1+N$4*O$2))/$G9,_xll.qlInterpolationInterpolate(M$3,$F9,TRUE))</f>
-        <v>1.5713531297252467E-5</v>
+        <v>-4.9000946081898672E-4</v>
       </c>
       <c r="O9" s="108" t="str">
         <f>IF(AND(NOT(M9),AND(M$4:M8)),MIN(EXP((N9-$J9)*$G9),1),"")</f>
@@ -6499,7 +6499,7 @@
       </c>
       <c r="R9" s="103">
         <f>IF(AND(NOT(ISBLANK(R$4)),AND(NOT(Q9),AND(Q$4:Q8))),($J9*$G9-LN(1+R$4*S$2))/$G9,_xll.qlInterpolationInterpolate(Q$3,$F9,TRUE))</f>
-        <v>1.5713531297252467E-5</v>
+        <v>-4.9000946081898672E-4</v>
       </c>
       <c r="S9" s="108" t="str">
         <f>IF(AND(NOT(Q9),AND(Q$4:Q8)),MIN(EXP((R9-$J9)*$G9),1),"")</f>
@@ -6512,7 +6512,7 @@
       </c>
       <c r="V9" s="103">
         <f>IF(AND(NOT(ISBLANK(V$4)),AND(NOT(U9),AND(U$4:U8))),($J9*$G9-LN(1+V$4*W$2))/$G9,_xll.qlInterpolationInterpolate(U$3,$F9,TRUE))</f>
-        <v>1.5713531297252467E-5</v>
+        <v>-4.9000946081898672E-4</v>
       </c>
       <c r="W9" s="108" t="str">
         <f>IF(AND(NOT(U9),AND(U$4:U8)),MIN(EXP((V9-$J9)*$G9),1),"")</f>
@@ -6525,7 +6525,7 @@
       </c>
       <c r="Z9" s="103">
         <f>IF(AND(NOT(ISBLANK(Z$4)),AND(NOT(Y9),AND(Y$4:Y8))),($J9*$G9-LN(1+Z$4*AA$2))/$G9,_xll.qlInterpolationInterpolate(Y$3,$F9,TRUE))</f>
-        <v>1.5713531297252467E-5</v>
+        <v>-4.9000946081898672E-4</v>
       </c>
       <c r="AA9" s="108" t="str">
         <f>IF(AND(NOT(Y9),AND(Y$4:Y8)),MIN(EXP((Z9-$J9)*$G9),1),"")</f>
@@ -6538,7 +6538,7 @@
       </c>
       <c r="AD9" s="103">
         <f>IF(AND(NOT(ISBLANK(AD$4)),AND(NOT(AC9),AND(AC$4:AC8))),($J9*$G9-LN(1+AD$4*AE$2))/$G9,_xll.qlInterpolationInterpolate(AC$3,$F9,TRUE))</f>
-        <v>1.5713531297252467E-5</v>
+        <v>-4.9000946081898672E-4</v>
       </c>
       <c r="AE9" s="108" t="str">
         <f>IF(AND(NOT(AC9),AND(AC$4:AC8)),MIN(EXP((AD9-$J9)*$G9),1),"")</f>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="AH9" s="103">
         <f>IF(AND(NOT(ISBLANK(AH$4)),AND(NOT(AG9),AND(AG$4:AG8))),($J9*$G9-LN(1+AH$4*AI$2))/$G9,_xll.qlInterpolationInterpolate(AG$3,$F9,TRUE))</f>
-        <v>1.5713531297252467E-5</v>
+        <v>-4.9000946081898672E-4</v>
       </c>
       <c r="AI9" s="108" t="str">
         <f>IF(AND(NOT(AG9),AND(AG$4:AG8)),MIN(EXP((AH9-$J9)*$G9),1),"")</f>
@@ -6564,7 +6564,7 @@
       </c>
       <c r="AL9" s="103">
         <f>IF(AND(NOT(ISBLANK(AL$4)),AND(NOT(AK9),AND(AK$4:AK8))),($J9*$G9-LN(1+AL$4*AM$2))/$G9,_xll.qlInterpolationInterpolate(AK$3,$F9,TRUE))</f>
-        <v>1.5713531297252467E-5</v>
+        <v>-4.9000946081898672E-4</v>
       </c>
       <c r="AM9" s="108" t="str">
         <f>IF(AND(NOT(AK9),AND(AK$4:AK8)),MIN(EXP((AL9-$J9)*$G9),1),"")</f>
@@ -6576,7 +6576,7 @@
       </c>
       <c r="AP9" s="103">
         <f>IF(AND(NOT(ISBLANK(AP$4)),AND(NOT(AO9),AND(AO$4:AO8))),($J9*$G9-LN(1+AP$4*AQ$2))/$G9,_xll.qlInterpolationInterpolate(AO$3,$F9,TRUE))</f>
-        <v>1.5713531297252467E-5</v>
+        <v>-4.9000946081898672E-4</v>
       </c>
       <c r="AQ9" s="108" t="str">
         <f>IF(AND(NOT(AO9),AND(AO$4:AO8)),MIN(EXP((AP9-$J9)*$G9),1),"")</f>
@@ -6588,7 +6588,7 @@
       </c>
       <c r="AT9" s="103">
         <f>IF(AND(NOT(ISBLANK(AT$4)),AND(NOT(AS9),AND(AS$4:AS8))),($J9*$G9-LN(1+AT$4*AU$2))/$G9,_xll.qlInterpolationInterpolate(AS$3,$F9,TRUE))</f>
-        <v>1.5713531297252467E-5</v>
+        <v>-4.9000946081898672E-4</v>
       </c>
       <c r="AU9" s="108" t="str">
         <f>IF(AND(NOT(AS9),AND(AS$4:AS8)),MIN(EXP((AT9-$J9)*$G9),1),"")</f>
@@ -6600,7 +6600,7 @@
       </c>
       <c r="AX9" s="103">
         <f>IF(AND(NOT(ISBLANK(AX$4)),AND(NOT(AW9),AND(AW$4:AW8))),($J9*$G9-LN(1+AX$4*AY$2))/$G9,_xll.qlInterpolationInterpolate(AW$3,$F9,TRUE))</f>
-        <v>1.5713531297252467E-5</v>
+        <v>-4.9000946081898672E-4</v>
       </c>
       <c r="AY9" s="108" t="str">
         <f>IF(AND(NOT(AW9),AND(AW$4:AW8)),MIN(EXP((AX9-$J9)*$G9),1),"")</f>
@@ -6612,7 +6612,7 @@
       </c>
       <c r="BB9" s="103">
         <f>IF(AND(NOT(ISBLANK(BB$4)),AND(NOT(BA9),AND(BA$4:BA8))),($J9*$G9-LN(1+BB$4*BC$2))/$G9,_xll.qlInterpolationInterpolate(BA$3,$F9,TRUE))</f>
-        <v>1.5713531297252467E-5</v>
+        <v>-4.9000946081898672E-4</v>
       </c>
       <c r="BC9" s="108" t="str">
         <f>IF(AND(NOT(BA9),AND(BA$4:BA8)),MIN(EXP((BB9-$J9)*$G9),1),"")</f>
@@ -6624,19 +6624,19 @@
       </c>
       <c r="BF9" s="103">
         <f>IF(AND(NOT(ISBLANK(BF$4)),AND(NOT(BE9),AND(BE$4:BE8))),($J9*$G9-LN(1+BF$4*BG$2))/$G9,_xll.qlInterpolationInterpolate(BE$3,$F9,TRUE))</f>
-        <v>1.5713531297252467E-5</v>
+        <v>-4.9000946081898672E-4</v>
       </c>
       <c r="BG9" s="108" t="str">
         <f>IF(AND(NOT(BE9),AND(BE$4:BE8)),MIN(EXP((BF9-$J9)*$G9),1),"")</f>
         <v/>
       </c>
       <c r="BI9" s="107" t="b">
-        <f>IF(AND(NOT(BE9),AND(BE$4:BE8)),TRUE,BE9)</f>
+        <f>IF(ISERROR(K9),FALSE,IF(YEAR(K9)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>1</v>
       </c>
       <c r="BJ9" s="103">
         <f>IF(AND(NOT(ISBLANK(BJ$4)),AND(NOT(BI9),AND(BI$4:BI8))),($J9*$G9-LN(1+BJ$4*BK$2))/$G9,_xll.qlInterpolationInterpolate(BI$3,$F9,TRUE))</f>
-        <v>1.5713531297252467E-5</v>
+        <v>-4.9000946081898672E-4</v>
       </c>
       <c r="BK9" s="108" t="str">
         <f>IF(AND(NOT(BI9),AND(BI$4:BI8)),MIN(EXP((BJ9-$J9)*$G9),1),"")</f>
@@ -6645,38 +6645,38 @@
     </row>
     <row r="10" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A10" s="95" t="str">
-        <v>WEUREON2M</v>
+        <v>WEUREON3M</v>
       </c>
       <c r="B10" s="27">
         <f>_xll.qlRateHelperRate($A10,InterestRatesTrigger)</f>
-        <v>4.0000000000000003E-5</v>
+        <v>-9.9999999999999991E-5</v>
       </c>
       <c r="C10" s="30">
         <f>_xll.qlRateHelperEarliestDate($A10)</f>
-        <v>41946</v>
+        <v>41948</v>
       </c>
       <c r="D10" s="31">
         <f>_xll.qlRateHelperLatestDate($A10)</f>
-        <v>42009</v>
+        <v>42040</v>
       </c>
       <c r="F10" s="122">
         <f t="shared" si="0"/>
-        <v>41996</v>
+        <v>42036</v>
       </c>
       <c r="G10" s="123">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D9,D10)</f>
-        <v>7.2222222222222215E-2</v>
+        <v>2.2222222222222223E-2</v>
       </c>
       <c r="I10" s="147" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J10" s="146">
-        <v>1.1923176405849219E-5</v>
+        <v>2.5876250515410198E-4</v>
       </c>
       <c r="K10" s="112">
         <f t="shared" si="2"/>
-        <v>42009</v>
+        <v>42040</v>
       </c>
       <c r="L10" s="101"/>
       <c r="M10" s="107" t="b">
@@ -6685,7 +6685,7 @@
       </c>
       <c r="N10" s="103">
         <f>IF(AND(NOT(ISBLANK(N$4)),AND(NOT(M10),AND(M$4:M9))),($J10*$G10-LN(1+N$4*O$2))/$G10,_xll.qlInterpolationInterpolate(M$3,$F10,TRUE))</f>
-        <v>-1.5036293803117617E-4</v>
+        <v>-4.0969423901384159E-4</v>
       </c>
       <c r="O10" s="108" t="str">
         <f>IF(AND(NOT(M10),AND(M$4:M9)),MIN(EXP((N10-$J10)*$G10),1),"")</f>
@@ -6698,24 +6698,24 @@
       </c>
       <c r="R10" s="103">
         <f>IF(AND(NOT(ISBLANK(R$4)),AND(NOT(Q10),AND(Q$4:Q9))),($J10*$G10-LN(1+R$4*S$2))/$G10,_xll.qlInterpolationInterpolate(Q$3,$F10,TRUE))</f>
-        <v>-1.5036293803117617E-4</v>
-      </c>
-      <c r="S10" s="108">
+        <v>-4.0969423901384159E-4</v>
+      </c>
+      <c r="S10" s="108" t="str">
         <f>IF(AND(NOT(Q10),AND(Q$4:Q9)),MIN(EXP((R10-$J10)*$G10),1),"")</f>
-        <v>0.99998827940486623</v>
+        <v/>
       </c>
       <c r="T10" s="110"/>
       <c r="U10" s="107" t="b">
         <f>IF(AND(NOT(Q10),AND(Q$4:Q9)),TRUE,Q10)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" s="103">
         <f>IF(AND(NOT(ISBLANK(V$4)),AND(NOT(U10),AND(U$4:U9))),($J10*$G10-LN(1+V$4*W$2))/$G10,_xll.qlInterpolationInterpolate(U$3,$F10,TRUE))</f>
-        <v>-1.5036293803117617E-4</v>
-      </c>
-      <c r="W10" s="108" t="str">
+        <v>-4.0969423901384159E-4</v>
+      </c>
+      <c r="W10" s="108">
         <f>IF(AND(NOT(U10),AND(U$4:U9)),MIN(EXP((V10-$J10)*$G10),1),"")</f>
-        <v/>
+        <v>0.99998514551601414</v>
       </c>
       <c r="X10" s="110"/>
       <c r="Y10" s="107" t="b">
@@ -6724,7 +6724,7 @@
       </c>
       <c r="Z10" s="103">
         <f>IF(AND(NOT(ISBLANK(Z$4)),AND(NOT(Y10),AND(Y$4:Y9))),($J10*$G10-LN(1+Z$4*AA$2))/$G10,_xll.qlInterpolationInterpolate(Y$3,$F10,TRUE))</f>
-        <v>-1.5036293803117617E-4</v>
+        <v>-4.0969423901384159E-4</v>
       </c>
       <c r="AA10" s="108" t="str">
         <f>IF(AND(NOT(Y10),AND(Y$4:Y9)),MIN(EXP((Z10-$J10)*$G10),1),"")</f>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="AD10" s="103">
         <f>IF(AND(NOT(ISBLANK(AD$4)),AND(NOT(AC10),AND(AC$4:AC9))),($J10*$G10-LN(1+AD$4*AE$2))/$G10,_xll.qlInterpolationInterpolate(AC$3,$F10,TRUE))</f>
-        <v>-1.5036293803117617E-4</v>
+        <v>-4.0969423901384159E-4</v>
       </c>
       <c r="AE10" s="108" t="str">
         <f>IF(AND(NOT(AC10),AND(AC$4:AC9)),MIN(EXP((AD10-$J10)*$G10),1),"")</f>
@@ -6750,7 +6750,7 @@
       </c>
       <c r="AH10" s="103">
         <f>IF(AND(NOT(ISBLANK(AH$4)),AND(NOT(AG10),AND(AG$4:AG9))),($J10*$G10-LN(1+AH$4*AI$2))/$G10,_xll.qlInterpolationInterpolate(AG$3,$F10,TRUE))</f>
-        <v>-1.5036293803117617E-4</v>
+        <v>-4.0969423901384159E-4</v>
       </c>
       <c r="AI10" s="108" t="str">
         <f>IF(AND(NOT(AG10),AND(AG$4:AG9)),MIN(EXP((AH10-$J10)*$G10),1),"")</f>
@@ -6763,7 +6763,7 @@
       </c>
       <c r="AL10" s="103">
         <f>IF(AND(NOT(ISBLANK(AL$4)),AND(NOT(AK10),AND(AK$4:AK9))),($J10*$G10-LN(1+AL$4*AM$2))/$G10,_xll.qlInterpolationInterpolate(AK$3,$F10,TRUE))</f>
-        <v>-1.5036293803117617E-4</v>
+        <v>-4.0969423901384159E-4</v>
       </c>
       <c r="AM10" s="108" t="str">
         <f>IF(AND(NOT(AK10),AND(AK$4:AK9)),MIN(EXP((AL10-$J10)*$G10),1),"")</f>
@@ -6775,7 +6775,7 @@
       </c>
       <c r="AP10" s="103">
         <f>IF(AND(NOT(ISBLANK(AP$4)),AND(NOT(AO10),AND(AO$4:AO9))),($J10*$G10-LN(1+AP$4*AQ$2))/$G10,_xll.qlInterpolationInterpolate(AO$3,$F10,TRUE))</f>
-        <v>-1.5036293803117617E-4</v>
+        <v>-4.0969423901384159E-4</v>
       </c>
       <c r="AQ10" s="108" t="str">
         <f>IF(AND(NOT(AO10),AND(AO$4:AO9)),MIN(EXP((AP10-$J10)*$G10),1),"")</f>
@@ -6787,7 +6787,7 @@
       </c>
       <c r="AT10" s="103">
         <f>IF(AND(NOT(ISBLANK(AT$4)),AND(NOT(AS10),AND(AS$4:AS9))),($J10*$G10-LN(1+AT$4*AU$2))/$G10,_xll.qlInterpolationInterpolate(AS$3,$F10,TRUE))</f>
-        <v>-1.5036293803117617E-4</v>
+        <v>-4.0969423901384159E-4</v>
       </c>
       <c r="AU10" s="108" t="str">
         <f>IF(AND(NOT(AS10),AND(AS$4:AS9)),MIN(EXP((AT10-$J10)*$G10),1),"")</f>
@@ -6799,7 +6799,7 @@
       </c>
       <c r="AX10" s="103">
         <f>IF(AND(NOT(ISBLANK(AX$4)),AND(NOT(AW10),AND(AW$4:AW9))),($J10*$G10-LN(1+AX$4*AY$2))/$G10,_xll.qlInterpolationInterpolate(AW$3,$F10,TRUE))</f>
-        <v>-1.5036293803117617E-4</v>
+        <v>-4.0969423901384159E-4</v>
       </c>
       <c r="AY10" s="108" t="str">
         <f>IF(AND(NOT(AW10),AND(AW$4:AW9)),MIN(EXP((AX10-$J10)*$G10),1),"")</f>
@@ -6811,7 +6811,7 @@
       </c>
       <c r="BB10" s="103">
         <f>IF(AND(NOT(ISBLANK(BB$4)),AND(NOT(BA10),AND(BA$4:BA9))),($J10*$G10-LN(1+BB$4*BC$2))/$G10,_xll.qlInterpolationInterpolate(BA$3,$F10,TRUE))</f>
-        <v>-1.5036293803117617E-4</v>
+        <v>-4.0969423901384159E-4</v>
       </c>
       <c r="BC10" s="108" t="str">
         <f>IF(AND(NOT(BA10),AND(BA$4:BA9)),MIN(EXP((BB10-$J10)*$G10),1),"")</f>
@@ -6823,19 +6823,19 @@
       </c>
       <c r="BF10" s="103">
         <f>IF(AND(NOT(ISBLANK(BF$4)),AND(NOT(BE10),AND(BE$4:BE9))),($J10*$G10-LN(1+BF$4*BG$2))/$G10,_xll.qlInterpolationInterpolate(BE$3,$F10,TRUE))</f>
-        <v>-1.5036293803117617E-4</v>
+        <v>-4.0969423901384159E-4</v>
       </c>
       <c r="BG10" s="108" t="str">
         <f>IF(AND(NOT(BE10),AND(BE$4:BE9)),MIN(EXP((BF10-$J10)*$G10),1),"")</f>
         <v/>
       </c>
       <c r="BI10" s="107" t="b">
-        <f>IF(AND(NOT(BE10),AND(BE$4:BE9)),TRUE,BE10)</f>
+        <f>IF(ISERROR(K10),FALSE,IF(YEAR(K10)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>1</v>
       </c>
       <c r="BJ10" s="103">
         <f>IF(AND(NOT(ISBLANK(BJ$4)),AND(NOT(BI10),AND(BI$4:BI9))),($J10*$G10-LN(1+BJ$4*BK$2))/$G10,_xll.qlInterpolationInterpolate(BI$3,$F10,TRUE))</f>
-        <v>-1.5036293803117617E-4</v>
+        <v>-4.0969423901384159E-4</v>
       </c>
       <c r="BK10" s="108" t="str">
         <f>IF(AND(NOT(BI10),AND(BI$4:BI9)),MIN(EXP((BJ10-$J10)*$G10),1),"")</f>
@@ -6844,47 +6844,47 @@
     </row>
     <row r="11" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A11" s="95" t="str">
-        <v>WEURECBOISDEC14</v>
+        <v>WEUREON4M</v>
       </c>
       <c r="B11" s="27">
         <f>_xll.qlRateHelperRate($A11,InterestRatesTrigger)</f>
-        <v>-1.7999999999999998E-4</v>
+        <v>-9.9999999999999991E-5</v>
       </c>
       <c r="C11" s="30">
         <f>_xll.qlRateHelperEarliestDate($A11)</f>
-        <v>41983</v>
+        <v>41948</v>
       </c>
       <c r="D11" s="31">
         <f>_xll.qlRateHelperLatestDate($A11)</f>
-        <v>42032</v>
+        <v>42068</v>
       </c>
       <c r="F11" s="122">
         <f t="shared" si="0"/>
-        <v>42020.5</v>
+        <v>42054</v>
       </c>
       <c r="G11" s="123">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D10,D11)</f>
-        <v>6.3888888888888884E-2</v>
+        <v>7.7777777777777779E-2</v>
       </c>
       <c r="I11" s="147" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="146">
-        <v>-3.9696133188247927E-4</v>
+        <v>-1.0000294453191652E-4</v>
       </c>
       <c r="K11" s="112">
         <f t="shared" si="2"/>
-        <v>42032</v>
+        <v>42068</v>
       </c>
       <c r="L11" s="101"/>
       <c r="M11" s="107" t="b">
         <f>IF(AND(NOT(I11),AND(I$4:I10)),TRUE,I11)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="103">
         <f>IF(AND(NOT(ISBLANK(N$4)),AND(NOT(M11),AND(M$4:M10))),($J11*$G11-LN(1+N$4*O$2))/$G11,_xll.qlInterpolationInterpolate(M$3,$F11,TRUE))</f>
-        <v>-3.9696133188247927E-4</v>
+        <v>-3.1642494917560849E-4</v>
       </c>
       <c r="O11" s="108" t="str">
         <f>IF(AND(NOT(M11),AND(M$4:M10)),MIN(EXP((N11-$J11)*$G11),1),"")</f>
@@ -6893,11 +6893,11 @@
       <c r="P11" s="110"/>
       <c r="Q11" s="107" t="b">
         <f>IF(AND(NOT(M11),AND(M$4:M10)),TRUE,M11)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" s="103">
         <f>IF(AND(NOT(ISBLANK(R$4)),AND(NOT(Q11),AND(Q$4:Q10))),($J11*$G11-LN(1+R$4*S$2))/$G11,_xll.qlInterpolationInterpolate(Q$3,$F11,TRUE))</f>
-        <v>-3.9696133188247927E-4</v>
+        <v>-3.1642494917560849E-4</v>
       </c>
       <c r="S11" s="108" t="str">
         <f>IF(AND(NOT(Q11),AND(Q$4:Q10)),MIN(EXP((R11-$J11)*$G11),1),"")</f>
@@ -6906,11 +6906,11 @@
       <c r="T11" s="110"/>
       <c r="U11" s="107" t="b">
         <f>IF(AND(NOT(Q11),AND(Q$4:Q10)),TRUE,Q11)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" s="103">
         <f>IF(AND(NOT(ISBLANK(V$4)),AND(NOT(U11),AND(U$4:U10))),($J11*$G11-LN(1+V$4*W$2))/$G11,_xll.qlInterpolationInterpolate(U$3,$F11,TRUE))</f>
-        <v>-3.9696133188247927E-4</v>
+        <v>-3.1642494917560849E-4</v>
       </c>
       <c r="W11" s="108" t="str">
         <f>IF(AND(NOT(U11),AND(U$4:U10)),MIN(EXP((V11-$J11)*$G11),1),"")</f>
@@ -6919,15 +6919,15 @@
       <c r="X11" s="110"/>
       <c r="Y11" s="107" t="b">
         <f>IF(AND(NOT(U11),AND(U$4:U10)),TRUE,U11)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="103">
         <f>IF(AND(NOT(ISBLANK(Z$4)),AND(NOT(Y11),AND(Y$4:Y10))),($J11*$G11-LN(1+Z$4*AA$2))/$G11,_xll.qlInterpolationInterpolate(Y$3,$F11,TRUE))</f>
-        <v>-3.9696133188247927E-4</v>
-      </c>
-      <c r="AA11" s="108" t="str">
+        <v>-3.1642494917560849E-4</v>
+      </c>
+      <c r="AA11" s="108">
         <f>IF(AND(NOT(Y11),AND(Y$4:Y10)),MIN(EXP((Z11-$J11)*$G11),1),"")</f>
-        <v/>
+        <v>0.99998316731908776</v>
       </c>
       <c r="AB11" s="110"/>
       <c r="AC11" s="107" t="b">
@@ -6936,7 +6936,7 @@
       </c>
       <c r="AD11" s="103">
         <f>IF(AND(NOT(ISBLANK(AD$4)),AND(NOT(AC11),AND(AC$4:AC10))),($J11*$G11-LN(1+AD$4*AE$2))/$G11,_xll.qlInterpolationInterpolate(AC$3,$F11,TRUE))</f>
-        <v>-3.9696133188247927E-4</v>
+        <v>-3.1642494917560849E-4</v>
       </c>
       <c r="AE11" s="108" t="str">
         <f>IF(AND(NOT(AC11),AND(AC$4:AC10)),MIN(EXP((AD11-$J11)*$G11),1),"")</f>
@@ -6949,7 +6949,7 @@
       </c>
       <c r="AH11" s="103">
         <f>IF(AND(NOT(ISBLANK(AH$4)),AND(NOT(AG11),AND(AG$4:AG10))),($J11*$G11-LN(1+AH$4*AI$2))/$G11,_xll.qlInterpolationInterpolate(AG$3,$F11,TRUE))</f>
-        <v>-3.9696133188247927E-4</v>
+        <v>-3.1642494917560849E-4</v>
       </c>
       <c r="AI11" s="108" t="str">
         <f>IF(AND(NOT(AG11),AND(AG$4:AG10)),MIN(EXP((AH11-$J11)*$G11),1),"")</f>
@@ -6962,7 +6962,7 @@
       </c>
       <c r="AL11" s="103">
         <f>IF(AND(NOT(ISBLANK(AL$4)),AND(NOT(AK11),AND(AK$4:AK10))),($J11*$G11-LN(1+AL$4*AM$2))/$G11,_xll.qlInterpolationInterpolate(AK$3,$F11,TRUE))</f>
-        <v>-3.9696133188247927E-4</v>
+        <v>-3.1642494917560849E-4</v>
       </c>
       <c r="AM11" s="108" t="str">
         <f>IF(AND(NOT(AK11),AND(AK$4:AK10)),MIN(EXP((AL11-$J11)*$G11),1),"")</f>
@@ -6974,7 +6974,7 @@
       </c>
       <c r="AP11" s="103">
         <f>IF(AND(NOT(ISBLANK(AP$4)),AND(NOT(AO11),AND(AO$4:AO10))),($J11*$G11-LN(1+AP$4*AQ$2))/$G11,_xll.qlInterpolationInterpolate(AO$3,$F11,TRUE))</f>
-        <v>-3.9696133188247927E-4</v>
+        <v>-3.1642494917560849E-4</v>
       </c>
       <c r="AQ11" s="108" t="str">
         <f>IF(AND(NOT(AO11),AND(AO$4:AO10)),MIN(EXP((AP11-$J11)*$G11),1),"")</f>
@@ -6986,7 +6986,7 @@
       </c>
       <c r="AT11" s="103">
         <f>IF(AND(NOT(ISBLANK(AT$4)),AND(NOT(AS11),AND(AS$4:AS10))),($J11*$G11-LN(1+AT$4*AU$2))/$G11,_xll.qlInterpolationInterpolate(AS$3,$F11,TRUE))</f>
-        <v>-3.9696133188247927E-4</v>
+        <v>-3.1642494917560849E-4</v>
       </c>
       <c r="AU11" s="108" t="str">
         <f>IF(AND(NOT(AS11),AND(AS$4:AS10)),MIN(EXP((AT11-$J11)*$G11),1),"")</f>
@@ -6998,7 +6998,7 @@
       </c>
       <c r="AX11" s="103">
         <f>IF(AND(NOT(ISBLANK(AX$4)),AND(NOT(AW11),AND(AW$4:AW10))),($J11*$G11-LN(1+AX$4*AY$2))/$G11,_xll.qlInterpolationInterpolate(AW$3,$F11,TRUE))</f>
-        <v>-3.9696133188247927E-4</v>
+        <v>-3.1642494917560849E-4</v>
       </c>
       <c r="AY11" s="108" t="str">
         <f>IF(AND(NOT(AW11),AND(AW$4:AW10)),MIN(EXP((AX11-$J11)*$G11),1),"")</f>
@@ -7010,7 +7010,7 @@
       </c>
       <c r="BB11" s="103">
         <f>IF(AND(NOT(ISBLANK(BB$4)),AND(NOT(BA11),AND(BA$4:BA10))),($J11*$G11-LN(1+BB$4*BC$2))/$G11,_xll.qlInterpolationInterpolate(BA$3,$F11,TRUE))</f>
-        <v>-3.9696133188247927E-4</v>
+        <v>-3.1642494917560849E-4</v>
       </c>
       <c r="BC11" s="108" t="str">
         <f>IF(AND(NOT(BA11),AND(BA$4:BA10)),MIN(EXP((BB11-$J11)*$G11),1),"")</f>
@@ -7022,19 +7022,19 @@
       </c>
       <c r="BF11" s="103">
         <f>IF(AND(NOT(ISBLANK(BF$4)),AND(NOT(BE11),AND(BE$4:BE10))),($J11*$G11-LN(1+BF$4*BG$2))/$G11,_xll.qlInterpolationInterpolate(BE$3,$F11,TRUE))</f>
-        <v>-3.9696133188247927E-4</v>
+        <v>-3.1642494917560849E-4</v>
       </c>
       <c r="BG11" s="108" t="str">
         <f>IF(AND(NOT(BE11),AND(BE$4:BE10)),MIN(EXP((BF11-$J11)*$G11),1),"")</f>
         <v/>
       </c>
       <c r="BI11" s="107" t="b">
-        <f>IF(AND(NOT(BE11),AND(BE$4:BE10)),TRUE,BE11)</f>
+        <f>IF(ISERROR(K11),FALSE,IF(YEAR(K11)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>1</v>
       </c>
       <c r="BJ11" s="103">
         <f>IF(AND(NOT(ISBLANK(BJ$4)),AND(NOT(BI11),AND(BI$4:BI10))),($J11*$G11-LN(1+BJ$4*BK$2))/$G11,_xll.qlInterpolationInterpolate(BI$3,$F11,TRUE))</f>
-        <v>-3.9696133188247927E-4</v>
+        <v>-3.1642494917560849E-4</v>
       </c>
       <c r="BK11" s="108" t="str">
         <f>IF(AND(NOT(BI11),AND(BI$4:BI10)),MIN(EXP((BJ11-$J11)*$G11),1),"")</f>
@@ -7043,7 +7043,7 @@
     </row>
     <row r="12" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A12" s="95" t="str">
-        <v>WEUREON3M</v>
+        <v>WEURECBOISJAN15</v>
       </c>
       <c r="B12" s="27">
         <f>_xll.qlRateHelperRate($A12,InterestRatesTrigger)</f>
@@ -7051,15 +7051,15 @@
       </c>
       <c r="C12" s="30">
         <f>_xll.qlRateHelperEarliestDate($A12)</f>
-        <v>41946</v>
+        <v>42032</v>
       </c>
       <c r="D12" s="31">
         <f>_xll.qlRateHelperLatestDate($A12)</f>
-        <v>42038</v>
+        <v>42074</v>
       </c>
       <c r="F12" s="122">
         <f t="shared" si="0"/>
-        <v>42035</v>
+        <v>42071</v>
       </c>
       <c r="G12" s="123">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D11,D12)</f>
@@ -7067,23 +7067,23 @@
       </c>
       <c r="I12" s="147" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="146">
-        <v>3.3501501068121869E-4</v>
+        <v>-2.2833728655061061E-4</v>
       </c>
       <c r="K12" s="112">
         <f t="shared" si="2"/>
-        <v>42038</v>
+        <v>42074</v>
       </c>
       <c r="L12" s="101"/>
       <c r="M12" s="107" t="b">
         <f>IF(AND(NOT(I12),AND(I$4:I11)),TRUE,I12)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="103">
         <f>IF(AND(NOT(ISBLANK(N$4)),AND(NOT(M12),AND(M$4:M11))),($J12*$G12-LN(1+N$4*O$2))/$G12,_xll.qlInterpolationInterpolate(M$3,$F12,TRUE))</f>
-        <v>-3.1400437580371231E-4</v>
+        <v>-2.2833728655061061E-4</v>
       </c>
       <c r="O12" s="108" t="str">
         <f>IF(AND(NOT(M12),AND(M$4:M11)),MIN(EXP((N12-$J12)*$G12),1),"")</f>
@@ -7092,11 +7092,11 @@
       <c r="P12" s="110"/>
       <c r="Q12" s="107" t="b">
         <f>IF(AND(NOT(M12),AND(M$4:M11)),TRUE,M12)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="103">
         <f>IF(AND(NOT(ISBLANK(R$4)),AND(NOT(Q12),AND(Q$4:Q11))),($J12*$G12-LN(1+R$4*S$2))/$G12,_xll.qlInterpolationInterpolate(Q$3,$F12,TRUE))</f>
-        <v>-3.1400437580371231E-4</v>
+        <v>-2.2833728655061061E-4</v>
       </c>
       <c r="S12" s="108" t="str">
         <f>IF(AND(NOT(Q12),AND(Q$4:Q11)),MIN(EXP((R12-$J12)*$G12),1),"")</f>
@@ -7105,15 +7105,15 @@
       <c r="T12" s="110"/>
       <c r="U12" s="107" t="b">
         <f>IF(AND(NOT(Q12),AND(Q$4:Q11)),TRUE,Q12)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" s="103">
         <f>IF(AND(NOT(ISBLANK(V$4)),AND(NOT(U12),AND(U$4:U11))),($J12*$G12-LN(1+V$4*W$2))/$G12,_xll.qlInterpolationInterpolate(U$3,$F12,TRUE))</f>
-        <v>-3.1400437580371231E-4</v>
-      </c>
-      <c r="W12" s="108">
+        <v>-2.2833728655061061E-4</v>
+      </c>
+      <c r="W12" s="108" t="str">
         <f>IF(AND(NOT(U12),AND(U$4:U11)),MIN(EXP((V12-$J12)*$G12),1),"")</f>
-        <v>0.99998918306872864</v>
+        <v/>
       </c>
       <c r="X12" s="110"/>
       <c r="Y12" s="107" t="b">
@@ -7122,7 +7122,7 @@
       </c>
       <c r="Z12" s="103">
         <f>IF(AND(NOT(ISBLANK(Z$4)),AND(NOT(Y12),AND(Y$4:Y11))),($J12*$G12-LN(1+Z$4*AA$2))/$G12,_xll.qlInterpolationInterpolate(Y$3,$F12,TRUE))</f>
-        <v>-3.1400437580371231E-4</v>
+        <v>-2.2833728655061061E-4</v>
       </c>
       <c r="AA12" s="108" t="str">
         <f>IF(AND(NOT(Y12),AND(Y$4:Y11)),MIN(EXP((Z12-$J12)*$G12),1),"")</f>
@@ -7135,7 +7135,7 @@
       </c>
       <c r="AD12" s="103">
         <f>IF(AND(NOT(ISBLANK(AD$4)),AND(NOT(AC12),AND(AC$4:AC11))),($J12*$G12-LN(1+AD$4*AE$2))/$G12,_xll.qlInterpolationInterpolate(AC$3,$F12,TRUE))</f>
-        <v>-3.1400437580371231E-4</v>
+        <v>-2.2833728655061061E-4</v>
       </c>
       <c r="AE12" s="108" t="str">
         <f>IF(AND(NOT(AC12),AND(AC$4:AC11)),MIN(EXP((AD12-$J12)*$G12),1),"")</f>
@@ -7148,7 +7148,7 @@
       </c>
       <c r="AH12" s="103">
         <f>IF(AND(NOT(ISBLANK(AH$4)),AND(NOT(AG12),AND(AG$4:AG11))),($J12*$G12-LN(1+AH$4*AI$2))/$G12,_xll.qlInterpolationInterpolate(AG$3,$F12,TRUE))</f>
-        <v>-3.1400437580371231E-4</v>
+        <v>-2.2833728655061061E-4</v>
       </c>
       <c r="AI12" s="108" t="str">
         <f>IF(AND(NOT(AG12),AND(AG$4:AG11)),MIN(EXP((AH12-$J12)*$G12),1),"")</f>
@@ -7161,7 +7161,7 @@
       </c>
       <c r="AL12" s="103">
         <f>IF(AND(NOT(ISBLANK(AL$4)),AND(NOT(AK12),AND(AK$4:AK11))),($J12*$G12-LN(1+AL$4*AM$2))/$G12,_xll.qlInterpolationInterpolate(AK$3,$F12,TRUE))</f>
-        <v>-3.1400437580371231E-4</v>
+        <v>-2.2833728655061061E-4</v>
       </c>
       <c r="AM12" s="108" t="str">
         <f>IF(AND(NOT(AK12),AND(AK$4:AK11)),MIN(EXP((AL12-$J12)*$G12),1),"")</f>
@@ -7173,7 +7173,7 @@
       </c>
       <c r="AP12" s="103">
         <f>IF(AND(NOT(ISBLANK(AP$4)),AND(NOT(AO12),AND(AO$4:AO11))),($J12*$G12-LN(1+AP$4*AQ$2))/$G12,_xll.qlInterpolationInterpolate(AO$3,$F12,TRUE))</f>
-        <v>-3.1400437580371231E-4</v>
+        <v>-2.2833728655061061E-4</v>
       </c>
       <c r="AQ12" s="108" t="str">
         <f>IF(AND(NOT(AO12),AND(AO$4:AO11)),MIN(EXP((AP12-$J12)*$G12),1),"")</f>
@@ -7185,7 +7185,7 @@
       </c>
       <c r="AT12" s="103">
         <f>IF(AND(NOT(ISBLANK(AT$4)),AND(NOT(AS12),AND(AS$4:AS11))),($J12*$G12-LN(1+AT$4*AU$2))/$G12,_xll.qlInterpolationInterpolate(AS$3,$F12,TRUE))</f>
-        <v>-3.1400437580371231E-4</v>
+        <v>-2.2833728655061061E-4</v>
       </c>
       <c r="AU12" s="108" t="str">
         <f>IF(AND(NOT(AS12),AND(AS$4:AS11)),MIN(EXP((AT12-$J12)*$G12),1),"")</f>
@@ -7197,7 +7197,7 @@
       </c>
       <c r="AX12" s="103">
         <f>IF(AND(NOT(ISBLANK(AX$4)),AND(NOT(AW12),AND(AW$4:AW11))),($J12*$G12-LN(1+AX$4*AY$2))/$G12,_xll.qlInterpolationInterpolate(AW$3,$F12,TRUE))</f>
-        <v>-3.1400437580371231E-4</v>
+        <v>-2.2833728655061061E-4</v>
       </c>
       <c r="AY12" s="108" t="str">
         <f>IF(AND(NOT(AW12),AND(AW$4:AW11)),MIN(EXP((AX12-$J12)*$G12),1),"")</f>
@@ -7209,7 +7209,7 @@
       </c>
       <c r="BB12" s="103">
         <f>IF(AND(NOT(ISBLANK(BB$4)),AND(NOT(BA12),AND(BA$4:BA11))),($J12*$G12-LN(1+BB$4*BC$2))/$G12,_xll.qlInterpolationInterpolate(BA$3,$F12,TRUE))</f>
-        <v>-3.1400437580371231E-4</v>
+        <v>-2.2833728655061061E-4</v>
       </c>
       <c r="BC12" s="108" t="str">
         <f>IF(AND(NOT(BA12),AND(BA$4:BA11)),MIN(EXP((BB12-$J12)*$G12),1),"")</f>
@@ -7221,19 +7221,19 @@
       </c>
       <c r="BF12" s="103">
         <f>IF(AND(NOT(ISBLANK(BF$4)),AND(NOT(BE12),AND(BE$4:BE11))),($J12*$G12-LN(1+BF$4*BG$2))/$G12,_xll.qlInterpolationInterpolate(BE$3,$F12,TRUE))</f>
-        <v>-3.1400437580371231E-4</v>
+        <v>-2.2833728655061061E-4</v>
       </c>
       <c r="BG12" s="108" t="str">
         <f>IF(AND(NOT(BE12),AND(BE$4:BE11)),MIN(EXP((BF12-$J12)*$G12),1),"")</f>
         <v/>
       </c>
       <c r="BI12" s="107" t="b">
-        <f>IF(AND(NOT(BE12),AND(BE$4:BE11)),TRUE,BE12)</f>
+        <f>IF(ISERROR(K12),FALSE,IF(YEAR(K12)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>1</v>
       </c>
       <c r="BJ12" s="103">
         <f>IF(AND(NOT(ISBLANK(BJ$4)),AND(NOT(BI12),AND(BI$4:BI11))),($J12*$G12-LN(1+BJ$4*BK$2))/$G12,_xll.qlInterpolationInterpolate(BI$3,$F12,TRUE))</f>
-        <v>-3.1400437580371231E-4</v>
+        <v>-2.2833728655061061E-4</v>
       </c>
       <c r="BK12" s="108" t="str">
         <f>IF(AND(NOT(BI12),AND(BI$4:BI11)),MIN(EXP((BJ12-$J12)*$G12),1),"")</f>
@@ -7242,38 +7242,38 @@
     </row>
     <row r="13" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A13" s="95" t="str">
-        <v>WEUREON4M</v>
+        <v>WEUREON5M</v>
       </c>
       <c r="B13" s="27">
         <f>_xll.qlRateHelperRate($A13,InterestRatesTrigger)</f>
-        <v>-3.0000000000000011E-5</v>
+        <v>-1.1999999999999999E-4</v>
       </c>
       <c r="C13" s="30">
         <f>_xll.qlRateHelperEarliestDate($A13)</f>
-        <v>41946</v>
+        <v>41948</v>
       </c>
       <c r="D13" s="31">
         <f>_xll.qlRateHelperLatestDate($A13)</f>
-        <v>42066</v>
+        <v>42101</v>
       </c>
       <c r="F13" s="122">
         <f t="shared" si="0"/>
-        <v>42052</v>
+        <v>42087.5</v>
       </c>
       <c r="G13" s="123">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D12,D13)</f>
-        <v>7.7777777777777779E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="I13" s="147" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J13" s="146">
-        <v>3.5714692485127716E-5</v>
+        <v>-1.8482386921074958E-4</v>
       </c>
       <c r="K13" s="112">
         <f t="shared" si="2"/>
-        <v>42066</v>
+        <v>42101</v>
       </c>
       <c r="L13" s="101"/>
       <c r="M13" s="107" t="b">
@@ -7282,7 +7282,7 @@
       </c>
       <c r="N13" s="103">
         <f>IF(AND(NOT(ISBLANK(N$4)),AND(NOT(M13),AND(M$4:M12))),($J13*$G13-LN(1+N$4*O$2))/$G13,_xll.qlInterpolationInterpolate(M$3,$F13,TRUE))</f>
-        <v>-2.16744496263089E-4</v>
+        <v>-3.5109484420502136E-4</v>
       </c>
       <c r="O13" s="108" t="str">
         <f>IF(AND(NOT(M13),AND(M$4:M12)),MIN(EXP((N13-$J13)*$G13),1),"")</f>
@@ -7295,7 +7295,7 @@
       </c>
       <c r="R13" s="103">
         <f>IF(AND(NOT(ISBLANK(R$4)),AND(NOT(Q13),AND(Q$4:Q12))),($J13*$G13-LN(1+R$4*S$2))/$G13,_xll.qlInterpolationInterpolate(Q$3,$F13,TRUE))</f>
-        <v>-2.16744496263089E-4</v>
+        <v>-3.5109484420502136E-4</v>
       </c>
       <c r="S13" s="108" t="str">
         <f>IF(AND(NOT(Q13),AND(Q$4:Q12)),MIN(EXP((R13-$J13)*$G13),1),"")</f>
@@ -7308,7 +7308,7 @@
       </c>
       <c r="V13" s="103">
         <f>IF(AND(NOT(ISBLANK(V$4)),AND(NOT(U13),AND(U$4:U12))),($J13*$G13-LN(1+V$4*W$2))/$G13,_xll.qlInterpolationInterpolate(U$3,$F13,TRUE))</f>
-        <v>-2.16744496263089E-4</v>
+        <v>-3.5109484420502136E-4</v>
       </c>
       <c r="W13" s="108" t="str">
         <f>IF(AND(NOT(U13),AND(U$4:U12)),MIN(EXP((V13-$J13)*$G13),1),"")</f>
@@ -7321,24 +7321,24 @@
       </c>
       <c r="Z13" s="103">
         <f>IF(AND(NOT(ISBLANK(Z$4)),AND(NOT(Y13),AND(Y$4:Y12))),($J13*$G13-LN(1+Z$4*AA$2))/$G13,_xll.qlInterpolationInterpolate(Y$3,$F13,TRUE))</f>
-        <v>-2.16744496263089E-4</v>
-      </c>
-      <c r="AA13" s="108">
+        <v>-3.5109484420502136E-4</v>
+      </c>
+      <c r="AA13" s="108" t="str">
         <f>IF(AND(NOT(Y13),AND(Y$4:Y12)),MIN(EXP((Z13-$J13)*$G13),1),"")</f>
-        <v>0.99998036447809902</v>
+        <v/>
       </c>
       <c r="AB13" s="110"/>
       <c r="AC13" s="107" t="b">
         <f>IF(AND(NOT(Y13),AND(Y$4:Y12)),TRUE,Y13)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD13" s="103">
         <f>IF(AND(NOT(ISBLANK(AD$4)),AND(NOT(AC13),AND(AC$4:AC12))),($J13*$G13-LN(1+AD$4*AE$2))/$G13,_xll.qlInterpolationInterpolate(AC$3,$F13,TRUE))</f>
-        <v>-2.16744496263089E-4</v>
-      </c>
-      <c r="AE13" s="108" t="str">
+        <v>-3.5109484420502136E-4</v>
+      </c>
+      <c r="AE13" s="108">
         <f>IF(AND(NOT(AC13),AND(AC$4:AC12)),MIN(EXP((AD13-$J13)*$G13),1),"")</f>
-        <v/>
+        <v>0.99998752975462957</v>
       </c>
       <c r="AF13" s="110"/>
       <c r="AG13" s="107" t="b">
@@ -7347,7 +7347,7 @@
       </c>
       <c r="AH13" s="103">
         <f>IF(AND(NOT(ISBLANK(AH$4)),AND(NOT(AG13),AND(AG$4:AG12))),($J13*$G13-LN(1+AH$4*AI$2))/$G13,_xll.qlInterpolationInterpolate(AG$3,$F13,TRUE))</f>
-        <v>-2.16744496263089E-4</v>
+        <v>-3.5109484420502136E-4</v>
       </c>
       <c r="AI13" s="108" t="str">
         <f>IF(AND(NOT(AG13),AND(AG$4:AG12)),MIN(EXP((AH13-$J13)*$G13),1),"")</f>
@@ -7360,7 +7360,7 @@
       </c>
       <c r="AL13" s="103">
         <f>IF(AND(NOT(ISBLANK(AL$4)),AND(NOT(AK13),AND(AK$4:AK12))),($J13*$G13-LN(1+AL$4*AM$2))/$G13,_xll.qlInterpolationInterpolate(AK$3,$F13,TRUE))</f>
-        <v>-2.16744496263089E-4</v>
+        <v>-3.5109484420502136E-4</v>
       </c>
       <c r="AM13" s="108" t="str">
         <f>IF(AND(NOT(AK13),AND(AK$4:AK12)),MIN(EXP((AL13-$J13)*$G13),1),"")</f>
@@ -7372,7 +7372,7 @@
       </c>
       <c r="AP13" s="103">
         <f>IF(AND(NOT(ISBLANK(AP$4)),AND(NOT(AO13),AND(AO$4:AO12))),($J13*$G13-LN(1+AP$4*AQ$2))/$G13,_xll.qlInterpolationInterpolate(AO$3,$F13,TRUE))</f>
-        <v>-2.16744496263089E-4</v>
+        <v>-3.5109484420502136E-4</v>
       </c>
       <c r="AQ13" s="108" t="str">
         <f>IF(AND(NOT(AO13),AND(AO$4:AO12)),MIN(EXP((AP13-$J13)*$G13),1),"")</f>
@@ -7384,7 +7384,7 @@
       </c>
       <c r="AT13" s="103">
         <f>IF(AND(NOT(ISBLANK(AT$4)),AND(NOT(AS13),AND(AS$4:AS12))),($J13*$G13-LN(1+AT$4*AU$2))/$G13,_xll.qlInterpolationInterpolate(AS$3,$F13,TRUE))</f>
-        <v>-2.16744496263089E-4</v>
+        <v>-3.5109484420502136E-4</v>
       </c>
       <c r="AU13" s="108" t="str">
         <f>IF(AND(NOT(AS13),AND(AS$4:AS12)),MIN(EXP((AT13-$J13)*$G13),1),"")</f>
@@ -7396,7 +7396,7 @@
       </c>
       <c r="AX13" s="103">
         <f>IF(AND(NOT(ISBLANK(AX$4)),AND(NOT(AW13),AND(AW$4:AW12))),($J13*$G13-LN(1+AX$4*AY$2))/$G13,_xll.qlInterpolationInterpolate(AW$3,$F13,TRUE))</f>
-        <v>-2.16744496263089E-4</v>
+        <v>-3.5109484420502136E-4</v>
       </c>
       <c r="AY13" s="108" t="str">
         <f>IF(AND(NOT(AW13),AND(AW$4:AW12)),MIN(EXP((AX13-$J13)*$G13),1),"")</f>
@@ -7408,7 +7408,7 @@
       </c>
       <c r="BB13" s="103">
         <f>IF(AND(NOT(ISBLANK(BB$4)),AND(NOT(BA13),AND(BA$4:BA12))),($J13*$G13-LN(1+BB$4*BC$2))/$G13,_xll.qlInterpolationInterpolate(BA$3,$F13,TRUE))</f>
-        <v>-2.16744496263089E-4</v>
+        <v>-3.5109484420502136E-4</v>
       </c>
       <c r="BC13" s="108" t="str">
         <f>IF(AND(NOT(BA13),AND(BA$4:BA12)),MIN(EXP((BB13-$J13)*$G13),1),"")</f>
@@ -7420,19 +7420,19 @@
       </c>
       <c r="BF13" s="103">
         <f>IF(AND(NOT(ISBLANK(BF$4)),AND(NOT(BE13),AND(BE$4:BE12))),($J13*$G13-LN(1+BF$4*BG$2))/$G13,_xll.qlInterpolationInterpolate(BE$3,$F13,TRUE))</f>
-        <v>-2.16744496263089E-4</v>
+        <v>-3.5109484420502136E-4</v>
       </c>
       <c r="BG13" s="108" t="str">
         <f>IF(AND(NOT(BE13),AND(BE$4:BE12)),MIN(EXP((BF13-$J13)*$G13),1),"")</f>
         <v/>
       </c>
       <c r="BI13" s="107" t="b">
-        <f>IF(AND(NOT(BE13),AND(BE$4:BE12)),TRUE,BE13)</f>
+        <f>IF(ISERROR(K13),FALSE,IF(YEAR(K13)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>1</v>
       </c>
       <c r="BJ13" s="103">
         <f>IF(AND(NOT(ISBLANK(BJ$4)),AND(NOT(BI13),AND(BI$4:BI12))),($J13*$G13-LN(1+BJ$4*BK$2))/$G13,_xll.qlInterpolationInterpolate(BI$3,$F13,TRUE))</f>
-        <v>-2.16744496263089E-4</v>
+        <v>-3.5109484420502136E-4</v>
       </c>
       <c r="BK13" s="108" t="str">
         <f>IF(AND(NOT(BI13),AND(BI$4:BI12)),MIN(EXP((BJ13-$J13)*$G13),1),"")</f>
@@ -7441,38 +7441,38 @@
     </row>
     <row r="14" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A14" s="95" t="str">
-        <v>WEURECBOISJAN15</v>
+        <v>WEURECBOISMAR15</v>
       </c>
       <c r="B14" s="27">
         <f>_xll.qlRateHelperRate($A14,InterestRatesTrigger)</f>
-        <v>4.9999999999999996E-5</v>
+        <v>-3.0000000000000003E-4</v>
       </c>
       <c r="C14" s="30">
         <f>_xll.qlRateHelperEarliestDate($A14)</f>
-        <v>42032</v>
+        <v>42074</v>
       </c>
       <c r="D14" s="31">
         <f>_xll.qlRateHelperLatestDate($A14)</f>
-        <v>42074</v>
+        <v>42116</v>
       </c>
       <c r="F14" s="122">
         <f t="shared" si="0"/>
-        <v>42070</v>
+        <v>42108.5</v>
       </c>
       <c r="G14" s="123">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D13,D14)</f>
-        <v>2.2222222222222223E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="I14" s="147" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J14" s="146">
-        <v>-1.1376344733772314E-4</v>
+        <v>-5.0733173576518052E-4</v>
       </c>
       <c r="K14" s="112">
         <f t="shared" si="2"/>
-        <v>42074</v>
+        <v>42116</v>
       </c>
       <c r="L14" s="101"/>
       <c r="M14" s="107" t="b">
@@ -7481,7 +7481,7 @@
       </c>
       <c r="N14" s="103">
         <f>IF(AND(NOT(ISBLANK(N$4)),AND(NOT(M14),AND(M$4:M13))),($J14*$G14-LN(1+N$4*O$2))/$G14,_xll.qlInterpolationInterpolate(M$3,$F14,TRUE))</f>
-        <v>-1.1376344733772314E-4</v>
+        <v>-5.0733173576518052E-4</v>
       </c>
       <c r="O14" s="108" t="str">
         <f>IF(AND(NOT(M14),AND(M$4:M13)),MIN(EXP((N14-$J14)*$G14),1),"")</f>
@@ -7494,7 +7494,7 @@
       </c>
       <c r="R14" s="103">
         <f>IF(AND(NOT(ISBLANK(R$4)),AND(NOT(Q14),AND(Q$4:Q13))),($J14*$G14-LN(1+R$4*S$2))/$G14,_xll.qlInterpolationInterpolate(Q$3,$F14,TRUE))</f>
-        <v>-1.1376344733772314E-4</v>
+        <v>-5.0733173576518052E-4</v>
       </c>
       <c r="S14" s="108" t="str">
         <f>IF(AND(NOT(Q14),AND(Q$4:Q13)),MIN(EXP((R14-$J14)*$G14),1),"")</f>
@@ -7507,7 +7507,7 @@
       </c>
       <c r="V14" s="103">
         <f>IF(AND(NOT(ISBLANK(V$4)),AND(NOT(U14),AND(U$4:U13))),($J14*$G14-LN(1+V$4*W$2))/$G14,_xll.qlInterpolationInterpolate(U$3,$F14,TRUE))</f>
-        <v>-1.1376344733772314E-4</v>
+        <v>-5.0733173576518052E-4</v>
       </c>
       <c r="W14" s="108" t="str">
         <f>IF(AND(NOT(U14),AND(U$4:U13)),MIN(EXP((V14-$J14)*$G14),1),"")</f>
@@ -7520,7 +7520,7 @@
       </c>
       <c r="Z14" s="103">
         <f>IF(AND(NOT(ISBLANK(Z$4)),AND(NOT(Y14),AND(Y$4:Y13))),($J14*$G14-LN(1+Z$4*AA$2))/$G14,_xll.qlInterpolationInterpolate(Y$3,$F14,TRUE))</f>
-        <v>-1.1376344733772314E-4</v>
+        <v>-5.0733173576518052E-4</v>
       </c>
       <c r="AA14" s="108" t="str">
         <f>IF(AND(NOT(Y14),AND(Y$4:Y13)),MIN(EXP((Z14-$J14)*$G14),1),"")</f>
@@ -7533,7 +7533,7 @@
       </c>
       <c r="AD14" s="103">
         <f>IF(AND(NOT(ISBLANK(AD$4)),AND(NOT(AC14),AND(AC$4:AC13))),($J14*$G14-LN(1+AD$4*AE$2))/$G14,_xll.qlInterpolationInterpolate(AC$3,$F14,TRUE))</f>
-        <v>-1.1376344733772314E-4</v>
+        <v>-5.0733173576518052E-4</v>
       </c>
       <c r="AE14" s="108" t="str">
         <f>IF(AND(NOT(AC14),AND(AC$4:AC13)),MIN(EXP((AD14-$J14)*$G14),1),"")</f>
@@ -7546,7 +7546,7 @@
       </c>
       <c r="AH14" s="103">
         <f>IF(AND(NOT(ISBLANK(AH$4)),AND(NOT(AG14),AND(AG$4:AG13))),($J14*$G14-LN(1+AH$4*AI$2))/$G14,_xll.qlInterpolationInterpolate(AG$3,$F14,TRUE))</f>
-        <v>-1.1376344733772314E-4</v>
+        <v>-5.0733173576518052E-4</v>
       </c>
       <c r="AI14" s="108" t="str">
         <f>IF(AND(NOT(AG14),AND(AG$4:AG13)),MIN(EXP((AH14-$J14)*$G14),1),"")</f>
@@ -7559,7 +7559,7 @@
       </c>
       <c r="AL14" s="103">
         <f>IF(AND(NOT(ISBLANK(AL$4)),AND(NOT(AK14),AND(AK$4:AK13))),($J14*$G14-LN(1+AL$4*AM$2))/$G14,_xll.qlInterpolationInterpolate(AK$3,$F14,TRUE))</f>
-        <v>-1.1376344733772314E-4</v>
+        <v>-5.0733173576518052E-4</v>
       </c>
       <c r="AM14" s="108" t="str">
         <f>IF(AND(NOT(AK14),AND(AK$4:AK13)),MIN(EXP((AL14-$J14)*$G14),1),"")</f>
@@ -7571,7 +7571,7 @@
       </c>
       <c r="AP14" s="103">
         <f>IF(AND(NOT(ISBLANK(AP$4)),AND(NOT(AO14),AND(AO$4:AO13))),($J14*$G14-LN(1+AP$4*AQ$2))/$G14,_xll.qlInterpolationInterpolate(AO$3,$F14,TRUE))</f>
-        <v>-1.1376344733772314E-4</v>
+        <v>-5.0733173576518052E-4</v>
       </c>
       <c r="AQ14" s="108" t="str">
         <f>IF(AND(NOT(AO14),AND(AO$4:AO13)),MIN(EXP((AP14-$J14)*$G14),1),"")</f>
@@ -7583,7 +7583,7 @@
       </c>
       <c r="AT14" s="103">
         <f>IF(AND(NOT(ISBLANK(AT$4)),AND(NOT(AS14),AND(AS$4:AS13))),($J14*$G14-LN(1+AT$4*AU$2))/$G14,_xll.qlInterpolationInterpolate(AS$3,$F14,TRUE))</f>
-        <v>-1.1376344733772314E-4</v>
+        <v>-5.0733173576518052E-4</v>
       </c>
       <c r="AU14" s="108" t="str">
         <f>IF(AND(NOT(AS14),AND(AS$4:AS13)),MIN(EXP((AT14-$J14)*$G14),1),"")</f>
@@ -7595,7 +7595,7 @@
       </c>
       <c r="AX14" s="103">
         <f>IF(AND(NOT(ISBLANK(AX$4)),AND(NOT(AW14),AND(AW$4:AW13))),($J14*$G14-LN(1+AX$4*AY$2))/$G14,_xll.qlInterpolationInterpolate(AW$3,$F14,TRUE))</f>
-        <v>-1.1376344733772314E-4</v>
+        <v>-5.0733173576518052E-4</v>
       </c>
       <c r="AY14" s="108" t="str">
         <f>IF(AND(NOT(AW14),AND(AW$4:AW13)),MIN(EXP((AX14-$J14)*$G14),1),"")</f>
@@ -7607,7 +7607,7 @@
       </c>
       <c r="BB14" s="103">
         <f>IF(AND(NOT(ISBLANK(BB$4)),AND(NOT(BA14),AND(BA$4:BA13))),($J14*$G14-LN(1+BB$4*BC$2))/$G14,_xll.qlInterpolationInterpolate(BA$3,$F14,TRUE))</f>
-        <v>-1.1376344733772314E-4</v>
+        <v>-5.0733173576518052E-4</v>
       </c>
       <c r="BC14" s="108" t="str">
         <f>IF(AND(NOT(BA14),AND(BA$4:BA13)),MIN(EXP((BB14-$J14)*$G14),1),"")</f>
@@ -7619,19 +7619,19 @@
       </c>
       <c r="BF14" s="103">
         <f>IF(AND(NOT(ISBLANK(BF$4)),AND(NOT(BE14),AND(BE$4:BE13))),($J14*$G14-LN(1+BF$4*BG$2))/$G14,_xll.qlInterpolationInterpolate(BE$3,$F14,TRUE))</f>
-        <v>-1.1376344733772314E-4</v>
+        <v>-5.0733173576518052E-4</v>
       </c>
       <c r="BG14" s="108" t="str">
         <f>IF(AND(NOT(BE14),AND(BE$4:BE13)),MIN(EXP((BF14-$J14)*$G14),1),"")</f>
         <v/>
       </c>
       <c r="BI14" s="107" t="b">
-        <f>IF(AND(NOT(BE14),AND(BE$4:BE13)),TRUE,BE14)</f>
+        <f>IF(ISERROR(K14),FALSE,IF(YEAR(K14)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>1</v>
       </c>
       <c r="BJ14" s="103">
         <f>IF(AND(NOT(ISBLANK(BJ$4)),AND(NOT(BI14),AND(BI$4:BI13))),($J14*$G14-LN(1+BJ$4*BK$2))/$G14,_xll.qlInterpolationInterpolate(BI$3,$F14,TRUE))</f>
-        <v>-1.1376344733772314E-4</v>
+        <v>-5.0733173576518052E-4</v>
       </c>
       <c r="BK14" s="108" t="str">
         <f>IF(AND(NOT(BI14),AND(BI$4:BI13)),MIN(EXP((BJ14-$J14)*$G14),1),"")</f>
@@ -7640,38 +7640,38 @@
     </row>
     <row r="15" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A15" s="95" t="str">
-        <v>WEUREON5M</v>
+        <v>WEUREON6M</v>
       </c>
       <c r="B15" s="27">
         <f>_xll.qlRateHelperRate($A15,InterestRatesTrigger)</f>
-        <v>-4.9999999999999996E-5</v>
+        <v>-1.7000000000000001E-4</v>
       </c>
       <c r="C15" s="30">
         <f>_xll.qlRateHelperEarliestDate($A15)</f>
-        <v>41946</v>
+        <v>41948</v>
       </c>
       <c r="D15" s="31">
         <f>_xll.qlRateHelperLatestDate($A15)</f>
-        <v>42101</v>
+        <v>42129</v>
       </c>
       <c r="F15" s="122">
         <f t="shared" si="0"/>
-        <v>42087.5</v>
+        <v>42122.5</v>
       </c>
       <c r="G15" s="123">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D14,D15)</f>
-        <v>7.4999999999999997E-2</v>
+        <v>3.6111111111111108E-2</v>
       </c>
       <c r="I15" s="147" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J15" s="146">
-        <v>-1.1999843866676753E-4</v>
+        <v>-3.6929775647869526E-4</v>
       </c>
       <c r="K15" s="112">
         <f t="shared" si="2"/>
-        <v>42101</v>
+        <v>42129</v>
       </c>
       <c r="L15" s="101"/>
       <c r="M15" s="107" t="b">
@@ -7680,7 +7680,7 @@
       </c>
       <c r="N15" s="103">
         <f>IF(AND(NOT(ISBLANK(N$4)),AND(NOT(M15),AND(M$4:M14))),($J15*$G15-LN(1+N$4*O$2))/$G15,_xll.qlInterpolationInterpolate(M$3,$F15,TRUE))</f>
-        <v>-2.5660344895175359E-4</v>
+        <v>-6.1681842145503449E-4</v>
       </c>
       <c r="O15" s="108" t="str">
         <f>IF(AND(NOT(M15),AND(M$4:M14)),MIN(EXP((N15-$J15)*$G15),1),"")</f>
@@ -7693,7 +7693,7 @@
       </c>
       <c r="R15" s="103">
         <f>IF(AND(NOT(ISBLANK(R$4)),AND(NOT(Q15),AND(Q$4:Q14))),($J15*$G15-LN(1+R$4*S$2))/$G15,_xll.qlInterpolationInterpolate(Q$3,$F15,TRUE))</f>
-        <v>-2.5660344895175359E-4</v>
+        <v>-6.1681842145503449E-4</v>
       </c>
       <c r="S15" s="108" t="str">
         <f>IF(AND(NOT(Q15),AND(Q$4:Q14)),MIN(EXP((R15-$J15)*$G15),1),"")</f>
@@ -7706,7 +7706,7 @@
       </c>
       <c r="V15" s="103">
         <f>IF(AND(NOT(ISBLANK(V$4)),AND(NOT(U15),AND(U$4:U14))),($J15*$G15-LN(1+V$4*W$2))/$G15,_xll.qlInterpolationInterpolate(U$3,$F15,TRUE))</f>
-        <v>-2.5660344895175359E-4</v>
+        <v>-6.1681842145503449E-4</v>
       </c>
       <c r="W15" s="108" t="str">
         <f>IF(AND(NOT(U15),AND(U$4:U14)),MIN(EXP((V15-$J15)*$G15),1),"")</f>
@@ -7719,7 +7719,7 @@
       </c>
       <c r="Z15" s="103">
         <f>IF(AND(NOT(ISBLANK(Z$4)),AND(NOT(Y15),AND(Y$4:Y14))),($J15*$G15-LN(1+Z$4*AA$2))/$G15,_xll.qlInterpolationInterpolate(Y$3,$F15,TRUE))</f>
-        <v>-2.5660344895175359E-4</v>
+        <v>-6.1681842145503449E-4</v>
       </c>
       <c r="AA15" s="108" t="str">
         <f>IF(AND(NOT(Y15),AND(Y$4:Y14)),MIN(EXP((Z15-$J15)*$G15),1),"")</f>
@@ -7732,24 +7732,24 @@
       </c>
       <c r="AD15" s="103">
         <f>IF(AND(NOT(ISBLANK(AD$4)),AND(NOT(AC15),AND(AC$4:AC14))),($J15*$G15-LN(1+AD$4*AE$2))/$G15,_xll.qlInterpolationInterpolate(AC$3,$F15,TRUE))</f>
-        <v>-2.5660344895175359E-4</v>
-      </c>
-      <c r="AE15" s="108">
+        <v>-6.1681842145503449E-4</v>
+      </c>
+      <c r="AE15" s="108" t="str">
         <f>IF(AND(NOT(AC15),AND(AC$4:AC14)),MIN(EXP((AD15-$J15)*$G15),1),"")</f>
-        <v>0.99998975467671236</v>
+        <v/>
       </c>
       <c r="AF15" s="110"/>
       <c r="AG15" s="107" t="b">
         <f>IF(AND(NOT(AC15),AND(AC$4:AC14)),TRUE,AC15)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH15" s="103">
         <f>IF(AND(NOT(ISBLANK(AH$4)),AND(NOT(AG15),AND(AG$4:AG14))),($J15*$G15-LN(1+AH$4*AI$2))/$G15,_xll.qlInterpolationInterpolate(AG$3,$F15,TRUE))</f>
-        <v>-2.5660344895175359E-4</v>
-      </c>
-      <c r="AI15" s="108" t="str">
+        <v>-6.1681842145503449E-4</v>
+      </c>
+      <c r="AI15" s="108">
         <f>IF(AND(NOT(AG15),AND(AG$4:AG14)),MIN(EXP((AH15-$J15)*$G15),1),"")</f>
-        <v/>
+        <v>0.99999106179371078</v>
       </c>
       <c r="AJ15" s="110"/>
       <c r="AK15" s="107" t="b">
@@ -7758,7 +7758,7 @@
       </c>
       <c r="AL15" s="103">
         <f>IF(AND(NOT(ISBLANK(AL$4)),AND(NOT(AK15),AND(AK$4:AK14))),($J15*$G15-LN(1+AL$4*AM$2))/$G15,_xll.qlInterpolationInterpolate(AK$3,$F15,TRUE))</f>
-        <v>-2.5660344895175359E-4</v>
+        <v>-6.1681842145503449E-4</v>
       </c>
       <c r="AM15" s="108" t="str">
         <f>IF(AND(NOT(AK15),AND(AK$4:AK14)),MIN(EXP((AL15-$J15)*$G15),1),"")</f>
@@ -7770,7 +7770,7 @@
       </c>
       <c r="AP15" s="103">
         <f>IF(AND(NOT(ISBLANK(AP$4)),AND(NOT(AO15),AND(AO$4:AO14))),($J15*$G15-LN(1+AP$4*AQ$2))/$G15,_xll.qlInterpolationInterpolate(AO$3,$F15,TRUE))</f>
-        <v>-2.5660344895175359E-4</v>
+        <v>-6.1681842145503449E-4</v>
       </c>
       <c r="AQ15" s="108" t="str">
         <f>IF(AND(NOT(AO15),AND(AO$4:AO14)),MIN(EXP((AP15-$J15)*$G15),1),"")</f>
@@ -7782,7 +7782,7 @@
       </c>
       <c r="AT15" s="103">
         <f>IF(AND(NOT(ISBLANK(AT$4)),AND(NOT(AS15),AND(AS$4:AS14))),($J15*$G15-LN(1+AT$4*AU$2))/$G15,_xll.qlInterpolationInterpolate(AS$3,$F15,TRUE))</f>
-        <v>-2.5660344895175359E-4</v>
+        <v>-6.1681842145503449E-4</v>
       </c>
       <c r="AU15" s="108" t="str">
         <f>IF(AND(NOT(AS15),AND(AS$4:AS14)),MIN(EXP((AT15-$J15)*$G15),1),"")</f>
@@ -7794,7 +7794,7 @@
       </c>
       <c r="AX15" s="103">
         <f>IF(AND(NOT(ISBLANK(AX$4)),AND(NOT(AW15),AND(AW$4:AW14))),($J15*$G15-LN(1+AX$4*AY$2))/$G15,_xll.qlInterpolationInterpolate(AW$3,$F15,TRUE))</f>
-        <v>-2.5660344895175359E-4</v>
+        <v>-6.1681842145503449E-4</v>
       </c>
       <c r="AY15" s="108" t="str">
         <f>IF(AND(NOT(AW15),AND(AW$4:AW14)),MIN(EXP((AX15-$J15)*$G15),1),"")</f>
@@ -7806,7 +7806,7 @@
       </c>
       <c r="BB15" s="103">
         <f>IF(AND(NOT(ISBLANK(BB$4)),AND(NOT(BA15),AND(BA$4:BA14))),($J15*$G15-LN(1+BB$4*BC$2))/$G15,_xll.qlInterpolationInterpolate(BA$3,$F15,TRUE))</f>
-        <v>-2.5660344895175359E-4</v>
+        <v>-6.1681842145503449E-4</v>
       </c>
       <c r="BC15" s="108" t="str">
         <f>IF(AND(NOT(BA15),AND(BA$4:BA14)),MIN(EXP((BB15-$J15)*$G15),1),"")</f>
@@ -7818,19 +7818,19 @@
       </c>
       <c r="BF15" s="103">
         <f>IF(AND(NOT(ISBLANK(BF$4)),AND(NOT(BE15),AND(BE$4:BE14))),($J15*$G15-LN(1+BF$4*BG$2))/$G15,_xll.qlInterpolationInterpolate(BE$3,$F15,TRUE))</f>
-        <v>-2.5660344895175359E-4</v>
+        <v>-6.1681842145503449E-4</v>
       </c>
       <c r="BG15" s="108" t="str">
         <f>IF(AND(NOT(BE15),AND(BE$4:BE14)),MIN(EXP((BF15-$J15)*$G15),1),"")</f>
         <v/>
       </c>
       <c r="BI15" s="107" t="b">
-        <f>IF(AND(NOT(BE15),AND(BE$4:BE14)),TRUE,BE15)</f>
+        <f>IF(ISERROR(K15),FALSE,IF(YEAR(K15)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>1</v>
       </c>
       <c r="BJ15" s="103">
         <f>IF(AND(NOT(ISBLANK(BJ$4)),AND(NOT(BI15),AND(BI$4:BI14))),($J15*$G15-LN(1+BJ$4*BK$2))/$G15,_xll.qlInterpolationInterpolate(BI$3,$F15,TRUE))</f>
-        <v>-2.5660344895175359E-4</v>
+        <v>-6.1681842145503449E-4</v>
       </c>
       <c r="BK15" s="108" t="str">
         <f>IF(AND(NOT(BI15),AND(BI$4:BI14)),MIN(EXP((BJ15-$J15)*$G15),1),"")</f>
@@ -7839,7 +7839,7 @@
     </row>
     <row r="16" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A16" s="95" t="str">
-        <v>WEURECBOISMAR15</v>
+        <v>WEUREON7M</v>
       </c>
       <c r="B16" s="27">
         <f>_xll.qlRateHelperRate($A16,InterestRatesTrigger)</f>
@@ -7847,39 +7847,39 @@
       </c>
       <c r="C16" s="30">
         <f>_xll.qlRateHelperEarliestDate($A16)</f>
-        <v>42074</v>
+        <v>41948</v>
       </c>
       <c r="D16" s="31">
         <f>_xll.qlRateHelperLatestDate($A16)</f>
-        <v>42116</v>
+        <v>42160</v>
       </c>
       <c r="F16" s="122">
         <f t="shared" si="0"/>
-        <v>42108.5</v>
+        <v>42144.5</v>
       </c>
       <c r="G16" s="123">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D15,D16)</f>
-        <v>4.1666666666666664E-2</v>
+        <v>8.611111111111111E-2</v>
       </c>
       <c r="I16" s="147" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="146">
-        <v>-4.2801145088859014E-4</v>
+        <v>-5.8038668937588126E-4</v>
       </c>
       <c r="K16" s="112">
         <f t="shared" si="2"/>
-        <v>42116</v>
+        <v>42160</v>
       </c>
       <c r="L16" s="101"/>
       <c r="M16" s="107" t="b">
         <f>IF(AND(NOT(I16),AND(I$4:I15)),TRUE,I16)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="103">
         <f>IF(AND(NOT(ISBLANK(N$4)),AND(NOT(M16),AND(M$4:M15))),($J16*$G16-LN(1+N$4*O$2))/$G16,_xll.qlInterpolationInterpolate(M$3,$F16,TRUE))</f>
-        <v>-4.2801145088859014E-4</v>
+        <v>-7.8886892753909075E-4</v>
       </c>
       <c r="O16" s="108" t="str">
         <f>IF(AND(NOT(M16),AND(M$4:M15)),MIN(EXP((N16-$J16)*$G16),1),"")</f>
@@ -7888,11 +7888,11 @@
       <c r="P16" s="110"/>
       <c r="Q16" s="107" t="b">
         <f>IF(AND(NOT(M16),AND(M$4:M15)),TRUE,M16)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="103">
         <f>IF(AND(NOT(ISBLANK(R$4)),AND(NOT(Q16),AND(Q$4:Q15))),($J16*$G16-LN(1+R$4*S$2))/$G16,_xll.qlInterpolationInterpolate(Q$3,$F16,TRUE))</f>
-        <v>-4.2801145088859014E-4</v>
+        <v>-7.8886892753909075E-4</v>
       </c>
       <c r="S16" s="108" t="str">
         <f>IF(AND(NOT(Q16),AND(Q$4:Q15)),MIN(EXP((R16-$J16)*$G16),1),"")</f>
@@ -7901,11 +7901,11 @@
       <c r="T16" s="110"/>
       <c r="U16" s="107" t="b">
         <f>IF(AND(NOT(Q16),AND(Q$4:Q15)),TRUE,Q16)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16" s="103">
         <f>IF(AND(NOT(ISBLANK(V$4)),AND(NOT(U16),AND(U$4:U15))),($J16*$G16-LN(1+V$4*W$2))/$G16,_xll.qlInterpolationInterpolate(U$3,$F16,TRUE))</f>
-        <v>-4.2801145088859014E-4</v>
+        <v>-7.8886892753909075E-4</v>
       </c>
       <c r="W16" s="108" t="str">
         <f>IF(AND(NOT(U16),AND(U$4:U15)),MIN(EXP((V16-$J16)*$G16),1),"")</f>
@@ -7914,11 +7914,11 @@
       <c r="X16" s="110"/>
       <c r="Y16" s="107" t="b">
         <f>IF(AND(NOT(U16),AND(U$4:U15)),TRUE,U16)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="103">
         <f>IF(AND(NOT(ISBLANK(Z$4)),AND(NOT(Y16),AND(Y$4:Y15))),($J16*$G16-LN(1+Z$4*AA$2))/$G16,_xll.qlInterpolationInterpolate(Y$3,$F16,TRUE))</f>
-        <v>-4.2801145088859014E-4</v>
+        <v>-7.8886892753909075E-4</v>
       </c>
       <c r="AA16" s="108" t="str">
         <f>IF(AND(NOT(Y16),AND(Y$4:Y15)),MIN(EXP((Z16-$J16)*$G16),1),"")</f>
@@ -7927,11 +7927,11 @@
       <c r="AB16" s="110"/>
       <c r="AC16" s="107" t="b">
         <f>IF(AND(NOT(Y16),AND(Y$4:Y15)),TRUE,Y16)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD16" s="103">
         <f>IF(AND(NOT(ISBLANK(AD$4)),AND(NOT(AC16),AND(AC$4:AC15))),($J16*$G16-LN(1+AD$4*AE$2))/$G16,_xll.qlInterpolationInterpolate(AC$3,$F16,TRUE))</f>
-        <v>-4.2801145088859014E-4</v>
+        <v>-7.8886892753909075E-4</v>
       </c>
       <c r="AE16" s="108" t="str">
         <f>IF(AND(NOT(AC16),AND(AC$4:AC15)),MIN(EXP((AD16-$J16)*$G16),1),"")</f>
@@ -7940,11 +7940,11 @@
       <c r="AF16" s="110"/>
       <c r="AG16" s="107" t="b">
         <f>IF(AND(NOT(AC16),AND(AC$4:AC15)),TRUE,AC16)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH16" s="103">
         <f>IF(AND(NOT(ISBLANK(AH$4)),AND(NOT(AG16),AND(AG$4:AG15))),($J16*$G16-LN(1+AH$4*AI$2))/$G16,_xll.qlInterpolationInterpolate(AG$3,$F16,TRUE))</f>
-        <v>-4.2801145088859014E-4</v>
+        <v>-7.8886892753909075E-4</v>
       </c>
       <c r="AI16" s="108" t="str">
         <f>IF(AND(NOT(AG16),AND(AG$4:AG15)),MIN(EXP((AH16-$J16)*$G16),1),"")</f>
@@ -7953,15 +7953,15 @@
       <c r="AJ16" s="110"/>
       <c r="AK16" s="107" t="b">
         <f>IF(AND(NOT(AG16),AND(AG$4:AG15)),TRUE,AG16)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL16" s="103">
         <f>IF(AND(NOT(ISBLANK(AL$4)),AND(NOT(AK16),AND(AK$4:AK15))),($J16*$G16-LN(1+AL$4*AM$2))/$G16,_xll.qlInterpolationInterpolate(AK$3,$F16,TRUE))</f>
-        <v>-4.2801145088859014E-4</v>
-      </c>
-      <c r="AM16" s="108" t="str">
+        <v>-7.8886892753909075E-4</v>
+      </c>
+      <c r="AM16" s="108">
         <f>IF(AND(NOT(AK16),AND(AK$4:AK15)),MIN(EXP((AL16-$J16)*$G16),1),"")</f>
-        <v/>
+        <v>0.99998204752397246</v>
       </c>
       <c r="AO16" s="107" t="b">
         <f>IF(AND(NOT(AK16),AND(AK$4:AK15)),TRUE,AK16)</f>
@@ -7969,7 +7969,7 @@
       </c>
       <c r="AP16" s="103">
         <f>IF(AND(NOT(ISBLANK(AP$4)),AND(NOT(AO16),AND(AO$4:AO15))),($J16*$G16-LN(1+AP$4*AQ$2))/$G16,_xll.qlInterpolationInterpolate(AO$3,$F16,TRUE))</f>
-        <v>-4.2801145088859014E-4</v>
+        <v>-7.8886892753909075E-4</v>
       </c>
       <c r="AQ16" s="108" t="str">
         <f>IF(AND(NOT(AO16),AND(AO$4:AO15)),MIN(EXP((AP16-$J16)*$G16),1),"")</f>
@@ -7981,7 +7981,7 @@
       </c>
       <c r="AT16" s="103">
         <f>IF(AND(NOT(ISBLANK(AT$4)),AND(NOT(AS16),AND(AS$4:AS15))),($J16*$G16-LN(1+AT$4*AU$2))/$G16,_xll.qlInterpolationInterpolate(AS$3,$F16,TRUE))</f>
-        <v>-4.2801145088859014E-4</v>
+        <v>-7.8886892753909075E-4</v>
       </c>
       <c r="AU16" s="108" t="str">
         <f>IF(AND(NOT(AS16),AND(AS$4:AS15)),MIN(EXP((AT16-$J16)*$G16),1),"")</f>
@@ -7993,7 +7993,7 @@
       </c>
       <c r="AX16" s="103">
         <f>IF(AND(NOT(ISBLANK(AX$4)),AND(NOT(AW16),AND(AW$4:AW15))),($J16*$G16-LN(1+AX$4*AY$2))/$G16,_xll.qlInterpolationInterpolate(AW$3,$F16,TRUE))</f>
-        <v>-4.2801145088859014E-4</v>
+        <v>-7.8886892753909075E-4</v>
       </c>
       <c r="AY16" s="108" t="str">
         <f>IF(AND(NOT(AW16),AND(AW$4:AW15)),MIN(EXP((AX16-$J16)*$G16),1),"")</f>
@@ -8005,7 +8005,7 @@
       </c>
       <c r="BB16" s="103">
         <f>IF(AND(NOT(ISBLANK(BB$4)),AND(NOT(BA16),AND(BA$4:BA15))),($J16*$G16-LN(1+BB$4*BC$2))/$G16,_xll.qlInterpolationInterpolate(BA$3,$F16,TRUE))</f>
-        <v>-4.2801145088859014E-4</v>
+        <v>-7.8886892753909075E-4</v>
       </c>
       <c r="BC16" s="108" t="str">
         <f>IF(AND(NOT(BA16),AND(BA$4:BA15)),MIN(EXP((BB16-$J16)*$G16),1),"")</f>
@@ -8017,19 +8017,19 @@
       </c>
       <c r="BF16" s="103">
         <f>IF(AND(NOT(ISBLANK(BF$4)),AND(NOT(BE16),AND(BE$4:BE15))),($J16*$G16-LN(1+BF$4*BG$2))/$G16,_xll.qlInterpolationInterpolate(BE$3,$F16,TRUE))</f>
-        <v>-4.2801145088859014E-4</v>
+        <v>-7.8886892753909075E-4</v>
       </c>
       <c r="BG16" s="108" t="str">
         <f>IF(AND(NOT(BE16),AND(BE$4:BE15)),MIN(EXP((BF16-$J16)*$G16),1),"")</f>
         <v/>
       </c>
       <c r="BI16" s="107" t="b">
-        <f>IF(AND(NOT(BE16),AND(BE$4:BE15)),TRUE,BE16)</f>
+        <f>IF(ISERROR(K16),FALSE,IF(YEAR(K16)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>1</v>
       </c>
       <c r="BJ16" s="103">
         <f>IF(AND(NOT(ISBLANK(BJ$4)),AND(NOT(BI16),AND(BI$4:BI15))),($J16*$G16-LN(1+BJ$4*BK$2))/$G16,_xll.qlInterpolationInterpolate(BI$3,$F16,TRUE))</f>
-        <v>-4.2801145088859014E-4</v>
+        <v>-7.8886892753909075E-4</v>
       </c>
       <c r="BK16" s="108" t="str">
         <f>IF(AND(NOT(BI16),AND(BI$4:BI15)),MIN(EXP((BJ16-$J16)*$G16),1),"")</f>
@@ -8038,47 +8038,47 @@
     </row>
     <row r="17" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A17" s="95" t="str">
-        <v>WEUREON6M</v>
+        <v>WEURECBOISAPR15</v>
       </c>
       <c r="B17" s="27">
         <f>_xll.qlRateHelperRate($A17,InterestRatesTrigger)</f>
-        <v>-9.0000000000000006E-5</v>
+        <v>-5.5999999999999995E-4</v>
       </c>
       <c r="C17" s="30">
         <f>_xll.qlRateHelperEarliestDate($A17)</f>
-        <v>41946</v>
+        <v>42116</v>
       </c>
       <c r="D17" s="31">
         <f>_xll.qlRateHelperLatestDate($A17)</f>
-        <v>42128</v>
+        <v>42165</v>
       </c>
       <c r="F17" s="122">
         <f t="shared" si="0"/>
-        <v>42122</v>
+        <v>42162.5</v>
       </c>
       <c r="G17" s="123">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D16,D17)</f>
-        <v>3.3333333333333333E-2</v>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="I17" s="147" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="146">
-        <v>-1.8417645598897014E-4</v>
+        <v>-9.2963752342604576E-4</v>
       </c>
       <c r="K17" s="112">
         <f t="shared" si="2"/>
-        <v>42128</v>
+        <v>42165</v>
       </c>
       <c r="L17" s="101"/>
       <c r="M17" s="107" t="b">
         <f>IF(AND(NOT(I17),AND(I$4:I16)),TRUE,I17)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="103">
         <f>IF(AND(NOT(ISBLANK(N$4)),AND(NOT(M17),AND(M$4:M16))),($J17*$G17-LN(1+N$4*O$2))/$G17,_xll.qlInterpolationInterpolate(M$3,$F17,TRUE))</f>
-        <v>-4.7980799457059863E-4</v>
+        <v>-9.2963752342604576E-4</v>
       </c>
       <c r="O17" s="108" t="str">
         <f>IF(AND(NOT(M17),AND(M$4:M16)),MIN(EXP((N17-$J17)*$G17),1),"")</f>
@@ -8087,11 +8087,11 @@
       <c r="P17" s="110"/>
       <c r="Q17" s="107" t="b">
         <f>IF(AND(NOT(M17),AND(M$4:M16)),TRUE,M17)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="103">
         <f>IF(AND(NOT(ISBLANK(R$4)),AND(NOT(Q17),AND(Q$4:Q16))),($J17*$G17-LN(1+R$4*S$2))/$G17,_xll.qlInterpolationInterpolate(Q$3,$F17,TRUE))</f>
-        <v>-4.7980799457059863E-4</v>
+        <v>-9.2963752342604576E-4</v>
       </c>
       <c r="S17" s="108" t="str">
         <f>IF(AND(NOT(Q17),AND(Q$4:Q16)),MIN(EXP((R17-$J17)*$G17),1),"")</f>
@@ -8100,11 +8100,11 @@
       <c r="T17" s="110"/>
       <c r="U17" s="107" t="b">
         <f>IF(AND(NOT(Q17),AND(Q$4:Q16)),TRUE,Q17)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" s="103">
         <f>IF(AND(NOT(ISBLANK(V$4)),AND(NOT(U17),AND(U$4:U16))),($J17*$G17-LN(1+V$4*W$2))/$G17,_xll.qlInterpolationInterpolate(U$3,$F17,TRUE))</f>
-        <v>-4.7980799457059863E-4</v>
+        <v>-9.2963752342604576E-4</v>
       </c>
       <c r="W17" s="108" t="str">
         <f>IF(AND(NOT(U17),AND(U$4:U16)),MIN(EXP((V17-$J17)*$G17),1),"")</f>
@@ -8113,11 +8113,11 @@
       <c r="X17" s="110"/>
       <c r="Y17" s="107" t="b">
         <f>IF(AND(NOT(U17),AND(U$4:U16)),TRUE,U17)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z17" s="103">
         <f>IF(AND(NOT(ISBLANK(Z$4)),AND(NOT(Y17),AND(Y$4:Y16))),($J17*$G17-LN(1+Z$4*AA$2))/$G17,_xll.qlInterpolationInterpolate(Y$3,$F17,TRUE))</f>
-        <v>-4.7980799457059863E-4</v>
+        <v>-9.2963752342604576E-4</v>
       </c>
       <c r="AA17" s="108" t="str">
         <f>IF(AND(NOT(Y17),AND(Y$4:Y16)),MIN(EXP((Z17-$J17)*$G17),1),"")</f>
@@ -8126,11 +8126,11 @@
       <c r="AB17" s="110"/>
       <c r="AC17" s="107" t="b">
         <f>IF(AND(NOT(Y17),AND(Y$4:Y16)),TRUE,Y17)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD17" s="103">
         <f>IF(AND(NOT(ISBLANK(AD$4)),AND(NOT(AC17),AND(AC$4:AC16))),($J17*$G17-LN(1+AD$4*AE$2))/$G17,_xll.qlInterpolationInterpolate(AC$3,$F17,TRUE))</f>
-        <v>-4.7980799457059863E-4</v>
+        <v>-9.2963752342604576E-4</v>
       </c>
       <c r="AE17" s="108" t="str">
         <f>IF(AND(NOT(AC17),AND(AC$4:AC16)),MIN(EXP((AD17-$J17)*$G17),1),"")</f>
@@ -8139,15 +8139,15 @@
       <c r="AF17" s="110"/>
       <c r="AG17" s="107" t="b">
         <f>IF(AND(NOT(AC17),AND(AC$4:AC16)),TRUE,AC17)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH17" s="103">
         <f>IF(AND(NOT(ISBLANK(AH$4)),AND(NOT(AG17),AND(AG$4:AG16))),($J17*$G17-LN(1+AH$4*AI$2))/$G17,_xll.qlInterpolationInterpolate(AG$3,$F17,TRUE))</f>
-        <v>-4.7980799457059863E-4</v>
-      </c>
-      <c r="AI17" s="108">
+        <v>-9.2963752342604576E-4</v>
+      </c>
+      <c r="AI17" s="108" t="str">
         <f>IF(AND(NOT(AG17),AND(AG$4:AG16)),MIN(EXP((AH17-$J17)*$G17),1),"")</f>
-        <v>0.99999014566393485</v>
+        <v/>
       </c>
       <c r="AJ17" s="110"/>
       <c r="AK17" s="107" t="b">
@@ -8156,7 +8156,7 @@
       </c>
       <c r="AL17" s="103">
         <f>IF(AND(NOT(ISBLANK(AL$4)),AND(NOT(AK17),AND(AK$4:AK16))),($J17*$G17-LN(1+AL$4*AM$2))/$G17,_xll.qlInterpolationInterpolate(AK$3,$F17,TRUE))</f>
-        <v>-4.7980799457059863E-4</v>
+        <v>-9.2963752342604576E-4</v>
       </c>
       <c r="AM17" s="108" t="str">
         <f>IF(AND(NOT(AK17),AND(AK$4:AK16)),MIN(EXP((AL17-$J17)*$G17),1),"")</f>
@@ -8168,7 +8168,7 @@
       </c>
       <c r="AP17" s="103">
         <f>IF(AND(NOT(ISBLANK(AP$4)),AND(NOT(AO17),AND(AO$4:AO16))),($J17*$G17-LN(1+AP$4*AQ$2))/$G17,_xll.qlInterpolationInterpolate(AO$3,$F17,TRUE))</f>
-        <v>-4.7980799457059863E-4</v>
+        <v>-9.2963752342604576E-4</v>
       </c>
       <c r="AQ17" s="108" t="str">
         <f>IF(AND(NOT(AO17),AND(AO$4:AO16)),MIN(EXP((AP17-$J17)*$G17),1),"")</f>
@@ -8180,7 +8180,7 @@
       </c>
       <c r="AT17" s="103">
         <f>IF(AND(NOT(ISBLANK(AT$4)),AND(NOT(AS17),AND(AS$4:AS16))),($J17*$G17-LN(1+AT$4*AU$2))/$G17,_xll.qlInterpolationInterpolate(AS$3,$F17,TRUE))</f>
-        <v>-4.7980799457059863E-4</v>
+        <v>-9.2963752342604576E-4</v>
       </c>
       <c r="AU17" s="108" t="str">
         <f>IF(AND(NOT(AS17),AND(AS$4:AS16)),MIN(EXP((AT17-$J17)*$G17),1),"")</f>
@@ -8192,7 +8192,7 @@
       </c>
       <c r="AX17" s="103">
         <f>IF(AND(NOT(ISBLANK(AX$4)),AND(NOT(AW17),AND(AW$4:AW16))),($J17*$G17-LN(1+AX$4*AY$2))/$G17,_xll.qlInterpolationInterpolate(AW$3,$F17,TRUE))</f>
-        <v>-4.7980799457059863E-4</v>
+        <v>-9.2963752342604576E-4</v>
       </c>
       <c r="AY17" s="108" t="str">
         <f>IF(AND(NOT(AW17),AND(AW$4:AW16)),MIN(EXP((AX17-$J17)*$G17),1),"")</f>
@@ -8204,7 +8204,7 @@
       </c>
       <c r="BB17" s="103">
         <f>IF(AND(NOT(ISBLANK(BB$4)),AND(NOT(BA17),AND(BA$4:BA16))),($J17*$G17-LN(1+BB$4*BC$2))/$G17,_xll.qlInterpolationInterpolate(BA$3,$F17,TRUE))</f>
-        <v>-4.7980799457059863E-4</v>
+        <v>-9.2963752342604576E-4</v>
       </c>
       <c r="BC17" s="108" t="str">
         <f>IF(AND(NOT(BA17),AND(BA$4:BA16)),MIN(EXP((BB17-$J17)*$G17),1),"")</f>
@@ -8216,19 +8216,19 @@
       </c>
       <c r="BF17" s="103">
         <f>IF(AND(NOT(ISBLANK(BF$4)),AND(NOT(BE17),AND(BE$4:BE16))),($J17*$G17-LN(1+BF$4*BG$2))/$G17,_xll.qlInterpolationInterpolate(BE$3,$F17,TRUE))</f>
-        <v>-4.7980799457059863E-4</v>
+        <v>-9.2963752342604576E-4</v>
       </c>
       <c r="BG17" s="108" t="str">
         <f>IF(AND(NOT(BE17),AND(BE$4:BE16)),MIN(EXP((BF17-$J17)*$G17),1),"")</f>
         <v/>
       </c>
       <c r="BI17" s="107" t="b">
-        <f>IF(AND(NOT(BE17),AND(BE$4:BE16)),TRUE,BE17)</f>
+        <f>IF(ISERROR(K17),FALSE,IF(YEAR(K17)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>1</v>
       </c>
       <c r="BJ17" s="103">
         <f>IF(AND(NOT(ISBLANK(BJ$4)),AND(NOT(BI17),AND(BI$4:BI16))),($J17*$G17-LN(1+BJ$4*BK$2))/$G17,_xll.qlInterpolationInterpolate(BI$3,$F17,TRUE))</f>
-        <v>-4.7980799457059863E-4</v>
+        <v>-9.2963752342604576E-4</v>
       </c>
       <c r="BK17" s="108" t="str">
         <f>IF(AND(NOT(BI17),AND(BI$4:BI16)),MIN(EXP((BJ17-$J17)*$G17),1),"")</f>
@@ -8237,38 +8237,38 @@
     </row>
     <row r="18" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A18" s="95" t="str">
-        <v>WEUREON7M</v>
+        <v>WEUREON8M</v>
       </c>
       <c r="B18" s="27">
         <f>_xll.qlRateHelperRate($A18,InterestRatesTrigger)</f>
-        <v>-1.4999999999999999E-4</v>
+        <v>-2.8000000000000003E-4</v>
       </c>
       <c r="C18" s="30">
         <f>_xll.qlRateHelperEarliestDate($A18)</f>
-        <v>41946</v>
+        <v>41948</v>
       </c>
       <c r="D18" s="31">
         <f>_xll.qlRateHelperLatestDate($A18)</f>
-        <v>42158</v>
+        <v>42191</v>
       </c>
       <c r="F18" s="122">
         <f t="shared" si="0"/>
-        <v>42143</v>
+        <v>42178</v>
       </c>
       <c r="G18" s="123">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D17,D18)</f>
-        <v>8.3333333333333329E-2</v>
+        <v>7.2222222222222215E-2</v>
       </c>
       <c r="I18" s="147" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J18" s="146">
-        <v>-5.1403439748912334E-4</v>
+        <v>-5.6288232843588755E-4</v>
       </c>
       <c r="K18" s="112">
         <f t="shared" si="2"/>
-        <v>42158</v>
+        <v>42191</v>
       </c>
       <c r="L18" s="101"/>
       <c r="M18" s="107" t="b">
@@ -8277,7 +8277,7 @@
       </c>
       <c r="N18" s="103">
         <f>IF(AND(NOT(ISBLANK(N$4)),AND(NOT(M18),AND(M$4:M17))),($J18*$G18-LN(1+N$4*O$2))/$G18,_xll.qlInterpolationInterpolate(M$3,$F18,TRUE))</f>
-        <v>-5.6038039585372293E-4</v>
+        <v>-8.3758771884490514E-4</v>
       </c>
       <c r="O18" s="108" t="str">
         <f>IF(AND(NOT(M18),AND(M$4:M17)),MIN(EXP((N18-$J18)*$G18),1),"")</f>
@@ -8290,7 +8290,7 @@
       </c>
       <c r="R18" s="103">
         <f>IF(AND(NOT(ISBLANK(R$4)),AND(NOT(Q18),AND(Q$4:Q17))),($J18*$G18-LN(1+R$4*S$2))/$G18,_xll.qlInterpolationInterpolate(Q$3,$F18,TRUE))</f>
-        <v>-5.6038039585372293E-4</v>
+        <v>-8.3758771884490514E-4</v>
       </c>
       <c r="S18" s="108" t="str">
         <f>IF(AND(NOT(Q18),AND(Q$4:Q17)),MIN(EXP((R18-$J18)*$G18),1),"")</f>
@@ -8303,7 +8303,7 @@
       </c>
       <c r="V18" s="103">
         <f>IF(AND(NOT(ISBLANK(V$4)),AND(NOT(U18),AND(U$4:U17))),($J18*$G18-LN(1+V$4*W$2))/$G18,_xll.qlInterpolationInterpolate(U$3,$F18,TRUE))</f>
-        <v>-5.6038039585372293E-4</v>
+        <v>-8.3758771884490514E-4</v>
       </c>
       <c r="W18" s="108" t="str">
         <f>IF(AND(NOT(U18),AND(U$4:U17)),MIN(EXP((V18-$J18)*$G18),1),"")</f>
@@ -8316,7 +8316,7 @@
       </c>
       <c r="Z18" s="103">
         <f>IF(AND(NOT(ISBLANK(Z$4)),AND(NOT(Y18),AND(Y$4:Y17))),($J18*$G18-LN(1+Z$4*AA$2))/$G18,_xll.qlInterpolationInterpolate(Y$3,$F18,TRUE))</f>
-        <v>-5.6038039585372293E-4</v>
+        <v>-8.3758771884490514E-4</v>
       </c>
       <c r="AA18" s="108" t="str">
         <f>IF(AND(NOT(Y18),AND(Y$4:Y17)),MIN(EXP((Z18-$J18)*$G18),1),"")</f>
@@ -8329,7 +8329,7 @@
       </c>
       <c r="AD18" s="103">
         <f>IF(AND(NOT(ISBLANK(AD$4)),AND(NOT(AC18),AND(AC$4:AC17))),($J18*$G18-LN(1+AD$4*AE$2))/$G18,_xll.qlInterpolationInterpolate(AC$3,$F18,TRUE))</f>
-        <v>-5.6038039585372293E-4</v>
+        <v>-8.3758771884490514E-4</v>
       </c>
       <c r="AE18" s="108" t="str">
         <f>IF(AND(NOT(AC18),AND(AC$4:AC17)),MIN(EXP((AD18-$J18)*$G18),1),"")</f>
@@ -8342,7 +8342,7 @@
       </c>
       <c r="AH18" s="103">
         <f>IF(AND(NOT(ISBLANK(AH$4)),AND(NOT(AG18),AND(AG$4:AG17))),($J18*$G18-LN(1+AH$4*AI$2))/$G18,_xll.qlInterpolationInterpolate(AG$3,$F18,TRUE))</f>
-        <v>-5.6038039585372293E-4</v>
+        <v>-8.3758771884490514E-4</v>
       </c>
       <c r="AI18" s="108" t="str">
         <f>IF(AND(NOT(AG18),AND(AG$4:AG17)),MIN(EXP((AH18-$J18)*$G18),1),"")</f>
@@ -8355,23 +8355,23 @@
       </c>
       <c r="AL18" s="103">
         <f>IF(AND(NOT(ISBLANK(AL$4)),AND(NOT(AK18),AND(AK$4:AK17))),($J18*$G18-LN(1+AL$4*AM$2))/$G18,_xll.qlInterpolationInterpolate(AK$3,$F18,TRUE))</f>
-        <v>-5.6038039585372304E-4</v>
-      </c>
-      <c r="AM18" s="108">
+        <v>-8.3758771884490514E-4</v>
+      </c>
+      <c r="AM18" s="108" t="str">
         <f>IF(AND(NOT(AK18),AND(AK$4:AK17)),MIN(EXP((AL18-$J18)*$G18),1),"")</f>
-        <v>0.99999613784092778</v>
+        <v/>
       </c>
       <c r="AO18" s="107" t="b">
         <f>IF(AND(NOT(AK18),AND(AK$4:AK17)),TRUE,AK18)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP18" s="103">
         <f>IF(AND(NOT(ISBLANK(AP$4)),AND(NOT(AO18),AND(AO$4:AO17))),($J18*$G18-LN(1+AP$4*AQ$2))/$G18,_xll.qlInterpolationInterpolate(AO$3,$F18,TRUE))</f>
-        <v>-5.6038039585372304E-4</v>
-      </c>
-      <c r="AQ18" s="108" t="str">
+        <v>-8.3758771884490514E-4</v>
+      </c>
+      <c r="AQ18" s="108">
         <f>IF(AND(NOT(AO18),AND(AO$4:AO17)),MIN(EXP((AP18-$J18)*$G18),1),"")</f>
-        <v/>
+        <v>0.99998016036305648</v>
       </c>
       <c r="AS18" s="107" t="b">
         <f>IF(AND(NOT(AO18),AND(AO$4:AO17)),TRUE,AO18)</f>
@@ -8379,7 +8379,7 @@
       </c>
       <c r="AT18" s="103">
         <f>IF(AND(NOT(ISBLANK(AT$4)),AND(NOT(AS18),AND(AS$4:AS17))),($J18*$G18-LN(1+AT$4*AU$2))/$G18,_xll.qlInterpolationInterpolate(AS$3,$F18,TRUE))</f>
-        <v>-5.6038039585372304E-4</v>
+        <v>-8.3758771884490514E-4</v>
       </c>
       <c r="AU18" s="108" t="str">
         <f>IF(AND(NOT(AS18),AND(AS$4:AS17)),MIN(EXP((AT18-$J18)*$G18),1),"")</f>
@@ -8391,7 +8391,7 @@
       </c>
       <c r="AX18" s="103">
         <f>IF(AND(NOT(ISBLANK(AX$4)),AND(NOT(AW18),AND(AW$4:AW17))),($J18*$G18-LN(1+AX$4*AY$2))/$G18,_xll.qlInterpolationInterpolate(AW$3,$F18,TRUE))</f>
-        <v>-5.6038039585372304E-4</v>
+        <v>-8.3758771884490514E-4</v>
       </c>
       <c r="AY18" s="108" t="str">
         <f>IF(AND(NOT(AW18),AND(AW$4:AW17)),MIN(EXP((AX18-$J18)*$G18),1),"")</f>
@@ -8403,7 +8403,7 @@
       </c>
       <c r="BB18" s="103">
         <f>IF(AND(NOT(ISBLANK(BB$4)),AND(NOT(BA18),AND(BA$4:BA17))),($J18*$G18-LN(1+BB$4*BC$2))/$G18,_xll.qlInterpolationInterpolate(BA$3,$F18,TRUE))</f>
-        <v>-5.6038039585372304E-4</v>
+        <v>-8.3758771884490514E-4</v>
       </c>
       <c r="BC18" s="108" t="str">
         <f>IF(AND(NOT(BA18),AND(BA$4:BA17)),MIN(EXP((BB18-$J18)*$G18),1),"")</f>
@@ -8415,19 +8415,19 @@
       </c>
       <c r="BF18" s="103">
         <f>IF(AND(NOT(ISBLANK(BF$4)),AND(NOT(BE18),AND(BE$4:BE17))),($J18*$G18-LN(1+BF$4*BG$2))/$G18,_xll.qlInterpolationInterpolate(BE$3,$F18,TRUE))</f>
-        <v>-5.6038039585372304E-4</v>
+        <v>-8.3758771884490514E-4</v>
       </c>
       <c r="BG18" s="108" t="str">
         <f>IF(AND(NOT(BE18),AND(BE$4:BE17)),MIN(EXP((BF18-$J18)*$G18),1),"")</f>
         <v/>
       </c>
       <c r="BI18" s="107" t="b">
-        <f>IF(AND(NOT(BE18),AND(BE$4:BE17)),TRUE,BE18)</f>
+        <f>IF(ISERROR(K18),FALSE,IF(YEAR(K18)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>1</v>
       </c>
       <c r="BJ18" s="103">
         <f>IF(AND(NOT(ISBLANK(BJ$4)),AND(NOT(BI18),AND(BI$4:BI17))),($J18*$G18-LN(1+BJ$4*BK$2))/$G18,_xll.qlInterpolationInterpolate(BI$3,$F18,TRUE))</f>
-        <v>-5.6038039585372304E-4</v>
+        <v>-8.3758771884490514E-4</v>
       </c>
       <c r="BK18" s="108" t="str">
         <f>IF(AND(NOT(BI18),AND(BI$4:BI17)),MIN(EXP((BJ18-$J18)*$G18),1),"")</f>
@@ -8436,38 +8436,38 @@
     </row>
     <row r="19" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A19" s="95" t="str">
-        <v>WEURECBOISAPR15</v>
+        <v>WEURECBOISJUN15</v>
       </c>
       <c r="B19" s="27">
         <f>_xll.qlRateHelperRate($A19,InterestRatesTrigger)</f>
-        <v>-4.5000000000000004E-4</v>
+        <v>-6.2E-4</v>
       </c>
       <c r="C19" s="30">
         <f>_xll.qlRateHelperEarliestDate($A19)</f>
-        <v>42116</v>
+        <v>42165</v>
       </c>
       <c r="D19" s="31">
         <f>_xll.qlRateHelperLatestDate($A19)</f>
-        <v>42165</v>
+        <v>42207</v>
       </c>
       <c r="F19" s="122">
         <f t="shared" si="0"/>
-        <v>42161.5</v>
+        <v>42199</v>
       </c>
       <c r="G19" s="123">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D18,D19)</f>
-        <v>1.9444444444444445E-2</v>
+        <v>4.4444444444444446E-2</v>
       </c>
       <c r="I19" s="147" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J19" s="146">
-        <v>-6.3136084460314206E-4</v>
+        <v>-7.1287508038013394E-4</v>
       </c>
       <c r="K19" s="112">
         <f t="shared" si="2"/>
-        <v>42165</v>
+        <v>42207</v>
       </c>
       <c r="L19" s="101"/>
       <c r="M19" s="107" t="b">
@@ -8476,7 +8476,7 @@
       </c>
       <c r="N19" s="103">
         <f>IF(AND(NOT(ISBLANK(N$4)),AND(NOT(M19),AND(M$4:M18))),($J19*$G19-LN(1+N$4*O$2))/$G19,_xll.qlInterpolationInterpolate(M$3,$F19,TRUE))</f>
-        <v>-6.3136084460314206E-4</v>
+        <v>-7.1287508038013394E-4</v>
       </c>
       <c r="O19" s="108" t="str">
         <f>IF(AND(NOT(M19),AND(M$4:M18)),MIN(EXP((N19-$J19)*$G19),1),"")</f>
@@ -8489,7 +8489,7 @@
       </c>
       <c r="R19" s="103">
         <f>IF(AND(NOT(ISBLANK(R$4)),AND(NOT(Q19),AND(Q$4:Q18))),($J19*$G19-LN(1+R$4*S$2))/$G19,_xll.qlInterpolationInterpolate(Q$3,$F19,TRUE))</f>
-        <v>-6.3136084460314206E-4</v>
+        <v>-7.1287508038013394E-4</v>
       </c>
       <c r="S19" s="108" t="str">
         <f>IF(AND(NOT(Q19),AND(Q$4:Q18)),MIN(EXP((R19-$J19)*$G19),1),"")</f>
@@ -8502,7 +8502,7 @@
       </c>
       <c r="V19" s="103">
         <f>IF(AND(NOT(ISBLANK(V$4)),AND(NOT(U19),AND(U$4:U18))),($J19*$G19-LN(1+V$4*W$2))/$G19,_xll.qlInterpolationInterpolate(U$3,$F19,TRUE))</f>
-        <v>-6.3136084460314206E-4</v>
+        <v>-7.1287508038013394E-4</v>
       </c>
       <c r="W19" s="108" t="str">
         <f>IF(AND(NOT(U19),AND(U$4:U18)),MIN(EXP((V19-$J19)*$G19),1),"")</f>
@@ -8515,7 +8515,7 @@
       </c>
       <c r="Z19" s="103">
         <f>IF(AND(NOT(ISBLANK(Z$4)),AND(NOT(Y19),AND(Y$4:Y18))),($J19*$G19-LN(1+Z$4*AA$2))/$G19,_xll.qlInterpolationInterpolate(Y$3,$F19,TRUE))</f>
-        <v>-6.3136084460314206E-4</v>
+        <v>-7.1287508038013394E-4</v>
       </c>
       <c r="AA19" s="108" t="str">
         <f>IF(AND(NOT(Y19),AND(Y$4:Y18)),MIN(EXP((Z19-$J19)*$G19),1),"")</f>
@@ -8528,7 +8528,7 @@
       </c>
       <c r="AD19" s="103">
         <f>IF(AND(NOT(ISBLANK(AD$4)),AND(NOT(AC19),AND(AC$4:AC18))),($J19*$G19-LN(1+AD$4*AE$2))/$G19,_xll.qlInterpolationInterpolate(AC$3,$F19,TRUE))</f>
-        <v>-6.3136084460314206E-4</v>
+        <v>-7.1287508038013394E-4</v>
       </c>
       <c r="AE19" s="108" t="str">
         <f>IF(AND(NOT(AC19),AND(AC$4:AC18)),MIN(EXP((AD19-$J19)*$G19),1),"")</f>
@@ -8541,7 +8541,7 @@
       </c>
       <c r="AH19" s="103">
         <f>IF(AND(NOT(ISBLANK(AH$4)),AND(NOT(AG19),AND(AG$4:AG18))),($J19*$G19-LN(1+AH$4*AI$2))/$G19,_xll.qlInterpolationInterpolate(AG$3,$F19,TRUE))</f>
-        <v>-6.3136084460314206E-4</v>
+        <v>-7.1287508038013394E-4</v>
       </c>
       <c r="AI19" s="108" t="str">
         <f>IF(AND(NOT(AG19),AND(AG$4:AG18)),MIN(EXP((AH19-$J19)*$G19),1),"")</f>
@@ -8554,7 +8554,7 @@
       </c>
       <c r="AL19" s="103">
         <f>IF(AND(NOT(ISBLANK(AL$4)),AND(NOT(AK19),AND(AK$4:AK18))),($J19*$G19-LN(1+AL$4*AM$2))/$G19,_xll.qlInterpolationInterpolate(AK$3,$F19,TRUE))</f>
-        <v>-6.3136084460314206E-4</v>
+        <v>-7.1287508038013394E-4</v>
       </c>
       <c r="AM19" s="108" t="str">
         <f>IF(AND(NOT(AK19),AND(AK$4:AK18)),MIN(EXP((AL19-$J19)*$G19),1),"")</f>
@@ -8566,7 +8566,7 @@
       </c>
       <c r="AP19" s="103">
         <f>IF(AND(NOT(ISBLANK(AP$4)),AND(NOT(AO19),AND(AO$4:AO18))),($J19*$G19-LN(1+AP$4*AQ$2))/$G19,_xll.qlInterpolationInterpolate(AO$3,$F19,TRUE))</f>
-        <v>-6.3136084460314206E-4</v>
+        <v>-7.1287508038013394E-4</v>
       </c>
       <c r="AQ19" s="108" t="str">
         <f>IF(AND(NOT(AO19),AND(AO$4:AO18)),MIN(EXP((AP19-$J19)*$G19),1),"")</f>
@@ -8578,7 +8578,7 @@
       </c>
       <c r="AT19" s="103">
         <f>IF(AND(NOT(ISBLANK(AT$4)),AND(NOT(AS19),AND(AS$4:AS18))),($J19*$G19-LN(1+AT$4*AU$2))/$G19,_xll.qlInterpolationInterpolate(AS$3,$F19,TRUE))</f>
-        <v>-6.3136084460314206E-4</v>
+        <v>-7.1287508038013394E-4</v>
       </c>
       <c r="AU19" s="108" t="str">
         <f>IF(AND(NOT(AS19),AND(AS$4:AS18)),MIN(EXP((AT19-$J19)*$G19),1),"")</f>
@@ -8590,7 +8590,7 @@
       </c>
       <c r="AX19" s="103">
         <f>IF(AND(NOT(ISBLANK(AX$4)),AND(NOT(AW19),AND(AW$4:AW18))),($J19*$G19-LN(1+AX$4*AY$2))/$G19,_xll.qlInterpolationInterpolate(AW$3,$F19,TRUE))</f>
-        <v>-6.3136084460314206E-4</v>
+        <v>-7.1287508038013394E-4</v>
       </c>
       <c r="AY19" s="108" t="str">
         <f>IF(AND(NOT(AW19),AND(AW$4:AW18)),MIN(EXP((AX19-$J19)*$G19),1),"")</f>
@@ -8602,7 +8602,7 @@
       </c>
       <c r="BB19" s="103">
         <f>IF(AND(NOT(ISBLANK(BB$4)),AND(NOT(BA19),AND(BA$4:BA18))),($J19*$G19-LN(1+BB$4*BC$2))/$G19,_xll.qlInterpolationInterpolate(BA$3,$F19,TRUE))</f>
-        <v>-6.3136084460314206E-4</v>
+        <v>-7.1287508038013394E-4</v>
       </c>
       <c r="BC19" s="108" t="str">
         <f>IF(AND(NOT(BA19),AND(BA$4:BA18)),MIN(EXP((BB19-$J19)*$G19),1),"")</f>
@@ -8614,19 +8614,19 @@
       </c>
       <c r="BF19" s="103">
         <f>IF(AND(NOT(ISBLANK(BF$4)),AND(NOT(BE19),AND(BE$4:BE18))),($J19*$G19-LN(1+BF$4*BG$2))/$G19,_xll.qlInterpolationInterpolate(BE$3,$F19,TRUE))</f>
-        <v>-6.3136084460314206E-4</v>
+        <v>-7.1287508038013394E-4</v>
       </c>
       <c r="BG19" s="108" t="str">
         <f>IF(AND(NOT(BE19),AND(BE$4:BE18)),MIN(EXP((BF19-$J19)*$G19),1),"")</f>
         <v/>
       </c>
       <c r="BI19" s="107" t="b">
-        <f>IF(AND(NOT(BE19),AND(BE$4:BE18)),TRUE,BE19)</f>
+        <f>IF(ISERROR(K19),FALSE,IF(YEAR(K19)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>1</v>
       </c>
       <c r="BJ19" s="103">
         <f>IF(AND(NOT(ISBLANK(BJ$4)),AND(NOT(BI19),AND(BI$4:BI18))),($J19*$G19-LN(1+BJ$4*BK$2))/$G19,_xll.qlInterpolationInterpolate(BI$3,$F19,TRUE))</f>
-        <v>-6.3136084460314206E-4</v>
+        <v>-7.1287508038013394E-4</v>
       </c>
       <c r="BK19" s="108" t="str">
         <f>IF(AND(NOT(BI19),AND(BI$4:BI18)),MIN(EXP((BJ19-$J19)*$G19),1),"")</f>
@@ -8635,38 +8635,38 @@
     </row>
     <row r="20" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A20" s="95" t="str">
-        <v>WEUREON8M</v>
+        <v>WEUREON9M</v>
       </c>
       <c r="B20" s="27">
         <f>_xll.qlRateHelperRate($A20,InterestRatesTrigger)</f>
-        <v>-2.0000000000000001E-4</v>
+        <v>-3.2000000000000003E-4</v>
       </c>
       <c r="C20" s="30">
         <f>_xll.qlRateHelperEarliestDate($A20)</f>
-        <v>41946</v>
+        <v>41948</v>
       </c>
       <c r="D20" s="31">
         <f>_xll.qlRateHelperLatestDate($A20)</f>
-        <v>42188</v>
+        <v>42221</v>
       </c>
       <c r="F20" s="122">
         <f t="shared" si="0"/>
-        <v>42176.5</v>
+        <v>42214</v>
       </c>
       <c r="G20" s="123">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D19,D20)</f>
-        <v>6.3888888888888884E-2</v>
+        <v>3.888888888888889E-2</v>
       </c>
       <c r="I20" s="147" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J20" s="146">
-        <v>-5.2966623277028724E-4</v>
+        <v>-5.6558353684324839E-4</v>
       </c>
       <c r="K20" s="112">
         <f t="shared" si="2"/>
-        <v>42188</v>
+        <v>42221</v>
       </c>
       <c r="L20" s="101"/>
       <c r="M20" s="107" t="b">
@@ -8675,7 +8675,7 @@
       </c>
       <c r="N20" s="103">
         <f>IF(AND(NOT(ISBLANK(N$4)),AND(NOT(M20),AND(M$4:M19))),($J20*$G20-LN(1+N$4*O$2))/$G20,_xll.qlInterpolationInterpolate(M$3,$F20,TRUE))</f>
-        <v>-5.8009950919565671E-4</v>
+        <v>-7.2237131257040248E-4</v>
       </c>
       <c r="O20" s="108" t="str">
         <f>IF(AND(NOT(M20),AND(M$4:M19)),MIN(EXP((N20-$J20)*$G20),1),"")</f>
@@ -8688,7 +8688,7 @@
       </c>
       <c r="R20" s="103">
         <f>IF(AND(NOT(ISBLANK(R$4)),AND(NOT(Q20),AND(Q$4:Q19))),($J20*$G20-LN(1+R$4*S$2))/$G20,_xll.qlInterpolationInterpolate(Q$3,$F20,TRUE))</f>
-        <v>-5.8009950919565671E-4</v>
+        <v>-7.2237131257040248E-4</v>
       </c>
       <c r="S20" s="108" t="str">
         <f>IF(AND(NOT(Q20),AND(Q$4:Q19)),MIN(EXP((R20-$J20)*$G20),1),"")</f>
@@ -8701,7 +8701,7 @@
       </c>
       <c r="V20" s="103">
         <f>IF(AND(NOT(ISBLANK(V$4)),AND(NOT(U20),AND(U$4:U19))),($J20*$G20-LN(1+V$4*W$2))/$G20,_xll.qlInterpolationInterpolate(U$3,$F20,TRUE))</f>
-        <v>-5.8009950919565671E-4</v>
+        <v>-7.2237131257040248E-4</v>
       </c>
       <c r="W20" s="108" t="str">
         <f>IF(AND(NOT(U20),AND(U$4:U19)),MIN(EXP((V20-$J20)*$G20),1),"")</f>
@@ -8714,7 +8714,7 @@
       </c>
       <c r="Z20" s="103">
         <f>IF(AND(NOT(ISBLANK(Z$4)),AND(NOT(Y20),AND(Y$4:Y19))),($J20*$G20-LN(1+Z$4*AA$2))/$G20,_xll.qlInterpolationInterpolate(Y$3,$F20,TRUE))</f>
-        <v>-5.8009950919565671E-4</v>
+        <v>-7.2237131257040248E-4</v>
       </c>
       <c r="AA20" s="108" t="str">
         <f>IF(AND(NOT(Y20),AND(Y$4:Y19)),MIN(EXP((Z20-$J20)*$G20),1),"")</f>
@@ -8727,7 +8727,7 @@
       </c>
       <c r="AD20" s="103">
         <f>IF(AND(NOT(ISBLANK(AD$4)),AND(NOT(AC20),AND(AC$4:AC19))),($J20*$G20-LN(1+AD$4*AE$2))/$G20,_xll.qlInterpolationInterpolate(AC$3,$F20,TRUE))</f>
-        <v>-5.8009950919565671E-4</v>
+        <v>-7.2237131257040248E-4</v>
       </c>
       <c r="AE20" s="108" t="str">
         <f>IF(AND(NOT(AC20),AND(AC$4:AC19)),MIN(EXP((AD20-$J20)*$G20),1),"")</f>
@@ -8740,7 +8740,7 @@
       </c>
       <c r="AH20" s="103">
         <f>IF(AND(NOT(ISBLANK(AH$4)),AND(NOT(AG20),AND(AG$4:AG19))),($J20*$G20-LN(1+AH$4*AI$2))/$G20,_xll.qlInterpolationInterpolate(AG$3,$F20,TRUE))</f>
-        <v>-5.8009950919565671E-4</v>
+        <v>-7.2237131257040248E-4</v>
       </c>
       <c r="AI20" s="108" t="str">
         <f>IF(AND(NOT(AG20),AND(AG$4:AG19)),MIN(EXP((AH20-$J20)*$G20),1),"")</f>
@@ -8753,7 +8753,7 @@
       </c>
       <c r="AL20" s="103">
         <f>IF(AND(NOT(ISBLANK(AL$4)),AND(NOT(AK20),AND(AK$4:AK19))),($J20*$G20-LN(1+AL$4*AM$2))/$G20,_xll.qlInterpolationInterpolate(AK$3,$F20,TRUE))</f>
-        <v>-5.8009950919565671E-4</v>
+        <v>-7.2237131257040248E-4</v>
       </c>
       <c r="AM20" s="108" t="str">
         <f>IF(AND(NOT(AK20),AND(AK$4:AK19)),MIN(EXP((AL20-$J20)*$G20),1),"")</f>
@@ -8765,23 +8765,23 @@
       </c>
       <c r="AP20" s="103">
         <f>IF(AND(NOT(ISBLANK(AP$4)),AND(NOT(AO20),AND(AO$4:AO19))),($J20*$G20-LN(1+AP$4*AQ$2))/$G20,_xll.qlInterpolationInterpolate(AO$3,$F20,TRUE))</f>
-        <v>-5.8009950919565671E-4</v>
-      </c>
-      <c r="AQ20" s="108">
+        <v>-7.2237131257040248E-4</v>
+      </c>
+      <c r="AQ20" s="108" t="str">
         <f>IF(AND(NOT(AO20),AND(AO$4:AO19)),MIN(EXP((AP20-$J20)*$G20),1),"")</f>
-        <v>0.99999677787919716</v>
+        <v/>
       </c>
       <c r="AS20" s="107" t="b">
         <f>IF(AND(NOT(AO20),AND(AO$4:AO19)),TRUE,AO20)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="103">
         <f>IF(AND(NOT(ISBLANK(AT$4)),AND(NOT(AS20),AND(AS$4:AS19))),($J20*$G20-LN(1+AT$4*AU$2))/$G20,_xll.qlInterpolationInterpolate(AS$3,$F20,TRUE))</f>
-        <v>-5.8009950919565671E-4</v>
-      </c>
-      <c r="AU20" s="108" t="str">
+        <v>-7.2237131257040248E-4</v>
+      </c>
+      <c r="AU20" s="108">
         <f>IF(AND(NOT(AS20),AND(AS$4:AS19)),MIN(EXP((AT20-$J20)*$G20),1),"")</f>
-        <v/>
+        <v>0.99999390271619915</v>
       </c>
       <c r="AW20" s="107" t="b">
         <f>IF(AND(NOT(AS20),AND(AS$4:AS19)),TRUE,AS20)</f>
@@ -8789,7 +8789,7 @@
       </c>
       <c r="AX20" s="103">
         <f>IF(AND(NOT(ISBLANK(AX$4)),AND(NOT(AW20),AND(AW$4:AW19))),($J20*$G20-LN(1+AX$4*AY$2))/$G20,_xll.qlInterpolationInterpolate(AW$3,$F20,TRUE))</f>
-        <v>-5.8009950919565671E-4</v>
+        <v>-7.2237131257040248E-4</v>
       </c>
       <c r="AY20" s="108" t="str">
         <f>IF(AND(NOT(AW20),AND(AW$4:AW19)),MIN(EXP((AX20-$J20)*$G20),1),"")</f>
@@ -8801,7 +8801,7 @@
       </c>
       <c r="BB20" s="103">
         <f>IF(AND(NOT(ISBLANK(BB$4)),AND(NOT(BA20),AND(BA$4:BA19))),($J20*$G20-LN(1+BB$4*BC$2))/$G20,_xll.qlInterpolationInterpolate(BA$3,$F20,TRUE))</f>
-        <v>-5.8009950919565671E-4</v>
+        <v>-7.2237131257040248E-4</v>
       </c>
       <c r="BC20" s="108" t="str">
         <f>IF(AND(NOT(BA20),AND(BA$4:BA19)),MIN(EXP((BB20-$J20)*$G20),1),"")</f>
@@ -8813,19 +8813,19 @@
       </c>
       <c r="BF20" s="103">
         <f>IF(AND(NOT(ISBLANK(BF$4)),AND(NOT(BE20),AND(BE$4:BE19))),($J20*$G20-LN(1+BF$4*BG$2))/$G20,_xll.qlInterpolationInterpolate(BE$3,$F20,TRUE))</f>
-        <v>-5.8009950919565671E-4</v>
+        <v>-7.2237131257040248E-4</v>
       </c>
       <c r="BG20" s="108" t="str">
         <f>IF(AND(NOT(BE20),AND(BE$4:BE19)),MIN(EXP((BF20-$J20)*$G20),1),"")</f>
         <v/>
       </c>
       <c r="BI20" s="107" t="b">
-        <f>IF(AND(NOT(BE20),AND(BE$4:BE19)),TRUE,BE20)</f>
+        <f>IF(ISERROR(K20),FALSE,IF(YEAR(K20)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>1</v>
       </c>
       <c r="BJ20" s="103">
         <f>IF(AND(NOT(ISBLANK(BJ$4)),AND(NOT(BI20),AND(BI$4:BI19))),($J20*$G20-LN(1+BJ$4*BK$2))/$G20,_xll.qlInterpolationInterpolate(BI$3,$F20,TRUE))</f>
-        <v>-5.8009950919565671E-4</v>
+        <v>-7.2237131257040248E-4</v>
       </c>
       <c r="BK20" s="108" t="str">
         <f>IF(AND(NOT(BI20),AND(BI$4:BI19)),MIN(EXP((BJ20-$J20)*$G20),1),"")</f>
@@ -8834,47 +8834,47 @@
     </row>
     <row r="21" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A21" s="95" t="str">
-        <v>WEURECBOISJUN15</v>
+        <v>WEURECBOISJUL15</v>
       </c>
       <c r="B21" s="27">
         <f>_xll.qlRateHelperRate($A21,InterestRatesTrigger)</f>
-        <v>-5.1999999999999995E-4</v>
+        <v>-6.8000000000000005E-4</v>
       </c>
       <c r="C21" s="30">
         <f>_xll.qlRateHelperEarliestDate($A21)</f>
-        <v>42165</v>
+        <v>42207</v>
       </c>
       <c r="D21" s="31">
         <f>_xll.qlRateHelperLatestDate($A21)</f>
-        <v>42207</v>
+        <v>42256</v>
       </c>
       <c r="F21" s="122">
         <f t="shared" si="0"/>
-        <v>42197.5</v>
+        <v>42238.5</v>
       </c>
       <c r="G21" s="123">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D20,D21)</f>
-        <v>5.2777777777777778E-2</v>
+        <v>9.7222222222222224E-2</v>
       </c>
       <c r="I21" s="147" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" s="146">
-        <v>-5.0833363962517729E-4</v>
+        <v>-7.2581064442746735E-4</v>
       </c>
       <c r="K21" s="112">
         <f t="shared" si="2"/>
-        <v>42207</v>
+        <v>42256</v>
       </c>
       <c r="L21" s="101"/>
       <c r="M21" s="107" t="b">
         <f>IF(AND(NOT(I21),AND(I$4:I20)),TRUE,I21)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" s="103">
         <f>IF(AND(NOT(ISBLANK(N$4)),AND(NOT(M21),AND(M$4:M20))),($J21*$G21-LN(1+N$4*O$2))/$G21,_xll.qlInterpolationInterpolate(M$3,$F21,TRUE))</f>
-        <v>-5.0833363962517729E-4</v>
+        <v>-7.3788182514784113E-4</v>
       </c>
       <c r="O21" s="108" t="str">
         <f>IF(AND(NOT(M21),AND(M$4:M20)),MIN(EXP((N21-$J21)*$G21),1),"")</f>
@@ -8883,11 +8883,11 @@
       <c r="P21" s="110"/>
       <c r="Q21" s="107" t="b">
         <f>IF(AND(NOT(M21),AND(M$4:M20)),TRUE,M21)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" s="103">
         <f>IF(AND(NOT(ISBLANK(R$4)),AND(NOT(Q21),AND(Q$4:Q20))),($J21*$G21-LN(1+R$4*S$2))/$G21,_xll.qlInterpolationInterpolate(Q$3,$F21,TRUE))</f>
-        <v>-5.0833363962517729E-4</v>
+        <v>-7.3788182514784113E-4</v>
       </c>
       <c r="S21" s="108" t="str">
         <f>IF(AND(NOT(Q21),AND(Q$4:Q20)),MIN(EXP((R21-$J21)*$G21),1),"")</f>
@@ -8896,11 +8896,11 @@
       <c r="T21" s="110"/>
       <c r="U21" s="107" t="b">
         <f>IF(AND(NOT(Q21),AND(Q$4:Q20)),TRUE,Q21)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21" s="103">
         <f>IF(AND(NOT(ISBLANK(V$4)),AND(NOT(U21),AND(U$4:U20))),($J21*$G21-LN(1+V$4*W$2))/$G21,_xll.qlInterpolationInterpolate(U$3,$F21,TRUE))</f>
-        <v>-5.0833363962517729E-4</v>
+        <v>-7.3788182514784113E-4</v>
       </c>
       <c r="W21" s="108" t="str">
         <f>IF(AND(NOT(U21),AND(U$4:U20)),MIN(EXP((V21-$J21)*$G21),1),"")</f>
@@ -8909,11 +8909,11 @@
       <c r="X21" s="110"/>
       <c r="Y21" s="107" t="b">
         <f>IF(AND(NOT(U21),AND(U$4:U20)),TRUE,U21)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="103">
         <f>IF(AND(NOT(ISBLANK(Z$4)),AND(NOT(Y21),AND(Y$4:Y20))),($J21*$G21-LN(1+Z$4*AA$2))/$G21,_xll.qlInterpolationInterpolate(Y$3,$F21,TRUE))</f>
-        <v>-5.0833363962517729E-4</v>
+        <v>-7.3788182514784113E-4</v>
       </c>
       <c r="AA21" s="108" t="str">
         <f>IF(AND(NOT(Y21),AND(Y$4:Y20)),MIN(EXP((Z21-$J21)*$G21),1),"")</f>
@@ -8922,11 +8922,11 @@
       <c r="AB21" s="110"/>
       <c r="AC21" s="107" t="b">
         <f>IF(AND(NOT(Y21),AND(Y$4:Y20)),TRUE,Y21)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD21" s="103">
         <f>IF(AND(NOT(ISBLANK(AD$4)),AND(NOT(AC21),AND(AC$4:AC20))),($J21*$G21-LN(1+AD$4*AE$2))/$G21,_xll.qlInterpolationInterpolate(AC$3,$F21,TRUE))</f>
-        <v>-5.0833363962517729E-4</v>
+        <v>-7.3788182514784113E-4</v>
       </c>
       <c r="AE21" s="108" t="str">
         <f>IF(AND(NOT(AC21),AND(AC$4:AC20)),MIN(EXP((AD21-$J21)*$G21),1),"")</f>
@@ -8935,11 +8935,11 @@
       <c r="AF21" s="110"/>
       <c r="AG21" s="107" t="b">
         <f>IF(AND(NOT(AC21),AND(AC$4:AC20)),TRUE,AC21)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH21" s="103">
         <f>IF(AND(NOT(ISBLANK(AH$4)),AND(NOT(AG21),AND(AG$4:AG20))),($J21*$G21-LN(1+AH$4*AI$2))/$G21,_xll.qlInterpolationInterpolate(AG$3,$F21,TRUE))</f>
-        <v>-5.0833363962517729E-4</v>
+        <v>-7.3788182514784113E-4</v>
       </c>
       <c r="AI21" s="108" t="str">
         <f>IF(AND(NOT(AG21),AND(AG$4:AG20)),MIN(EXP((AH21-$J21)*$G21),1),"")</f>
@@ -8948,11 +8948,11 @@
       <c r="AJ21" s="110"/>
       <c r="AK21" s="107" t="b">
         <f>IF(AND(NOT(AG21),AND(AG$4:AG20)),TRUE,AG21)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL21" s="103">
         <f>IF(AND(NOT(ISBLANK(AL$4)),AND(NOT(AK21),AND(AK$4:AK20))),($J21*$G21-LN(1+AL$4*AM$2))/$G21,_xll.qlInterpolationInterpolate(AK$3,$F21,TRUE))</f>
-        <v>-5.0833363962517729E-4</v>
+        <v>-7.3788182514784113E-4</v>
       </c>
       <c r="AM21" s="108" t="str">
         <f>IF(AND(NOT(AK21),AND(AK$4:AK20)),MIN(EXP((AL21-$J21)*$G21),1),"")</f>
@@ -8960,11 +8960,11 @@
       </c>
       <c r="AO21" s="107" t="b">
         <f>IF(AND(NOT(AK21),AND(AK$4:AK20)),TRUE,AK21)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP21" s="103">
         <f>IF(AND(NOT(ISBLANK(AP$4)),AND(NOT(AO21),AND(AO$4:AO20))),($J21*$G21-LN(1+AP$4*AQ$2))/$G21,_xll.qlInterpolationInterpolate(AO$3,$F21,TRUE))</f>
-        <v>-5.0833363962517729E-4</v>
+        <v>-7.3788182514784113E-4</v>
       </c>
       <c r="AQ21" s="108" t="str">
         <f>IF(AND(NOT(AO21),AND(AO$4:AO20)),MIN(EXP((AP21-$J21)*$G21),1),"")</f>
@@ -8972,11 +8972,11 @@
       </c>
       <c r="AS21" s="107" t="b">
         <f>IF(AND(NOT(AO21),AND(AO$4:AO20)),TRUE,AO21)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="103">
         <f>IF(AND(NOT(ISBLANK(AT$4)),AND(NOT(AS21),AND(AS$4:AS20))),($J21*$G21-LN(1+AT$4*AU$2))/$G21,_xll.qlInterpolationInterpolate(AS$3,$F21,TRUE))</f>
-        <v>-5.0833363962517729E-4</v>
+        <v>-7.3788182514784113E-4</v>
       </c>
       <c r="AU21" s="108" t="str">
         <f>IF(AND(NOT(AS21),AND(AS$4:AS20)),MIN(EXP((AT21-$J21)*$G21),1),"")</f>
@@ -8984,15 +8984,15 @@
       </c>
       <c r="AW21" s="107" t="b">
         <f>IF(AND(NOT(AS21),AND(AS$4:AS20)),TRUE,AS21)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX21" s="103">
         <f>IF(AND(NOT(ISBLANK(AX$4)),AND(NOT(AW21),AND(AW$4:AW20))),($J21*$G21-LN(1+AX$4*AY$2))/$G21,_xll.qlInterpolationInterpolate(AW$3,$F21,TRUE))</f>
-        <v>-5.0833363962517729E-4</v>
-      </c>
-      <c r="AY21" s="108" t="str">
+        <v>-7.3788182514784113E-4</v>
+      </c>
+      <c r="AY21" s="108">
         <f>IF(AND(NOT(AW21),AND(AW$4:AW20)),MIN(EXP((AX21-$J21)*$G21),1),"")</f>
-        <v/>
+        <v>0.99999882641367421</v>
       </c>
       <c r="BA21" s="107" t="b">
         <f>IF(AND(NOT(AW21),AND(AW$4:AW20)),TRUE,AW21)</f>
@@ -9000,7 +9000,7 @@
       </c>
       <c r="BB21" s="103">
         <f>IF(AND(NOT(ISBLANK(BB$4)),AND(NOT(BA21),AND(BA$4:BA20))),($J21*$G21-LN(1+BB$4*BC$2))/$G21,_xll.qlInterpolationInterpolate(BA$3,$F21,TRUE))</f>
-        <v>-5.0833363962517729E-4</v>
+        <v>-7.3788182514784113E-4</v>
       </c>
       <c r="BC21" s="108" t="str">
         <f>IF(AND(NOT(BA21),AND(BA$4:BA20)),MIN(EXP((BB21-$J21)*$G21),1),"")</f>
@@ -9012,19 +9012,19 @@
       </c>
       <c r="BF21" s="103">
         <f>IF(AND(NOT(ISBLANK(BF$4)),AND(NOT(BE21),AND(BE$4:BE20))),($J21*$G21-LN(1+BF$4*BG$2))/$G21,_xll.qlInterpolationInterpolate(BE$3,$F21,TRUE))</f>
-        <v>-5.0833363962517729E-4</v>
+        <v>-7.3788182514784113E-4</v>
       </c>
       <c r="BG21" s="108" t="str">
         <f>IF(AND(NOT(BE21),AND(BE$4:BE20)),MIN(EXP((BF21-$J21)*$G21),1),"")</f>
         <v/>
       </c>
       <c r="BI21" s="107" t="b">
-        <f>IF(AND(NOT(BE21),AND(BE$4:BE20)),TRUE,BE21)</f>
+        <f>IF(ISERROR(K21),FALSE,IF(YEAR(K21)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>1</v>
       </c>
       <c r="BJ21" s="103">
         <f>IF(AND(NOT(ISBLANK(BJ$4)),AND(NOT(BI21),AND(BI$4:BI20))),($J21*$G21-LN(1+BJ$4*BK$2))/$G21,_xll.qlInterpolationInterpolate(BI$3,$F21,TRUE))</f>
-        <v>-5.0833363962517729E-4</v>
+        <v>-7.3788182514784113E-4</v>
       </c>
       <c r="BK21" s="108" t="str">
         <f>IF(AND(NOT(BI21),AND(BI$4:BI20)),MIN(EXP((BJ21-$J21)*$G21),1),"")</f>
@@ -9033,38 +9033,38 @@
     </row>
     <row r="22" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A22" s="95" t="str">
-        <v>WEUREON9M</v>
+        <v>WEUREON11M</v>
       </c>
       <c r="B22" s="27">
         <f>_xll.qlRateHelperRate($A22,InterestRatesTrigger)</f>
-        <v>-2.3000000000000001E-4</v>
+        <v>-3.8999999999999999E-4</v>
       </c>
       <c r="C22" s="30">
         <f>_xll.qlRateHelperEarliestDate($A22)</f>
-        <v>41946</v>
+        <v>41948</v>
       </c>
       <c r="D22" s="31">
         <f>_xll.qlRateHelperLatestDate($A22)</f>
-        <v>42219</v>
+        <v>42282</v>
       </c>
       <c r="F22" s="122">
         <f t="shared" si="0"/>
-        <v>42213</v>
+        <v>42269</v>
       </c>
       <c r="G22" s="123">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D21,D22)</f>
-        <v>3.3333333333333333E-2</v>
+        <v>7.2222222222222215E-2</v>
       </c>
       <c r="I22" s="147" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J22" s="146">
-        <v>-3.9449028713737925E-4</v>
+        <v>-6.734460746074596E-4</v>
       </c>
       <c r="K22" s="112">
         <f t="shared" si="2"/>
-        <v>42219</v>
+        <v>42282</v>
       </c>
       <c r="L22" s="101"/>
       <c r="M22" s="107" t="b">
@@ -9073,7 +9073,7 @@
       </c>
       <c r="N22" s="103">
         <f>IF(AND(NOT(ISBLANK(N$4)),AND(NOT(M22),AND(M$4:M21))),($J22*$G22-LN(1+N$4*O$2))/$G22,_xll.qlInterpolationInterpolate(M$3,$F22,TRUE))</f>
-        <v>-5.7086215149787316E-4</v>
+        <v>-7.5719083060138707E-4</v>
       </c>
       <c r="O22" s="108" t="str">
         <f>IF(AND(NOT(M22),AND(M$4:M21)),MIN(EXP((N22-$J22)*$G22),1),"")</f>
@@ -9086,7 +9086,7 @@
       </c>
       <c r="R22" s="103">
         <f>IF(AND(NOT(ISBLANK(R$4)),AND(NOT(Q22),AND(Q$4:Q21))),($J22*$G22-LN(1+R$4*S$2))/$G22,_xll.qlInterpolationInterpolate(Q$3,$F22,TRUE))</f>
-        <v>-5.7086215149787316E-4</v>
+        <v>-7.5719083060138707E-4</v>
       </c>
       <c r="S22" s="108" t="str">
         <f>IF(AND(NOT(Q22),AND(Q$4:Q21)),MIN(EXP((R22-$J22)*$G22),1),"")</f>
@@ -9099,7 +9099,7 @@
       </c>
       <c r="V22" s="103">
         <f>IF(AND(NOT(ISBLANK(V$4)),AND(NOT(U22),AND(U$4:U21))),($J22*$G22-LN(1+V$4*W$2))/$G22,_xll.qlInterpolationInterpolate(U$3,$F22,TRUE))</f>
-        <v>-5.7086215149787316E-4</v>
+        <v>-7.5719083060138707E-4</v>
       </c>
       <c r="W22" s="108" t="str">
         <f>IF(AND(NOT(U22),AND(U$4:U21)),MIN(EXP((V22-$J22)*$G22),1),"")</f>
@@ -9112,7 +9112,7 @@
       </c>
       <c r="Z22" s="103">
         <f>IF(AND(NOT(ISBLANK(Z$4)),AND(NOT(Y22),AND(Y$4:Y21))),($J22*$G22-LN(1+Z$4*AA$2))/$G22,_xll.qlInterpolationInterpolate(Y$3,$F22,TRUE))</f>
-        <v>-5.7086215149787316E-4</v>
+        <v>-7.5719083060138707E-4</v>
       </c>
       <c r="AA22" s="108" t="str">
         <f>IF(AND(NOT(Y22),AND(Y$4:Y21)),MIN(EXP((Z22-$J22)*$G22),1),"")</f>
@@ -9125,7 +9125,7 @@
       </c>
       <c r="AD22" s="103">
         <f>IF(AND(NOT(ISBLANK(AD$4)),AND(NOT(AC22),AND(AC$4:AC21))),($J22*$G22-LN(1+AD$4*AE$2))/$G22,_xll.qlInterpolationInterpolate(AC$3,$F22,TRUE))</f>
-        <v>-5.7086215149787316E-4</v>
+        <v>-7.5719083060138707E-4</v>
       </c>
       <c r="AE22" s="108" t="str">
         <f>IF(AND(NOT(AC22),AND(AC$4:AC21)),MIN(EXP((AD22-$J22)*$G22),1),"")</f>
@@ -9138,7 +9138,7 @@
       </c>
       <c r="AH22" s="103">
         <f>IF(AND(NOT(ISBLANK(AH$4)),AND(NOT(AG22),AND(AG$4:AG21))),($J22*$G22-LN(1+AH$4*AI$2))/$G22,_xll.qlInterpolationInterpolate(AG$3,$F22,TRUE))</f>
-        <v>-5.7086215149787316E-4</v>
+        <v>-7.5719083060138707E-4</v>
       </c>
       <c r="AI22" s="108" t="str">
         <f>IF(AND(NOT(AG22),AND(AG$4:AG21)),MIN(EXP((AH22-$J22)*$G22),1),"")</f>
@@ -9151,7 +9151,7 @@
       </c>
       <c r="AL22" s="103">
         <f>IF(AND(NOT(ISBLANK(AL$4)),AND(NOT(AK22),AND(AK$4:AK21))),($J22*$G22-LN(1+AL$4*AM$2))/$G22,_xll.qlInterpolationInterpolate(AK$3,$F22,TRUE))</f>
-        <v>-5.7086215149787316E-4</v>
+        <v>-7.5719083060138707E-4</v>
       </c>
       <c r="AM22" s="108" t="str">
         <f>IF(AND(NOT(AK22),AND(AK$4:AK21)),MIN(EXP((AL22-$J22)*$G22),1),"")</f>
@@ -9163,7 +9163,7 @@
       </c>
       <c r="AP22" s="103">
         <f>IF(AND(NOT(ISBLANK(AP$4)),AND(NOT(AO22),AND(AO$4:AO21))),($J22*$G22-LN(1+AP$4*AQ$2))/$G22,_xll.qlInterpolationInterpolate(AO$3,$F22,TRUE))</f>
-        <v>-5.7086215149787316E-4</v>
+        <v>-7.5719083060138707E-4</v>
       </c>
       <c r="AQ22" s="108" t="str">
         <f>IF(AND(NOT(AO22),AND(AO$4:AO21)),MIN(EXP((AP22-$J22)*$G22),1),"")</f>
@@ -9175,19 +9175,19 @@
       </c>
       <c r="AT22" s="103">
         <f>IF(AND(NOT(ISBLANK(AT$4)),AND(NOT(AS22),AND(AS$4:AS21))),($J22*$G22-LN(1+AT$4*AU$2))/$G22,_xll.qlInterpolationInterpolate(AS$3,$F22,TRUE))</f>
-        <v>-5.7086215149787316E-4</v>
-      </c>
-      <c r="AU22" s="108">
+        <v>-7.5719083060138707E-4</v>
+      </c>
+      <c r="AU22" s="108" t="str">
         <f>IF(AND(NOT(AS22),AND(AS$4:AS21)),MIN(EXP((AT22-$J22)*$G22),1),"")</f>
-        <v>0.99999412095513629</v>
+        <v/>
       </c>
       <c r="AW22" s="107" t="b">
         <f>IF(AND(NOT(AS22),AND(AS$4:AS21)),TRUE,AS22)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX22" s="103">
         <f>IF(AND(NOT(ISBLANK(AX$4)),AND(NOT(AW22),AND(AW$4:AW21))),($J22*$G22-LN(1+AX$4*AY$2))/$G22,_xll.qlInterpolationInterpolate(AW$3,$F22,TRUE))</f>
-        <v>-5.7086215149787316E-4</v>
+        <v>-7.5719083060138707E-4</v>
       </c>
       <c r="AY22" s="108" t="str">
         <f>IF(AND(NOT(AW22),AND(AW$4:AW21)),MIN(EXP((AX22-$J22)*$G22),1),"")</f>
@@ -9195,15 +9195,15 @@
       </c>
       <c r="BA22" s="107" t="b">
         <f>IF(AND(NOT(AW22),AND(AW$4:AW21)),TRUE,AW22)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB22" s="103">
         <f>IF(AND(NOT(ISBLANK(BB$4)),AND(NOT(BA22),AND(BA$4:BA21))),($J22*$G22-LN(1+BB$4*BC$2))/$G22,_xll.qlInterpolationInterpolate(BA$3,$F22,TRUE))</f>
-        <v>-5.7086215149787316E-4</v>
-      </c>
-      <c r="BC22" s="108" t="str">
+        <v>-7.5719083060138718E-4</v>
+      </c>
+      <c r="BC22" s="108">
         <f>IF(AND(NOT(BA22),AND(BA$4:BA21)),MIN(EXP((BB22-$J22)*$G22),1),"")</f>
-        <v/>
+        <v>0.99999395178591322</v>
       </c>
       <c r="BE22" s="107" t="b">
         <f>IF(AND(NOT(BA22),AND(BA$4:BA21)),TRUE,BA22)</f>
@@ -9211,19 +9211,19 @@
       </c>
       <c r="BF22" s="103">
         <f>IF(AND(NOT(ISBLANK(BF$4)),AND(NOT(BE22),AND(BE$4:BE21))),($J22*$G22-LN(1+BF$4*BG$2))/$G22,_xll.qlInterpolationInterpolate(BE$3,$F22,TRUE))</f>
-        <v>-5.7086215149787316E-4</v>
+        <v>-7.5719083060138718E-4</v>
       </c>
       <c r="BG22" s="108" t="str">
         <f>IF(AND(NOT(BE22),AND(BE$4:BE21)),MIN(EXP((BF22-$J22)*$G22),1),"")</f>
         <v/>
       </c>
       <c r="BI22" s="107" t="b">
-        <f>IF(AND(NOT(BE22),AND(BE$4:BE21)),TRUE,BE22)</f>
+        <f>IF(ISERROR(K22),FALSE,IF(YEAR(K22)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>1</v>
       </c>
       <c r="BJ22" s="103">
         <f>IF(AND(NOT(ISBLANK(BJ$4)),AND(NOT(BI22),AND(BI$4:BI21))),($J22*$G22-LN(1+BJ$4*BK$2))/$G22,_xll.qlInterpolationInterpolate(BI$3,$F22,TRUE))</f>
-        <v>-5.7086215149787316E-4</v>
+        <v>-7.5719083060138718E-4</v>
       </c>
       <c r="BK22" s="108" t="str">
         <f>IF(AND(NOT(BI22),AND(BI$4:BI21)),MIN(EXP((BJ22-$J22)*$G22),1),"")</f>
@@ -9232,47 +9232,47 @@
     </row>
     <row r="23" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A23" s="95" t="str">
-        <v>WEUREON10M</v>
+        <v>WEURECBOISSEP15</v>
       </c>
       <c r="B23" s="27">
         <f>_xll.qlRateHelperRate($A23,InterestRatesTrigger)</f>
-        <v>-2.7E-4</v>
+        <v>-7.2000000000000005E-4</v>
       </c>
       <c r="C23" s="30">
         <f>_xll.qlRateHelperEarliestDate($A23)</f>
-        <v>41946</v>
+        <v>42256</v>
       </c>
       <c r="D23" s="31">
         <f>_xll.qlRateHelperLatestDate($A23)</f>
-        <v>42250</v>
+        <v>42305</v>
       </c>
       <c r="F23" s="122">
         <f t="shared" si="0"/>
-        <v>42234.5</v>
+        <v>42293.5</v>
       </c>
       <c r="G23" s="123">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D22,D23)</f>
-        <v>8.611111111111111E-2</v>
+        <v>6.3888888888888884E-2</v>
       </c>
       <c r="I23" s="147" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="146">
-        <v>-6.2238329339798799E-4</v>
+        <v>-7.7270134317882573E-4</v>
       </c>
       <c r="K23" s="112">
         <f t="shared" si="2"/>
-        <v>42250</v>
+        <v>42305</v>
       </c>
       <c r="L23" s="101"/>
       <c r="M23" s="107" t="b">
         <f>IF(AND(NOT(I23),AND(I$4:I22)),TRUE,I23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="103">
         <f>IF(AND(NOT(ISBLANK(N$4)),AND(NOT(M23),AND(M$4:M22))),($J23*$G23-LN(1+N$4*O$2))/$G23,_xll.qlInterpolationInterpolate(M$3,$F23,TRUE))</f>
-        <v>-6.5759524861161271E-4</v>
+        <v>-7.7270134317882573E-4</v>
       </c>
       <c r="O23" s="108" t="str">
         <f>IF(AND(NOT(M23),AND(M$4:M22)),MIN(EXP((N23-$J23)*$G23),1),"")</f>
@@ -9281,11 +9281,11 @@
       <c r="P23" s="110"/>
       <c r="Q23" s="107" t="b">
         <f>IF(AND(NOT(M23),AND(M$4:M22)),TRUE,M23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" s="103">
         <f>IF(AND(NOT(ISBLANK(R$4)),AND(NOT(Q23),AND(Q$4:Q22))),($J23*$G23-LN(1+R$4*S$2))/$G23,_xll.qlInterpolationInterpolate(Q$3,$F23,TRUE))</f>
-        <v>-6.5759524861161271E-4</v>
+        <v>-7.7270134317882573E-4</v>
       </c>
       <c r="S23" s="108" t="str">
         <f>IF(AND(NOT(Q23),AND(Q$4:Q22)),MIN(EXP((R23-$J23)*$G23),1),"")</f>
@@ -9294,11 +9294,11 @@
       <c r="T23" s="110"/>
       <c r="U23" s="107" t="b">
         <f>IF(AND(NOT(Q23),AND(Q$4:Q22)),TRUE,Q23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23" s="103">
         <f>IF(AND(NOT(ISBLANK(V$4)),AND(NOT(U23),AND(U$4:U22))),($J23*$G23-LN(1+V$4*W$2))/$G23,_xll.qlInterpolationInterpolate(U$3,$F23,TRUE))</f>
-        <v>-6.5759524861161271E-4</v>
+        <v>-7.7270134317882573E-4</v>
       </c>
       <c r="W23" s="108" t="str">
         <f>IF(AND(NOT(U23),AND(U$4:U22)),MIN(EXP((V23-$J23)*$G23),1),"")</f>
@@ -9307,11 +9307,11 @@
       <c r="X23" s="110"/>
       <c r="Y23" s="107" t="b">
         <f>IF(AND(NOT(U23),AND(U$4:U22)),TRUE,U23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z23" s="103">
         <f>IF(AND(NOT(ISBLANK(Z$4)),AND(NOT(Y23),AND(Y$4:Y22))),($J23*$G23-LN(1+Z$4*AA$2))/$G23,_xll.qlInterpolationInterpolate(Y$3,$F23,TRUE))</f>
-        <v>-6.5759524861161271E-4</v>
+        <v>-7.7270134317882573E-4</v>
       </c>
       <c r="AA23" s="108" t="str">
         <f>IF(AND(NOT(Y23),AND(Y$4:Y22)),MIN(EXP((Z23-$J23)*$G23),1),"")</f>
@@ -9320,11 +9320,11 @@
       <c r="AB23" s="110"/>
       <c r="AC23" s="107" t="b">
         <f>IF(AND(NOT(Y23),AND(Y$4:Y22)),TRUE,Y23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD23" s="103">
         <f>IF(AND(NOT(ISBLANK(AD$4)),AND(NOT(AC23),AND(AC$4:AC22))),($J23*$G23-LN(1+AD$4*AE$2))/$G23,_xll.qlInterpolationInterpolate(AC$3,$F23,TRUE))</f>
-        <v>-6.5759524861161271E-4</v>
+        <v>-7.7270134317882573E-4</v>
       </c>
       <c r="AE23" s="108" t="str">
         <f>IF(AND(NOT(AC23),AND(AC$4:AC22)),MIN(EXP((AD23-$J23)*$G23),1),"")</f>
@@ -9333,11 +9333,11 @@
       <c r="AF23" s="110"/>
       <c r="AG23" s="107" t="b">
         <f>IF(AND(NOT(AC23),AND(AC$4:AC22)),TRUE,AC23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH23" s="103">
         <f>IF(AND(NOT(ISBLANK(AH$4)),AND(NOT(AG23),AND(AG$4:AG22))),($J23*$G23-LN(1+AH$4*AI$2))/$G23,_xll.qlInterpolationInterpolate(AG$3,$F23,TRUE))</f>
-        <v>-6.5759524861161271E-4</v>
+        <v>-7.7270134317882573E-4</v>
       </c>
       <c r="AI23" s="108" t="str">
         <f>IF(AND(NOT(AG23),AND(AG$4:AG22)),MIN(EXP((AH23-$J23)*$G23),1),"")</f>
@@ -9346,11 +9346,11 @@
       <c r="AJ23" s="110"/>
       <c r="AK23" s="107" t="b">
         <f>IF(AND(NOT(AG23),AND(AG$4:AG22)),TRUE,AG23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL23" s="103">
         <f>IF(AND(NOT(ISBLANK(AL$4)),AND(NOT(AK23),AND(AK$4:AK22))),($J23*$G23-LN(1+AL$4*AM$2))/$G23,_xll.qlInterpolationInterpolate(AK$3,$F23,TRUE))</f>
-        <v>-6.5759524861161271E-4</v>
+        <v>-7.7270134317882573E-4</v>
       </c>
       <c r="AM23" s="108" t="str">
         <f>IF(AND(NOT(AK23),AND(AK$4:AK22)),MIN(EXP((AL23-$J23)*$G23),1),"")</f>
@@ -9358,11 +9358,11 @@
       </c>
       <c r="AO23" s="107" t="b">
         <f>IF(AND(NOT(AK23),AND(AK$4:AK22)),TRUE,AK23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP23" s="103">
         <f>IF(AND(NOT(ISBLANK(AP$4)),AND(NOT(AO23),AND(AO$4:AO22))),($J23*$G23-LN(1+AP$4*AQ$2))/$G23,_xll.qlInterpolationInterpolate(AO$3,$F23,TRUE))</f>
-        <v>-6.5759524861161271E-4</v>
+        <v>-7.7270134317882573E-4</v>
       </c>
       <c r="AQ23" s="108" t="str">
         <f>IF(AND(NOT(AO23),AND(AO$4:AO22)),MIN(EXP((AP23-$J23)*$G23),1),"")</f>
@@ -9370,11 +9370,11 @@
       </c>
       <c r="AS23" s="107" t="b">
         <f>IF(AND(NOT(AO23),AND(AO$4:AO22)),TRUE,AO23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT23" s="103">
         <f>IF(AND(NOT(ISBLANK(AT$4)),AND(NOT(AS23),AND(AS$4:AS22))),($J23*$G23-LN(1+AT$4*AU$2))/$G23,_xll.qlInterpolationInterpolate(AS$3,$F23,TRUE))</f>
-        <v>-6.5759524861161271E-4</v>
+        <v>-7.7270134317882573E-4</v>
       </c>
       <c r="AU23" s="108" t="str">
         <f>IF(AND(NOT(AS23),AND(AS$4:AS22)),MIN(EXP((AT23-$J23)*$G23),1),"")</f>
@@ -9382,15 +9382,15 @@
       </c>
       <c r="AW23" s="107" t="b">
         <f>IF(AND(NOT(AS23),AND(AS$4:AS22)),TRUE,AS23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX23" s="103">
         <f>IF(AND(NOT(ISBLANK(AX$4)),AND(NOT(AW23),AND(AW$4:AW22))),($J23*$G23-LN(1+AX$4*AY$2))/$G23,_xll.qlInterpolationInterpolate(AW$3,$F23,TRUE))</f>
-        <v>-6.5759524861161271E-4</v>
-      </c>
-      <c r="AY23" s="108">
+        <v>-7.7270134317882573E-4</v>
+      </c>
+      <c r="AY23" s="108" t="str">
         <f>IF(AND(NOT(AW23),AND(AW$4:AW22)),MIN(EXP((AX23-$J23)*$G23),1),"")</f>
-        <v>0.99999696786400905</v>
+        <v/>
       </c>
       <c r="BA23" s="107" t="b">
         <f>IF(AND(NOT(AW23),AND(AW$4:AW22)),TRUE,AW23)</f>
@@ -9398,7 +9398,7 @@
       </c>
       <c r="BB23" s="103">
         <f>IF(AND(NOT(ISBLANK(BB$4)),AND(NOT(BA23),AND(BA$4:BA22))),($J23*$G23-LN(1+BB$4*BC$2))/$G23,_xll.qlInterpolationInterpolate(BA$3,$F23,TRUE))</f>
-        <v>-6.5759524861161271E-4</v>
+        <v>-7.7270134317882573E-4</v>
       </c>
       <c r="BC23" s="108" t="str">
         <f>IF(AND(NOT(BA23),AND(BA$4:BA22)),MIN(EXP((BB23-$J23)*$G23),1),"")</f>
@@ -9410,19 +9410,19 @@
       </c>
       <c r="BF23" s="103">
         <f>IF(AND(NOT(ISBLANK(BF$4)),AND(NOT(BE23),AND(BE$4:BE22))),($J23*$G23-LN(1+BF$4*BG$2))/$G23,_xll.qlInterpolationInterpolate(BE$3,$F23,TRUE))</f>
-        <v>-6.5759524861161271E-4</v>
+        <v>-7.7270134317882573E-4</v>
       </c>
       <c r="BG23" s="108" t="str">
         <f>IF(AND(NOT(BE23),AND(BE$4:BE22)),MIN(EXP((BF23-$J23)*$G23),1),"")</f>
         <v/>
       </c>
       <c r="BI23" s="107" t="b">
-        <f>IF(AND(NOT(BE23),AND(BE$4:BE22)),TRUE,BE23)</f>
+        <f>IF(ISERROR(K23),FALSE,IF(YEAR(K23)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>1</v>
       </c>
       <c r="BJ23" s="103">
         <f>IF(AND(NOT(ISBLANK(BJ$4)),AND(NOT(BI23),AND(BI$4:BI22))),($J23*$G23-LN(1+BJ$4*BK$2))/$G23,_xll.qlInterpolationInterpolate(BI$3,$F23,TRUE))</f>
-        <v>-6.5759524861161271E-4</v>
+        <v>-7.7270134317882573E-4</v>
       </c>
       <c r="BK23" s="108" t="str">
         <f>IF(AND(NOT(BI23),AND(BI$4:BI22)),MIN(EXP((BJ23-$J23)*$G23),1),"")</f>
@@ -9431,47 +9431,47 @@
     </row>
     <row r="24" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A24" s="95" t="str">
-        <v>WEURECBOISJUL15</v>
+        <v>WEUREON1Y</v>
       </c>
       <c r="B24" s="27">
         <f>_xll.qlRateHelperRate($A24,InterestRatesTrigger)</f>
-        <v>-5.8E-4</v>
+        <v>-4.1999999999999996E-4</v>
       </c>
       <c r="C24" s="30">
         <f>_xll.qlRateHelperEarliestDate($A24)</f>
-        <v>42207</v>
+        <v>41948</v>
       </c>
       <c r="D24" s="31">
         <f>_xll.qlRateHelperLatestDate($A24)</f>
-        <v>42256</v>
+        <v>42313</v>
       </c>
       <c r="F24" s="122">
         <f t="shared" si="0"/>
-        <v>42253</v>
+        <v>42309</v>
       </c>
       <c r="G24" s="123">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D23,D24)</f>
-        <v>1.6666666666666666E-2</v>
+        <v>2.2222222222222223E-2</v>
       </c>
       <c r="I24" s="147" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" s="146">
-        <v>-7.3222605310483042E-4</v>
+        <v>-6.5961832674109528E-4</v>
       </c>
       <c r="K24" s="112">
         <f t="shared" si="2"/>
-        <v>42256</v>
+        <v>42313</v>
       </c>
       <c r="L24" s="101"/>
       <c r="M24" s="107" t="b">
         <f>IF(AND(NOT(I24),AND(I$4:I23)),TRUE,I24)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" s="103">
         <f>IF(AND(NOT(ISBLANK(N$4)),AND(NOT(M24),AND(M$4:M23))),($J24*$G24-LN(1+N$4*O$2))/$G24,_xll.qlInterpolationInterpolate(M$3,$F24,TRUE))</f>
-        <v>-7.3222605310483042E-4</v>
+        <v>-7.5781691794455275E-4</v>
       </c>
       <c r="O24" s="108" t="str">
         <f>IF(AND(NOT(M24),AND(M$4:M23)),MIN(EXP((N24-$J24)*$G24),1),"")</f>
@@ -9480,11 +9480,11 @@
       <c r="P24" s="110"/>
       <c r="Q24" s="107" t="b">
         <f>IF(AND(NOT(M24),AND(M$4:M23)),TRUE,M24)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" s="103">
         <f>IF(AND(NOT(ISBLANK(R$4)),AND(NOT(Q24),AND(Q$4:Q23))),($J24*$G24-LN(1+R$4*S$2))/$G24,_xll.qlInterpolationInterpolate(Q$3,$F24,TRUE))</f>
-        <v>-7.3222605310483042E-4</v>
+        <v>-7.5781691794455275E-4</v>
       </c>
       <c r="S24" s="108" t="str">
         <f>IF(AND(NOT(Q24),AND(Q$4:Q23)),MIN(EXP((R24-$J24)*$G24),1),"")</f>
@@ -9493,11 +9493,11 @@
       <c r="T24" s="110"/>
       <c r="U24" s="107" t="b">
         <f>IF(AND(NOT(Q24),AND(Q$4:Q23)),TRUE,Q24)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24" s="103">
         <f>IF(AND(NOT(ISBLANK(V$4)),AND(NOT(U24),AND(U$4:U23))),($J24*$G24-LN(1+V$4*W$2))/$G24,_xll.qlInterpolationInterpolate(U$3,$F24,TRUE))</f>
-        <v>-7.3222605310483042E-4</v>
+        <v>-7.5781691794455275E-4</v>
       </c>
       <c r="W24" s="108" t="str">
         <f>IF(AND(NOT(U24),AND(U$4:U23)),MIN(EXP((V24-$J24)*$G24),1),"")</f>
@@ -9506,11 +9506,11 @@
       <c r="X24" s="110"/>
       <c r="Y24" s="107" t="b">
         <f>IF(AND(NOT(U24),AND(U$4:U23)),TRUE,U24)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="103">
         <f>IF(AND(NOT(ISBLANK(Z$4)),AND(NOT(Y24),AND(Y$4:Y23))),($J24*$G24-LN(1+Z$4*AA$2))/$G24,_xll.qlInterpolationInterpolate(Y$3,$F24,TRUE))</f>
-        <v>-7.3222605310483042E-4</v>
+        <v>-7.5781691794455275E-4</v>
       </c>
       <c r="AA24" s="108" t="str">
         <f>IF(AND(NOT(Y24),AND(Y$4:Y23)),MIN(EXP((Z24-$J24)*$G24),1),"")</f>
@@ -9519,11 +9519,11 @@
       <c r="AB24" s="110"/>
       <c r="AC24" s="107" t="b">
         <f>IF(AND(NOT(Y24),AND(Y$4:Y23)),TRUE,Y24)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD24" s="103">
         <f>IF(AND(NOT(ISBLANK(AD$4)),AND(NOT(AC24),AND(AC$4:AC23))),($J24*$G24-LN(1+AD$4*AE$2))/$G24,_xll.qlInterpolationInterpolate(AC$3,$F24,TRUE))</f>
-        <v>-7.3222605310483042E-4</v>
+        <v>-7.5781691794455275E-4</v>
       </c>
       <c r="AE24" s="108" t="str">
         <f>IF(AND(NOT(AC24),AND(AC$4:AC23)),MIN(EXP((AD24-$J24)*$G24),1),"")</f>
@@ -9532,11 +9532,11 @@
       <c r="AF24" s="110"/>
       <c r="AG24" s="107" t="b">
         <f>IF(AND(NOT(AC24),AND(AC$4:AC23)),TRUE,AC24)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH24" s="103">
         <f>IF(AND(NOT(ISBLANK(AH$4)),AND(NOT(AG24),AND(AG$4:AG23))),($J24*$G24-LN(1+AH$4*AI$2))/$G24,_xll.qlInterpolationInterpolate(AG$3,$F24,TRUE))</f>
-        <v>-7.3222605310483042E-4</v>
+        <v>-7.5781691794455275E-4</v>
       </c>
       <c r="AI24" s="108" t="str">
         <f>IF(AND(NOT(AG24),AND(AG$4:AG23)),MIN(EXP((AH24-$J24)*$G24),1),"")</f>
@@ -9545,11 +9545,11 @@
       <c r="AJ24" s="110"/>
       <c r="AK24" s="107" t="b">
         <f>IF(AND(NOT(AG24),AND(AG$4:AG23)),TRUE,AG24)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL24" s="103">
         <f>IF(AND(NOT(ISBLANK(AL$4)),AND(NOT(AK24),AND(AK$4:AK23))),($J24*$G24-LN(1+AL$4*AM$2))/$G24,_xll.qlInterpolationInterpolate(AK$3,$F24,TRUE))</f>
-        <v>-7.3222605310483042E-4</v>
+        <v>-7.5781691794455275E-4</v>
       </c>
       <c r="AM24" s="108" t="str">
         <f>IF(AND(NOT(AK24),AND(AK$4:AK23)),MIN(EXP((AL24-$J24)*$G24),1),"")</f>
@@ -9557,11 +9557,11 @@
       </c>
       <c r="AO24" s="107" t="b">
         <f>IF(AND(NOT(AK24),AND(AK$4:AK23)),TRUE,AK24)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP24" s="103">
         <f>IF(AND(NOT(ISBLANK(AP$4)),AND(NOT(AO24),AND(AO$4:AO23))),($J24*$G24-LN(1+AP$4*AQ$2))/$G24,_xll.qlInterpolationInterpolate(AO$3,$F24,TRUE))</f>
-        <v>-7.3222605310483042E-4</v>
+        <v>-7.5781691794455275E-4</v>
       </c>
       <c r="AQ24" s="108" t="str">
         <f>IF(AND(NOT(AO24),AND(AO$4:AO23)),MIN(EXP((AP24-$J24)*$G24),1),"")</f>
@@ -9569,11 +9569,11 @@
       </c>
       <c r="AS24" s="107" t="b">
         <f>IF(AND(NOT(AO24),AND(AO$4:AO23)),TRUE,AO24)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="103">
         <f>IF(AND(NOT(ISBLANK(AT$4)),AND(NOT(AS24),AND(AS$4:AS23))),($J24*$G24-LN(1+AT$4*AU$2))/$G24,_xll.qlInterpolationInterpolate(AS$3,$F24,TRUE))</f>
-        <v>-7.3222605310483042E-4</v>
+        <v>-7.5781691794455275E-4</v>
       </c>
       <c r="AU24" s="108" t="str">
         <f>IF(AND(NOT(AS24),AND(AS$4:AS23)),MIN(EXP((AT24-$J24)*$G24),1),"")</f>
@@ -9581,11 +9581,11 @@
       </c>
       <c r="AW24" s="107" t="b">
         <f>IF(AND(NOT(AS24),AND(AS$4:AS23)),TRUE,AS24)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX24" s="103">
         <f>IF(AND(NOT(ISBLANK(AX$4)),AND(NOT(AW24),AND(AW$4:AW23))),($J24*$G24-LN(1+AX$4*AY$2))/$G24,_xll.qlInterpolationInterpolate(AW$3,$F24,TRUE))</f>
-        <v>-7.3222605310483042E-4</v>
+        <v>-7.5781691794455275E-4</v>
       </c>
       <c r="AY24" s="108" t="str">
         <f>IF(AND(NOT(AW24),AND(AW$4:AW23)),MIN(EXP((AX24-$J24)*$G24),1),"")</f>
@@ -9593,11 +9593,11 @@
       </c>
       <c r="BA24" s="107" t="b">
         <f>IF(AND(NOT(AW24),AND(AW$4:AW23)),TRUE,AW24)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB24" s="103">
         <f>IF(AND(NOT(ISBLANK(BB$4)),AND(NOT(BA24),AND(BA$4:BA23))),($J24*$G24-LN(1+BB$4*BC$2))/$G24,_xll.qlInterpolationInterpolate(BA$3,$F24,TRUE))</f>
-        <v>-7.3222605310483042E-4</v>
+        <v>-7.5781691794455275E-4</v>
       </c>
       <c r="BC24" s="108" t="str">
         <f>IF(AND(NOT(BA24),AND(BA$4:BA23)),MIN(EXP((BB24-$J24)*$G24),1),"")</f>
@@ -9605,23 +9605,23 @@
       </c>
       <c r="BE24" s="107" t="b">
         <f>IF(AND(NOT(BA24),AND(BA$4:BA23)),TRUE,BA24)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF24" s="103">
         <f>IF(AND(NOT(ISBLANK(BF$4)),AND(NOT(BE24),AND(BE$4:BE23))),($J24*$G24-LN(1+BF$4*BG$2))/$G24,_xll.qlInterpolationInterpolate(BE$3,$F24,TRUE))</f>
-        <v>-7.3222605310483042E-4</v>
-      </c>
-      <c r="BG24" s="108" t="str">
+        <v>-7.5781691794455275E-4</v>
+      </c>
+      <c r="BG24" s="108">
         <f>IF(AND(NOT(BE24),AND(BE$4:BE23)),MIN(EXP((BF24-$J24)*$G24),1),"")</f>
-        <v/>
+        <v>0.99999781781146535</v>
       </c>
       <c r="BI24" s="107" t="b">
-        <f>IF(AND(NOT(BE24),AND(BE$4:BE23)),TRUE,BE24)</f>
+        <f>IF(ISERROR(K24),FALSE,IF(YEAR(K24)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>1</v>
       </c>
       <c r="BJ24" s="103">
         <f>IF(AND(NOT(ISBLANK(BJ$4)),AND(NOT(BI24),AND(BI$4:BI23))),($J24*$G24-LN(1+BJ$4*BK$2))/$G24,_xll.qlInterpolationInterpolate(BI$3,$F24,TRUE))</f>
-        <v>-7.3222605310483042E-4</v>
+        <v>-7.5781691794455275E-4</v>
       </c>
       <c r="BK24" s="108" t="str">
         <f>IF(AND(NOT(BI24),AND(BI$4:BI23)),MIN(EXP((BJ24-$J24)*$G24),1),"")</f>
@@ -9630,38 +9630,38 @@
     </row>
     <row r="25" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A25" s="95" t="str">
-        <v>WEUREON11M</v>
+        <v>WEURECBOISOCT15</v>
       </c>
       <c r="B25" s="27">
         <f>_xll.qlRateHelperRate($A25,InterestRatesTrigger)</f>
-        <v>-2.9999999999999997E-4</v>
+        <v>-6.8000000000000005E-4</v>
       </c>
       <c r="C25" s="30">
         <f>_xll.qlRateHelperEarliestDate($A25)</f>
-        <v>41946</v>
+        <v>42305</v>
       </c>
       <c r="D25" s="31">
         <f>_xll.qlRateHelperLatestDate($A25)</f>
-        <v>42282</v>
+        <v>42347</v>
       </c>
       <c r="F25" s="122">
         <f t="shared" si="0"/>
-        <v>42269</v>
+        <v>42330</v>
       </c>
       <c r="G25" s="123">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D24,D25)</f>
-        <v>7.2222222222222215E-2</v>
+        <v>9.4444444444444442E-2</v>
       </c>
       <c r="I25" s="147" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J25" s="146">
-        <v>-5.5120768360442758E-4</v>
+        <v>-6.8482900958756498E-4</v>
       </c>
       <c r="K25" s="112">
         <f t="shared" si="2"/>
-        <v>42282</v>
+        <v>42347</v>
       </c>
       <c r="L25" s="101"/>
       <c r="M25" s="107" t="b">
@@ -9670,7 +9670,7 @@
       </c>
       <c r="N25" s="103">
         <f>IF(AND(NOT(ISBLANK(N$4)),AND(NOT(M25),AND(M$4:M24))),($J25*$G25-LN(1+N$4*O$2))/$G25,_xll.qlInterpolationInterpolate(M$3,$F25,TRUE))</f>
-        <v>-7.0179945635158014E-4</v>
+        <v>-7.3765092246586028E-4</v>
       </c>
       <c r="O25" s="108" t="str">
         <f>IF(AND(NOT(M25),AND(M$4:M24)),MIN(EXP((N25-$J25)*$G25),1),"")</f>
@@ -9683,7 +9683,7 @@
       </c>
       <c r="R25" s="103">
         <f>IF(AND(NOT(ISBLANK(R$4)),AND(NOT(Q25),AND(Q$4:Q24))),($J25*$G25-LN(1+R$4*S$2))/$G25,_xll.qlInterpolationInterpolate(Q$3,$F25,TRUE))</f>
-        <v>-7.0179945635158014E-4</v>
+        <v>-7.3765092246586028E-4</v>
       </c>
       <c r="S25" s="108" t="str">
         <f>IF(AND(NOT(Q25),AND(Q$4:Q24)),MIN(EXP((R25-$J25)*$G25),1),"")</f>
@@ -9696,7 +9696,7 @@
       </c>
       <c r="V25" s="103">
         <f>IF(AND(NOT(ISBLANK(V$4)),AND(NOT(U25),AND(U$4:U24))),($J25*$G25-LN(1+V$4*W$2))/$G25,_xll.qlInterpolationInterpolate(U$3,$F25,TRUE))</f>
-        <v>-7.0179945635158014E-4</v>
+        <v>-7.3765092246586028E-4</v>
       </c>
       <c r="W25" s="108" t="str">
         <f>IF(AND(NOT(U25),AND(U$4:U24)),MIN(EXP((V25-$J25)*$G25),1),"")</f>
@@ -9709,7 +9709,7 @@
       </c>
       <c r="Z25" s="103">
         <f>IF(AND(NOT(ISBLANK(Z$4)),AND(NOT(Y25),AND(Y$4:Y24))),($J25*$G25-LN(1+Z$4*AA$2))/$G25,_xll.qlInterpolationInterpolate(Y$3,$F25,TRUE))</f>
-        <v>-7.0179945635158014E-4</v>
+        <v>-7.3765092246586028E-4</v>
       </c>
       <c r="AA25" s="108" t="str">
         <f>IF(AND(NOT(Y25),AND(Y$4:Y24)),MIN(EXP((Z25-$J25)*$G25),1),"")</f>
@@ -9722,7 +9722,7 @@
       </c>
       <c r="AD25" s="103">
         <f>IF(AND(NOT(ISBLANK(AD$4)),AND(NOT(AC25),AND(AC$4:AC24))),($J25*$G25-LN(1+AD$4*AE$2))/$G25,_xll.qlInterpolationInterpolate(AC$3,$F25,TRUE))</f>
-        <v>-7.0179945635158014E-4</v>
+        <v>-7.3765092246586028E-4</v>
       </c>
       <c r="AE25" s="108" t="str">
         <f>IF(AND(NOT(AC25),AND(AC$4:AC24)),MIN(EXP((AD25-$J25)*$G25),1),"")</f>
@@ -9735,7 +9735,7 @@
       </c>
       <c r="AH25" s="103">
         <f>IF(AND(NOT(ISBLANK(AH$4)),AND(NOT(AG25),AND(AG$4:AG24))),($J25*$G25-LN(1+AH$4*AI$2))/$G25,_xll.qlInterpolationInterpolate(AG$3,$F25,TRUE))</f>
-        <v>-7.0179945635158014E-4</v>
+        <v>-7.3765092246586028E-4</v>
       </c>
       <c r="AI25" s="108" t="str">
         <f>IF(AND(NOT(AG25),AND(AG$4:AG24)),MIN(EXP((AH25-$J25)*$G25),1),"")</f>
@@ -9748,7 +9748,7 @@
       </c>
       <c r="AL25" s="103">
         <f>IF(AND(NOT(ISBLANK(AL$4)),AND(NOT(AK25),AND(AK$4:AK24))),($J25*$G25-LN(1+AL$4*AM$2))/$G25,_xll.qlInterpolationInterpolate(AK$3,$F25,TRUE))</f>
-        <v>-7.0179945635158014E-4</v>
+        <v>-7.3765092246586028E-4</v>
       </c>
       <c r="AM25" s="108" t="str">
         <f>IF(AND(NOT(AK25),AND(AK$4:AK24)),MIN(EXP((AL25-$J25)*$G25),1),"")</f>
@@ -9760,7 +9760,7 @@
       </c>
       <c r="AP25" s="103">
         <f>IF(AND(NOT(ISBLANK(AP$4)),AND(NOT(AO25),AND(AO$4:AO24))),($J25*$G25-LN(1+AP$4*AQ$2))/$G25,_xll.qlInterpolationInterpolate(AO$3,$F25,TRUE))</f>
-        <v>-7.0179945635158014E-4</v>
+        <v>-7.3765092246586028E-4</v>
       </c>
       <c r="AQ25" s="108" t="str">
         <f>IF(AND(NOT(AO25),AND(AO$4:AO24)),MIN(EXP((AP25-$J25)*$G25),1),"")</f>
@@ -9772,7 +9772,7 @@
       </c>
       <c r="AT25" s="103">
         <f>IF(AND(NOT(ISBLANK(AT$4)),AND(NOT(AS25),AND(AS$4:AS24))),($J25*$G25-LN(1+AT$4*AU$2))/$G25,_xll.qlInterpolationInterpolate(AS$3,$F25,TRUE))</f>
-        <v>-7.0179945635158014E-4</v>
+        <v>-7.3765092246586028E-4</v>
       </c>
       <c r="AU25" s="108" t="str">
         <f>IF(AND(NOT(AS25),AND(AS$4:AS24)),MIN(EXP((AT25-$J25)*$G25),1),"")</f>
@@ -9784,7 +9784,7 @@
       </c>
       <c r="AX25" s="103">
         <f>IF(AND(NOT(ISBLANK(AX$4)),AND(NOT(AW25),AND(AW$4:AW24))),($J25*$G25-LN(1+AX$4*AY$2))/$G25,_xll.qlInterpolationInterpolate(AW$3,$F25,TRUE))</f>
-        <v>-7.0179945635158014E-4</v>
+        <v>-7.3765092246586028E-4</v>
       </c>
       <c r="AY25" s="108" t="str">
         <f>IF(AND(NOT(AW25),AND(AW$4:AW24)),MIN(EXP((AX25-$J25)*$G25),1),"")</f>
@@ -9796,31 +9796,31 @@
       </c>
       <c r="BB25" s="103">
         <f>IF(AND(NOT(ISBLANK(BB$4)),AND(NOT(BA25),AND(BA$4:BA24))),($J25*$G25-LN(1+BB$4*BC$2))/$G25,_xll.qlInterpolationInterpolate(BA$3,$F25,TRUE))</f>
-        <v>-7.0179945635158014E-4</v>
-      </c>
-      <c r="BC25" s="108">
+        <v>-7.3765092246586028E-4</v>
+      </c>
+      <c r="BC25" s="108" t="str">
         <f>IF(AND(NOT(BA25),AND(BA$4:BA24)),MIN(EXP((BB25-$J25)*$G25),1),"")</f>
-        <v>0.99998912398666806</v>
+        <v/>
       </c>
       <c r="BE25" s="107" t="b">
         <f>IF(AND(NOT(BA25),AND(BA$4:BA24)),TRUE,BA25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF25" s="103">
         <f>IF(AND(NOT(ISBLANK(BF$4)),AND(NOT(BE25),AND(BE$4:BE24))),($J25*$G25-LN(1+BF$4*BG$2))/$G25,_xll.qlInterpolationInterpolate(BE$3,$F25,TRUE))</f>
-        <v>-7.0179945635158014E-4</v>
+        <v>-7.3765092246586028E-4</v>
       </c>
       <c r="BG25" s="108" t="str">
         <f>IF(AND(NOT(BE25),AND(BE$4:BE24)),MIN(EXP((BF25-$J25)*$G25),1),"")</f>
         <v/>
       </c>
       <c r="BI25" s="107" t="b">
-        <f>IF(AND(NOT(BE25),AND(BE$4:BE24)),TRUE,BE25)</f>
+        <f>IF(ISERROR(K25),FALSE,IF(YEAR(K25)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>1</v>
       </c>
       <c r="BJ25" s="103">
         <f>IF(AND(NOT(ISBLANK(BJ$4)),AND(NOT(BI25),AND(BI$4:BI24))),($J25*$G25-LN(1+BJ$4*BK$2))/$G25,_xll.qlInterpolationInterpolate(BI$3,$F25,TRUE))</f>
-        <v>-7.0179945635158014E-4</v>
+        <v>-7.3765092246586028E-4</v>
       </c>
       <c r="BK25" s="108" t="str">
         <f>IF(AND(NOT(BI25),AND(BI$4:BI24)),MIN(EXP((BJ25-$J25)*$G25),1),"")</f>
@@ -9829,47 +9829,47 @@
     </row>
     <row r="26" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A26" s="95" t="str">
-        <v>WEURECBOISSEP15</v>
+        <v>WEUREON15M</v>
       </c>
       <c r="B26" s="27">
         <f>_xll.qlRateHelperRate($A26,InterestRatesTrigger)</f>
-        <v>-6.0000000000000006E-4</v>
+        <v>-4.4000000000000007E-4</v>
       </c>
       <c r="C26" s="30">
         <f>_xll.qlRateHelperEarliestDate($A26)</f>
-        <v>42256</v>
+        <v>41948</v>
       </c>
       <c r="D26" s="31">
         <f>_xll.qlRateHelperLatestDate($A26)</f>
-        <v>42305</v>
+        <v>42405</v>
       </c>
       <c r="F26" s="122">
         <f t="shared" si="0"/>
-        <v>42293.5</v>
+        <v>42376</v>
       </c>
       <c r="G26" s="123">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D25,D26)</f>
-        <v>6.3888888888888884E-2</v>
+        <v>0.16111111111111112</v>
       </c>
       <c r="I26" s="147" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" s="146">
-        <v>-6.5520873007316556E-4</v>
+        <v>-4.2237958116466009E-4</v>
       </c>
       <c r="K26" s="112">
         <f t="shared" si="2"/>
-        <v>42305</v>
+        <v>42405</v>
       </c>
       <c r="L26" s="101"/>
       <c r="M26" s="107" t="b">
         <f>IF(AND(NOT(I26),AND(I$4:I25)),TRUE,I26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" s="103">
         <f>IF(AND(NOT(ISBLANK(N$4)),AND(NOT(M26),AND(M$4:M25))),($J26*$G26-LN(1+N$4*O$2))/$G26,_xll.qlInterpolationInterpolate(M$3,$F26,TRUE))</f>
-        <v>-6.5520873007316556E-4</v>
+        <v>-6.9347778951253409E-4</v>
       </c>
       <c r="O26" s="108" t="str">
         <f>IF(AND(NOT(M26),AND(M$4:M25)),MIN(EXP((N26-$J26)*$G26),1),"")</f>
@@ -9878,11 +9878,11 @@
       <c r="P26" s="110"/>
       <c r="Q26" s="107" t="b">
         <f>IF(AND(NOT(M26),AND(M$4:M25)),TRUE,M26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" s="103">
         <f>IF(AND(NOT(ISBLANK(R$4)),AND(NOT(Q26),AND(Q$4:Q25))),($J26*$G26-LN(1+R$4*S$2))/$G26,_xll.qlInterpolationInterpolate(Q$3,$F26,TRUE))</f>
-        <v>-6.5520873007316556E-4</v>
+        <v>-6.9347778951253409E-4</v>
       </c>
       <c r="S26" s="108" t="str">
         <f>IF(AND(NOT(Q26),AND(Q$4:Q25)),MIN(EXP((R26-$J26)*$G26),1),"")</f>
@@ -9891,11 +9891,11 @@
       <c r="T26" s="110"/>
       <c r="U26" s="107" t="b">
         <f>IF(AND(NOT(Q26),AND(Q$4:Q25)),TRUE,Q26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V26" s="103">
         <f>IF(AND(NOT(ISBLANK(V$4)),AND(NOT(U26),AND(U$4:U25))),($J26*$G26-LN(1+V$4*W$2))/$G26,_xll.qlInterpolationInterpolate(U$3,$F26,TRUE))</f>
-        <v>-6.5520873007316556E-4</v>
+        <v>-6.9347778951253409E-4</v>
       </c>
       <c r="W26" s="108" t="str">
         <f>IF(AND(NOT(U26),AND(U$4:U25)),MIN(EXP((V26-$J26)*$G26),1),"")</f>
@@ -9904,11 +9904,11 @@
       <c r="X26" s="110"/>
       <c r="Y26" s="107" t="b">
         <f>IF(AND(NOT(U26),AND(U$4:U25)),TRUE,U26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="103">
         <f>IF(AND(NOT(ISBLANK(Z$4)),AND(NOT(Y26),AND(Y$4:Y25))),($J26*$G26-LN(1+Z$4*AA$2))/$G26,_xll.qlInterpolationInterpolate(Y$3,$F26,TRUE))</f>
-        <v>-6.5520873007316556E-4</v>
+        <v>-6.9347778951253409E-4</v>
       </c>
       <c r="AA26" s="108" t="str">
         <f>IF(AND(NOT(Y26),AND(Y$4:Y25)),MIN(EXP((Z26-$J26)*$G26),1),"")</f>
@@ -9917,11 +9917,11 @@
       <c r="AB26" s="110"/>
       <c r="AC26" s="107" t="b">
         <f>IF(AND(NOT(Y26),AND(Y$4:Y25)),TRUE,Y26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD26" s="103">
         <f>IF(AND(NOT(ISBLANK(AD$4)),AND(NOT(AC26),AND(AC$4:AC25))),($J26*$G26-LN(1+AD$4*AE$2))/$G26,_xll.qlInterpolationInterpolate(AC$3,$F26,TRUE))</f>
-        <v>-6.5520873007316556E-4</v>
+        <v>-6.9347778951253409E-4</v>
       </c>
       <c r="AE26" s="108" t="str">
         <f>IF(AND(NOT(AC26),AND(AC$4:AC25)),MIN(EXP((AD26-$J26)*$G26),1),"")</f>
@@ -9930,11 +9930,11 @@
       <c r="AF26" s="110"/>
       <c r="AG26" s="107" t="b">
         <f>IF(AND(NOT(AC26),AND(AC$4:AC25)),TRUE,AC26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH26" s="103">
         <f>IF(AND(NOT(ISBLANK(AH$4)),AND(NOT(AG26),AND(AG$4:AG25))),($J26*$G26-LN(1+AH$4*AI$2))/$G26,_xll.qlInterpolationInterpolate(AG$3,$F26,TRUE))</f>
-        <v>-6.5520873007316556E-4</v>
+        <v>-6.9347778951253409E-4</v>
       </c>
       <c r="AI26" s="108" t="str">
         <f>IF(AND(NOT(AG26),AND(AG$4:AG25)),MIN(EXP((AH26-$J26)*$G26),1),"")</f>
@@ -9943,11 +9943,11 @@
       <c r="AJ26" s="110"/>
       <c r="AK26" s="107" t="b">
         <f>IF(AND(NOT(AG26),AND(AG$4:AG25)),TRUE,AG26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL26" s="103">
         <f>IF(AND(NOT(ISBLANK(AL$4)),AND(NOT(AK26),AND(AK$4:AK25))),($J26*$G26-LN(1+AL$4*AM$2))/$G26,_xll.qlInterpolationInterpolate(AK$3,$F26,TRUE))</f>
-        <v>-6.5520873007316556E-4</v>
+        <v>-6.9347778951253409E-4</v>
       </c>
       <c r="AM26" s="108" t="str">
         <f>IF(AND(NOT(AK26),AND(AK$4:AK25)),MIN(EXP((AL26-$J26)*$G26),1),"")</f>
@@ -9955,11 +9955,11 @@
       </c>
       <c r="AO26" s="107" t="b">
         <f>IF(AND(NOT(AK26),AND(AK$4:AK25)),TRUE,AK26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP26" s="103">
         <f>IF(AND(NOT(ISBLANK(AP$4)),AND(NOT(AO26),AND(AO$4:AO25))),($J26*$G26-LN(1+AP$4*AQ$2))/$G26,_xll.qlInterpolationInterpolate(AO$3,$F26,TRUE))</f>
-        <v>-6.5520873007316556E-4</v>
+        <v>-6.9347778951253409E-4</v>
       </c>
       <c r="AQ26" s="108" t="str">
         <f>IF(AND(NOT(AO26),AND(AO$4:AO25)),MIN(EXP((AP26-$J26)*$G26),1),"")</f>
@@ -9967,11 +9967,11 @@
       </c>
       <c r="AS26" s="107" t="b">
         <f>IF(AND(NOT(AO26),AND(AO$4:AO25)),TRUE,AO26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="103">
         <f>IF(AND(NOT(ISBLANK(AT$4)),AND(NOT(AS26),AND(AS$4:AS25))),($J26*$G26-LN(1+AT$4*AU$2))/$G26,_xll.qlInterpolationInterpolate(AS$3,$F26,TRUE))</f>
-        <v>-6.5520873007316556E-4</v>
+        <v>-6.9347778951253409E-4</v>
       </c>
       <c r="AU26" s="108" t="str">
         <f>IF(AND(NOT(AS26),AND(AS$4:AS25)),MIN(EXP((AT26-$J26)*$G26),1),"")</f>
@@ -9979,11 +9979,11 @@
       </c>
       <c r="AW26" s="107" t="b">
         <f>IF(AND(NOT(AS26),AND(AS$4:AS25)),TRUE,AS26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX26" s="103">
         <f>IF(AND(NOT(ISBLANK(AX$4)),AND(NOT(AW26),AND(AW$4:AW25))),($J26*$G26-LN(1+AX$4*AY$2))/$G26,_xll.qlInterpolationInterpolate(AW$3,$F26,TRUE))</f>
-        <v>-6.5520873007316556E-4</v>
+        <v>-6.9347778951253409E-4</v>
       </c>
       <c r="AY26" s="108" t="str">
         <f>IF(AND(NOT(AW26),AND(AW$4:AW25)),MIN(EXP((AX26-$J26)*$G26),1),"")</f>
@@ -9991,11 +9991,11 @@
       </c>
       <c r="BA26" s="107" t="b">
         <f>IF(AND(NOT(AW26),AND(AW$4:AW25)),TRUE,AW26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB26" s="103">
         <f>IF(AND(NOT(ISBLANK(BB$4)),AND(NOT(BA26),AND(BA$4:BA25))),($J26*$G26-LN(1+BB$4*BC$2))/$G26,_xll.qlInterpolationInterpolate(BA$3,$F26,TRUE))</f>
-        <v>-6.5520873007316556E-4</v>
+        <v>-6.9347778951253409E-4</v>
       </c>
       <c r="BC26" s="108" t="str">
         <f>IF(AND(NOT(BA26),AND(BA$4:BA25)),MIN(EXP((BB26-$J26)*$G26),1),"")</f>
@@ -10003,72 +10003,72 @@
       </c>
       <c r="BE26" s="107" t="b">
         <f>IF(AND(NOT(BA26),AND(BA$4:BA25)),TRUE,BA26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF26" s="103">
         <f>IF(AND(NOT(ISBLANK(BF$4)),AND(NOT(BE26),AND(BE$4:BE25))),($J26*$G26-LN(1+BF$4*BG$2))/$G26,_xll.qlInterpolationInterpolate(BE$3,$F26,TRUE))</f>
-        <v>-6.5520873007316556E-4</v>
+        <v>-6.9347778951253409E-4</v>
       </c>
       <c r="BG26" s="108" t="str">
         <f>IF(AND(NOT(BE26),AND(BE$4:BE25)),MIN(EXP((BF26-$J26)*$G26),1),"")</f>
         <v/>
       </c>
       <c r="BI26" s="107" t="b">
-        <f>IF(AND(NOT(BE26),AND(BE$4:BE25)),TRUE,BE26)</f>
-        <v>1</v>
+        <f>IF(ISERROR(K26),FALSE,IF(YEAR(K26)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
+        <v>0</v>
       </c>
       <c r="BJ26" s="103">
         <f>IF(AND(NOT(ISBLANK(BJ$4)),AND(NOT(BI26),AND(BI$4:BI25))),($J26*$G26-LN(1+BJ$4*BK$2))/$G26,_xll.qlInterpolationInterpolate(BI$3,$F26,TRUE))</f>
-        <v>-6.5520873007316556E-4</v>
-      </c>
-      <c r="BK26" s="108" t="str">
+        <v>-6.9347778951253387E-4</v>
+      </c>
+      <c r="BK26" s="108">
         <f>IF(AND(NOT(BI26),AND(BI$4:BI25)),MIN(EXP((BJ26-$J26)*$G26),1),"")</f>
-        <v/>
+        <v>0.99995632402025625</v>
       </c>
     </row>
     <row r="27" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A27" s="95" t="str">
-        <v>WEUREON1Y</v>
+        <v>WEUREON18M</v>
       </c>
       <c r="B27" s="27">
         <f>_xll.qlRateHelperRate($A27,InterestRatesTrigger)</f>
-        <v>-3.3E-4</v>
+        <v>-4.6999999999999999E-4</v>
       </c>
       <c r="C27" s="30">
         <f>_xll.qlRateHelperEarliestDate($A27)</f>
-        <v>41946</v>
+        <v>41948</v>
       </c>
       <c r="D27" s="31">
         <f>_xll.qlRateHelperLatestDate($A27)</f>
-        <v>42311</v>
+        <v>42495</v>
       </c>
       <c r="F27" s="122">
         <f t="shared" si="0"/>
-        <v>42308</v>
+        <v>42450</v>
       </c>
       <c r="G27" s="123">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D26,D27)</f>
-        <v>1.6666666666666666E-2</v>
+        <v>0.25</v>
       </c>
       <c r="I27" s="147" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" s="146">
-        <v>-7.6437322507717873E-4</v>
+        <v>-6.224166625876179E-4</v>
       </c>
       <c r="K27" s="112">
         <f t="shared" si="2"/>
-        <v>42311</v>
+        <v>42495</v>
       </c>
       <c r="L27" s="101"/>
       <c r="M27" s="107" t="b">
         <f>IF(AND(NOT(I27),AND(I$4:I26)),TRUE,I27)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" s="103">
         <f>IF(AND(NOT(ISBLANK(N$4)),AND(NOT(M27),AND(M$4:M26))),($J27*$G27-LN(1+N$4*O$2))/$G27,_xll.qlInterpolationInterpolate(M$3,$F27,TRUE))</f>
-        <v>-6.3703880696828954E-4</v>
+        <v>-6.224166625876179E-4</v>
       </c>
       <c r="O27" s="108" t="str">
         <f>IF(AND(NOT(M27),AND(M$4:M26)),MIN(EXP((N27-$J27)*$G27),1),"")</f>
@@ -10077,11 +10077,11 @@
       <c r="P27" s="110"/>
       <c r="Q27" s="107" t="b">
         <f>IF(AND(NOT(M27),AND(M$4:M26)),TRUE,M27)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" s="103">
         <f>IF(AND(NOT(ISBLANK(R$4)),AND(NOT(Q27),AND(Q$4:Q26))),($J27*$G27-LN(1+R$4*S$2))/$G27,_xll.qlInterpolationInterpolate(Q$3,$F27,TRUE))</f>
-        <v>-6.3703880696828954E-4</v>
+        <v>-6.224166625876179E-4</v>
       </c>
       <c r="S27" s="108" t="str">
         <f>IF(AND(NOT(Q27),AND(Q$4:Q26)),MIN(EXP((R27-$J27)*$G27),1),"")</f>
@@ -10090,11 +10090,11 @@
       <c r="T27" s="110"/>
       <c r="U27" s="107" t="b">
         <f>IF(AND(NOT(Q27),AND(Q$4:Q26)),TRUE,Q27)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V27" s="103">
         <f>IF(AND(NOT(ISBLANK(V$4)),AND(NOT(U27),AND(U$4:U26))),($J27*$G27-LN(1+V$4*W$2))/$G27,_xll.qlInterpolationInterpolate(U$3,$F27,TRUE))</f>
-        <v>-6.3703880696828954E-4</v>
+        <v>-6.224166625876179E-4</v>
       </c>
       <c r="W27" s="108" t="str">
         <f>IF(AND(NOT(U27),AND(U$4:U26)),MIN(EXP((V27-$J27)*$G27),1),"")</f>
@@ -10103,11 +10103,11 @@
       <c r="X27" s="110"/>
       <c r="Y27" s="107" t="b">
         <f>IF(AND(NOT(U27),AND(U$4:U26)),TRUE,U27)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z27" s="103">
         <f>IF(AND(NOT(ISBLANK(Z$4)),AND(NOT(Y27),AND(Y$4:Y26))),($J27*$G27-LN(1+Z$4*AA$2))/$G27,_xll.qlInterpolationInterpolate(Y$3,$F27,TRUE))</f>
-        <v>-6.3703880696828954E-4</v>
+        <v>-6.224166625876179E-4</v>
       </c>
       <c r="AA27" s="108" t="str">
         <f>IF(AND(NOT(Y27),AND(Y$4:Y26)),MIN(EXP((Z27-$J27)*$G27),1),"")</f>
@@ -10116,11 +10116,11 @@
       <c r="AB27" s="110"/>
       <c r="AC27" s="107" t="b">
         <f>IF(AND(NOT(Y27),AND(Y$4:Y26)),TRUE,Y27)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD27" s="103">
         <f>IF(AND(NOT(ISBLANK(AD$4)),AND(NOT(AC27),AND(AC$4:AC26))),($J27*$G27-LN(1+AD$4*AE$2))/$G27,_xll.qlInterpolationInterpolate(AC$3,$F27,TRUE))</f>
-        <v>-6.3703880696828954E-4</v>
+        <v>-6.224166625876179E-4</v>
       </c>
       <c r="AE27" s="108" t="str">
         <f>IF(AND(NOT(AC27),AND(AC$4:AC26)),MIN(EXP((AD27-$J27)*$G27),1),"")</f>
@@ -10129,11 +10129,11 @@
       <c r="AF27" s="110"/>
       <c r="AG27" s="107" t="b">
         <f>IF(AND(NOT(AC27),AND(AC$4:AC26)),TRUE,AC27)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH27" s="103">
         <f>IF(AND(NOT(ISBLANK(AH$4)),AND(NOT(AG27),AND(AG$4:AG26))),($J27*$G27-LN(1+AH$4*AI$2))/$G27,_xll.qlInterpolationInterpolate(AG$3,$F27,TRUE))</f>
-        <v>-6.3703880696828954E-4</v>
+        <v>-6.224166625876179E-4</v>
       </c>
       <c r="AI27" s="108" t="str">
         <f>IF(AND(NOT(AG27),AND(AG$4:AG26)),MIN(EXP((AH27-$J27)*$G27),1),"")</f>
@@ -10142,11 +10142,11 @@
       <c r="AJ27" s="110"/>
       <c r="AK27" s="107" t="b">
         <f>IF(AND(NOT(AG27),AND(AG$4:AG26)),TRUE,AG27)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL27" s="103">
         <f>IF(AND(NOT(ISBLANK(AL$4)),AND(NOT(AK27),AND(AK$4:AK26))),($J27*$G27-LN(1+AL$4*AM$2))/$G27,_xll.qlInterpolationInterpolate(AK$3,$F27,TRUE))</f>
-        <v>-6.3703880696828954E-4</v>
+        <v>-6.224166625876179E-4</v>
       </c>
       <c r="AM27" s="108" t="str">
         <f>IF(AND(NOT(AK27),AND(AK$4:AK26)),MIN(EXP((AL27-$J27)*$G27),1),"")</f>
@@ -10154,11 +10154,11 @@
       </c>
       <c r="AO27" s="107" t="b">
         <f>IF(AND(NOT(AK27),AND(AK$4:AK26)),TRUE,AK27)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP27" s="103">
         <f>IF(AND(NOT(ISBLANK(AP$4)),AND(NOT(AO27),AND(AO$4:AO26))),($J27*$G27-LN(1+AP$4*AQ$2))/$G27,_xll.qlInterpolationInterpolate(AO$3,$F27,TRUE))</f>
-        <v>-6.3703880696828954E-4</v>
+        <v>-6.224166625876179E-4</v>
       </c>
       <c r="AQ27" s="108" t="str">
         <f>IF(AND(NOT(AO27),AND(AO$4:AO26)),MIN(EXP((AP27-$J27)*$G27),1),"")</f>
@@ -10166,11 +10166,11 @@
       </c>
       <c r="AS27" s="107" t="b">
         <f>IF(AND(NOT(AO27),AND(AO$4:AO26)),TRUE,AO27)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT27" s="103">
         <f>IF(AND(NOT(ISBLANK(AT$4)),AND(NOT(AS27),AND(AS$4:AS26))),($J27*$G27-LN(1+AT$4*AU$2))/$G27,_xll.qlInterpolationInterpolate(AS$3,$F27,TRUE))</f>
-        <v>-6.3703880696828954E-4</v>
+        <v>-6.224166625876179E-4</v>
       </c>
       <c r="AU27" s="108" t="str">
         <f>IF(AND(NOT(AS27),AND(AS$4:AS26)),MIN(EXP((AT27-$J27)*$G27),1),"")</f>
@@ -10178,11 +10178,11 @@
       </c>
       <c r="AW27" s="107" t="b">
         <f>IF(AND(NOT(AS27),AND(AS$4:AS26)),TRUE,AS27)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX27" s="103">
         <f>IF(AND(NOT(ISBLANK(AX$4)),AND(NOT(AW27),AND(AW$4:AW26))),($J27*$G27-LN(1+AX$4*AY$2))/$G27,_xll.qlInterpolationInterpolate(AW$3,$F27,TRUE))</f>
-        <v>-6.3703880696828954E-4</v>
+        <v>-6.224166625876179E-4</v>
       </c>
       <c r="AY27" s="108" t="str">
         <f>IF(AND(NOT(AW27),AND(AW$4:AW26)),MIN(EXP((AX27-$J27)*$G27),1),"")</f>
@@ -10190,11 +10190,11 @@
       </c>
       <c r="BA27" s="107" t="b">
         <f>IF(AND(NOT(AW27),AND(AW$4:AW26)),TRUE,AW27)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB27" s="103">
         <f>IF(AND(NOT(ISBLANK(BB$4)),AND(NOT(BA27),AND(BA$4:BA26))),($J27*$G27-LN(1+BB$4*BC$2))/$G27,_xll.qlInterpolationInterpolate(BA$3,$F27,TRUE))</f>
-        <v>-6.3703880696828954E-4</v>
+        <v>-6.224166625876179E-4</v>
       </c>
       <c r="BC27" s="108" t="str">
         <f>IF(AND(NOT(BA27),AND(BA$4:BA26)),MIN(EXP((BB27-$J27)*$G27),1),"")</f>
@@ -10202,23 +10202,23 @@
       </c>
       <c r="BE27" s="107" t="b">
         <f>IF(AND(NOT(BA27),AND(BA$4:BA26)),TRUE,BA27)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF27" s="103">
         <f>IF(AND(NOT(ISBLANK(BF$4)),AND(NOT(BE27),AND(BE$4:BE26))),($J27*$G27-LN(1+BF$4*BG$2))/$G27,_xll.qlInterpolationInterpolate(BE$3,$F27,TRUE))</f>
-        <v>-6.3703880696828954E-4</v>
-      </c>
-      <c r="BG27" s="108">
+        <v>-6.224166625876179E-4</v>
+      </c>
+      <c r="BG27" s="108" t="str">
         <f>IF(AND(NOT(BE27),AND(BE$4:BE26)),MIN(EXP((BF27-$J27)*$G27),1),"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="BI27" s="107" t="b">
-        <f>IF(AND(NOT(BE27),AND(BE$4:BE26)),TRUE,BE27)</f>
-        <v>1</v>
+        <f>IF(ISERROR(K27),FALSE,IF(YEAR(K27)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
+        <v>0</v>
       </c>
       <c r="BJ27" s="103">
         <f>IF(AND(NOT(ISBLANK(BJ$4)),AND(NOT(BI27),AND(BI$4:BI26))),($J27*$G27-LN(1+BJ$4*BK$2))/$G27,_xll.qlInterpolationInterpolate(BI$3,$F27,TRUE))</f>
-        <v>-6.3703880696828954E-4</v>
+        <v>-6.2241666258761757E-4</v>
       </c>
       <c r="BK27" s="108" t="str">
         <f>IF(AND(NOT(BI27),AND(BI$4:BI26)),MIN(EXP((BJ27-$J27)*$G27),1),"")</f>
@@ -10227,47 +10227,47 @@
     </row>
     <row r="28" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A28" s="95" t="str">
-        <v>WEURECBOISOCT15</v>
+        <v>WEUREON21M</v>
       </c>
       <c r="B28" s="27">
         <f>_xll.qlRateHelperRate($A28,InterestRatesTrigger)</f>
-        <v>-5.5000000000000003E-4</v>
+        <v>-4.4999999999999999E-4</v>
       </c>
       <c r="C28" s="30">
         <f>_xll.qlRateHelperEarliestDate($A28)</f>
-        <v>42305</v>
+        <v>41948</v>
       </c>
       <c r="D28" s="31">
         <f>_xll.qlRateHelperLatestDate($A28)</f>
-        <v>42347</v>
+        <v>42587</v>
       </c>
       <c r="F28" s="122">
         <f t="shared" si="0"/>
-        <v>42329</v>
+        <v>42541</v>
       </c>
       <c r="G28" s="123">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D27,D28)</f>
-        <v>0.1</v>
+        <v>0.25555555555555554</v>
       </c>
       <c r="I28" s="147" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" s="146">
-        <v>-5.1429171683855222E-4</v>
+        <v>-3.3120925818980515E-4</v>
       </c>
       <c r="K28" s="112">
         <f t="shared" si="2"/>
-        <v>42347</v>
+        <v>42587</v>
       </c>
       <c r="L28" s="101"/>
       <c r="M28" s="107" t="b">
         <f>IF(AND(NOT(I28),AND(I$4:I27)),TRUE,I28)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" s="103">
         <f>IF(AND(NOT(ISBLANK(N$4)),AND(NOT(M28),AND(M$4:M27))),($J28*$G28-LN(1+N$4*O$2))/$G28,_xll.qlInterpolationInterpolate(M$3,$F28,TRUE))</f>
-        <v>-6.1072374591984832E-4</v>
+        <v>-3.3120925818980515E-4</v>
       </c>
       <c r="O28" s="108" t="str">
         <f>IF(AND(NOT(M28),AND(M$4:M27)),MIN(EXP((N28-$J28)*$G28),1),"")</f>
@@ -10276,11 +10276,11 @@
       <c r="P28" s="110"/>
       <c r="Q28" s="107" t="b">
         <f>IF(AND(NOT(M28),AND(M$4:M27)),TRUE,M28)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" s="103">
         <f>IF(AND(NOT(ISBLANK(R$4)),AND(NOT(Q28),AND(Q$4:Q27))),($J28*$G28-LN(1+R$4*S$2))/$G28,_xll.qlInterpolationInterpolate(Q$3,$F28,TRUE))</f>
-        <v>-6.1072374591984832E-4</v>
+        <v>-3.3120925818980515E-4</v>
       </c>
       <c r="S28" s="108" t="str">
         <f>IF(AND(NOT(Q28),AND(Q$4:Q27)),MIN(EXP((R28-$J28)*$G28),1),"")</f>
@@ -10289,11 +10289,11 @@
       <c r="T28" s="110"/>
       <c r="U28" s="107" t="b">
         <f>IF(AND(NOT(Q28),AND(Q$4:Q27)),TRUE,Q28)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V28" s="103">
         <f>IF(AND(NOT(ISBLANK(V$4)),AND(NOT(U28),AND(U$4:U27))),($J28*$G28-LN(1+V$4*W$2))/$G28,_xll.qlInterpolationInterpolate(U$3,$F28,TRUE))</f>
-        <v>-6.1072374591984832E-4</v>
+        <v>-3.3120925818980515E-4</v>
       </c>
       <c r="W28" s="108" t="str">
         <f>IF(AND(NOT(U28),AND(U$4:U27)),MIN(EXP((V28-$J28)*$G28),1),"")</f>
@@ -10302,11 +10302,11 @@
       <c r="X28" s="110"/>
       <c r="Y28" s="107" t="b">
         <f>IF(AND(NOT(U28),AND(U$4:U27)),TRUE,U28)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z28" s="103">
         <f>IF(AND(NOT(ISBLANK(Z$4)),AND(NOT(Y28),AND(Y$4:Y27))),($J28*$G28-LN(1+Z$4*AA$2))/$G28,_xll.qlInterpolationInterpolate(Y$3,$F28,TRUE))</f>
-        <v>-6.1072374591984832E-4</v>
+        <v>-3.3120925818980515E-4</v>
       </c>
       <c r="AA28" s="108" t="str">
         <f>IF(AND(NOT(Y28),AND(Y$4:Y27)),MIN(EXP((Z28-$J28)*$G28),1),"")</f>
@@ -10315,11 +10315,11 @@
       <c r="AB28" s="110"/>
       <c r="AC28" s="107" t="b">
         <f>IF(AND(NOT(Y28),AND(Y$4:Y27)),TRUE,Y28)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD28" s="103">
         <f>IF(AND(NOT(ISBLANK(AD$4)),AND(NOT(AC28),AND(AC$4:AC27))),($J28*$G28-LN(1+AD$4*AE$2))/$G28,_xll.qlInterpolationInterpolate(AC$3,$F28,TRUE))</f>
-        <v>-6.1072374591984832E-4</v>
+        <v>-3.3120925818980515E-4</v>
       </c>
       <c r="AE28" s="108" t="str">
         <f>IF(AND(NOT(AC28),AND(AC$4:AC27)),MIN(EXP((AD28-$J28)*$G28),1),"")</f>
@@ -10328,11 +10328,11 @@
       <c r="AF28" s="110"/>
       <c r="AG28" s="107" t="b">
         <f>IF(AND(NOT(AC28),AND(AC$4:AC27)),TRUE,AC28)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH28" s="103">
         <f>IF(AND(NOT(ISBLANK(AH$4)),AND(NOT(AG28),AND(AG$4:AG27))),($J28*$G28-LN(1+AH$4*AI$2))/$G28,_xll.qlInterpolationInterpolate(AG$3,$F28,TRUE))</f>
-        <v>-6.1072374591984832E-4</v>
+        <v>-3.3120925818980515E-4</v>
       </c>
       <c r="AI28" s="108" t="str">
         <f>IF(AND(NOT(AG28),AND(AG$4:AG27)),MIN(EXP((AH28-$J28)*$G28),1),"")</f>
@@ -10341,11 +10341,11 @@
       <c r="AJ28" s="110"/>
       <c r="AK28" s="107" t="b">
         <f>IF(AND(NOT(AG28),AND(AG$4:AG27)),TRUE,AG28)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL28" s="103">
         <f>IF(AND(NOT(ISBLANK(AL$4)),AND(NOT(AK28),AND(AK$4:AK27))),($J28*$G28-LN(1+AL$4*AM$2))/$G28,_xll.qlInterpolationInterpolate(AK$3,$F28,TRUE))</f>
-        <v>-6.1072374591984832E-4</v>
+        <v>-3.3120925818980515E-4</v>
       </c>
       <c r="AM28" s="108" t="str">
         <f>IF(AND(NOT(AK28),AND(AK$4:AK27)),MIN(EXP((AL28-$J28)*$G28),1),"")</f>
@@ -10353,11 +10353,11 @@
       </c>
       <c r="AO28" s="107" t="b">
         <f>IF(AND(NOT(AK28),AND(AK$4:AK27)),TRUE,AK28)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP28" s="103">
         <f>IF(AND(NOT(ISBLANK(AP$4)),AND(NOT(AO28),AND(AO$4:AO27))),($J28*$G28-LN(1+AP$4*AQ$2))/$G28,_xll.qlInterpolationInterpolate(AO$3,$F28,TRUE))</f>
-        <v>-6.1072374591984832E-4</v>
+        <v>-3.3120925818980515E-4</v>
       </c>
       <c r="AQ28" s="108" t="str">
         <f>IF(AND(NOT(AO28),AND(AO$4:AO27)),MIN(EXP((AP28-$J28)*$G28),1),"")</f>
@@ -10365,11 +10365,11 @@
       </c>
       <c r="AS28" s="107" t="b">
         <f>IF(AND(NOT(AO28),AND(AO$4:AO27)),TRUE,AO28)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT28" s="103">
         <f>IF(AND(NOT(ISBLANK(AT$4)),AND(NOT(AS28),AND(AS$4:AS27))),($J28*$G28-LN(1+AT$4*AU$2))/$G28,_xll.qlInterpolationInterpolate(AS$3,$F28,TRUE))</f>
-        <v>-6.1072374591984832E-4</v>
+        <v>-3.3120925818980515E-4</v>
       </c>
       <c r="AU28" s="108" t="str">
         <f>IF(AND(NOT(AS28),AND(AS$4:AS27)),MIN(EXP((AT28-$J28)*$G28),1),"")</f>
@@ -10377,11 +10377,11 @@
       </c>
       <c r="AW28" s="107" t="b">
         <f>IF(AND(NOT(AS28),AND(AS$4:AS27)),TRUE,AS28)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX28" s="103">
         <f>IF(AND(NOT(ISBLANK(AX$4)),AND(NOT(AW28),AND(AW$4:AW27))),($J28*$G28-LN(1+AX$4*AY$2))/$G28,_xll.qlInterpolationInterpolate(AW$3,$F28,TRUE))</f>
-        <v>-6.1072374591984832E-4</v>
+        <v>-3.3120925818980515E-4</v>
       </c>
       <c r="AY28" s="108" t="str">
         <f>IF(AND(NOT(AW28),AND(AW$4:AW27)),MIN(EXP((AX28-$J28)*$G28),1),"")</f>
@@ -10389,11 +10389,11 @@
       </c>
       <c r="BA28" s="107" t="b">
         <f>IF(AND(NOT(AW28),AND(AW$4:AW27)),TRUE,AW28)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB28" s="103">
         <f>IF(AND(NOT(ISBLANK(BB$4)),AND(NOT(BA28),AND(BA$4:BA27))),($J28*$G28-LN(1+BB$4*BC$2))/$G28,_xll.qlInterpolationInterpolate(BA$3,$F28,TRUE))</f>
-        <v>-6.1072374591984832E-4</v>
+        <v>-3.3120925818980515E-4</v>
       </c>
       <c r="BC28" s="108" t="str">
         <f>IF(AND(NOT(BA28),AND(BA$4:BA27)),MIN(EXP((BB28-$J28)*$G28),1),"")</f>
@@ -10401,72 +10401,72 @@
       </c>
       <c r="BE28" s="107" t="b">
         <f>IF(AND(NOT(BA28),AND(BA$4:BA27)),TRUE,BA28)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF28" s="103">
         <f>IF(AND(NOT(ISBLANK(BF$4)),AND(NOT(BE28),AND(BE$4:BE27))),($J28*$G28-LN(1+BF$4*BG$2))/$G28,_xll.qlInterpolationInterpolate(BE$3,$F28,TRUE))</f>
-        <v>-6.1072374591984832E-4</v>
+        <v>-3.3120925818980515E-4</v>
       </c>
       <c r="BG28" s="108" t="str">
         <f>IF(AND(NOT(BE28),AND(BE$4:BE27)),MIN(EXP((BF28-$J28)*$G28),1),"")</f>
         <v/>
       </c>
       <c r="BI28" s="107" t="b">
-        <f>IF(AND(NOT(BE28),AND(BE$4:BE27)),TRUE,BE28)</f>
+        <f>IF(ISERROR(K28),FALSE,IF(YEAR(K28)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ28" s="103">
         <f>IF(AND(NOT(ISBLANK(BJ$4)),AND(NOT(BI28),AND(BI$4:BI27))),($J28*$G28-LN(1+BJ$4*BK$2))/$G28,_xll.qlInterpolationInterpolate(BI$3,$F28,TRUE))</f>
-        <v>-6.1072374591984832E-4</v>
-      </c>
-      <c r="BK28" s="108">
+        <v>-5.3503068217995026E-4</v>
+      </c>
+      <c r="BK28" s="108" t="str">
         <f>IF(AND(NOT(BI28),AND(BI$4:BI27)),MIN(EXP((BJ28-$J28)*$G28),1),"")</f>
-        <v>0.99999035684358739</v>
+        <v/>
       </c>
     </row>
     <row r="29" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A29" s="95" t="str">
-        <v>WEUREON15M</v>
+        <v>WEUREON2Y</v>
       </c>
       <c r="B29" s="27">
         <f>_xll.qlRateHelperRate($A29,InterestRatesTrigger)</f>
-        <v>-3.3999999999999997E-4</v>
+        <v>-4.0999999999999999E-4</v>
       </c>
       <c r="C29" s="30">
         <f>_xll.qlRateHelperEarliestDate($A29)</f>
-        <v>41946</v>
+        <v>41948</v>
       </c>
       <c r="D29" s="31">
         <f>_xll.qlRateHelperLatestDate($A29)</f>
-        <v>42403</v>
+        <v>42681</v>
       </c>
       <c r="F29" s="122">
         <f t="shared" si="0"/>
-        <v>42375</v>
+        <v>42634</v>
       </c>
       <c r="G29" s="123">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D28,D29)</f>
-        <v>0.15555555555555556</v>
+        <v>0.26111111111111113</v>
       </c>
       <c r="I29" s="147" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" s="146">
-        <v>-2.9315783413281962E-4</v>
+        <v>-1.38198453787228E-4</v>
       </c>
       <c r="K29" s="112">
         <f t="shared" si="2"/>
-        <v>42403</v>
+        <v>42681</v>
       </c>
       <c r="L29" s="101"/>
       <c r="M29" s="107" t="b">
         <f>IF(AND(NOT(I29),AND(I$4:I28)),TRUE,I29)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" s="103">
         <f>IF(AND(NOT(ISBLANK(N$4)),AND(NOT(M29),AND(M$4:M28))),($J29*$G29-LN(1+N$4*O$2))/$G29,_xll.qlInterpolationInterpolate(M$3,$F29,TRUE))</f>
-        <v>-5.5308123124231043E-4</v>
+        <v>-1.3819845378722798E-4</v>
       </c>
       <c r="O29" s="108" t="str">
         <f>IF(AND(NOT(M29),AND(M$4:M28)),MIN(EXP((N29-$J29)*$G29),1),"")</f>
@@ -10475,11 +10475,11 @@
       <c r="P29" s="110"/>
       <c r="Q29" s="107" t="b">
         <f>IF(AND(NOT(M29),AND(M$4:M28)),TRUE,M29)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" s="103">
         <f>IF(AND(NOT(ISBLANK(R$4)),AND(NOT(Q29),AND(Q$4:Q28))),($J29*$G29-LN(1+R$4*S$2))/$G29,_xll.qlInterpolationInterpolate(Q$3,$F29,TRUE))</f>
-        <v>-5.5308123124231043E-4</v>
+        <v>-1.3819845378722798E-4</v>
       </c>
       <c r="S29" s="108" t="str">
         <f>IF(AND(NOT(Q29),AND(Q$4:Q28)),MIN(EXP((R29-$J29)*$G29),1),"")</f>
@@ -10488,11 +10488,11 @@
       <c r="T29" s="110"/>
       <c r="U29" s="107" t="b">
         <f>IF(AND(NOT(Q29),AND(Q$4:Q28)),TRUE,Q29)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V29" s="103">
         <f>IF(AND(NOT(ISBLANK(V$4)),AND(NOT(U29),AND(U$4:U28))),($J29*$G29-LN(1+V$4*W$2))/$G29,_xll.qlInterpolationInterpolate(U$3,$F29,TRUE))</f>
-        <v>-5.5308123124231043E-4</v>
+        <v>-1.3819845378722798E-4</v>
       </c>
       <c r="W29" s="108" t="str">
         <f>IF(AND(NOT(U29),AND(U$4:U28)),MIN(EXP((V29-$J29)*$G29),1),"")</f>
@@ -10501,11 +10501,11 @@
       <c r="X29" s="110"/>
       <c r="Y29" s="107" t="b">
         <f>IF(AND(NOT(U29),AND(U$4:U28)),TRUE,U29)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z29" s="103">
         <f>IF(AND(NOT(ISBLANK(Z$4)),AND(NOT(Y29),AND(Y$4:Y28))),($J29*$G29-LN(1+Z$4*AA$2))/$G29,_xll.qlInterpolationInterpolate(Y$3,$F29,TRUE))</f>
-        <v>-5.5308123124231043E-4</v>
+        <v>-1.3819845378722798E-4</v>
       </c>
       <c r="AA29" s="108" t="str">
         <f>IF(AND(NOT(Y29),AND(Y$4:Y28)),MIN(EXP((Z29-$J29)*$G29),1),"")</f>
@@ -10514,11 +10514,11 @@
       <c r="AB29" s="110"/>
       <c r="AC29" s="107" t="b">
         <f>IF(AND(NOT(Y29),AND(Y$4:Y28)),TRUE,Y29)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD29" s="103">
         <f>IF(AND(NOT(ISBLANK(AD$4)),AND(NOT(AC29),AND(AC$4:AC28))),($J29*$G29-LN(1+AD$4*AE$2))/$G29,_xll.qlInterpolationInterpolate(AC$3,$F29,TRUE))</f>
-        <v>-5.5308123124231043E-4</v>
+        <v>-1.3819845378722798E-4</v>
       </c>
       <c r="AE29" s="108" t="str">
         <f>IF(AND(NOT(AC29),AND(AC$4:AC28)),MIN(EXP((AD29-$J29)*$G29),1),"")</f>
@@ -10527,11 +10527,11 @@
       <c r="AF29" s="110"/>
       <c r="AG29" s="107" t="b">
         <f>IF(AND(NOT(AC29),AND(AC$4:AC28)),TRUE,AC29)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH29" s="103">
         <f>IF(AND(NOT(ISBLANK(AH$4)),AND(NOT(AG29),AND(AG$4:AG28))),($J29*$G29-LN(1+AH$4*AI$2))/$G29,_xll.qlInterpolationInterpolate(AG$3,$F29,TRUE))</f>
-        <v>-5.5308123124231043E-4</v>
+        <v>-1.3819845378722798E-4</v>
       </c>
       <c r="AI29" s="108" t="str">
         <f>IF(AND(NOT(AG29),AND(AG$4:AG28)),MIN(EXP((AH29-$J29)*$G29),1),"")</f>
@@ -10540,11 +10540,11 @@
       <c r="AJ29" s="110"/>
       <c r="AK29" s="107" t="b">
         <f>IF(AND(NOT(AG29),AND(AG$4:AG28)),TRUE,AG29)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL29" s="103">
         <f>IF(AND(NOT(ISBLANK(AL$4)),AND(NOT(AK29),AND(AK$4:AK28))),($J29*$G29-LN(1+AL$4*AM$2))/$G29,_xll.qlInterpolationInterpolate(AK$3,$F29,TRUE))</f>
-        <v>-5.5308123124231043E-4</v>
+        <v>-1.3819845378722798E-4</v>
       </c>
       <c r="AM29" s="108" t="str">
         <f>IF(AND(NOT(AK29),AND(AK$4:AK28)),MIN(EXP((AL29-$J29)*$G29),1),"")</f>
@@ -10552,11 +10552,11 @@
       </c>
       <c r="AO29" s="107" t="b">
         <f>IF(AND(NOT(AK29),AND(AK$4:AK28)),TRUE,AK29)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP29" s="103">
         <f>IF(AND(NOT(ISBLANK(AP$4)),AND(NOT(AO29),AND(AO$4:AO28))),($J29*$G29-LN(1+AP$4*AQ$2))/$G29,_xll.qlInterpolationInterpolate(AO$3,$F29,TRUE))</f>
-        <v>-5.5308123124231043E-4</v>
+        <v>-1.3819845378722798E-4</v>
       </c>
       <c r="AQ29" s="108" t="str">
         <f>IF(AND(NOT(AO29),AND(AO$4:AO28)),MIN(EXP((AP29-$J29)*$G29),1),"")</f>
@@ -10564,11 +10564,11 @@
       </c>
       <c r="AS29" s="107" t="b">
         <f>IF(AND(NOT(AO29),AND(AO$4:AO28)),TRUE,AO29)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT29" s="103">
         <f>IF(AND(NOT(ISBLANK(AT$4)),AND(NOT(AS29),AND(AS$4:AS28))),($J29*$G29-LN(1+AT$4*AU$2))/$G29,_xll.qlInterpolationInterpolate(AS$3,$F29,TRUE))</f>
-        <v>-5.5308123124231043E-4</v>
+        <v>-1.3819845378722798E-4</v>
       </c>
       <c r="AU29" s="108" t="str">
         <f>IF(AND(NOT(AS29),AND(AS$4:AS28)),MIN(EXP((AT29-$J29)*$G29),1),"")</f>
@@ -10576,11 +10576,11 @@
       </c>
       <c r="AW29" s="107" t="b">
         <f>IF(AND(NOT(AS29),AND(AS$4:AS28)),TRUE,AS29)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX29" s="103">
         <f>IF(AND(NOT(ISBLANK(AX$4)),AND(NOT(AW29),AND(AW$4:AW28))),($J29*$G29-LN(1+AX$4*AY$2))/$G29,_xll.qlInterpolationInterpolate(AW$3,$F29,TRUE))</f>
-        <v>-5.5308123124231043E-4</v>
+        <v>-1.3819845378722798E-4</v>
       </c>
       <c r="AY29" s="108" t="str">
         <f>IF(AND(NOT(AW29),AND(AW$4:AW28)),MIN(EXP((AX29-$J29)*$G29),1),"")</f>
@@ -10588,11 +10588,11 @@
       </c>
       <c r="BA29" s="107" t="b">
         <f>IF(AND(NOT(AW29),AND(AW$4:AW28)),TRUE,AW29)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB29" s="103">
         <f>IF(AND(NOT(ISBLANK(BB$4)),AND(NOT(BA29),AND(BA$4:BA28))),($J29*$G29-LN(1+BB$4*BC$2))/$G29,_xll.qlInterpolationInterpolate(BA$3,$F29,TRUE))</f>
-        <v>-5.5308123124231043E-4</v>
+        <v>-1.3819845378722798E-4</v>
       </c>
       <c r="BC29" s="108" t="str">
         <f>IF(AND(NOT(BA29),AND(BA$4:BA28)),MIN(EXP((BB29-$J29)*$G29),1),"")</f>
@@ -10600,23 +10600,23 @@
       </c>
       <c r="BE29" s="107" t="b">
         <f>IF(AND(NOT(BA29),AND(BA$4:BA28)),TRUE,BA29)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF29" s="103">
         <f>IF(AND(NOT(ISBLANK(BF$4)),AND(NOT(BE29),AND(BE$4:BE28))),($J29*$G29-LN(1+BF$4*BG$2))/$G29,_xll.qlInterpolationInterpolate(BE$3,$F29,TRUE))</f>
-        <v>-5.5308123124231043E-4</v>
+        <v>-1.3819845378722798E-4</v>
       </c>
       <c r="BG29" s="108" t="str">
         <f>IF(AND(NOT(BE29),AND(BE$4:BE28)),MIN(EXP((BF29-$J29)*$G29),1),"")</f>
         <v/>
       </c>
       <c r="BI29" s="107" t="b">
-        <f>IF(AND(NOT(BE29),AND(BE$4:BE28)),TRUE,BE29)</f>
+        <f>IF(ISERROR(K29),FALSE,IF(YEAR(K29)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ29" s="103">
         <f>IF(AND(NOT(ISBLANK(BJ$4)),AND(NOT(BI29),AND(BI$4:BI28))),($J29*$G29-LN(1+BJ$4*BK$2))/$G29,_xll.qlInterpolationInterpolate(BI$3,$F29,TRUE))</f>
-        <v>-5.5308123124231043E-4</v>
+        <v>-4.457241307743121E-4</v>
       </c>
       <c r="BK29" s="108" t="str">
         <f>IF(AND(NOT(BI29),AND(BI$4:BI28)),MIN(EXP((BJ29-$J29)*$G29),1),"")</f>
@@ -10624,48 +10624,48 @@
       </c>
     </row>
     <row r="30" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A30" s="95" t="str">
-        <v>WEUREON18M</v>
-      </c>
-      <c r="B30" s="27">
+      <c r="A30" s="95" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B30" s="27" t="e">
         <f>_xll.qlRateHelperRate($A30,InterestRatesTrigger)</f>
-        <v>-3.5999999999999997E-4</v>
-      </c>
-      <c r="C30" s="30">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C30" s="30" t="e">
         <f>_xll.qlRateHelperEarliestDate($A30)</f>
-        <v>41946</v>
-      </c>
-      <c r="D30" s="31">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D30" s="31" t="e">
         <f>_xll.qlRateHelperLatestDate($A30)</f>
-        <v>42493</v>
-      </c>
-      <c r="F30" s="122">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F30" s="122" t="e">
         <f t="shared" si="0"/>
-        <v>42448</v>
-      </c>
-      <c r="G30" s="123">
+        <v>#N/A</v>
+      </c>
+      <c r="G30" s="123" t="e">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D29,D30)</f>
-        <v>0.25</v>
+        <v>#NUM!</v>
       </c>
       <c r="I30" s="147" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J30" s="146">
-        <v>-4.6160506664534823E-4</v>
-      </c>
-      <c r="K30" s="112">
+        <v>0</v>
+      </c>
+      <c r="J30" s="146" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K30" s="112" t="e">
         <f t="shared" si="2"/>
-        <v>42493</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L30" s="101"/>
       <c r="M30" s="107" t="b">
         <f>IF(AND(NOT(I30),AND(I$4:I29)),TRUE,I30)</f>
-        <v>1</v>
-      </c>
-      <c r="N30" s="103">
+        <v>0</v>
+      </c>
+      <c r="N30" s="103" t="e">
         <f>IF(AND(NOT(ISBLANK(N$4)),AND(NOT(M30),AND(M$4:M29))),($J30*$G30-LN(1+N$4*O$2))/$G30,_xll.qlInterpolationInterpolate(M$3,$F30,TRUE))</f>
-        <v>-4.6160506664534823E-4</v>
+        <v>#NUM!</v>
       </c>
       <c r="O30" s="108" t="str">
         <f>IF(AND(NOT(M30),AND(M$4:M29)),MIN(EXP((N30-$J30)*$G30),1),"")</f>
@@ -10674,11 +10674,11 @@
       <c r="P30" s="110"/>
       <c r="Q30" s="107" t="b">
         <f>IF(AND(NOT(M30),AND(M$4:M29)),TRUE,M30)</f>
-        <v>1</v>
-      </c>
-      <c r="R30" s="103">
+        <v>0</v>
+      </c>
+      <c r="R30" s="103" t="e">
         <f>IF(AND(NOT(ISBLANK(R$4)),AND(NOT(Q30),AND(Q$4:Q29))),($J30*$G30-LN(1+R$4*S$2))/$G30,_xll.qlInterpolationInterpolate(Q$3,$F30,TRUE))</f>
-        <v>-4.6160506664534823E-4</v>
+        <v>#NUM!</v>
       </c>
       <c r="S30" s="108" t="str">
         <f>IF(AND(NOT(Q30),AND(Q$4:Q29)),MIN(EXP((R30-$J30)*$G30),1),"")</f>
@@ -10687,11 +10687,11 @@
       <c r="T30" s="110"/>
       <c r="U30" s="107" t="b">
         <f>IF(AND(NOT(Q30),AND(Q$4:Q29)),TRUE,Q30)</f>
-        <v>1</v>
-      </c>
-      <c r="V30" s="103">
+        <v>0</v>
+      </c>
+      <c r="V30" s="103" t="e">
         <f>IF(AND(NOT(ISBLANK(V$4)),AND(NOT(U30),AND(U$4:U29))),($J30*$G30-LN(1+V$4*W$2))/$G30,_xll.qlInterpolationInterpolate(U$3,$F30,TRUE))</f>
-        <v>-4.6160506664534823E-4</v>
+        <v>#NUM!</v>
       </c>
       <c r="W30" s="108" t="str">
         <f>IF(AND(NOT(U30),AND(U$4:U29)),MIN(EXP((V30-$J30)*$G30),1),"")</f>
@@ -10700,11 +10700,11 @@
       <c r="X30" s="110"/>
       <c r="Y30" s="107" t="b">
         <f>IF(AND(NOT(U30),AND(U$4:U29)),TRUE,U30)</f>
-        <v>1</v>
-      </c>
-      <c r="Z30" s="103">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="103" t="e">
         <f>IF(AND(NOT(ISBLANK(Z$4)),AND(NOT(Y30),AND(Y$4:Y29))),($J30*$G30-LN(1+Z$4*AA$2))/$G30,_xll.qlInterpolationInterpolate(Y$3,$F30,TRUE))</f>
-        <v>-4.6160506664534823E-4</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA30" s="108" t="str">
         <f>IF(AND(NOT(Y30),AND(Y$4:Y29)),MIN(EXP((Z30-$J30)*$G30),1),"")</f>
@@ -10713,11 +10713,11 @@
       <c r="AB30" s="110"/>
       <c r="AC30" s="107" t="b">
         <f>IF(AND(NOT(Y30),AND(Y$4:Y29)),TRUE,Y30)</f>
-        <v>1</v>
-      </c>
-      <c r="AD30" s="103">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="103" t="e">
         <f>IF(AND(NOT(ISBLANK(AD$4)),AND(NOT(AC30),AND(AC$4:AC29))),($J30*$G30-LN(1+AD$4*AE$2))/$G30,_xll.qlInterpolationInterpolate(AC$3,$F30,TRUE))</f>
-        <v>-4.6160506664534823E-4</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE30" s="108" t="str">
         <f>IF(AND(NOT(AC30),AND(AC$4:AC29)),MIN(EXP((AD30-$J30)*$G30),1),"")</f>
@@ -10726,11 +10726,11 @@
       <c r="AF30" s="110"/>
       <c r="AG30" s="107" t="b">
         <f>IF(AND(NOT(AC30),AND(AC$4:AC29)),TRUE,AC30)</f>
-        <v>1</v>
-      </c>
-      <c r="AH30" s="103">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="103" t="e">
         <f>IF(AND(NOT(ISBLANK(AH$4)),AND(NOT(AG30),AND(AG$4:AG29))),($J30*$G30-LN(1+AH$4*AI$2))/$G30,_xll.qlInterpolationInterpolate(AG$3,$F30,TRUE))</f>
-        <v>-4.6160506664534823E-4</v>
+        <v>#NUM!</v>
       </c>
       <c r="AI30" s="108" t="str">
         <f>IF(AND(NOT(AG30),AND(AG$4:AG29)),MIN(EXP((AH30-$J30)*$G30),1),"")</f>
@@ -10739,11 +10739,11 @@
       <c r="AJ30" s="110"/>
       <c r="AK30" s="107" t="b">
         <f>IF(AND(NOT(AG30),AND(AG$4:AG29)),TRUE,AG30)</f>
-        <v>1</v>
-      </c>
-      <c r="AL30" s="103">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="103" t="e">
         <f>IF(AND(NOT(ISBLANK(AL$4)),AND(NOT(AK30),AND(AK$4:AK29))),($J30*$G30-LN(1+AL$4*AM$2))/$G30,_xll.qlInterpolationInterpolate(AK$3,$F30,TRUE))</f>
-        <v>-4.6160506664534823E-4</v>
+        <v>#NUM!</v>
       </c>
       <c r="AM30" s="108" t="str">
         <f>IF(AND(NOT(AK30),AND(AK$4:AK29)),MIN(EXP((AL30-$J30)*$G30),1),"")</f>
@@ -10751,11 +10751,11 @@
       </c>
       <c r="AO30" s="107" t="b">
         <f>IF(AND(NOT(AK30),AND(AK$4:AK29)),TRUE,AK30)</f>
-        <v>1</v>
-      </c>
-      <c r="AP30" s="103">
+        <v>0</v>
+      </c>
+      <c r="AP30" s="103" t="e">
         <f>IF(AND(NOT(ISBLANK(AP$4)),AND(NOT(AO30),AND(AO$4:AO29))),($J30*$G30-LN(1+AP$4*AQ$2))/$G30,_xll.qlInterpolationInterpolate(AO$3,$F30,TRUE))</f>
-        <v>-4.6160506664534823E-4</v>
+        <v>#NUM!</v>
       </c>
       <c r="AQ30" s="108" t="str">
         <f>IF(AND(NOT(AO30),AND(AO$4:AO29)),MIN(EXP((AP30-$J30)*$G30),1),"")</f>
@@ -10763,11 +10763,11 @@
       </c>
       <c r="AS30" s="107" t="b">
         <f>IF(AND(NOT(AO30),AND(AO$4:AO29)),TRUE,AO30)</f>
-        <v>1</v>
-      </c>
-      <c r="AT30" s="103">
+        <v>0</v>
+      </c>
+      <c r="AT30" s="103" t="e">
         <f>IF(AND(NOT(ISBLANK(AT$4)),AND(NOT(AS30),AND(AS$4:AS29))),($J30*$G30-LN(1+AT$4*AU$2))/$G30,_xll.qlInterpolationInterpolate(AS$3,$F30,TRUE))</f>
-        <v>-4.6160506664534823E-4</v>
+        <v>#NUM!</v>
       </c>
       <c r="AU30" s="108" t="str">
         <f>IF(AND(NOT(AS30),AND(AS$4:AS29)),MIN(EXP((AT30-$J30)*$G30),1),"")</f>
@@ -10775,11 +10775,11 @@
       </c>
       <c r="AW30" s="107" t="b">
         <f>IF(AND(NOT(AS30),AND(AS$4:AS29)),TRUE,AS30)</f>
-        <v>1</v>
-      </c>
-      <c r="AX30" s="103">
+        <v>0</v>
+      </c>
+      <c r="AX30" s="103" t="e">
         <f>IF(AND(NOT(ISBLANK(AX$4)),AND(NOT(AW30),AND(AW$4:AW29))),($J30*$G30-LN(1+AX$4*AY$2))/$G30,_xll.qlInterpolationInterpolate(AW$3,$F30,TRUE))</f>
-        <v>-4.6160506664534823E-4</v>
+        <v>#NUM!</v>
       </c>
       <c r="AY30" s="108" t="str">
         <f>IF(AND(NOT(AW30),AND(AW$4:AW29)),MIN(EXP((AX30-$J30)*$G30),1),"")</f>
@@ -10787,11 +10787,11 @@
       </c>
       <c r="BA30" s="107" t="b">
         <f>IF(AND(NOT(AW30),AND(AW$4:AW29)),TRUE,AW30)</f>
-        <v>1</v>
-      </c>
-      <c r="BB30" s="103">
+        <v>0</v>
+      </c>
+      <c r="BB30" s="103" t="e">
         <f>IF(AND(NOT(ISBLANK(BB$4)),AND(NOT(BA30),AND(BA$4:BA29))),($J30*$G30-LN(1+BB$4*BC$2))/$G30,_xll.qlInterpolationInterpolate(BA$3,$F30,TRUE))</f>
-        <v>-4.6160506664534823E-4</v>
+        <v>#NUM!</v>
       </c>
       <c r="BC30" s="108" t="str">
         <f>IF(AND(NOT(BA30),AND(BA$4:BA29)),MIN(EXP((BB30-$J30)*$G30),1),"")</f>
@@ -10799,23 +10799,23 @@
       </c>
       <c r="BE30" s="107" t="b">
         <f>IF(AND(NOT(BA30),AND(BA$4:BA29)),TRUE,BA30)</f>
-        <v>1</v>
-      </c>
-      <c r="BF30" s="103">
+        <v>0</v>
+      </c>
+      <c r="BF30" s="103" t="e">
         <f>IF(AND(NOT(ISBLANK(BF$4)),AND(NOT(BE30),AND(BE$4:BE29))),($J30*$G30-LN(1+BF$4*BG$2))/$G30,_xll.qlInterpolationInterpolate(BE$3,$F30,TRUE))</f>
-        <v>-4.6160506664534823E-4</v>
+        <v>#NUM!</v>
       </c>
       <c r="BG30" s="108" t="str">
         <f>IF(AND(NOT(BE30),AND(BE$4:BE29)),MIN(EXP((BF30-$J30)*$G30),1),"")</f>
         <v/>
       </c>
       <c r="BI30" s="107" t="b">
-        <f>IF(AND(NOT(BE30),AND(BE$4:BE29)),TRUE,BE30)</f>
-        <v>1</v>
-      </c>
-      <c r="BJ30" s="103">
+        <f>IF(ISERROR(K30),FALSE,IF(YEAR(K30)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
+        <v>0</v>
+      </c>
+      <c r="BJ30" s="103" t="e">
         <f>IF(AND(NOT(ISBLANK(BJ$4)),AND(NOT(BI30),AND(BI$4:BI29))),($J30*$G30-LN(1+BJ$4*BK$2))/$G30,_xll.qlInterpolationInterpolate(BI$3,$F30,TRUE))</f>
-        <v>-4.6160506664534823E-4</v>
+        <v>#NUM!</v>
       </c>
       <c r="BK30" s="108" t="str">
         <f>IF(AND(NOT(BI30),AND(BI$4:BI29)),MIN(EXP((BJ30-$J30)*$G30),1),"")</f>
@@ -10823,48 +10823,48 @@
       </c>
     </row>
     <row r="31" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A31" s="95" t="str">
-        <v>WEUREON21M</v>
-      </c>
-      <c r="B31" s="27">
+      <c r="A31" s="95" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B31" s="27" t="e">
         <f>_xll.qlRateHelperRate($A31,InterestRatesTrigger)</f>
-        <v>-3.3E-4</v>
-      </c>
-      <c r="C31" s="30">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C31" s="30" t="e">
         <f>_xll.qlRateHelperEarliestDate($A31)</f>
-        <v>41946</v>
-      </c>
-      <c r="D31" s="31">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D31" s="31" t="e">
         <f>_xll.qlRateHelperLatestDate($A31)</f>
-        <v>42585</v>
-      </c>
-      <c r="F31" s="122">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F31" s="122" t="e">
         <f t="shared" ref="F31:F94" si="3">IF(ISERROR(D31),NA(),(D31-D30)/2+D30)</f>
-        <v>42539</v>
-      </c>
-      <c r="G31" s="123">
+        <v>#N/A</v>
+      </c>
+      <c r="G31" s="123" t="e">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D30,D31)</f>
-        <v>0.25555555555555554</v>
+        <v>#NUM!</v>
       </c>
       <c r="I31" s="147" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J31" s="146">
-        <v>-1.5169087642459035E-4</v>
-      </c>
-      <c r="K31" s="112">
+        <v>0</v>
+      </c>
+      <c r="J31" s="146" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K31" s="112" t="e">
         <f t="shared" si="2"/>
-        <v>42585</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L31" s="101"/>
       <c r="M31" s="107" t="b">
         <f>IF(AND(NOT(I31),AND(I$4:I30)),TRUE,I31)</f>
-        <v>1</v>
-      </c>
-      <c r="N31" s="103">
+        <v>0</v>
+      </c>
+      <c r="N31" s="103" t="e">
         <f>IF(AND(NOT(ISBLANK(N$4)),AND(NOT(M31),AND(M$4:M30))),($J31*$G31-LN(1+N$4*O$2))/$G31,_xll.qlInterpolationInterpolate(M$3,$F31,TRUE))</f>
-        <v>-1.5169087642459035E-4</v>
+        <v>#NUM!</v>
       </c>
       <c r="O31" s="108" t="str">
         <f>IF(AND(NOT(M31),AND(M$4:M30)),MIN(EXP((N31-$J31)*$G31),1),"")</f>
@@ -10873,11 +10873,11 @@
       <c r="P31" s="110"/>
       <c r="Q31" s="107" t="b">
         <f>IF(AND(NOT(M31),AND(M$4:M30)),TRUE,M31)</f>
-        <v>1</v>
-      </c>
-      <c r="R31" s="103">
+        <v>0</v>
+      </c>
+      <c r="R31" s="103" t="e">
         <f>IF(AND(NOT(ISBLANK(R$4)),AND(NOT(Q31),AND(Q$4:Q30))),($J31*$G31-LN(1+R$4*S$2))/$G31,_xll.qlInterpolationInterpolate(Q$3,$F31,TRUE))</f>
-        <v>-1.5169087642459035E-4</v>
+        <v>#NUM!</v>
       </c>
       <c r="S31" s="108" t="str">
         <f>IF(AND(NOT(Q31),AND(Q$4:Q30)),MIN(EXP((R31-$J31)*$G31),1),"")</f>
@@ -10886,11 +10886,11 @@
       <c r="T31" s="110"/>
       <c r="U31" s="107" t="b">
         <f>IF(AND(NOT(Q31),AND(Q$4:Q30)),TRUE,Q31)</f>
-        <v>1</v>
-      </c>
-      <c r="V31" s="103">
+        <v>0</v>
+      </c>
+      <c r="V31" s="103" t="e">
         <f>IF(AND(NOT(ISBLANK(V$4)),AND(NOT(U31),AND(U$4:U30))),($J31*$G31-LN(1+V$4*W$2))/$G31,_xll.qlInterpolationInterpolate(U$3,$F31,TRUE))</f>
-        <v>-1.5169087642459035E-4</v>
+        <v>#NUM!</v>
       </c>
       <c r="W31" s="108" t="str">
         <f>IF(AND(NOT(U31),AND(U$4:U30)),MIN(EXP((V31-$J31)*$G31),1),"")</f>
@@ -10899,11 +10899,11 @@
       <c r="X31" s="110"/>
       <c r="Y31" s="107" t="b">
         <f>IF(AND(NOT(U31),AND(U$4:U30)),TRUE,U31)</f>
-        <v>1</v>
-      </c>
-      <c r="Z31" s="103">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="103" t="e">
         <f>IF(AND(NOT(ISBLANK(Z$4)),AND(NOT(Y31),AND(Y$4:Y30))),($J31*$G31-LN(1+Z$4*AA$2))/$G31,_xll.qlInterpolationInterpolate(Y$3,$F31,TRUE))</f>
-        <v>-1.5169087642459035E-4</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA31" s="108" t="str">
         <f>IF(AND(NOT(Y31),AND(Y$4:Y30)),MIN(EXP((Z31-$J31)*$G31),1),"")</f>
@@ -10912,11 +10912,11 @@
       <c r="AB31" s="110"/>
       <c r="AC31" s="107" t="b">
         <f>IF(AND(NOT(Y31),AND(Y$4:Y30)),TRUE,Y31)</f>
-        <v>1</v>
-      </c>
-      <c r="AD31" s="103">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="103" t="e">
         <f>IF(AND(NOT(ISBLANK(AD$4)),AND(NOT(AC31),AND(AC$4:AC30))),($J31*$G31-LN(1+AD$4*AE$2))/$G31,_xll.qlInterpolationInterpolate(AC$3,$F31,TRUE))</f>
-        <v>-1.5169087642459035E-4</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE31" s="108" t="str">
         <f>IF(AND(NOT(AC31),AND(AC$4:AC30)),MIN(EXP((AD31-$J31)*$G31),1),"")</f>
@@ -10925,11 +10925,11 @@
       <c r="AF31" s="110"/>
       <c r="AG31" s="107" t="b">
         <f>IF(AND(NOT(AC31),AND(AC$4:AC30)),TRUE,AC31)</f>
-        <v>1</v>
-      </c>
-      <c r="AH31" s="103">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="103" t="e">
         <f>IF(AND(NOT(ISBLANK(AH$4)),AND(NOT(AG31),AND(AG$4:AG30))),($J31*$G31-LN(1+AH$4*AI$2))/$G31,_xll.qlInterpolationInterpolate(AG$3,$F31,TRUE))</f>
-        <v>-1.5169087642459035E-4</v>
+        <v>#NUM!</v>
       </c>
       <c r="AI31" s="108" t="str">
         <f>IF(AND(NOT(AG31),AND(AG$4:AG30)),MIN(EXP((AH31-$J31)*$G31),1),"")</f>
@@ -10938,11 +10938,11 @@
       <c r="AJ31" s="110"/>
       <c r="AK31" s="107" t="b">
         <f>IF(AND(NOT(AG31),AND(AG$4:AG30)),TRUE,AG31)</f>
-        <v>1</v>
-      </c>
-      <c r="AL31" s="103">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="103" t="e">
         <f>IF(AND(NOT(ISBLANK(AL$4)),AND(NOT(AK31),AND(AK$4:AK30))),($J31*$G31-LN(1+AL$4*AM$2))/$G31,_xll.qlInterpolationInterpolate(AK$3,$F31,TRUE))</f>
-        <v>-1.5169087642459035E-4</v>
+        <v>#NUM!</v>
       </c>
       <c r="AM31" s="108" t="str">
         <f>IF(AND(NOT(AK31),AND(AK$4:AK30)),MIN(EXP((AL31-$J31)*$G31),1),"")</f>
@@ -10950,11 +10950,11 @@
       </c>
       <c r="AO31" s="107" t="b">
         <f>IF(AND(NOT(AK31),AND(AK$4:AK30)),TRUE,AK31)</f>
-        <v>1</v>
-      </c>
-      <c r="AP31" s="103">
+        <v>0</v>
+      </c>
+      <c r="AP31" s="103" t="e">
         <f>IF(AND(NOT(ISBLANK(AP$4)),AND(NOT(AO31),AND(AO$4:AO30))),($J31*$G31-LN(1+AP$4*AQ$2))/$G31,_xll.qlInterpolationInterpolate(AO$3,$F31,TRUE))</f>
-        <v>-1.5169087642459035E-4</v>
+        <v>#NUM!</v>
       </c>
       <c r="AQ31" s="108" t="str">
         <f>IF(AND(NOT(AO31),AND(AO$4:AO30)),MIN(EXP((AP31-$J31)*$G31),1),"")</f>
@@ -10962,11 +10962,11 @@
       </c>
       <c r="AS31" s="107" t="b">
         <f>IF(AND(NOT(AO31),AND(AO$4:AO30)),TRUE,AO31)</f>
-        <v>1</v>
-      </c>
-      <c r="AT31" s="103">
+        <v>0</v>
+      </c>
+      <c r="AT31" s="103" t="e">
         <f>IF(AND(NOT(ISBLANK(AT$4)),AND(NOT(AS31),AND(AS$4:AS30))),($J31*$G31-LN(1+AT$4*AU$2))/$G31,_xll.qlInterpolationInterpolate(AS$3,$F31,TRUE))</f>
-        <v>-1.5169087642459035E-4</v>
+        <v>#NUM!</v>
       </c>
       <c r="AU31" s="108" t="str">
         <f>IF(AND(NOT(AS31),AND(AS$4:AS30)),MIN(EXP((AT31-$J31)*$G31),1),"")</f>
@@ -10974,11 +10974,11 @@
       </c>
       <c r="AW31" s="107" t="b">
         <f>IF(AND(NOT(AS31),AND(AS$4:AS30)),TRUE,AS31)</f>
-        <v>1</v>
-      </c>
-      <c r="AX31" s="103">
+        <v>0</v>
+      </c>
+      <c r="AX31" s="103" t="e">
         <f>IF(AND(NOT(ISBLANK(AX$4)),AND(NOT(AW31),AND(AW$4:AW30))),($J31*$G31-LN(1+AX$4*AY$2))/$G31,_xll.qlInterpolationInterpolate(AW$3,$F31,TRUE))</f>
-        <v>-1.5169087642459035E-4</v>
+        <v>#NUM!</v>
       </c>
       <c r="AY31" s="108" t="str">
         <f>IF(AND(NOT(AW31),AND(AW$4:AW30)),MIN(EXP((AX31-$J31)*$G31),1),"")</f>
@@ -10986,11 +10986,11 @@
       </c>
       <c r="BA31" s="107" t="b">
         <f>IF(AND(NOT(AW31),AND(AW$4:AW30)),TRUE,AW31)</f>
-        <v>1</v>
-      </c>
-      <c r="BB31" s="103">
+        <v>0</v>
+      </c>
+      <c r="BB31" s="103" t="e">
         <f>IF(AND(NOT(ISBLANK(BB$4)),AND(NOT(BA31),AND(BA$4:BA30))),($J31*$G31-LN(1+BB$4*BC$2))/$G31,_xll.qlInterpolationInterpolate(BA$3,$F31,TRUE))</f>
-        <v>-1.5169087642459035E-4</v>
+        <v>#NUM!</v>
       </c>
       <c r="BC31" s="108" t="str">
         <f>IF(AND(NOT(BA31),AND(BA$4:BA30)),MIN(EXP((BB31-$J31)*$G31),1),"")</f>
@@ -10998,23 +10998,23 @@
       </c>
       <c r="BE31" s="107" t="b">
         <f>IF(AND(NOT(BA31),AND(BA$4:BA30)),TRUE,BA31)</f>
-        <v>1</v>
-      </c>
-      <c r="BF31" s="103">
+        <v>0</v>
+      </c>
+      <c r="BF31" s="103" t="e">
         <f>IF(AND(NOT(ISBLANK(BF$4)),AND(NOT(BE31),AND(BE$4:BE30))),($J31*$G31-LN(1+BF$4*BG$2))/$G31,_xll.qlInterpolationInterpolate(BE$3,$F31,TRUE))</f>
-        <v>-1.5169087642459035E-4</v>
+        <v>#NUM!</v>
       </c>
       <c r="BG31" s="108" t="str">
         <f>IF(AND(NOT(BE31),AND(BE$4:BE30)),MIN(EXP((BF31-$J31)*$G31),1),"")</f>
         <v/>
       </c>
       <c r="BI31" s="107" t="b">
-        <f>IF(AND(NOT(BE31),AND(BE$4:BE30)),TRUE,BE31)</f>
-        <v>1</v>
-      </c>
-      <c r="BJ31" s="103">
+        <f>IF(ISERROR(K31),FALSE,IF(YEAR(K31)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
+        <v>0</v>
+      </c>
+      <c r="BJ31" s="103" t="e">
         <f>IF(AND(NOT(ISBLANK(BJ$4)),AND(NOT(BI31),AND(BI$4:BI30))),($J31*$G31-LN(1+BJ$4*BK$2))/$G31,_xll.qlInterpolationInterpolate(BI$3,$F31,TRUE))</f>
-        <v>-1.5169087642459035E-4</v>
+        <v>#NUM!</v>
       </c>
       <c r="BK31" s="108" t="str">
         <f>IF(AND(NOT(BI31),AND(BI$4:BI30)),MIN(EXP((BJ31-$J31)*$G31),1),"")</f>
@@ -11022,48 +11022,48 @@
       </c>
     </row>
     <row r="32" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A32" s="95" t="str">
-        <v>WEUREON2Y</v>
-      </c>
-      <c r="B32" s="27">
+      <c r="A32" s="95" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B32" s="27" t="e">
         <f>_xll.qlRateHelperRate($A32,InterestRatesTrigger)</f>
-        <v>-2.8000000000000003E-4</v>
-      </c>
-      <c r="C32" s="30">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C32" s="30" t="e">
         <f>_xll.qlRateHelperEarliestDate($A32)</f>
-        <v>41946</v>
-      </c>
-      <c r="D32" s="31">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D32" s="31" t="e">
         <f>_xll.qlRateHelperLatestDate($A32)</f>
-        <v>42677</v>
-      </c>
-      <c r="F32" s="122">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F32" s="122" t="e">
         <f t="shared" si="3"/>
-        <v>42631</v>
-      </c>
-      <c r="G32" s="123">
+        <v>#N/A</v>
+      </c>
+      <c r="G32" s="123" t="e">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D31,D32)</f>
-        <v>0.25555555555555554</v>
+        <v>#NUM!</v>
       </c>
       <c r="I32" s="147" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J32" s="146">
-        <v>6.7252507178637385E-5</v>
-      </c>
-      <c r="K32" s="112">
+        <v>0</v>
+      </c>
+      <c r="J32" s="146" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K32" s="112" t="e">
         <f t="shared" si="2"/>
-        <v>42677</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L32" s="101"/>
       <c r="M32" s="107" t="b">
         <f>IF(AND(NOT(I32),AND(I$4:I31)),TRUE,I32)</f>
-        <v>1</v>
-      </c>
-      <c r="N32" s="103">
+        <v>0</v>
+      </c>
+      <c r="N32" s="103" t="e">
         <f>IF(AND(NOT(ISBLANK(N$4)),AND(NOT(M32),AND(M$4:M31))),($J32*$G32-LN(1+N$4*O$2))/$G32,_xll.qlInterpolationInterpolate(M$3,$F32,TRUE))</f>
-        <v>6.7252507178637371E-5</v>
+        <v>#NUM!</v>
       </c>
       <c r="O32" s="108" t="str">
         <f>IF(AND(NOT(M32),AND(M$4:M31)),MIN(EXP((N32-$J32)*$G32),1),"")</f>
@@ -11072,11 +11072,11 @@
       <c r="P32" s="110"/>
       <c r="Q32" s="107" t="b">
         <f>IF(AND(NOT(M32),AND(M$4:M31)),TRUE,M32)</f>
-        <v>1</v>
-      </c>
-      <c r="R32" s="103">
+        <v>0</v>
+      </c>
+      <c r="R32" s="103" t="e">
         <f>IF(AND(NOT(ISBLANK(R$4)),AND(NOT(Q32),AND(Q$4:Q31))),($J32*$G32-LN(1+R$4*S$2))/$G32,_xll.qlInterpolationInterpolate(Q$3,$F32,TRUE))</f>
-        <v>6.7252507178637371E-5</v>
+        <v>#NUM!</v>
       </c>
       <c r="S32" s="108" t="str">
         <f>IF(AND(NOT(Q32),AND(Q$4:Q31)),MIN(EXP((R32-$J32)*$G32),1),"")</f>
@@ -11085,11 +11085,11 @@
       <c r="T32" s="110"/>
       <c r="U32" s="107" t="b">
         <f>IF(AND(NOT(Q32),AND(Q$4:Q31)),TRUE,Q32)</f>
-        <v>1</v>
-      </c>
-      <c r="V32" s="103">
+        <v>0</v>
+      </c>
+      <c r="V32" s="103" t="e">
         <f>IF(AND(NOT(ISBLANK(V$4)),AND(NOT(U32),AND(U$4:U31))),($J32*$G32-LN(1+V$4*W$2))/$G32,_xll.qlInterpolationInterpolate(U$3,$F32,TRUE))</f>
-        <v>6.7252507178637371E-5</v>
+        <v>#NUM!</v>
       </c>
       <c r="W32" s="108" t="str">
         <f>IF(AND(NOT(U32),AND(U$4:U31)),MIN(EXP((V32-$J32)*$G32),1),"")</f>
@@ -11098,11 +11098,11 @@
       <c r="X32" s="110"/>
       <c r="Y32" s="107" t="b">
         <f>IF(AND(NOT(U32),AND(U$4:U31)),TRUE,U32)</f>
-        <v>1</v>
-      </c>
-      <c r="Z32" s="103">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="103" t="e">
         <f>IF(AND(NOT(ISBLANK(Z$4)),AND(NOT(Y32),AND(Y$4:Y31))),($J32*$G32-LN(1+Z$4*AA$2))/$G32,_xll.qlInterpolationInterpolate(Y$3,$F32,TRUE))</f>
-        <v>6.7252507178637371E-5</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA32" s="108" t="str">
         <f>IF(AND(NOT(Y32),AND(Y$4:Y31)),MIN(EXP((Z32-$J32)*$G32),1),"")</f>
@@ -11111,11 +11111,11 @@
       <c r="AB32" s="110"/>
       <c r="AC32" s="107" t="b">
         <f>IF(AND(NOT(Y32),AND(Y$4:Y31)),TRUE,Y32)</f>
-        <v>1</v>
-      </c>
-      <c r="AD32" s="103">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="103" t="e">
         <f>IF(AND(NOT(ISBLANK(AD$4)),AND(NOT(AC32),AND(AC$4:AC31))),($J32*$G32-LN(1+AD$4*AE$2))/$G32,_xll.qlInterpolationInterpolate(AC$3,$F32,TRUE))</f>
-        <v>6.7252507178637371E-5</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE32" s="108" t="str">
         <f>IF(AND(NOT(AC32),AND(AC$4:AC31)),MIN(EXP((AD32-$J32)*$G32),1),"")</f>
@@ -11124,11 +11124,11 @@
       <c r="AF32" s="110"/>
       <c r="AG32" s="107" t="b">
         <f>IF(AND(NOT(AC32),AND(AC$4:AC31)),TRUE,AC32)</f>
-        <v>1</v>
-      </c>
-      <c r="AH32" s="103">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="103" t="e">
         <f>IF(AND(NOT(ISBLANK(AH$4)),AND(NOT(AG32),AND(AG$4:AG31))),($J32*$G32-LN(1+AH$4*AI$2))/$G32,_xll.qlInterpolationInterpolate(AG$3,$F32,TRUE))</f>
-        <v>6.7252507178637371E-5</v>
+        <v>#NUM!</v>
       </c>
       <c r="AI32" s="108" t="str">
         <f>IF(AND(NOT(AG32),AND(AG$4:AG31)),MIN(EXP((AH32-$J32)*$G32),1),"")</f>
@@ -11137,11 +11137,11 @@
       <c r="AJ32" s="110"/>
       <c r="AK32" s="107" t="b">
         <f>IF(AND(NOT(AG32),AND(AG$4:AG31)),TRUE,AG32)</f>
-        <v>1</v>
-      </c>
-      <c r="AL32" s="103">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="103" t="e">
         <f>IF(AND(NOT(ISBLANK(AL$4)),AND(NOT(AK32),AND(AK$4:AK31))),($J32*$G32-LN(1+AL$4*AM$2))/$G32,_xll.qlInterpolationInterpolate(AK$3,$F32,TRUE))</f>
-        <v>6.7252507178637371E-5</v>
+        <v>#NUM!</v>
       </c>
       <c r="AM32" s="108" t="str">
         <f>IF(AND(NOT(AK32),AND(AK$4:AK31)),MIN(EXP((AL32-$J32)*$G32),1),"")</f>
@@ -11149,11 +11149,11 @@
       </c>
       <c r="AO32" s="107" t="b">
         <f>IF(AND(NOT(AK32),AND(AK$4:AK31)),TRUE,AK32)</f>
-        <v>1</v>
-      </c>
-      <c r="AP32" s="103">
+        <v>0</v>
+      </c>
+      <c r="AP32" s="103" t="e">
         <f>IF(AND(NOT(ISBLANK(AP$4)),AND(NOT(AO32),AND(AO$4:AO31))),($J32*$G32-LN(1+AP$4*AQ$2))/$G32,_xll.qlInterpolationInterpolate(AO$3,$F32,TRUE))</f>
-        <v>6.7252507178637371E-5</v>
+        <v>#NUM!</v>
       </c>
       <c r="AQ32" s="108" t="str">
         <f>IF(AND(NOT(AO32),AND(AO$4:AO31)),MIN(EXP((AP32-$J32)*$G32),1),"")</f>
@@ -11161,11 +11161,11 @@
       </c>
       <c r="AS32" s="107" t="b">
         <f>IF(AND(NOT(AO32),AND(AO$4:AO31)),TRUE,AO32)</f>
-        <v>1</v>
-      </c>
-      <c r="AT32" s="103">
+        <v>0</v>
+      </c>
+      <c r="AT32" s="103" t="e">
         <f>IF(AND(NOT(ISBLANK(AT$4)),AND(NOT(AS32),AND(AS$4:AS31))),($J32*$G32-LN(1+AT$4*AU$2))/$G32,_xll.qlInterpolationInterpolate(AS$3,$F32,TRUE))</f>
-        <v>6.7252507178637371E-5</v>
+        <v>#NUM!</v>
       </c>
       <c r="AU32" s="108" t="str">
         <f>IF(AND(NOT(AS32),AND(AS$4:AS31)),MIN(EXP((AT32-$J32)*$G32),1),"")</f>
@@ -11173,11 +11173,11 @@
       </c>
       <c r="AW32" s="107" t="b">
         <f>IF(AND(NOT(AS32),AND(AS$4:AS31)),TRUE,AS32)</f>
-        <v>1</v>
-      </c>
-      <c r="AX32" s="103">
+        <v>0</v>
+      </c>
+      <c r="AX32" s="103" t="e">
         <f>IF(AND(NOT(ISBLANK(AX$4)),AND(NOT(AW32),AND(AW$4:AW31))),($J32*$G32-LN(1+AX$4*AY$2))/$G32,_xll.qlInterpolationInterpolate(AW$3,$F32,TRUE))</f>
-        <v>6.7252507178637371E-5</v>
+        <v>#NUM!</v>
       </c>
       <c r="AY32" s="108" t="str">
         <f>IF(AND(NOT(AW32),AND(AW$4:AW31)),MIN(EXP((AX32-$J32)*$G32),1),"")</f>
@@ -11185,11 +11185,11 @@
       </c>
       <c r="BA32" s="107" t="b">
         <f>IF(AND(NOT(AW32),AND(AW$4:AW31)),TRUE,AW32)</f>
-        <v>1</v>
-      </c>
-      <c r="BB32" s="103">
+        <v>0</v>
+      </c>
+      <c r="BB32" s="103" t="e">
         <f>IF(AND(NOT(ISBLANK(BB$4)),AND(NOT(BA32),AND(BA$4:BA31))),($J32*$G32-LN(1+BB$4*BC$2))/$G32,_xll.qlInterpolationInterpolate(BA$3,$F32,TRUE))</f>
-        <v>6.7252507178637371E-5</v>
+        <v>#NUM!</v>
       </c>
       <c r="BC32" s="108" t="str">
         <f>IF(AND(NOT(BA32),AND(BA$4:BA31)),MIN(EXP((BB32-$J32)*$G32),1),"")</f>
@@ -11197,23 +11197,23 @@
       </c>
       <c r="BE32" s="107" t="b">
         <f>IF(AND(NOT(BA32),AND(BA$4:BA31)),TRUE,BA32)</f>
-        <v>1</v>
-      </c>
-      <c r="BF32" s="103">
+        <v>0</v>
+      </c>
+      <c r="BF32" s="103" t="e">
         <f>IF(AND(NOT(ISBLANK(BF$4)),AND(NOT(BE32),AND(BE$4:BE31))),($J32*$G32-LN(1+BF$4*BG$2))/$G32,_xll.qlInterpolationInterpolate(BE$3,$F32,TRUE))</f>
-        <v>6.7252507178637371E-5</v>
+        <v>#NUM!</v>
       </c>
       <c r="BG32" s="108" t="str">
         <f>IF(AND(NOT(BE32),AND(BE$4:BE31)),MIN(EXP((BF32-$J32)*$G32),1),"")</f>
         <v/>
       </c>
       <c r="BI32" s="107" t="b">
-        <f>IF(AND(NOT(BE32),AND(BE$4:BE31)),TRUE,BE32)</f>
-        <v>1</v>
-      </c>
-      <c r="BJ32" s="103">
+        <f>IF(ISERROR(K32),FALSE,IF(YEAR(K32)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
+        <v>0</v>
+      </c>
+      <c r="BJ32" s="103" t="e">
         <f>IF(AND(NOT(ISBLANK(BJ$4)),AND(NOT(BI32),AND(BI$4:BI31))),($J32*$G32-LN(1+BJ$4*BK$2))/$G32,_xll.qlInterpolationInterpolate(BI$3,$F32,TRUE))</f>
-        <v>6.7252507178637371E-5</v>
+        <v>#NUM!</v>
       </c>
       <c r="BK32" s="108" t="str">
         <f>IF(AND(NOT(BI32),AND(BI$4:BI31)),MIN(EXP((BJ32-$J32)*$G32),1),"")</f>
@@ -11407,7 +11407,7 @@
         <v/>
       </c>
       <c r="BI33" s="107" t="b">
-        <f>IF(AND(NOT(BE33),AND(BE$4:BE32)),TRUE,BE33)</f>
+        <f>IF(ISERROR(K33),FALSE,IF(YEAR(K33)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ33" s="103" t="e">
@@ -11606,7 +11606,7 @@
         <v/>
       </c>
       <c r="BI34" s="107" t="b">
-        <f>IF(AND(NOT(BE34),AND(BE$4:BE33)),TRUE,BE34)</f>
+        <f>IF(ISERROR(K34),FALSE,IF(YEAR(K34)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ34" s="103" t="e">
@@ -11805,7 +11805,7 @@
         <v/>
       </c>
       <c r="BI35" s="107" t="b">
-        <f>IF(AND(NOT(BE35),AND(BE$4:BE34)),TRUE,BE35)</f>
+        <f>IF(ISERROR(K35),FALSE,IF(YEAR(K35)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ35" s="103" t="e">
@@ -12004,7 +12004,7 @@
         <v/>
       </c>
       <c r="BI36" s="107" t="b">
-        <f>IF(AND(NOT(BE36),AND(BE$4:BE35)),TRUE,BE36)</f>
+        <f>IF(ISERROR(K36),FALSE,IF(YEAR(K36)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ36" s="103" t="e">
@@ -12203,7 +12203,7 @@
         <v/>
       </c>
       <c r="BI37" s="107" t="b">
-        <f>IF(AND(NOT(BE37),AND(BE$4:BE36)),TRUE,BE37)</f>
+        <f>IF(ISERROR(K37),FALSE,IF(YEAR(K37)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ37" s="103" t="e">
@@ -12402,7 +12402,7 @@
         <v/>
       </c>
       <c r="BI38" s="107" t="b">
-        <f>IF(AND(NOT(BE38),AND(BE$4:BE37)),TRUE,BE38)</f>
+        <f>IF(ISERROR(K38),FALSE,IF(YEAR(K38)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ38" s="103" t="e">
@@ -12601,7 +12601,7 @@
         <v/>
       </c>
       <c r="BI39" s="107" t="b">
-        <f>IF(AND(NOT(BE39),AND(BE$4:BE38)),TRUE,BE39)</f>
+        <f>IF(ISERROR(K39),FALSE,IF(YEAR(K39)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ39" s="103" t="e">
@@ -12800,7 +12800,7 @@
         <v/>
       </c>
       <c r="BI40" s="107" t="b">
-        <f>IF(AND(NOT(BE40),AND(BE$4:BE39)),TRUE,BE40)</f>
+        <f>IF(ISERROR(K40),FALSE,IF(YEAR(K40)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ40" s="103" t="e">
@@ -12999,7 +12999,7 @@
         <v/>
       </c>
       <c r="BI41" s="107" t="b">
-        <f>IF(AND(NOT(BE41),AND(BE$4:BE40)),TRUE,BE41)</f>
+        <f>IF(ISERROR(K41),FALSE,IF(YEAR(K41)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ41" s="103" t="e">
@@ -13198,7 +13198,7 @@
         <v/>
       </c>
       <c r="BI42" s="107" t="b">
-        <f>IF(AND(NOT(BE42),AND(BE$4:BE41)),TRUE,BE42)</f>
+        <f>IF(ISERROR(K42),FALSE,IF(YEAR(K42)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ42" s="103" t="e">
@@ -13397,7 +13397,7 @@
         <v/>
       </c>
       <c r="BI43" s="107" t="b">
-        <f>IF(AND(NOT(BE43),AND(BE$4:BE42)),TRUE,BE43)</f>
+        <f>IF(ISERROR(K43),FALSE,IF(YEAR(K43)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ43" s="103" t="e">
@@ -13596,7 +13596,7 @@
         <v/>
       </c>
       <c r="BI44" s="107" t="b">
-        <f>IF(AND(NOT(BE44),AND(BE$4:BE43)),TRUE,BE44)</f>
+        <f>IF(ISERROR(K44),FALSE,IF(YEAR(K44)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ44" s="103" t="e">
@@ -13795,7 +13795,7 @@
         <v/>
       </c>
       <c r="BI45" s="107" t="b">
-        <f>IF(AND(NOT(BE45),AND(BE$4:BE44)),TRUE,BE45)</f>
+        <f>IF(ISERROR(K45),FALSE,IF(YEAR(K45)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ45" s="103" t="e">
@@ -13994,7 +13994,7 @@
         <v/>
       </c>
       <c r="BI46" s="107" t="b">
-        <f>IF(AND(NOT(BE46),AND(BE$4:BE45)),TRUE,BE46)</f>
+        <f>IF(ISERROR(K46),FALSE,IF(YEAR(K46)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ46" s="103" t="e">
@@ -14193,7 +14193,7 @@
         <v/>
       </c>
       <c r="BI47" s="107" t="b">
-        <f>IF(AND(NOT(BE47),AND(BE$4:BE46)),TRUE,BE47)</f>
+        <f>IF(ISERROR(K47),FALSE,IF(YEAR(K47)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ47" s="103" t="e">
@@ -14392,7 +14392,7 @@
         <v/>
       </c>
       <c r="BI48" s="107" t="b">
-        <f>IF(AND(NOT(BE48),AND(BE$4:BE47)),TRUE,BE48)</f>
+        <f>IF(ISERROR(K48),FALSE,IF(YEAR(K48)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ48" s="103" t="e">
@@ -14591,7 +14591,7 @@
         <v/>
       </c>
       <c r="BI49" s="107" t="b">
-        <f>IF(AND(NOT(BE49),AND(BE$4:BE48)),TRUE,BE49)</f>
+        <f>IF(ISERROR(K49),FALSE,IF(YEAR(K49)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ49" s="103" t="e">
@@ -14790,7 +14790,7 @@
         <v/>
       </c>
       <c r="BI50" s="107" t="b">
-        <f>IF(AND(NOT(BE50),AND(BE$4:BE49)),TRUE,BE50)</f>
+        <f>IF(ISERROR(K50),FALSE,IF(YEAR(K50)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ50" s="103" t="e">
@@ -14989,7 +14989,7 @@
         <v/>
       </c>
       <c r="BI51" s="107" t="b">
-        <f>IF(AND(NOT(BE51),AND(BE$4:BE50)),TRUE,BE51)</f>
+        <f>IF(ISERROR(K51),FALSE,IF(YEAR(K51)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ51" s="103" t="e">
@@ -15188,7 +15188,7 @@
         <v/>
       </c>
       <c r="BI52" s="107" t="b">
-        <f>IF(AND(NOT(BE52),AND(BE$4:BE51)),TRUE,BE52)</f>
+        <f>IF(ISERROR(K52),FALSE,IF(YEAR(K52)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ52" s="103" t="e">
@@ -15387,7 +15387,7 @@
         <v/>
       </c>
       <c r="BI53" s="107" t="b">
-        <f>IF(AND(NOT(BE53),AND(BE$4:BE52)),TRUE,BE53)</f>
+        <f>IF(ISERROR(K53),FALSE,IF(YEAR(K53)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ53" s="103" t="e">
@@ -15586,7 +15586,7 @@
         <v/>
       </c>
       <c r="BI54" s="107" t="b">
-        <f>IF(AND(NOT(BE54),AND(BE$4:BE53)),TRUE,BE54)</f>
+        <f>IF(ISERROR(K54),FALSE,IF(YEAR(K54)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ54" s="103" t="e">
@@ -15785,7 +15785,7 @@
         <v/>
       </c>
       <c r="BI55" s="107" t="b">
-        <f>IF(AND(NOT(BE55),AND(BE$4:BE54)),TRUE,BE55)</f>
+        <f>IF(ISERROR(K55),FALSE,IF(YEAR(K55)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ55" s="103" t="e">
@@ -15984,7 +15984,7 @@
         <v/>
       </c>
       <c r="BI56" s="107" t="b">
-        <f>IF(AND(NOT(BE56),AND(BE$4:BE55)),TRUE,BE56)</f>
+        <f>IF(ISERROR(K56),FALSE,IF(YEAR(K56)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ56" s="103" t="e">
@@ -16183,7 +16183,7 @@
         <v/>
       </c>
       <c r="BI57" s="107" t="b">
-        <f>IF(AND(NOT(BE57),AND(BE$4:BE56)),TRUE,BE57)</f>
+        <f>IF(ISERROR(K57),FALSE,IF(YEAR(K57)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ57" s="103" t="e">
@@ -16382,7 +16382,7 @@
         <v/>
       </c>
       <c r="BI58" s="107" t="b">
-        <f>IF(AND(NOT(BE58),AND(BE$4:BE57)),TRUE,BE58)</f>
+        <f>IF(ISERROR(K58),FALSE,IF(YEAR(K58)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ58" s="103" t="e">
@@ -16581,7 +16581,7 @@
         <v/>
       </c>
       <c r="BI59" s="107" t="b">
-        <f>IF(AND(NOT(BE59),AND(BE$4:BE58)),TRUE,BE59)</f>
+        <f>IF(ISERROR(K59),FALSE,IF(YEAR(K59)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ59" s="103" t="e">
@@ -16780,7 +16780,7 @@
         <v/>
       </c>
       <c r="BI60" s="107" t="b">
-        <f>IF(AND(NOT(BE60),AND(BE$4:BE59)),TRUE,BE60)</f>
+        <f>IF(ISERROR(K60),FALSE,IF(YEAR(K60)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ60" s="103" t="e">
@@ -16979,7 +16979,7 @@
         <v/>
       </c>
       <c r="BI61" s="107" t="b">
-        <f>IF(AND(NOT(BE61),AND(BE$4:BE60)),TRUE,BE61)</f>
+        <f>IF(ISERROR(K61),FALSE,IF(YEAR(K61)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ61" s="103" t="e">
@@ -17178,7 +17178,7 @@
         <v/>
       </c>
       <c r="BI62" s="107" t="b">
-        <f>IF(AND(NOT(BE62),AND(BE$4:BE61)),TRUE,BE62)</f>
+        <f>IF(ISERROR(K62),FALSE,IF(YEAR(K62)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ62" s="103" t="e">
@@ -17377,7 +17377,7 @@
         <v/>
       </c>
       <c r="BI63" s="107" t="b">
-        <f>IF(AND(NOT(BE63),AND(BE$4:BE62)),TRUE,BE63)</f>
+        <f>IF(ISERROR(K63),FALSE,IF(YEAR(K63)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ63" s="103" t="e">
@@ -17576,7 +17576,7 @@
         <v/>
       </c>
       <c r="BI64" s="107" t="b">
-        <f>IF(AND(NOT(BE64),AND(BE$4:BE63)),TRUE,BE64)</f>
+        <f>IF(ISERROR(K64),FALSE,IF(YEAR(K64)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ64" s="103" t="e">
@@ -17775,7 +17775,7 @@
         <v/>
       </c>
       <c r="BI65" s="107" t="b">
-        <f>IF(AND(NOT(BE65),AND(BE$4:BE64)),TRUE,BE65)</f>
+        <f>IF(ISERROR(K65),FALSE,IF(YEAR(K65)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ65" s="103" t="e">
@@ -17974,7 +17974,7 @@
         <v/>
       </c>
       <c r="BI66" s="107" t="b">
-        <f>IF(AND(NOT(BE66),AND(BE$4:BE65)),TRUE,BE66)</f>
+        <f>IF(ISERROR(K66),FALSE,IF(YEAR(K66)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ66" s="103" t="e">
@@ -18173,7 +18173,7 @@
         <v/>
       </c>
       <c r="BI67" s="107" t="b">
-        <f>IF(AND(NOT(BE67),AND(BE$4:BE66)),TRUE,BE67)</f>
+        <f>IF(ISERROR(K67),FALSE,IF(YEAR(K67)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ67" s="103" t="e">
@@ -18372,7 +18372,7 @@
         <v/>
       </c>
       <c r="BI68" s="107" t="b">
-        <f>IF(AND(NOT(BE68),AND(BE$4:BE67)),TRUE,BE68)</f>
+        <f>IF(ISERROR(K68),FALSE,IF(YEAR(K68)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ68" s="103" t="e">
@@ -18571,7 +18571,7 @@
         <v/>
       </c>
       <c r="BI69" s="107" t="b">
-        <f>IF(AND(NOT(BE69),AND(BE$4:BE68)),TRUE,BE69)</f>
+        <f>IF(ISERROR(K69),FALSE,IF(YEAR(K69)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ69" s="103" t="e">
@@ -18770,7 +18770,7 @@
         <v/>
       </c>
       <c r="BI70" s="107" t="b">
-        <f>IF(AND(NOT(BE70),AND(BE$4:BE69)),TRUE,BE70)</f>
+        <f>IF(ISERROR(K70),FALSE,IF(YEAR(K70)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ70" s="103" t="e">
@@ -18969,7 +18969,7 @@
         <v/>
       </c>
       <c r="BI71" s="107" t="b">
-        <f>IF(AND(NOT(BE71),AND(BE$4:BE70)),TRUE,BE71)</f>
+        <f>IF(ISERROR(K71),FALSE,IF(YEAR(K71)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ71" s="103" t="e">
@@ -19168,7 +19168,7 @@
         <v/>
       </c>
       <c r="BI72" s="107" t="b">
-        <f>IF(AND(NOT(BE72),AND(BE$4:BE71)),TRUE,BE72)</f>
+        <f>IF(ISERROR(K72),FALSE,IF(YEAR(K72)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ72" s="103" t="e">
@@ -19367,7 +19367,7 @@
         <v/>
       </c>
       <c r="BI73" s="107" t="b">
-        <f>IF(AND(NOT(BE73),AND(BE$4:BE72)),TRUE,BE73)</f>
+        <f>IF(ISERROR(K73),FALSE,IF(YEAR(K73)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ73" s="103" t="e">
@@ -19566,7 +19566,7 @@
         <v/>
       </c>
       <c r="BI74" s="107" t="b">
-        <f>IF(AND(NOT(BE74),AND(BE$4:BE73)),TRUE,BE74)</f>
+        <f>IF(ISERROR(K74),FALSE,IF(YEAR(K74)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ74" s="103" t="e">
@@ -19765,7 +19765,7 @@
         <v/>
       </c>
       <c r="BI75" s="107" t="b">
-        <f>IF(AND(NOT(BE75),AND(BE$4:BE74)),TRUE,BE75)</f>
+        <f>IF(ISERROR(K75),FALSE,IF(YEAR(K75)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ75" s="103" t="e">
@@ -19964,7 +19964,7 @@
         <v/>
       </c>
       <c r="BI76" s="107" t="b">
-        <f>IF(AND(NOT(BE76),AND(BE$4:BE75)),TRUE,BE76)</f>
+        <f>IF(ISERROR(K76),FALSE,IF(YEAR(K76)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ76" s="103" t="e">
@@ -20163,7 +20163,7 @@
         <v/>
       </c>
       <c r="BI77" s="107" t="b">
-        <f>IF(AND(NOT(BE77),AND(BE$4:BE76)),TRUE,BE77)</f>
+        <f>IF(ISERROR(K77),FALSE,IF(YEAR(K77)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ77" s="103" t="e">
@@ -20362,7 +20362,7 @@
         <v/>
       </c>
       <c r="BI78" s="107" t="b">
-        <f>IF(AND(NOT(BE78),AND(BE$4:BE77)),TRUE,BE78)</f>
+        <f>IF(ISERROR(K78),FALSE,IF(YEAR(K78)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ78" s="103" t="e">
@@ -20561,7 +20561,7 @@
         <v/>
       </c>
       <c r="BI79" s="107" t="b">
-        <f>IF(AND(NOT(BE79),AND(BE$4:BE78)),TRUE,BE79)</f>
+        <f>IF(ISERROR(K79),FALSE,IF(YEAR(K79)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ79" s="103" t="e">
@@ -20760,7 +20760,7 @@
         <v/>
       </c>
       <c r="BI80" s="107" t="b">
-        <f>IF(AND(NOT(BE80),AND(BE$4:BE79)),TRUE,BE80)</f>
+        <f>IF(ISERROR(K80),FALSE,IF(YEAR(K80)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ80" s="103" t="e">
@@ -20959,7 +20959,7 @@
         <v/>
       </c>
       <c r="BI81" s="107" t="b">
-        <f>IF(AND(NOT(BE81),AND(BE$4:BE80)),TRUE,BE81)</f>
+        <f>IF(ISERROR(K81),FALSE,IF(YEAR(K81)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ81" s="103" t="e">
@@ -21158,7 +21158,7 @@
         <v/>
       </c>
       <c r="BI82" s="107" t="b">
-        <f>IF(AND(NOT(BE82),AND(BE$4:BE81)),TRUE,BE82)</f>
+        <f>IF(ISERROR(K82),FALSE,IF(YEAR(K82)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ82" s="103" t="e">
@@ -21357,7 +21357,7 @@
         <v/>
       </c>
       <c r="BI83" s="107" t="b">
-        <f>IF(AND(NOT(BE83),AND(BE$4:BE82)),TRUE,BE83)</f>
+        <f>IF(ISERROR(K83),FALSE,IF(YEAR(K83)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ83" s="103" t="e">
@@ -21556,7 +21556,7 @@
         <v/>
       </c>
       <c r="BI84" s="107" t="b">
-        <f>IF(AND(NOT(BE84),AND(BE$4:BE83)),TRUE,BE84)</f>
+        <f>IF(ISERROR(K84),FALSE,IF(YEAR(K84)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ84" s="103" t="e">
@@ -21755,7 +21755,7 @@
         <v/>
       </c>
       <c r="BI85" s="107" t="b">
-        <f>IF(AND(NOT(BE85),AND(BE$4:BE84)),TRUE,BE85)</f>
+        <f>IF(ISERROR(K85),FALSE,IF(YEAR(K85)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ85" s="103" t="e">
@@ -21954,7 +21954,7 @@
         <v/>
       </c>
       <c r="BI86" s="107" t="b">
-        <f>IF(AND(NOT(BE86),AND(BE$4:BE85)),TRUE,BE86)</f>
+        <f>IF(ISERROR(K86),FALSE,IF(YEAR(K86)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ86" s="103" t="e">
@@ -22153,7 +22153,7 @@
         <v/>
       </c>
       <c r="BI87" s="107" t="b">
-        <f>IF(AND(NOT(BE87),AND(BE$4:BE86)),TRUE,BE87)</f>
+        <f>IF(ISERROR(K87),FALSE,IF(YEAR(K87)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ87" s="103" t="e">
@@ -22352,7 +22352,7 @@
         <v/>
       </c>
       <c r="BI88" s="107" t="b">
-        <f>IF(AND(NOT(BE88),AND(BE$4:BE87)),TRUE,BE88)</f>
+        <f>IF(ISERROR(K88),FALSE,IF(YEAR(K88)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ88" s="103" t="e">
@@ -22551,7 +22551,7 @@
         <v/>
       </c>
       <c r="BI89" s="107" t="b">
-        <f>IF(AND(NOT(BE89),AND(BE$4:BE88)),TRUE,BE89)</f>
+        <f>IF(ISERROR(K89),FALSE,IF(YEAR(K89)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ89" s="103" t="e">
@@ -22750,7 +22750,7 @@
         <v/>
       </c>
       <c r="BI90" s="107" t="b">
-        <f>IF(AND(NOT(BE90),AND(BE$4:BE89)),TRUE,BE90)</f>
+        <f>IF(ISERROR(K90),FALSE,IF(YEAR(K90)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ90" s="103" t="e">
@@ -22949,7 +22949,7 @@
         <v/>
       </c>
       <c r="BI91" s="107" t="b">
-        <f>IF(AND(NOT(BE91),AND(BE$4:BE90)),TRUE,BE91)</f>
+        <f>IF(ISERROR(K91),FALSE,IF(YEAR(K91)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ91" s="103" t="e">
@@ -23148,7 +23148,7 @@
         <v/>
       </c>
       <c r="BI92" s="107" t="b">
-        <f>IF(AND(NOT(BE92),AND(BE$4:BE91)),TRUE,BE92)</f>
+        <f>IF(ISERROR(K92),FALSE,IF(YEAR(K92)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ92" s="103" t="e">
@@ -23347,7 +23347,7 @@
         <v/>
       </c>
       <c r="BI93" s="107" t="b">
-        <f>IF(AND(NOT(BE93),AND(BE$4:BE92)),TRUE,BE93)</f>
+        <f>IF(ISERROR(K93),FALSE,IF(YEAR(K93)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ93" s="103" t="e">
@@ -23546,7 +23546,7 @@
         <v/>
       </c>
       <c r="BI94" s="107" t="b">
-        <f>IF(AND(NOT(BE94),AND(BE$4:BE93)),TRUE,BE94)</f>
+        <f>IF(ISERROR(K94),FALSE,IF(YEAR(K94)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ94" s="103" t="e">
@@ -23745,7 +23745,7 @@
         <v/>
       </c>
       <c r="BI95" s="107" t="b">
-        <f>IF(AND(NOT(BE95),AND(BE$4:BE94)),TRUE,BE95)</f>
+        <f>IF(ISERROR(K95),FALSE,IF(YEAR(K95)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ95" s="103" t="e">
@@ -23944,7 +23944,7 @@
         <v/>
       </c>
       <c r="BI96" s="107" t="b">
-        <f>IF(AND(NOT(BE96),AND(BE$4:BE95)),TRUE,BE96)</f>
+        <f>IF(ISERROR(K96),FALSE,IF(YEAR(K96)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ96" s="103" t="e">
@@ -24143,7 +24143,7 @@
         <v/>
       </c>
       <c r="BI97" s="107" t="b">
-        <f>IF(AND(NOT(BE97),AND(BE$4:BE96)),TRUE,BE97)</f>
+        <f>IF(ISERROR(K97),FALSE,IF(YEAR(K97)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ97" s="103" t="e">
@@ -24342,7 +24342,7 @@
         <v/>
       </c>
       <c r="BI98" s="107" t="b">
-        <f>IF(AND(NOT(BE98),AND(BE$4:BE97)),TRUE,BE98)</f>
+        <f>IF(ISERROR(K98),FALSE,IF(YEAR(K98)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ98" s="103" t="e">
@@ -24541,7 +24541,7 @@
         <v/>
       </c>
       <c r="BI99" s="107" t="b">
-        <f>IF(AND(NOT(BE99),AND(BE$4:BE98)),TRUE,BE99)</f>
+        <f>IF(ISERROR(K99),FALSE,IF(YEAR(K99)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ99" s="103" t="e">
@@ -24740,7 +24740,7 @@
         <v/>
       </c>
       <c r="BI100" s="107" t="b">
-        <f>IF(AND(NOT(BE100),AND(BE$4:BE99)),TRUE,BE100)</f>
+        <f>IF(ISERROR(K100),FALSE,IF(YEAR(K100)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ100" s="103" t="e">
@@ -24939,7 +24939,7 @@
         <v/>
       </c>
       <c r="BI101" s="107" t="b">
-        <f>IF(AND(NOT(BE101),AND(BE$4:BE100)),TRUE,BE101)</f>
+        <f>IF(ISERROR(K101),FALSE,IF(YEAR(K101)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ101" s="103" t="e">
@@ -25138,7 +25138,7 @@
         <v/>
       </c>
       <c r="BI102" s="107" t="b">
-        <f>IF(AND(NOT(BE102),AND(BE$4:BE101)),TRUE,BE102)</f>
+        <f>IF(ISERROR(K102),FALSE,IF(YEAR(K102)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ102" s="103" t="e">
@@ -25337,7 +25337,7 @@
         <v/>
       </c>
       <c r="BI103" s="107" t="b">
-        <f>IF(AND(NOT(BE103),AND(BE$4:BE102)),TRUE,BE103)</f>
+        <f>IF(ISERROR(K103),FALSE,IF(YEAR(K103)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ103" s="103" t="e">
@@ -25536,7 +25536,7 @@
         <v/>
       </c>
       <c r="BI104" s="107" t="b">
-        <f>IF(AND(NOT(BE104),AND(BE$4:BE103)),TRUE,BE104)</f>
+        <f>IF(ISERROR(K104),FALSE,IF(YEAR(K104)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ104" s="103" t="e">
@@ -25735,7 +25735,7 @@
         <v/>
       </c>
       <c r="BI105" s="107" t="b">
-        <f>IF(AND(NOT(BE105),AND(BE$4:BE104)),TRUE,BE105)</f>
+        <f>IF(ISERROR(K105),FALSE,IF(YEAR(K105)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ105" s="103" t="e">
@@ -25934,7 +25934,7 @@
         <v/>
       </c>
       <c r="BI106" s="107" t="b">
-        <f>IF(AND(NOT(BE106),AND(BE$4:BE105)),TRUE,BE106)</f>
+        <f>IF(ISERROR(K106),FALSE,IF(YEAR(K106)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ106" s="103" t="e">
@@ -26133,7 +26133,7 @@
         <v/>
       </c>
       <c r="BI107" s="107" t="b">
-        <f>IF(AND(NOT(BE107),AND(BE$4:BE106)),TRUE,BE107)</f>
+        <f>IF(ISERROR(K107),FALSE,IF(YEAR(K107)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ107" s="103" t="e">
@@ -26332,7 +26332,7 @@
         <v/>
       </c>
       <c r="BI108" s="107" t="b">
-        <f>IF(AND(NOT(BE108),AND(BE$4:BE107)),TRUE,BE108)</f>
+        <f>IF(ISERROR(K108),FALSE,IF(YEAR(K108)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ108" s="103" t="e">
@@ -26531,7 +26531,7 @@
         <v/>
       </c>
       <c r="BI109" s="107" t="b">
-        <f>IF(AND(NOT(BE109),AND(BE$4:BE108)),TRUE,BE109)</f>
+        <f>IF(ISERROR(K109),FALSE,IF(YEAR(K109)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ109" s="103" t="e">
@@ -26730,7 +26730,7 @@
         <v/>
       </c>
       <c r="BI110" s="107" t="b">
-        <f>IF(AND(NOT(BE110),AND(BE$4:BE109)),TRUE,BE110)</f>
+        <f>IF(ISERROR(K110),FALSE,IF(YEAR(K110)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ110" s="103" t="e">
@@ -26929,7 +26929,7 @@
         <v/>
       </c>
       <c r="BI111" s="107" t="b">
-        <f>IF(AND(NOT(BE111),AND(BE$4:BE110)),TRUE,BE111)</f>
+        <f>IF(ISERROR(K111),FALSE,IF(YEAR(K111)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ111" s="103" t="e">
@@ -27128,7 +27128,7 @@
         <v/>
       </c>
       <c r="BI112" s="107" t="b">
-        <f>IF(AND(NOT(BE112),AND(BE$4:BE111)),TRUE,BE112)</f>
+        <f>IF(ISERROR(K112),FALSE,IF(YEAR(K112)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ112" s="103" t="e">
@@ -27327,7 +27327,7 @@
         <v/>
       </c>
       <c r="BI113" s="107" t="b">
-        <f>IF(AND(NOT(BE113),AND(BE$4:BE112)),TRUE,BE113)</f>
+        <f>IF(ISERROR(K113),FALSE,IF(YEAR(K113)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ113" s="103" t="e">
@@ -27526,7 +27526,7 @@
         <v/>
       </c>
       <c r="BI114" s="107" t="b">
-        <f>IF(AND(NOT(BE114),AND(BE$4:BE113)),TRUE,BE114)</f>
+        <f>IF(ISERROR(K114),FALSE,IF(YEAR(K114)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ114" s="103" t="e">
@@ -27725,7 +27725,7 @@
         <v/>
       </c>
       <c r="BI115" s="107" t="b">
-        <f>IF(AND(NOT(BE115),AND(BE$4:BE114)),TRUE,BE115)</f>
+        <f>IF(ISERROR(K115),FALSE,IF(YEAR(K115)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ115" s="103" t="e">
@@ -27924,7 +27924,7 @@
         <v/>
       </c>
       <c r="BI116" s="107" t="b">
-        <f>IF(AND(NOT(BE116),AND(BE$4:BE115)),TRUE,BE116)</f>
+        <f>IF(ISERROR(K116),FALSE,IF(YEAR(K116)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ116" s="103" t="e">
@@ -28123,7 +28123,7 @@
         <v/>
       </c>
       <c r="BI117" s="107" t="b">
-        <f>IF(AND(NOT(BE117),AND(BE$4:BE116)),TRUE,BE117)</f>
+        <f>IF(ISERROR(K117),FALSE,IF(YEAR(K117)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ117" s="103" t="e">
@@ -28322,7 +28322,7 @@
         <v/>
       </c>
       <c r="BI118" s="107" t="b">
-        <f>IF(AND(NOT(BE118),AND(BE$4:BE117)),TRUE,BE118)</f>
+        <f>IF(ISERROR(K118),FALSE,IF(YEAR(K118)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ118" s="103" t="e">
@@ -28521,7 +28521,7 @@
         <v/>
       </c>
       <c r="BI119" s="107" t="b">
-        <f>IF(AND(NOT(BE119),AND(BE$4:BE118)),TRUE,BE119)</f>
+        <f>IF(ISERROR(K119),FALSE,IF(YEAR(K119)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ119" s="103" t="e">
@@ -28720,7 +28720,7 @@
         <v/>
       </c>
       <c r="BI120" s="107" t="b">
-        <f>IF(AND(NOT(BE120),AND(BE$4:BE119)),TRUE,BE120)</f>
+        <f>IF(ISERROR(K120),FALSE,IF(YEAR(K120)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ120" s="103" t="e">
@@ -28919,7 +28919,7 @@
         <v/>
       </c>
       <c r="BI121" s="107" t="b">
-        <f>IF(AND(NOT(BE121),AND(BE$4:BE120)),TRUE,BE121)</f>
+        <f>IF(ISERROR(K121),FALSE,IF(YEAR(K121)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ121" s="103" t="e">
@@ -29118,7 +29118,7 @@
         <v/>
       </c>
       <c r="BI122" s="107" t="b">
-        <f>IF(AND(NOT(BE122),AND(BE$4:BE121)),TRUE,BE122)</f>
+        <f>IF(ISERROR(K122),FALSE,IF(YEAR(K122)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ122" s="103" t="e">
@@ -29317,7 +29317,7 @@
         <v/>
       </c>
       <c r="BI123" s="107" t="b">
-        <f>IF(AND(NOT(BE123),AND(BE$4:BE122)),TRUE,BE123)</f>
+        <f>IF(ISERROR(K123),FALSE,IF(YEAR(K123)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ123" s="103" t="e">
@@ -29516,7 +29516,7 @@
         <v/>
       </c>
       <c r="BI124" s="107" t="b">
-        <f>IF(AND(NOT(BE124),AND(BE$4:BE123)),TRUE,BE124)</f>
+        <f>IF(ISERROR(K124),FALSE,IF(YEAR(K124)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ124" s="103" t="e">
@@ -29715,7 +29715,7 @@
         <v/>
       </c>
       <c r="BI125" s="107" t="b">
-        <f>IF(AND(NOT(BE125),AND(BE$4:BE124)),TRUE,BE125)</f>
+        <f>IF(ISERROR(K125),FALSE,IF(YEAR(K125)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ125" s="103" t="e">
@@ -29914,7 +29914,7 @@
         <v/>
       </c>
       <c r="BI126" s="107" t="b">
-        <f>IF(AND(NOT(BE126),AND(BE$4:BE125)),TRUE,BE126)</f>
+        <f>IF(ISERROR(K126),FALSE,IF(YEAR(K126)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ126" s="103" t="e">
@@ -30113,7 +30113,7 @@
         <v/>
       </c>
       <c r="BI127" s="107" t="b">
-        <f>IF(AND(NOT(BE127),AND(BE$4:BE126)),TRUE,BE127)</f>
+        <f>IF(ISERROR(K127),FALSE,IF(YEAR(K127)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ127" s="103" t="e">
@@ -30312,7 +30312,7 @@
         <v/>
       </c>
       <c r="BI128" s="107" t="b">
-        <f>IF(AND(NOT(BE128),AND(BE$4:BE127)),TRUE,BE128)</f>
+        <f>IF(ISERROR(K128),FALSE,IF(YEAR(K128)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ128" s="103" t="e">
@@ -30511,7 +30511,7 @@
         <v/>
       </c>
       <c r="BI129" s="107" t="b">
-        <f>IF(AND(NOT(BE129),AND(BE$4:BE128)),TRUE,BE129)</f>
+        <f>IF(ISERROR(K129),FALSE,IF(YEAR(K129)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="BJ129" s="103" t="e">
@@ -30611,7 +30611,7 @@
       <c r="J3" s="43"/>
       <c r="K3" s="44">
         <f>_xll.ohTrigger(K5:K6)</f>
-        <v>71</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -30649,7 +30649,7 @@
       </c>
       <c r="D5" s="137">
         <f>JumpValue1</f>
-        <v>0.9999910714707797</v>
+        <v>0.99997916710068535</v>
       </c>
       <c r="F5" s="141">
         <v>0.99999399174691228</v>
@@ -30665,7 +30665,7 @@
       </c>
       <c r="J5" s="144">
         <f t="array" ref="J5:J17">QuoteLive</f>
-        <v>0.9999910714707797</v>
+        <v>0.99997916710068535</v>
       </c>
       <c r="K5" s="144">
         <f>_xll.qlSimpleQuoteSetValue($I5,ROUND($J5,7),EvaluationDate)</f>
@@ -30683,7 +30683,7 @@
       </c>
       <c r="D6" s="138">
         <f>JumpValue2</f>
-        <v>0.99998827940486623</v>
+        <v>0.99998706236885704</v>
       </c>
       <c r="F6" s="142">
         <v>1</v>
@@ -30698,7 +30698,7 @@
         <v>EURJump2_SYNTHON_Quote#0000</v>
       </c>
       <c r="J6" s="144">
-        <v>0.99998827940486623</v>
+        <v>0.99998706236885704</v>
       </c>
       <c r="K6" s="144">
         <f>_xll.qlSimpleQuoteSetValue($I6,ROUND($J6,7),EvaluationDate)</f>
@@ -30716,7 +30716,7 @@
       </c>
       <c r="D7" s="138">
         <f>JumpValue3</f>
-        <v>0.99998918306872864</v>
+        <v>0.99998514551601414</v>
       </c>
       <c r="F7" s="142">
         <v>0.99999685161729968</v>
@@ -30730,7 +30730,7 @@
         <v>EURJump3_SYNTHON_Quote#0000</v>
       </c>
       <c r="J7" s="144">
-        <v>0.99998918306872864</v>
+        <v>0.99998514551601414</v>
       </c>
       <c r="K7" s="144">
         <f>_xll.qlSimpleQuoteSetValue($I7,ROUND($J7,7),EvaluationDate)</f>
@@ -30748,7 +30748,7 @@
       </c>
       <c r="D8" s="138">
         <f>JumpValue4</f>
-        <v>0.99998036447809902</v>
+        <v>0.99998316731908776</v>
       </c>
       <c r="F8" s="142">
         <v>0.99999237575302491</v>
@@ -30762,7 +30762,7 @@
         <v>EURJump4_SYNTHON_Quote#0000</v>
       </c>
       <c r="J8" s="144">
-        <v>0.99998036447809902</v>
+        <v>0.99998316731908776</v>
       </c>
       <c r="K8" s="144">
         <f>_xll.qlSimpleQuoteSetValue($I8,ROUND($J8,7),EvaluationDate)</f>
@@ -30780,7 +30780,7 @@
       </c>
       <c r="D9" s="138">
         <f>JumpValue5</f>
-        <v>0.99998975467671236</v>
+        <v>0.99998752975462957</v>
       </c>
       <c r="F9" s="142">
         <v>0.99996824223590031</v>
@@ -30794,7 +30794,7 @@
         <v>EURJump5_SYNTHON_Quote#0000</v>
       </c>
       <c r="J9" s="144">
-        <v>0.99998975467671236</v>
+        <v>0.99998752975462957</v>
       </c>
       <c r="K9" s="144">
         <f>_xll.qlSimpleQuoteSetValue($I9,ROUND($J9,7),EvaluationDate)</f>
@@ -30812,7 +30812,7 @@
       </c>
       <c r="D10" s="138">
         <f>JumpValue6</f>
-        <v>0.99999014566393485</v>
+        <v>0.99999106179371078</v>
       </c>
       <c r="F10" s="142">
         <v>0.99997651632635709</v>
@@ -30826,7 +30826,7 @@
         <v>EURJump6_SYNTHON_Quote#0000</v>
       </c>
       <c r="J10" s="144">
-        <v>0.99999014566393485</v>
+        <v>0.99999106179371078</v>
       </c>
       <c r="K10" s="144">
         <f>_xll.qlSimpleQuoteSetValue($I10,ROUND($J10,7),EvaluationDate)</f>
@@ -30844,7 +30844,7 @@
       </c>
       <c r="D11" s="138">
         <f>JumpValue7</f>
-        <v>0.99999613784092778</v>
+        <v>0.99998204752397246</v>
       </c>
       <c r="F11" s="142">
         <v>0.99998988369315134</v>
@@ -30858,7 +30858,7 @@
         <v>EURJump7_SYNTHON_Quote#0000</v>
       </c>
       <c r="J11" s="144">
-        <v>0.99999613784092778</v>
+        <v>0.99998204752397246</v>
       </c>
       <c r="K11" s="144">
         <f>_xll.qlSimpleQuoteSetValue($I11,ROUND($J11,7),EvaluationDate)</f>
@@ -30876,7 +30876,7 @@
       </c>
       <c r="D12" s="138">
         <f>JumpValue8</f>
-        <v>0.99999677787919716</v>
+        <v>0.99998016036305648</v>
       </c>
       <c r="F12" s="142">
         <v>0.99999226871935276</v>
@@ -30890,7 +30890,7 @@
         <v>EURJump8_SYNTHON_Quote#0000</v>
       </c>
       <c r="J12" s="144">
-        <v>0.99999677787919716</v>
+        <v>0.99998016036305648</v>
       </c>
       <c r="K12" s="144">
         <f>_xll.qlSimpleQuoteSetValue($I12,ROUND($J12,7),EvaluationDate)</f>
@@ -30908,7 +30908,7 @@
       </c>
       <c r="D13" s="138">
         <f>JumpValue9</f>
-        <v>0.99999412095513629</v>
+        <v>0.99999390271619915</v>
       </c>
       <c r="F13" s="142">
         <v>0.99999360896660505</v>
@@ -30922,7 +30922,7 @@
         <v>EURJump9_SYNTHON_Quote#0000</v>
       </c>
       <c r="J13" s="144">
-        <v>0.99999412095513629</v>
+        <v>0.99999390271619915</v>
       </c>
       <c r="K13" s="144">
         <f>_xll.qlSimpleQuoteSetValue($I13,ROUND($J13,7),EvaluationDate)</f>
@@ -30940,7 +30940,7 @@
       </c>
       <c r="D14" s="138">
         <f>JumpValue10</f>
-        <v>0.99999696786400905</v>
+        <v>0.99999882641367421</v>
       </c>
       <c r="F14" s="142">
         <v>0.99999659453552103</v>
@@ -30954,7 +30954,7 @@
         <v>EURJump10_SYNTHON_Quote#0000</v>
       </c>
       <c r="J14" s="144">
-        <v>0.99999696786400905</v>
+        <v>0.99999882641367421</v>
       </c>
       <c r="K14" s="144">
         <f>_xll.qlSimpleQuoteSetValue($I14,ROUND($J14,7),EvaluationDate)</f>
@@ -30972,7 +30972,7 @@
       </c>
       <c r="D15" s="138">
         <f>JumpValue11</f>
-        <v>0.99998912398666806</v>
+        <v>0.99999395178591322</v>
       </c>
       <c r="F15" s="142">
         <v>0.99999880458778456</v>
@@ -30986,7 +30986,7 @@
         <v>EURJump11_SYNTHON_Quote#0000</v>
       </c>
       <c r="J15" s="144">
-        <v>0.99998912398666806</v>
+        <v>0.99999395178591322</v>
       </c>
       <c r="K15" s="144">
         <f>_xll.qlSimpleQuoteSetValue($I15,ROUND($J15,7),EvaluationDate)</f>
@@ -31004,7 +31004,7 @@
       </c>
       <c r="D16" s="138">
         <f>JumpValue12</f>
-        <v>1</v>
+        <v>0.99999781781146535</v>
       </c>
       <c r="F16" s="142">
         <v>1</v>
@@ -31018,7 +31018,7 @@
         <v>EURJump12_SYNTHON_Quote#0000</v>
       </c>
       <c r="J16" s="144">
-        <v>1</v>
+        <v>0.99999781781146535</v>
       </c>
       <c r="K16" s="144">
         <f>_xll.qlSimpleQuoteSetValue($I16,ROUND($J16,7),EvaluationDate)</f>
@@ -31036,7 +31036,7 @@
       </c>
       <c r="D17" s="139">
         <f>JumpValue13</f>
-        <v>0.99999035684358739</v>
+        <v>0.99995632402025625</v>
       </c>
       <c r="F17" s="143">
         <v>0.99996612432397214</v>
@@ -31050,7 +31050,7 @@
         <v>EURJump13_SYNTHON_Quote#0000</v>
       </c>
       <c r="J17" s="145">
-        <v>0.99999035684358739</v>
+        <v>0.99995632402025625</v>
       </c>
       <c r="K17" s="145">
         <f>_xll.qlSimpleQuoteSetValue($I17,ROUND($J17,7),EvaluationDate)</f>

--- a/QuantLibXL/Data2/XLS/EUR_JumpsQuotesFeedON.xlsx
+++ b/QuantLibXL/Data2/XLS/EUR_JumpsQuotesFeedON.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="15195" yWindow="-15" windowWidth="15240" windowHeight="8040" activeTab="3"/>
+    <workbookView xWindow="15195" yWindow="-15" windowWidth="15240" windowHeight="7560" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="3" r:id="rId1"/>
@@ -85,9 +85,9 @@
     <definedName name="NDays">'General Settings'!$D$13</definedName>
     <definedName name="OvernightIndex">'General Settings'!$D$6</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Calculation!$A$4:$G$53</definedName>
-    <definedName name="Quote" localSheetId="3">Contribution!$L$5:$L$6</definedName>
+    <definedName name="Quote" localSheetId="3">Contribution!$M$5:$M$6</definedName>
     <definedName name="QuoteLive" localSheetId="3">Contribution!$D$5:$D$17</definedName>
-    <definedName name="QuoteStatic" localSheetId="3">Contribution!$H$5:$H$17</definedName>
+    <definedName name="QuoteStatic" localSheetId="3">Contribution!$I$5:$I$17</definedName>
     <definedName name="RateHelpers">RateHelpers!$F$2:$F$32</definedName>
     <definedName name="RateHelpersIncluded">RateHelpers!$G$2:$G$32</definedName>
     <definedName name="RateHelpersPriority">RateHelpers!$H$2:$H$32</definedName>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="94">
   <si>
     <t>Earliest Date</t>
   </si>
@@ -484,6 +484,9 @@
   <si>
     <t>Overwrite JumpSize</t>
   </si>
+  <si>
+    <t>Jump 21/11</t>
+  </si>
 </sst>
 </file>
 
@@ -700,7 +703,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -1164,19 +1167,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1234,6 +1224,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1253,7 +1286,7 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1528,22 +1561,13 @@
     <xf numFmtId="168" fontId="9" fillId="4" borderId="29" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="168" fontId="9" fillId="4" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="9" fillId="4" borderId="38" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="9" fillId="4" borderId="35" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="9" fillId="4" borderId="36" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="9" fillId="4" borderId="39" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="170" fontId="9" fillId="4" borderId="40" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="170" fontId="9" fillId="4" borderId="41" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="9" fillId="4" borderId="42" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1585,27 +1609,6 @@
     <xf numFmtId="168" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="9" fillId="13" borderId="38" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="9" fillId="13" borderId="35" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="9" fillId="13" borderId="36" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="4" borderId="38" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="9" fillId="4" borderId="35" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1622,14 +1625,53 @@
     <xf numFmtId="166" fontId="18" fillId="14" borderId="30" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="32" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="14" borderId="39" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="14" borderId="38" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="18" fillId="14" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="9" fillId="4" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="9" fillId="4" borderId="42" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="4" borderId="43" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="13" borderId="43" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="4" borderId="44" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="4" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="13" borderId="7" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="4" borderId="29" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="13" borderId="26" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="31" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="9" fillId="4" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1704,186 +1746,195 @@
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="4">
+          <cell r="J4">
+            <v>41964.75136574074</v>
+          </cell>
+        </row>
         <row r="6">
           <cell r="D6">
-            <v>172</v>
+            <v>204</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1">
+        <row r="6">
+          <cell r="I6" t="str">
+            <v>Eonia2#0002</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="2">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>EUR6M#0000</v>
+        <row r="4">
+          <cell r="G4" t="str">
+            <v>EuriborSwapIsdaFixA1Y#0002</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>6E</v>
+        <row r="5">
+          <cell r="F5" t="str">
+            <v>EUR1E6E6M_Quote#0002</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="4">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>6E</v>
+        <row r="5">
+          <cell r="F5" t="str">
+            <v>EUR3E6E6M_Quote#0002</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="5">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>12E</v>
+        <row r="5">
+          <cell r="F5" t="str">
+            <v>EUR6E12E6M_Quote#0002</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6">
+        <row r="5">
+          <cell r="D5" t="str">
+            <v>EUROND_Quote#0002</v>
+          </cell>
+        </row>
         <row r="6">
           <cell r="D6" t="str">
-            <v>EURTND_Quote#0000</v>
+            <v>EURTND_Quote#0002</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="7">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>EURTOM3F1_Quote</v>
+        <row r="3">
+          <cell r="E3" t="str">
+            <v>EURT1F1_Quote#0002</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="6">
-          <cell r="D6" t="str">
-            <v>X4</v>
+          <cell r="F6" t="str">
+            <v>EURFUT1MZ4_Quote#0002</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="9">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>Future Code</v>
+        <row r="7">
+          <cell r="F7" t="str">
+            <v>EURFUT3MZ4_Quote#0002</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="10">
         <row r="6">
-          <cell r="D6" t="str">
-            <v>X4</v>
+          <cell r="F6" t="str">
+            <v>EURIMMFRA6MZ4_Quote#0002</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="11">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v/>
+        <row r="5">
+          <cell r="C5" t="str">
+            <v>EURHW_Volatility_Quote#0002</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="12">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>2W</v>
+        <row r="5">
+          <cell r="F5" t="str">
+            <v>EUREONSW_Quote#0002</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="13">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>APR14</v>
+        <row r="4">
+          <cell r="F4" t="str">
+            <v>EURECBOISDEC14_Quote#0002</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="14">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>X1S</v>
+        <row r="5">
+          <cell r="F5" t="str">
+            <v>EUR2X1S_Quote#0002</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="15">
-        <row r="6">
-          <cell r="D6">
-            <v>12</v>
+        <row r="5">
+          <cell r="F5" t="str">
+            <v>EUR1S12_Quote#0002</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="16">
         <row r="6">
-          <cell r="D6" t="str">
-            <v>3E</v>
+          <cell r="F6" t="str">
+            <v>EURAB3E1Y_Quote#0002</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="17"/>
+      <sheetData sheetId="17">
+        <row r="3">
+          <cell r="D3" t="str">
+            <v>EURTOY_SYNTHON_Quote#0002</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="18">
         <row r="6">
-          <cell r="D6" t="str">
-            <v>6E</v>
+          <cell r="F6" t="str">
+            <v>EURAB6E1Y_Quote#0002</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="19">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>EUR1F2Y_Quote</v>
+        <row r="5">
+          <cell r="E5" t="str">
+            <v>EUR1F1Y_Quote#0002</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="20">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>1E</v>
+        <row r="3">
+          <cell r="J3" t="str">
+            <v>EURAB1EBASIS1Y_Quote#0002</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="21">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>3E</v>
+        <row r="3">
+          <cell r="J3" t="str">
+            <v>EURAB3EBASIS1Y_Quote#0002</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="22">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>6E</v>
+        <row r="3">
+          <cell r="J3" t="str">
+            <v>EURAB6EBASIS1Y_Quote#0001</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="23">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>12E</v>
+        <row r="3">
+          <cell r="J3" t="str">
+            <v>EURAB12EBASIS1Y_Quote#0002</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="24">
-        <row r="6">
-          <cell r="D6">
-            <v>41948</v>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27">
+        <row r="3">
+          <cell r="D3" t="str">
+            <v>EUROND_Mx_Quote#0002</v>
           </cell>
         </row>
-      </sheetData>
-      <sheetData sheetId="25">
-        <row r="6">
-          <cell r="D6">
-            <v>41948</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="26">
-        <row r="6">
-          <cell r="D6">
-            <v>41948</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="27">
         <row r="6">
           <cell r="D6" t="str">
-            <v>EURSWD_Mx_Quote#0000</v>
+            <v>EURSWD_Mx_Quote#0002</v>
           </cell>
         </row>
       </sheetData>
@@ -2205,7 +2256,7 @@
     <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="str">
         <f>_xll.qlxlVersion(TRUE,EvaluationDate)</f>
-        <v>QuantLibXL 1.5.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Nov  4 2014 09:24:39</v>
+        <v>QuantLibXL 1.5.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Nov 20 2014 17:26:59</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
@@ -2266,7 +2317,7 @@
       </c>
       <c r="I4" s="95">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>41949</v>
+        <v>41964</v>
       </c>
       <c r="J4" s="54"/>
       <c r="K4" s="1"/>
@@ -2332,7 +2383,7 @@
         <v>66</v>
       </c>
       <c r="I6" s="99">
-        <v>41949.395960648151</v>
+        <v>41964.393518518518</v>
       </c>
       <c r="J6" s="54"/>
       <c r="K6" s="1"/>
@@ -2358,8 +2409,8 @@
         <v>61</v>
       </c>
       <c r="D7" s="59">
-        <f>_xll.ohTrigger(Contribution!M3)</f>
-        <v>251</v>
+        <f>_xll.ohTrigger(Contribution!N3)</f>
+        <v>328</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="1"/>
@@ -2369,7 +2420,7 @@
       </c>
       <c r="I7" s="98">
         <f>[1]!TriggerCounter</f>
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="J7" s="54"/>
       <c r="K7" s="1"/>
@@ -2423,7 +2474,7 @@
       </c>
       <c r="D9" s="66">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,"2d","f",,Trigger)</f>
-        <v>41953</v>
+        <v>41968</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="1"/>
@@ -2482,7 +2533,7 @@
       </c>
       <c r="D11" s="15" t="str">
         <f>_xll.qlPiecewiseYieldCurve(,NDays,Calendar,_xll.ohPack(Calculation!A5:A129),DayCounter,,,Accuracy,TraitsID,InterpolatorID)</f>
-        <v>obj_0049a#0000</v>
+        <v>obj_0048e#0003</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="1"/>
@@ -2815,7 +2866,7 @@
       <c r="B22" s="2"/>
       <c r="C22" s="24">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41953</v>
+        <v>41968</v>
       </c>
       <c r="D22" s="25">
         <f>_xll.qlYieldTSDiscount(YieldCurve,C22,,Trigger)</f>
@@ -2848,11 +2899,11 @@
       <c r="B23" s="2"/>
       <c r="C23" s="32">
         <f>MAX(_xll.ohPack(Calculation!D5:D129))</f>
-        <v>42684</v>
+        <v>42699</v>
       </c>
       <c r="D23" s="119">
         <f>_xll.qlYieldTSDiscount(YieldCurve,C23,,Trigger)</f>
-        <v>1.0004671914150365</v>
+        <v>1.0007314009663986</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="1"/>
@@ -3860,7 +3911,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -3878,11 +3929,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B1" s="155" t="s">
+      <c r="B1" s="160" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="156"/>
-      <c r="D1" s="157"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="162"/>
       <c r="E1" s="73" t="s">
         <v>56</v>
       </c>
@@ -3928,19 +3979,19 @@
       <c r="I2" s="78">
         <v>1</v>
       </c>
-      <c r="J2" s="149">
+      <c r="J2" s="146">
         <f>_xll.qlRateHelperEarliestDate($F2)</f>
-        <v>41953</v>
-      </c>
-      <c r="K2" s="150">
+        <v>41968</v>
+      </c>
+      <c r="K2" s="147">
         <f>_xll.qlRateHelperLatestDate($F2)</f>
-        <v>41954</v>
+        <v>41969</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="100">
         <f>_xll.qlECBNextDate(SettlementDate)</f>
-        <v>41955</v>
+        <v>41983</v>
       </c>
       <c r="B3" s="79" t="s">
         <v>40</v>
@@ -3950,15 +4001,15 @@
       </c>
       <c r="D3" s="81" t="str">
         <f>_xll.qlECBcode(A3)</f>
-        <v>NOV14</v>
+        <v>DEC14</v>
       </c>
       <c r="E3" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>EURECBOISNOV14_Quote</v>
+        <v>EURECBOISDEC14_Quote</v>
       </c>
       <c r="F3" s="33" t="str">
         <f>_xll.qlDatedOISRateHelper("W"&amp;Currency&amp;B3&amp;C3&amp;D3,A3,A4,E3,OvernightIndex)</f>
-        <v>WEURECBOISNOV14#0000</v>
+        <v>WEURECBOISDEC14#0000</v>
       </c>
       <c r="G3" s="86" t="b">
         <v>1</v>
@@ -3969,20 +4020,20 @@
       <c r="I3" s="82">
         <v>3</v>
       </c>
-      <c r="J3" s="151">
+      <c r="J3" s="148">
         <f>_xll.qlRateHelperEarliestDate($F3)</f>
-        <v>41955</v>
-      </c>
-      <c r="K3" s="152">
+        <v>41983</v>
+      </c>
+      <c r="K3" s="149">
         <f>_xll.qlRateHelperLatestDate($F3)</f>
-        <v>41983</v>
+        <v>42032</v>
       </c>
       <c r="L3" s="51"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="100">
         <f>_xll.qlECBNextDate(A3)</f>
-        <v>41983</v>
+        <v>42032</v>
       </c>
       <c r="B4" s="83" t="s">
         <v>40</v>
@@ -3992,15 +4043,15 @@
       </c>
       <c r="D4" s="84" t="str">
         <f>_xll.qlECBcode(A4)</f>
-        <v>DEC14</v>
+        <v>JAN15</v>
       </c>
       <c r="E4" s="85" t="str">
         <f t="shared" si="0"/>
-        <v>EURECBOISDEC14_Quote</v>
+        <v>EURECBOISJAN15_Quote</v>
       </c>
       <c r="F4" s="85" t="str">
         <f>_xll.qlDatedOISRateHelper("W"&amp;Currency&amp;B4&amp;C4&amp;D4,A4,A5,E4,OvernightIndex)</f>
-        <v>WEURECBOISDEC14#0000</v>
+        <v>WEURECBOISJAN15#0000</v>
       </c>
       <c r="G4" s="86" t="b">
         <v>1</v>
@@ -4011,20 +4062,20 @@
       <c r="I4" s="86">
         <v>3</v>
       </c>
-      <c r="J4" s="153">
+      <c r="J4" s="150">
         <f>_xll.qlRateHelperEarliestDate($F4)</f>
-        <v>41983</v>
-      </c>
-      <c r="K4" s="154">
+        <v>42032</v>
+      </c>
+      <c r="K4" s="151">
         <f>_xll.qlRateHelperLatestDate($F4)</f>
-        <v>42032</v>
+        <v>42074</v>
       </c>
       <c r="L4" s="87"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="100">
         <f>_xll.qlECBNextDate(A4)</f>
-        <v>42032</v>
+        <v>42074</v>
       </c>
       <c r="B5" s="83" t="s">
         <v>40</v>
@@ -4034,15 +4085,15 @@
       </c>
       <c r="D5" s="84" t="str">
         <f>_xll.qlECBcode(A5)</f>
-        <v>JAN15</v>
+        <v>MAR15</v>
       </c>
       <c r="E5" s="85" t="str">
         <f t="shared" si="0"/>
-        <v>EURECBOISJAN15_Quote</v>
+        <v>EURECBOISMAR15_Quote</v>
       </c>
       <c r="F5" s="85" t="str">
         <f>_xll.qlDatedOISRateHelper("W"&amp;Currency&amp;B5&amp;C5&amp;D5,A5,A6,E5,OvernightIndex)</f>
-        <v>WEURECBOISJAN15#0000</v>
+        <v>WEURECBOISMAR15#0000</v>
       </c>
       <c r="G5" s="86" t="b">
         <v>1</v>
@@ -4053,19 +4104,19 @@
       <c r="I5" s="86">
         <v>3</v>
       </c>
-      <c r="J5" s="153">
+      <c r="J5" s="150">
         <f>_xll.qlRateHelperEarliestDate($F5)</f>
-        <v>42032</v>
-      </c>
-      <c r="K5" s="154">
+        <v>42074</v>
+      </c>
+      <c r="K5" s="151">
         <f>_xll.qlRateHelperLatestDate($F5)</f>
-        <v>42074</v>
+        <v>42116</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="100">
         <f>_xll.qlECBNextDate(A5)</f>
-        <v>42074</v>
+        <v>42116</v>
       </c>
       <c r="B6" s="83" t="s">
         <v>40</v>
@@ -4075,15 +4126,15 @@
       </c>
       <c r="D6" s="84" t="str">
         <f>_xll.qlECBcode(A6)</f>
-        <v>MAR15</v>
+        <v>APR15</v>
       </c>
       <c r="E6" s="85" t="str">
         <f t="shared" si="0"/>
-        <v>EURECBOISMAR15_Quote</v>
+        <v>EURECBOISAPR15_Quote</v>
       </c>
       <c r="F6" s="85" t="str">
         <f>_xll.qlDatedOISRateHelper("W"&amp;Currency&amp;B6&amp;C6&amp;D6,A6,A7,E6,OvernightIndex)</f>
-        <v>WEURECBOISMAR15#0000</v>
+        <v>WEURECBOISAPR15#0000</v>
       </c>
       <c r="G6" s="86" t="b">
         <v>1</v>
@@ -4094,19 +4145,19 @@
       <c r="I6" s="86">
         <v>3</v>
       </c>
-      <c r="J6" s="153">
+      <c r="J6" s="150">
         <f>_xll.qlRateHelperEarliestDate($F6)</f>
-        <v>42074</v>
-      </c>
-      <c r="K6" s="154">
+        <v>42116</v>
+      </c>
+      <c r="K6" s="151">
         <f>_xll.qlRateHelperLatestDate($F6)</f>
-        <v>42116</v>
+        <v>42165</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="100">
         <f>_xll.qlECBNextDate(A6)</f>
-        <v>42116</v>
+        <v>42165</v>
       </c>
       <c r="B7" s="83" t="s">
         <v>40</v>
@@ -4116,15 +4167,15 @@
       </c>
       <c r="D7" s="84" t="str">
         <f>_xll.qlECBcode(A7)</f>
-        <v>APR15</v>
+        <v>JUN15</v>
       </c>
       <c r="E7" s="85" t="str">
         <f t="shared" si="0"/>
-        <v>EURECBOISAPR15_Quote</v>
+        <v>EURECBOISJUN15_Quote</v>
       </c>
       <c r="F7" s="85" t="str">
         <f>_xll.qlDatedOISRateHelper("W"&amp;Currency&amp;B7&amp;C7&amp;D7,A7,A8,E7,OvernightIndex)</f>
-        <v>WEURECBOISAPR15#0000</v>
+        <v>WEURECBOISJUN15#0000</v>
       </c>
       <c r="G7" s="86" t="b">
         <v>1</v>
@@ -4135,19 +4186,19 @@
       <c r="I7" s="86">
         <v>3</v>
       </c>
-      <c r="J7" s="153">
+      <c r="J7" s="150">
         <f>_xll.qlRateHelperEarliestDate($F7)</f>
-        <v>42116</v>
-      </c>
-      <c r="K7" s="154">
+        <v>42165</v>
+      </c>
+      <c r="K7" s="151">
         <f>_xll.qlRateHelperLatestDate($F7)</f>
-        <v>42165</v>
+        <v>42207</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="100">
         <f>_xll.qlECBNextDate(A7)</f>
-        <v>42165</v>
+        <v>42207</v>
       </c>
       <c r="B8" s="83" t="s">
         <v>40</v>
@@ -4157,15 +4208,15 @@
       </c>
       <c r="D8" s="84" t="str">
         <f>_xll.qlECBcode(A8)</f>
-        <v>JUN15</v>
+        <v>JUL15</v>
       </c>
       <c r="E8" s="85" t="str">
         <f t="shared" si="0"/>
-        <v>EURECBOISJUN15_Quote</v>
+        <v>EURECBOISJUL15_Quote</v>
       </c>
       <c r="F8" s="85" t="str">
         <f>_xll.qlDatedOISRateHelper("W"&amp;Currency&amp;B8&amp;C8&amp;D8,A8,A9,E8,OvernightIndex)</f>
-        <v>WEURECBOISJUN15#0000</v>
+        <v>WEURECBOISJUL15#0000</v>
       </c>
       <c r="G8" s="86" t="b">
         <v>1</v>
@@ -4176,19 +4227,19 @@
       <c r="I8" s="86">
         <v>3</v>
       </c>
-      <c r="J8" s="153">
+      <c r="J8" s="150">
         <f>_xll.qlRateHelperEarliestDate($F8)</f>
-        <v>42165</v>
-      </c>
-      <c r="K8" s="154">
+        <v>42207</v>
+      </c>
+      <c r="K8" s="151">
         <f>_xll.qlRateHelperLatestDate($F8)</f>
-        <v>42207</v>
+        <v>42256</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="100">
         <f>_xll.qlECBNextDate(A8)</f>
-        <v>42207</v>
+        <v>42256</v>
       </c>
       <c r="B9" s="83" t="s">
         <v>40</v>
@@ -4198,15 +4249,15 @@
       </c>
       <c r="D9" s="84" t="str">
         <f>_xll.qlECBcode(A9)</f>
-        <v>JUL15</v>
+        <v>SEP15</v>
       </c>
       <c r="E9" s="85" t="str">
         <f t="shared" si="0"/>
-        <v>EURECBOISJUL15_Quote</v>
+        <v>EURECBOISSEP15_Quote</v>
       </c>
       <c r="F9" s="85" t="str">
         <f>_xll.qlDatedOISRateHelper("W"&amp;Currency&amp;B9&amp;C9&amp;D9,A9,A10,E9,OvernightIndex)</f>
-        <v>WEURECBOISJUL15#0000</v>
+        <v>WEURECBOISSEP15#0000</v>
       </c>
       <c r="G9" s="86" t="b">
         <v>1</v>
@@ -4217,19 +4268,19 @@
       <c r="I9" s="86">
         <v>3</v>
       </c>
-      <c r="J9" s="153">
+      <c r="J9" s="150">
         <f>_xll.qlRateHelperEarliestDate($F9)</f>
-        <v>42207</v>
-      </c>
-      <c r="K9" s="154">
+        <v>42256</v>
+      </c>
+      <c r="K9" s="151">
         <f>_xll.qlRateHelperLatestDate($F9)</f>
-        <v>42256</v>
+        <v>42305</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="100">
         <f>_xll.qlECBNextDate(A9)</f>
-        <v>42256</v>
+        <v>42305</v>
       </c>
       <c r="B10" s="83" t="s">
         <v>40</v>
@@ -4239,15 +4290,15 @@
       </c>
       <c r="D10" s="84" t="str">
         <f>_xll.qlECBcode(A10)</f>
-        <v>SEP15</v>
+        <v>OCT15</v>
       </c>
       <c r="E10" s="85" t="str">
         <f t="shared" si="0"/>
-        <v>EURECBOISSEP15_Quote</v>
+        <v>EURECBOISOCT15_Quote</v>
       </c>
       <c r="F10" s="85" t="str">
         <f>_xll.qlDatedOISRateHelper("W"&amp;Currency&amp;B10&amp;C10&amp;D10,A10,A11,E10,OvernightIndex)</f>
-        <v>WEURECBOISSEP15#0000</v>
+        <v>WEURECBOISOCT15#0000</v>
       </c>
       <c r="G10" s="86" t="b">
         <v>1</v>
@@ -4258,19 +4309,19 @@
       <c r="I10" s="86">
         <v>3</v>
       </c>
-      <c r="J10" s="153">
+      <c r="J10" s="150">
         <f>_xll.qlRateHelperEarliestDate($F10)</f>
-        <v>42256</v>
-      </c>
-      <c r="K10" s="154">
+        <v>42305</v>
+      </c>
+      <c r="K10" s="151">
         <f>_xll.qlRateHelperLatestDate($F10)</f>
-        <v>42305</v>
+        <v>42347</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="100">
         <f>_xll.qlECBNextDate(A10)</f>
-        <v>42305</v>
+        <v>42347</v>
       </c>
       <c r="B11" s="83" t="s">
         <v>40</v>
@@ -4280,15 +4331,15 @@
       </c>
       <c r="D11" s="84" t="str">
         <f>_xll.qlECBcode(A11)</f>
-        <v>OCT15</v>
+        <v>DEC15</v>
       </c>
       <c r="E11" s="85" t="str">
         <f t="shared" si="0"/>
-        <v>EURECBOISOCT15_Quote</v>
+        <v>EURECBOISDEC15_Quote</v>
       </c>
       <c r="F11" s="85" t="str">
         <f>_xll.qlDatedOISRateHelper("W"&amp;Currency&amp;B11&amp;C11&amp;D11,A11,A12,E11,OvernightIndex)</f>
-        <v>WEURECBOISOCT15#0000</v>
+        <v>WEURECBOISDEC15#0000</v>
       </c>
       <c r="G11" s="86" t="b">
         <v>1</v>
@@ -4299,19 +4350,19 @@
       <c r="I11" s="86">
         <v>3</v>
       </c>
-      <c r="J11" s="153">
+      <c r="J11" s="150">
         <f>_xll.qlRateHelperEarliestDate($F11)</f>
-        <v>42305</v>
-      </c>
-      <c r="K11" s="154">
+        <v>42347</v>
+      </c>
+      <c r="K11" s="151">
         <f>_xll.qlRateHelperLatestDate($F11)</f>
-        <v>42347</v>
+        <v>42395</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="100">
         <f>_xll.qlECBNextDate(A11)</f>
-        <v>42347</v>
+        <v>42395</v>
       </c>
       <c r="B12" s="83" t="s">
         <v>40</v>
@@ -4321,11 +4372,11 @@
       </c>
       <c r="D12" s="84" t="str">
         <f>_xll.qlECBcode(A12)</f>
-        <v>DEC15</v>
+        <v>JAN16</v>
       </c>
       <c r="E12" s="85" t="str">
         <f t="shared" si="0"/>
-        <v>EURECBOISDEC15_Quote</v>
+        <v>EURECBOISJAN16_Quote</v>
       </c>
       <c r="F12" s="85" t="e">
         <f>_xll.qlDatedOISRateHelper("W"&amp;Currency&amp;B12&amp;C12&amp;D12,A12,A13,E12,OvernightIndex)</f>
@@ -4340,11 +4391,11 @@
       <c r="I12" s="86">
         <v>3</v>
       </c>
-      <c r="J12" s="153" t="e">
+      <c r="J12" s="150" t="e">
         <f>_xll.qlRateHelperEarliestDate($F12)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K12" s="154" t="e">
+      <c r="K12" s="151" t="e">
         <f>_xll.qlRateHelperLatestDate($F12)</f>
         <v>#VALUE!</v>
       </c>
@@ -4381,11 +4432,11 @@
       <c r="I13" s="86">
         <v>3</v>
       </c>
-      <c r="J13" s="153" t="e">
+      <c r="J13" s="150" t="e">
         <f>_xll.qlRateHelperEarliestDate($F13)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K13" s="154" t="e">
+      <c r="K13" s="151" t="e">
         <f>_xll.qlRateHelperLatestDate($F13)</f>
         <v>#VALUE!</v>
       </c>
@@ -4417,13 +4468,13 @@
       <c r="I14" s="82">
         <v>1</v>
       </c>
-      <c r="J14" s="151">
+      <c r="J14" s="148">
         <f>_xll.qlRateHelperEarliestDate($F14)</f>
-        <v>41953</v>
-      </c>
-      <c r="K14" s="152">
+        <v>41968</v>
+      </c>
+      <c r="K14" s="149">
         <f>_xll.qlRateHelperLatestDate($F14)</f>
-        <v>41960</v>
+        <v>41975</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -4452,13 +4503,13 @@
       <c r="I15" s="86">
         <v>1</v>
       </c>
-      <c r="J15" s="153">
+      <c r="J15" s="150">
         <f>_xll.qlRateHelperEarliestDate($F15)</f>
-        <v>41953</v>
-      </c>
-      <c r="K15" s="154">
+        <v>41968</v>
+      </c>
+      <c r="K15" s="151">
         <f>_xll.qlRateHelperLatestDate($F15)</f>
-        <v>41967</v>
+        <v>41982</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -4487,13 +4538,13 @@
       <c r="I16" s="86">
         <v>1</v>
       </c>
-      <c r="J16" s="153">
+      <c r="J16" s="150">
         <f>_xll.qlRateHelperEarliestDate($F16)</f>
-        <v>41953</v>
-      </c>
-      <c r="K16" s="154">
+        <v>41968</v>
+      </c>
+      <c r="K16" s="151">
         <f>_xll.qlRateHelperLatestDate($F16)</f>
-        <v>41974</v>
+        <v>41989</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
@@ -4522,13 +4573,13 @@
       <c r="I17" s="86">
         <v>1</v>
       </c>
-      <c r="J17" s="153">
+      <c r="J17" s="150">
         <f>_xll.qlRateHelperEarliestDate($F17)</f>
-        <v>41953</v>
-      </c>
-      <c r="K17" s="154">
+        <v>41968</v>
+      </c>
+      <c r="K17" s="151">
         <f>_xll.qlRateHelperLatestDate($F17)</f>
-        <v>41983</v>
+        <v>42002</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
@@ -4557,13 +4608,13 @@
       <c r="I18" s="86">
         <v>1</v>
       </c>
-      <c r="J18" s="153">
+      <c r="J18" s="150">
         <f>_xll.qlRateHelperEarliestDate($F18)</f>
-        <v>41953</v>
-      </c>
-      <c r="K18" s="154">
+        <v>41968</v>
+      </c>
+      <c r="K18" s="151">
         <f>_xll.qlRateHelperLatestDate($F18)</f>
-        <v>42016</v>
+        <v>42030</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
@@ -4592,13 +4643,13 @@
       <c r="I19" s="86">
         <v>1</v>
       </c>
-      <c r="J19" s="153">
+      <c r="J19" s="150">
         <f>_xll.qlRateHelperEarliestDate($F19)</f>
-        <v>41953</v>
-      </c>
-      <c r="K19" s="154">
+        <v>41968</v>
+      </c>
+      <c r="K19" s="151">
         <f>_xll.qlRateHelperLatestDate($F19)</f>
-        <v>42045</v>
+        <v>42060</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
@@ -4627,13 +4678,13 @@
       <c r="I20" s="86">
         <v>1</v>
       </c>
-      <c r="J20" s="153">
+      <c r="J20" s="150">
         <f>_xll.qlRateHelperEarliestDate($F20)</f>
-        <v>41953</v>
-      </c>
-      <c r="K20" s="154">
+        <v>41968</v>
+      </c>
+      <c r="K20" s="151">
         <f>_xll.qlRateHelperLatestDate($F20)</f>
-        <v>42073</v>
+        <v>42088</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
@@ -4662,13 +4713,13 @@
       <c r="I21" s="86">
         <v>1</v>
       </c>
-      <c r="J21" s="153">
+      <c r="J21" s="150">
         <f>_xll.qlRateHelperEarliestDate($F21)</f>
-        <v>41953</v>
-      </c>
-      <c r="K21" s="154">
+        <v>41968</v>
+      </c>
+      <c r="K21" s="151">
         <f>_xll.qlRateHelperLatestDate($F21)</f>
-        <v>42104</v>
+        <v>42121</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
@@ -4697,13 +4748,13 @@
       <c r="I22" s="86">
         <v>1</v>
       </c>
-      <c r="J22" s="153">
+      <c r="J22" s="150">
         <f>_xll.qlRateHelperEarliestDate($F22)</f>
-        <v>41953</v>
-      </c>
-      <c r="K22" s="154">
+        <v>41968</v>
+      </c>
+      <c r="K22" s="151">
         <f>_xll.qlRateHelperLatestDate($F22)</f>
-        <v>42135</v>
+        <v>42149</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
@@ -4732,13 +4783,13 @@
       <c r="I23" s="86">
         <v>1</v>
       </c>
-      <c r="J23" s="153">
+      <c r="J23" s="150">
         <f>_xll.qlRateHelperEarliestDate($F23)</f>
-        <v>41953</v>
-      </c>
-      <c r="K23" s="154">
+        <v>41968</v>
+      </c>
+      <c r="K23" s="151">
         <f>_xll.qlRateHelperLatestDate($F23)</f>
-        <v>42165</v>
+        <v>42180</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
@@ -4767,13 +4818,13 @@
       <c r="I24" s="86">
         <v>1</v>
       </c>
-      <c r="J24" s="153">
+      <c r="J24" s="150">
         <f>_xll.qlRateHelperEarliestDate($F24)</f>
-        <v>41953</v>
-      </c>
-      <c r="K24" s="154">
+        <v>41968</v>
+      </c>
+      <c r="K24" s="151">
         <f>_xll.qlRateHelperLatestDate($F24)</f>
-        <v>42195</v>
+        <v>42212</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
@@ -4802,13 +4853,13 @@
       <c r="I25" s="86">
         <v>1</v>
       </c>
-      <c r="J25" s="153">
+      <c r="J25" s="150">
         <f>_xll.qlRateHelperEarliestDate($F25)</f>
-        <v>41953</v>
-      </c>
-      <c r="K25" s="154">
+        <v>41968</v>
+      </c>
+      <c r="K25" s="151">
         <f>_xll.qlRateHelperLatestDate($F25)</f>
-        <v>42226</v>
+        <v>42241</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
@@ -4837,13 +4888,13 @@
       <c r="I26" s="86">
         <v>1</v>
       </c>
-      <c r="J26" s="153">
+      <c r="J26" s="150">
         <f>_xll.qlRateHelperEarliestDate($F26)</f>
-        <v>41953</v>
-      </c>
-      <c r="K26" s="154">
+        <v>41968</v>
+      </c>
+      <c r="K26" s="151">
         <f>_xll.qlRateHelperLatestDate($F26)</f>
-        <v>42257</v>
+        <v>42272</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
@@ -4872,13 +4923,13 @@
       <c r="I27" s="86">
         <v>1</v>
       </c>
-      <c r="J27" s="153">
+      <c r="J27" s="150">
         <f>_xll.qlRateHelperEarliestDate($F27)</f>
-        <v>41953</v>
-      </c>
-      <c r="K27" s="154">
+        <v>41968</v>
+      </c>
+      <c r="K27" s="151">
         <f>_xll.qlRateHelperLatestDate($F27)</f>
-        <v>42289</v>
+        <v>42303</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
@@ -4907,13 +4958,13 @@
       <c r="I28" s="86">
         <v>1</v>
       </c>
-      <c r="J28" s="153">
+      <c r="J28" s="150">
         <f>_xll.qlRateHelperEarliestDate($F28)</f>
-        <v>41953</v>
-      </c>
-      <c r="K28" s="154">
+        <v>41968</v>
+      </c>
+      <c r="K28" s="151">
         <f>_xll.qlRateHelperLatestDate($F28)</f>
-        <v>42318</v>
+        <v>42333</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
@@ -4942,13 +4993,13 @@
       <c r="I29" s="86">
         <v>1</v>
       </c>
-      <c r="J29" s="153">
+      <c r="J29" s="150">
         <f>_xll.qlRateHelperEarliestDate($F29)</f>
-        <v>41953</v>
-      </c>
-      <c r="K29" s="154">
+        <v>41968</v>
+      </c>
+      <c r="K29" s="151">
         <f>_xll.qlRateHelperLatestDate($F29)</f>
-        <v>42410</v>
+        <v>42425</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
@@ -4977,13 +5028,13 @@
       <c r="I30" s="86">
         <v>1</v>
       </c>
-      <c r="J30" s="153">
+      <c r="J30" s="150">
         <f>_xll.qlRateHelperEarliestDate($F30)</f>
-        <v>41953</v>
-      </c>
-      <c r="K30" s="154">
+        <v>41968</v>
+      </c>
+      <c r="K30" s="151">
         <f>_xll.qlRateHelperLatestDate($F30)</f>
-        <v>42500</v>
+        <v>42515</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
@@ -5012,13 +5063,13 @@
       <c r="I31" s="86">
         <v>1</v>
       </c>
-      <c r="J31" s="153">
+      <c r="J31" s="150">
         <f>_xll.qlRateHelperEarliestDate($F31)</f>
-        <v>41953</v>
-      </c>
-      <c r="K31" s="154">
+        <v>41968</v>
+      </c>
+      <c r="K31" s="151">
         <f>_xll.qlRateHelperLatestDate($F31)</f>
-        <v>42592</v>
+        <v>42607</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
@@ -5047,13 +5098,13 @@
       <c r="I32" s="86">
         <v>1</v>
       </c>
-      <c r="J32" s="153">
+      <c r="J32" s="150">
         <f>_xll.qlRateHelperEarliestDate($F32)</f>
-        <v>41953</v>
-      </c>
-      <c r="K32" s="154">
+        <v>41968</v>
+      </c>
+      <c r="K32" s="151">
         <f>_xll.qlRateHelperLatestDate($F32)</f>
-        <v>42684</v>
+        <v>42699</v>
       </c>
     </row>
     <row r="33" spans="4:11" x14ac:dyDescent="0.2">
@@ -5117,7 +5168,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:BK130"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5197,31 +5250,31 @@
     <row r="1" spans="1:63" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="O1" s="51">
         <f>MAX(O5:O129)</f>
-        <v>0.99997810597674508</v>
+        <v>0.99999052005244438</v>
       </c>
       <c r="S1" s="51">
         <f>MAX(S5:S129)</f>
-        <v>0.99998168884441108</v>
+        <v>1</v>
       </c>
       <c r="W1" s="51">
         <f>MAX(W5:W129)</f>
-        <v>0.99997943805537803</v>
+        <v>0.99999091128401929</v>
       </c>
       <c r="AA1" s="51">
         <f>MAX(AA5:AA129)</f>
-        <v>0.99997169195789948</v>
+        <v>0.99998642351961242</v>
       </c>
       <c r="AE1" s="51">
         <f>MAX(AE5:AE129)</f>
-        <v>0.99998309779957173</v>
+        <v>0.99999690371626371</v>
       </c>
       <c r="AI1" s="51">
         <f>MAX(AI5:AI129)</f>
-        <v>1</v>
+        <v>0.99999788032628345</v>
       </c>
       <c r="AM1" s="51">
         <f>MAX(AM5:AM129)</f>
-        <v>1</v>
+        <v>0.99999370127260956</v>
       </c>
       <c r="AQ1" s="51">
         <f>MAX(AQ5:AQ129)</f>
@@ -5237,15 +5290,15 @@
       </c>
       <c r="BC1" s="51">
         <f>MAX(BC5:BC129)</f>
-        <v>1</v>
+        <v>0.99999336270309624</v>
       </c>
       <c r="BG1" s="51">
         <f>MAX(BG5:BG129)</f>
-        <v>1</v>
+        <v>0.99999166673611051</v>
       </c>
       <c r="BK1" s="51">
         <f>MAX(BK5:BK129)</f>
-        <v>0.99996102662516717</v>
+        <v>0.99994444753069278</v>
       </c>
     </row>
     <row r="2" spans="1:63" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -5404,16 +5457,16 @@
       </c>
     </row>
     <row r="3" spans="1:63" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="146" t="s">
+      <c r="A3" s="143" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="144" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="148" t="s">
+      <c r="C3" s="144" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="145" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="71"/>
@@ -5436,7 +5489,7 @@
       <c r="L3" s="100"/>
       <c r="M3" s="116" t="str">
         <f>_xll.qlInterpolation(,FwdInterpolation,_xll.ohFilter($F5:$F129,M5:M129),_xll.ohFilter(J5:J129,M5:M129))</f>
-        <v>obj_0049b#0171</v>
+        <v>obj_0048f#0208</v>
       </c>
       <c r="N3" s="117" t="s">
         <v>70</v>
@@ -5447,7 +5500,7 @@
       <c r="P3" s="108"/>
       <c r="Q3" s="116" t="str">
         <f>_xll.qlInterpolation(,FwdInterpolation,_xll.ohFilter($F5:$F129,Q5:Q129),_xll.ohFilter(N5:N129,Q5:Q129))</f>
-        <v>obj_0049c#0185</v>
+        <v>obj_00490#0246</v>
       </c>
       <c r="R3" s="117" t="s">
         <v>70</v>
@@ -5458,7 +5511,7 @@
       <c r="T3" s="109"/>
       <c r="U3" s="116" t="str">
         <f>_xll.qlInterpolation(,FwdInterpolation,_xll.ohFilter($F5:$F129,U5:U129),_xll.ohFilter(R5:R129,U5:U129))</f>
-        <v>obj_0049d#0187</v>
+        <v>obj_00491#0255</v>
       </c>
       <c r="V3" s="117" t="s">
         <v>70</v>
@@ -5469,7 +5522,7 @@
       <c r="X3" s="109"/>
       <c r="Y3" s="116" t="str">
         <f>_xll.qlInterpolation(,FwdInterpolation,_xll.ohFilter($F5:$F129,Y5:Y129),_xll.ohFilter(V5:V129,Y5:Y129))</f>
-        <v>obj_0049e#0191</v>
+        <v>obj_00492#0273</v>
       </c>
       <c r="Z3" s="117" t="s">
         <v>70</v>
@@ -5480,7 +5533,7 @@
       <c r="AB3" s="109"/>
       <c r="AC3" s="116" t="str">
         <f>_xll.qlInterpolation(,FwdInterpolation,_xll.ohFilter($F5:$F129,AC5:AC129),_xll.ohFilter(Z5:Z129,AC5:AC129))</f>
-        <v>obj_0049f#0194</v>
+        <v>obj_00493#0281</v>
       </c>
       <c r="AD3" s="117" t="s">
         <v>70</v>
@@ -5491,7 +5544,7 @@
       <c r="AF3" s="109"/>
       <c r="AG3" s="116" t="str">
         <f>_xll.qlInterpolation(,FwdInterpolation,_xll.ohFilter($F5:$F129,AG5:AG129),_xll.ohFilter(AD5:AD129,AG5:AG129))</f>
-        <v>obj_004a0#0198</v>
+        <v>obj_00494#0293</v>
       </c>
       <c r="AH3" s="117" t="s">
         <v>70</v>
@@ -5502,7 +5555,7 @@
       <c r="AJ3" s="109"/>
       <c r="AK3" s="116" t="str">
         <f>_xll.qlInterpolation(,FwdInterpolation,_xll.ohFilter($F5:$F129,AK5:AK129),_xll.ohFilter(AH5:AH129,AK5:AK129))</f>
-        <v>obj_004a1#0207</v>
+        <v>obj_00495#0299</v>
       </c>
       <c r="AL3" s="117" t="s">
         <v>70</v>
@@ -5512,7 +5565,7 @@
       </c>
       <c r="AO3" s="116" t="str">
         <f>_xll.qlInterpolation(,FwdInterpolation,_xll.ohFilter($F5:$F129,AO5:AO129),_xll.ohFilter(AL5:AL129,AO5:AO129))</f>
-        <v>obj_004a2#0214</v>
+        <v>obj_00496#0304</v>
       </c>
       <c r="AP3" s="117" t="s">
         <v>70</v>
@@ -5522,7 +5575,7 @@
       </c>
       <c r="AS3" s="116" t="str">
         <f>_xll.qlInterpolation(,FwdInterpolation,_xll.ohFilter($F5:$F129,AS5:AS129),_xll.ohFilter(AP5:AP129,AS5:AS129))</f>
-        <v>obj_004a3#0218</v>
+        <v>obj_00497#0306</v>
       </c>
       <c r="AT3" s="117" t="s">
         <v>70</v>
@@ -5532,7 +5585,7 @@
       </c>
       <c r="AW3" s="116" t="str">
         <f>_xll.qlInterpolation(,FwdInterpolation,_xll.ohFilter($F5:$F129,AW5:AW129),_xll.ohFilter(AT5:AT129,AW5:AW129))</f>
-        <v>obj_004a4#0226</v>
+        <v>obj_00498#0307</v>
       </c>
       <c r="AX3" s="117" t="s">
         <v>70</v>
@@ -5542,7 +5595,7 @@
       </c>
       <c r="BA3" s="116" t="str">
         <f>_xll.qlInterpolation(,FwdInterpolation,_xll.ohFilter($F5:$F129,BA5:BA129),_xll.ohFilter(AX5:AX129,BA5:BA129))</f>
-        <v>obj_004a5#0230</v>
+        <v>obj_00499#0314</v>
       </c>
       <c r="BB3" s="117" t="s">
         <v>70</v>
@@ -5552,7 +5605,7 @@
       </c>
       <c r="BE3" s="116" t="str">
         <f>_xll.qlInterpolation(,FwdInterpolation,_xll.ohFilter($F5:$F129,BE5:BE129),_xll.ohFilter(BB5:BB129,BE5:BE129))</f>
-        <v>obj_004a6#0234</v>
+        <v>obj_0049a#0316</v>
       </c>
       <c r="BF3" s="117" t="s">
         <v>70</v>
@@ -5562,7 +5615,7 @@
       </c>
       <c r="BI3" s="116" t="str">
         <f>_xll.qlInterpolation(,FwdInterpolation,_xll.ohFilter($F5:$F129,BI5:BI129),_xll.ohFilter(BF5:BF129,BI5:BI129))</f>
-        <v>obj_004a7#0238</v>
+        <v>obj_0049b#0319</v>
       </c>
       <c r="BJ3" s="117" t="s">
         <v>70</v>
@@ -5572,92 +5625,92 @@
       </c>
     </row>
     <row r="4" spans="1:63" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="144"/>
-      <c r="B4" s="145"/>
-      <c r="C4" s="145"/>
+      <c r="A4" s="141"/>
+      <c r="B4" s="142"/>
+      <c r="C4" s="142"/>
       <c r="D4" s="31">
         <f>'General Settings'!C22</f>
-        <v>41953</v>
+        <v>41968</v>
       </c>
       <c r="F4" s="124"/>
       <c r="G4" s="125"/>
       <c r="I4" s="106" t="b">
         <v>0</v>
       </c>
-      <c r="J4" s="140">
+      <c r="J4" s="137">
         <f t="array" ref="J4:J129">_xll.qlPiecewiseYieldCurveData(YieldCurve,InterestRatesTrigger)</f>
-        <v>-3.200009954744748E-4</v>
+        <v>3.4999880903822733E-4</v>
       </c>
       <c r="K4" s="111">
         <f>D4</f>
-        <v>41953</v>
+        <v>41968</v>
       </c>
       <c r="M4" s="106" t="b">
         <v>1</v>
       </c>
-      <c r="N4" s="164"/>
+      <c r="N4" s="154"/>
       <c r="O4" s="115">
         <f>-LN(MAX(O5:O33))/O$2</f>
-        <v>2.6273115519054938E-3</v>
+        <v>1.1375990988732956E-3</v>
       </c>
       <c r="P4" s="108"/>
       <c r="Q4" s="106" t="b">
         <v>1</v>
       </c>
-      <c r="R4" s="164"/>
+      <c r="R4" s="154"/>
       <c r="S4" s="115">
         <f>-LN(MAX(S5:S33))/S$2</f>
-        <v>3.2960381832323649E-3</v>
+        <v>0</v>
       </c>
       <c r="T4" s="109"/>
       <c r="U4" s="106" t="b">
         <v>1</v>
       </c>
-      <c r="V4" s="164"/>
+      <c r="V4" s="154"/>
       <c r="W4" s="115">
         <f>-LN(MAX(W5:W33))/W$2</f>
-        <v>2.4674587225976927E-3</v>
+        <v>1.0906508740006731E-3</v>
       </c>
       <c r="X4" s="109"/>
       <c r="Y4" s="106" t="b">
         <v>1</v>
       </c>
-      <c r="Z4" s="164"/>
+      <c r="Z4" s="154"/>
       <c r="AA4" s="115">
         <f>-LN(MAX(AA5:AA33))/AA$2</f>
-        <v>3.3970131336849155E-3</v>
+        <v>1.6291887058586644E-3</v>
       </c>
       <c r="AB4" s="109"/>
       <c r="AC4" s="106" t="b">
         <v>1</v>
       </c>
-      <c r="AD4" s="164"/>
+      <c r="AD4" s="154"/>
       <c r="AE4" s="115">
         <f>-LN(MAX(AE5:AE33))/AE$2</f>
-        <v>6.0848435779450706E-3</v>
+        <v>1.1146638707239791E-3</v>
       </c>
       <c r="AF4" s="109"/>
       <c r="AG4" s="106" t="b">
         <v>1</v>
       </c>
-      <c r="AH4" s="164"/>
+      <c r="AH4" s="154"/>
       <c r="AI4" s="115">
         <f>-LN(MAX(AI5:AI33))/AI$2</f>
-        <v>0</v>
+        <v>1.9077083667550337E-4</v>
       </c>
       <c r="AJ4" s="109"/>
       <c r="AK4" s="106" t="b">
         <v>1</v>
       </c>
-      <c r="AL4" s="164"/>
+      <c r="AL4" s="154"/>
       <c r="AM4" s="115">
         <f>-LN(MAX(AM5:AM33))/AM$2</f>
-        <v>0</v>
+        <v>7.5584966730096216E-4</v>
       </c>
       <c r="AO4" s="106" t="b">
         <v>1</v>
       </c>
-      <c r="AP4" s="164"/>
+      <c r="AP4" s="154"/>
       <c r="AQ4" s="115">
         <f>-LN(MAX(AQ5:AQ33))/AQ$2</f>
         <v>0</v>
@@ -5665,7 +5718,7 @@
       <c r="AS4" s="106" t="b">
         <v>1</v>
       </c>
-      <c r="AT4" s="164"/>
+      <c r="AT4" s="154"/>
       <c r="AU4" s="115">
         <f>-LN(MAX(AU5:AU33))/AU$2</f>
         <v>0</v>
@@ -5673,7 +5726,7 @@
       <c r="AW4" s="106" t="b">
         <v>1</v>
       </c>
-      <c r="AX4" s="164"/>
+      <c r="AX4" s="154"/>
       <c r="AY4" s="115">
         <f>-LN(MAX(AY5:AY33))/AY$2</f>
         <v>0</v>
@@ -5681,26 +5734,26 @@
       <c r="BA4" s="106" t="b">
         <v>1</v>
       </c>
-      <c r="BB4" s="164"/>
+      <c r="BB4" s="154"/>
       <c r="BC4" s="115">
         <f>-LN(MAX(BC5:BC33))/BC$2</f>
-        <v>0</v>
+        <v>2.3894348150548523E-3</v>
       </c>
       <c r="BE4" s="106" t="b">
         <v>1</v>
       </c>
-      <c r="BF4" s="164"/>
+      <c r="BF4" s="154"/>
       <c r="BG4" s="115">
         <f>-LN(MAX(BG5:BG33))/BG$2</f>
-        <v>0</v>
+        <v>9.9999583335951274E-4</v>
       </c>
       <c r="BI4" s="106" t="b">
         <v>1</v>
       </c>
-      <c r="BJ4" s="164"/>
+      <c r="BJ4" s="154"/>
       <c r="BK4" s="115">
         <f>-LN(MAX(BK5:BK33))/BK$2</f>
-        <v>3.5076720883081666E-3</v>
+        <v>4.9998611162511272E-3</v>
       </c>
     </row>
     <row r="5" spans="1:63" x14ac:dyDescent="0.2">
@@ -5710,48 +5763,48 @@
       </c>
       <c r="B5" s="27">
         <f>_xll.qlRateHelperRate($A5,InterestRatesTrigger)</f>
-        <v>-3.1999999999999992E-4</v>
+        <v>3.4999999999999994E-4</v>
       </c>
       <c r="C5" s="30">
         <f>_xll.qlRateHelperEarliestDate($A5)</f>
-        <v>41953</v>
+        <v>41968</v>
       </c>
       <c r="D5" s="31">
         <f>_xll.qlRateHelperLatestDate($A5)</f>
-        <v>41960</v>
+        <v>41975</v>
       </c>
       <c r="F5" s="120">
         <f t="shared" ref="F5:F30" si="0">IF(ISERROR(D5),NA(),(D5-D4)/2+D4)</f>
-        <v>41956.5</v>
+        <v>41971.5</v>
       </c>
       <c r="G5" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D4,D5)</f>
         <v>1.9444444444444445E-2</v>
       </c>
       <c r="H5" s="28"/>
-      <c r="I5" s="141" t="b">
+      <c r="I5" s="138" t="b">
         <f>IF(ISERROR(K5),FALSE,IF(OR(MONTH(K5)-MONTH(K4)=1,YEAR(K5)-YEAR(K4)=1),FALSE,TRUE))</f>
-        <v>1</v>
-      </c>
-      <c r="J5" s="140">
-        <v>-3.200009954744748E-4</v>
+        <v>0</v>
+      </c>
+      <c r="J5" s="137">
+        <v>3.4999880903822733E-4</v>
       </c>
       <c r="K5" s="111">
         <f>D5</f>
-        <v>41960</v>
+        <v>41975</v>
       </c>
       <c r="L5" s="100"/>
       <c r="M5" s="106" t="b">
         <f>IF(AND(NOT(I5),AND(I$4:I4)),TRUE,I5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M5),AND(M$4:M4))),($J5*$G5-LN(1+Jumpoverwrite1*O$2))/$G5,_xll.qlInterpolationInterpolate(M$3,$F5,TRUE))</f>
-        <v>-3.200009954744748E-4</v>
-      </c>
-      <c r="O5" s="107" t="str">
+        <v>-1.3754366190552641E-4</v>
+      </c>
+      <c r="O5" s="107">
         <f>IF(AND(NOT(M5),AND(M$4:M4)),MIN(EXP((N5-$J5)*$G5),1),"")</f>
-        <v/>
+        <v>0.99999052005244438</v>
       </c>
       <c r="P5" s="108"/>
       <c r="Q5" s="106" t="b">
@@ -5760,7 +5813,7 @@
       </c>
       <c r="R5" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q5),AND(Q$4:Q4))),($J5*$G5-LN(1+Jumpoverwrite2*S$2))/$G5,_xll.qlInterpolationInterpolate(Q$3,$F5,TRUE))</f>
-        <v>-3.200009954744748E-4</v>
+        <v>-1.3754366190552641E-4</v>
       </c>
       <c r="S5" s="107" t="str">
         <f>IF(AND(NOT(Q5),AND(Q$4:Q4)),MIN(EXP((R5-$J5)*$G5),1),"")</f>
@@ -5773,7 +5826,7 @@
       </c>
       <c r="V5" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U5),AND(U$4:U4))),($J5*$G5-LN(1+Jumpoverwrite3*W$2))/$G5,_xll.qlInterpolationInterpolate(U$3,$F5,TRUE))</f>
-        <v>-3.200009954744748E-4</v>
+        <v>-1.3754366190552641E-4</v>
       </c>
       <c r="W5" s="107" t="str">
         <f>IF(AND(NOT(U5),AND(U$4:U4)),MIN(EXP((V5-$J5)*$G5),1),"")</f>
@@ -5786,7 +5839,7 @@
       </c>
       <c r="Z5" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y5),AND(Y$4:Y4))),($J5*$G5-LN(1+Jumpoverwrite4*AA$2))/$G5,_xll.qlInterpolationInterpolate(Y$3,$F5,TRUE))</f>
-        <v>-3.200009954744748E-4</v>
+        <v>-1.3754366190552641E-4</v>
       </c>
       <c r="AA5" s="107" t="str">
         <f>IF(AND(NOT(Y5),AND(Y$4:Y4)),MIN(EXP((Z5-$J5)*$G5),1),"")</f>
@@ -5799,7 +5852,7 @@
       </c>
       <c r="AD5" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC5),AND(AC$4:AC4))),($J5*$G5-LN(1+Jumpoverwrite5*AE$2))/$G5,_xll.qlInterpolationInterpolate(AC$3,$F5,TRUE))</f>
-        <v>-3.200009954744748E-4</v>
+        <v>-1.3754366190552641E-4</v>
       </c>
       <c r="AE5" s="107" t="str">
         <f>IF(AND(NOT(AC5),AND(AC$4:AC4)),MIN(EXP((AD5-$J5)*$G5),1),"")</f>
@@ -5812,7 +5865,7 @@
       </c>
       <c r="AH5" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG5),AND(AG$4:AG4))),($J5*$G5-LN(1+Jumpoverwrite6*AI$2))/$G5,_xll.qlInterpolationInterpolate(AG$3,$F5,TRUE))</f>
-        <v>-3.200009954744748E-4</v>
+        <v>-1.3754366190552641E-4</v>
       </c>
       <c r="AI5" s="107" t="str">
         <f>IF(AND(NOT(AG5),AND(AG$4:AG4)),MIN(EXP((AH5-$J5)*$G5),1),"")</f>
@@ -5825,7 +5878,7 @@
       </c>
       <c r="AL5" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK5),AND(AK$4:AK4))),($J5*$G5-LN(1+Jumpoverwrite7*AM$2))/$G5,_xll.qlInterpolationInterpolate(AK$3,$F5,TRUE))</f>
-        <v>-3.200009954744748E-4</v>
+        <v>-1.3754366190552641E-4</v>
       </c>
       <c r="AM5" s="107" t="str">
         <f>IF(AND(NOT(AK5),AND(AK$4:AK4)),MIN(EXP((AL5-$J5)*$G5),1),"")</f>
@@ -5837,7 +5890,7 @@
       </c>
       <c r="AP5" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO5),AND(AO$4:AO4))),($J5*$G5-LN(1+Jumpoverwrite8*AQ$2))/$G5,_xll.qlInterpolationInterpolate(AO$3,$F5,TRUE))</f>
-        <v>-3.200009954744748E-4</v>
+        <v>-1.3754366190552641E-4</v>
       </c>
       <c r="AQ5" s="107" t="str">
         <f>IF(AND(NOT(AO5),AND(AO$4:AO4)),MIN(EXP((AP5-$J5)*$G5),1),"")</f>
@@ -5849,7 +5902,7 @@
       </c>
       <c r="AT5" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS5),AND(AS$4:AS4))),($J5*$G5-LN(1+Jumpoverwrite9*AU$2))/$G5,_xll.qlInterpolationInterpolate(AS$3,$F5,TRUE))</f>
-        <v>-3.200009954744748E-4</v>
+        <v>-1.3754366190552641E-4</v>
       </c>
       <c r="AU5" s="107" t="str">
         <f>IF(AND(NOT(AS5),AND(AS$4:AS4)),MIN(EXP((AT5-$J5)*$G5),1),"")</f>
@@ -5861,7 +5914,7 @@
       </c>
       <c r="AX5" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW5),AND(AW$4:AW4))),($J5*$G5-LN(1+Jumpoverwrite10*AY$2))/$G5,_xll.qlInterpolationInterpolate(AW$3,$F5,TRUE))</f>
-        <v>-3.200009954744748E-4</v>
+        <v>-1.3754366190552641E-4</v>
       </c>
       <c r="AY5" s="107" t="str">
         <f>IF(AND(NOT(AW5),AND(AW$4:AW4)),MIN(EXP((AX5-$J5)*$G5),1),"")</f>
@@ -5873,7 +5926,7 @@
       </c>
       <c r="BB5" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA5),AND(BA$4:BA4))),($J5*$G5-LN(1+Jumpoverwrite11*BC$2))/$G5,_xll.qlInterpolationInterpolate(BA$3,$F5,TRUE))</f>
-        <v>-3.200009954744748E-4</v>
+        <v>-1.3754366190552641E-4</v>
       </c>
       <c r="BC5" s="107" t="str">
         <f>IF(AND(NOT(BA5),AND(BA$4:BA4)),MIN(EXP((BB5-$J5)*$G5),1),"")</f>
@@ -5885,7 +5938,7 @@
       </c>
       <c r="BF5" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE5),AND(BE$4:BE4))),($J5*$G5-LN(1+Jumpoverwrite12*BG$2))/$G5,_xll.qlInterpolationInterpolate(BE$3,$F5,TRUE))</f>
-        <v>-3.200009954744748E-4</v>
+        <v>-1.3754366190552641E-4</v>
       </c>
       <c r="BG5" s="107" t="str">
         <f>IF(AND(NOT(BE5),AND(BE$4:BE4)),MIN(EXP((BF5-$J5)*$G5),1),"")</f>
@@ -5897,7 +5950,7 @@
       </c>
       <c r="BJ5" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI5),AND(BI$4:BI4))),($J5*$G5-LN(1+jumpoverwrite13*BK$2))/$G5,_xll.qlInterpolationInterpolate(BI$3,$F5,TRUE))</f>
-        <v>-3.200009954744748E-4</v>
+        <v>-1.3754366190552641E-4</v>
       </c>
       <c r="BK5" s="107" t="str">
         <f>IF(AND(NOT(BI5),AND(BI$4:BI4)),MIN(EXP((BJ5-$J5)*$G5),1),"")</f>
@@ -5906,52 +5959,52 @@
     </row>
     <row r="6" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A6" s="94" t="str">
-        <v>WEURECBOISNOV14</v>
+        <v>WEUREON1M</v>
       </c>
       <c r="B6" s="27">
         <f>_xll.qlRateHelperRate($A6,InterestRatesTrigger)</f>
-        <v>-9.9999999999999991E-5</v>
+        <v>-2.9999999999999974E-5</v>
       </c>
       <c r="C6" s="30">
         <f>_xll.qlRateHelperEarliestDate($A6)</f>
-        <v>41955</v>
+        <v>41968</v>
       </c>
       <c r="D6" s="31">
         <f>_xll.qlRateHelperLatestDate($A6)</f>
-        <v>41983</v>
+        <v>42002</v>
       </c>
       <c r="F6" s="120">
         <f t="shared" si="0"/>
-        <v>41971.5</v>
+        <v>41988.5</v>
       </c>
       <c r="G6" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D5,D6)</f>
-        <v>6.3888888888888884E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="H6" s="28"/>
-      <c r="I6" s="141" t="b">
+      <c r="I6" s="138" t="b">
         <f t="shared" ref="I6:I69" si="2">IF(ISERROR(K6),FALSE,IF(OR(MONTH(K6)-MONTH(K5)=1,YEAR(K6)-YEAR(K5)=1),FALSE,TRUE))</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="140">
-        <v>-5.2174170041138219E-5</v>
+        <v>1</v>
+      </c>
+      <c r="J6" s="137">
+        <v>-1.2851826326967889E-4</v>
       </c>
       <c r="K6" s="111">
         <f t="shared" ref="K6:K69" si="3">D6</f>
-        <v>41983</v>
+        <v>42002</v>
       </c>
       <c r="L6" s="100"/>
       <c r="M6" s="106" t="b">
         <f>IF(AND(NOT(I6),AND(I$4:I5)),TRUE,I6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M6),AND(M$4:M5))),($J6*$G6-LN(1+Jumpoverwrite1*O$2))/$G6,_xll.qlInterpolationInterpolate(M$3,$F6,TRUE))</f>
-        <v>-3.9486698115837759E-4</v>
-      </c>
-      <c r="O6" s="107">
+        <v>-1.2851826326967889E-4</v>
+      </c>
+      <c r="O6" s="107" t="str">
         <f>IF(AND(NOT(M6),AND(M$4:M5)),MIN(EXP((N6-$J6)*$G6),1),"")</f>
-        <v>0.99997810597674508</v>
+        <v/>
       </c>
       <c r="P6" s="109"/>
       <c r="Q6" s="106" t="b">
@@ -5960,7 +6013,7 @@
       </c>
       <c r="R6" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q6),AND(Q$4:Q5))),($J6*$G6-LN(1+Jumpoverwrite2*S$2))/$G6,_xll.qlInterpolationInterpolate(Q$3,$F6,TRUE))</f>
-        <v>-3.9486698115837759E-4</v>
+        <v>-1.2851826326967889E-4</v>
       </c>
       <c r="S6" s="107" t="str">
         <f>IF(AND(NOT(Q6),AND(Q$4:Q5)),MIN(EXP((R6-$J6)*$G6),1),"")</f>
@@ -5973,7 +6026,7 @@
       </c>
       <c r="V6" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U6),AND(U$4:U5))),($J6*$G6-LN(1+Jumpoverwrite3*W$2))/$G6,_xll.qlInterpolationInterpolate(U$3,$F6,TRUE))</f>
-        <v>-3.9486698115837759E-4</v>
+        <v>-1.2851826326967889E-4</v>
       </c>
       <c r="W6" s="107" t="str">
         <f>IF(AND(NOT(U6),AND(U$4:U5)),MIN(EXP((V6-$J6)*$G6),1),"")</f>
@@ -5986,7 +6039,7 @@
       </c>
       <c r="Z6" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y6),AND(Y$4:Y5))),($J6*$G6-LN(1+Jumpoverwrite4*AA$2))/$G6,_xll.qlInterpolationInterpolate(Y$3,$F6,TRUE))</f>
-        <v>-3.9486698115837759E-4</v>
+        <v>-1.2851826326967889E-4</v>
       </c>
       <c r="AA6" s="107" t="str">
         <f>IF(AND(NOT(Y6),AND(Y$4:Y5)),MIN(EXP((Z6-$J6)*$G6),1),"")</f>
@@ -5999,7 +6052,7 @@
       </c>
       <c r="AD6" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC6),AND(AC$4:AC5))),($J6*$G6-LN(1+Jumpoverwrite5*AE$2))/$G6,_xll.qlInterpolationInterpolate(AC$3,$F6,TRUE))</f>
-        <v>-3.9486698115837759E-4</v>
+        <v>-1.2851826326967889E-4</v>
       </c>
       <c r="AE6" s="107" t="str">
         <f>IF(AND(NOT(AC6),AND(AC$4:AC5)),MIN(EXP((AD6-$J6)*$G6),1),"")</f>
@@ -6012,7 +6065,7 @@
       </c>
       <c r="AH6" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG6),AND(AG$4:AG5))),($J6*$G6-LN(1+Jumpoverwrite6*AI$2))/$G6,_xll.qlInterpolationInterpolate(AG$3,$F6,TRUE))</f>
-        <v>-3.9486698115837759E-4</v>
+        <v>-1.2851826326967889E-4</v>
       </c>
       <c r="AI6" s="107" t="str">
         <f>IF(AND(NOT(AG6),AND(AG$4:AG5)),MIN(EXP((AH6-$J6)*$G6),1),"")</f>
@@ -6025,7 +6078,7 @@
       </c>
       <c r="AL6" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK6),AND(AK$4:AK5))),($J6*$G6-LN(1+Jumpoverwrite7*AM$2))/$G6,_xll.qlInterpolationInterpolate(AK$3,$F6,TRUE))</f>
-        <v>-3.9486698115837759E-4</v>
+        <v>-1.2851826326967889E-4</v>
       </c>
       <c r="AM6" s="107" t="str">
         <f>IF(AND(NOT(AK6),AND(AK$4:AK5)),MIN(EXP((AL6-$J6)*$G6),1),"")</f>
@@ -6037,7 +6090,7 @@
       </c>
       <c r="AP6" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO6),AND(AO$4:AO5))),($J6*$G6-LN(1+Jumpoverwrite8*AQ$2))/$G6,_xll.qlInterpolationInterpolate(AO$3,$F6,TRUE))</f>
-        <v>-3.9486698115837759E-4</v>
+        <v>-1.2851826326967889E-4</v>
       </c>
       <c r="AQ6" s="107" t="str">
         <f>IF(AND(NOT(AO6),AND(AO$4:AO5)),MIN(EXP((AP6-$J6)*$G6),1),"")</f>
@@ -6049,7 +6102,7 @@
       </c>
       <c r="AT6" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS6),AND(AS$4:AS5))),($J6*$G6-LN(1+Jumpoverwrite9*AU$2))/$G6,_xll.qlInterpolationInterpolate(AS$3,$F6,TRUE))</f>
-        <v>-3.9486698115837759E-4</v>
+        <v>-1.2851826326967889E-4</v>
       </c>
       <c r="AU6" s="107" t="str">
         <f>IF(AND(NOT(AS6),AND(AS$4:AS5)),MIN(EXP((AT6-$J6)*$G6),1),"")</f>
@@ -6061,7 +6114,7 @@
       </c>
       <c r="AX6" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW6),AND(AW$4:AW5))),($J6*$G6-LN(1+Jumpoverwrite10*AY$2))/$G6,_xll.qlInterpolationInterpolate(AW$3,$F6,TRUE))</f>
-        <v>-3.9486698115837759E-4</v>
+        <v>-1.2851826326967889E-4</v>
       </c>
       <c r="AY6" s="107" t="str">
         <f>IF(AND(NOT(AW6),AND(AW$4:AW5)),MIN(EXP((AX6-$J6)*$G6),1),"")</f>
@@ -6073,7 +6126,7 @@
       </c>
       <c r="BB6" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA6),AND(BA$4:BA5))),($J6*$G6-LN(1+Jumpoverwrite11*BC$2))/$G6,_xll.qlInterpolationInterpolate(BA$3,$F6,TRUE))</f>
-        <v>-3.9486698115837759E-4</v>
+        <v>-1.2851826326967889E-4</v>
       </c>
       <c r="BC6" s="107" t="str">
         <f>IF(AND(NOT(BA6),AND(BA$4:BA5)),MIN(EXP((BB6-$J6)*$G6),1),"")</f>
@@ -6085,7 +6138,7 @@
       </c>
       <c r="BF6" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE6),AND(BE$4:BE5))),($J6*$G6-LN(1+Jumpoverwrite12*BG$2))/$G6,_xll.qlInterpolationInterpolate(BE$3,$F6,TRUE))</f>
-        <v>-3.9486698115837759E-4</v>
+        <v>-1.2851826326967889E-4</v>
       </c>
       <c r="BG6" s="107" t="str">
         <f>IF(AND(NOT(BE6),AND(BE$4:BE5)),MIN(EXP((BF6-$J6)*$G6),1),"")</f>
@@ -6097,7 +6150,7 @@
       </c>
       <c r="BJ6" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI6),AND(BI$4:BI5))),($J6*$G6-LN(1+jumpoverwrite13*BK$2))/$G6,_xll.qlInterpolationInterpolate(BI$3,$F6,TRUE))</f>
-        <v>-3.9486698115837759E-4</v>
+        <v>-1.2851826326967889E-4</v>
       </c>
       <c r="BK6" s="107" t="str">
         <f>IF(AND(NOT(BI6),AND(BI$4:BI5)),MIN(EXP((BJ6-$J6)*$G6),1),"")</f>
@@ -6106,38 +6159,38 @@
     </row>
     <row r="7" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A7" s="94" t="str">
-        <v>WEUREON2M</v>
+        <v>WEURECBOISDEC14</v>
       </c>
       <c r="B7" s="27">
         <f>_xll.qlRateHelperRate($A7,InterestRatesTrigger)</f>
-        <v>-2.3000000000000001E-4</v>
+        <v>-1.9000000000000004E-4</v>
       </c>
       <c r="C7" s="30">
         <f>_xll.qlRateHelperEarliestDate($A7)</f>
-        <v>41953</v>
+        <v>41983</v>
       </c>
       <c r="D7" s="31">
         <f>_xll.qlRateHelperLatestDate($A7)</f>
-        <v>42016</v>
+        <v>42032</v>
       </c>
       <c r="F7" s="120">
         <f t="shared" si="0"/>
-        <v>41999.5</v>
+        <v>42017</v>
       </c>
       <c r="G7" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D6,D7)</f>
-        <v>9.166666666666666E-2</v>
-      </c>
-      <c r="I7" s="141" t="b">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="I7" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J7" s="140">
-        <v>-3.3485693120859918E-4</v>
+      <c r="J7" s="137">
+        <v>-2.2894244611445722E-4</v>
       </c>
       <c r="K7" s="111">
         <f t="shared" si="3"/>
-        <v>42016</v>
+        <v>42032</v>
       </c>
       <c r="L7" s="100"/>
       <c r="M7" s="106" t="b">
@@ -6146,7 +6199,7 @@
       </c>
       <c r="N7" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M7),AND(M$4:M6))),($J7*$G7-LN(1+Jumpoverwrite1*O$2))/$G7,_xll.qlInterpolationInterpolate(M$3,$F7,TRUE))</f>
-        <v>-5.3461682110166281E-4</v>
+        <v>-1.1338744790958157E-4</v>
       </c>
       <c r="O7" s="107" t="str">
         <f>IF(AND(NOT(M7),AND(M$4:M6)),MIN(EXP((N7-$J7)*$G7),1),"")</f>
@@ -6159,11 +6212,11 @@
       </c>
       <c r="R7" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q7),AND(Q$4:Q6))),($J7*$G7-LN(1+Jumpoverwrite2*S$2))/$G7,_xll.qlInterpolationInterpolate(Q$3,$F7,TRUE))</f>
-        <v>-5.3461682110166281E-4</v>
+        <v>-1.1338744790958157E-4</v>
       </c>
       <c r="S7" s="107">
         <f>IF(AND(NOT(Q7),AND(Q$4:Q6)),MIN(EXP((R7-$J7)*$G7),1),"")</f>
-        <v>0.99998168884441108</v>
+        <v>1</v>
       </c>
       <c r="T7" s="109"/>
       <c r="U7" s="106" t="b">
@@ -6172,7 +6225,7 @@
       </c>
       <c r="V7" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U7),AND(U$4:U6))),($J7*$G7-LN(1+Jumpoverwrite3*W$2))/$G7,_xll.qlInterpolationInterpolate(U$3,$F7,TRUE))</f>
-        <v>-5.3461682110166281E-4</v>
+        <v>-1.1338744790958157E-4</v>
       </c>
       <c r="W7" s="107" t="str">
         <f>IF(AND(NOT(U7),AND(U$4:U6)),MIN(EXP((V7-$J7)*$G7),1),"")</f>
@@ -6185,7 +6238,7 @@
       </c>
       <c r="Z7" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y7),AND(Y$4:Y6))),($J7*$G7-LN(1+Jumpoverwrite4*AA$2))/$G7,_xll.qlInterpolationInterpolate(Y$3,$F7,TRUE))</f>
-        <v>-5.3461682110166281E-4</v>
+        <v>-1.1338744790958157E-4</v>
       </c>
       <c r="AA7" s="107" t="str">
         <f>IF(AND(NOT(Y7),AND(Y$4:Y6)),MIN(EXP((Z7-$J7)*$G7),1),"")</f>
@@ -6198,7 +6251,7 @@
       </c>
       <c r="AD7" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC7),AND(AC$4:AC6))),($J7*$G7-LN(1+Jumpoverwrite5*AE$2))/$G7,_xll.qlInterpolationInterpolate(AC$3,$F7,TRUE))</f>
-        <v>-5.3461682110166281E-4</v>
+        <v>-1.1338744790958157E-4</v>
       </c>
       <c r="AE7" s="107" t="str">
         <f>IF(AND(NOT(AC7),AND(AC$4:AC6)),MIN(EXP((AD7-$J7)*$G7),1),"")</f>
@@ -6211,7 +6264,7 @@
       </c>
       <c r="AH7" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG7),AND(AG$4:AG6))),($J7*$G7-LN(1+Jumpoverwrite6*AI$2))/$G7,_xll.qlInterpolationInterpolate(AG$3,$F7,TRUE))</f>
-        <v>-5.3461682110166281E-4</v>
+        <v>-1.1338744790958157E-4</v>
       </c>
       <c r="AI7" s="107" t="str">
         <f>IF(AND(NOT(AG7),AND(AG$4:AG6)),MIN(EXP((AH7-$J7)*$G7),1),"")</f>
@@ -6224,7 +6277,7 @@
       </c>
       <c r="AL7" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK7),AND(AK$4:AK6))),($J7*$G7-LN(1+Jumpoverwrite7*AM$2))/$G7,_xll.qlInterpolationInterpolate(AK$3,$F7,TRUE))</f>
-        <v>-5.3461682110166281E-4</v>
+        <v>-1.1338744790958157E-4</v>
       </c>
       <c r="AM7" s="107" t="str">
         <f>IF(AND(NOT(AK7),AND(AK$4:AK6)),MIN(EXP((AL7-$J7)*$G7),1),"")</f>
@@ -6236,7 +6289,7 @@
       </c>
       <c r="AP7" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO7),AND(AO$4:AO6))),($J7*$G7-LN(1+Jumpoverwrite8*AQ$2))/$G7,_xll.qlInterpolationInterpolate(AO$3,$F7,TRUE))</f>
-        <v>-5.3461682110166281E-4</v>
+        <v>-1.1338744790958157E-4</v>
       </c>
       <c r="AQ7" s="107" t="str">
         <f>IF(AND(NOT(AO7),AND(AO$4:AO6)),MIN(EXP((AP7-$J7)*$G7),1),"")</f>
@@ -6248,7 +6301,7 @@
       </c>
       <c r="AT7" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS7),AND(AS$4:AS6))),($J7*$G7-LN(1+Jumpoverwrite9*AU$2))/$G7,_xll.qlInterpolationInterpolate(AS$3,$F7,TRUE))</f>
-        <v>-5.3461682110166281E-4</v>
+        <v>-1.1338744790958157E-4</v>
       </c>
       <c r="AU7" s="107" t="str">
         <f>IF(AND(NOT(AS7),AND(AS$4:AS6)),MIN(EXP((AT7-$J7)*$G7),1),"")</f>
@@ -6260,7 +6313,7 @@
       </c>
       <c r="AX7" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW7),AND(AW$4:AW6))),($J7*$G7-LN(1+Jumpoverwrite10*AY$2))/$G7,_xll.qlInterpolationInterpolate(AW$3,$F7,TRUE))</f>
-        <v>-5.3461682110166281E-4</v>
+        <v>-1.1338744790958157E-4</v>
       </c>
       <c r="AY7" s="107" t="str">
         <f>IF(AND(NOT(AW7),AND(AW$4:AW6)),MIN(EXP((AX7-$J7)*$G7),1),"")</f>
@@ -6272,7 +6325,7 @@
       </c>
       <c r="BB7" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA7),AND(BA$4:BA6))),($J7*$G7-LN(1+Jumpoverwrite11*BC$2))/$G7,_xll.qlInterpolationInterpolate(BA$3,$F7,TRUE))</f>
-        <v>-5.3461682110166281E-4</v>
+        <v>-1.1338744790958157E-4</v>
       </c>
       <c r="BC7" s="107" t="str">
         <f>IF(AND(NOT(BA7),AND(BA$4:BA6)),MIN(EXP((BB7-$J7)*$G7),1),"")</f>
@@ -6284,7 +6337,7 @@
       </c>
       <c r="BF7" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE7),AND(BE$4:BE6))),($J7*$G7-LN(1+Jumpoverwrite12*BG$2))/$G7,_xll.qlInterpolationInterpolate(BE$3,$F7,TRUE))</f>
-        <v>-5.3461682110166281E-4</v>
+        <v>-1.1338744790958157E-4</v>
       </c>
       <c r="BG7" s="107" t="str">
         <f>IF(AND(NOT(BE7),AND(BE$4:BE6)),MIN(EXP((BF7-$J7)*$G7),1),"")</f>
@@ -6296,7 +6349,7 @@
       </c>
       <c r="BJ7" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI7),AND(BI$4:BI6))),($J7*$G7-LN(1+jumpoverwrite13*BK$2))/$G7,_xll.qlInterpolationInterpolate(BI$3,$F7,TRUE))</f>
-        <v>-5.3461682110166281E-4</v>
+        <v>-1.1338744790958157E-4</v>
       </c>
       <c r="BK7" s="107" t="str">
         <f>IF(AND(NOT(BI7),AND(BI$4:BI6)),MIN(EXP((BJ7-$J7)*$G7),1),"")</f>
@@ -6305,47 +6358,47 @@
     </row>
     <row r="8" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A8" s="94" t="str">
-        <v>WEURECBOISDEC14</v>
+        <v>WEUREON3M</v>
       </c>
       <c r="B8" s="27">
         <f>_xll.qlRateHelperRate($A8,InterestRatesTrigger)</f>
-        <v>-4.4000000000000007E-4</v>
+        <v>-7.9999999999999979E-5</v>
       </c>
       <c r="C8" s="30">
         <f>_xll.qlRateHelperEarliestDate($A8)</f>
-        <v>41983</v>
+        <v>41968</v>
       </c>
       <c r="D8" s="31">
         <f>_xll.qlRateHelperLatestDate($A8)</f>
-        <v>42032</v>
+        <v>42060</v>
       </c>
       <c r="F8" s="120">
         <f t="shared" si="0"/>
-        <v>42024</v>
+        <v>42046</v>
       </c>
       <c r="G8" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D7,D8)</f>
-        <v>4.4444444444444446E-2</v>
-      </c>
-      <c r="I8" s="141" t="b">
+        <v>7.7777777777777779E-2</v>
+      </c>
+      <c r="I8" s="138" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J8" s="140">
-        <v>-6.5689793105203737E-4</v>
+        <v>0</v>
+      </c>
+      <c r="J8" s="137">
+        <v>1.886427113780424E-5</v>
       </c>
       <c r="K8" s="111">
         <f t="shared" si="3"/>
-        <v>42032</v>
+        <v>42060</v>
       </c>
       <c r="L8" s="100"/>
       <c r="M8" s="106" t="b">
         <f>IF(AND(NOT(I8),AND(I$4:I7)),TRUE,I8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M8),AND(M$4:M7))),($J8*$G8-LN(1+Jumpoverwrite1*O$2))/$G8,_xll.qlInterpolationInterpolate(M$3,$F8,TRUE))</f>
-        <v>-6.5689793105203737E-4</v>
+        <v>-9.7991179648429885E-5</v>
       </c>
       <c r="O8" s="107" t="str">
         <f>IF(AND(NOT(M8),AND(M$4:M7)),MIN(EXP((N8-$J8)*$G8),1),"")</f>
@@ -6354,11 +6407,11 @@
       <c r="P8" s="109"/>
       <c r="Q8" s="106" t="b">
         <f>IF(AND(NOT(M8),AND(M$4:M7)),TRUE,M8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q8),AND(Q$4:Q7))),($J8*$G8-LN(1+Jumpoverwrite2*S$2))/$G8,_xll.qlInterpolationInterpolate(Q$3,$F8,TRUE))</f>
-        <v>-6.5689793105203737E-4</v>
+        <v>-9.7991179648429885E-5</v>
       </c>
       <c r="S8" s="107" t="str">
         <f>IF(AND(NOT(Q8),AND(Q$4:Q7)),MIN(EXP((R8-$J8)*$G8),1),"")</f>
@@ -6367,15 +6420,15 @@
       <c r="T8" s="109"/>
       <c r="U8" s="106" t="b">
         <f>IF(AND(NOT(Q8),AND(Q$4:Q7)),TRUE,Q8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U8),AND(U$4:U7))),($J8*$G8-LN(1+Jumpoverwrite3*W$2))/$G8,_xll.qlInterpolationInterpolate(U$3,$F8,TRUE))</f>
-        <v>-6.5689793105203737E-4</v>
-      </c>
-      <c r="W8" s="107" t="str">
+        <v>-9.7991179648429898E-5</v>
+      </c>
+      <c r="W8" s="107">
         <f>IF(AND(NOT(U8),AND(U$4:U7)),MIN(EXP((V8-$J8)*$G8),1),"")</f>
-        <v/>
+        <v>0.99999091128401929</v>
       </c>
       <c r="X8" s="109"/>
       <c r="Y8" s="106" t="b">
@@ -6384,7 +6437,7 @@
       </c>
       <c r="Z8" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y8),AND(Y$4:Y7))),($J8*$G8-LN(1+Jumpoverwrite4*AA$2))/$G8,_xll.qlInterpolationInterpolate(Y$3,$F8,TRUE))</f>
-        <v>-6.5689793105203737E-4</v>
+        <v>-9.7991179648429898E-5</v>
       </c>
       <c r="AA8" s="107" t="str">
         <f>IF(AND(NOT(Y8),AND(Y$4:Y7)),MIN(EXP((Z8-$J8)*$G8),1),"")</f>
@@ -6397,7 +6450,7 @@
       </c>
       <c r="AD8" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC8),AND(AC$4:AC7))),($J8*$G8-LN(1+Jumpoverwrite5*AE$2))/$G8,_xll.qlInterpolationInterpolate(AC$3,$F8,TRUE))</f>
-        <v>-6.5689793105203737E-4</v>
+        <v>-9.7991179648429898E-5</v>
       </c>
       <c r="AE8" s="107" t="str">
         <f>IF(AND(NOT(AC8),AND(AC$4:AC7)),MIN(EXP((AD8-$J8)*$G8),1),"")</f>
@@ -6410,7 +6463,7 @@
       </c>
       <c r="AH8" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG8),AND(AG$4:AG7))),($J8*$G8-LN(1+Jumpoverwrite6*AI$2))/$G8,_xll.qlInterpolationInterpolate(AG$3,$F8,TRUE))</f>
-        <v>-6.5689793105203737E-4</v>
+        <v>-9.7991179648429898E-5</v>
       </c>
       <c r="AI8" s="107" t="str">
         <f>IF(AND(NOT(AG8),AND(AG$4:AG7)),MIN(EXP((AH8-$J8)*$G8),1),"")</f>
@@ -6423,7 +6476,7 @@
       </c>
       <c r="AL8" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK8),AND(AK$4:AK7))),($J8*$G8-LN(1+Jumpoverwrite7*AM$2))/$G8,_xll.qlInterpolationInterpolate(AK$3,$F8,TRUE))</f>
-        <v>-6.5689793105203737E-4</v>
+        <v>-9.7991179648429898E-5</v>
       </c>
       <c r="AM8" s="107" t="str">
         <f>IF(AND(NOT(AK8),AND(AK$4:AK7)),MIN(EXP((AL8-$J8)*$G8),1),"")</f>
@@ -6435,7 +6488,7 @@
       </c>
       <c r="AP8" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO8),AND(AO$4:AO7))),($J8*$G8-LN(1+Jumpoverwrite8*AQ$2))/$G8,_xll.qlInterpolationInterpolate(AO$3,$F8,TRUE))</f>
-        <v>-6.5689793105203737E-4</v>
+        <v>-9.7991179648429898E-5</v>
       </c>
       <c r="AQ8" s="107" t="str">
         <f>IF(AND(NOT(AO8),AND(AO$4:AO7)),MIN(EXP((AP8-$J8)*$G8),1),"")</f>
@@ -6447,7 +6500,7 @@
       </c>
       <c r="AT8" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS8),AND(AS$4:AS7))),($J8*$G8-LN(1+Jumpoverwrite9*AU$2))/$G8,_xll.qlInterpolationInterpolate(AS$3,$F8,TRUE))</f>
-        <v>-6.5689793105203737E-4</v>
+        <v>-9.7991179648429898E-5</v>
       </c>
       <c r="AU8" s="107" t="str">
         <f>IF(AND(NOT(AS8),AND(AS$4:AS7)),MIN(EXP((AT8-$J8)*$G8),1),"")</f>
@@ -6459,7 +6512,7 @@
       </c>
       <c r="AX8" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW8),AND(AW$4:AW7))),($J8*$G8-LN(1+Jumpoverwrite10*AY$2))/$G8,_xll.qlInterpolationInterpolate(AW$3,$F8,TRUE))</f>
-        <v>-6.5689793105203737E-4</v>
+        <v>-9.7991179648429898E-5</v>
       </c>
       <c r="AY8" s="107" t="str">
         <f>IF(AND(NOT(AW8),AND(AW$4:AW7)),MIN(EXP((AX8-$J8)*$G8),1),"")</f>
@@ -6471,7 +6524,7 @@
       </c>
       <c r="BB8" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA8),AND(BA$4:BA7))),($J8*$G8-LN(1+Jumpoverwrite11*BC$2))/$G8,_xll.qlInterpolationInterpolate(BA$3,$F8,TRUE))</f>
-        <v>-6.5689793105203737E-4</v>
+        <v>-9.7991179648429898E-5</v>
       </c>
       <c r="BC8" s="107" t="str">
         <f>IF(AND(NOT(BA8),AND(BA$4:BA7)),MIN(EXP((BB8-$J8)*$G8),1),"")</f>
@@ -6483,7 +6536,7 @@
       </c>
       <c r="BF8" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE8),AND(BE$4:BE7))),($J8*$G8-LN(1+Jumpoverwrite12*BG$2))/$G8,_xll.qlInterpolationInterpolate(BE$3,$F8,TRUE))</f>
-        <v>-6.5689793105203737E-4</v>
+        <v>-9.7991179648429898E-5</v>
       </c>
       <c r="BG8" s="107" t="str">
         <f>IF(AND(NOT(BE8),AND(BE$4:BE7)),MIN(EXP((BF8-$J8)*$G8),1),"")</f>
@@ -6495,7 +6548,7 @@
       </c>
       <c r="BJ8" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI8),AND(BI$4:BI7))),($J8*$G8-LN(1+jumpoverwrite13*BK$2))/$G8,_xll.qlInterpolationInterpolate(BI$3,$F8,TRUE))</f>
-        <v>-6.5689793105203737E-4</v>
+        <v>-9.7991179648429898E-5</v>
       </c>
       <c r="BK8" s="107" t="str">
         <f>IF(AND(NOT(BI8),AND(BI$4:BI7)),MIN(EXP((BJ8-$J8)*$G8),1),"")</f>
@@ -6504,38 +6557,38 @@
     </row>
     <row r="9" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A9" s="94" t="str">
-        <v>WEUREON3M</v>
+        <v>WEURECBOISJAN15</v>
       </c>
       <c r="B9" s="27">
         <f>_xll.qlRateHelperRate($A9,InterestRatesTrigger)</f>
-        <v>-2.8000000000000003E-4</v>
+        <v>9.9999999999999991E-5</v>
       </c>
       <c r="C9" s="30">
         <f>_xll.qlRateHelperEarliestDate($A9)</f>
-        <v>41953</v>
+        <v>42032</v>
       </c>
       <c r="D9" s="31">
         <f>_xll.qlRateHelperLatestDate($A9)</f>
-        <v>42045</v>
+        <v>42074</v>
       </c>
       <c r="F9" s="120">
         <f t="shared" si="0"/>
-        <v>42038.5</v>
+        <v>42067</v>
       </c>
       <c r="G9" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D8,D9)</f>
-        <v>3.6111111111111108E-2</v>
-      </c>
-      <c r="I9" s="141" t="b">
+        <v>3.888888888888889E-2</v>
+      </c>
+      <c r="I9" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J9" s="140">
-        <v>-5.8481782560354759E-5</v>
+      <c r="J9" s="137">
+        <v>2.6226970773815978E-4</v>
       </c>
       <c r="K9" s="111">
         <f t="shared" si="3"/>
-        <v>42045</v>
+        <v>42074</v>
       </c>
       <c r="L9" s="100"/>
       <c r="M9" s="106" t="b">
@@ -6544,7 +6597,7 @@
       </c>
       <c r="N9" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M9),AND(M$4:M8))),($J9*$G9-LN(1+Jumpoverwrite1*O$2))/$G9,_xll.qlInterpolationInterpolate(M$3,$F9,TRUE))</f>
-        <v>-6.2789533393008481E-4</v>
+        <v>-8.6842157804147658E-5</v>
       </c>
       <c r="O9" s="107" t="str">
         <f>IF(AND(NOT(M9),AND(M$4:M8)),MIN(EXP((N9-$J9)*$G9),1),"")</f>
@@ -6557,7 +6610,7 @@
       </c>
       <c r="R9" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q9),AND(Q$4:Q8))),($J9*$G9-LN(1+Jumpoverwrite2*S$2))/$G9,_xll.qlInterpolationInterpolate(Q$3,$F9,TRUE))</f>
-        <v>-6.2789533393008481E-4</v>
+        <v>-8.6842157804147658E-5</v>
       </c>
       <c r="S9" s="107" t="str">
         <f>IF(AND(NOT(Q9),AND(Q$4:Q8)),MIN(EXP((R9-$J9)*$G9),1),"")</f>
@@ -6570,24 +6623,24 @@
       </c>
       <c r="V9" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U9),AND(U$4:U8))),($J9*$G9-LN(1+Jumpoverwrite3*W$2))/$G9,_xll.qlInterpolationInterpolate(U$3,$F9,TRUE))</f>
-        <v>-6.2789533393008481E-4</v>
-      </c>
-      <c r="W9" s="107">
+        <v>-8.6842157804147658E-5</v>
+      </c>
+      <c r="W9" s="107" t="str">
         <f>IF(AND(NOT(U9),AND(U$4:U8)),MIN(EXP((V9-$J9)*$G9),1),"")</f>
-        <v>0.99997943805537803</v>
+        <v/>
       </c>
       <c r="X9" s="109"/>
       <c r="Y9" s="106" t="b">
         <f>IF(AND(NOT(U9),AND(U$4:U8)),TRUE,U9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y9),AND(Y$4:Y8))),($J9*$G9-LN(1+Jumpoverwrite4*AA$2))/$G9,_xll.qlInterpolationInterpolate(Y$3,$F9,TRUE))</f>
-        <v>-6.2789533393008481E-4</v>
-      </c>
-      <c r="AA9" s="107" t="str">
+        <v>-8.6842157804147658E-5</v>
+      </c>
+      <c r="AA9" s="107">
         <f>IF(AND(NOT(Y9),AND(Y$4:Y8)),MIN(EXP((Z9-$J9)*$G9),1),"")</f>
-        <v/>
+        <v>0.99998642351961242</v>
       </c>
       <c r="AB9" s="109"/>
       <c r="AC9" s="106" t="b">
@@ -6596,7 +6649,7 @@
       </c>
       <c r="AD9" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC9),AND(AC$4:AC8))),($J9*$G9-LN(1+Jumpoverwrite5*AE$2))/$G9,_xll.qlInterpolationInterpolate(AC$3,$F9,TRUE))</f>
-        <v>-6.2789533393008481E-4</v>
+        <v>-8.6842157804147658E-5</v>
       </c>
       <c r="AE9" s="107" t="str">
         <f>IF(AND(NOT(AC9),AND(AC$4:AC8)),MIN(EXP((AD9-$J9)*$G9),1),"")</f>
@@ -6609,7 +6662,7 @@
       </c>
       <c r="AH9" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG9),AND(AG$4:AG8))),($J9*$G9-LN(1+Jumpoverwrite6*AI$2))/$G9,_xll.qlInterpolationInterpolate(AG$3,$F9,TRUE))</f>
-        <v>-6.2789533393008481E-4</v>
+        <v>-8.6842157804147658E-5</v>
       </c>
       <c r="AI9" s="107" t="str">
         <f>IF(AND(NOT(AG9),AND(AG$4:AG8)),MIN(EXP((AH9-$J9)*$G9),1),"")</f>
@@ -6622,7 +6675,7 @@
       </c>
       <c r="AL9" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK9),AND(AK$4:AK8))),($J9*$G9-LN(1+Jumpoverwrite7*AM$2))/$G9,_xll.qlInterpolationInterpolate(AK$3,$F9,TRUE))</f>
-        <v>-6.2789533393008481E-4</v>
+        <v>-8.6842157804147658E-5</v>
       </c>
       <c r="AM9" s="107" t="str">
         <f>IF(AND(NOT(AK9),AND(AK$4:AK8)),MIN(EXP((AL9-$J9)*$G9),1),"")</f>
@@ -6634,7 +6687,7 @@
       </c>
       <c r="AP9" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO9),AND(AO$4:AO8))),($J9*$G9-LN(1+Jumpoverwrite8*AQ$2))/$G9,_xll.qlInterpolationInterpolate(AO$3,$F9,TRUE))</f>
-        <v>-6.2789533393008481E-4</v>
+        <v>-8.6842157804147658E-5</v>
       </c>
       <c r="AQ9" s="107" t="str">
         <f>IF(AND(NOT(AO9),AND(AO$4:AO8)),MIN(EXP((AP9-$J9)*$G9),1),"")</f>
@@ -6646,7 +6699,7 @@
       </c>
       <c r="AT9" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS9),AND(AS$4:AS8))),($J9*$G9-LN(1+Jumpoverwrite9*AU$2))/$G9,_xll.qlInterpolationInterpolate(AS$3,$F9,TRUE))</f>
-        <v>-6.2789533393008481E-4</v>
+        <v>-8.6842157804147658E-5</v>
       </c>
       <c r="AU9" s="107" t="str">
         <f>IF(AND(NOT(AS9),AND(AS$4:AS8)),MIN(EXP((AT9-$J9)*$G9),1),"")</f>
@@ -6658,7 +6711,7 @@
       </c>
       <c r="AX9" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW9),AND(AW$4:AW8))),($J9*$G9-LN(1+Jumpoverwrite10*AY$2))/$G9,_xll.qlInterpolationInterpolate(AW$3,$F9,TRUE))</f>
-        <v>-6.2789533393008481E-4</v>
+        <v>-8.6842157804147658E-5</v>
       </c>
       <c r="AY9" s="107" t="str">
         <f>IF(AND(NOT(AW9),AND(AW$4:AW8)),MIN(EXP((AX9-$J9)*$G9),1),"")</f>
@@ -6670,7 +6723,7 @@
       </c>
       <c r="BB9" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA9),AND(BA$4:BA8))),($J9*$G9-LN(1+Jumpoverwrite11*BC$2))/$G9,_xll.qlInterpolationInterpolate(BA$3,$F9,TRUE))</f>
-        <v>-6.2789533393008481E-4</v>
+        <v>-8.6842157804147658E-5</v>
       </c>
       <c r="BC9" s="107" t="str">
         <f>IF(AND(NOT(BA9),AND(BA$4:BA8)),MIN(EXP((BB9-$J9)*$G9),1),"")</f>
@@ -6682,7 +6735,7 @@
       </c>
       <c r="BF9" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE9),AND(BE$4:BE8))),($J9*$G9-LN(1+Jumpoverwrite12*BG$2))/$G9,_xll.qlInterpolationInterpolate(BE$3,$F9,TRUE))</f>
-        <v>-6.2789533393008481E-4</v>
+        <v>-8.6842157804147658E-5</v>
       </c>
       <c r="BG9" s="107" t="str">
         <f>IF(AND(NOT(BE9),AND(BE$4:BE8)),MIN(EXP((BF9-$J9)*$G9),1),"")</f>
@@ -6694,7 +6747,7 @@
       </c>
       <c r="BJ9" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI9),AND(BI$4:BI8))),($J9*$G9-LN(1+jumpoverwrite13*BK$2))/$G9,_xll.qlInterpolationInterpolate(BI$3,$F9,TRUE))</f>
-        <v>-6.2789533393008481E-4</v>
+        <v>-8.6842157804147658E-5</v>
       </c>
       <c r="BK9" s="107" t="str">
         <f>IF(AND(NOT(BI9),AND(BI$4:BI8)),MIN(EXP((BJ9-$J9)*$G9),1),"")</f>
@@ -6703,47 +6756,47 @@
     </row>
     <row r="10" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A10" s="94" t="str">
-        <v>WEURECBOISJAN15</v>
+        <v>WEUREON4M</v>
       </c>
       <c r="B10" s="27">
         <f>_xll.qlRateHelperRate($A10,InterestRatesTrigger)</f>
-        <v>-1.7999999999999998E-4</v>
+        <v>-3.9999999999999983E-5</v>
       </c>
       <c r="C10" s="30">
         <f>_xll.qlRateHelperEarliestDate($A10)</f>
-        <v>42032</v>
+        <v>41968</v>
       </c>
       <c r="D10" s="31">
         <f>_xll.qlRateHelperLatestDate($A10)</f>
-        <v>42074</v>
+        <v>42088</v>
       </c>
       <c r="F10" s="120">
         <f t="shared" si="0"/>
-        <v>42059.5</v>
+        <v>42081</v>
       </c>
       <c r="G10" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D9,D10)</f>
-        <v>8.0555555555555561E-2</v>
-      </c>
-      <c r="I10" s="141" t="b">
+        <v>3.888888888888889E-2</v>
+      </c>
+      <c r="I10" s="138" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="140">
-        <v>-2.3447642082040441E-4</v>
+        <v>1</v>
+      </c>
+      <c r="J10" s="137">
+        <v>-7.9409476574626156E-5</v>
       </c>
       <c r="K10" s="111">
         <f t="shared" si="3"/>
-        <v>42074</v>
+        <v>42088</v>
       </c>
       <c r="L10" s="100"/>
       <c r="M10" s="106" t="b">
         <f>IF(AND(NOT(I10),AND(I$4:I9)),TRUE,I10)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M10),AND(M$4:M9))),($J10*$G10-LN(1+Jumpoverwrite1*O$2))/$G10,_xll.qlInterpolationInterpolate(M$3,$F10,TRUE))</f>
-        <v>-5.8589157258105002E-4</v>
+        <v>-7.9409476574626156E-5</v>
       </c>
       <c r="O10" s="107" t="str">
         <f>IF(AND(NOT(M10),AND(M$4:M9)),MIN(EXP((N10-$J10)*$G10),1),"")</f>
@@ -6752,11 +6805,11 @@
       <c r="P10" s="109"/>
       <c r="Q10" s="106" t="b">
         <f>IF(AND(NOT(M10),AND(M$4:M9)),TRUE,M10)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q10),AND(Q$4:Q9))),($J10*$G10-LN(1+Jumpoverwrite2*S$2))/$G10,_xll.qlInterpolationInterpolate(Q$3,$F10,TRUE))</f>
-        <v>-5.8589157258105002E-4</v>
+        <v>-7.9409476574626156E-5</v>
       </c>
       <c r="S10" s="107" t="str">
         <f>IF(AND(NOT(Q10),AND(Q$4:Q9)),MIN(EXP((R10-$J10)*$G10),1),"")</f>
@@ -6765,11 +6818,11 @@
       <c r="T10" s="109"/>
       <c r="U10" s="106" t="b">
         <f>IF(AND(NOT(Q10),AND(Q$4:Q9)),TRUE,Q10)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U10),AND(U$4:U9))),($J10*$G10-LN(1+Jumpoverwrite3*W$2))/$G10,_xll.qlInterpolationInterpolate(U$3,$F10,TRUE))</f>
-        <v>-5.8589157258105002E-4</v>
+        <v>-7.9409476574626156E-5</v>
       </c>
       <c r="W10" s="107" t="str">
         <f>IF(AND(NOT(U10),AND(U$4:U9)),MIN(EXP((V10-$J10)*$G10),1),"")</f>
@@ -6778,15 +6831,15 @@
       <c r="X10" s="109"/>
       <c r="Y10" s="106" t="b">
         <f>IF(AND(NOT(U10),AND(U$4:U9)),TRUE,U10)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z10" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y10),AND(Y$4:Y9))),($J10*$G10-LN(1+Jumpoverwrite4*AA$2))/$G10,_xll.qlInterpolationInterpolate(Y$3,$F10,TRUE))</f>
-        <v>-5.8589157258105002E-4</v>
-      </c>
-      <c r="AA10" s="107">
+        <v>-7.9409476574626156E-5</v>
+      </c>
+      <c r="AA10" s="107" t="str">
         <f>IF(AND(NOT(Y10),AND(Y$4:Y9)),MIN(EXP((Z10-$J10)*$G10),1),"")</f>
-        <v>0.99997169195789948</v>
+        <v/>
       </c>
       <c r="AB10" s="109"/>
       <c r="AC10" s="106" t="b">
@@ -6795,7 +6848,7 @@
       </c>
       <c r="AD10" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC10),AND(AC$4:AC9))),($J10*$G10-LN(1+Jumpoverwrite5*AE$2))/$G10,_xll.qlInterpolationInterpolate(AC$3,$F10,TRUE))</f>
-        <v>-5.8589157258105002E-4</v>
+        <v>-7.9409476574626156E-5</v>
       </c>
       <c r="AE10" s="107" t="str">
         <f>IF(AND(NOT(AC10),AND(AC$4:AC9)),MIN(EXP((AD10-$J10)*$G10),1),"")</f>
@@ -6808,7 +6861,7 @@
       </c>
       <c r="AH10" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG10),AND(AG$4:AG9))),($J10*$G10-LN(1+Jumpoverwrite6*AI$2))/$G10,_xll.qlInterpolationInterpolate(AG$3,$F10,TRUE))</f>
-        <v>-5.8589157258105002E-4</v>
+        <v>-7.9409476574626156E-5</v>
       </c>
       <c r="AI10" s="107" t="str">
         <f>IF(AND(NOT(AG10),AND(AG$4:AG9)),MIN(EXP((AH10-$J10)*$G10),1),"")</f>
@@ -6821,7 +6874,7 @@
       </c>
       <c r="AL10" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK10),AND(AK$4:AK9))),($J10*$G10-LN(1+Jumpoverwrite7*AM$2))/$G10,_xll.qlInterpolationInterpolate(AK$3,$F10,TRUE))</f>
-        <v>-5.8589157258105002E-4</v>
+        <v>-7.9409476574626156E-5</v>
       </c>
       <c r="AM10" s="107" t="str">
         <f>IF(AND(NOT(AK10),AND(AK$4:AK9)),MIN(EXP((AL10-$J10)*$G10),1),"")</f>
@@ -6833,7 +6886,7 @@
       </c>
       <c r="AP10" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO10),AND(AO$4:AO9))),($J10*$G10-LN(1+Jumpoverwrite8*AQ$2))/$G10,_xll.qlInterpolationInterpolate(AO$3,$F10,TRUE))</f>
-        <v>-5.8589157258105002E-4</v>
+        <v>-7.9409476574626156E-5</v>
       </c>
       <c r="AQ10" s="107" t="str">
         <f>IF(AND(NOT(AO10),AND(AO$4:AO9)),MIN(EXP((AP10-$J10)*$G10),1),"")</f>
@@ -6845,7 +6898,7 @@
       </c>
       <c r="AT10" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS10),AND(AS$4:AS9))),($J10*$G10-LN(1+Jumpoverwrite9*AU$2))/$G10,_xll.qlInterpolationInterpolate(AS$3,$F10,TRUE))</f>
-        <v>-5.8589157258105002E-4</v>
+        <v>-7.9409476574626156E-5</v>
       </c>
       <c r="AU10" s="107" t="str">
         <f>IF(AND(NOT(AS10),AND(AS$4:AS9)),MIN(EXP((AT10-$J10)*$G10),1),"")</f>
@@ -6857,7 +6910,7 @@
       </c>
       <c r="AX10" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW10),AND(AW$4:AW9))),($J10*$G10-LN(1+Jumpoverwrite10*AY$2))/$G10,_xll.qlInterpolationInterpolate(AW$3,$F10,TRUE))</f>
-        <v>-5.8589157258105002E-4</v>
+        <v>-7.9409476574626156E-5</v>
       </c>
       <c r="AY10" s="107" t="str">
         <f>IF(AND(NOT(AW10),AND(AW$4:AW9)),MIN(EXP((AX10-$J10)*$G10),1),"")</f>
@@ -6869,7 +6922,7 @@
       </c>
       <c r="BB10" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA10),AND(BA$4:BA9))),($J10*$G10-LN(1+Jumpoverwrite11*BC$2))/$G10,_xll.qlInterpolationInterpolate(BA$3,$F10,TRUE))</f>
-        <v>-5.8589157258105002E-4</v>
+        <v>-7.9409476574626156E-5</v>
       </c>
       <c r="BC10" s="107" t="str">
         <f>IF(AND(NOT(BA10),AND(BA$4:BA9)),MIN(EXP((BB10-$J10)*$G10),1),"")</f>
@@ -6881,7 +6934,7 @@
       </c>
       <c r="BF10" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE10),AND(BE$4:BE9))),($J10*$G10-LN(1+Jumpoverwrite12*BG$2))/$G10,_xll.qlInterpolationInterpolate(BE$3,$F10,TRUE))</f>
-        <v>-5.8589157258105002E-4</v>
+        <v>-7.9409476574626156E-5</v>
       </c>
       <c r="BG10" s="107" t="str">
         <f>IF(AND(NOT(BE10),AND(BE$4:BE9)),MIN(EXP((BF10-$J10)*$G10),1),"")</f>
@@ -6893,7 +6946,7 @@
       </c>
       <c r="BJ10" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI10),AND(BI$4:BI9))),($J10*$G10-LN(1+jumpoverwrite13*BK$2))/$G10,_xll.qlInterpolationInterpolate(BI$3,$F10,TRUE))</f>
-        <v>-5.8589157258105002E-4</v>
+        <v>-7.9409476574626156E-5</v>
       </c>
       <c r="BK10" s="107" t="str">
         <f>IF(AND(NOT(BI10),AND(BI$4:BI9)),MIN(EXP((BJ10-$J10)*$G10),1),"")</f>
@@ -6902,38 +6955,38 @@
     </row>
     <row r="11" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A11" s="94" t="str">
-        <v>WEUREON5M</v>
+        <v>WEURECBOISMAR15</v>
       </c>
       <c r="B11" s="27">
         <f>_xll.qlRateHelperRate($A11,InterestRatesTrigger)</f>
-        <v>-2.8000000000000003E-4</v>
+        <v>-1.5999999999999996E-4</v>
       </c>
       <c r="C11" s="30">
         <f>_xll.qlRateHelperEarliestDate($A11)</f>
-        <v>41953</v>
+        <v>42074</v>
       </c>
       <c r="D11" s="31">
         <f>_xll.qlRateHelperLatestDate($A11)</f>
-        <v>42104</v>
+        <v>42116</v>
       </c>
       <c r="F11" s="120">
         <f t="shared" si="0"/>
-        <v>42089</v>
+        <v>42102</v>
       </c>
       <c r="G11" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D10,D11)</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="I11" s="141" t="b">
+        <v>7.7777777777777779E-2</v>
+      </c>
+      <c r="I11" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J11" s="140">
-        <v>-3.2405816951600779E-4</v>
+      <c r="J11" s="137">
+        <v>-2.0029750173916809E-4</v>
       </c>
       <c r="K11" s="111">
         <f t="shared" si="3"/>
-        <v>42104</v>
+        <v>42116</v>
       </c>
       <c r="L11" s="100"/>
       <c r="M11" s="106" t="b">
@@ -6942,7 +6995,7 @@
       </c>
       <c r="N11" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M11),AND(M$4:M10))),($J11*$G11-LN(1+Jumpoverwrite1*O$2))/$G11,_xll.qlInterpolationInterpolate(M$3,$F11,TRUE))</f>
-        <v>-5.2688628878121537E-4</v>
+        <v>-2.401069256934925E-4</v>
       </c>
       <c r="O11" s="107" t="str">
         <f>IF(AND(NOT(M11),AND(M$4:M10)),MIN(EXP((N11-$J11)*$G11),1),"")</f>
@@ -6955,7 +7008,7 @@
       </c>
       <c r="R11" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q11),AND(Q$4:Q10))),($J11*$G11-LN(1+Jumpoverwrite2*S$2))/$G11,_xll.qlInterpolationInterpolate(Q$3,$F11,TRUE))</f>
-        <v>-5.2688628878121537E-4</v>
+        <v>-2.401069256934925E-4</v>
       </c>
       <c r="S11" s="107" t="str">
         <f>IF(AND(NOT(Q11),AND(Q$4:Q10)),MIN(EXP((R11-$J11)*$G11),1),"")</f>
@@ -6968,7 +7021,7 @@
       </c>
       <c r="V11" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U11),AND(U$4:U10))),($J11*$G11-LN(1+Jumpoverwrite3*W$2))/$G11,_xll.qlInterpolationInterpolate(U$3,$F11,TRUE))</f>
-        <v>-5.2688628878121537E-4</v>
+        <v>-2.401069256934925E-4</v>
       </c>
       <c r="W11" s="107" t="str">
         <f>IF(AND(NOT(U11),AND(U$4:U10)),MIN(EXP((V11-$J11)*$G11),1),"")</f>
@@ -6981,7 +7034,7 @@
       </c>
       <c r="Z11" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y11),AND(Y$4:Y10))),($J11*$G11-LN(1+Jumpoverwrite4*AA$2))/$G11,_xll.qlInterpolationInterpolate(Y$3,$F11,TRUE))</f>
-        <v>-5.2688628878121537E-4</v>
+        <v>-2.401069256934925E-4</v>
       </c>
       <c r="AA11" s="107" t="str">
         <f>IF(AND(NOT(Y11),AND(Y$4:Y10)),MIN(EXP((Z11-$J11)*$G11),1),"")</f>
@@ -6994,11 +7047,11 @@
       </c>
       <c r="AD11" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC11),AND(AC$4:AC10))),($J11*$G11-LN(1+Jumpoverwrite5*AE$2))/$G11,_xll.qlInterpolationInterpolate(AC$3,$F11,TRUE))</f>
-        <v>-5.2688628878121537E-4</v>
+        <v>-2.401069256934925E-4</v>
       </c>
       <c r="AE11" s="107">
         <f>IF(AND(NOT(AC11),AND(AC$4:AC10)),MIN(EXP((AD11-$J11)*$G11),1),"")</f>
-        <v>0.99998309779957173</v>
+        <v>0.99999690371626371</v>
       </c>
       <c r="AF11" s="109"/>
       <c r="AG11" s="106" t="b">
@@ -7007,7 +7060,7 @@
       </c>
       <c r="AH11" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG11),AND(AG$4:AG10))),($J11*$G11-LN(1+Jumpoverwrite6*AI$2))/$G11,_xll.qlInterpolationInterpolate(AG$3,$F11,TRUE))</f>
-        <v>-5.2688628878121537E-4</v>
+        <v>-2.401069256934925E-4</v>
       </c>
       <c r="AI11" s="107" t="str">
         <f>IF(AND(NOT(AG11),AND(AG$4:AG10)),MIN(EXP((AH11-$J11)*$G11),1),"")</f>
@@ -7020,7 +7073,7 @@
       </c>
       <c r="AL11" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK11),AND(AK$4:AK10))),($J11*$G11-LN(1+Jumpoverwrite7*AM$2))/$G11,_xll.qlInterpolationInterpolate(AK$3,$F11,TRUE))</f>
-        <v>-5.2688628878121537E-4</v>
+        <v>-2.401069256934925E-4</v>
       </c>
       <c r="AM11" s="107" t="str">
         <f>IF(AND(NOT(AK11),AND(AK$4:AK10)),MIN(EXP((AL11-$J11)*$G11),1),"")</f>
@@ -7032,7 +7085,7 @@
       </c>
       <c r="AP11" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO11),AND(AO$4:AO10))),($J11*$G11-LN(1+Jumpoverwrite8*AQ$2))/$G11,_xll.qlInterpolationInterpolate(AO$3,$F11,TRUE))</f>
-        <v>-5.2688628878121537E-4</v>
+        <v>-2.401069256934925E-4</v>
       </c>
       <c r="AQ11" s="107" t="str">
         <f>IF(AND(NOT(AO11),AND(AO$4:AO10)),MIN(EXP((AP11-$J11)*$G11),1),"")</f>
@@ -7044,7 +7097,7 @@
       </c>
       <c r="AT11" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS11),AND(AS$4:AS10))),($J11*$G11-LN(1+Jumpoverwrite9*AU$2))/$G11,_xll.qlInterpolationInterpolate(AS$3,$F11,TRUE))</f>
-        <v>-5.2688628878121537E-4</v>
+        <v>-2.401069256934925E-4</v>
       </c>
       <c r="AU11" s="107" t="str">
         <f>IF(AND(NOT(AS11),AND(AS$4:AS10)),MIN(EXP((AT11-$J11)*$G11),1),"")</f>
@@ -7056,7 +7109,7 @@
       </c>
       <c r="AX11" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW11),AND(AW$4:AW10))),($J11*$G11-LN(1+Jumpoverwrite10*AY$2))/$G11,_xll.qlInterpolationInterpolate(AW$3,$F11,TRUE))</f>
-        <v>-5.2688628878121537E-4</v>
+        <v>-2.401069256934925E-4</v>
       </c>
       <c r="AY11" s="107" t="str">
         <f>IF(AND(NOT(AW11),AND(AW$4:AW10)),MIN(EXP((AX11-$J11)*$G11),1),"")</f>
@@ -7068,7 +7121,7 @@
       </c>
       <c r="BB11" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA11),AND(BA$4:BA10))),($J11*$G11-LN(1+Jumpoverwrite11*BC$2))/$G11,_xll.qlInterpolationInterpolate(BA$3,$F11,TRUE))</f>
-        <v>-5.2688628878121537E-4</v>
+        <v>-2.401069256934925E-4</v>
       </c>
       <c r="BC11" s="107" t="str">
         <f>IF(AND(NOT(BA11),AND(BA$4:BA10)),MIN(EXP((BB11-$J11)*$G11),1),"")</f>
@@ -7080,7 +7133,7 @@
       </c>
       <c r="BF11" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE11),AND(BE$4:BE10))),($J11*$G11-LN(1+Jumpoverwrite12*BG$2))/$G11,_xll.qlInterpolationInterpolate(BE$3,$F11,TRUE))</f>
-        <v>-5.2688628878121537E-4</v>
+        <v>-2.401069256934925E-4</v>
       </c>
       <c r="BG11" s="107" t="str">
         <f>IF(AND(NOT(BE11),AND(BE$4:BE10)),MIN(EXP((BF11-$J11)*$G11),1),"")</f>
@@ -7092,7 +7145,7 @@
       </c>
       <c r="BJ11" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI11),AND(BI$4:BI10))),($J11*$G11-LN(1+jumpoverwrite13*BK$2))/$G11,_xll.qlInterpolationInterpolate(BI$3,$F11,TRUE))</f>
-        <v>-5.2688628878121537E-4</v>
+        <v>-2.401069256934925E-4</v>
       </c>
       <c r="BK11" s="107" t="str">
         <f>IF(AND(NOT(BI11),AND(BI$4:BI10)),MIN(EXP((BJ11-$J11)*$G11),1),"")</f>
@@ -7101,38 +7154,38 @@
     </row>
     <row r="12" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A12" s="94" t="str">
-        <v>WEURECBOISMAR15</v>
+        <v>WEUREON5M</v>
       </c>
       <c r="B12" s="27">
         <f>_xll.qlRateHelperRate($A12,InterestRatesTrigger)</f>
-        <v>-3.6999999999999999E-4</v>
+        <v>-7.9999999999999979E-5</v>
       </c>
       <c r="C12" s="30">
         <f>_xll.qlRateHelperEarliestDate($A12)</f>
-        <v>42074</v>
+        <v>41968</v>
       </c>
       <c r="D12" s="31">
         <f>_xll.qlRateHelperLatestDate($A12)</f>
-        <v>42116</v>
+        <v>42121</v>
       </c>
       <c r="F12" s="120">
         <f t="shared" si="0"/>
-        <v>42110</v>
+        <v>42118.5</v>
       </c>
       <c r="G12" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D11,D12)</f>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="I12" s="141" t="b">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="I12" s="138" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J12" s="140">
-        <v>-4.8488252743218057E-4</v>
+      <c r="J12" s="137">
+        <v>-3.6636920714403035E-4</v>
       </c>
       <c r="K12" s="111">
         <f t="shared" si="3"/>
-        <v>42116</v>
+        <v>42121</v>
       </c>
       <c r="L12" s="100"/>
       <c r="M12" s="106" t="b">
@@ -7141,7 +7194,7 @@
       </c>
       <c r="N12" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M12),AND(M$4:M11))),($J12*$G12-LN(1+Jumpoverwrite1*O$2))/$G12,_xll.qlInterpolationInterpolate(M$3,$F12,TRUE))</f>
-        <v>-4.8488252743218057E-4</v>
+        <v>-3.6636920714403035E-4</v>
       </c>
       <c r="O12" s="107" t="str">
         <f>IF(AND(NOT(M12),AND(M$4:M11)),MIN(EXP((N12-$J12)*$G12),1),"")</f>
@@ -7154,7 +7207,7 @@
       </c>
       <c r="R12" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q12),AND(Q$4:Q11))),($J12*$G12-LN(1+Jumpoverwrite2*S$2))/$G12,_xll.qlInterpolationInterpolate(Q$3,$F12,TRUE))</f>
-        <v>-4.8488252743218057E-4</v>
+        <v>-3.6636920714403035E-4</v>
       </c>
       <c r="S12" s="107" t="str">
         <f>IF(AND(NOT(Q12),AND(Q$4:Q11)),MIN(EXP((R12-$J12)*$G12),1),"")</f>
@@ -7167,7 +7220,7 @@
       </c>
       <c r="V12" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U12),AND(U$4:U11))),($J12*$G12-LN(1+Jumpoverwrite3*W$2))/$G12,_xll.qlInterpolationInterpolate(U$3,$F12,TRUE))</f>
-        <v>-4.8488252743218057E-4</v>
+        <v>-3.6636920714403035E-4</v>
       </c>
       <c r="W12" s="107" t="str">
         <f>IF(AND(NOT(U12),AND(U$4:U11)),MIN(EXP((V12-$J12)*$G12),1),"")</f>
@@ -7180,7 +7233,7 @@
       </c>
       <c r="Z12" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y12),AND(Y$4:Y11))),($J12*$G12-LN(1+Jumpoverwrite4*AA$2))/$G12,_xll.qlInterpolationInterpolate(Y$3,$F12,TRUE))</f>
-        <v>-4.8488252743218057E-4</v>
+        <v>-3.6636920714403035E-4</v>
       </c>
       <c r="AA12" s="107" t="str">
         <f>IF(AND(NOT(Y12),AND(Y$4:Y11)),MIN(EXP((Z12-$J12)*$G12),1),"")</f>
@@ -7193,7 +7246,7 @@
       </c>
       <c r="AD12" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC12),AND(AC$4:AC11))),($J12*$G12-LN(1+Jumpoverwrite5*AE$2))/$G12,_xll.qlInterpolationInterpolate(AC$3,$F12,TRUE))</f>
-        <v>-4.8488252743218057E-4</v>
+        <v>-3.6636920714403035E-4</v>
       </c>
       <c r="AE12" s="107" t="str">
         <f>IF(AND(NOT(AC12),AND(AC$4:AC11)),MIN(EXP((AD12-$J12)*$G12),1),"")</f>
@@ -7206,7 +7259,7 @@
       </c>
       <c r="AH12" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG12),AND(AG$4:AG11))),($J12*$G12-LN(1+Jumpoverwrite6*AI$2))/$G12,_xll.qlInterpolationInterpolate(AG$3,$F12,TRUE))</f>
-        <v>-4.8488252743218057E-4</v>
+        <v>-3.6636920714403035E-4</v>
       </c>
       <c r="AI12" s="107" t="str">
         <f>IF(AND(NOT(AG12),AND(AG$4:AG11)),MIN(EXP((AH12-$J12)*$G12),1),"")</f>
@@ -7219,7 +7272,7 @@
       </c>
       <c r="AL12" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK12),AND(AK$4:AK11))),($J12*$G12-LN(1+Jumpoverwrite7*AM$2))/$G12,_xll.qlInterpolationInterpolate(AK$3,$F12,TRUE))</f>
-        <v>-4.8488252743218057E-4</v>
+        <v>-3.6636920714403035E-4</v>
       </c>
       <c r="AM12" s="107" t="str">
         <f>IF(AND(NOT(AK12),AND(AK$4:AK11)),MIN(EXP((AL12-$J12)*$G12),1),"")</f>
@@ -7231,7 +7284,7 @@
       </c>
       <c r="AP12" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO12),AND(AO$4:AO11))),($J12*$G12-LN(1+Jumpoverwrite8*AQ$2))/$G12,_xll.qlInterpolationInterpolate(AO$3,$F12,TRUE))</f>
-        <v>-4.8488252743218057E-4</v>
+        <v>-3.6636920714403035E-4</v>
       </c>
       <c r="AQ12" s="107" t="str">
         <f>IF(AND(NOT(AO12),AND(AO$4:AO11)),MIN(EXP((AP12-$J12)*$G12),1),"")</f>
@@ -7243,7 +7296,7 @@
       </c>
       <c r="AT12" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS12),AND(AS$4:AS11))),($J12*$G12-LN(1+Jumpoverwrite9*AU$2))/$G12,_xll.qlInterpolationInterpolate(AS$3,$F12,TRUE))</f>
-        <v>-4.8488252743218057E-4</v>
+        <v>-3.6636920714403035E-4</v>
       </c>
       <c r="AU12" s="107" t="str">
         <f>IF(AND(NOT(AS12),AND(AS$4:AS11)),MIN(EXP((AT12-$J12)*$G12),1),"")</f>
@@ -7255,7 +7308,7 @@
       </c>
       <c r="AX12" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW12),AND(AW$4:AW11))),($J12*$G12-LN(1+Jumpoverwrite10*AY$2))/$G12,_xll.qlInterpolationInterpolate(AW$3,$F12,TRUE))</f>
-        <v>-4.8488252743218057E-4</v>
+        <v>-3.6636920714403035E-4</v>
       </c>
       <c r="AY12" s="107" t="str">
         <f>IF(AND(NOT(AW12),AND(AW$4:AW11)),MIN(EXP((AX12-$J12)*$G12),1),"")</f>
@@ -7267,7 +7320,7 @@
       </c>
       <c r="BB12" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA12),AND(BA$4:BA11))),($J12*$G12-LN(1+Jumpoverwrite11*BC$2))/$G12,_xll.qlInterpolationInterpolate(BA$3,$F12,TRUE))</f>
-        <v>-4.8488252743218057E-4</v>
+        <v>-3.6636920714403035E-4</v>
       </c>
       <c r="BC12" s="107" t="str">
         <f>IF(AND(NOT(BA12),AND(BA$4:BA11)),MIN(EXP((BB12-$J12)*$G12),1),"")</f>
@@ -7279,7 +7332,7 @@
       </c>
       <c r="BF12" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE12),AND(BE$4:BE11))),($J12*$G12-LN(1+Jumpoverwrite12*BG$2))/$G12,_xll.qlInterpolationInterpolate(BE$3,$F12,TRUE))</f>
-        <v>-4.8488252743218057E-4</v>
+        <v>-3.6636920714403035E-4</v>
       </c>
       <c r="BG12" s="107" t="str">
         <f>IF(AND(NOT(BE12),AND(BE$4:BE11)),MIN(EXP((BF12-$J12)*$G12),1),"")</f>
@@ -7291,7 +7344,7 @@
       </c>
       <c r="BJ12" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI12),AND(BI$4:BI11))),($J12*$G12-LN(1+jumpoverwrite13*BK$2))/$G12,_xll.qlInterpolationInterpolate(BI$3,$F12,TRUE))</f>
-        <v>-4.8488252743218057E-4</v>
+        <v>-3.6636920714403035E-4</v>
       </c>
       <c r="BK12" s="107" t="str">
         <f>IF(AND(NOT(BI12),AND(BI$4:BI11)),MIN(EXP((BJ12-$J12)*$G12),1),"")</f>
@@ -7304,34 +7357,34 @@
       </c>
       <c r="B13" s="27">
         <f>_xll.qlRateHelperRate($A13,InterestRatesTrigger)</f>
-        <v>-3.2000000000000003E-4</v>
+        <v>-1.2999999999999999E-4</v>
       </c>
       <c r="C13" s="30">
         <f>_xll.qlRateHelperEarliestDate($A13)</f>
-        <v>41953</v>
+        <v>41968</v>
       </c>
       <c r="D13" s="31">
         <f>_xll.qlRateHelperLatestDate($A13)</f>
-        <v>42135</v>
+        <v>42149</v>
       </c>
       <c r="F13" s="120">
         <f t="shared" si="0"/>
-        <v>42125.5</v>
+        <v>42135</v>
       </c>
       <c r="G13" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D12,D13)</f>
-        <v>5.2777777777777778E-2</v>
-      </c>
-      <c r="I13" s="141" t="b">
+        <v>7.7777777777777779E-2</v>
+      </c>
+      <c r="I13" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J13" s="140">
-        <v>-5.3387569364923783E-4</v>
+      <c r="J13" s="137">
+        <v>-4.0323431865265253E-4</v>
       </c>
       <c r="K13" s="111">
         <f t="shared" si="3"/>
-        <v>42135</v>
+        <v>42149</v>
       </c>
       <c r="L13" s="100"/>
       <c r="M13" s="106" t="b">
@@ -7340,7 +7393,7 @@
       </c>
       <c r="N13" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M13),AND(M$4:M12))),($J13*$G13-LN(1+Jumpoverwrite1*O$2))/$G13,_xll.qlInterpolationInterpolate(M$3,$F13,TRUE))</f>
-        <v>-4.9583460944427424E-4</v>
+        <v>-4.304872953212932E-4</v>
       </c>
       <c r="O13" s="107" t="str">
         <f>IF(AND(NOT(M13),AND(M$4:M12)),MIN(EXP((N13-$J13)*$G13),1),"")</f>
@@ -7353,7 +7406,7 @@
       </c>
       <c r="R13" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q13),AND(Q$4:Q12))),($J13*$G13-LN(1+Jumpoverwrite2*S$2))/$G13,_xll.qlInterpolationInterpolate(Q$3,$F13,TRUE))</f>
-        <v>-4.9583460944427424E-4</v>
+        <v>-4.304872953212932E-4</v>
       </c>
       <c r="S13" s="107" t="str">
         <f>IF(AND(NOT(Q13),AND(Q$4:Q12)),MIN(EXP((R13-$J13)*$G13),1),"")</f>
@@ -7366,7 +7419,7 @@
       </c>
       <c r="V13" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U13),AND(U$4:U12))),($J13*$G13-LN(1+Jumpoverwrite3*W$2))/$G13,_xll.qlInterpolationInterpolate(U$3,$F13,TRUE))</f>
-        <v>-4.9583460944427424E-4</v>
+        <v>-4.304872953212932E-4</v>
       </c>
       <c r="W13" s="107" t="str">
         <f>IF(AND(NOT(U13),AND(U$4:U12)),MIN(EXP((V13-$J13)*$G13),1),"")</f>
@@ -7379,7 +7432,7 @@
       </c>
       <c r="Z13" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y13),AND(Y$4:Y12))),($J13*$G13-LN(1+Jumpoverwrite4*AA$2))/$G13,_xll.qlInterpolationInterpolate(Y$3,$F13,TRUE))</f>
-        <v>-4.9583460944427424E-4</v>
+        <v>-4.304872953212932E-4</v>
       </c>
       <c r="AA13" s="107" t="str">
         <f>IF(AND(NOT(Y13),AND(Y$4:Y12)),MIN(EXP((Z13-$J13)*$G13),1),"")</f>
@@ -7392,7 +7445,7 @@
       </c>
       <c r="AD13" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC13),AND(AC$4:AC12))),($J13*$G13-LN(1+Jumpoverwrite5*AE$2))/$G13,_xll.qlInterpolationInterpolate(AC$3,$F13,TRUE))</f>
-        <v>-4.9583460944427424E-4</v>
+        <v>-4.304872953212932E-4</v>
       </c>
       <c r="AE13" s="107" t="str">
         <f>IF(AND(NOT(AC13),AND(AC$4:AC12)),MIN(EXP((AD13-$J13)*$G13),1),"")</f>
@@ -7405,11 +7458,11 @@
       </c>
       <c r="AH13" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG13),AND(AG$4:AG12))),($J13*$G13-LN(1+Jumpoverwrite6*AI$2))/$G13,_xll.qlInterpolationInterpolate(AG$3,$F13,TRUE))</f>
-        <v>-5.3387569364923783E-4</v>
+        <v>-4.304872953212932E-4</v>
       </c>
       <c r="AI13" s="107">
         <f>IF(AND(NOT(AG13),AND(AG$4:AG12)),MIN(EXP((AH13-$J13)*$G13),1),"")</f>
-        <v>1</v>
+        <v>0.99999788032628345</v>
       </c>
       <c r="AJ13" s="109"/>
       <c r="AK13" s="106" t="b">
@@ -7418,7 +7471,7 @@
       </c>
       <c r="AL13" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK13),AND(AK$4:AK12))),($J13*$G13-LN(1+Jumpoverwrite7*AM$2))/$G13,_xll.qlInterpolationInterpolate(AK$3,$F13,TRUE))</f>
-        <v>-5.3387569364923783E-4</v>
+        <v>-4.304872953212932E-4</v>
       </c>
       <c r="AM13" s="107" t="str">
         <f>IF(AND(NOT(AK13),AND(AK$4:AK12)),MIN(EXP((AL13-$J13)*$G13),1),"")</f>
@@ -7430,7 +7483,7 @@
       </c>
       <c r="AP13" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO13),AND(AO$4:AO12))),($J13*$G13-LN(1+Jumpoverwrite8*AQ$2))/$G13,_xll.qlInterpolationInterpolate(AO$3,$F13,TRUE))</f>
-        <v>-5.3387569364923783E-4</v>
+        <v>-4.304872953212932E-4</v>
       </c>
       <c r="AQ13" s="107" t="str">
         <f>IF(AND(NOT(AO13),AND(AO$4:AO12)),MIN(EXP((AP13-$J13)*$G13),1),"")</f>
@@ -7442,7 +7495,7 @@
       </c>
       <c r="AT13" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS13),AND(AS$4:AS12))),($J13*$G13-LN(1+Jumpoverwrite9*AU$2))/$G13,_xll.qlInterpolationInterpolate(AS$3,$F13,TRUE))</f>
-        <v>-5.3387569364923783E-4</v>
+        <v>-4.304872953212932E-4</v>
       </c>
       <c r="AU13" s="107" t="str">
         <f>IF(AND(NOT(AS13),AND(AS$4:AS12)),MIN(EXP((AT13-$J13)*$G13),1),"")</f>
@@ -7454,7 +7507,7 @@
       </c>
       <c r="AX13" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW13),AND(AW$4:AW12))),($J13*$G13-LN(1+Jumpoverwrite10*AY$2))/$G13,_xll.qlInterpolationInterpolate(AW$3,$F13,TRUE))</f>
-        <v>-5.3387569364923783E-4</v>
+        <v>-4.304872953212932E-4</v>
       </c>
       <c r="AY13" s="107" t="str">
         <f>IF(AND(NOT(AW13),AND(AW$4:AW12)),MIN(EXP((AX13-$J13)*$G13),1),"")</f>
@@ -7466,7 +7519,7 @@
       </c>
       <c r="BB13" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA13),AND(BA$4:BA12))),($J13*$G13-LN(1+Jumpoverwrite11*BC$2))/$G13,_xll.qlInterpolationInterpolate(BA$3,$F13,TRUE))</f>
-        <v>-5.3387569364923783E-4</v>
+        <v>-4.304872953212932E-4</v>
       </c>
       <c r="BC13" s="107" t="str">
         <f>IF(AND(NOT(BA13),AND(BA$4:BA12)),MIN(EXP((BB13-$J13)*$G13),1),"")</f>
@@ -7478,7 +7531,7 @@
       </c>
       <c r="BF13" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE13),AND(BE$4:BE12))),($J13*$G13-LN(1+Jumpoverwrite12*BG$2))/$G13,_xll.qlInterpolationInterpolate(BE$3,$F13,TRUE))</f>
-        <v>-5.3387569364923783E-4</v>
+        <v>-4.304872953212932E-4</v>
       </c>
       <c r="BG13" s="107" t="str">
         <f>IF(AND(NOT(BE13),AND(BE$4:BE12)),MIN(EXP((BF13-$J13)*$G13),1),"")</f>
@@ -7490,7 +7543,7 @@
       </c>
       <c r="BJ13" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI13),AND(BI$4:BI12))),($J13*$G13-LN(1+jumpoverwrite13*BK$2))/$G13,_xll.qlInterpolationInterpolate(BI$3,$F13,TRUE))</f>
-        <v>-5.3387569364923783E-4</v>
+        <v>-4.304872953212932E-4</v>
       </c>
       <c r="BK13" s="107" t="str">
         <f>IF(AND(NOT(BI13),AND(BI$4:BI12)),MIN(EXP((BJ13-$J13)*$G13),1),"")</f>
@@ -7503,7 +7556,7 @@
       </c>
       <c r="B14" s="27">
         <f>_xll.qlRateHelperRate($A14,InterestRatesTrigger)</f>
-        <v>-5.8E-4</v>
+        <v>-3.8999999999999999E-4</v>
       </c>
       <c r="C14" s="30">
         <f>_xll.qlRateHelperEarliestDate($A14)</f>
@@ -7515,18 +7568,18 @@
       </c>
       <c r="F14" s="120">
         <f t="shared" si="0"/>
-        <v>42150</v>
+        <v>42157</v>
       </c>
       <c r="G14" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D13,D14)</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="I14" s="141" t="b">
+        <v>4.4444444444444446E-2</v>
+      </c>
+      <c r="I14" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J14" s="140">
-        <v>-6.0924945600685334E-4</v>
+      <c r="J14" s="137">
+        <v>-3.7425626693834242E-4</v>
       </c>
       <c r="K14" s="111">
         <f t="shared" si="3"/>
@@ -7539,7 +7592,7 @@
       </c>
       <c r="N14" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M14),AND(M$4:M13))),($J14*$G14-LN(1+Jumpoverwrite1*O$2))/$G14,_xll.qlInterpolationInterpolate(M$3,$F14,TRUE))</f>
-        <v>-5.1314596488274489E-4</v>
+        <v>-5.1597807955764373E-4</v>
       </c>
       <c r="O14" s="107" t="str">
         <f>IF(AND(NOT(M14),AND(M$4:M13)),MIN(EXP((N14-$J14)*$G14),1),"")</f>
@@ -7552,7 +7605,7 @@
       </c>
       <c r="R14" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q14),AND(Q$4:Q13))),($J14*$G14-LN(1+Jumpoverwrite2*S$2))/$G14,_xll.qlInterpolationInterpolate(Q$3,$F14,TRUE))</f>
-        <v>-5.1314596488274489E-4</v>
+        <v>-5.1597807955764373E-4</v>
       </c>
       <c r="S14" s="107" t="str">
         <f>IF(AND(NOT(Q14),AND(Q$4:Q13)),MIN(EXP((R14-$J14)*$G14),1),"")</f>
@@ -7565,7 +7618,7 @@
       </c>
       <c r="V14" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U14),AND(U$4:U13))),($J14*$G14-LN(1+Jumpoverwrite3*W$2))/$G14,_xll.qlInterpolationInterpolate(U$3,$F14,TRUE))</f>
-        <v>-5.1314596488274489E-4</v>
+        <v>-5.1597807955764373E-4</v>
       </c>
       <c r="W14" s="107" t="str">
         <f>IF(AND(NOT(U14),AND(U$4:U13)),MIN(EXP((V14-$J14)*$G14),1),"")</f>
@@ -7578,7 +7631,7 @@
       </c>
       <c r="Z14" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y14),AND(Y$4:Y13))),($J14*$G14-LN(1+Jumpoverwrite4*AA$2))/$G14,_xll.qlInterpolationInterpolate(Y$3,$F14,TRUE))</f>
-        <v>-5.1314596488274489E-4</v>
+        <v>-5.1597807955764373E-4</v>
       </c>
       <c r="AA14" s="107" t="str">
         <f>IF(AND(NOT(Y14),AND(Y$4:Y13)),MIN(EXP((Z14-$J14)*$G14),1),"")</f>
@@ -7591,7 +7644,7 @@
       </c>
       <c r="AD14" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC14),AND(AC$4:AC13))),($J14*$G14-LN(1+Jumpoverwrite5*AE$2))/$G14,_xll.qlInterpolationInterpolate(AC$3,$F14,TRUE))</f>
-        <v>-5.1314596488274489E-4</v>
+        <v>-5.1597807955764373E-4</v>
       </c>
       <c r="AE14" s="107" t="str">
         <f>IF(AND(NOT(AC14),AND(AC$4:AC13)),MIN(EXP((AD14-$J14)*$G14),1),"")</f>
@@ -7604,7 +7657,7 @@
       </c>
       <c r="AH14" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG14),AND(AG$4:AG13))),($J14*$G14-LN(1+Jumpoverwrite6*AI$2))/$G14,_xll.qlInterpolationInterpolate(AG$3,$F14,TRUE))</f>
-        <v>-5.1314596488274489E-4</v>
+        <v>-5.1597807955764373E-4</v>
       </c>
       <c r="AI14" s="107" t="str">
         <f>IF(AND(NOT(AG14),AND(AG$4:AG13)),MIN(EXP((AH14-$J14)*$G14),1),"")</f>
@@ -7617,11 +7670,11 @@
       </c>
       <c r="AL14" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK14),AND(AK$4:AK13))),($J14*$G14-LN(1+Jumpoverwrite7*AM$2))/$G14,_xll.qlInterpolationInterpolate(AK$3,$F14,TRUE))</f>
-        <v>-5.3884259129934281E-4</v>
+        <v>-5.1597807955764373E-4</v>
       </c>
       <c r="AM14" s="107">
         <f>IF(AND(NOT(AK14),AND(AK$4:AK13)),MIN(EXP((AL14-$J14)*$G14),1),"")</f>
-        <v>1</v>
+        <v>0.99999370127260956</v>
       </c>
       <c r="AO14" s="106" t="b">
         <f>IF(AND(NOT(AK14),AND(AK$4:AK13)),TRUE,AK14)</f>
@@ -7629,7 +7682,7 @@
       </c>
       <c r="AP14" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO14),AND(AO$4:AO13))),($J14*$G14-LN(1+Jumpoverwrite8*AQ$2))/$G14,_xll.qlInterpolationInterpolate(AO$3,$F14,TRUE))</f>
-        <v>-5.3884259129934281E-4</v>
+        <v>-5.1597807955764373E-4</v>
       </c>
       <c r="AQ14" s="107" t="str">
         <f>IF(AND(NOT(AO14),AND(AO$4:AO13)),MIN(EXP((AP14-$J14)*$G14),1),"")</f>
@@ -7641,7 +7694,7 @@
       </c>
       <c r="AT14" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS14),AND(AS$4:AS13))),($J14*$G14-LN(1+Jumpoverwrite9*AU$2))/$G14,_xll.qlInterpolationInterpolate(AS$3,$F14,TRUE))</f>
-        <v>-5.3884259129934281E-4</v>
+        <v>-5.1597807955764373E-4</v>
       </c>
       <c r="AU14" s="107" t="str">
         <f>IF(AND(NOT(AS14),AND(AS$4:AS13)),MIN(EXP((AT14-$J14)*$G14),1),"")</f>
@@ -7653,7 +7706,7 @@
       </c>
       <c r="AX14" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW14),AND(AW$4:AW13))),($J14*$G14-LN(1+Jumpoverwrite10*AY$2))/$G14,_xll.qlInterpolationInterpolate(AW$3,$F14,TRUE))</f>
-        <v>-5.3884259129934281E-4</v>
+        <v>-5.1597807955764373E-4</v>
       </c>
       <c r="AY14" s="107" t="str">
         <f>IF(AND(NOT(AW14),AND(AW$4:AW13)),MIN(EXP((AX14-$J14)*$G14),1),"")</f>
@@ -7665,7 +7718,7 @@
       </c>
       <c r="BB14" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA14),AND(BA$4:BA13))),($J14*$G14-LN(1+Jumpoverwrite11*BC$2))/$G14,_xll.qlInterpolationInterpolate(BA$3,$F14,TRUE))</f>
-        <v>-5.3884259129934281E-4</v>
+        <v>-5.1597807955764373E-4</v>
       </c>
       <c r="BC14" s="107" t="str">
         <f>IF(AND(NOT(BA14),AND(BA$4:BA13)),MIN(EXP((BB14-$J14)*$G14),1),"")</f>
@@ -7677,7 +7730,7 @@
       </c>
       <c r="BF14" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE14),AND(BE$4:BE13))),($J14*$G14-LN(1+Jumpoverwrite12*BG$2))/$G14,_xll.qlInterpolationInterpolate(BE$3,$F14,TRUE))</f>
-        <v>-5.3884259129934281E-4</v>
+        <v>-5.1597807955764373E-4</v>
       </c>
       <c r="BG14" s="107" t="str">
         <f>IF(AND(NOT(BE14),AND(BE$4:BE13)),MIN(EXP((BF14-$J14)*$G14),1),"")</f>
@@ -7689,7 +7742,7 @@
       </c>
       <c r="BJ14" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI14),AND(BI$4:BI13))),($J14*$G14-LN(1+jumpoverwrite13*BK$2))/$G14,_xll.qlInterpolationInterpolate(BI$3,$F14,TRUE))</f>
-        <v>-5.3884259129934281E-4</v>
+        <v>-5.1597807955764373E-4</v>
       </c>
       <c r="BK14" s="107" t="str">
         <f>IF(AND(NOT(BI14),AND(BI$4:BI13)),MIN(EXP((BJ14-$J14)*$G14),1),"")</f>
@@ -7698,47 +7751,47 @@
     </row>
     <row r="15" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A15" s="94" t="str">
-        <v>WEUREON8M</v>
+        <v>WEUREON7M</v>
       </c>
       <c r="B15" s="27">
         <f>_xll.qlRateHelperRate($A15,InterestRatesTrigger)</f>
-        <v>-4.0000000000000002E-4</v>
+        <v>-1.7999999999999998E-4</v>
       </c>
       <c r="C15" s="30">
         <f>_xll.qlRateHelperEarliestDate($A15)</f>
-        <v>41953</v>
+        <v>41968</v>
       </c>
       <c r="D15" s="31">
         <f>_xll.qlRateHelperLatestDate($A15)</f>
-        <v>42195</v>
+        <v>42180</v>
       </c>
       <c r="F15" s="120">
         <f t="shared" si="0"/>
-        <v>42180</v>
+        <v>42172.5</v>
       </c>
       <c r="G15" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D14,D15)</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="I15" s="141" t="b">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="I15" s="138" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="140">
-        <v>-6.7636071327818238E-4</v>
+        <v>1</v>
+      </c>
+      <c r="J15" s="137">
+        <v>-5.7621022299689066E-4</v>
       </c>
       <c r="K15" s="111">
         <f t="shared" si="3"/>
-        <v>42195</v>
+        <v>42180</v>
       </c>
       <c r="L15" s="100"/>
       <c r="M15" s="106" t="b">
         <f>IF(AND(NOT(I15),AND(I$4:I14)),TRUE,I15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M15),AND(M$4:M14))),($J15*$G15-LN(1+Jumpoverwrite1*O$2))/$G15,_xll.qlInterpolationInterpolate(M$3,$F15,TRUE))</f>
-        <v>-5.3434354297066816E-4</v>
+        <v>-5.7621022299689066E-4</v>
       </c>
       <c r="O15" s="107" t="str">
         <f>IF(AND(NOT(M15),AND(M$4:M14)),MIN(EXP((N15-$J15)*$G15),1),"")</f>
@@ -7747,11 +7800,11 @@
       <c r="P15" s="109"/>
       <c r="Q15" s="106" t="b">
         <f>IF(AND(NOT(M15),AND(M$4:M14)),TRUE,M15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q15),AND(Q$4:Q14))),($J15*$G15-LN(1+Jumpoverwrite2*S$2))/$G15,_xll.qlInterpolationInterpolate(Q$3,$F15,TRUE))</f>
-        <v>-5.3434354297066816E-4</v>
+        <v>-5.7621022299689066E-4</v>
       </c>
       <c r="S15" s="107" t="str">
         <f>IF(AND(NOT(Q15),AND(Q$4:Q14)),MIN(EXP((R15-$J15)*$G15),1),"")</f>
@@ -7760,11 +7813,11 @@
       <c r="T15" s="109"/>
       <c r="U15" s="106" t="b">
         <f>IF(AND(NOT(Q15),AND(Q$4:Q14)),TRUE,Q15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U15),AND(U$4:U14))),($J15*$G15-LN(1+Jumpoverwrite3*W$2))/$G15,_xll.qlInterpolationInterpolate(U$3,$F15,TRUE))</f>
-        <v>-5.3434354297066816E-4</v>
+        <v>-5.7621022299689066E-4</v>
       </c>
       <c r="W15" s="107" t="str">
         <f>IF(AND(NOT(U15),AND(U$4:U14)),MIN(EXP((V15-$J15)*$G15),1),"")</f>
@@ -7773,11 +7826,11 @@
       <c r="X15" s="109"/>
       <c r="Y15" s="106" t="b">
         <f>IF(AND(NOT(U15),AND(U$4:U14)),TRUE,U15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z15" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y15),AND(Y$4:Y14))),($J15*$G15-LN(1+Jumpoverwrite4*AA$2))/$G15,_xll.qlInterpolationInterpolate(Y$3,$F15,TRUE))</f>
-        <v>-5.3434354297066816E-4</v>
+        <v>-5.7621022299689066E-4</v>
       </c>
       <c r="AA15" s="107" t="str">
         <f>IF(AND(NOT(Y15),AND(Y$4:Y14)),MIN(EXP((Z15-$J15)*$G15),1),"")</f>
@@ -7786,11 +7839,11 @@
       <c r="AB15" s="109"/>
       <c r="AC15" s="106" t="b">
         <f>IF(AND(NOT(Y15),AND(Y$4:Y14)),TRUE,Y15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD15" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC15),AND(AC$4:AC14))),($J15*$G15-LN(1+Jumpoverwrite5*AE$2))/$G15,_xll.qlInterpolationInterpolate(AC$3,$F15,TRUE))</f>
-        <v>-5.3434354297066816E-4</v>
+        <v>-5.7621022299689066E-4</v>
       </c>
       <c r="AE15" s="107" t="str">
         <f>IF(AND(NOT(AC15),AND(AC$4:AC14)),MIN(EXP((AD15-$J15)*$G15),1),"")</f>
@@ -7799,11 +7852,11 @@
       <c r="AF15" s="109"/>
       <c r="AG15" s="106" t="b">
         <f>IF(AND(NOT(AC15),AND(AC$4:AC14)),TRUE,AC15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH15" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG15),AND(AG$4:AG14))),($J15*$G15-LN(1+Jumpoverwrite6*AI$2))/$G15,_xll.qlInterpolationInterpolate(AG$3,$F15,TRUE))</f>
-        <v>-5.3434354297066816E-4</v>
+        <v>-5.7621022299689066E-4</v>
       </c>
       <c r="AI15" s="107" t="str">
         <f>IF(AND(NOT(AG15),AND(AG$4:AG14)),MIN(EXP((AH15-$J15)*$G15),1),"")</f>
@@ -7812,11 +7865,11 @@
       <c r="AJ15" s="109"/>
       <c r="AK15" s="106" t="b">
         <f>IF(AND(NOT(AG15),AND(AG$4:AG14)),TRUE,AG15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL15" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK15),AND(AK$4:AK14))),($J15*$G15-LN(1+Jumpoverwrite7*AM$2))/$G15,_xll.qlInterpolationInterpolate(AK$3,$F15,TRUE))</f>
-        <v>-5.4492450678926736E-4</v>
+        <v>-5.7621022299689066E-4</v>
       </c>
       <c r="AM15" s="107" t="str">
         <f>IF(AND(NOT(AK15),AND(AK$4:AK14)),MIN(EXP((AL15-$J15)*$G15),1),"")</f>
@@ -7824,15 +7877,15 @@
       </c>
       <c r="AO15" s="106" t="b">
         <f>IF(AND(NOT(AK15),AND(AK$4:AK14)),TRUE,AK15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP15" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO15),AND(AO$4:AO14))),($J15*$G15-LN(1+Jumpoverwrite8*AQ$2))/$G15,_xll.qlInterpolationInterpolate(AO$3,$F15,TRUE))</f>
-        <v>-5.4492450678926736E-4</v>
-      </c>
-      <c r="AQ15" s="107">
+        <v>-5.7621022299689066E-4</v>
+      </c>
+      <c r="AQ15" s="107" t="str">
         <f>IF(AND(NOT(AO15),AND(AO$4:AO14)),MIN(EXP((AP15-$J15)*$G15),1),"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="AS15" s="106" t="b">
         <f>IF(AND(NOT(AO15),AND(AO$4:AO14)),TRUE,AO15)</f>
@@ -7840,7 +7893,7 @@
       </c>
       <c r="AT15" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS15),AND(AS$4:AS14))),($J15*$G15-LN(1+Jumpoverwrite9*AU$2))/$G15,_xll.qlInterpolationInterpolate(AS$3,$F15,TRUE))</f>
-        <v>-5.4492450678926736E-4</v>
+        <v>-5.7621022299689066E-4</v>
       </c>
       <c r="AU15" s="107" t="str">
         <f>IF(AND(NOT(AS15),AND(AS$4:AS14)),MIN(EXP((AT15-$J15)*$G15),1),"")</f>
@@ -7852,7 +7905,7 @@
       </c>
       <c r="AX15" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW15),AND(AW$4:AW14))),($J15*$G15-LN(1+Jumpoverwrite10*AY$2))/$G15,_xll.qlInterpolationInterpolate(AW$3,$F15,TRUE))</f>
-        <v>-5.4492450678926736E-4</v>
+        <v>-5.7621022299689066E-4</v>
       </c>
       <c r="AY15" s="107" t="str">
         <f>IF(AND(NOT(AW15),AND(AW$4:AW14)),MIN(EXP((AX15-$J15)*$G15),1),"")</f>
@@ -7864,7 +7917,7 @@
       </c>
       <c r="BB15" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA15),AND(BA$4:BA14))),($J15*$G15-LN(1+Jumpoverwrite11*BC$2))/$G15,_xll.qlInterpolationInterpolate(BA$3,$F15,TRUE))</f>
-        <v>-5.4492450678926736E-4</v>
+        <v>-5.7621022299689066E-4</v>
       </c>
       <c r="BC15" s="107" t="str">
         <f>IF(AND(NOT(BA15),AND(BA$4:BA14)),MIN(EXP((BB15-$J15)*$G15),1),"")</f>
@@ -7876,7 +7929,7 @@
       </c>
       <c r="BF15" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE15),AND(BE$4:BE14))),($J15*$G15-LN(1+Jumpoverwrite12*BG$2))/$G15,_xll.qlInterpolationInterpolate(BE$3,$F15,TRUE))</f>
-        <v>-5.4492450678926736E-4</v>
+        <v>-5.7621022299689066E-4</v>
       </c>
       <c r="BG15" s="107" t="str">
         <f>IF(AND(NOT(BE15),AND(BE$4:BE14)),MIN(EXP((BF15-$J15)*$G15),1),"")</f>
@@ -7888,7 +7941,7 @@
       </c>
       <c r="BJ15" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI15),AND(BI$4:BI14))),($J15*$G15-LN(1+jumpoverwrite13*BK$2))/$G15,_xll.qlInterpolationInterpolate(BI$3,$F15,TRUE))</f>
-        <v>-5.4492450678926736E-4</v>
+        <v>-5.7621022299689066E-4</v>
       </c>
       <c r="BK15" s="107" t="str">
         <f>IF(AND(NOT(BI15),AND(BI$4:BI14)),MIN(EXP((BJ15-$J15)*$G15),1),"")</f>
@@ -7901,7 +7954,7 @@
       </c>
       <c r="B16" s="27">
         <f>_xll.qlRateHelperRate($A16,InterestRatesTrigger)</f>
-        <v>-6.4000000000000005E-4</v>
+        <v>-5.2999999999999998E-4</v>
       </c>
       <c r="C16" s="30">
         <f>_xll.qlRateHelperEarliestDate($A16)</f>
@@ -7913,18 +7966,18 @@
       </c>
       <c r="F16" s="120">
         <f t="shared" si="0"/>
-        <v>42201</v>
+        <v>42193.5</v>
       </c>
       <c r="G16" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D15,D16)</f>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="I16" s="141" t="b">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I16" s="138" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J16" s="140">
-        <v>-5.4918184763221446E-4</v>
+        <v>0</v>
+      </c>
+      <c r="J16" s="137">
+        <v>-5.0435314416301228E-4</v>
       </c>
       <c r="K16" s="111">
         <f t="shared" si="3"/>
@@ -7933,11 +7986,11 @@
       <c r="L16" s="100"/>
       <c r="M16" s="106" t="b">
         <f>IF(AND(NOT(I16),AND(I$4:I15)),TRUE,I16)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M16),AND(M$4:M15))),($J16*$G16-LN(1+Jumpoverwrite1*O$2))/$G16,_xll.qlInterpolationInterpolate(M$3,$F16,TRUE))</f>
-        <v>-5.4918184763221446E-4</v>
+        <v>-4.6535223437429345E-4</v>
       </c>
       <c r="O16" s="107" t="str">
         <f>IF(AND(NOT(M16),AND(M$4:M15)),MIN(EXP((N16-$J16)*$G16),1),"")</f>
@@ -7946,11 +7999,11 @@
       <c r="P16" s="109"/>
       <c r="Q16" s="106" t="b">
         <f>IF(AND(NOT(M16),AND(M$4:M15)),TRUE,M16)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q16),AND(Q$4:Q15))),($J16*$G16-LN(1+Jumpoverwrite2*S$2))/$G16,_xll.qlInterpolationInterpolate(Q$3,$F16,TRUE))</f>
-        <v>-5.4918184763221446E-4</v>
+        <v>-4.6535223437429345E-4</v>
       </c>
       <c r="S16" s="107" t="str">
         <f>IF(AND(NOT(Q16),AND(Q$4:Q15)),MIN(EXP((R16-$J16)*$G16),1),"")</f>
@@ -7959,11 +8012,11 @@
       <c r="T16" s="109"/>
       <c r="U16" s="106" t="b">
         <f>IF(AND(NOT(Q16),AND(Q$4:Q15)),TRUE,Q16)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U16),AND(U$4:U15))),($J16*$G16-LN(1+Jumpoverwrite3*W$2))/$G16,_xll.qlInterpolationInterpolate(U$3,$F16,TRUE))</f>
-        <v>-5.4918184763221446E-4</v>
+        <v>-4.6535223437429345E-4</v>
       </c>
       <c r="W16" s="107" t="str">
         <f>IF(AND(NOT(U16),AND(U$4:U15)),MIN(EXP((V16-$J16)*$G16),1),"")</f>
@@ -7972,11 +8025,11 @@
       <c r="X16" s="109"/>
       <c r="Y16" s="106" t="b">
         <f>IF(AND(NOT(U16),AND(U$4:U15)),TRUE,U16)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y16),AND(Y$4:Y15))),($J16*$G16-LN(1+Jumpoverwrite4*AA$2))/$G16,_xll.qlInterpolationInterpolate(Y$3,$F16,TRUE))</f>
-        <v>-5.4918184763221446E-4</v>
+        <v>-4.6535223437429345E-4</v>
       </c>
       <c r="AA16" s="107" t="str">
         <f>IF(AND(NOT(Y16),AND(Y$4:Y15)),MIN(EXP((Z16-$J16)*$G16),1),"")</f>
@@ -7985,11 +8038,11 @@
       <c r="AB16" s="109"/>
       <c r="AC16" s="106" t="b">
         <f>IF(AND(NOT(Y16),AND(Y$4:Y15)),TRUE,Y16)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD16" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC16),AND(AC$4:AC15))),($J16*$G16-LN(1+Jumpoverwrite5*AE$2))/$G16,_xll.qlInterpolationInterpolate(AC$3,$F16,TRUE))</f>
-        <v>-5.4918184763221446E-4</v>
+        <v>-4.6535223437429345E-4</v>
       </c>
       <c r="AE16" s="107" t="str">
         <f>IF(AND(NOT(AC16),AND(AC$4:AC15)),MIN(EXP((AD16-$J16)*$G16),1),"")</f>
@@ -7998,11 +8051,11 @@
       <c r="AF16" s="109"/>
       <c r="AG16" s="106" t="b">
         <f>IF(AND(NOT(AC16),AND(AC$4:AC15)),TRUE,AC16)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH16" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG16),AND(AG$4:AG15))),($J16*$G16-LN(1+Jumpoverwrite6*AI$2))/$G16,_xll.qlInterpolationInterpolate(AG$3,$F16,TRUE))</f>
-        <v>-5.4918184763221446E-4</v>
+        <v>-4.6535223437429345E-4</v>
       </c>
       <c r="AI16" s="107" t="str">
         <f>IF(AND(NOT(AG16),AND(AG$4:AG15)),MIN(EXP((AH16-$J16)*$G16),1),"")</f>
@@ -8011,11 +8064,11 @@
       <c r="AJ16" s="109"/>
       <c r="AK16" s="106" t="b">
         <f>IF(AND(NOT(AG16),AND(AG$4:AG15)),TRUE,AG16)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL16" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK16),AND(AK$4:AK15))),($J16*$G16-LN(1+Jumpoverwrite7*AM$2))/$G16,_xll.qlInterpolationInterpolate(AK$3,$F16,TRUE))</f>
-        <v>-5.4918184763221446E-4</v>
+        <v>-4.6535223437429345E-4</v>
       </c>
       <c r="AM16" s="107" t="str">
         <f>IF(AND(NOT(AK16),AND(AK$4:AK15)),MIN(EXP((AL16-$J16)*$G16),1),"")</f>
@@ -8023,15 +8076,15 @@
       </c>
       <c r="AO16" s="106" t="b">
         <f>IF(AND(NOT(AK16),AND(AK$4:AK15)),TRUE,AK16)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP16" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO16),AND(AO$4:AO15))),($J16*$G16-LN(1+Jumpoverwrite8*AQ$2))/$G16,_xll.qlInterpolationInterpolate(AO$3,$F16,TRUE))</f>
-        <v>-5.4918184763221446E-4</v>
-      </c>
-      <c r="AQ16" s="107" t="str">
+        <v>-4.6535223437429345E-4</v>
+      </c>
+      <c r="AQ16" s="107">
         <f>IF(AND(NOT(AO16),AND(AO$4:AO15)),MIN(EXP((AP16-$J16)*$G16),1),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AS16" s="106" t="b">
         <f>IF(AND(NOT(AO16),AND(AO$4:AO15)),TRUE,AO16)</f>
@@ -8039,7 +8092,7 @@
       </c>
       <c r="AT16" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS16),AND(AS$4:AS15))),($J16*$G16-LN(1+Jumpoverwrite9*AU$2))/$G16,_xll.qlInterpolationInterpolate(AS$3,$F16,TRUE))</f>
-        <v>-5.4918184763221446E-4</v>
+        <v>-4.6535223437429345E-4</v>
       </c>
       <c r="AU16" s="107" t="str">
         <f>IF(AND(NOT(AS16),AND(AS$4:AS15)),MIN(EXP((AT16-$J16)*$G16),1),"")</f>
@@ -8051,7 +8104,7 @@
       </c>
       <c r="AX16" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW16),AND(AW$4:AW15))),($J16*$G16-LN(1+Jumpoverwrite10*AY$2))/$G16,_xll.qlInterpolationInterpolate(AW$3,$F16,TRUE))</f>
-        <v>-5.4918184763221446E-4</v>
+        <v>-4.6535223437429345E-4</v>
       </c>
       <c r="AY16" s="107" t="str">
         <f>IF(AND(NOT(AW16),AND(AW$4:AW15)),MIN(EXP((AX16-$J16)*$G16),1),"")</f>
@@ -8063,7 +8116,7 @@
       </c>
       <c r="BB16" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA16),AND(BA$4:BA15))),($J16*$G16-LN(1+Jumpoverwrite11*BC$2))/$G16,_xll.qlInterpolationInterpolate(BA$3,$F16,TRUE))</f>
-        <v>-5.4918184763221446E-4</v>
+        <v>-4.6535223437429345E-4</v>
       </c>
       <c r="BC16" s="107" t="str">
         <f>IF(AND(NOT(BA16),AND(BA$4:BA15)),MIN(EXP((BB16-$J16)*$G16),1),"")</f>
@@ -8075,7 +8128,7 @@
       </c>
       <c r="BF16" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE16),AND(BE$4:BE15))),($J16*$G16-LN(1+Jumpoverwrite12*BG$2))/$G16,_xll.qlInterpolationInterpolate(BE$3,$F16,TRUE))</f>
-        <v>-5.4918184763221446E-4</v>
+        <v>-4.6535223437429345E-4</v>
       </c>
       <c r="BG16" s="107" t="str">
         <f>IF(AND(NOT(BE16),AND(BE$4:BE15)),MIN(EXP((BF16-$J16)*$G16),1),"")</f>
@@ -8087,7 +8140,7 @@
       </c>
       <c r="BJ16" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI16),AND(BI$4:BI15))),($J16*$G16-LN(1+jumpoverwrite13*BK$2))/$G16,_xll.qlInterpolationInterpolate(BI$3,$F16,TRUE))</f>
-        <v>-5.4918184763221446E-4</v>
+        <v>-4.6535223437429345E-4</v>
       </c>
       <c r="BK16" s="107" t="str">
         <f>IF(AND(NOT(BI16),AND(BI$4:BI15)),MIN(EXP((BJ16-$J16)*$G16),1),"")</f>
@@ -8096,47 +8149,47 @@
     </row>
     <row r="17" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A17" s="94" t="str">
-        <v>WEUREON9M</v>
+        <v>WEUREON8M</v>
       </c>
       <c r="B17" s="27">
         <f>_xll.qlRateHelperRate($A17,InterestRatesTrigger)</f>
-        <v>-4.2000000000000002E-4</v>
+        <v>-2.1999999999999998E-4</v>
       </c>
       <c r="C17" s="30">
         <f>_xll.qlRateHelperEarliestDate($A17)</f>
-        <v>41953</v>
+        <v>41968</v>
       </c>
       <c r="D17" s="31">
         <f>_xll.qlRateHelperLatestDate($A17)</f>
-        <v>42226</v>
+        <v>42212</v>
       </c>
       <c r="F17" s="120">
         <f t="shared" si="0"/>
-        <v>42216.5</v>
+        <v>42209.5</v>
       </c>
       <c r="G17" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D16,D17)</f>
-        <v>5.2777777777777778E-2</v>
-      </c>
-      <c r="I17" s="141" t="b">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="I17" s="138" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="140">
-        <v>-5.9342446083072878E-4</v>
+        <v>1</v>
+      </c>
+      <c r="J17" s="137">
+        <v>-3.8088900494755271E-4</v>
       </c>
       <c r="K17" s="111">
         <f t="shared" si="3"/>
-        <v>42226</v>
+        <v>42212</v>
       </c>
       <c r="L17" s="100"/>
       <c r="M17" s="106" t="b">
         <f>IF(AND(NOT(I17),AND(I$4:I16)),TRUE,I17)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M17),AND(M$4:M16))),($J17*$G17-LN(1+Jumpoverwrite1*O$2))/$G17,_xll.qlInterpolationInterpolate(M$3,$F17,TRUE))</f>
-        <v>-5.6838954202612741E-4</v>
+        <v>-3.8088900494755271E-4</v>
       </c>
       <c r="O17" s="107" t="str">
         <f>IF(AND(NOT(M17),AND(M$4:M16)),MIN(EXP((N17-$J17)*$G17),1),"")</f>
@@ -8145,11 +8198,11 @@
       <c r="P17" s="109"/>
       <c r="Q17" s="106" t="b">
         <f>IF(AND(NOT(M17),AND(M$4:M16)),TRUE,M17)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q17),AND(Q$4:Q16))),($J17*$G17-LN(1+Jumpoverwrite2*S$2))/$G17,_xll.qlInterpolationInterpolate(Q$3,$F17,TRUE))</f>
-        <v>-5.6838954202612741E-4</v>
+        <v>-3.8088900494755271E-4</v>
       </c>
       <c r="S17" s="107" t="str">
         <f>IF(AND(NOT(Q17),AND(Q$4:Q16)),MIN(EXP((R17-$J17)*$G17),1),"")</f>
@@ -8158,11 +8211,11 @@
       <c r="T17" s="109"/>
       <c r="U17" s="106" t="b">
         <f>IF(AND(NOT(Q17),AND(Q$4:Q16)),TRUE,Q17)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U17),AND(U$4:U16))),($J17*$G17-LN(1+Jumpoverwrite3*W$2))/$G17,_xll.qlInterpolationInterpolate(U$3,$F17,TRUE))</f>
-        <v>-5.6838954202612741E-4</v>
+        <v>-3.8088900494755271E-4</v>
       </c>
       <c r="W17" s="107" t="str">
         <f>IF(AND(NOT(U17),AND(U$4:U16)),MIN(EXP((V17-$J17)*$G17),1),"")</f>
@@ -8171,11 +8224,11 @@
       <c r="X17" s="109"/>
       <c r="Y17" s="106" t="b">
         <f>IF(AND(NOT(U17),AND(U$4:U16)),TRUE,U17)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z17" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y17),AND(Y$4:Y16))),($J17*$G17-LN(1+Jumpoverwrite4*AA$2))/$G17,_xll.qlInterpolationInterpolate(Y$3,$F17,TRUE))</f>
-        <v>-5.6838954202612741E-4</v>
+        <v>-3.8088900494755271E-4</v>
       </c>
       <c r="AA17" s="107" t="str">
         <f>IF(AND(NOT(Y17),AND(Y$4:Y16)),MIN(EXP((Z17-$J17)*$G17),1),"")</f>
@@ -8184,11 +8237,11 @@
       <c r="AB17" s="109"/>
       <c r="AC17" s="106" t="b">
         <f>IF(AND(NOT(Y17),AND(Y$4:Y16)),TRUE,Y17)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD17" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC17),AND(AC$4:AC16))),($J17*$G17-LN(1+Jumpoverwrite5*AE$2))/$G17,_xll.qlInterpolationInterpolate(AC$3,$F17,TRUE))</f>
-        <v>-5.6838954202612741E-4</v>
+        <v>-3.8088900494755271E-4</v>
       </c>
       <c r="AE17" s="107" t="str">
         <f>IF(AND(NOT(AC17),AND(AC$4:AC16)),MIN(EXP((AD17-$J17)*$G17),1),"")</f>
@@ -8197,11 +8250,11 @@
       <c r="AF17" s="109"/>
       <c r="AG17" s="106" t="b">
         <f>IF(AND(NOT(AC17),AND(AC$4:AC16)),TRUE,AC17)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH17" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG17),AND(AG$4:AG16))),($J17*$G17-LN(1+Jumpoverwrite6*AI$2))/$G17,_xll.qlInterpolationInterpolate(AG$3,$F17,TRUE))</f>
-        <v>-5.6838954202612741E-4</v>
+        <v>-3.8088900494755271E-4</v>
       </c>
       <c r="AI17" s="107" t="str">
         <f>IF(AND(NOT(AG17),AND(AG$4:AG16)),MIN(EXP((AH17-$J17)*$G17),1),"")</f>
@@ -8210,11 +8263,11 @@
       <c r="AJ17" s="109"/>
       <c r="AK17" s="106" t="b">
         <f>IF(AND(NOT(AG17),AND(AG$4:AG16)),TRUE,AG17)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL17" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK17),AND(AK$4:AK16))),($J17*$G17-LN(1+Jumpoverwrite7*AM$2))/$G17,_xll.qlInterpolationInterpolate(AK$3,$F17,TRUE))</f>
-        <v>-5.6838954202612741E-4</v>
+        <v>-3.8088900494755271E-4</v>
       </c>
       <c r="AM17" s="107" t="str">
         <f>IF(AND(NOT(AK17),AND(AK$4:AK16)),MIN(EXP((AL17-$J17)*$G17),1),"")</f>
@@ -8222,11 +8275,11 @@
       </c>
       <c r="AO17" s="106" t="b">
         <f>IF(AND(NOT(AK17),AND(AK$4:AK16)),TRUE,AK17)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP17" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO17),AND(AO$4:AO16))),($J17*$G17-LN(1+Jumpoverwrite8*AQ$2))/$G17,_xll.qlInterpolationInterpolate(AO$3,$F17,TRUE))</f>
-        <v>-5.6838954202612741E-4</v>
+        <v>-3.8088900494755271E-4</v>
       </c>
       <c r="AQ17" s="107" t="str">
         <f>IF(AND(NOT(AO17),AND(AO$4:AO16)),MIN(EXP((AP17-$J17)*$G17),1),"")</f>
@@ -8234,15 +8287,15 @@
       </c>
       <c r="AS17" s="106" t="b">
         <f>IF(AND(NOT(AO17),AND(AO$4:AO16)),TRUE,AO17)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT17" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS17),AND(AS$4:AS16))),($J17*$G17-LN(1+Jumpoverwrite9*AU$2))/$G17,_xll.qlInterpolationInterpolate(AS$3,$F17,TRUE))</f>
-        <v>-5.9342446083072878E-4</v>
-      </c>
-      <c r="AU17" s="107">
+        <v>-3.8088900494755271E-4</v>
+      </c>
+      <c r="AU17" s="107" t="str">
         <f>IF(AND(NOT(AS17),AND(AS$4:AS16)),MIN(EXP((AT17-$J17)*$G17),1),"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="AW17" s="106" t="b">
         <f>IF(AND(NOT(AS17),AND(AS$4:AS16)),TRUE,AS17)</f>
@@ -8250,7 +8303,7 @@
       </c>
       <c r="AX17" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW17),AND(AW$4:AW16))),($J17*$G17-LN(1+Jumpoverwrite10*AY$2))/$G17,_xll.qlInterpolationInterpolate(AW$3,$F17,TRUE))</f>
-        <v>-5.9342446083072878E-4</v>
+        <v>-3.8088900494755271E-4</v>
       </c>
       <c r="AY17" s="107" t="str">
         <f>IF(AND(NOT(AW17),AND(AW$4:AW16)),MIN(EXP((AX17-$J17)*$G17),1),"")</f>
@@ -8262,7 +8315,7 @@
       </c>
       <c r="BB17" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA17),AND(BA$4:BA16))),($J17*$G17-LN(1+Jumpoverwrite11*BC$2))/$G17,_xll.qlInterpolationInterpolate(BA$3,$F17,TRUE))</f>
-        <v>-5.9342446083072878E-4</v>
+        <v>-3.8088900494755271E-4</v>
       </c>
       <c r="BC17" s="107" t="str">
         <f>IF(AND(NOT(BA17),AND(BA$4:BA16)),MIN(EXP((BB17-$J17)*$G17),1),"")</f>
@@ -8274,7 +8327,7 @@
       </c>
       <c r="BF17" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE17),AND(BE$4:BE16))),($J17*$G17-LN(1+Jumpoverwrite12*BG$2))/$G17,_xll.qlInterpolationInterpolate(BE$3,$F17,TRUE))</f>
-        <v>-5.9342446083072878E-4</v>
+        <v>-3.8088900494755271E-4</v>
       </c>
       <c r="BG17" s="107" t="str">
         <f>IF(AND(NOT(BE17),AND(BE$4:BE16)),MIN(EXP((BF17-$J17)*$G17),1),"")</f>
@@ -8286,7 +8339,7 @@
       </c>
       <c r="BJ17" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI17),AND(BI$4:BI16))),($J17*$G17-LN(1+jumpoverwrite13*BK$2))/$G17,_xll.qlInterpolationInterpolate(BI$3,$F17,TRUE))</f>
-        <v>-5.9342446083072878E-4</v>
+        <v>-3.8088900494755271E-4</v>
       </c>
       <c r="BK17" s="107" t="str">
         <f>IF(AND(NOT(BI17),AND(BI$4:BI16)),MIN(EXP((BJ17-$J17)*$G17),1),"")</f>
@@ -8295,38 +8348,38 @@
     </row>
     <row r="18" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A18" s="94" t="str">
-        <v>WEURECBOISJUL15</v>
+        <v>WEUREON9M</v>
       </c>
       <c r="B18" s="27">
         <f>_xll.qlRateHelperRate($A18,InterestRatesTrigger)</f>
-        <v>-6.9000000000000008E-4</v>
+        <v>-2.6000000000000003E-4</v>
       </c>
       <c r="C18" s="30">
         <f>_xll.qlRateHelperEarliestDate($A18)</f>
-        <v>42207</v>
+        <v>41968</v>
       </c>
       <c r="D18" s="31">
         <f>_xll.qlRateHelperLatestDate($A18)</f>
-        <v>42256</v>
+        <v>42241</v>
       </c>
       <c r="F18" s="120">
         <f t="shared" si="0"/>
-        <v>42241</v>
+        <v>42226.5</v>
       </c>
       <c r="G18" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D17,D18)</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="I18" s="141" t="b">
+        <v>8.0555555555555561E-2</v>
+      </c>
+      <c r="I18" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J18" s="140">
-        <v>-7.5121743349644934E-4</v>
+      <c r="J18" s="137">
+        <v>-5.9665502844219963E-4</v>
       </c>
       <c r="K18" s="111">
         <f t="shared" si="3"/>
-        <v>42256</v>
+        <v>42241</v>
       </c>
       <c r="L18" s="100"/>
       <c r="M18" s="106" t="b">
@@ -8335,7 +8388,7 @@
       </c>
       <c r="N18" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M18),AND(M$4:M17))),($J18*$G18-LN(1+Jumpoverwrite1*O$2))/$G18,_xll.qlInterpolationInterpolate(M$3,$F18,TRUE))</f>
-        <v>-5.9875009122940933E-4</v>
+        <v>-4.8825476446525339E-4</v>
       </c>
       <c r="O18" s="107" t="str">
         <f>IF(AND(NOT(M18),AND(M$4:M17)),MIN(EXP((N18-$J18)*$G18),1),"")</f>
@@ -8348,7 +8401,7 @@
       </c>
       <c r="R18" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q18),AND(Q$4:Q17))),($J18*$G18-LN(1+Jumpoverwrite2*S$2))/$G18,_xll.qlInterpolationInterpolate(Q$3,$F18,TRUE))</f>
-        <v>-5.9875009122940933E-4</v>
+        <v>-4.8825476446525339E-4</v>
       </c>
       <c r="S18" s="107" t="str">
         <f>IF(AND(NOT(Q18),AND(Q$4:Q17)),MIN(EXP((R18-$J18)*$G18),1),"")</f>
@@ -8361,7 +8414,7 @@
       </c>
       <c r="V18" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U18),AND(U$4:U17))),($J18*$G18-LN(1+Jumpoverwrite3*W$2))/$G18,_xll.qlInterpolationInterpolate(U$3,$F18,TRUE))</f>
-        <v>-5.9875009122940933E-4</v>
+        <v>-4.8825476446525339E-4</v>
       </c>
       <c r="W18" s="107" t="str">
         <f>IF(AND(NOT(U18),AND(U$4:U17)),MIN(EXP((V18-$J18)*$G18),1),"")</f>
@@ -8374,7 +8427,7 @@
       </c>
       <c r="Z18" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y18),AND(Y$4:Y17))),($J18*$G18-LN(1+Jumpoverwrite4*AA$2))/$G18,_xll.qlInterpolationInterpolate(Y$3,$F18,TRUE))</f>
-        <v>-5.9875009122940933E-4</v>
+        <v>-4.8825476446525339E-4</v>
       </c>
       <c r="AA18" s="107" t="str">
         <f>IF(AND(NOT(Y18),AND(Y$4:Y17)),MIN(EXP((Z18-$J18)*$G18),1),"")</f>
@@ -8387,7 +8440,7 @@
       </c>
       <c r="AD18" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC18),AND(AC$4:AC17))),($J18*$G18-LN(1+Jumpoverwrite5*AE$2))/$G18,_xll.qlInterpolationInterpolate(AC$3,$F18,TRUE))</f>
-        <v>-5.9875009122940933E-4</v>
+        <v>-4.8825476446525339E-4</v>
       </c>
       <c r="AE18" s="107" t="str">
         <f>IF(AND(NOT(AC18),AND(AC$4:AC17)),MIN(EXP((AD18-$J18)*$G18),1),"")</f>
@@ -8400,7 +8453,7 @@
       </c>
       <c r="AH18" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG18),AND(AG$4:AG17))),($J18*$G18-LN(1+Jumpoverwrite6*AI$2))/$G18,_xll.qlInterpolationInterpolate(AG$3,$F18,TRUE))</f>
-        <v>-5.9875009122940933E-4</v>
+        <v>-4.8825476446525339E-4</v>
       </c>
       <c r="AI18" s="107" t="str">
         <f>IF(AND(NOT(AG18),AND(AG$4:AG17)),MIN(EXP((AH18-$J18)*$G18),1),"")</f>
@@ -8413,7 +8466,7 @@
       </c>
       <c r="AL18" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK18),AND(AK$4:AK17))),($J18*$G18-LN(1+Jumpoverwrite7*AM$2))/$G18,_xll.qlInterpolationInterpolate(AK$3,$F18,TRUE))</f>
-        <v>-5.9875009122940933E-4</v>
+        <v>-4.8825476446525339E-4</v>
       </c>
       <c r="AM18" s="107" t="str">
         <f>IF(AND(NOT(AK18),AND(AK$4:AK17)),MIN(EXP((AL18-$J18)*$G18),1),"")</f>
@@ -8425,7 +8478,7 @@
       </c>
       <c r="AP18" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO18),AND(AO$4:AO17))),($J18*$G18-LN(1+Jumpoverwrite8*AQ$2))/$G18,_xll.qlInterpolationInterpolate(AO$3,$F18,TRUE))</f>
-        <v>-5.9875009122940933E-4</v>
+        <v>-4.8825476446525339E-4</v>
       </c>
       <c r="AQ18" s="107" t="str">
         <f>IF(AND(NOT(AO18),AND(AO$4:AO17)),MIN(EXP((AP18-$J18)*$G18),1),"")</f>
@@ -8437,23 +8490,23 @@
       </c>
       <c r="AT18" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS18),AND(AS$4:AS17))),($J18*$G18-LN(1+Jumpoverwrite9*AU$2))/$G18,_xll.qlInterpolationInterpolate(AS$3,$F18,TRUE))</f>
-        <v>-5.9875009122940933E-4</v>
-      </c>
-      <c r="AU18" s="107" t="str">
+        <v>-4.8825476446525339E-4</v>
+      </c>
+      <c r="AU18" s="107">
         <f>IF(AND(NOT(AS18),AND(AS$4:AS17)),MIN(EXP((AT18-$J18)*$G18),1),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AW18" s="106" t="b">
         <f>IF(AND(NOT(AS18),AND(AS$4:AS17)),TRUE,AS18)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX18" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW18),AND(AW$4:AW17))),($J18*$G18-LN(1+Jumpoverwrite10*AY$2))/$G18,_xll.qlInterpolationInterpolate(AW$3,$F18,TRUE))</f>
-        <v>-6.1616568691956681E-4</v>
-      </c>
-      <c r="AY18" s="107">
+        <v>-4.8825476446525339E-4</v>
+      </c>
+      <c r="AY18" s="107" t="str">
         <f>IF(AND(NOT(AW18),AND(AW$4:AW17)),MIN(EXP((AX18-$J18)*$G18),1),"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="BA18" s="106" t="b">
         <f>IF(AND(NOT(AW18),AND(AW$4:AW17)),TRUE,AW18)</f>
@@ -8461,7 +8514,7 @@
       </c>
       <c r="BB18" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA18),AND(BA$4:BA17))),($J18*$G18-LN(1+Jumpoverwrite11*BC$2))/$G18,_xll.qlInterpolationInterpolate(BA$3,$F18,TRUE))</f>
-        <v>-6.1616568691956681E-4</v>
+        <v>-4.8825476446525339E-4</v>
       </c>
       <c r="BC18" s="107" t="str">
         <f>IF(AND(NOT(BA18),AND(BA$4:BA17)),MIN(EXP((BB18-$J18)*$G18),1),"")</f>
@@ -8473,7 +8526,7 @@
       </c>
       <c r="BF18" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE18),AND(BE$4:BE17))),($J18*$G18-LN(1+Jumpoverwrite12*BG$2))/$G18,_xll.qlInterpolationInterpolate(BE$3,$F18,TRUE))</f>
-        <v>-6.1616568691956681E-4</v>
+        <v>-4.8825476446525339E-4</v>
       </c>
       <c r="BG18" s="107" t="str">
         <f>IF(AND(NOT(BE18),AND(BE$4:BE17)),MIN(EXP((BF18-$J18)*$G18),1),"")</f>
@@ -8485,7 +8538,7 @@
       </c>
       <c r="BJ18" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI18),AND(BI$4:BI17))),($J18*$G18-LN(1+jumpoverwrite13*BK$2))/$G18,_xll.qlInterpolationInterpolate(BI$3,$F18,TRUE))</f>
-        <v>-6.1616568691956681E-4</v>
+        <v>-4.8825476446525339E-4</v>
       </c>
       <c r="BK18" s="107" t="str">
         <f>IF(AND(NOT(BI18),AND(BI$4:BI17)),MIN(EXP((BJ18-$J18)*$G18),1),"")</f>
@@ -8494,38 +8547,38 @@
     </row>
     <row r="19" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A19" s="94" t="str">
-        <v>WEUREON11M</v>
+        <v>WEURECBOISJUL15</v>
       </c>
       <c r="B19" s="27">
         <f>_xll.qlRateHelperRate($A19,InterestRatesTrigger)</f>
-        <v>-4.8000000000000001E-4</v>
+        <v>-6.3000000000000003E-4</v>
       </c>
       <c r="C19" s="30">
         <f>_xll.qlRateHelperEarliestDate($A19)</f>
-        <v>41953</v>
+        <v>42207</v>
       </c>
       <c r="D19" s="31">
         <f>_xll.qlRateHelperLatestDate($A19)</f>
-        <v>42289</v>
+        <v>42256</v>
       </c>
       <c r="F19" s="120">
         <f t="shared" si="0"/>
-        <v>42272.5</v>
+        <v>42248.5</v>
       </c>
       <c r="G19" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D18,D19)</f>
-        <v>9.166666666666666E-2</v>
-      </c>
-      <c r="I19" s="141" t="b">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="I19" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J19" s="140">
-        <v>-7.3034397047211678E-4</v>
+      <c r="J19" s="137">
+        <v>-7.7759218515284999E-4</v>
       </c>
       <c r="K19" s="111">
         <f t="shared" si="3"/>
-        <v>42289</v>
+        <v>42256</v>
       </c>
       <c r="L19" s="100"/>
       <c r="M19" s="106" t="b">
@@ -8534,7 +8587,7 @@
       </c>
       <c r="N19" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M19),AND(M$4:M18))),($J19*$G19-LN(1+Jumpoverwrite1*O$2))/$G19,_xll.qlInterpolationInterpolate(M$3,$F19,TRUE))</f>
-        <v>-6.3778508306220022E-4</v>
+        <v>-6.2719868854698379E-4</v>
       </c>
       <c r="O19" s="107" t="str">
         <f>IF(AND(NOT(M19),AND(M$4:M18)),MIN(EXP((N19-$J19)*$G19),1),"")</f>
@@ -8547,7 +8600,7 @@
       </c>
       <c r="R19" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q19),AND(Q$4:Q18))),($J19*$G19-LN(1+Jumpoverwrite2*S$2))/$G19,_xll.qlInterpolationInterpolate(Q$3,$F19,TRUE))</f>
-        <v>-6.3778508306220022E-4</v>
+        <v>-6.2719868854698379E-4</v>
       </c>
       <c r="S19" s="107" t="str">
         <f>IF(AND(NOT(Q19),AND(Q$4:Q18)),MIN(EXP((R19-$J19)*$G19),1),"")</f>
@@ -8560,7 +8613,7 @@
       </c>
       <c r="V19" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U19),AND(U$4:U18))),($J19*$G19-LN(1+Jumpoverwrite3*W$2))/$G19,_xll.qlInterpolationInterpolate(U$3,$F19,TRUE))</f>
-        <v>-6.3778508306220022E-4</v>
+        <v>-6.2719868854698379E-4</v>
       </c>
       <c r="W19" s="107" t="str">
         <f>IF(AND(NOT(U19),AND(U$4:U18)),MIN(EXP((V19-$J19)*$G19),1),"")</f>
@@ -8573,7 +8626,7 @@
       </c>
       <c r="Z19" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y19),AND(Y$4:Y18))),($J19*$G19-LN(1+Jumpoverwrite4*AA$2))/$G19,_xll.qlInterpolationInterpolate(Y$3,$F19,TRUE))</f>
-        <v>-6.3778508306220022E-4</v>
+        <v>-6.2719868854698379E-4</v>
       </c>
       <c r="AA19" s="107" t="str">
         <f>IF(AND(NOT(Y19),AND(Y$4:Y18)),MIN(EXP((Z19-$J19)*$G19),1),"")</f>
@@ -8586,7 +8639,7 @@
       </c>
       <c r="AD19" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC19),AND(AC$4:AC18))),($J19*$G19-LN(1+Jumpoverwrite5*AE$2))/$G19,_xll.qlInterpolationInterpolate(AC$3,$F19,TRUE))</f>
-        <v>-6.3778508306220022E-4</v>
+        <v>-6.2719868854698379E-4</v>
       </c>
       <c r="AE19" s="107" t="str">
         <f>IF(AND(NOT(AC19),AND(AC$4:AC18)),MIN(EXP((AD19-$J19)*$G19),1),"")</f>
@@ -8599,7 +8652,7 @@
       </c>
       <c r="AH19" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG19),AND(AG$4:AG18))),($J19*$G19-LN(1+Jumpoverwrite6*AI$2))/$G19,_xll.qlInterpolationInterpolate(AG$3,$F19,TRUE))</f>
-        <v>-6.3778508306220022E-4</v>
+        <v>-6.2719868854698379E-4</v>
       </c>
       <c r="AI19" s="107" t="str">
         <f>IF(AND(NOT(AG19),AND(AG$4:AG18)),MIN(EXP((AH19-$J19)*$G19),1),"")</f>
@@ -8612,7 +8665,7 @@
       </c>
       <c r="AL19" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK19),AND(AK$4:AK18))),($J19*$G19-LN(1+Jumpoverwrite7*AM$2))/$G19,_xll.qlInterpolationInterpolate(AK$3,$F19,TRUE))</f>
-        <v>-6.3778508306220022E-4</v>
+        <v>-6.2719868854698379E-4</v>
       </c>
       <c r="AM19" s="107" t="str">
         <f>IF(AND(NOT(AK19),AND(AK$4:AK18)),MIN(EXP((AL19-$J19)*$G19),1),"")</f>
@@ -8624,7 +8677,7 @@
       </c>
       <c r="AP19" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO19),AND(AO$4:AO18))),($J19*$G19-LN(1+Jumpoverwrite8*AQ$2))/$G19,_xll.qlInterpolationInterpolate(AO$3,$F19,TRUE))</f>
-        <v>-6.3778508306220022E-4</v>
+        <v>-6.2719868854698379E-4</v>
       </c>
       <c r="AQ19" s="107" t="str">
         <f>IF(AND(NOT(AO19),AND(AO$4:AO18)),MIN(EXP((AP19-$J19)*$G19),1),"")</f>
@@ -8636,7 +8689,7 @@
       </c>
       <c r="AT19" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS19),AND(AS$4:AS18))),($J19*$G19-LN(1+Jumpoverwrite9*AU$2))/$G19,_xll.qlInterpolationInterpolate(AS$3,$F19,TRUE))</f>
-        <v>-6.3778508306220022E-4</v>
+        <v>-6.2719868854698379E-4</v>
       </c>
       <c r="AU19" s="107" t="str">
         <f>IF(AND(NOT(AS19),AND(AS$4:AS18)),MIN(EXP((AT19-$J19)*$G19),1),"")</f>
@@ -8648,23 +8701,23 @@
       </c>
       <c r="AX19" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW19),AND(AW$4:AW18))),($J19*$G19-LN(1+Jumpoverwrite10*AY$2))/$G19,_xll.qlInterpolationInterpolate(AW$3,$F19,TRUE))</f>
-        <v>-6.4540440617664421E-4</v>
-      </c>
-      <c r="AY19" s="107" t="str">
+        <v>-6.2719868854698379E-4</v>
+      </c>
+      <c r="AY19" s="107">
         <f>IF(AND(NOT(AW19),AND(AW$4:AW18)),MIN(EXP((AX19-$J19)*$G19),1),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="BA19" s="106" t="b">
         <f>IF(AND(NOT(AW19),AND(AW$4:AW18)),TRUE,AW19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB19" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA19),AND(BA$4:BA18))),($J19*$G19-LN(1+Jumpoverwrite11*BC$2))/$G19,_xll.qlInterpolationInterpolate(BA$3,$F19,TRUE))</f>
-        <v>-7.3034397047211667E-4</v>
-      </c>
-      <c r="BC19" s="107">
+        <v>-6.2719868854698379E-4</v>
+      </c>
+      <c r="BC19" s="107" t="str">
         <f>IF(AND(NOT(BA19),AND(BA$4:BA18)),MIN(EXP((BB19-$J19)*$G19),1),"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="BE19" s="106" t="b">
         <f>IF(AND(NOT(BA19),AND(BA$4:BA18)),TRUE,BA19)</f>
@@ -8672,7 +8725,7 @@
       </c>
       <c r="BF19" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE19),AND(BE$4:BE18))),($J19*$G19-LN(1+Jumpoverwrite12*BG$2))/$G19,_xll.qlInterpolationInterpolate(BE$3,$F19,TRUE))</f>
-        <v>-7.3034397047211667E-4</v>
+        <v>-6.2719868854698379E-4</v>
       </c>
       <c r="BG19" s="107" t="str">
         <f>IF(AND(NOT(BE19),AND(BE$4:BE18)),MIN(EXP((BF19-$J19)*$G19),1),"")</f>
@@ -8684,7 +8737,7 @@
       </c>
       <c r="BJ19" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI19),AND(BI$4:BI18))),($J19*$G19-LN(1+jumpoverwrite13*BK$2))/$G19,_xll.qlInterpolationInterpolate(BI$3,$F19,TRUE))</f>
-        <v>-7.3034397047211667E-4</v>
+        <v>-6.2719868854698379E-4</v>
       </c>
       <c r="BK19" s="107" t="str">
         <f>IF(AND(NOT(BI19),AND(BI$4:BI18)),MIN(EXP((BJ19-$J19)*$G19),1),"")</f>
@@ -8693,38 +8746,38 @@
     </row>
     <row r="20" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A20" s="94" t="str">
-        <v>WEURECBOISSEP15</v>
+        <v>WEUREON10M</v>
       </c>
       <c r="B20" s="27">
         <f>_xll.qlRateHelperRate($A20,InterestRatesTrigger)</f>
-        <v>-7.1000000000000013E-4</v>
+        <v>-3.0999999999999995E-4</v>
       </c>
       <c r="C20" s="30">
         <f>_xll.qlRateHelperEarliestDate($A20)</f>
-        <v>42256</v>
+        <v>41968</v>
       </c>
       <c r="D20" s="31">
         <f>_xll.qlRateHelperLatestDate($A20)</f>
-        <v>42305</v>
+        <v>42272</v>
       </c>
       <c r="F20" s="120">
         <f t="shared" si="0"/>
-        <v>42297</v>
+        <v>42264</v>
       </c>
       <c r="G20" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D19,D20)</f>
         <v>4.4444444444444446E-2</v>
       </c>
-      <c r="I20" s="141" t="b">
+      <c r="I20" s="138" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J20" s="140">
-        <v>-6.6814563226548214E-4</v>
+      <c r="J20" s="137">
+        <v>-7.2509099869547556E-4</v>
       </c>
       <c r="K20" s="111">
         <f t="shared" si="3"/>
-        <v>42305</v>
+        <v>42272</v>
       </c>
       <c r="L20" s="100"/>
       <c r="M20" s="106" t="b">
@@ -8733,7 +8786,7 @@
       </c>
       <c r="N20" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M20),AND(M$4:M19))),($J20*$G20-LN(1+Jumpoverwrite1*O$2))/$G20,_xll.qlInterpolationInterpolate(M$3,$F20,TRUE))</f>
-        <v>-6.6814563226548214E-4</v>
+        <v>-7.2509099869547556E-4</v>
       </c>
       <c r="O20" s="107" t="str">
         <f>IF(AND(NOT(M20),AND(M$4:M19)),MIN(EXP((N20-$J20)*$G20),1),"")</f>
@@ -8746,7 +8799,7 @@
       </c>
       <c r="R20" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q20),AND(Q$4:Q19))),($J20*$G20-LN(1+Jumpoverwrite2*S$2))/$G20,_xll.qlInterpolationInterpolate(Q$3,$F20,TRUE))</f>
-        <v>-6.6814563226548214E-4</v>
+        <v>-7.2509099869547556E-4</v>
       </c>
       <c r="S20" s="107" t="str">
         <f>IF(AND(NOT(Q20),AND(Q$4:Q19)),MIN(EXP((R20-$J20)*$G20),1),"")</f>
@@ -8759,7 +8812,7 @@
       </c>
       <c r="V20" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U20),AND(U$4:U19))),($J20*$G20-LN(1+Jumpoverwrite3*W$2))/$G20,_xll.qlInterpolationInterpolate(U$3,$F20,TRUE))</f>
-        <v>-6.6814563226548214E-4</v>
+        <v>-7.2509099869547556E-4</v>
       </c>
       <c r="W20" s="107" t="str">
         <f>IF(AND(NOT(U20),AND(U$4:U19)),MIN(EXP((V20-$J20)*$G20),1),"")</f>
@@ -8772,7 +8825,7 @@
       </c>
       <c r="Z20" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y20),AND(Y$4:Y19))),($J20*$G20-LN(1+Jumpoverwrite4*AA$2))/$G20,_xll.qlInterpolationInterpolate(Y$3,$F20,TRUE))</f>
-        <v>-6.6814563226548214E-4</v>
+        <v>-7.2509099869547556E-4</v>
       </c>
       <c r="AA20" s="107" t="str">
         <f>IF(AND(NOT(Y20),AND(Y$4:Y19)),MIN(EXP((Z20-$J20)*$G20),1),"")</f>
@@ -8785,7 +8838,7 @@
       </c>
       <c r="AD20" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC20),AND(AC$4:AC19))),($J20*$G20-LN(1+Jumpoverwrite5*AE$2))/$G20,_xll.qlInterpolationInterpolate(AC$3,$F20,TRUE))</f>
-        <v>-6.6814563226548214E-4</v>
+        <v>-7.2509099869547556E-4</v>
       </c>
       <c r="AE20" s="107" t="str">
         <f>IF(AND(NOT(AC20),AND(AC$4:AC19)),MIN(EXP((AD20-$J20)*$G20),1),"")</f>
@@ -8798,7 +8851,7 @@
       </c>
       <c r="AH20" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG20),AND(AG$4:AG19))),($J20*$G20-LN(1+Jumpoverwrite6*AI$2))/$G20,_xll.qlInterpolationInterpolate(AG$3,$F20,TRUE))</f>
-        <v>-6.6814563226548214E-4</v>
+        <v>-7.2509099869547556E-4</v>
       </c>
       <c r="AI20" s="107" t="str">
         <f>IF(AND(NOT(AG20),AND(AG$4:AG19)),MIN(EXP((AH20-$J20)*$G20),1),"")</f>
@@ -8811,7 +8864,7 @@
       </c>
       <c r="AL20" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK20),AND(AK$4:AK19))),($J20*$G20-LN(1+Jumpoverwrite7*AM$2))/$G20,_xll.qlInterpolationInterpolate(AK$3,$F20,TRUE))</f>
-        <v>-6.6814563226548214E-4</v>
+        <v>-7.2509099869547556E-4</v>
       </c>
       <c r="AM20" s="107" t="str">
         <f>IF(AND(NOT(AK20),AND(AK$4:AK19)),MIN(EXP((AL20-$J20)*$G20),1),"")</f>
@@ -8823,7 +8876,7 @@
       </c>
       <c r="AP20" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO20),AND(AO$4:AO19))),($J20*$G20-LN(1+Jumpoverwrite8*AQ$2))/$G20,_xll.qlInterpolationInterpolate(AO$3,$F20,TRUE))</f>
-        <v>-6.6814563226548214E-4</v>
+        <v>-7.2509099869547556E-4</v>
       </c>
       <c r="AQ20" s="107" t="str">
         <f>IF(AND(NOT(AO20),AND(AO$4:AO19)),MIN(EXP((AP20-$J20)*$G20),1),"")</f>
@@ -8835,7 +8888,7 @@
       </c>
       <c r="AT20" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS20),AND(AS$4:AS19))),($J20*$G20-LN(1+Jumpoverwrite9*AU$2))/$G20,_xll.qlInterpolationInterpolate(AS$3,$F20,TRUE))</f>
-        <v>-6.6814563226548214E-4</v>
+        <v>-7.2509099869547556E-4</v>
       </c>
       <c r="AU20" s="107" t="str">
         <f>IF(AND(NOT(AS20),AND(AS$4:AS19)),MIN(EXP((AT20-$J20)*$G20),1),"")</f>
@@ -8847,7 +8900,7 @@
       </c>
       <c r="AX20" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW20),AND(AW$4:AW19))),($J20*$G20-LN(1+Jumpoverwrite10*AY$2))/$G20,_xll.qlInterpolationInterpolate(AW$3,$F20,TRUE))</f>
-        <v>-6.6814563226548214E-4</v>
+        <v>-7.2509099869547556E-4</v>
       </c>
       <c r="AY20" s="107" t="str">
         <f>IF(AND(NOT(AW20),AND(AW$4:AW19)),MIN(EXP((AX20-$J20)*$G20),1),"")</f>
@@ -8859,7 +8912,7 @@
       </c>
       <c r="BB20" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA20),AND(BA$4:BA19))),($J20*$G20-LN(1+Jumpoverwrite11*BC$2))/$G20,_xll.qlInterpolationInterpolate(BA$3,$F20,TRUE))</f>
-        <v>-6.6814563226548214E-4</v>
+        <v>-7.2509099869547556E-4</v>
       </c>
       <c r="BC20" s="107" t="str">
         <f>IF(AND(NOT(BA20),AND(BA$4:BA19)),MIN(EXP((BB20-$J20)*$G20),1),"")</f>
@@ -8871,7 +8924,7 @@
       </c>
       <c r="BF20" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE20),AND(BE$4:BE19))),($J20*$G20-LN(1+Jumpoverwrite12*BG$2))/$G20,_xll.qlInterpolationInterpolate(BE$3,$F20,TRUE))</f>
-        <v>-6.6814563226548214E-4</v>
+        <v>-7.2509099869547556E-4</v>
       </c>
       <c r="BG20" s="107" t="str">
         <f>IF(AND(NOT(BE20),AND(BE$4:BE19)),MIN(EXP((BF20-$J20)*$G20),1),"")</f>
@@ -8883,7 +8936,7 @@
       </c>
       <c r="BJ20" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI20),AND(BI$4:BI19))),($J20*$G20-LN(1+jumpoverwrite13*BK$2))/$G20,_xll.qlInterpolationInterpolate(BI$3,$F20,TRUE))</f>
-        <v>-6.6814563226548214E-4</v>
+        <v>-7.2509099869547556E-4</v>
       </c>
       <c r="BK20" s="107" t="str">
         <f>IF(AND(NOT(BI20),AND(BI$4:BI19)),MIN(EXP((BJ20-$J20)*$G20),1),"")</f>
@@ -8892,38 +8945,38 @@
     </row>
     <row r="21" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A21" s="94" t="str">
-        <v>WEUREON1Y</v>
+        <v>WEURECBOISSEP15</v>
       </c>
       <c r="B21" s="27">
         <f>_xll.qlRateHelperRate($A21,InterestRatesTrigger)</f>
-        <v>-5.0000000000000001E-4</v>
+        <v>-6.6E-4</v>
       </c>
       <c r="C21" s="30">
         <f>_xll.qlRateHelperEarliestDate($A21)</f>
-        <v>41953</v>
+        <v>42256</v>
       </c>
       <c r="D21" s="31">
         <f>_xll.qlRateHelperLatestDate($A21)</f>
-        <v>42318</v>
+        <v>42305</v>
       </c>
       <c r="F21" s="120">
         <f t="shared" si="0"/>
-        <v>42311.5</v>
+        <v>42288.5</v>
       </c>
       <c r="G21" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D20,D21)</f>
-        <v>3.6111111111111108E-2</v>
-      </c>
-      <c r="I21" s="141" t="b">
+        <v>9.166666666666666E-2</v>
+      </c>
+      <c r="I21" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J21" s="140">
-        <v>-8.1075436079430417E-4</v>
+      <c r="J21" s="137">
+        <v>-6.2848474887398616E-4</v>
       </c>
       <c r="K21" s="111">
         <f t="shared" si="3"/>
-        <v>42318</v>
+        <v>42305</v>
       </c>
       <c r="L21" s="100"/>
       <c r="M21" s="106" t="b">
@@ -8932,7 +8985,7 @@
       </c>
       <c r="N21" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M21),AND(M$4:M20))),($J21*$G21-LN(1+Jumpoverwrite1*O$2))/$G21,_xll.qlInterpolationInterpolate(M$3,$F21,TRUE))</f>
-        <v>-6.5738340207199971E-4</v>
+        <v>-7.008918644820036E-4</v>
       </c>
       <c r="O21" s="107" t="str">
         <f>IF(AND(NOT(M21),AND(M$4:M20)),MIN(EXP((N21-$J21)*$G21),1),"")</f>
@@ -8945,7 +8998,7 @@
       </c>
       <c r="R21" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q21),AND(Q$4:Q20))),($J21*$G21-LN(1+Jumpoverwrite2*S$2))/$G21,_xll.qlInterpolationInterpolate(Q$3,$F21,TRUE))</f>
-        <v>-6.5738340207199971E-4</v>
+        <v>-7.008918644820036E-4</v>
       </c>
       <c r="S21" s="107" t="str">
         <f>IF(AND(NOT(Q21),AND(Q$4:Q20)),MIN(EXP((R21-$J21)*$G21),1),"")</f>
@@ -8958,7 +9011,7 @@
       </c>
       <c r="V21" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U21),AND(U$4:U20))),($J21*$G21-LN(1+Jumpoverwrite3*W$2))/$G21,_xll.qlInterpolationInterpolate(U$3,$F21,TRUE))</f>
-        <v>-6.5738340207199971E-4</v>
+        <v>-7.008918644820036E-4</v>
       </c>
       <c r="W21" s="107" t="str">
         <f>IF(AND(NOT(U21),AND(U$4:U20)),MIN(EXP((V21-$J21)*$G21),1),"")</f>
@@ -8971,7 +9024,7 @@
       </c>
       <c r="Z21" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y21),AND(Y$4:Y20))),($J21*$G21-LN(1+Jumpoverwrite4*AA$2))/$G21,_xll.qlInterpolationInterpolate(Y$3,$F21,TRUE))</f>
-        <v>-6.5738340207199971E-4</v>
+        <v>-7.008918644820036E-4</v>
       </c>
       <c r="AA21" s="107" t="str">
         <f>IF(AND(NOT(Y21),AND(Y$4:Y20)),MIN(EXP((Z21-$J21)*$G21),1),"")</f>
@@ -8984,7 +9037,7 @@
       </c>
       <c r="AD21" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC21),AND(AC$4:AC20))),($J21*$G21-LN(1+Jumpoverwrite5*AE$2))/$G21,_xll.qlInterpolationInterpolate(AC$3,$F21,TRUE))</f>
-        <v>-6.5738340207199971E-4</v>
+        <v>-7.008918644820036E-4</v>
       </c>
       <c r="AE21" s="107" t="str">
         <f>IF(AND(NOT(AC21),AND(AC$4:AC20)),MIN(EXP((AD21-$J21)*$G21),1),"")</f>
@@ -8997,7 +9050,7 @@
       </c>
       <c r="AH21" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG21),AND(AG$4:AG20))),($J21*$G21-LN(1+Jumpoverwrite6*AI$2))/$G21,_xll.qlInterpolationInterpolate(AG$3,$F21,TRUE))</f>
-        <v>-6.5738340207199971E-4</v>
+        <v>-7.008918644820036E-4</v>
       </c>
       <c r="AI21" s="107" t="str">
         <f>IF(AND(NOT(AG21),AND(AG$4:AG20)),MIN(EXP((AH21-$J21)*$G21),1),"")</f>
@@ -9010,7 +9063,7 @@
       </c>
       <c r="AL21" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK21),AND(AK$4:AK20))),($J21*$G21-LN(1+Jumpoverwrite7*AM$2))/$G21,_xll.qlInterpolationInterpolate(AK$3,$F21,TRUE))</f>
-        <v>-6.5738340207199971E-4</v>
+        <v>-7.008918644820036E-4</v>
       </c>
       <c r="AM21" s="107" t="str">
         <f>IF(AND(NOT(AK21),AND(AK$4:AK20)),MIN(EXP((AL21-$J21)*$G21),1),"")</f>
@@ -9022,7 +9075,7 @@
       </c>
       <c r="AP21" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO21),AND(AO$4:AO20))),($J21*$G21-LN(1+Jumpoverwrite8*AQ$2))/$G21,_xll.qlInterpolationInterpolate(AO$3,$F21,TRUE))</f>
-        <v>-6.5738340207199971E-4</v>
+        <v>-7.008918644820036E-4</v>
       </c>
       <c r="AQ21" s="107" t="str">
         <f>IF(AND(NOT(AO21),AND(AO$4:AO20)),MIN(EXP((AP21-$J21)*$G21),1),"")</f>
@@ -9034,7 +9087,7 @@
       </c>
       <c r="AT21" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS21),AND(AS$4:AS20))),($J21*$G21-LN(1+Jumpoverwrite9*AU$2))/$G21,_xll.qlInterpolationInterpolate(AS$3,$F21,TRUE))</f>
-        <v>-6.5738340207199971E-4</v>
+        <v>-7.008918644820036E-4</v>
       </c>
       <c r="AU21" s="107" t="str">
         <f>IF(AND(NOT(AS21),AND(AS$4:AS20)),MIN(EXP((AT21-$J21)*$G21),1),"")</f>
@@ -9046,7 +9099,7 @@
       </c>
       <c r="AX21" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW21),AND(AW$4:AW20))),($J21*$G21-LN(1+Jumpoverwrite10*AY$2))/$G21,_xll.qlInterpolationInterpolate(AW$3,$F21,TRUE))</f>
-        <v>-6.5738340207199971E-4</v>
+        <v>-7.008918644820036E-4</v>
       </c>
       <c r="AY21" s="107" t="str">
         <f>IF(AND(NOT(AW21),AND(AW$4:AW20)),MIN(EXP((AX21-$J21)*$G21),1),"")</f>
@@ -9058,23 +9111,23 @@
       </c>
       <c r="BB21" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA21),AND(BA$4:BA20))),($J21*$G21-LN(1+Jumpoverwrite11*BC$2))/$G21,_xll.qlInterpolationInterpolate(BA$3,$F21,TRUE))</f>
-        <v>-6.5738340207199971E-4</v>
-      </c>
-      <c r="BC21" s="107" t="str">
+        <v>-7.008918644820036E-4</v>
+      </c>
+      <c r="BC21" s="107">
         <f>IF(AND(NOT(BA21),AND(BA$4:BA20)),MIN(EXP((BB21-$J21)*$G21),1),"")</f>
-        <v/>
+        <v>0.99999336270309624</v>
       </c>
       <c r="BE21" s="106" t="b">
         <f>IF(AND(NOT(BA21),AND(BA$4:BA20)),TRUE,BA21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF21" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE21),AND(BE$4:BE20))),($J21*$G21-LN(1+Jumpoverwrite12*BG$2))/$G21,_xll.qlInterpolationInterpolate(BE$3,$F21,TRUE))</f>
-        <v>-6.5738340207199971E-4</v>
-      </c>
-      <c r="BG21" s="107">
+        <v>-7.008918644820036E-4</v>
+      </c>
+      <c r="BG21" s="107" t="str">
         <f>IF(AND(NOT(BE21),AND(BE$4:BE20)),MIN(EXP((BF21-$J21)*$G21),1),"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="BI21" s="106" t="b">
         <f t="shared" si="1"/>
@@ -9082,7 +9135,7 @@
       </c>
       <c r="BJ21" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI21),AND(BI$4:BI20))),($J21*$G21-LN(1+jumpoverwrite13*BK$2))/$G21,_xll.qlInterpolationInterpolate(BI$3,$F21,TRUE))</f>
-        <v>-6.5738340207199971E-4</v>
+        <v>-7.008918644820036E-4</v>
       </c>
       <c r="BK21" s="107" t="str">
         <f>IF(AND(NOT(BI21),AND(BI$4:BI20)),MIN(EXP((BJ21-$J21)*$G21),1),"")</f>
@@ -9091,38 +9144,38 @@
     </row>
     <row r="22" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A22" s="94" t="str">
-        <v>WEURECBOISOCT15</v>
+        <v>WEUREON1Y</v>
       </c>
       <c r="B22" s="27">
         <f>_xll.qlRateHelperRate($A22,InterestRatesTrigger)</f>
-        <v>-6.6E-4</v>
+        <v>-3.5999999999999997E-4</v>
       </c>
       <c r="C22" s="30">
         <f>_xll.qlRateHelperEarliestDate($A22)</f>
-        <v>42305</v>
+        <v>41968</v>
       </c>
       <c r="D22" s="31">
         <f>_xll.qlRateHelperLatestDate($A22)</f>
-        <v>42347</v>
+        <v>42333</v>
       </c>
       <c r="F22" s="120">
         <f t="shared" si="0"/>
-        <v>42332.5</v>
+        <v>42319</v>
       </c>
       <c r="G22" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D21,D22)</f>
-        <v>8.0555555555555561E-2</v>
-      </c>
-      <c r="I22" s="141" t="b">
+        <v>7.7777777777777779E-2</v>
+      </c>
+      <c r="I22" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J22" s="140">
-        <v>-5.9245726152636145E-4</v>
+      <c r="J22" s="137">
+        <v>-5.8684473210764013E-4</v>
       </c>
       <c r="K22" s="111">
         <f t="shared" si="3"/>
-        <v>42347</v>
+        <v>42333</v>
       </c>
       <c r="L22" s="100"/>
       <c r="M22" s="106" t="b">
@@ -9131,7 +9184,7 @@
       </c>
       <c r="N22" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M22),AND(M$4:M21))),($J22*$G22-LN(1+Jumpoverwrite1*O$2))/$G22,_xll.qlInterpolationInterpolate(M$3,$F22,TRUE))</f>
-        <v>-6.4179672386074937E-4</v>
+        <v>-6.707664116856406E-4</v>
       </c>
       <c r="O22" s="107" t="str">
         <f>IF(AND(NOT(M22),AND(M$4:M21)),MIN(EXP((N22-$J22)*$G22),1),"")</f>
@@ -9144,7 +9197,7 @@
       </c>
       <c r="R22" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q22),AND(Q$4:Q21))),($J22*$G22-LN(1+Jumpoverwrite2*S$2))/$G22,_xll.qlInterpolationInterpolate(Q$3,$F22,TRUE))</f>
-        <v>-6.4179672386074937E-4</v>
+        <v>-6.707664116856406E-4</v>
       </c>
       <c r="S22" s="107" t="str">
         <f>IF(AND(NOT(Q22),AND(Q$4:Q21)),MIN(EXP((R22-$J22)*$G22),1),"")</f>
@@ -9157,7 +9210,7 @@
       </c>
       <c r="V22" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U22),AND(U$4:U21))),($J22*$G22-LN(1+Jumpoverwrite3*W$2))/$G22,_xll.qlInterpolationInterpolate(U$3,$F22,TRUE))</f>
-        <v>-6.4179672386074937E-4</v>
+        <v>-6.707664116856406E-4</v>
       </c>
       <c r="W22" s="107" t="str">
         <f>IF(AND(NOT(U22),AND(U$4:U21)),MIN(EXP((V22-$J22)*$G22),1),"")</f>
@@ -9170,7 +9223,7 @@
       </c>
       <c r="Z22" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y22),AND(Y$4:Y21))),($J22*$G22-LN(1+Jumpoverwrite4*AA$2))/$G22,_xll.qlInterpolationInterpolate(Y$3,$F22,TRUE))</f>
-        <v>-6.4179672386074937E-4</v>
+        <v>-6.707664116856406E-4</v>
       </c>
       <c r="AA22" s="107" t="str">
         <f>IF(AND(NOT(Y22),AND(Y$4:Y21)),MIN(EXP((Z22-$J22)*$G22),1),"")</f>
@@ -9183,7 +9236,7 @@
       </c>
       <c r="AD22" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC22),AND(AC$4:AC21))),($J22*$G22-LN(1+Jumpoverwrite5*AE$2))/$G22,_xll.qlInterpolationInterpolate(AC$3,$F22,TRUE))</f>
-        <v>-6.4179672386074937E-4</v>
+        <v>-6.707664116856406E-4</v>
       </c>
       <c r="AE22" s="107" t="str">
         <f>IF(AND(NOT(AC22),AND(AC$4:AC21)),MIN(EXP((AD22-$J22)*$G22),1),"")</f>
@@ -9196,7 +9249,7 @@
       </c>
       <c r="AH22" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG22),AND(AG$4:AG21))),($J22*$G22-LN(1+Jumpoverwrite6*AI$2))/$G22,_xll.qlInterpolationInterpolate(AG$3,$F22,TRUE))</f>
-        <v>-6.4179672386074937E-4</v>
+        <v>-6.707664116856406E-4</v>
       </c>
       <c r="AI22" s="107" t="str">
         <f>IF(AND(NOT(AG22),AND(AG$4:AG21)),MIN(EXP((AH22-$J22)*$G22),1),"")</f>
@@ -9209,7 +9262,7 @@
       </c>
       <c r="AL22" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK22),AND(AK$4:AK21))),($J22*$G22-LN(1+Jumpoverwrite7*AM$2))/$G22,_xll.qlInterpolationInterpolate(AK$3,$F22,TRUE))</f>
-        <v>-6.4179672386074937E-4</v>
+        <v>-6.707664116856406E-4</v>
       </c>
       <c r="AM22" s="107" t="str">
         <f>IF(AND(NOT(AK22),AND(AK$4:AK21)),MIN(EXP((AL22-$J22)*$G22),1),"")</f>
@@ -9221,7 +9274,7 @@
       </c>
       <c r="AP22" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO22),AND(AO$4:AO21))),($J22*$G22-LN(1+Jumpoverwrite8*AQ$2))/$G22,_xll.qlInterpolationInterpolate(AO$3,$F22,TRUE))</f>
-        <v>-6.4179672386074937E-4</v>
+        <v>-6.707664116856406E-4</v>
       </c>
       <c r="AQ22" s="107" t="str">
         <f>IF(AND(NOT(AO22),AND(AO$4:AO21)),MIN(EXP((AP22-$J22)*$G22),1),"")</f>
@@ -9233,7 +9286,7 @@
       </c>
       <c r="AT22" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS22),AND(AS$4:AS21))),($J22*$G22-LN(1+Jumpoverwrite9*AU$2))/$G22,_xll.qlInterpolationInterpolate(AS$3,$F22,TRUE))</f>
-        <v>-6.4179672386074937E-4</v>
+        <v>-6.707664116856406E-4</v>
       </c>
       <c r="AU22" s="107" t="str">
         <f>IF(AND(NOT(AS22),AND(AS$4:AS21)),MIN(EXP((AT22-$J22)*$G22),1),"")</f>
@@ -9245,7 +9298,7 @@
       </c>
       <c r="AX22" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW22),AND(AW$4:AW21))),($J22*$G22-LN(1+Jumpoverwrite10*AY$2))/$G22,_xll.qlInterpolationInterpolate(AW$3,$F22,TRUE))</f>
-        <v>-6.4179672386074937E-4</v>
+        <v>-6.707664116856406E-4</v>
       </c>
       <c r="AY22" s="107" t="str">
         <f>IF(AND(NOT(AW22),AND(AW$4:AW21)),MIN(EXP((AX22-$J22)*$G22),1),"")</f>
@@ -9257,7 +9310,7 @@
       </c>
       <c r="BB22" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA22),AND(BA$4:BA21))),($J22*$G22-LN(1+Jumpoverwrite11*BC$2))/$G22,_xll.qlInterpolationInterpolate(BA$3,$F22,TRUE))</f>
-        <v>-6.4179672386074937E-4</v>
+        <v>-6.707664116856406E-4</v>
       </c>
       <c r="BC22" s="107" t="str">
         <f>IF(AND(NOT(BA22),AND(BA$4:BA21)),MIN(EXP((BB22-$J22)*$G22),1),"")</f>
@@ -9269,11 +9322,11 @@
       </c>
       <c r="BF22" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE22),AND(BE$4:BE21))),($J22*$G22-LN(1+Jumpoverwrite12*BG$2))/$G22,_xll.qlInterpolationInterpolate(BE$3,$F22,TRUE))</f>
-        <v>-6.4179672386074937E-4</v>
-      </c>
-      <c r="BG22" s="107" t="str">
+        <v>-6.9398714282510794E-4</v>
+      </c>
+      <c r="BG22" s="107">
         <f>IF(AND(NOT(BE22),AND(BE$4:BE21)),MIN(EXP((BF22-$J22)*$G22),1),"")</f>
-        <v/>
+        <v>0.99999166673611051</v>
       </c>
       <c r="BI22" s="106" t="b">
         <f t="shared" si="1"/>
@@ -9281,7 +9334,7 @@
       </c>
       <c r="BJ22" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI22),AND(BI$4:BI21))),($J22*$G22-LN(1+jumpoverwrite13*BK$2))/$G22,_xll.qlInterpolationInterpolate(BI$3,$F22,TRUE))</f>
-        <v>-6.4179672386074937E-4</v>
+        <v>-6.9398714282510794E-4</v>
       </c>
       <c r="BK22" s="107" t="str">
         <f>IF(AND(NOT(BI22),AND(BI$4:BI21)),MIN(EXP((BJ22-$J22)*$G22),1),"")</f>
@@ -9290,38 +9343,38 @@
     </row>
     <row r="23" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A23" s="94" t="str">
-        <v>WEUREON15M</v>
+        <v>WEURECBOISOCT15</v>
       </c>
       <c r="B23" s="27">
         <f>_xll.qlRateHelperRate($A23,InterestRatesTrigger)</f>
-        <v>-4.8999999999999998E-4</v>
+        <v>-6.4999999999999997E-4</v>
       </c>
       <c r="C23" s="30">
         <f>_xll.qlRateHelperEarliestDate($A23)</f>
-        <v>41953</v>
+        <v>42305</v>
       </c>
       <c r="D23" s="31">
         <f>_xll.qlRateHelperLatestDate($A23)</f>
-        <v>42410</v>
+        <v>42347</v>
       </c>
       <c r="F23" s="120">
         <f t="shared" si="0"/>
-        <v>42378.5</v>
+        <v>42340</v>
       </c>
       <c r="G23" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D22,D23)</f>
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="I23" s="141" t="b">
+        <v>3.888888888888889E-2</v>
+      </c>
+      <c r="I23" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J23" s="140">
-        <v>-3.8494513741021172E-4</v>
+      <c r="J23" s="137">
+        <v>-7.7638447702389984E-4</v>
       </c>
       <c r="K23" s="111">
         <f t="shared" si="3"/>
-        <v>42410</v>
+        <v>42347</v>
       </c>
       <c r="L23" s="100"/>
       <c r="M23" s="106" t="b">
@@ -9330,7 +9383,7 @@
       </c>
       <c r="N23" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M23),AND(M$4:M22))),($J23*$G23-LN(1+Jumpoverwrite1*O$2))/$G23,_xll.qlInterpolationInterpolate(M$3,$F23,TRUE))</f>
-        <v>-6.0765447635039143E-4</v>
+        <v>-6.5002429664552175E-4</v>
       </c>
       <c r="O23" s="107" t="str">
         <f>IF(AND(NOT(M23),AND(M$4:M22)),MIN(EXP((N23-$J23)*$G23),1),"")</f>
@@ -9343,7 +9396,7 @@
       </c>
       <c r="R23" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q23),AND(Q$4:Q22))),($J23*$G23-LN(1+Jumpoverwrite2*S$2))/$G23,_xll.qlInterpolationInterpolate(Q$3,$F23,TRUE))</f>
-        <v>-6.0765447635039143E-4</v>
+        <v>-6.5002429664552175E-4</v>
       </c>
       <c r="S23" s="107" t="str">
         <f>IF(AND(NOT(Q23),AND(Q$4:Q22)),MIN(EXP((R23-$J23)*$G23),1),"")</f>
@@ -9356,7 +9409,7 @@
       </c>
       <c r="V23" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U23),AND(U$4:U22))),($J23*$G23-LN(1+Jumpoverwrite3*W$2))/$G23,_xll.qlInterpolationInterpolate(U$3,$F23,TRUE))</f>
-        <v>-6.0765447635039143E-4</v>
+        <v>-6.5002429664552175E-4</v>
       </c>
       <c r="W23" s="107" t="str">
         <f>IF(AND(NOT(U23),AND(U$4:U22)),MIN(EXP((V23-$J23)*$G23),1),"")</f>
@@ -9369,7 +9422,7 @@
       </c>
       <c r="Z23" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y23),AND(Y$4:Y22))),($J23*$G23-LN(1+Jumpoverwrite4*AA$2))/$G23,_xll.qlInterpolationInterpolate(Y$3,$F23,TRUE))</f>
-        <v>-6.0765447635039143E-4</v>
+        <v>-6.5002429664552175E-4</v>
       </c>
       <c r="AA23" s="107" t="str">
         <f>IF(AND(NOT(Y23),AND(Y$4:Y22)),MIN(EXP((Z23-$J23)*$G23),1),"")</f>
@@ -9382,7 +9435,7 @@
       </c>
       <c r="AD23" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC23),AND(AC$4:AC22))),($J23*$G23-LN(1+Jumpoverwrite5*AE$2))/$G23,_xll.qlInterpolationInterpolate(AC$3,$F23,TRUE))</f>
-        <v>-6.0765447635039143E-4</v>
+        <v>-6.5002429664552175E-4</v>
       </c>
       <c r="AE23" s="107" t="str">
         <f>IF(AND(NOT(AC23),AND(AC$4:AC22)),MIN(EXP((AD23-$J23)*$G23),1),"")</f>
@@ -9395,7 +9448,7 @@
       </c>
       <c r="AH23" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG23),AND(AG$4:AG22))),($J23*$G23-LN(1+Jumpoverwrite6*AI$2))/$G23,_xll.qlInterpolationInterpolate(AG$3,$F23,TRUE))</f>
-        <v>-6.0765447635039143E-4</v>
+        <v>-6.5002429664552175E-4</v>
       </c>
       <c r="AI23" s="107" t="str">
         <f>IF(AND(NOT(AG23),AND(AG$4:AG22)),MIN(EXP((AH23-$J23)*$G23),1),"")</f>
@@ -9408,7 +9461,7 @@
       </c>
       <c r="AL23" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK23),AND(AK$4:AK22))),($J23*$G23-LN(1+Jumpoverwrite7*AM$2))/$G23,_xll.qlInterpolationInterpolate(AK$3,$F23,TRUE))</f>
-        <v>-6.0765447635039143E-4</v>
+        <v>-6.5002429664552175E-4</v>
       </c>
       <c r="AM23" s="107" t="str">
         <f>IF(AND(NOT(AK23),AND(AK$4:AK22)),MIN(EXP((AL23-$J23)*$G23),1),"")</f>
@@ -9420,7 +9473,7 @@
       </c>
       <c r="AP23" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO23),AND(AO$4:AO22))),($J23*$G23-LN(1+Jumpoverwrite8*AQ$2))/$G23,_xll.qlInterpolationInterpolate(AO$3,$F23,TRUE))</f>
-        <v>-6.0765447635039143E-4</v>
+        <v>-6.5002429664552175E-4</v>
       </c>
       <c r="AQ23" s="107" t="str">
         <f>IF(AND(NOT(AO23),AND(AO$4:AO22)),MIN(EXP((AP23-$J23)*$G23),1),"")</f>
@@ -9432,7 +9485,7 @@
       </c>
       <c r="AT23" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS23),AND(AS$4:AS22))),($J23*$G23-LN(1+Jumpoverwrite9*AU$2))/$G23,_xll.qlInterpolationInterpolate(AS$3,$F23,TRUE))</f>
-        <v>-6.0765447635039143E-4</v>
+        <v>-6.5002429664552175E-4</v>
       </c>
       <c r="AU23" s="107" t="str">
         <f>IF(AND(NOT(AS23),AND(AS$4:AS22)),MIN(EXP((AT23-$J23)*$G23),1),"")</f>
@@ -9444,7 +9497,7 @@
       </c>
       <c r="AX23" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW23),AND(AW$4:AW22))),($J23*$G23-LN(1+Jumpoverwrite10*AY$2))/$G23,_xll.qlInterpolationInterpolate(AW$3,$F23,TRUE))</f>
-        <v>-6.0765447635039143E-4</v>
+        <v>-6.5002429664552175E-4</v>
       </c>
       <c r="AY23" s="107" t="str">
         <f>IF(AND(NOT(AW23),AND(AW$4:AW22)),MIN(EXP((AX23-$J23)*$G23),1),"")</f>
@@ -9456,7 +9509,7 @@
       </c>
       <c r="BB23" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA23),AND(BA$4:BA22))),($J23*$G23-LN(1+Jumpoverwrite11*BC$2))/$G23,_xll.qlInterpolationInterpolate(BA$3,$F23,TRUE))</f>
-        <v>-6.0765447635039143E-4</v>
+        <v>-6.5002429664552175E-4</v>
       </c>
       <c r="BC23" s="107" t="str">
         <f>IF(AND(NOT(BA23),AND(BA$4:BA22)),MIN(EXP((BB23-$J23)*$G23),1),"")</f>
@@ -9468,7 +9521,7 @@
       </c>
       <c r="BF23" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE23),AND(BE$4:BE22))),($J23*$G23-LN(1+Jumpoverwrite12*BG$2))/$G23,_xll.qlInterpolationInterpolate(BE$3,$F23,TRUE))</f>
-        <v>-6.0765447635039143E-4</v>
+        <v>-6.5002429664552175E-4</v>
       </c>
       <c r="BG23" s="107" t="str">
         <f>IF(AND(NOT(BE23),AND(BE$4:BE22)),MIN(EXP((BF23-$J23)*$G23),1),"")</f>
@@ -9476,60 +9529,60 @@
       </c>
       <c r="BI23" s="106" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ23" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI23),AND(BI$4:BI22))),($J23*$G23-LN(1+jumpoverwrite13*BK$2))/$G23,_xll.qlInterpolationInterpolate(BI$3,$F23,TRUE))</f>
-        <v>-6.0765447635039143E-4</v>
-      </c>
-      <c r="BK23" s="107">
+        <v>-6.5002429664552175E-4</v>
+      </c>
+      <c r="BK23" s="107" t="str">
         <f>IF(AND(NOT(BI23),AND(BI$4:BI22)),MIN(EXP((BJ23-$J23)*$G23),1),"")</f>
-        <v>0.99996102662516717</v>
+        <v/>
       </c>
     </row>
     <row r="24" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A24" s="94" t="str">
-        <v>WEUREON18M</v>
+        <v>WEURECBOISDEC15</v>
       </c>
       <c r="B24" s="27">
         <f>_xll.qlRateHelperRate($A24,InterestRatesTrigger)</f>
-        <v>-5.0000000000000001E-4</v>
+        <v>-3.4000000000000002E-4</v>
       </c>
       <c r="C24" s="30">
         <f>_xll.qlRateHelperEarliestDate($A24)</f>
-        <v>41953</v>
+        <v>42347</v>
       </c>
       <c r="D24" s="31">
         <f>_xll.qlRateHelperLatestDate($A24)</f>
-        <v>42500</v>
+        <v>42395</v>
       </c>
       <c r="F24" s="120">
         <f t="shared" si="0"/>
-        <v>42455</v>
+        <v>42371</v>
       </c>
       <c r="G24" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D23,D24)</f>
-        <v>0.25</v>
-      </c>
-      <c r="I24" s="141" t="b">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="I24" s="138" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J24" s="140">
-        <v>-5.5087443429512224E-4</v>
+        <v>0</v>
+      </c>
+      <c r="J24" s="137">
+        <v>-3.4000770690004645E-4</v>
       </c>
       <c r="K24" s="111">
         <f t="shared" si="3"/>
-        <v>42500</v>
+        <v>42395</v>
       </c>
       <c r="L24" s="100"/>
       <c r="M24" s="106" t="b">
         <f>IF(AND(NOT(I24),AND(I$4:I23)),TRUE,I24)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M24),AND(M$4:M23))),($J24*$G24-LN(1+Jumpoverwrite1*O$2))/$G24,_xll.qlInterpolationInterpolate(M$3,$F24,TRUE))</f>
-        <v>-5.5087443429512224E-4</v>
+        <v>-6.1940498396725115E-4</v>
       </c>
       <c r="O24" s="107" t="str">
         <f>IF(AND(NOT(M24),AND(M$4:M23)),MIN(EXP((N24-$J24)*$G24),1),"")</f>
@@ -9538,11 +9591,11 @@
       <c r="P24" s="109"/>
       <c r="Q24" s="106" t="b">
         <f>IF(AND(NOT(M24),AND(M$4:M23)),TRUE,M24)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q24),AND(Q$4:Q23))),($J24*$G24-LN(1+Jumpoverwrite2*S$2))/$G24,_xll.qlInterpolationInterpolate(Q$3,$F24,TRUE))</f>
-        <v>-5.5087443429512224E-4</v>
+        <v>-6.1940498396725115E-4</v>
       </c>
       <c r="S24" s="107" t="str">
         <f>IF(AND(NOT(Q24),AND(Q$4:Q23)),MIN(EXP((R24-$J24)*$G24),1),"")</f>
@@ -9551,11 +9604,11 @@
       <c r="T24" s="109"/>
       <c r="U24" s="106" t="b">
         <f>IF(AND(NOT(Q24),AND(Q$4:Q23)),TRUE,Q24)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U24),AND(U$4:U23))),($J24*$G24-LN(1+Jumpoverwrite3*W$2))/$G24,_xll.qlInterpolationInterpolate(U$3,$F24,TRUE))</f>
-        <v>-5.5087443429512224E-4</v>
+        <v>-6.1940498396725115E-4</v>
       </c>
       <c r="W24" s="107" t="str">
         <f>IF(AND(NOT(U24),AND(U$4:U23)),MIN(EXP((V24-$J24)*$G24),1),"")</f>
@@ -9564,11 +9617,11 @@
       <c r="X24" s="109"/>
       <c r="Y24" s="106" t="b">
         <f>IF(AND(NOT(U24),AND(U$4:U23)),TRUE,U24)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y24),AND(Y$4:Y23))),($J24*$G24-LN(1+Jumpoverwrite4*AA$2))/$G24,_xll.qlInterpolationInterpolate(Y$3,$F24,TRUE))</f>
-        <v>-5.5087443429512224E-4</v>
+        <v>-6.1940498396725115E-4</v>
       </c>
       <c r="AA24" s="107" t="str">
         <f>IF(AND(NOT(Y24),AND(Y$4:Y23)),MIN(EXP((Z24-$J24)*$G24),1),"")</f>
@@ -9577,11 +9630,11 @@
       <c r="AB24" s="109"/>
       <c r="AC24" s="106" t="b">
         <f>IF(AND(NOT(Y24),AND(Y$4:Y23)),TRUE,Y24)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD24" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC24),AND(AC$4:AC23))),($J24*$G24-LN(1+Jumpoverwrite5*AE$2))/$G24,_xll.qlInterpolationInterpolate(AC$3,$F24,TRUE))</f>
-        <v>-5.5087443429512224E-4</v>
+        <v>-6.1940498396725115E-4</v>
       </c>
       <c r="AE24" s="107" t="str">
         <f>IF(AND(NOT(AC24),AND(AC$4:AC23)),MIN(EXP((AD24-$J24)*$G24),1),"")</f>
@@ -9590,11 +9643,11 @@
       <c r="AF24" s="109"/>
       <c r="AG24" s="106" t="b">
         <f>IF(AND(NOT(AC24),AND(AC$4:AC23)),TRUE,AC24)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH24" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG24),AND(AG$4:AG23))),($J24*$G24-LN(1+Jumpoverwrite6*AI$2))/$G24,_xll.qlInterpolationInterpolate(AG$3,$F24,TRUE))</f>
-        <v>-5.5087443429512224E-4</v>
+        <v>-6.1940498396725115E-4</v>
       </c>
       <c r="AI24" s="107" t="str">
         <f>IF(AND(NOT(AG24),AND(AG$4:AG23)),MIN(EXP((AH24-$J24)*$G24),1),"")</f>
@@ -9603,11 +9656,11 @@
       <c r="AJ24" s="109"/>
       <c r="AK24" s="106" t="b">
         <f>IF(AND(NOT(AG24),AND(AG$4:AG23)),TRUE,AG24)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL24" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK24),AND(AK$4:AK23))),($J24*$G24-LN(1+Jumpoverwrite7*AM$2))/$G24,_xll.qlInterpolationInterpolate(AK$3,$F24,TRUE))</f>
-        <v>-5.5087443429512224E-4</v>
+        <v>-6.1940498396725115E-4</v>
       </c>
       <c r="AM24" s="107" t="str">
         <f>IF(AND(NOT(AK24),AND(AK$4:AK23)),MIN(EXP((AL24-$J24)*$G24),1),"")</f>
@@ -9615,11 +9668,11 @@
       </c>
       <c r="AO24" s="106" t="b">
         <f>IF(AND(NOT(AK24),AND(AK$4:AK23)),TRUE,AK24)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP24" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO24),AND(AO$4:AO23))),($J24*$G24-LN(1+Jumpoverwrite8*AQ$2))/$G24,_xll.qlInterpolationInterpolate(AO$3,$F24,TRUE))</f>
-        <v>-5.5087443429512224E-4</v>
+        <v>-6.1940498396725115E-4</v>
       </c>
       <c r="AQ24" s="107" t="str">
         <f>IF(AND(NOT(AO24),AND(AO$4:AO23)),MIN(EXP((AP24-$J24)*$G24),1),"")</f>
@@ -9627,11 +9680,11 @@
       </c>
       <c r="AS24" s="106" t="b">
         <f>IF(AND(NOT(AO24),AND(AO$4:AO23)),TRUE,AO24)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS24),AND(AS$4:AS23))),($J24*$G24-LN(1+Jumpoverwrite9*AU$2))/$G24,_xll.qlInterpolationInterpolate(AS$3,$F24,TRUE))</f>
-        <v>-5.5087443429512224E-4</v>
+        <v>-6.1940498396725115E-4</v>
       </c>
       <c r="AU24" s="107" t="str">
         <f>IF(AND(NOT(AS24),AND(AS$4:AS23)),MIN(EXP((AT24-$J24)*$G24),1),"")</f>
@@ -9639,11 +9692,11 @@
       </c>
       <c r="AW24" s="106" t="b">
         <f>IF(AND(NOT(AS24),AND(AS$4:AS23)),TRUE,AS24)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX24" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW24),AND(AW$4:AW23))),($J24*$G24-LN(1+Jumpoverwrite10*AY$2))/$G24,_xll.qlInterpolationInterpolate(AW$3,$F24,TRUE))</f>
-        <v>-5.5087443429512224E-4</v>
+        <v>-6.1940498396725115E-4</v>
       </c>
       <c r="AY24" s="107" t="str">
         <f>IF(AND(NOT(AW24),AND(AW$4:AW23)),MIN(EXP((AX24-$J24)*$G24),1),"")</f>
@@ -9651,11 +9704,11 @@
       </c>
       <c r="BA24" s="106" t="b">
         <f>IF(AND(NOT(AW24),AND(AW$4:AW23)),TRUE,AW24)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB24" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA24),AND(BA$4:BA23))),($J24*$G24-LN(1+Jumpoverwrite11*BC$2))/$G24,_xll.qlInterpolationInterpolate(BA$3,$F24,TRUE))</f>
-        <v>-5.5087443429512224E-4</v>
+        <v>-6.1940498396725115E-4</v>
       </c>
       <c r="BC24" s="107" t="str">
         <f>IF(AND(NOT(BA24),AND(BA$4:BA23)),MIN(EXP((BB24-$J24)*$G24),1),"")</f>
@@ -9663,11 +9716,11 @@
       </c>
       <c r="BE24" s="106" t="b">
         <f>IF(AND(NOT(BA24),AND(BA$4:BA23)),TRUE,BA24)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF24" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE24),AND(BE$4:BE23))),($J24*$G24-LN(1+Jumpoverwrite12*BG$2))/$G24,_xll.qlInterpolationInterpolate(BE$3,$F24,TRUE))</f>
-        <v>-5.5087443429512224E-4</v>
+        <v>-6.1940498396725115E-4</v>
       </c>
       <c r="BG24" s="107" t="str">
         <f>IF(AND(NOT(BE24),AND(BE$4:BE23)),MIN(EXP((BF24-$J24)*$G24),1),"")</f>
@@ -9679,56 +9732,56 @@
       </c>
       <c r="BJ24" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI24),AND(BI$4:BI23))),($J24*$G24-LN(1+jumpoverwrite13*BK$2))/$G24,_xll.qlInterpolationInterpolate(BI$3,$F24,TRUE))</f>
-        <v>-5.5087443429512235E-4</v>
-      </c>
-      <c r="BK24" s="107" t="str">
+        <v>-7.5666279992068965E-4</v>
+      </c>
+      <c r="BK24" s="107">
         <f>IF(AND(NOT(BI24),AND(BI$4:BI23)),MIN(EXP((BJ24-$J24)*$G24),1),"")</f>
-        <v/>
+        <v>0.99994444753069278</v>
       </c>
     </row>
     <row r="25" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A25" s="94" t="str">
-        <v>WEUREON21M</v>
+        <v>WEUREON15M</v>
       </c>
       <c r="B25" s="27">
         <f>_xll.qlRateHelperRate($A25,InterestRatesTrigger)</f>
-        <v>-4.6999999999999999E-4</v>
+        <v>-4.0000000000000002E-4</v>
       </c>
       <c r="C25" s="30">
         <f>_xll.qlRateHelperEarliestDate($A25)</f>
-        <v>41953</v>
+        <v>41968</v>
       </c>
       <c r="D25" s="31">
         <f>_xll.qlRateHelperLatestDate($A25)</f>
-        <v>42592</v>
+        <v>42425</v>
       </c>
       <c r="F25" s="120">
         <f t="shared" si="0"/>
-        <v>42546</v>
+        <v>42410</v>
       </c>
       <c r="G25" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D24,D25)</f>
-        <v>0.25555555555555554</v>
-      </c>
-      <c r="I25" s="141" t="b">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="I25" s="138" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J25" s="140">
-        <v>-2.9175401485212395E-4</v>
+        <v>0</v>
+      </c>
+      <c r="J25" s="137">
+        <v>-8.0706107878875382E-4</v>
       </c>
       <c r="K25" s="111">
         <f t="shared" si="3"/>
-        <v>42592</v>
+        <v>42425</v>
       </c>
       <c r="L25" s="100"/>
       <c r="M25" s="106" t="b">
         <f>IF(AND(NOT(I25),AND(I$4:I24)),TRUE,I25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M25),AND(M$4:M24))),($J25*$G25-LN(1+Jumpoverwrite1*O$2))/$G25,_xll.qlInterpolationInterpolate(M$3,$F25,TRUE))</f>
-        <v>-2.9175401485212395E-4</v>
+        <v>-5.8088391317845909E-4</v>
       </c>
       <c r="O25" s="107" t="str">
         <f>IF(AND(NOT(M25),AND(M$4:M24)),MIN(EXP((N25-$J25)*$G25),1),"")</f>
@@ -9737,11 +9790,11 @@
       <c r="P25" s="109"/>
       <c r="Q25" s="106" t="b">
         <f>IF(AND(NOT(M25),AND(M$4:M24)),TRUE,M25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q25),AND(Q$4:Q24))),($J25*$G25-LN(1+Jumpoverwrite2*S$2))/$G25,_xll.qlInterpolationInterpolate(Q$3,$F25,TRUE))</f>
-        <v>-2.9175401485212395E-4</v>
+        <v>-5.8088391317845909E-4</v>
       </c>
       <c r="S25" s="107" t="str">
         <f>IF(AND(NOT(Q25),AND(Q$4:Q24)),MIN(EXP((R25-$J25)*$G25),1),"")</f>
@@ -9750,11 +9803,11 @@
       <c r="T25" s="109"/>
       <c r="U25" s="106" t="b">
         <f>IF(AND(NOT(Q25),AND(Q$4:Q24)),TRUE,Q25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V25" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U25),AND(U$4:U24))),($J25*$G25-LN(1+Jumpoverwrite3*W$2))/$G25,_xll.qlInterpolationInterpolate(U$3,$F25,TRUE))</f>
-        <v>-2.9175401485212395E-4</v>
+        <v>-5.8088391317845909E-4</v>
       </c>
       <c r="W25" s="107" t="str">
         <f>IF(AND(NOT(U25),AND(U$4:U24)),MIN(EXP((V25-$J25)*$G25),1),"")</f>
@@ -9763,11 +9816,11 @@
       <c r="X25" s="109"/>
       <c r="Y25" s="106" t="b">
         <f>IF(AND(NOT(U25),AND(U$4:U24)),TRUE,U25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y25),AND(Y$4:Y24))),($J25*$G25-LN(1+Jumpoverwrite4*AA$2))/$G25,_xll.qlInterpolationInterpolate(Y$3,$F25,TRUE))</f>
-        <v>-2.9175401485212395E-4</v>
+        <v>-5.8088391317845909E-4</v>
       </c>
       <c r="AA25" s="107" t="str">
         <f>IF(AND(NOT(Y25),AND(Y$4:Y24)),MIN(EXP((Z25-$J25)*$G25),1),"")</f>
@@ -9776,11 +9829,11 @@
       <c r="AB25" s="109"/>
       <c r="AC25" s="106" t="b">
         <f>IF(AND(NOT(Y25),AND(Y$4:Y24)),TRUE,Y25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD25" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC25),AND(AC$4:AC24))),($J25*$G25-LN(1+Jumpoverwrite5*AE$2))/$G25,_xll.qlInterpolationInterpolate(AC$3,$F25,TRUE))</f>
-        <v>-2.9175401485212395E-4</v>
+        <v>-5.8088391317845909E-4</v>
       </c>
       <c r="AE25" s="107" t="str">
         <f>IF(AND(NOT(AC25),AND(AC$4:AC24)),MIN(EXP((AD25-$J25)*$G25),1),"")</f>
@@ -9789,11 +9842,11 @@
       <c r="AF25" s="109"/>
       <c r="AG25" s="106" t="b">
         <f>IF(AND(NOT(AC25),AND(AC$4:AC24)),TRUE,AC25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH25" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG25),AND(AG$4:AG24))),($J25*$G25-LN(1+Jumpoverwrite6*AI$2))/$G25,_xll.qlInterpolationInterpolate(AG$3,$F25,TRUE))</f>
-        <v>-2.9175401485212395E-4</v>
+        <v>-5.8088391317845909E-4</v>
       </c>
       <c r="AI25" s="107" t="str">
         <f>IF(AND(NOT(AG25),AND(AG$4:AG24)),MIN(EXP((AH25-$J25)*$G25),1),"")</f>
@@ -9802,11 +9855,11 @@
       <c r="AJ25" s="109"/>
       <c r="AK25" s="106" t="b">
         <f>IF(AND(NOT(AG25),AND(AG$4:AG24)),TRUE,AG25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL25" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK25),AND(AK$4:AK24))),($J25*$G25-LN(1+Jumpoverwrite7*AM$2))/$G25,_xll.qlInterpolationInterpolate(AK$3,$F25,TRUE))</f>
-        <v>-2.9175401485212395E-4</v>
+        <v>-5.8088391317845909E-4</v>
       </c>
       <c r="AM25" s="107" t="str">
         <f>IF(AND(NOT(AK25),AND(AK$4:AK24)),MIN(EXP((AL25-$J25)*$G25),1),"")</f>
@@ -9814,11 +9867,11 @@
       </c>
       <c r="AO25" s="106" t="b">
         <f>IF(AND(NOT(AK25),AND(AK$4:AK24)),TRUE,AK25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP25" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO25),AND(AO$4:AO24))),($J25*$G25-LN(1+Jumpoverwrite8*AQ$2))/$G25,_xll.qlInterpolationInterpolate(AO$3,$F25,TRUE))</f>
-        <v>-2.9175401485212395E-4</v>
+        <v>-5.8088391317845909E-4</v>
       </c>
       <c r="AQ25" s="107" t="str">
         <f>IF(AND(NOT(AO25),AND(AO$4:AO24)),MIN(EXP((AP25-$J25)*$G25),1),"")</f>
@@ -9826,11 +9879,11 @@
       </c>
       <c r="AS25" s="106" t="b">
         <f>IF(AND(NOT(AO25),AND(AO$4:AO24)),TRUE,AO25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS25),AND(AS$4:AS24))),($J25*$G25-LN(1+Jumpoverwrite9*AU$2))/$G25,_xll.qlInterpolationInterpolate(AS$3,$F25,TRUE))</f>
-        <v>-2.9175401485212395E-4</v>
+        <v>-5.8088391317845909E-4</v>
       </c>
       <c r="AU25" s="107" t="str">
         <f>IF(AND(NOT(AS25),AND(AS$4:AS24)),MIN(EXP((AT25-$J25)*$G25),1),"")</f>
@@ -9838,11 +9891,11 @@
       </c>
       <c r="AW25" s="106" t="b">
         <f>IF(AND(NOT(AS25),AND(AS$4:AS24)),TRUE,AS25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX25" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW25),AND(AW$4:AW24))),($J25*$G25-LN(1+Jumpoverwrite10*AY$2))/$G25,_xll.qlInterpolationInterpolate(AW$3,$F25,TRUE))</f>
-        <v>-2.9175401485212395E-4</v>
+        <v>-5.8088391317845909E-4</v>
       </c>
       <c r="AY25" s="107" t="str">
         <f>IF(AND(NOT(AW25),AND(AW$4:AW24)),MIN(EXP((AX25-$J25)*$G25),1),"")</f>
@@ -9850,11 +9903,11 @@
       </c>
       <c r="BA25" s="106" t="b">
         <f>IF(AND(NOT(AW25),AND(AW$4:AW24)),TRUE,AW25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB25" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA25),AND(BA$4:BA24))),($J25*$G25-LN(1+Jumpoverwrite11*BC$2))/$G25,_xll.qlInterpolationInterpolate(BA$3,$F25,TRUE))</f>
-        <v>-2.9175401485212395E-4</v>
+        <v>-5.8088391317845909E-4</v>
       </c>
       <c r="BC25" s="107" t="str">
         <f>IF(AND(NOT(BA25),AND(BA$4:BA24)),MIN(EXP((BB25-$J25)*$G25),1),"")</f>
@@ -9862,11 +9915,11 @@
       </c>
       <c r="BE25" s="106" t="b">
         <f>IF(AND(NOT(BA25),AND(BA$4:BA24)),TRUE,BA25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF25" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE25),AND(BE$4:BE24))),($J25*$G25-LN(1+Jumpoverwrite12*BG$2))/$G25,_xll.qlInterpolationInterpolate(BE$3,$F25,TRUE))</f>
-        <v>-2.9175401485212395E-4</v>
+        <v>-5.8088391317845909E-4</v>
       </c>
       <c r="BG25" s="107" t="str">
         <f>IF(AND(NOT(BE25),AND(BE$4:BE24)),MIN(EXP((BF25-$J25)*$G25),1),"")</f>
@@ -9878,7 +9931,7 @@
       </c>
       <c r="BJ25" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI25),AND(BI$4:BI24))),($J25*$G25-LN(1+jumpoverwrite13*BK$2))/$G25,_xll.qlInterpolationInterpolate(BI$3,$F25,TRUE))</f>
-        <v>-4.8333216204637095E-4</v>
+        <v>-5.0348147604690119E-4</v>
       </c>
       <c r="BK25" s="107" t="str">
         <f>IF(AND(NOT(BI25),AND(BI$4:BI24)),MIN(EXP((BJ25-$J25)*$G25),1),"")</f>
@@ -9887,38 +9940,38 @@
     </row>
     <row r="26" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A26" s="94" t="str">
-        <v>WEUREON2Y</v>
+        <v>WEUREON18M</v>
       </c>
       <c r="B26" s="27">
         <f>_xll.qlRateHelperRate($A26,InterestRatesTrigger)</f>
-        <v>-4.1999999999999996E-4</v>
+        <v>-4.2000000000000002E-4</v>
       </c>
       <c r="C26" s="30">
         <f>_xll.qlRateHelperEarliestDate($A26)</f>
-        <v>41953</v>
+        <v>41968</v>
       </c>
       <c r="D26" s="31">
         <f>_xll.qlRateHelperLatestDate($A26)</f>
-        <v>42684</v>
+        <v>42515</v>
       </c>
       <c r="F26" s="120">
         <f t="shared" si="0"/>
-        <v>42638</v>
+        <v>42470</v>
       </c>
       <c r="G26" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D25,D26)</f>
-        <v>0.25555555555555554</v>
-      </c>
-      <c r="I26" s="141" t="b">
+        <v>0.25</v>
+      </c>
+      <c r="I26" s="138" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J26" s="140">
-        <v>-7.2812735448244426E-5</v>
+      <c r="J26" s="137">
+        <v>-5.216207273495482E-4</v>
       </c>
       <c r="K26" s="111">
         <f t="shared" si="3"/>
-        <v>42684</v>
+        <v>42515</v>
       </c>
       <c r="L26" s="100"/>
       <c r="M26" s="106" t="b">
@@ -9927,7 +9980,7 @@
       </c>
       <c r="N26" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M26),AND(M$4:M25))),($J26*$G26-LN(1+Jumpoverwrite1*O$2))/$G26,_xll.qlInterpolationInterpolate(M$3,$F26,TRUE))</f>
-        <v>-7.2812735448244412E-5</v>
+        <v>-5.216207273495482E-4</v>
       </c>
       <c r="O26" s="107" t="str">
         <f>IF(AND(NOT(M26),AND(M$4:M25)),MIN(EXP((N26-$J26)*$G26),1),"")</f>
@@ -9940,7 +9993,7 @@
       </c>
       <c r="R26" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q26),AND(Q$4:Q25))),($J26*$G26-LN(1+Jumpoverwrite2*S$2))/$G26,_xll.qlInterpolationInterpolate(Q$3,$F26,TRUE))</f>
-        <v>-7.2812735448244412E-5</v>
+        <v>-5.216207273495482E-4</v>
       </c>
       <c r="S26" s="107" t="str">
         <f>IF(AND(NOT(Q26),AND(Q$4:Q25)),MIN(EXP((R26-$J26)*$G26),1),"")</f>
@@ -9953,7 +10006,7 @@
       </c>
       <c r="V26" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U26),AND(U$4:U25))),($J26*$G26-LN(1+Jumpoverwrite3*W$2))/$G26,_xll.qlInterpolationInterpolate(U$3,$F26,TRUE))</f>
-        <v>-7.2812735448244412E-5</v>
+        <v>-5.216207273495482E-4</v>
       </c>
       <c r="W26" s="107" t="str">
         <f>IF(AND(NOT(U26),AND(U$4:U25)),MIN(EXP((V26-$J26)*$G26),1),"")</f>
@@ -9966,7 +10019,7 @@
       </c>
       <c r="Z26" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y26),AND(Y$4:Y25))),($J26*$G26-LN(1+Jumpoverwrite4*AA$2))/$G26,_xll.qlInterpolationInterpolate(Y$3,$F26,TRUE))</f>
-        <v>-7.2812735448244412E-5</v>
+        <v>-5.216207273495482E-4</v>
       </c>
       <c r="AA26" s="107" t="str">
         <f>IF(AND(NOT(Y26),AND(Y$4:Y25)),MIN(EXP((Z26-$J26)*$G26),1),"")</f>
@@ -9979,7 +10032,7 @@
       </c>
       <c r="AD26" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC26),AND(AC$4:AC25))),($J26*$G26-LN(1+Jumpoverwrite5*AE$2))/$G26,_xll.qlInterpolationInterpolate(AC$3,$F26,TRUE))</f>
-        <v>-7.2812735448244412E-5</v>
+        <v>-5.216207273495482E-4</v>
       </c>
       <c r="AE26" s="107" t="str">
         <f>IF(AND(NOT(AC26),AND(AC$4:AC25)),MIN(EXP((AD26-$J26)*$G26),1),"")</f>
@@ -9992,7 +10045,7 @@
       </c>
       <c r="AH26" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG26),AND(AG$4:AG25))),($J26*$G26-LN(1+Jumpoverwrite6*AI$2))/$G26,_xll.qlInterpolationInterpolate(AG$3,$F26,TRUE))</f>
-        <v>-7.2812735448244412E-5</v>
+        <v>-5.216207273495482E-4</v>
       </c>
       <c r="AI26" s="107" t="str">
         <f>IF(AND(NOT(AG26),AND(AG$4:AG25)),MIN(EXP((AH26-$J26)*$G26),1),"")</f>
@@ -10005,7 +10058,7 @@
       </c>
       <c r="AL26" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK26),AND(AK$4:AK25))),($J26*$G26-LN(1+Jumpoverwrite7*AM$2))/$G26,_xll.qlInterpolationInterpolate(AK$3,$F26,TRUE))</f>
-        <v>-7.2812735448244412E-5</v>
+        <v>-5.216207273495482E-4</v>
       </c>
       <c r="AM26" s="107" t="str">
         <f>IF(AND(NOT(AK26),AND(AK$4:AK25)),MIN(EXP((AL26-$J26)*$G26),1),"")</f>
@@ -10017,7 +10070,7 @@
       </c>
       <c r="AP26" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO26),AND(AO$4:AO25))),($J26*$G26-LN(1+Jumpoverwrite8*AQ$2))/$G26,_xll.qlInterpolationInterpolate(AO$3,$F26,TRUE))</f>
-        <v>-7.2812735448244412E-5</v>
+        <v>-5.216207273495482E-4</v>
       </c>
       <c r="AQ26" s="107" t="str">
         <f>IF(AND(NOT(AO26),AND(AO$4:AO25)),MIN(EXP((AP26-$J26)*$G26),1),"")</f>
@@ -10029,7 +10082,7 @@
       </c>
       <c r="AT26" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS26),AND(AS$4:AS25))),($J26*$G26-LN(1+Jumpoverwrite9*AU$2))/$G26,_xll.qlInterpolationInterpolate(AS$3,$F26,TRUE))</f>
-        <v>-7.2812735448244412E-5</v>
+        <v>-5.216207273495482E-4</v>
       </c>
       <c r="AU26" s="107" t="str">
         <f>IF(AND(NOT(AS26),AND(AS$4:AS25)),MIN(EXP((AT26-$J26)*$G26),1),"")</f>
@@ -10041,7 +10094,7 @@
       </c>
       <c r="AX26" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW26),AND(AW$4:AW25))),($J26*$G26-LN(1+Jumpoverwrite10*AY$2))/$G26,_xll.qlInterpolationInterpolate(AW$3,$F26,TRUE))</f>
-        <v>-7.2812735448244412E-5</v>
+        <v>-5.216207273495482E-4</v>
       </c>
       <c r="AY26" s="107" t="str">
         <f>IF(AND(NOT(AW26),AND(AW$4:AW25)),MIN(EXP((AX26-$J26)*$G26),1),"")</f>
@@ -10053,7 +10106,7 @@
       </c>
       <c r="BB26" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA26),AND(BA$4:BA25))),($J26*$G26-LN(1+Jumpoverwrite11*BC$2))/$G26,_xll.qlInterpolationInterpolate(BA$3,$F26,TRUE))</f>
-        <v>-7.2812735448244412E-5</v>
+        <v>-5.216207273495482E-4</v>
       </c>
       <c r="BC26" s="107" t="str">
         <f>IF(AND(NOT(BA26),AND(BA$4:BA25)),MIN(EXP((BB26-$J26)*$G26),1),"")</f>
@@ -10065,7 +10118,7 @@
       </c>
       <c r="BF26" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE26),AND(BE$4:BE25))),($J26*$G26-LN(1+Jumpoverwrite12*BG$2))/$G26,_xll.qlInterpolationInterpolate(BE$3,$F26,TRUE))</f>
-        <v>-7.2812735448244412E-5</v>
+        <v>-5.216207273495482E-4</v>
       </c>
       <c r="BG26" s="107" t="str">
         <f>IF(AND(NOT(BE26),AND(BE$4:BE25)),MIN(EXP((BF26-$J26)*$G26),1),"")</f>
@@ -10077,7 +10130,7 @@
       </c>
       <c r="BJ26" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI26),AND(BI$4:BI25))),($J26*$G26-LN(1+jumpoverwrite13*BK$2))/$G26,_xll.qlInterpolationInterpolate(BI$3,$F26,TRUE))</f>
-        <v>-4.1504766702565518E-4</v>
+        <v>-3.7787334410522633E-4</v>
       </c>
       <c r="BK26" s="107" t="str">
         <f>IF(AND(NOT(BI26),AND(BI$4:BI25)),MIN(EXP((BJ26-$J26)*$G26),1),"")</f>
@@ -10085,48 +10138,48 @@
       </c>
     </row>
     <row r="27" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A27" s="94" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B27" s="27" t="e">
+      <c r="A27" s="94" t="str">
+        <v>WEUREON21M</v>
+      </c>
+      <c r="B27" s="27">
         <f>_xll.qlRateHelperRate($A27,InterestRatesTrigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C27" s="30" t="e">
+        <v>-4.0000000000000002E-4</v>
+      </c>
+      <c r="C27" s="30">
         <f>_xll.qlRateHelperEarliestDate($A27)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D27" s="31" t="e">
+        <v>41968</v>
+      </c>
+      <c r="D27" s="31">
         <f>_xll.qlRateHelperLatestDate($A27)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F27" s="120" t="e">
+        <v>42607</v>
+      </c>
+      <c r="F27" s="120">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G27" s="121" t="e">
+        <v>42561</v>
+      </c>
+      <c r="G27" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D26,D27)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I27" s="141" t="b">
+        <v>0.25555555555555554</v>
+      </c>
+      <c r="I27" s="138" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="140" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K27" s="111" t="e">
+        <v>1</v>
+      </c>
+      <c r="J27" s="137">
+        <v>-2.8118413547708758E-4</v>
+      </c>
+      <c r="K27" s="111">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>42607</v>
       </c>
       <c r="L27" s="100"/>
       <c r="M27" s="106" t="b">
         <f>IF(AND(NOT(I27),AND(I$4:I26)),TRUE,I27)</f>
-        <v>0</v>
-      </c>
-      <c r="N27" s="102" t="e">
+        <v>1</v>
+      </c>
+      <c r="N27" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M27),AND(M$4:M26))),($J27*$G27-LN(1+Jumpoverwrite1*O$2))/$G27,_xll.qlInterpolationInterpolate(M$3,$F27,TRUE))</f>
-        <v>#NUM!</v>
+        <v>-2.8118413547708758E-4</v>
       </c>
       <c r="O27" s="107" t="str">
         <f>IF(AND(NOT(M27),AND(M$4:M26)),MIN(EXP((N27-$J27)*$G27),1),"")</f>
@@ -10135,11 +10188,11 @@
       <c r="P27" s="109"/>
       <c r="Q27" s="106" t="b">
         <f>IF(AND(NOT(M27),AND(M$4:M26)),TRUE,M27)</f>
-        <v>0</v>
-      </c>
-      <c r="R27" s="102" t="e">
+        <v>1</v>
+      </c>
+      <c r="R27" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q27),AND(Q$4:Q26))),($J27*$G27-LN(1+Jumpoverwrite2*S$2))/$G27,_xll.qlInterpolationInterpolate(Q$3,$F27,TRUE))</f>
-        <v>#NUM!</v>
+        <v>-2.8118413547708758E-4</v>
       </c>
       <c r="S27" s="107" t="str">
         <f>IF(AND(NOT(Q27),AND(Q$4:Q26)),MIN(EXP((R27-$J27)*$G27),1),"")</f>
@@ -10148,11 +10201,11 @@
       <c r="T27" s="109"/>
       <c r="U27" s="106" t="b">
         <f>IF(AND(NOT(Q27),AND(Q$4:Q26)),TRUE,Q27)</f>
-        <v>0</v>
-      </c>
-      <c r="V27" s="102" t="e">
+        <v>1</v>
+      </c>
+      <c r="V27" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U27),AND(U$4:U26))),($J27*$G27-LN(1+Jumpoverwrite3*W$2))/$G27,_xll.qlInterpolationInterpolate(U$3,$F27,TRUE))</f>
-        <v>#NUM!</v>
+        <v>-2.8118413547708758E-4</v>
       </c>
       <c r="W27" s="107" t="str">
         <f>IF(AND(NOT(U27),AND(U$4:U26)),MIN(EXP((V27-$J27)*$G27),1),"")</f>
@@ -10161,11 +10214,11 @@
       <c r="X27" s="109"/>
       <c r="Y27" s="106" t="b">
         <f>IF(AND(NOT(U27),AND(U$4:U26)),TRUE,U27)</f>
-        <v>0</v>
-      </c>
-      <c r="Z27" s="102" t="e">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y27),AND(Y$4:Y26))),($J27*$G27-LN(1+Jumpoverwrite4*AA$2))/$G27,_xll.qlInterpolationInterpolate(Y$3,$F27,TRUE))</f>
-        <v>#NUM!</v>
+        <v>-2.8118413547708758E-4</v>
       </c>
       <c r="AA27" s="107" t="str">
         <f>IF(AND(NOT(Y27),AND(Y$4:Y26)),MIN(EXP((Z27-$J27)*$G27),1),"")</f>
@@ -10174,11 +10227,11 @@
       <c r="AB27" s="109"/>
       <c r="AC27" s="106" t="b">
         <f>IF(AND(NOT(Y27),AND(Y$4:Y26)),TRUE,Y27)</f>
-        <v>0</v>
-      </c>
-      <c r="AD27" s="102" t="e">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC27),AND(AC$4:AC26))),($J27*$G27-LN(1+Jumpoverwrite5*AE$2))/$G27,_xll.qlInterpolationInterpolate(AC$3,$F27,TRUE))</f>
-        <v>#NUM!</v>
+        <v>-2.8118413547708758E-4</v>
       </c>
       <c r="AE27" s="107" t="str">
         <f>IF(AND(NOT(AC27),AND(AC$4:AC26)),MIN(EXP((AD27-$J27)*$G27),1),"")</f>
@@ -10187,11 +10240,11 @@
       <c r="AF27" s="109"/>
       <c r="AG27" s="106" t="b">
         <f>IF(AND(NOT(AC27),AND(AC$4:AC26)),TRUE,AC27)</f>
-        <v>0</v>
-      </c>
-      <c r="AH27" s="102" t="e">
+        <v>1</v>
+      </c>
+      <c r="AH27" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG27),AND(AG$4:AG26))),($J27*$G27-LN(1+Jumpoverwrite6*AI$2))/$G27,_xll.qlInterpolationInterpolate(AG$3,$F27,TRUE))</f>
-        <v>#NUM!</v>
+        <v>-2.8118413547708758E-4</v>
       </c>
       <c r="AI27" s="107" t="str">
         <f>IF(AND(NOT(AG27),AND(AG$4:AG26)),MIN(EXP((AH27-$J27)*$G27),1),"")</f>
@@ -10200,11 +10253,11 @@
       <c r="AJ27" s="109"/>
       <c r="AK27" s="106" t="b">
         <f>IF(AND(NOT(AG27),AND(AG$4:AG26)),TRUE,AG27)</f>
-        <v>0</v>
-      </c>
-      <c r="AL27" s="102" t="e">
+        <v>1</v>
+      </c>
+      <c r="AL27" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK27),AND(AK$4:AK26))),($J27*$G27-LN(1+Jumpoverwrite7*AM$2))/$G27,_xll.qlInterpolationInterpolate(AK$3,$F27,TRUE))</f>
-        <v>#NUM!</v>
+        <v>-2.8118413547708758E-4</v>
       </c>
       <c r="AM27" s="107" t="str">
         <f>IF(AND(NOT(AK27),AND(AK$4:AK26)),MIN(EXP((AL27-$J27)*$G27),1),"")</f>
@@ -10212,11 +10265,11 @@
       </c>
       <c r="AO27" s="106" t="b">
         <f>IF(AND(NOT(AK27),AND(AK$4:AK26)),TRUE,AK27)</f>
-        <v>0</v>
-      </c>
-      <c r="AP27" s="102" t="e">
+        <v>1</v>
+      </c>
+      <c r="AP27" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO27),AND(AO$4:AO26))),($J27*$G27-LN(1+Jumpoverwrite8*AQ$2))/$G27,_xll.qlInterpolationInterpolate(AO$3,$F27,TRUE))</f>
-        <v>#NUM!</v>
+        <v>-2.8118413547708758E-4</v>
       </c>
       <c r="AQ27" s="107" t="str">
         <f>IF(AND(NOT(AO27),AND(AO$4:AO26)),MIN(EXP((AP27-$J27)*$G27),1),"")</f>
@@ -10224,11 +10277,11 @@
       </c>
       <c r="AS27" s="106" t="b">
         <f>IF(AND(NOT(AO27),AND(AO$4:AO26)),TRUE,AO27)</f>
-        <v>0</v>
-      </c>
-      <c r="AT27" s="102" t="e">
+        <v>1</v>
+      </c>
+      <c r="AT27" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS27),AND(AS$4:AS26))),($J27*$G27-LN(1+Jumpoverwrite9*AU$2))/$G27,_xll.qlInterpolationInterpolate(AS$3,$F27,TRUE))</f>
-        <v>#NUM!</v>
+        <v>-2.8118413547708758E-4</v>
       </c>
       <c r="AU27" s="107" t="str">
         <f>IF(AND(NOT(AS27),AND(AS$4:AS26)),MIN(EXP((AT27-$J27)*$G27),1),"")</f>
@@ -10236,11 +10289,11 @@
       </c>
       <c r="AW27" s="106" t="b">
         <f>IF(AND(NOT(AS27),AND(AS$4:AS26)),TRUE,AS27)</f>
-        <v>0</v>
-      </c>
-      <c r="AX27" s="102" t="e">
+        <v>1</v>
+      </c>
+      <c r="AX27" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW27),AND(AW$4:AW26))),($J27*$G27-LN(1+Jumpoverwrite10*AY$2))/$G27,_xll.qlInterpolationInterpolate(AW$3,$F27,TRUE))</f>
-        <v>#NUM!</v>
+        <v>-2.8118413547708758E-4</v>
       </c>
       <c r="AY27" s="107" t="str">
         <f>IF(AND(NOT(AW27),AND(AW$4:AW26)),MIN(EXP((AX27-$J27)*$G27),1),"")</f>
@@ -10248,11 +10301,11 @@
       </c>
       <c r="BA27" s="106" t="b">
         <f>IF(AND(NOT(AW27),AND(AW$4:AW26)),TRUE,AW27)</f>
-        <v>0</v>
-      </c>
-      <c r="BB27" s="102" t="e">
+        <v>1</v>
+      </c>
+      <c r="BB27" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA27),AND(BA$4:BA26))),($J27*$G27-LN(1+Jumpoverwrite11*BC$2))/$G27,_xll.qlInterpolationInterpolate(BA$3,$F27,TRUE))</f>
-        <v>#NUM!</v>
+        <v>-2.8118413547708758E-4</v>
       </c>
       <c r="BC27" s="107" t="str">
         <f>IF(AND(NOT(BA27),AND(BA$4:BA26)),MIN(EXP((BB27-$J27)*$G27),1),"")</f>
@@ -10260,11 +10313,11 @@
       </c>
       <c r="BE27" s="106" t="b">
         <f>IF(AND(NOT(BA27),AND(BA$4:BA26)),TRUE,BA27)</f>
-        <v>0</v>
-      </c>
-      <c r="BF27" s="102" t="e">
+        <v>1</v>
+      </c>
+      <c r="BF27" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE27),AND(BE$4:BE26))),($J27*$G27-LN(1+Jumpoverwrite12*BG$2))/$G27,_xll.qlInterpolationInterpolate(BE$3,$F27,TRUE))</f>
-        <v>#NUM!</v>
+        <v>-2.8118413547708758E-4</v>
       </c>
       <c r="BG27" s="107" t="str">
         <f>IF(AND(NOT(BE27),AND(BE$4:BE26)),MIN(EXP((BF27-$J27)*$G27),1),"")</f>
@@ -10274,9 +10327,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BJ27" s="102" t="e">
+      <c r="BJ27" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI27),AND(BI$4:BI26))),($J27*$G27-LN(1+jumpoverwrite13*BK$2))/$G27,_xll.qlInterpolationInterpolate(BI$3,$F27,TRUE))</f>
-        <v>#NUM!</v>
+        <v>-1.8736767732701958E-4</v>
       </c>
       <c r="BK27" s="107" t="str">
         <f>IF(AND(NOT(BI27),AND(BI$4:BI26)),MIN(EXP((BJ27-$J27)*$G27),1),"")</f>
@@ -10284,48 +10337,48 @@
       </c>
     </row>
     <row r="28" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A28" s="94" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B28" s="27" t="e">
+      <c r="A28" s="94" t="str">
+        <v>WEUREON2Y</v>
+      </c>
+      <c r="B28" s="27">
         <f>_xll.qlRateHelperRate($A28,InterestRatesTrigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C28" s="30" t="e">
+        <v>-3.5999999999999997E-4</v>
+      </c>
+      <c r="C28" s="30">
         <f>_xll.qlRateHelperEarliestDate($A28)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D28" s="31" t="e">
+        <v>41968</v>
+      </c>
+      <c r="D28" s="31">
         <f>_xll.qlRateHelperLatestDate($A28)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F28" s="120" t="e">
+        <v>42699</v>
+      </c>
+      <c r="F28" s="120">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G28" s="121" t="e">
+        <v>42653</v>
+      </c>
+      <c r="G28" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D27,D28)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I28" s="141" t="b">
+        <v>0.25555555555555554</v>
+      </c>
+      <c r="I28" s="138" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="140" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K28" s="111" t="e">
+        <v>1</v>
+      </c>
+      <c r="J28" s="137">
+        <v>-8.22579029353554E-5</v>
+      </c>
+      <c r="K28" s="111">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>42699</v>
       </c>
       <c r="L28" s="100"/>
       <c r="M28" s="106" t="b">
         <f>IF(AND(NOT(I28),AND(I$4:I27)),TRUE,I28)</f>
-        <v>0</v>
-      </c>
-      <c r="N28" s="102" t="e">
+        <v>1</v>
+      </c>
+      <c r="N28" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M28),AND(M$4:M27))),($J28*$G28-LN(1+Jumpoverwrite1*O$2))/$G28,_xll.qlInterpolationInterpolate(M$3,$F28,TRUE))</f>
-        <v>#NUM!</v>
+        <v>-8.225790293535544E-5</v>
       </c>
       <c r="O28" s="107" t="str">
         <f>IF(AND(NOT(M28),AND(M$4:M27)),MIN(EXP((N28-$J28)*$G28),1),"")</f>
@@ -10334,11 +10387,11 @@
       <c r="P28" s="109"/>
       <c r="Q28" s="106" t="b">
         <f>IF(AND(NOT(M28),AND(M$4:M27)),TRUE,M28)</f>
-        <v>0</v>
-      </c>
-      <c r="R28" s="102" t="e">
+        <v>1</v>
+      </c>
+      <c r="R28" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q28),AND(Q$4:Q27))),($J28*$G28-LN(1+Jumpoverwrite2*S$2))/$G28,_xll.qlInterpolationInterpolate(Q$3,$F28,TRUE))</f>
-        <v>#NUM!</v>
+        <v>-8.225790293535544E-5</v>
       </c>
       <c r="S28" s="107" t="str">
         <f>IF(AND(NOT(Q28),AND(Q$4:Q27)),MIN(EXP((R28-$J28)*$G28),1),"")</f>
@@ -10347,11 +10400,11 @@
       <c r="T28" s="109"/>
       <c r="U28" s="106" t="b">
         <f>IF(AND(NOT(Q28),AND(Q$4:Q27)),TRUE,Q28)</f>
-        <v>0</v>
-      </c>
-      <c r="V28" s="102" t="e">
+        <v>1</v>
+      </c>
+      <c r="V28" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U28),AND(U$4:U27))),($J28*$G28-LN(1+Jumpoverwrite3*W$2))/$G28,_xll.qlInterpolationInterpolate(U$3,$F28,TRUE))</f>
-        <v>#NUM!</v>
+        <v>-8.225790293535544E-5</v>
       </c>
       <c r="W28" s="107" t="str">
         <f>IF(AND(NOT(U28),AND(U$4:U27)),MIN(EXP((V28-$J28)*$G28),1),"")</f>
@@ -10360,11 +10413,11 @@
       <c r="X28" s="109"/>
       <c r="Y28" s="106" t="b">
         <f>IF(AND(NOT(U28),AND(U$4:U27)),TRUE,U28)</f>
-        <v>0</v>
-      </c>
-      <c r="Z28" s="102" t="e">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y28),AND(Y$4:Y27))),($J28*$G28-LN(1+Jumpoverwrite4*AA$2))/$G28,_xll.qlInterpolationInterpolate(Y$3,$F28,TRUE))</f>
-        <v>#NUM!</v>
+        <v>-8.225790293535544E-5</v>
       </c>
       <c r="AA28" s="107" t="str">
         <f>IF(AND(NOT(Y28),AND(Y$4:Y27)),MIN(EXP((Z28-$J28)*$G28),1),"")</f>
@@ -10373,11 +10426,11 @@
       <c r="AB28" s="109"/>
       <c r="AC28" s="106" t="b">
         <f>IF(AND(NOT(Y28),AND(Y$4:Y27)),TRUE,Y28)</f>
-        <v>0</v>
-      </c>
-      <c r="AD28" s="102" t="e">
+        <v>1</v>
+      </c>
+      <c r="AD28" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC28),AND(AC$4:AC27))),($J28*$G28-LN(1+Jumpoverwrite5*AE$2))/$G28,_xll.qlInterpolationInterpolate(AC$3,$F28,TRUE))</f>
-        <v>#NUM!</v>
+        <v>-8.225790293535544E-5</v>
       </c>
       <c r="AE28" s="107" t="str">
         <f>IF(AND(NOT(AC28),AND(AC$4:AC27)),MIN(EXP((AD28-$J28)*$G28),1),"")</f>
@@ -10386,11 +10439,11 @@
       <c r="AF28" s="109"/>
       <c r="AG28" s="106" t="b">
         <f>IF(AND(NOT(AC28),AND(AC$4:AC27)),TRUE,AC28)</f>
-        <v>0</v>
-      </c>
-      <c r="AH28" s="102" t="e">
+        <v>1</v>
+      </c>
+      <c r="AH28" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG28),AND(AG$4:AG27))),($J28*$G28-LN(1+Jumpoverwrite6*AI$2))/$G28,_xll.qlInterpolationInterpolate(AG$3,$F28,TRUE))</f>
-        <v>#NUM!</v>
+        <v>-8.225790293535544E-5</v>
       </c>
       <c r="AI28" s="107" t="str">
         <f>IF(AND(NOT(AG28),AND(AG$4:AG27)),MIN(EXP((AH28-$J28)*$G28),1),"")</f>
@@ -10399,11 +10452,11 @@
       <c r="AJ28" s="109"/>
       <c r="AK28" s="106" t="b">
         <f>IF(AND(NOT(AG28),AND(AG$4:AG27)),TRUE,AG28)</f>
-        <v>0</v>
-      </c>
-      <c r="AL28" s="102" t="e">
+        <v>1</v>
+      </c>
+      <c r="AL28" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK28),AND(AK$4:AK27))),($J28*$G28-LN(1+Jumpoverwrite7*AM$2))/$G28,_xll.qlInterpolationInterpolate(AK$3,$F28,TRUE))</f>
-        <v>#NUM!</v>
+        <v>-8.225790293535544E-5</v>
       </c>
       <c r="AM28" s="107" t="str">
         <f>IF(AND(NOT(AK28),AND(AK$4:AK27)),MIN(EXP((AL28-$J28)*$G28),1),"")</f>
@@ -10411,11 +10464,11 @@
       </c>
       <c r="AO28" s="106" t="b">
         <f>IF(AND(NOT(AK28),AND(AK$4:AK27)),TRUE,AK28)</f>
-        <v>0</v>
-      </c>
-      <c r="AP28" s="102" t="e">
+        <v>1</v>
+      </c>
+      <c r="AP28" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO28),AND(AO$4:AO27))),($J28*$G28-LN(1+Jumpoverwrite8*AQ$2))/$G28,_xll.qlInterpolationInterpolate(AO$3,$F28,TRUE))</f>
-        <v>#NUM!</v>
+        <v>-8.225790293535544E-5</v>
       </c>
       <c r="AQ28" s="107" t="str">
         <f>IF(AND(NOT(AO28),AND(AO$4:AO27)),MIN(EXP((AP28-$J28)*$G28),1),"")</f>
@@ -10423,11 +10476,11 @@
       </c>
       <c r="AS28" s="106" t="b">
         <f>IF(AND(NOT(AO28),AND(AO$4:AO27)),TRUE,AO28)</f>
-        <v>0</v>
-      </c>
-      <c r="AT28" s="102" t="e">
+        <v>1</v>
+      </c>
+      <c r="AT28" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS28),AND(AS$4:AS27))),($J28*$G28-LN(1+Jumpoverwrite9*AU$2))/$G28,_xll.qlInterpolationInterpolate(AS$3,$F28,TRUE))</f>
-        <v>#NUM!</v>
+        <v>-8.225790293535544E-5</v>
       </c>
       <c r="AU28" s="107" t="str">
         <f>IF(AND(NOT(AS28),AND(AS$4:AS27)),MIN(EXP((AT28-$J28)*$G28),1),"")</f>
@@ -10435,11 +10488,11 @@
       </c>
       <c r="AW28" s="106" t="b">
         <f>IF(AND(NOT(AS28),AND(AS$4:AS27)),TRUE,AS28)</f>
-        <v>0</v>
-      </c>
-      <c r="AX28" s="102" t="e">
+        <v>1</v>
+      </c>
+      <c r="AX28" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW28),AND(AW$4:AW27))),($J28*$G28-LN(1+Jumpoverwrite10*AY$2))/$G28,_xll.qlInterpolationInterpolate(AW$3,$F28,TRUE))</f>
-        <v>#NUM!</v>
+        <v>-8.225790293535544E-5</v>
       </c>
       <c r="AY28" s="107" t="str">
         <f>IF(AND(NOT(AW28),AND(AW$4:AW27)),MIN(EXP((AX28-$J28)*$G28),1),"")</f>
@@ -10447,11 +10500,11 @@
       </c>
       <c r="BA28" s="106" t="b">
         <f>IF(AND(NOT(AW28),AND(AW$4:AW27)),TRUE,AW28)</f>
-        <v>0</v>
-      </c>
-      <c r="BB28" s="102" t="e">
+        <v>1</v>
+      </c>
+      <c r="BB28" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA28),AND(BA$4:BA27))),($J28*$G28-LN(1+Jumpoverwrite11*BC$2))/$G28,_xll.qlInterpolationInterpolate(BA$3,$F28,TRUE))</f>
-        <v>#NUM!</v>
+        <v>-8.225790293535544E-5</v>
       </c>
       <c r="BC28" s="107" t="str">
         <f>IF(AND(NOT(BA28),AND(BA$4:BA27)),MIN(EXP((BB28-$J28)*$G28),1),"")</f>
@@ -10459,11 +10512,11 @@
       </c>
       <c r="BE28" s="106" t="b">
         <f>IF(AND(NOT(BA28),AND(BA$4:BA27)),TRUE,BA28)</f>
-        <v>0</v>
-      </c>
-      <c r="BF28" s="102" t="e">
+        <v>1</v>
+      </c>
+      <c r="BF28" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE28),AND(BE$4:BE27))),($J28*$G28-LN(1+Jumpoverwrite12*BG$2))/$G28,_xll.qlInterpolationInterpolate(BE$3,$F28,TRUE))</f>
-        <v>#NUM!</v>
+        <v>-8.225790293535544E-5</v>
       </c>
       <c r="BG28" s="107" t="str">
         <f>IF(AND(NOT(BE28),AND(BE$4:BE27)),MIN(EXP((BF28-$J28)*$G28),1),"")</f>
@@ -10473,9 +10526,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BJ28" s="102" t="e">
+      <c r="BJ28" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI28),AND(BI$4:BI27))),($J28*$G28-LN(1+jumpoverwrite13*BK$2))/$G28,_xll.qlInterpolationInterpolate(BI$3,$F28,TRUE))</f>
-        <v>#NUM!</v>
+        <v>5.231458316881806E-6</v>
       </c>
       <c r="BK28" s="107" t="str">
         <f>IF(AND(NOT(BI28),AND(BI$4:BI27)),MIN(EXP((BJ28-$J28)*$G28),1),"")</f>
@@ -10506,11 +10559,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D28,D29)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I29" s="141" t="b">
+      <c r="I29" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J29" s="140" t="e">
+      <c r="J29" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K29" s="111" t="e">
@@ -10705,11 +10758,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D29,D30)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I30" s="141" t="b">
+      <c r="I30" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J30" s="140" t="e">
+      <c r="J30" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K30" s="111" t="e">
@@ -10904,11 +10957,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D30,D31)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I31" s="141" t="b">
+      <c r="I31" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J31" s="140" t="e">
+      <c r="J31" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K31" s="111" t="e">
@@ -11103,11 +11156,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D31,D32)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I32" s="141" t="b">
+      <c r="I32" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J32" s="140" t="e">
+      <c r="J32" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K32" s="111" t="e">
@@ -11302,11 +11355,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D32,D33)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I33" s="141" t="b">
+      <c r="I33" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J33" s="140" t="e">
+      <c r="J33" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K33" s="111" t="e">
@@ -11501,11 +11554,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D33,D34)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I34" s="141" t="b">
+      <c r="I34" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J34" s="140" t="e">
+      <c r="J34" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K34" s="111" t="e">
@@ -11700,11 +11753,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D34,D35)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I35" s="141" t="b">
+      <c r="I35" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J35" s="140" t="e">
+      <c r="J35" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K35" s="111" t="e">
@@ -11899,11 +11952,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D35,D36)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I36" s="141" t="b">
+      <c r="I36" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J36" s="140" t="e">
+      <c r="J36" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K36" s="111" t="e">
@@ -12098,11 +12151,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D36,D37)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I37" s="141" t="b">
+      <c r="I37" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J37" s="140" t="e">
+      <c r="J37" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K37" s="111" t="e">
@@ -12297,11 +12350,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D37,D38)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I38" s="141" t="b">
+      <c r="I38" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J38" s="140" t="e">
+      <c r="J38" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K38" s="111" t="e">
@@ -12496,11 +12549,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D38,D39)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I39" s="141" t="b">
+      <c r="I39" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J39" s="140" t="e">
+      <c r="J39" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K39" s="111" t="e">
@@ -12695,11 +12748,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D39,D40)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I40" s="141" t="b">
+      <c r="I40" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J40" s="140" t="e">
+      <c r="J40" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K40" s="111" t="e">
@@ -12894,11 +12947,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D40,D41)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I41" s="141" t="b">
+      <c r="I41" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J41" s="140" t="e">
+      <c r="J41" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K41" s="111" t="e">
@@ -13093,11 +13146,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D41,D42)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I42" s="141" t="b">
+      <c r="I42" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J42" s="140" t="e">
+      <c r="J42" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K42" s="111" t="e">
@@ -13292,11 +13345,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D42,D43)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I43" s="141" t="b">
+      <c r="I43" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J43" s="140" t="e">
+      <c r="J43" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K43" s="111" t="e">
@@ -13491,11 +13544,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D43,D44)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I44" s="141" t="b">
+      <c r="I44" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J44" s="140" t="e">
+      <c r="J44" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K44" s="111" t="e">
@@ -13690,11 +13743,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D44,D45)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I45" s="141" t="b">
+      <c r="I45" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J45" s="140" t="e">
+      <c r="J45" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K45" s="111" t="e">
@@ -13889,11 +13942,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D45,D46)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I46" s="141" t="b">
+      <c r="I46" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J46" s="140" t="e">
+      <c r="J46" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K46" s="111" t="e">
@@ -14088,11 +14141,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D46,D47)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I47" s="141" t="b">
+      <c r="I47" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J47" s="140" t="e">
+      <c r="J47" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K47" s="111" t="e">
@@ -14287,11 +14340,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D47,D48)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I48" s="141" t="b">
+      <c r="I48" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J48" s="140" t="e">
+      <c r="J48" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K48" s="111" t="e">
@@ -14486,11 +14539,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D48,D49)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I49" s="141" t="b">
+      <c r="I49" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J49" s="140" t="e">
+      <c r="J49" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K49" s="111" t="e">
@@ -14685,11 +14738,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D49,D50)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I50" s="141" t="b">
+      <c r="I50" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J50" s="140" t="e">
+      <c r="J50" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K50" s="111" t="e">
@@ -14884,11 +14937,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D50,D51)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I51" s="141" t="b">
+      <c r="I51" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J51" s="140" t="e">
+      <c r="J51" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K51" s="111" t="e">
@@ -15083,11 +15136,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D51,D52)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I52" s="141" t="b">
+      <c r="I52" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J52" s="140" t="e">
+      <c r="J52" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K52" s="111" t="e">
@@ -15282,11 +15335,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D52,D53)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I53" s="141" t="b">
+      <c r="I53" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J53" s="140" t="e">
+      <c r="J53" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K53" s="111" t="e">
@@ -15481,11 +15534,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D53,D54)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I54" s="141" t="b">
+      <c r="I54" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J54" s="140" t="e">
+      <c r="J54" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K54" s="111" t="e">
@@ -15680,11 +15733,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D54,D55)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I55" s="141" t="b">
+      <c r="I55" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J55" s="140" t="e">
+      <c r="J55" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K55" s="111" t="e">
@@ -15879,11 +15932,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D55,D56)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I56" s="141" t="b">
+      <c r="I56" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J56" s="140" t="e">
+      <c r="J56" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K56" s="111" t="e">
@@ -16078,11 +16131,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D56,D57)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I57" s="141" t="b">
+      <c r="I57" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J57" s="140" t="e">
+      <c r="J57" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K57" s="111" t="e">
@@ -16277,11 +16330,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D57,D58)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I58" s="141" t="b">
+      <c r="I58" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J58" s="140" t="e">
+      <c r="J58" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K58" s="111" t="e">
@@ -16476,11 +16529,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D58,D59)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I59" s="141" t="b">
+      <c r="I59" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J59" s="140" t="e">
+      <c r="J59" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K59" s="111" t="e">
@@ -16675,11 +16728,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D59,D60)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I60" s="141" t="b">
+      <c r="I60" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J60" s="140" t="e">
+      <c r="J60" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K60" s="111" t="e">
@@ -16874,11 +16927,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D60,D61)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I61" s="141" t="b">
+      <c r="I61" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J61" s="140" t="e">
+      <c r="J61" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K61" s="111" t="e">
@@ -17073,11 +17126,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D61,D62)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I62" s="141" t="b">
+      <c r="I62" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J62" s="140" t="e">
+      <c r="J62" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K62" s="111" t="e">
@@ -17272,11 +17325,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D62,D63)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I63" s="141" t="b">
+      <c r="I63" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J63" s="140" t="e">
+      <c r="J63" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K63" s="111" t="e">
@@ -17471,11 +17524,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D63,D64)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I64" s="141" t="b">
+      <c r="I64" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J64" s="140" t="e">
+      <c r="J64" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K64" s="111" t="e">
@@ -17670,11 +17723,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D64,D65)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I65" s="141" t="b">
+      <c r="I65" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J65" s="140" t="e">
+      <c r="J65" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K65" s="111" t="e">
@@ -17869,11 +17922,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D65,D66)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I66" s="141" t="b">
+      <c r="I66" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J66" s="140" t="e">
+      <c r="J66" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K66" s="111" t="e">
@@ -18068,11 +18121,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D66,D67)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I67" s="141" t="b">
+      <c r="I67" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J67" s="140" t="e">
+      <c r="J67" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K67" s="111" t="e">
@@ -18267,11 +18320,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D67,D68)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I68" s="141" t="b">
+      <c r="I68" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J68" s="140" t="e">
+      <c r="J68" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K68" s="111" t="e">
@@ -18466,11 +18519,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D68,D69)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I69" s="141" t="b">
+      <c r="I69" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J69" s="140" t="e">
+      <c r="J69" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K69" s="111" t="e">
@@ -18665,11 +18718,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D69,D70)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I70" s="141" t="b">
+      <c r="I70" s="138" t="b">
         <f t="shared" ref="I70:I129" si="7">IF(ISERROR(K70),FALSE,IF(OR(MONTH(K70)-MONTH(K69)=1,YEAR(K70)-YEAR(K69)=1),FALSE,TRUE))</f>
         <v>0</v>
       </c>
-      <c r="J70" s="140" t="e">
+      <c r="J70" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K70" s="111" t="e">
@@ -18864,11 +18917,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D70,D71)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I71" s="141" t="b">
+      <c r="I71" s="138" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J71" s="140" t="e">
+      <c r="J71" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K71" s="111" t="e">
@@ -19063,11 +19116,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D71,D72)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I72" s="141" t="b">
+      <c r="I72" s="138" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J72" s="140" t="e">
+      <c r="J72" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K72" s="111" t="e">
@@ -19262,11 +19315,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D72,D73)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I73" s="141" t="b">
+      <c r="I73" s="138" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J73" s="140" t="e">
+      <c r="J73" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K73" s="111" t="e">
@@ -19461,11 +19514,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D73,D74)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I74" s="141" t="b">
+      <c r="I74" s="138" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J74" s="140" t="e">
+      <c r="J74" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K74" s="111" t="e">
@@ -19660,11 +19713,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D74,D75)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I75" s="141" t="b">
+      <c r="I75" s="138" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J75" s="140" t="e">
+      <c r="J75" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K75" s="111" t="e">
@@ -19859,11 +19912,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D75,D76)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I76" s="141" t="b">
+      <c r="I76" s="138" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J76" s="140" t="e">
+      <c r="J76" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K76" s="111" t="e">
@@ -20058,11 +20111,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D76,D77)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I77" s="141" t="b">
+      <c r="I77" s="138" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J77" s="140" t="e">
+      <c r="J77" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K77" s="111" t="e">
@@ -20257,11 +20310,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D77,D78)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I78" s="141" t="b">
+      <c r="I78" s="138" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J78" s="140" t="e">
+      <c r="J78" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K78" s="111" t="e">
@@ -20456,11 +20509,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D78,D79)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I79" s="141" t="b">
+      <c r="I79" s="138" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J79" s="140" t="e">
+      <c r="J79" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K79" s="111" t="e">
@@ -20655,11 +20708,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D79,D80)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I80" s="141" t="b">
+      <c r="I80" s="138" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J80" s="140" t="e">
+      <c r="J80" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K80" s="111" t="e">
@@ -20854,11 +20907,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D80,D81)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I81" s="141" t="b">
+      <c r="I81" s="138" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J81" s="140" t="e">
+      <c r="J81" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K81" s="111" t="e">
@@ -21053,11 +21106,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D81,D82)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I82" s="141" t="b">
+      <c r="I82" s="138" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J82" s="140" t="e">
+      <c r="J82" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K82" s="111" t="e">
@@ -21252,11 +21305,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D82,D83)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I83" s="141" t="b">
+      <c r="I83" s="138" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J83" s="140" t="e">
+      <c r="J83" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K83" s="111" t="e">
@@ -21451,11 +21504,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D83,D84)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I84" s="141" t="b">
+      <c r="I84" s="138" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J84" s="140" t="e">
+      <c r="J84" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K84" s="111" t="e">
@@ -21650,11 +21703,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D84,D85)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I85" s="141" t="b">
+      <c r="I85" s="138" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J85" s="140" t="e">
+      <c r="J85" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K85" s="111" t="e">
@@ -21849,11 +21902,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D85,D86)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I86" s="141" t="b">
+      <c r="I86" s="138" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J86" s="140" t="e">
+      <c r="J86" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K86" s="111" t="e">
@@ -22048,11 +22101,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D86,D87)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I87" s="141" t="b">
+      <c r="I87" s="138" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J87" s="140" t="e">
+      <c r="J87" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K87" s="111" t="e">
@@ -22247,11 +22300,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D87,D88)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I88" s="141" t="b">
+      <c r="I88" s="138" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J88" s="140" t="e">
+      <c r="J88" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K88" s="111" t="e">
@@ -22446,11 +22499,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D88,D89)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I89" s="141" t="b">
+      <c r="I89" s="138" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J89" s="140" t="e">
+      <c r="J89" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K89" s="111" t="e">
@@ -22645,11 +22698,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D89,D90)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I90" s="141" t="b">
+      <c r="I90" s="138" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J90" s="140" t="e">
+      <c r="J90" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K90" s="111" t="e">
@@ -22844,11 +22897,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D90,D91)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I91" s="141" t="b">
+      <c r="I91" s="138" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J91" s="140" t="e">
+      <c r="J91" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K91" s="111" t="e">
@@ -23043,11 +23096,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D91,D92)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I92" s="141" t="b">
+      <c r="I92" s="138" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J92" s="140" t="e">
+      <c r="J92" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K92" s="111" t="e">
@@ -23242,11 +23295,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D92,D93)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I93" s="141" t="b">
+      <c r="I93" s="138" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J93" s="140" t="e">
+      <c r="J93" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K93" s="111" t="e">
@@ -23441,11 +23494,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D93,D94)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I94" s="141" t="b">
+      <c r="I94" s="138" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J94" s="140" t="e">
+      <c r="J94" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K94" s="111" t="e">
@@ -23640,11 +23693,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D94,D95)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I95" s="141" t="b">
+      <c r="I95" s="138" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J95" s="140" t="e">
+      <c r="J95" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K95" s="111" t="e">
@@ -23839,11 +23892,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D95,D96)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I96" s="141" t="b">
+      <c r="I96" s="138" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J96" s="140" t="e">
+      <c r="J96" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K96" s="111" t="e">
@@ -24038,11 +24091,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D96,D97)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I97" s="141" t="b">
+      <c r="I97" s="138" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J97" s="140" t="e">
+      <c r="J97" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K97" s="111" t="e">
@@ -24237,11 +24290,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D97,D98)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I98" s="141" t="b">
+      <c r="I98" s="138" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J98" s="140" t="e">
+      <c r="J98" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K98" s="111" t="e">
@@ -24436,11 +24489,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D98,D99)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I99" s="141" t="b">
+      <c r="I99" s="138" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J99" s="140" t="e">
+      <c r="J99" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K99" s="111" t="e">
@@ -24635,11 +24688,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D99,D100)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I100" s="141" t="b">
+      <c r="I100" s="138" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J100" s="140" t="e">
+      <c r="J100" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K100" s="111" t="e">
@@ -24834,11 +24887,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D100,D101)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I101" s="141" t="b">
+      <c r="I101" s="138" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J101" s="140" t="e">
+      <c r="J101" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K101" s="111" t="e">
@@ -25033,11 +25086,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D101,D102)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I102" s="141" t="b">
+      <c r="I102" s="138" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J102" s="140" t="e">
+      <c r="J102" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K102" s="111" t="e">
@@ -25232,11 +25285,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D102,D103)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I103" s="141" t="b">
+      <c r="I103" s="138" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J103" s="140" t="e">
+      <c r="J103" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K103" s="111" t="e">
@@ -25431,11 +25484,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D103,D104)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I104" s="141" t="b">
+      <c r="I104" s="138" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J104" s="140" t="e">
+      <c r="J104" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K104" s="111" t="e">
@@ -25630,11 +25683,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D104,D105)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I105" s="141" t="b">
+      <c r="I105" s="138" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J105" s="140" t="e">
+      <c r="J105" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K105" s="111" t="e">
@@ -25829,11 +25882,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D105,D106)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I106" s="141" t="b">
+      <c r="I106" s="138" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J106" s="140" t="e">
+      <c r="J106" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K106" s="111" t="e">
@@ -26028,11 +26081,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D106,D107)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I107" s="141" t="b">
+      <c r="I107" s="138" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J107" s="140" t="e">
+      <c r="J107" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K107" s="111" t="e">
@@ -26227,11 +26280,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D107,D108)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I108" s="141" t="b">
+      <c r="I108" s="138" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J108" s="140" t="e">
+      <c r="J108" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K108" s="111" t="e">
@@ -26426,11 +26479,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D108,D109)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I109" s="141" t="b">
+      <c r="I109" s="138" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J109" s="140" t="e">
+      <c r="J109" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K109" s="111" t="e">
@@ -26625,11 +26678,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D109,D110)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I110" s="141" t="b">
+      <c r="I110" s="138" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J110" s="140" t="e">
+      <c r="J110" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K110" s="111" t="e">
@@ -26824,11 +26877,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D110,D111)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I111" s="141" t="b">
+      <c r="I111" s="138" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J111" s="140" t="e">
+      <c r="J111" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K111" s="111" t="e">
@@ -27023,11 +27076,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D111,D112)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I112" s="141" t="b">
+      <c r="I112" s="138" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J112" s="140" t="e">
+      <c r="J112" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K112" s="111" t="e">
@@ -27222,11 +27275,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D112,D113)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I113" s="141" t="b">
+      <c r="I113" s="138" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J113" s="140" t="e">
+      <c r="J113" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K113" s="111" t="e">
@@ -27421,11 +27474,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D113,D114)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I114" s="141" t="b">
+      <c r="I114" s="138" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J114" s="140" t="e">
+      <c r="J114" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K114" s="111" t="e">
@@ -27620,11 +27673,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D114,D115)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I115" s="141" t="b">
+      <c r="I115" s="138" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J115" s="140" t="e">
+      <c r="J115" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K115" s="111" t="e">
@@ -27819,11 +27872,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D115,D116)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I116" s="141" t="b">
+      <c r="I116" s="138" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J116" s="140" t="e">
+      <c r="J116" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K116" s="111" t="e">
@@ -28018,11 +28071,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D116,D117)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I117" s="141" t="b">
+      <c r="I117" s="138" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J117" s="140" t="e">
+      <c r="J117" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K117" s="111" t="e">
@@ -28217,11 +28270,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D117,D118)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I118" s="141" t="b">
+      <c r="I118" s="138" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J118" s="140" t="e">
+      <c r="J118" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K118" s="111" t="e">
@@ -28416,11 +28469,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D118,D119)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I119" s="141" t="b">
+      <c r="I119" s="138" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J119" s="140" t="e">
+      <c r="J119" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K119" s="111" t="e">
@@ -28615,11 +28668,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D119,D120)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I120" s="141" t="b">
+      <c r="I120" s="138" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J120" s="140" t="e">
+      <c r="J120" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K120" s="111" t="e">
@@ -28814,11 +28867,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D120,D121)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I121" s="141" t="b">
+      <c r="I121" s="138" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J121" s="140" t="e">
+      <c r="J121" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K121" s="111" t="e">
@@ -29013,11 +29066,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D121,D122)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I122" s="141" t="b">
+      <c r="I122" s="138" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J122" s="140" t="e">
+      <c r="J122" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K122" s="111" t="e">
@@ -29212,11 +29265,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D122,D123)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I123" s="141" t="b">
+      <c r="I123" s="138" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J123" s="140" t="e">
+      <c r="J123" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K123" s="111" t="e">
@@ -29411,11 +29464,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D123,D124)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I124" s="141" t="b">
+      <c r="I124" s="138" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J124" s="140" t="e">
+      <c r="J124" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K124" s="111" t="e">
@@ -29610,11 +29663,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D124,D125)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I125" s="141" t="b">
+      <c r="I125" s="138" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J125" s="140" t="e">
+      <c r="J125" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K125" s="111" t="e">
@@ -29809,11 +29862,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D125,D126)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I126" s="141" t="b">
+      <c r="I126" s="138" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J126" s="140" t="e">
+      <c r="J126" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K126" s="111" t="e">
@@ -30008,11 +30061,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D126,D127)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I127" s="141" t="b">
+      <c r="I127" s="138" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J127" s="140" t="e">
+      <c r="J127" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K127" s="111" t="e">
@@ -30207,11 +30260,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D127,D128)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I128" s="141" t="b">
+      <c r="I128" s="138" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J128" s="140" t="e">
+      <c r="J128" s="137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K128" s="111" t="e">
@@ -30406,11 +30459,11 @@
         <f>_xll.qlDayCounterYearFraction(DayCounter,D128,D129)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I129" s="142" t="b">
+      <c r="I129" s="139" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J129" s="143" t="e">
+      <c r="J129" s="140" t="e">
         <v>#N/A</v>
       </c>
       <c r="K129" s="112" t="e">
@@ -30598,10 +30651,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -30610,107 +30663,111 @@
     <col min="2" max="2" width="7" style="36" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" style="36" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" style="36" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" style="36" customWidth="1"/>
-    <col min="7" max="7" width="3.5703125" style="36" customWidth="1"/>
-    <col min="8" max="8" width="11" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" style="36" customWidth="1"/>
-    <col min="10" max="10" width="24.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="36" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" style="36" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" style="36" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" style="36" customWidth="1"/>
-    <col min="16" max="16" width="9.7109375" style="36" customWidth="1"/>
-    <col min="17" max="17" width="2" style="36" customWidth="1"/>
-    <col min="18" max="18" width="8" style="36" customWidth="1"/>
-    <col min="19" max="21" width="16.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11" style="36" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" style="36"/>
-    <col min="24" max="24" width="7.28515625" style="36" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.42578125" style="36" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="36"/>
+    <col min="7" max="7" width="7.42578125" style="36" customWidth="1"/>
+    <col min="8" max="8" width="2.7109375" style="36" customWidth="1"/>
+    <col min="9" max="9" width="11" style="36" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.7109375" style="36" customWidth="1"/>
+    <col min="11" max="11" width="24.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" style="36" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.28515625" style="36" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" style="36" customWidth="1"/>
+    <col min="18" max="18" width="2" style="36" customWidth="1"/>
+    <col min="19" max="19" width="8" style="36" customWidth="1"/>
+    <col min="20" max="22" width="16.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11" style="36" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.140625" style="36"/>
+    <col min="25" max="25" width="7.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.42578125" style="36" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="34"/>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
       <c r="D1" s="35"/>
       <c r="E1" s="43"/>
       <c r="F1" s="43"/>
-      <c r="H1" s="35"/>
       <c r="I1" s="35"/>
       <c r="J1" s="35"/>
       <c r="K1" s="35"/>
       <c r="L1" s="35"/>
       <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
     </row>
-    <row r="2" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A2" s="37"/>
       <c r="B2" s="38"/>
       <c r="C2" s="39"/>
       <c r="D2" s="40"/>
       <c r="E2" s="40"/>
       <c r="F2" s="40"/>
-      <c r="H2" s="39"/>
       <c r="I2" s="39"/>
-      <c r="J2" s="41" t="s">
+      <c r="J2" s="39"/>
+      <c r="K2" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="42" t="s">
+      <c r="L2" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
     </row>
-    <row r="3" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="38"/>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
       <c r="D3" s="39"/>
       <c r="E3" s="39"/>
       <c r="F3" s="39"/>
-      <c r="H3" s="39"/>
       <c r="I3" s="39"/>
-      <c r="J3" s="43"/>
+      <c r="J3" s="39"/>
       <c r="K3" s="43"/>
       <c r="L3" s="43"/>
-      <c r="M3" s="44">
-        <f>_xll.ohTrigger(M5:M6)</f>
-        <v>206</v>
+      <c r="M3" s="43"/>
+      <c r="N3" s="44">
+        <f>_xll.ohTrigger(N5:N6)</f>
+        <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="38"/>
-      <c r="B4" s="167"/>
-      <c r="C4" s="165" t="s">
+      <c r="B4" s="157"/>
+      <c r="C4" s="155" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="168" t="s">
+      <c r="D4" s="155" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="168" t="s">
+      <c r="E4" s="172" t="s">
         <v>91</v>
       </c>
-      <c r="F4" s="166" t="s">
+      <c r="F4" s="172" t="s">
         <v>92</v>
       </c>
-      <c r="H4" s="169" t="s">
+      <c r="G4" s="156" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4" s="158" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="39"/>
-      <c r="J4" s="170" t="s">
+      <c r="J4" s="39"/>
+      <c r="K4" s="159" t="s">
         <v>88</v>
       </c>
-      <c r="K4" s="170"/>
-      <c r="L4" s="170" t="s">
+      <c r="L4" s="159"/>
+      <c r="M4" s="159" t="s">
         <v>52</v>
       </c>
-      <c r="M4" s="170" t="s">
+      <c r="N4" s="159" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
       <c r="B5" s="130" t="s">
         <v>73</v>
@@ -30719,37 +30776,40 @@
         <f>JumpDate1</f>
         <v>41971</v>
       </c>
-      <c r="D5" s="132">
+      <c r="D5" s="173">
         <f>JumpValue1</f>
-        <v>0.99997810597674508</v>
-      </c>
-      <c r="E5" s="161">
+        <v>0.99999052005244438</v>
+      </c>
+      <c r="E5" s="165">
         <f>JumpSize1</f>
-        <v>2.6273115519054938E-3</v>
-      </c>
-      <c r="F5" s="158"/>
-      <c r="H5" s="135">
+        <v>1.1375990988732956E-3</v>
+      </c>
+      <c r="F5" s="166"/>
+      <c r="G5" s="167">
+        <v>8.9999662501155588E-4</v>
+      </c>
+      <c r="I5" s="132">
         <v>0.99999399174691228</v>
       </c>
-      <c r="I5" s="39"/>
-      <c r="J5" s="138" t="str">
-        <f t="shared" ref="J5:J17" si="0">Currency&amp;$B5&amp;$K$2</f>
+      <c r="J5" s="39"/>
+      <c r="K5" s="135" t="str">
+        <f t="shared" ref="K5:K17" si="0">Currency&amp;$B5&amp;$L$2</f>
         <v>EURJump1_SYNTHON_Quote</v>
       </c>
-      <c r="K5" s="138" t="str">
-        <f>_xll.qlSimpleQuote(J5,,,TRUE,Trigger)</f>
+      <c r="L5" s="135" t="str">
+        <f>_xll.qlSimpleQuote(K5,,,TRUE,Trigger)</f>
         <v>EURJump1_SYNTHON_Quote#0002</v>
       </c>
-      <c r="L5" s="138">
-        <f t="array" ref="L5:L17">QuoteLive</f>
-        <v>0.99997810597674508</v>
-      </c>
-      <c r="M5" s="138">
-        <f>_xll.qlSimpleQuoteSetValue($K5,ROUND($L5,7),EvaluationDate)</f>
+      <c r="M5" s="135">
+        <f t="array" ref="M5:M17">QuoteLive</f>
+        <v>0.99999052005244438</v>
+      </c>
+      <c r="N5" s="135">
+        <f>_xll.qlSimpleQuoteSetValue($L5,ROUND($M5,7),EvaluationDate)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A6" s="38"/>
       <c r="B6" s="127" t="s">
         <v>74</v>
@@ -30758,36 +30818,39 @@
         <f>JumpDate2</f>
         <v>42004</v>
       </c>
-      <c r="D6" s="133">
+      <c r="D6" s="163">
         <f>JumpValue2</f>
-        <v>0.99998168884441108</v>
-      </c>
-      <c r="E6" s="162">
+        <v>1</v>
+      </c>
+      <c r="E6" s="168">
         <f>JumpSize2</f>
-        <v>3.2960381832323649E-3</v>
-      </c>
-      <c r="F6" s="159"/>
-      <c r="H6" s="136">
+        <v>0</v>
+      </c>
+      <c r="F6" s="169"/>
+      <c r="G6" s="152">
+        <v>0</v>
+      </c>
+      <c r="I6" s="133">
         <v>1</v>
       </c>
-      <c r="I6" s="39"/>
-      <c r="J6" s="138" t="str">
+      <c r="J6" s="39"/>
+      <c r="K6" s="135" t="str">
         <f t="shared" si="0"/>
         <v>EURJump2_SYNTHON_Quote</v>
       </c>
-      <c r="K6" s="138" t="str">
-        <f>_xll.qlSimpleQuote(J6,,,TRUE,Trigger)</f>
+      <c r="L6" s="135" t="str">
+        <f>_xll.qlSimpleQuote(K6,,,TRUE,Trigger)</f>
         <v>EURJump2_SYNTHON_Quote#0002</v>
       </c>
-      <c r="L6" s="138">
-        <v>0.99998168884441108</v>
-      </c>
-      <c r="M6" s="138">
-        <f>_xll.qlSimpleQuoteSetValue($K6,ROUND($L6,7),EvaluationDate)</f>
+      <c r="M6" s="135">
+        <v>1</v>
+      </c>
+      <c r="N6" s="135">
+        <f>_xll.qlSimpleQuoteSetValue($L6,ROUND($M6,7),EvaluationDate)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="38"/>
       <c r="B7" s="127" t="s">
         <v>75</v>
@@ -30796,35 +30859,38 @@
         <f>JumpDate3</f>
         <v>42034</v>
       </c>
-      <c r="D7" s="133">
+      <c r="D7" s="163">
         <f>JumpValue3</f>
-        <v>0.99997943805537803</v>
-      </c>
-      <c r="E7" s="162">
+        <v>0.99999091128401929</v>
+      </c>
+      <c r="E7" s="168">
         <f>JumpSize3</f>
-        <v>2.4674587225976927E-3</v>
-      </c>
-      <c r="F7" s="159"/>
-      <c r="H7" s="136">
+        <v>1.0906508740006731E-3</v>
+      </c>
+      <c r="F7" s="169"/>
+      <c r="G7" s="152">
+        <v>2.1999798335708806E-3</v>
+      </c>
+      <c r="I7" s="133">
         <v>0.99999685161729968</v>
       </c>
-      <c r="J7" s="138" t="str">
+      <c r="K7" s="135" t="str">
         <f t="shared" si="0"/>
         <v>EURJump3_SYNTHON_Quote</v>
       </c>
-      <c r="K7" s="138" t="str">
-        <f>_xll.qlSimpleQuote(J7,,,TRUE,Trigger)</f>
+      <c r="L7" s="135" t="str">
+        <f>_xll.qlSimpleQuote(K7,,,TRUE,Trigger)</f>
         <v>EURJump3_SYNTHON_Quote#0002</v>
       </c>
-      <c r="L7" s="138">
-        <v>0.99997943805537803</v>
-      </c>
-      <c r="M7" s="138">
-        <f>_xll.qlSimpleQuoteSetValue($K7,ROUND($L7,7),EvaluationDate)</f>
+      <c r="M7" s="135">
+        <v>0.99999091128401929</v>
+      </c>
+      <c r="N7" s="135">
+        <f>_xll.qlSimpleQuoteSetValue($L7,ROUND($M7,7),EvaluationDate)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A8" s="38"/>
       <c r="B8" s="127" t="s">
         <v>76</v>
@@ -30833,35 +30899,38 @@
         <f>JumpDate4</f>
         <v>42062</v>
       </c>
-      <c r="D8" s="133">
+      <c r="D8" s="163">
         <f>JumpValue4</f>
-        <v>0.99997169195789948</v>
-      </c>
-      <c r="E8" s="162">
+        <v>0.99998642351961242</v>
+      </c>
+      <c r="E8" s="168">
         <f>JumpSize4</f>
-        <v>3.3970131336849155E-3</v>
-      </c>
-      <c r="F8" s="159"/>
-      <c r="H8" s="136">
+        <v>1.6291887058586644E-3</v>
+      </c>
+      <c r="F8" s="169"/>
+      <c r="G8" s="152">
+        <v>2.3999760003043527E-3</v>
+      </c>
+      <c r="I8" s="133">
         <v>0.99999237575302491</v>
       </c>
-      <c r="J8" s="138" t="str">
+      <c r="K8" s="135" t="str">
         <f t="shared" si="0"/>
         <v>EURJump4_SYNTHON_Quote</v>
       </c>
-      <c r="K8" s="138" t="str">
-        <f>_xll.qlSimpleQuote(J8,,,TRUE,Trigger)</f>
+      <c r="L8" s="135" t="str">
+        <f>_xll.qlSimpleQuote(K8,,,TRUE,Trigger)</f>
         <v>EURJump4_SYNTHON_Quote#0002</v>
       </c>
-      <c r="L8" s="138">
-        <v>0.99997169195789948</v>
-      </c>
-      <c r="M8" s="138">
-        <f>_xll.qlSimpleQuoteSetValue($K8,ROUND($L8,7),EvaluationDate)</f>
+      <c r="M8" s="135">
+        <v>0.99998642351961242</v>
+      </c>
+      <c r="N8" s="135">
+        <f>_xll.qlSimpleQuoteSetValue($L8,ROUND($M8,7),EvaluationDate)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A9" s="38"/>
       <c r="B9" s="127" t="s">
         <v>77</v>
@@ -30870,35 +30939,38 @@
         <f>JumpDate5</f>
         <v>42094</v>
       </c>
-      <c r="D9" s="133">
+      <c r="D9" s="163">
         <f>JumpValue5</f>
-        <v>0.99998309779957173</v>
-      </c>
-      <c r="E9" s="162">
+        <v>0.99999690371626371</v>
+      </c>
+      <c r="E9" s="168">
         <f>JumpSize5</f>
-        <v>6.0848435779450706E-3</v>
-      </c>
-      <c r="F9" s="159"/>
-      <c r="H9" s="136">
+        <v>1.1146638707239791E-3</v>
+      </c>
+      <c r="F9" s="169"/>
+      <c r="G9" s="152">
+        <v>2.9999875000785376E-3</v>
+      </c>
+      <c r="I9" s="133">
         <v>0.99996824223590031</v>
       </c>
-      <c r="J9" s="138" t="str">
+      <c r="K9" s="135" t="str">
         <f t="shared" si="0"/>
         <v>EURJump5_SYNTHON_Quote</v>
       </c>
-      <c r="K9" s="138" t="str">
-        <f>_xll.qlSimpleQuote(J9,,,TRUE,Trigger)</f>
+      <c r="L9" s="135" t="str">
+        <f>_xll.qlSimpleQuote(K9,,,TRUE,Trigger)</f>
         <v>EURJump5_SYNTHON_Quote#0002</v>
       </c>
-      <c r="L9" s="138">
-        <v>0.99998309779957173</v>
-      </c>
-      <c r="M9" s="138">
-        <f>_xll.qlSimpleQuoteSetValue($K9,ROUND($L9,7),EvaluationDate)</f>
+      <c r="M9" s="135">
+        <v>0.99999690371626371</v>
+      </c>
+      <c r="N9" s="135">
+        <f>_xll.qlSimpleQuoteSetValue($L9,ROUND($M9,7),EvaluationDate)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A10" s="38"/>
       <c r="B10" s="127" t="s">
         <v>78</v>
@@ -30907,37 +30979,38 @@
         <f>JumpDate6</f>
         <v>42124</v>
       </c>
-      <c r="D10" s="133">
+      <c r="D10" s="163">
         <f>JumpValue6</f>
-        <v>1</v>
-      </c>
-      <c r="E10" s="162">
+        <v>0.99999788032628345</v>
+      </c>
+      <c r="E10" s="168">
         <f>JumpSize6</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="159">
-        <v>0</v>
-      </c>
-      <c r="H10" s="136">
+        <v>1.9077083667550337E-4</v>
+      </c>
+      <c r="F10" s="169"/>
+      <c r="G10" s="152">
+        <v>0</v>
+      </c>
+      <c r="I10" s="133">
         <v>0.99997651632635709</v>
       </c>
-      <c r="J10" s="138" t="str">
+      <c r="K10" s="135" t="str">
         <f t="shared" si="0"/>
         <v>EURJump6_SYNTHON_Quote</v>
       </c>
-      <c r="K10" s="138" t="str">
-        <f>_xll.qlSimpleQuote(J10,,,TRUE,Trigger)</f>
+      <c r="L10" s="135" t="str">
+        <f>_xll.qlSimpleQuote(K10,,,TRUE,Trigger)</f>
         <v>EURJump6_SYNTHON_Quote#0002</v>
       </c>
-      <c r="L10" s="138">
-        <v>1</v>
-      </c>
-      <c r="M10" s="138">
-        <f>_xll.qlSimpleQuoteSetValue($K10,ROUND($L10,7),EvaluationDate)</f>
+      <c r="M10" s="135">
+        <v>0.99999788032628345</v>
+      </c>
+      <c r="N10" s="135">
+        <f>_xll.qlSimpleQuoteSetValue($L10,ROUND($M10,7),EvaluationDate)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A11" s="38"/>
       <c r="B11" s="127" t="s">
         <v>79</v>
@@ -30946,35 +31019,38 @@
         <f>JumpDate7</f>
         <v>42153</v>
       </c>
-      <c r="D11" s="133">
+      <c r="D11" s="163">
         <f>JumpValue7</f>
-        <v>1</v>
-      </c>
-      <c r="E11" s="162">
+        <v>0.99999370127260956</v>
+      </c>
+      <c r="E11" s="168">
         <f>JumpSize7</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="159"/>
-      <c r="H11" s="136">
+        <v>7.5584966730096216E-4</v>
+      </c>
+      <c r="F11" s="169"/>
+      <c r="G11" s="152">
+        <v>6.9577199429309239E-4</v>
+      </c>
+      <c r="I11" s="133">
         <v>0.99998988369315134</v>
       </c>
-      <c r="J11" s="138" t="str">
+      <c r="K11" s="135" t="str">
         <f t="shared" si="0"/>
         <v>EURJump7_SYNTHON_Quote</v>
       </c>
-      <c r="K11" s="138" t="str">
-        <f>_xll.qlSimpleQuote(J11,,,TRUE,Trigger)</f>
+      <c r="L11" s="135" t="str">
+        <f>_xll.qlSimpleQuote(K11,,,TRUE,Trigger)</f>
         <v>EURJump7_SYNTHON_Quote#0002</v>
       </c>
-      <c r="L11" s="138">
-        <v>1</v>
-      </c>
-      <c r="M11" s="138">
-        <f>_xll.qlSimpleQuoteSetValue($K11,ROUND($L11,7),EvaluationDate)</f>
+      <c r="M11" s="135">
+        <v>0.99999370127260956</v>
+      </c>
+      <c r="N11" s="135">
+        <f>_xll.qlSimpleQuoteSetValue($L11,ROUND($M11,7),EvaluationDate)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
       <c r="B12" s="127" t="s">
         <v>80</v>
@@ -30983,35 +31059,38 @@
         <f>JumpDate8</f>
         <v>42185</v>
       </c>
-      <c r="D12" s="133">
+      <c r="D12" s="163">
         <f>JumpValue8</f>
         <v>1</v>
       </c>
-      <c r="E12" s="162">
+      <c r="E12" s="168">
         <f>JumpSize8</f>
         <v>0</v>
       </c>
-      <c r="F12" s="159"/>
-      <c r="H12" s="136">
+      <c r="F12" s="169"/>
+      <c r="G12" s="152">
+        <v>0</v>
+      </c>
+      <c r="I12" s="133">
         <v>0.99999226871935276</v>
       </c>
-      <c r="J12" s="138" t="str">
+      <c r="K12" s="135" t="str">
         <f t="shared" si="0"/>
         <v>EURJump8_SYNTHON_Quote</v>
       </c>
-      <c r="K12" s="138" t="str">
-        <f>_xll.qlSimpleQuote(J12,,,TRUE,Trigger)</f>
+      <c r="L12" s="135" t="str">
+        <f>_xll.qlSimpleQuote(K12,,,TRUE,Trigger)</f>
         <v>EURJump8_SYNTHON_Quote#0002</v>
       </c>
-      <c r="L12" s="138">
+      <c r="M12" s="135">
         <v>1</v>
       </c>
-      <c r="M12" s="138">
-        <f>_xll.qlSimpleQuoteSetValue($K12,ROUND($L12,7),EvaluationDate)</f>
+      <c r="N12" s="135">
+        <f>_xll.qlSimpleQuoteSetValue($L12,ROUND($M12,7),EvaluationDate)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A13" s="38"/>
       <c r="B13" s="127" t="s">
         <v>81</v>
@@ -31020,37 +31099,38 @@
         <f>JumpDate9</f>
         <v>42216</v>
       </c>
-      <c r="D13" s="133">
+      <c r="D13" s="163">
         <f>JumpValue9</f>
         <v>1</v>
       </c>
-      <c r="E13" s="162">
+      <c r="E13" s="168">
         <f>JumpSize9</f>
         <v>0</v>
       </c>
-      <c r="F13" s="159">
-        <v>0</v>
-      </c>
-      <c r="H13" s="136">
+      <c r="F13" s="169"/>
+      <c r="G13" s="152">
+        <v>0</v>
+      </c>
+      <c r="I13" s="133">
         <v>0.99999360896660505</v>
       </c>
-      <c r="J13" s="138" t="str">
+      <c r="K13" s="135" t="str">
         <f t="shared" si="0"/>
         <v>EURJump9_SYNTHON_Quote</v>
       </c>
-      <c r="K13" s="138" t="str">
-        <f>_xll.qlSimpleQuote(J13,,,TRUE,Trigger)</f>
+      <c r="L13" s="135" t="str">
+        <f>_xll.qlSimpleQuote(K13,,,TRUE,Trigger)</f>
         <v>EURJump9_SYNTHON_Quote#0002</v>
       </c>
-      <c r="L13" s="138">
+      <c r="M13" s="135">
         <v>1</v>
       </c>
-      <c r="M13" s="138">
-        <f>_xll.qlSimpleQuoteSetValue($K13,ROUND($L13,7),EvaluationDate)</f>
+      <c r="N13" s="135">
+        <f>_xll.qlSimpleQuoteSetValue($L13,ROUND($M13,7),EvaluationDate)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A14" s="38"/>
       <c r="B14" s="127" t="s">
         <v>82</v>
@@ -31059,35 +31139,38 @@
         <f>JumpDate10</f>
         <v>42247</v>
       </c>
-      <c r="D14" s="133">
+      <c r="D14" s="163">
         <f>JumpValue10</f>
         <v>1</v>
       </c>
-      <c r="E14" s="162">
+      <c r="E14" s="168">
         <f>JumpSize10</f>
         <v>0</v>
       </c>
-      <c r="F14" s="159"/>
-      <c r="H14" s="136">
+      <c r="F14" s="169"/>
+      <c r="G14" s="152">
+        <v>0</v>
+      </c>
+      <c r="I14" s="133">
         <v>0.99999659453552103</v>
       </c>
-      <c r="J14" s="138" t="str">
+      <c r="K14" s="135" t="str">
         <f t="shared" si="0"/>
         <v>EURJump10_SYNTHON_Quote</v>
       </c>
-      <c r="K14" s="138" t="str">
-        <f>_xll.qlSimpleQuote(J14,,,TRUE,Trigger)</f>
+      <c r="L14" s="135" t="str">
+        <f>_xll.qlSimpleQuote(K14,,,TRUE,Trigger)</f>
         <v>EURJump10_SYNTHON_Quote#0002</v>
       </c>
-      <c r="L14" s="138">
+      <c r="M14" s="135">
         <v>1</v>
       </c>
-      <c r="M14" s="138">
-        <f>_xll.qlSimpleQuoteSetValue($K14,ROUND($L14,7),EvaluationDate)</f>
+      <c r="N14" s="135">
+        <f>_xll.qlSimpleQuoteSetValue($L14,ROUND($M14,7),EvaluationDate)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A15" s="38"/>
       <c r="B15" s="127" t="s">
         <v>83</v>
@@ -31096,37 +31179,38 @@
         <f>JumpDate11</f>
         <v>42277</v>
       </c>
-      <c r="D15" s="133">
+      <c r="D15" s="163">
         <f>JumpValue11</f>
-        <v>1</v>
-      </c>
-      <c r="E15" s="162">
+        <v>0.99999336270309624</v>
+      </c>
+      <c r="E15" s="168">
         <f>JumpSize11</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="159">
-        <v>0</v>
-      </c>
-      <c r="H15" s="136">
+        <v>2.3894348150548523E-3</v>
+      </c>
+      <c r="F15" s="169"/>
+      <c r="G15" s="152">
+        <v>2.3894348150548523E-3</v>
+      </c>
+      <c r="I15" s="133">
         <v>0.99999880458778456</v>
       </c>
-      <c r="J15" s="138" t="str">
+      <c r="K15" s="135" t="str">
         <f t="shared" si="0"/>
         <v>EURJump11_SYNTHON_Quote</v>
       </c>
-      <c r="K15" s="138" t="str">
-        <f>_xll.qlSimpleQuote(J15,,,TRUE,Trigger)</f>
+      <c r="L15" s="135" t="str">
+        <f>_xll.qlSimpleQuote(K15,,,TRUE,Trigger)</f>
         <v>EURJump11_SYNTHON_Quote#0002</v>
       </c>
-      <c r="L15" s="138">
-        <v>1</v>
-      </c>
-      <c r="M15" s="138">
-        <f>_xll.qlSimpleQuoteSetValue($K15,ROUND($L15,7),EvaluationDate)</f>
+      <c r="M15" s="135">
+        <v>0.99999336270309624</v>
+      </c>
+      <c r="N15" s="135">
+        <f>_xll.qlSimpleQuoteSetValue($L15,ROUND($M15,7),EvaluationDate)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A16" s="38"/>
       <c r="B16" s="127" t="s">
         <v>84</v>
@@ -31135,35 +31219,40 @@
         <f>JumpDate12</f>
         <v>42307</v>
       </c>
-      <c r="D16" s="133">
+      <c r="D16" s="163">
         <f>JumpValue12</f>
+        <v>0.99999166673611051</v>
+      </c>
+      <c r="E16" s="168">
+        <f>JumpSize12</f>
+        <v>9.9999583335951274E-4</v>
+      </c>
+      <c r="F16" s="169">
+        <v>1E-3</v>
+      </c>
+      <c r="G16" s="152">
+        <v>7.832690093979688E-4</v>
+      </c>
+      <c r="I16" s="133">
         <v>1</v>
       </c>
-      <c r="E16" s="162">
-        <f>JumpSize12</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="159"/>
-      <c r="H16" s="136">
-        <v>1</v>
-      </c>
-      <c r="J16" s="138" t="str">
+      <c r="K16" s="135" t="str">
         <f t="shared" si="0"/>
         <v>EURJump12_SYNTHON_Quote</v>
       </c>
-      <c r="K16" s="138" t="str">
-        <f>_xll.qlSimpleQuote(J16,,,TRUE,Trigger)</f>
+      <c r="L16" s="135" t="str">
+        <f>_xll.qlSimpleQuote(K16,,,TRUE,Trigger)</f>
         <v>EURJump12_SYNTHON_Quote#0002</v>
       </c>
-      <c r="L16" s="138">
-        <v>1</v>
-      </c>
-      <c r="M16" s="138">
-        <f>_xll.qlSimpleQuoteSetValue($K16,ROUND($L16,7),EvaluationDate)</f>
+      <c r="M16" s="135">
+        <v>0.99999166673611051</v>
+      </c>
+      <c r="N16" s="135">
+        <f>_xll.qlSimpleQuoteSetValue($L16,ROUND($M16,7),EvaluationDate)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="38"/>
       <c r="B17" s="128" t="s">
         <v>85</v>
@@ -31172,43 +31261,48 @@
         <f>JumpDate13</f>
         <v>42369</v>
       </c>
-      <c r="D17" s="134">
+      <c r="D17" s="164">
         <f>JumpValue13</f>
-        <v>0.99996102662516717</v>
-      </c>
-      <c r="E17" s="163">
+        <v>0.99994444753069278</v>
+      </c>
+      <c r="E17" s="170">
         <f>JumpSize13</f>
-        <v>3.5076720883081666E-3</v>
-      </c>
-      <c r="F17" s="160"/>
-      <c r="H17" s="137">
+        <v>4.9998611162511272E-3</v>
+      </c>
+      <c r="F17" s="171">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G17" s="153">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I17" s="134">
         <v>0.99996612432397214</v>
       </c>
-      <c r="J17" s="139" t="str">
+      <c r="K17" s="136" t="str">
         <f t="shared" si="0"/>
         <v>EURJump13_SYNTHON_Quote</v>
       </c>
-      <c r="K17" s="139" t="str">
-        <f>_xll.qlSimpleQuote(J17,,,TRUE,Trigger)</f>
+      <c r="L17" s="136" t="str">
+        <f>_xll.qlSimpleQuote(K17,,,TRUE,Trigger)</f>
         <v>EURJump13_SYNTHON_Quote#0002</v>
       </c>
-      <c r="L17" s="139">
-        <v>0.99996102662516717</v>
-      </c>
-      <c r="M17" s="139">
-        <f>_xll.qlSimpleQuoteSetValue($K17,ROUND($L17,7),EvaluationDate)</f>
+      <c r="M17" s="136">
+        <v>0.99994444753069278</v>
+      </c>
+      <c r="N17" s="136">
+        <f>_xll.qlSimpleQuoteSetValue($L17,ROUND($M17,7),EvaluationDate)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A18" s="38"/>
       <c r="C18" s="43"/>
     </row>
-    <row r="19" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A19" s="38"/>
       <c r="C19" s="43"/>
     </row>
-    <row r="20" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A20" s="38"/>
       <c r="C20" s="43"/>
     </row>

--- a/QuantLibXL/Data2/XLS/EUR_JumpsQuotesFeedON.xlsx
+++ b/QuantLibXL/Data2/XLS/EUR_JumpsQuotesFeedON.xlsx
@@ -1631,15 +1631,6 @@
     <xf numFmtId="166" fontId="18" fillId="14" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="170" fontId="9" fillId="4" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1672,6 +1663,15 @@
     </xf>
     <xf numFmtId="170" fontId="9" fillId="4" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1746,195 +1746,186 @@
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="4">
-          <cell r="J4">
-            <v>41964.75136574074</v>
-          </cell>
-        </row>
         <row r="6">
           <cell r="D6">
-            <v>204</v>
+            <v>228</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1">
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
         <row r="6">
-          <cell r="I6" t="str">
-            <v>Eonia2#0002</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="4">
-          <cell r="G4" t="str">
-            <v>EuriborSwapIsdaFixA1Y#0002</v>
+          <cell r="D6" t="str">
+            <v>EUR6M#0000</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3">
-        <row r="5">
-          <cell r="F5" t="str">
-            <v>EUR1E6E6M_Quote#0002</v>
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>6E</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="4">
-        <row r="5">
-          <cell r="F5" t="str">
-            <v>EUR3E6E6M_Quote#0002</v>
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>6E</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="5">
-        <row r="5">
-          <cell r="F5" t="str">
-            <v>EUR6E12E6M_Quote#0002</v>
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>12E</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6">
-        <row r="5">
-          <cell r="D5" t="str">
-            <v>EUROND_Quote#0002</v>
-          </cell>
-        </row>
         <row r="6">
           <cell r="D6" t="str">
-            <v>EURTND_Quote#0002</v>
+            <v>EURTND_Quote#0000</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="7">
-        <row r="3">
-          <cell r="E3" t="str">
-            <v>EURT1F1_Quote#0002</v>
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>EURTOM3F1_Quote</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="6">
-          <cell r="F6" t="str">
-            <v>EURFUT1MZ4_Quote#0002</v>
+          <cell r="D6" t="str">
+            <v>Z4</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="9">
-        <row r="7">
-          <cell r="F7" t="str">
-            <v>EURFUT3MZ4_Quote#0002</v>
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>Future Code</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="10">
         <row r="6">
-          <cell r="F6" t="str">
-            <v>EURIMMFRA6MZ4_Quote#0002</v>
+          <cell r="D6" t="str">
+            <v>Z4</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="11">
-        <row r="5">
-          <cell r="C5" t="str">
-            <v>EURHW_Volatility_Quote#0002</v>
+        <row r="6">
+          <cell r="D6" t="str">
+            <v/>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="12">
-        <row r="5">
-          <cell r="F5" t="str">
-            <v>EUREONSW_Quote#0002</v>
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>2W</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="13">
-        <row r="4">
-          <cell r="F4" t="str">
-            <v>EURECBOISDEC14_Quote#0002</v>
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>APR15</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="14">
-        <row r="5">
-          <cell r="F5" t="str">
-            <v>EUR2X1S_Quote#0002</v>
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>X1S</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="15">
-        <row r="5">
-          <cell r="F5" t="str">
-            <v>EUR1S12_Quote#0002</v>
+        <row r="6">
+          <cell r="D6">
+            <v>12</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="16">
         <row r="6">
-          <cell r="F6" t="str">
-            <v>EURAB3E1Y_Quote#0002</v>
+          <cell r="D6" t="str">
+            <v>3E</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="17">
-        <row r="3">
-          <cell r="D3" t="str">
-            <v>EURTOY_SYNTHON_Quote#0002</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="17"/>
       <sheetData sheetId="18">
         <row r="6">
-          <cell r="F6" t="str">
-            <v>EURAB6E1Y_Quote#0002</v>
+          <cell r="D6" t="str">
+            <v>6E</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="19">
-        <row r="5">
-          <cell r="E5" t="str">
-            <v>EUR1F1Y_Quote#0002</v>
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>EUR1F2Y_Quote</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="20">
-        <row r="3">
-          <cell r="J3" t="str">
-            <v>EURAB1EBASIS1Y_Quote#0002</v>
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>1E</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="21">
-        <row r="3">
-          <cell r="J3" t="str">
-            <v>EURAB3EBASIS1Y_Quote#0002</v>
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>3E</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="22">
-        <row r="3">
-          <cell r="J3" t="str">
-            <v>EURAB6EBASIS1Y_Quote#0001</v>
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>6E</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="23">
-        <row r="3">
-          <cell r="J3" t="str">
-            <v>EURAB12EBASIS1Y_Quote#0002</v>
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>12E</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27">
-        <row r="3">
-          <cell r="D3" t="str">
-            <v>EUROND_Mx_Quote#0002</v>
+      <sheetData sheetId="24">
+        <row r="6">
+          <cell r="D6">
+            <v>41981</v>
           </cell>
         </row>
+      </sheetData>
+      <sheetData sheetId="25">
+        <row r="6">
+          <cell r="D6">
+            <v>41981</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="26">
+        <row r="6">
+          <cell r="D6">
+            <v>41982</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="27">
         <row r="6">
           <cell r="D6" t="str">
-            <v>EURSWD_Mx_Quote#0002</v>
+            <v>EURSWD_Mx_Quote#0000</v>
           </cell>
         </row>
       </sheetData>
@@ -2256,7 +2247,7 @@
     <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="str">
         <f>_xll.qlxlVersion(TRUE,EvaluationDate)</f>
-        <v>QuantLibXL 1.5.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Nov 20 2014 17:26:59</v>
+        <v>QuantLibXL 1.5.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Dec  9 2014 11:48:31</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
@@ -2317,7 +2308,7 @@
       </c>
       <c r="I4" s="95">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>41964</v>
+        <v>41982</v>
       </c>
       <c r="J4" s="54"/>
       <c r="K4" s="1"/>
@@ -2383,7 +2374,7 @@
         <v>66</v>
       </c>
       <c r="I6" s="99">
-        <v>41964.393518518518</v>
+        <v>41982.514965277776</v>
       </c>
       <c r="J6" s="54"/>
       <c r="K6" s="1"/>
@@ -2410,7 +2401,7 @@
       </c>
       <c r="D7" s="59">
         <f>_xll.ohTrigger(Contribution!N3)</f>
-        <v>328</v>
+        <v>228</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="1"/>
@@ -2420,7 +2411,7 @@
       </c>
       <c r="I7" s="98">
         <f>[1]!TriggerCounter</f>
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="J7" s="54"/>
       <c r="K7" s="1"/>
@@ -2474,7 +2465,7 @@
       </c>
       <c r="D9" s="66">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,"2d","f",,Trigger)</f>
-        <v>41968</v>
+        <v>41984</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="1"/>
@@ -2533,7 +2524,7 @@
       </c>
       <c r="D11" s="15" t="str">
         <f>_xll.qlPiecewiseYieldCurve(,NDays,Calendar,_xll.ohPack(Calculation!A5:A129),DayCounter,,,Accuracy,TraitsID,InterpolatorID)</f>
-        <v>obj_0048e#0003</v>
+        <v>obj_00bee#0001</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="1"/>
@@ -2866,7 +2857,7 @@
       <c r="B22" s="2"/>
       <c r="C22" s="24">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41968</v>
+        <v>41984</v>
       </c>
       <c r="D22" s="25">
         <f>_xll.qlYieldTSDiscount(YieldCurve,C22,,Trigger)</f>
@@ -2899,11 +2890,11 @@
       <c r="B23" s="2"/>
       <c r="C23" s="32">
         <f>MAX(_xll.ohPack(Calculation!D5:D129))</f>
-        <v>42699</v>
+        <v>42716</v>
       </c>
       <c r="D23" s="119">
         <f>_xll.qlYieldTSDiscount(YieldCurve,C23,,Trigger)</f>
-        <v>1.0007314009663986</v>
+        <v>1.0006510123141807</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="1"/>
@@ -3911,7 +3902,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -3929,11 +3920,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B1" s="160" t="s">
+      <c r="B1" s="171" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="161"/>
-      <c r="D1" s="162"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="173"/>
       <c r="E1" s="73" t="s">
         <v>56</v>
       </c>
@@ -3981,17 +3972,17 @@
       </c>
       <c r="J2" s="146">
         <f>_xll.qlRateHelperEarliestDate($F2)</f>
-        <v>41968</v>
+        <v>41984</v>
       </c>
       <c r="K2" s="147">
         <f>_xll.qlRateHelperLatestDate($F2)</f>
-        <v>41969</v>
+        <v>41985</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="100">
         <f>_xll.qlECBNextDate(SettlementDate)</f>
-        <v>41983</v>
+        <v>42032</v>
       </c>
       <c r="B3" s="79" t="s">
         <v>40</v>
@@ -4001,15 +3992,15 @@
       </c>
       <c r="D3" s="81" t="str">
         <f>_xll.qlECBcode(A3)</f>
-        <v>DEC14</v>
+        <v>JAN15</v>
       </c>
       <c r="E3" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>EURECBOISDEC14_Quote</v>
+        <v>EURECBOISJAN15_Quote</v>
       </c>
       <c r="F3" s="33" t="str">
         <f>_xll.qlDatedOISRateHelper("W"&amp;Currency&amp;B3&amp;C3&amp;D3,A3,A4,E3,OvernightIndex)</f>
-        <v>WEURECBOISDEC14#0000</v>
+        <v>WEURECBOISJAN15#0000</v>
       </c>
       <c r="G3" s="86" t="b">
         <v>1</v>
@@ -4022,18 +4013,18 @@
       </c>
       <c r="J3" s="148">
         <f>_xll.qlRateHelperEarliestDate($F3)</f>
-        <v>41983</v>
+        <v>42032</v>
       </c>
       <c r="K3" s="149">
         <f>_xll.qlRateHelperLatestDate($F3)</f>
-        <v>42032</v>
+        <v>42074</v>
       </c>
       <c r="L3" s="51"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="100">
         <f>_xll.qlECBNextDate(A3)</f>
-        <v>42032</v>
+        <v>42074</v>
       </c>
       <c r="B4" s="83" t="s">
         <v>40</v>
@@ -4043,15 +4034,15 @@
       </c>
       <c r="D4" s="84" t="str">
         <f>_xll.qlECBcode(A4)</f>
-        <v>JAN15</v>
+        <v>MAR15</v>
       </c>
       <c r="E4" s="85" t="str">
         <f t="shared" si="0"/>
-        <v>EURECBOISJAN15_Quote</v>
+        <v>EURECBOISMAR15_Quote</v>
       </c>
       <c r="F4" s="85" t="str">
         <f>_xll.qlDatedOISRateHelper("W"&amp;Currency&amp;B4&amp;C4&amp;D4,A4,A5,E4,OvernightIndex)</f>
-        <v>WEURECBOISJAN15#0000</v>
+        <v>WEURECBOISMAR15#0000</v>
       </c>
       <c r="G4" s="86" t="b">
         <v>1</v>
@@ -4064,18 +4055,18 @@
       </c>
       <c r="J4" s="150">
         <f>_xll.qlRateHelperEarliestDate($F4)</f>
-        <v>42032</v>
+        <v>42074</v>
       </c>
       <c r="K4" s="151">
         <f>_xll.qlRateHelperLatestDate($F4)</f>
-        <v>42074</v>
+        <v>42116</v>
       </c>
       <c r="L4" s="87"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="100">
         <f>_xll.qlECBNextDate(A4)</f>
-        <v>42074</v>
+        <v>42116</v>
       </c>
       <c r="B5" s="83" t="s">
         <v>40</v>
@@ -4085,15 +4076,15 @@
       </c>
       <c r="D5" s="84" t="str">
         <f>_xll.qlECBcode(A5)</f>
-        <v>MAR15</v>
+        <v>APR15</v>
       </c>
       <c r="E5" s="85" t="str">
         <f t="shared" si="0"/>
-        <v>EURECBOISMAR15_Quote</v>
+        <v>EURECBOISAPR15_Quote</v>
       </c>
       <c r="F5" s="85" t="str">
         <f>_xll.qlDatedOISRateHelper("W"&amp;Currency&amp;B5&amp;C5&amp;D5,A5,A6,E5,OvernightIndex)</f>
-        <v>WEURECBOISMAR15#0000</v>
+        <v>WEURECBOISAPR15#0000</v>
       </c>
       <c r="G5" s="86" t="b">
         <v>1</v>
@@ -4106,17 +4097,17 @@
       </c>
       <c r="J5" s="150">
         <f>_xll.qlRateHelperEarliestDate($F5)</f>
-        <v>42074</v>
+        <v>42116</v>
       </c>
       <c r="K5" s="151">
         <f>_xll.qlRateHelperLatestDate($F5)</f>
-        <v>42116</v>
+        <v>42165</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="100">
         <f>_xll.qlECBNextDate(A5)</f>
-        <v>42116</v>
+        <v>42165</v>
       </c>
       <c r="B6" s="83" t="s">
         <v>40</v>
@@ -4126,15 +4117,15 @@
       </c>
       <c r="D6" s="84" t="str">
         <f>_xll.qlECBcode(A6)</f>
-        <v>APR15</v>
+        <v>JUN15</v>
       </c>
       <c r="E6" s="85" t="str">
         <f t="shared" si="0"/>
-        <v>EURECBOISAPR15_Quote</v>
+        <v>EURECBOISJUN15_Quote</v>
       </c>
       <c r="F6" s="85" t="str">
         <f>_xll.qlDatedOISRateHelper("W"&amp;Currency&amp;B6&amp;C6&amp;D6,A6,A7,E6,OvernightIndex)</f>
-        <v>WEURECBOISAPR15#0000</v>
+        <v>WEURECBOISJUN15#0000</v>
       </c>
       <c r="G6" s="86" t="b">
         <v>1</v>
@@ -4147,17 +4138,17 @@
       </c>
       <c r="J6" s="150">
         <f>_xll.qlRateHelperEarliestDate($F6)</f>
-        <v>42116</v>
+        <v>42165</v>
       </c>
       <c r="K6" s="151">
         <f>_xll.qlRateHelperLatestDate($F6)</f>
-        <v>42165</v>
+        <v>42207</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="100">
         <f>_xll.qlECBNextDate(A6)</f>
-        <v>42165</v>
+        <v>42207</v>
       </c>
       <c r="B7" s="83" t="s">
         <v>40</v>
@@ -4167,15 +4158,15 @@
       </c>
       <c r="D7" s="84" t="str">
         <f>_xll.qlECBcode(A7)</f>
-        <v>JUN15</v>
+        <v>JUL15</v>
       </c>
       <c r="E7" s="85" t="str">
         <f t="shared" si="0"/>
-        <v>EURECBOISJUN15_Quote</v>
+        <v>EURECBOISJUL15_Quote</v>
       </c>
       <c r="F7" s="85" t="str">
         <f>_xll.qlDatedOISRateHelper("W"&amp;Currency&amp;B7&amp;C7&amp;D7,A7,A8,E7,OvernightIndex)</f>
-        <v>WEURECBOISJUN15#0000</v>
+        <v>WEURECBOISJUL15#0000</v>
       </c>
       <c r="G7" s="86" t="b">
         <v>1</v>
@@ -4188,17 +4179,17 @@
       </c>
       <c r="J7" s="150">
         <f>_xll.qlRateHelperEarliestDate($F7)</f>
-        <v>42165</v>
+        <v>42207</v>
       </c>
       <c r="K7" s="151">
         <f>_xll.qlRateHelperLatestDate($F7)</f>
-        <v>42207</v>
+        <v>42256</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="100">
         <f>_xll.qlECBNextDate(A7)</f>
-        <v>42207</v>
+        <v>42256</v>
       </c>
       <c r="B8" s="83" t="s">
         <v>40</v>
@@ -4208,15 +4199,15 @@
       </c>
       <c r="D8" s="84" t="str">
         <f>_xll.qlECBcode(A8)</f>
-        <v>JUL15</v>
+        <v>SEP15</v>
       </c>
       <c r="E8" s="85" t="str">
         <f t="shared" si="0"/>
-        <v>EURECBOISJUL15_Quote</v>
+        <v>EURECBOISSEP15_Quote</v>
       </c>
       <c r="F8" s="85" t="str">
         <f>_xll.qlDatedOISRateHelper("W"&amp;Currency&amp;B8&amp;C8&amp;D8,A8,A9,E8,OvernightIndex)</f>
-        <v>WEURECBOISJUL15#0000</v>
+        <v>WEURECBOISSEP15#0000</v>
       </c>
       <c r="G8" s="86" t="b">
         <v>1</v>
@@ -4229,17 +4220,17 @@
       </c>
       <c r="J8" s="150">
         <f>_xll.qlRateHelperEarliestDate($F8)</f>
-        <v>42207</v>
+        <v>42256</v>
       </c>
       <c r="K8" s="151">
         <f>_xll.qlRateHelperLatestDate($F8)</f>
-        <v>42256</v>
+        <v>42305</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="100">
         <f>_xll.qlECBNextDate(A8)</f>
-        <v>42256</v>
+        <v>42305</v>
       </c>
       <c r="B9" s="83" t="s">
         <v>40</v>
@@ -4249,15 +4240,15 @@
       </c>
       <c r="D9" s="84" t="str">
         <f>_xll.qlECBcode(A9)</f>
-        <v>SEP15</v>
+        <v>OCT15</v>
       </c>
       <c r="E9" s="85" t="str">
         <f t="shared" si="0"/>
-        <v>EURECBOISSEP15_Quote</v>
+        <v>EURECBOISOCT15_Quote</v>
       </c>
       <c r="F9" s="85" t="str">
         <f>_xll.qlDatedOISRateHelper("W"&amp;Currency&amp;B9&amp;C9&amp;D9,A9,A10,E9,OvernightIndex)</f>
-        <v>WEURECBOISSEP15#0000</v>
+        <v>WEURECBOISOCT15#0000</v>
       </c>
       <c r="G9" s="86" t="b">
         <v>1</v>
@@ -4270,17 +4261,17 @@
       </c>
       <c r="J9" s="150">
         <f>_xll.qlRateHelperEarliestDate($F9)</f>
-        <v>42256</v>
+        <v>42305</v>
       </c>
       <c r="K9" s="151">
         <f>_xll.qlRateHelperLatestDate($F9)</f>
-        <v>42305</v>
+        <v>42347</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="100">
         <f>_xll.qlECBNextDate(A9)</f>
-        <v>42305</v>
+        <v>42347</v>
       </c>
       <c r="B10" s="83" t="s">
         <v>40</v>
@@ -4290,15 +4281,15 @@
       </c>
       <c r="D10" s="84" t="str">
         <f>_xll.qlECBcode(A10)</f>
-        <v>OCT15</v>
+        <v>DEC15</v>
       </c>
       <c r="E10" s="85" t="str">
         <f t="shared" si="0"/>
-        <v>EURECBOISOCT15_Quote</v>
+        <v>EURECBOISDEC15_Quote</v>
       </c>
       <c r="F10" s="85" t="str">
         <f>_xll.qlDatedOISRateHelper("W"&amp;Currency&amp;B10&amp;C10&amp;D10,A10,A11,E10,OvernightIndex)</f>
-        <v>WEURECBOISOCT15#0000</v>
+        <v>WEURECBOISDEC15#0000</v>
       </c>
       <c r="G10" s="86" t="b">
         <v>1</v>
@@ -4311,17 +4302,17 @@
       </c>
       <c r="J10" s="150">
         <f>_xll.qlRateHelperEarliestDate($F10)</f>
-        <v>42305</v>
+        <v>42347</v>
       </c>
       <c r="K10" s="151">
         <f>_xll.qlRateHelperLatestDate($F10)</f>
-        <v>42347</v>
+        <v>42395</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="100">
         <f>_xll.qlECBNextDate(A10)</f>
-        <v>42347</v>
+        <v>42395</v>
       </c>
       <c r="B11" s="83" t="s">
         <v>40</v>
@@ -4331,18 +4322,18 @@
       </c>
       <c r="D11" s="84" t="str">
         <f>_xll.qlECBcode(A11)</f>
-        <v>DEC15</v>
+        <v>JAN16</v>
       </c>
       <c r="E11" s="85" t="str">
         <f t="shared" si="0"/>
-        <v>EURECBOISDEC15_Quote</v>
-      </c>
-      <c r="F11" s="85" t="str">
+        <v>EURECBOISJAN16_Quote</v>
+      </c>
+      <c r="F11" s="85" t="e">
         <f>_xll.qlDatedOISRateHelper("W"&amp;Currency&amp;B11&amp;C11&amp;D11,A11,A12,E11,OvernightIndex)</f>
-        <v>WEURECBOISDEC15#0000</v>
+        <v>#NUM!</v>
       </c>
       <c r="G11" s="86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="86">
         <v>70</v>
@@ -4350,19 +4341,19 @@
       <c r="I11" s="86">
         <v>3</v>
       </c>
-      <c r="J11" s="150">
+      <c r="J11" s="150" t="e">
         <f>_xll.qlRateHelperEarliestDate($F11)</f>
-        <v>42347</v>
-      </c>
-      <c r="K11" s="151">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K11" s="151" t="e">
         <f>_xll.qlRateHelperLatestDate($F11)</f>
-        <v>42395</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="100">
+      <c r="A12" s="100" t="e">
         <f>_xll.qlECBNextDate(A11)</f>
-        <v>42395</v>
+        <v>#NUM!</v>
       </c>
       <c r="B12" s="83" t="s">
         <v>40</v>
@@ -4370,17 +4361,17 @@
       <c r="C12" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="84" t="str">
+      <c r="D12" s="84" t="e">
         <f>_xll.qlECBcode(A12)</f>
-        <v>JAN16</v>
-      </c>
-      <c r="E12" s="85" t="str">
+        <v>#NUM!</v>
+      </c>
+      <c r="E12" s="85" t="e">
         <f t="shared" si="0"/>
-        <v>EURECBOISJAN16_Quote</v>
+        <v>#NUM!</v>
       </c>
       <c r="F12" s="85" t="e">
         <f>_xll.qlDatedOISRateHelper("W"&amp;Currency&amp;B12&amp;C12&amp;D12,A12,A13,E12,OvernightIndex)</f>
-        <v>#NUM!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G12" s="86" t="b">
         <v>0</v>
@@ -4470,11 +4461,11 @@
       </c>
       <c r="J14" s="148">
         <f>_xll.qlRateHelperEarliestDate($F14)</f>
-        <v>41968</v>
+        <v>41984</v>
       </c>
       <c r="K14" s="149">
         <f>_xll.qlRateHelperLatestDate($F14)</f>
-        <v>41975</v>
+        <v>41991</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -4495,7 +4486,7 @@
         <v>WEUREON2W#0000</v>
       </c>
       <c r="G15" s="86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="86">
         <v>50</v>
@@ -4505,11 +4496,11 @@
       </c>
       <c r="J15" s="150">
         <f>_xll.qlRateHelperEarliestDate($F15)</f>
-        <v>41968</v>
+        <v>41984</v>
       </c>
       <c r="K15" s="151">
         <f>_xll.qlRateHelperLatestDate($F15)</f>
-        <v>41982</v>
+        <v>42002</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -4530,7 +4521,7 @@
         <v>WEUREON3W#0000</v>
       </c>
       <c r="G16" s="86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="86">
         <v>50</v>
@@ -4540,11 +4531,11 @@
       </c>
       <c r="J16" s="150">
         <f>_xll.qlRateHelperEarliestDate($F16)</f>
-        <v>41968</v>
+        <v>41984</v>
       </c>
       <c r="K16" s="151">
         <f>_xll.qlRateHelperLatestDate($F16)</f>
-        <v>41989</v>
+        <v>42006</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
@@ -4575,11 +4566,11 @@
       </c>
       <c r="J17" s="150">
         <f>_xll.qlRateHelperEarliestDate($F17)</f>
-        <v>41968</v>
+        <v>41984</v>
       </c>
       <c r="K17" s="151">
         <f>_xll.qlRateHelperLatestDate($F17)</f>
-        <v>42002</v>
+        <v>42016</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
@@ -4610,11 +4601,11 @@
       </c>
       <c r="J18" s="150">
         <f>_xll.qlRateHelperEarliestDate($F18)</f>
-        <v>41968</v>
+        <v>41984</v>
       </c>
       <c r="K18" s="151">
         <f>_xll.qlRateHelperLatestDate($F18)</f>
-        <v>42030</v>
+        <v>42046</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
@@ -4645,11 +4636,11 @@
       </c>
       <c r="J19" s="150">
         <f>_xll.qlRateHelperEarliestDate($F19)</f>
-        <v>41968</v>
+        <v>41984</v>
       </c>
       <c r="K19" s="151">
         <f>_xll.qlRateHelperLatestDate($F19)</f>
-        <v>42060</v>
+        <v>42074</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
@@ -4680,11 +4671,11 @@
       </c>
       <c r="J20" s="150">
         <f>_xll.qlRateHelperEarliestDate($F20)</f>
-        <v>41968</v>
+        <v>41984</v>
       </c>
       <c r="K20" s="151">
         <f>_xll.qlRateHelperLatestDate($F20)</f>
-        <v>42088</v>
+        <v>42107</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
@@ -4715,11 +4706,11 @@
       </c>
       <c r="J21" s="150">
         <f>_xll.qlRateHelperEarliestDate($F21)</f>
-        <v>41968</v>
+        <v>41984</v>
       </c>
       <c r="K21" s="151">
         <f>_xll.qlRateHelperLatestDate($F21)</f>
-        <v>42121</v>
+        <v>42135</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
@@ -4750,11 +4741,11 @@
       </c>
       <c r="J22" s="150">
         <f>_xll.qlRateHelperEarliestDate($F22)</f>
-        <v>41968</v>
+        <v>41984</v>
       </c>
       <c r="K22" s="151">
         <f>_xll.qlRateHelperLatestDate($F22)</f>
-        <v>42149</v>
+        <v>42166</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
@@ -4785,11 +4776,11 @@
       </c>
       <c r="J23" s="150">
         <f>_xll.qlRateHelperEarliestDate($F23)</f>
-        <v>41968</v>
+        <v>41984</v>
       </c>
       <c r="K23" s="151">
         <f>_xll.qlRateHelperLatestDate($F23)</f>
-        <v>42180</v>
+        <v>42198</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
@@ -4820,11 +4811,11 @@
       </c>
       <c r="J24" s="150">
         <f>_xll.qlRateHelperEarliestDate($F24)</f>
-        <v>41968</v>
+        <v>41984</v>
       </c>
       <c r="K24" s="151">
         <f>_xll.qlRateHelperLatestDate($F24)</f>
-        <v>42212</v>
+        <v>42227</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
@@ -4855,11 +4846,11 @@
       </c>
       <c r="J25" s="150">
         <f>_xll.qlRateHelperEarliestDate($F25)</f>
-        <v>41968</v>
+        <v>41984</v>
       </c>
       <c r="K25" s="151">
         <f>_xll.qlRateHelperLatestDate($F25)</f>
-        <v>42241</v>
+        <v>42258</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
@@ -4890,11 +4881,11 @@
       </c>
       <c r="J26" s="150">
         <f>_xll.qlRateHelperEarliestDate($F26)</f>
-        <v>41968</v>
+        <v>41984</v>
       </c>
       <c r="K26" s="151">
         <f>_xll.qlRateHelperLatestDate($F26)</f>
-        <v>42272</v>
+        <v>42289</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
@@ -4925,11 +4916,11 @@
       </c>
       <c r="J27" s="150">
         <f>_xll.qlRateHelperEarliestDate($F27)</f>
-        <v>41968</v>
+        <v>41984</v>
       </c>
       <c r="K27" s="151">
         <f>_xll.qlRateHelperLatestDate($F27)</f>
-        <v>42303</v>
+        <v>42319</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
@@ -4960,11 +4951,11 @@
       </c>
       <c r="J28" s="150">
         <f>_xll.qlRateHelperEarliestDate($F28)</f>
-        <v>41968</v>
+        <v>41984</v>
       </c>
       <c r="K28" s="151">
         <f>_xll.qlRateHelperLatestDate($F28)</f>
-        <v>42333</v>
+        <v>42349</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
@@ -4995,11 +4986,11 @@
       </c>
       <c r="J29" s="150">
         <f>_xll.qlRateHelperEarliestDate($F29)</f>
-        <v>41968</v>
+        <v>41984</v>
       </c>
       <c r="K29" s="151">
         <f>_xll.qlRateHelperLatestDate($F29)</f>
-        <v>42425</v>
+        <v>42440</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
@@ -5030,11 +5021,11 @@
       </c>
       <c r="J30" s="150">
         <f>_xll.qlRateHelperEarliestDate($F30)</f>
-        <v>41968</v>
+        <v>41984</v>
       </c>
       <c r="K30" s="151">
         <f>_xll.qlRateHelperLatestDate($F30)</f>
-        <v>42515</v>
+        <v>42534</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
@@ -5065,11 +5056,11 @@
       </c>
       <c r="J31" s="150">
         <f>_xll.qlRateHelperEarliestDate($F31)</f>
-        <v>41968</v>
+        <v>41984</v>
       </c>
       <c r="K31" s="151">
         <f>_xll.qlRateHelperLatestDate($F31)</f>
-        <v>42607</v>
+        <v>42625</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
@@ -5100,11 +5091,11 @@
       </c>
       <c r="J32" s="150">
         <f>_xll.qlRateHelperEarliestDate($F32)</f>
-        <v>41968</v>
+        <v>41984</v>
       </c>
       <c r="K32" s="151">
         <f>_xll.qlRateHelperLatestDate($F32)</f>
-        <v>42699</v>
+        <v>42716</v>
       </c>
     </row>
     <row r="33" spans="4:11" x14ac:dyDescent="0.2">
@@ -5169,7 +5160,7 @@
   <dimension ref="A1:BK130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -5250,31 +5241,31 @@
     <row r="1" spans="1:63" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="O1" s="51">
         <f>MAX(O5:O129)</f>
-        <v>0.99999052005244438</v>
+        <v>0.9999824826406053</v>
       </c>
       <c r="S1" s="51">
         <f>MAX(S5:S129)</f>
-        <v>1</v>
+        <v>0.99999111787408357</v>
       </c>
       <c r="W1" s="51">
         <f>MAX(W5:W129)</f>
-        <v>0.99999091128401929</v>
+        <v>0.99997284750112314</v>
       </c>
       <c r="AA1" s="51">
         <f>MAX(AA5:AA129)</f>
-        <v>0.99998642351961242</v>
+        <v>1</v>
       </c>
       <c r="AE1" s="51">
         <f>MAX(AE5:AE129)</f>
-        <v>0.99999690371626371</v>
+        <v>1</v>
       </c>
       <c r="AI1" s="51">
         <f>MAX(AI5:AI129)</f>
-        <v>0.99999788032628345</v>
+        <v>1</v>
       </c>
       <c r="AM1" s="51">
         <f>MAX(AM5:AM129)</f>
-        <v>0.99999370127260956</v>
+        <v>1</v>
       </c>
       <c r="AQ1" s="51">
         <f>MAX(AQ5:AQ129)</f>
@@ -5290,49 +5281,49 @@
       </c>
       <c r="BC1" s="51">
         <f>MAX(BC5:BC129)</f>
-        <v>0.99999336270309624</v>
+        <v>1</v>
       </c>
       <c r="BG1" s="51">
         <f>MAX(BG5:BG129)</f>
-        <v>0.99999166673611051</v>
+        <v>0.99999578969461889</v>
       </c>
       <c r="BK1" s="51">
         <f>MAX(BK5:BK129)</f>
-        <v>0.99994444753069278</v>
+        <v>0.99997166725762687</v>
       </c>
     </row>
     <row r="2" spans="1:63" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I2" s="114">
         <f>_xll.qlCalendarEndOfMonth(Calendar,EDATE(DATE(YEAR(K4),MONTH(K4),1),-1))</f>
-        <v>41943</v>
+        <v>41971</v>
       </c>
       <c r="M2" s="114">
         <f>_xll.qlCalendarAdvance(Calendar,I2,"1m","mf",TRUE)</f>
-        <v>41971</v>
+        <v>42004</v>
       </c>
       <c r="N2" s="118" t="s">
         <v>71</v>
       </c>
       <c r="O2" s="117">
         <f>_xll.qlDayCounterYearFraction(DayCounter,M2,_xll.qlCalendarAdvance(Calendar,M2,"1D"))</f>
-        <v>8.3333333333333332E-3</v>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="P2" s="108"/>
       <c r="Q2" s="114">
         <f>_xll.qlCalendarAdvance(Calendar,M2,"1m","mf",TRUE)</f>
-        <v>42004</v>
+        <v>42034</v>
       </c>
       <c r="R2" s="118" t="s">
         <v>71</v>
       </c>
       <c r="S2" s="117">
         <f>_xll.qlDayCounterYearFraction(DayCounter,Q2,_xll.qlCalendarAdvance(Calendar,Q2,"1D"))</f>
-        <v>5.5555555555555558E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="T2" s="109"/>
       <c r="U2" s="114">
         <f>_xll.qlCalendarAdvance(Calendar,Q2,"1m","mf",TRUE)</f>
-        <v>42034</v>
+        <v>42062</v>
       </c>
       <c r="V2" s="118" t="s">
         <v>71</v>
@@ -5344,76 +5335,76 @@
       <c r="X2" s="109"/>
       <c r="Y2" s="114">
         <f>_xll.qlCalendarAdvance(Calendar,U2,"1m","mf",TRUE)</f>
-        <v>42062</v>
+        <v>42094</v>
       </c>
       <c r="Z2" s="118" t="s">
         <v>71</v>
       </c>
       <c r="AA2" s="117">
         <f>_xll.qlDayCounterYearFraction(DayCounter,Y2,_xll.qlCalendarAdvance(Calendar,Y2,"1D"))</f>
-        <v>8.3333333333333332E-3</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="AB2" s="109"/>
       <c r="AC2" s="114">
         <f>_xll.qlCalendarAdvance(Calendar,Y2,"1m","mf",TRUE)</f>
-        <v>42094</v>
+        <v>42124</v>
       </c>
       <c r="AD2" s="118" t="s">
         <v>71</v>
       </c>
       <c r="AE2" s="117">
         <f>_xll.qlDayCounterYearFraction(DayCounter,AC2,_xll.qlCalendarAdvance(Calendar,AC2,"1D"))</f>
-        <v>2.7777777777777779E-3</v>
+        <v>1.1111111111111112E-2</v>
       </c>
       <c r="AF2" s="109"/>
       <c r="AG2" s="114">
         <f>_xll.qlCalendarAdvance(Calendar,AC2,"1m","mf",TRUE)</f>
-        <v>42124</v>
+        <v>42153</v>
       </c>
       <c r="AH2" s="118" t="s">
         <v>71</v>
       </c>
       <c r="AI2" s="117">
         <f>_xll.qlDayCounterYearFraction(DayCounter,AG2,_xll.qlCalendarAdvance(Calendar,AG2,"1D"))</f>
-        <v>1.1111111111111112E-2</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="AJ2" s="109"/>
       <c r="AK2" s="114">
         <f>_xll.qlCalendarAdvance(Calendar,AG2,"1m","mf",TRUE)</f>
-        <v>42153</v>
+        <v>42185</v>
       </c>
       <c r="AL2" s="118" t="s">
         <v>71</v>
       </c>
       <c r="AM2" s="117">
         <f>_xll.qlDayCounterYearFraction(DayCounter,AK2,_xll.qlCalendarAdvance(Calendar,AK2,"1D"))</f>
-        <v>8.3333333333333332E-3</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="AO2" s="114">
         <f>_xll.qlCalendarAdvance(Calendar,AK2,"1m","mf",TRUE)</f>
-        <v>42185</v>
+        <v>42216</v>
       </c>
       <c r="AP2" s="118" t="s">
         <v>71</v>
       </c>
       <c r="AQ2" s="117">
         <f>_xll.qlDayCounterYearFraction(DayCounter,AO2,_xll.qlCalendarAdvance(Calendar,AO2,"1D"))</f>
-        <v>2.7777777777777779E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="AS2" s="114">
         <f>_xll.qlCalendarAdvance(Calendar,AO2,"1m","mf",TRUE)</f>
-        <v>42216</v>
+        <v>42247</v>
       </c>
       <c r="AT2" s="118" t="s">
         <v>71</v>
       </c>
       <c r="AU2" s="117">
         <f>_xll.qlDayCounterYearFraction(DayCounter,AS2,_xll.qlCalendarAdvance(Calendar,AS2,"1D"))</f>
-        <v>8.3333333333333332E-3</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="AW2" s="114">
         <f>_xll.qlCalendarAdvance(Calendar,AS2,"1m","mf",TRUE)</f>
-        <v>42247</v>
+        <v>42277</v>
       </c>
       <c r="AX2" s="118" t="s">
         <v>71</v>
@@ -5424,25 +5415,25 @@
       </c>
       <c r="BA2" s="114">
         <f>_xll.qlCalendarAdvance(Calendar,AW2,"1m","mf",TRUE)</f>
-        <v>42277</v>
+        <v>42307</v>
       </c>
       <c r="BB2" s="118" t="s">
         <v>71</v>
       </c>
       <c r="BC2" s="117">
         <f>_xll.qlDayCounterYearFraction(DayCounter,BA2,_xll.qlCalendarAdvance(Calendar,BA2,"1D"))</f>
-        <v>2.7777777777777779E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="BE2" s="114">
         <f>_xll.qlCalendarAdvance(Calendar,BA2,"1m","mf",TRUE)</f>
-        <v>42307</v>
+        <v>42338</v>
       </c>
       <c r="BF2" s="118" t="s">
         <v>71</v>
       </c>
       <c r="BG2" s="117">
         <f>_xll.qlDayCounterYearFraction(DayCounter,BE2,_xll.qlCalendarAdvance(Calendar,BE2,"1D"))</f>
-        <v>8.3333333333333332E-3</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="BI2" s="114">
         <f>_xll.qlCalendarAdjust(Calendar,DATE(YEAR(SettlementDate)+1,12,31),"Preceding",Trigger)</f>
@@ -5489,7 +5480,7 @@
       <c r="L3" s="100"/>
       <c r="M3" s="116" t="str">
         <f>_xll.qlInterpolation(,FwdInterpolation,_xll.ohFilter($F5:$F129,M5:M129),_xll.ohFilter(J5:J129,M5:M129))</f>
-        <v>obj_0048f#0208</v>
+        <v>obj_00bef#0026</v>
       </c>
       <c r="N3" s="117" t="s">
         <v>70</v>
@@ -5500,7 +5491,7 @@
       <c r="P3" s="108"/>
       <c r="Q3" s="116" t="str">
         <f>_xll.qlInterpolation(,FwdInterpolation,_xll.ohFilter($F5:$F129,Q5:Q129),_xll.ohFilter(N5:N129,Q5:Q129))</f>
-        <v>obj_00490#0246</v>
+        <v>obj_00bf0#0025</v>
       </c>
       <c r="R3" s="117" t="s">
         <v>70</v>
@@ -5511,7 +5502,7 @@
       <c r="T3" s="109"/>
       <c r="U3" s="116" t="str">
         <f>_xll.qlInterpolation(,FwdInterpolation,_xll.ohFilter($F5:$F129,U5:U129),_xll.ohFilter(R5:R129,U5:U129))</f>
-        <v>obj_00491#0255</v>
+        <v>obj_00bf1#0025</v>
       </c>
       <c r="V3" s="117" t="s">
         <v>70</v>
@@ -5522,7 +5513,7 @@
       <c r="X3" s="109"/>
       <c r="Y3" s="116" t="str">
         <f>_xll.qlInterpolation(,FwdInterpolation,_xll.ohFilter($F5:$F129,Y5:Y129),_xll.ohFilter(V5:V129,Y5:Y129))</f>
-        <v>obj_00492#0273</v>
+        <v>obj_00bf2#0025</v>
       </c>
       <c r="Z3" s="117" t="s">
         <v>70</v>
@@ -5533,7 +5524,7 @@
       <c r="AB3" s="109"/>
       <c r="AC3" s="116" t="str">
         <f>_xll.qlInterpolation(,FwdInterpolation,_xll.ohFilter($F5:$F129,AC5:AC129),_xll.ohFilter(Z5:Z129,AC5:AC129))</f>
-        <v>obj_00493#0281</v>
+        <v>obj_00bf3#0025</v>
       </c>
       <c r="AD3" s="117" t="s">
         <v>70</v>
@@ -5544,7 +5535,7 @@
       <c r="AF3" s="109"/>
       <c r="AG3" s="116" t="str">
         <f>_xll.qlInterpolation(,FwdInterpolation,_xll.ohFilter($F5:$F129,AG5:AG129),_xll.ohFilter(AD5:AD129,AG5:AG129))</f>
-        <v>obj_00494#0293</v>
+        <v>obj_00bf4#0025</v>
       </c>
       <c r="AH3" s="117" t="s">
         <v>70</v>
@@ -5555,7 +5546,7 @@
       <c r="AJ3" s="109"/>
       <c r="AK3" s="116" t="str">
         <f>_xll.qlInterpolation(,FwdInterpolation,_xll.ohFilter($F5:$F129,AK5:AK129),_xll.ohFilter(AH5:AH129,AK5:AK129))</f>
-        <v>obj_00495#0299</v>
+        <v>obj_00bf5#0025</v>
       </c>
       <c r="AL3" s="117" t="s">
         <v>70</v>
@@ -5565,7 +5556,7 @@
       </c>
       <c r="AO3" s="116" t="str">
         <f>_xll.qlInterpolation(,FwdInterpolation,_xll.ohFilter($F5:$F129,AO5:AO129),_xll.ohFilter(AL5:AL129,AO5:AO129))</f>
-        <v>obj_00496#0304</v>
+        <v>obj_00bf6#0025</v>
       </c>
       <c r="AP3" s="117" t="s">
         <v>70</v>
@@ -5575,7 +5566,7 @@
       </c>
       <c r="AS3" s="116" t="str">
         <f>_xll.qlInterpolation(,FwdInterpolation,_xll.ohFilter($F5:$F129,AS5:AS129),_xll.ohFilter(AP5:AP129,AS5:AS129))</f>
-        <v>obj_00497#0306</v>
+        <v>obj_00bf7#0025</v>
       </c>
       <c r="AT3" s="117" t="s">
         <v>70</v>
@@ -5585,7 +5576,7 @@
       </c>
       <c r="AW3" s="116" t="str">
         <f>_xll.qlInterpolation(,FwdInterpolation,_xll.ohFilter($F5:$F129,AW5:AW129),_xll.ohFilter(AT5:AT129,AW5:AW129))</f>
-        <v>obj_00498#0307</v>
+        <v>obj_00bf8#0025</v>
       </c>
       <c r="AX3" s="117" t="s">
         <v>70</v>
@@ -5595,7 +5586,7 @@
       </c>
       <c r="BA3" s="116" t="str">
         <f>_xll.qlInterpolation(,FwdInterpolation,_xll.ohFilter($F5:$F129,BA5:BA129),_xll.ohFilter(AX5:AX129,BA5:BA129))</f>
-        <v>obj_00499#0314</v>
+        <v>obj_00bf9#0025</v>
       </c>
       <c r="BB3" s="117" t="s">
         <v>70</v>
@@ -5605,7 +5596,7 @@
       </c>
       <c r="BE3" s="116" t="str">
         <f>_xll.qlInterpolation(,FwdInterpolation,_xll.ohFilter($F5:$F129,BE5:BE129),_xll.ohFilter(BB5:BB129,BE5:BE129))</f>
-        <v>obj_0049a#0316</v>
+        <v>obj_00bfa#0025</v>
       </c>
       <c r="BF3" s="117" t="s">
         <v>70</v>
@@ -5615,7 +5606,7 @@
       </c>
       <c r="BI3" s="116" t="str">
         <f>_xll.qlInterpolation(,FwdInterpolation,_xll.ohFilter($F5:$F129,BI5:BI129),_xll.ohFilter(BF5:BF129,BI5:BI129))</f>
-        <v>obj_0049b#0319</v>
+        <v>obj_00bfb#0026</v>
       </c>
       <c r="BJ3" s="117" t="s">
         <v>70</v>
@@ -5630,7 +5621,7 @@
       <c r="C4" s="142"/>
       <c r="D4" s="31">
         <f>'General Settings'!C22</f>
-        <v>41968</v>
+        <v>41984</v>
       </c>
       <c r="F4" s="124"/>
       <c r="G4" s="125"/>
@@ -5639,11 +5630,11 @@
       </c>
       <c r="J4" s="137">
         <f t="array" ref="J4:J129">_xll.qlPiecewiseYieldCurveData(YieldCurve,InterestRatesTrigger)</f>
-        <v>3.4999880903822733E-4</v>
+        <v>-9.0000078749044983E-5</v>
       </c>
       <c r="K4" s="111">
         <f>D4</f>
-        <v>41968</v>
+        <v>41984</v>
       </c>
       <c r="M4" s="106" t="b">
         <v>1</v>
@@ -5651,7 +5642,7 @@
       <c r="N4" s="154"/>
       <c r="O4" s="115">
         <f>-LN(MAX(O5:O33))/O$2</f>
-        <v>1.1375990988732956E-3</v>
+        <v>3.1531523085782998E-3</v>
       </c>
       <c r="P4" s="108"/>
       <c r="Q4" s="106" t="b">
@@ -5660,7 +5651,7 @@
       <c r="R4" s="154"/>
       <c r="S4" s="115">
         <f>-LN(MAX(S5:S33))/S$2</f>
-        <v>0</v>
+        <v>1.065859843529491E-3</v>
       </c>
       <c r="T4" s="109"/>
       <c r="U4" s="106" t="b">
@@ -5669,7 +5660,7 @@
       <c r="V4" s="154"/>
       <c r="W4" s="115">
         <f>-LN(MAX(W5:W33))/W$2</f>
-        <v>1.0906508740006731E-3</v>
+        <v>3.258344101515548E-3</v>
       </c>
       <c r="X4" s="109"/>
       <c r="Y4" s="106" t="b">
@@ -5678,7 +5669,7 @@
       <c r="Z4" s="154"/>
       <c r="AA4" s="115">
         <f>-LN(MAX(AA5:AA33))/AA$2</f>
-        <v>1.6291887058586644E-3</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="109"/>
       <c r="AC4" s="106" t="b">
@@ -5687,7 +5678,7 @@
       <c r="AD4" s="154"/>
       <c r="AE4" s="115">
         <f>-LN(MAX(AE5:AE33))/AE$2</f>
-        <v>1.1146638707239791E-3</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="109"/>
       <c r="AG4" s="106" t="b">
@@ -5696,7 +5687,7 @@
       <c r="AH4" s="154"/>
       <c r="AI4" s="115">
         <f>-LN(MAX(AI5:AI33))/AI$2</f>
-        <v>1.9077083667550337E-4</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="109"/>
       <c r="AK4" s="106" t="b">
@@ -5705,7 +5696,7 @@
       <c r="AL4" s="154"/>
       <c r="AM4" s="115">
         <f>-LN(MAX(AM5:AM33))/AM$2</f>
-        <v>7.5584966730096216E-4</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="106" t="b">
         <v>1</v>
@@ -5737,7 +5728,7 @@
       <c r="BB4" s="154"/>
       <c r="BC4" s="115">
         <f>-LN(MAX(BC5:BC33))/BC$2</f>
-        <v>2.3894348150548523E-3</v>
+        <v>0</v>
       </c>
       <c r="BE4" s="106" t="b">
         <v>1</v>
@@ -5745,7 +5736,7 @@
       <c r="BF4" s="154"/>
       <c r="BG4" s="115">
         <f>-LN(MAX(BG5:BG33))/BG$2</f>
-        <v>9.9999583335951274E-4</v>
+        <v>1.5157131280107681E-3</v>
       </c>
       <c r="BI4" s="106" t="b">
         <v>1</v>
@@ -5753,7 +5744,7 @@
       <c r="BJ4" s="154"/>
       <c r="BK4" s="115">
         <f>-LN(MAX(BK5:BK33))/BK$2</f>
-        <v>4.9998611162511272E-3</v>
+        <v>2.5499829377568493E-3</v>
       </c>
     </row>
     <row r="5" spans="1:63" x14ac:dyDescent="0.2">
@@ -5763,19 +5754,19 @@
       </c>
       <c r="B5" s="27">
         <f>_xll.qlRateHelperRate($A5,InterestRatesTrigger)</f>
-        <v>3.4999999999999994E-4</v>
+        <v>-9.0000000000000073E-5</v>
       </c>
       <c r="C5" s="30">
         <f>_xll.qlRateHelperEarliestDate($A5)</f>
-        <v>41968</v>
+        <v>41984</v>
       </c>
       <c r="D5" s="31">
         <f>_xll.qlRateHelperLatestDate($A5)</f>
-        <v>41975</v>
+        <v>41991</v>
       </c>
       <c r="F5" s="120">
         <f t="shared" ref="F5:F30" si="0">IF(ISERROR(D5),NA(),(D5-D4)/2+D4)</f>
-        <v>41971.5</v>
+        <v>41987.5</v>
       </c>
       <c r="G5" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D4,D5)</f>
@@ -5784,27 +5775,27 @@
       <c r="H5" s="28"/>
       <c r="I5" s="138" t="b">
         <f>IF(ISERROR(K5),FALSE,IF(OR(MONTH(K5)-MONTH(K4)=1,YEAR(K5)-YEAR(K4)=1),FALSE,TRUE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="137">
-        <v>3.4999880903822733E-4</v>
+        <v>-9.0000078749044983E-5</v>
       </c>
       <c r="K5" s="111">
         <f>D5</f>
-        <v>41975</v>
+        <v>41991</v>
       </c>
       <c r="L5" s="100"/>
       <c r="M5" s="106" t="b">
         <f>IF(AND(NOT(I5),AND(I$4:I4)),TRUE,I5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M5),AND(M$4:M4))),($J5*$G5-LN(1+Jumpoverwrite1*O$2))/$G5,_xll.qlInterpolationInterpolate(M$3,$F5,TRUE))</f>
-        <v>-1.3754366190552641E-4</v>
-      </c>
-      <c r="O5" s="107">
+        <v>-9.0000078749044983E-5</v>
+      </c>
+      <c r="O5" s="107" t="str">
         <f>IF(AND(NOT(M5),AND(M$4:M4)),MIN(EXP((N5-$J5)*$G5),1),"")</f>
-        <v>0.99999052005244438</v>
+        <v/>
       </c>
       <c r="P5" s="108"/>
       <c r="Q5" s="106" t="b">
@@ -5813,7 +5804,7 @@
       </c>
       <c r="R5" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q5),AND(Q$4:Q4))),($J5*$G5-LN(1+Jumpoverwrite2*S$2))/$G5,_xll.qlInterpolationInterpolate(Q$3,$F5,TRUE))</f>
-        <v>-1.3754366190552641E-4</v>
+        <v>-9.0000078749044983E-5</v>
       </c>
       <c r="S5" s="107" t="str">
         <f>IF(AND(NOT(Q5),AND(Q$4:Q4)),MIN(EXP((R5-$J5)*$G5),1),"")</f>
@@ -5826,7 +5817,7 @@
       </c>
       <c r="V5" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U5),AND(U$4:U4))),($J5*$G5-LN(1+Jumpoverwrite3*W$2))/$G5,_xll.qlInterpolationInterpolate(U$3,$F5,TRUE))</f>
-        <v>-1.3754366190552641E-4</v>
+        <v>-9.0000078749044983E-5</v>
       </c>
       <c r="W5" s="107" t="str">
         <f>IF(AND(NOT(U5),AND(U$4:U4)),MIN(EXP((V5-$J5)*$G5),1),"")</f>
@@ -5839,7 +5830,7 @@
       </c>
       <c r="Z5" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y5),AND(Y$4:Y4))),($J5*$G5-LN(1+Jumpoverwrite4*AA$2))/$G5,_xll.qlInterpolationInterpolate(Y$3,$F5,TRUE))</f>
-        <v>-1.3754366190552641E-4</v>
+        <v>-9.0000078749044983E-5</v>
       </c>
       <c r="AA5" s="107" t="str">
         <f>IF(AND(NOT(Y5),AND(Y$4:Y4)),MIN(EXP((Z5-$J5)*$G5),1),"")</f>
@@ -5852,7 +5843,7 @@
       </c>
       <c r="AD5" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC5),AND(AC$4:AC4))),($J5*$G5-LN(1+Jumpoverwrite5*AE$2))/$G5,_xll.qlInterpolationInterpolate(AC$3,$F5,TRUE))</f>
-        <v>-1.3754366190552641E-4</v>
+        <v>-9.0000078749044983E-5</v>
       </c>
       <c r="AE5" s="107" t="str">
         <f>IF(AND(NOT(AC5),AND(AC$4:AC4)),MIN(EXP((AD5-$J5)*$G5),1),"")</f>
@@ -5865,7 +5856,7 @@
       </c>
       <c r="AH5" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG5),AND(AG$4:AG4))),($J5*$G5-LN(1+Jumpoverwrite6*AI$2))/$G5,_xll.qlInterpolationInterpolate(AG$3,$F5,TRUE))</f>
-        <v>-1.3754366190552641E-4</v>
+        <v>-9.0000078749044983E-5</v>
       </c>
       <c r="AI5" s="107" t="str">
         <f>IF(AND(NOT(AG5),AND(AG$4:AG4)),MIN(EXP((AH5-$J5)*$G5),1),"")</f>
@@ -5878,7 +5869,7 @@
       </c>
       <c r="AL5" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK5),AND(AK$4:AK4))),($J5*$G5-LN(1+Jumpoverwrite7*AM$2))/$G5,_xll.qlInterpolationInterpolate(AK$3,$F5,TRUE))</f>
-        <v>-1.3754366190552641E-4</v>
+        <v>-9.0000078749044983E-5</v>
       </c>
       <c r="AM5" s="107" t="str">
         <f>IF(AND(NOT(AK5),AND(AK$4:AK4)),MIN(EXP((AL5-$J5)*$G5),1),"")</f>
@@ -5890,7 +5881,7 @@
       </c>
       <c r="AP5" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO5),AND(AO$4:AO4))),($J5*$G5-LN(1+Jumpoverwrite8*AQ$2))/$G5,_xll.qlInterpolationInterpolate(AO$3,$F5,TRUE))</f>
-        <v>-1.3754366190552641E-4</v>
+        <v>-9.0000078749044983E-5</v>
       </c>
       <c r="AQ5" s="107" t="str">
         <f>IF(AND(NOT(AO5),AND(AO$4:AO4)),MIN(EXP((AP5-$J5)*$G5),1),"")</f>
@@ -5902,7 +5893,7 @@
       </c>
       <c r="AT5" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS5),AND(AS$4:AS4))),($J5*$G5-LN(1+Jumpoverwrite9*AU$2))/$G5,_xll.qlInterpolationInterpolate(AS$3,$F5,TRUE))</f>
-        <v>-1.3754366190552641E-4</v>
+        <v>-9.0000078749044983E-5</v>
       </c>
       <c r="AU5" s="107" t="str">
         <f>IF(AND(NOT(AS5),AND(AS$4:AS4)),MIN(EXP((AT5-$J5)*$G5),1),"")</f>
@@ -5914,7 +5905,7 @@
       </c>
       <c r="AX5" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW5),AND(AW$4:AW4))),($J5*$G5-LN(1+Jumpoverwrite10*AY$2))/$G5,_xll.qlInterpolationInterpolate(AW$3,$F5,TRUE))</f>
-        <v>-1.3754366190552641E-4</v>
+        <v>-9.0000078749044983E-5</v>
       </c>
       <c r="AY5" s="107" t="str">
         <f>IF(AND(NOT(AW5),AND(AW$4:AW4)),MIN(EXP((AX5-$J5)*$G5),1),"")</f>
@@ -5926,7 +5917,7 @@
       </c>
       <c r="BB5" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA5),AND(BA$4:BA4))),($J5*$G5-LN(1+Jumpoverwrite11*BC$2))/$G5,_xll.qlInterpolationInterpolate(BA$3,$F5,TRUE))</f>
-        <v>-1.3754366190552641E-4</v>
+        <v>-9.0000078749044983E-5</v>
       </c>
       <c r="BC5" s="107" t="str">
         <f>IF(AND(NOT(BA5),AND(BA$4:BA4)),MIN(EXP((BB5-$J5)*$G5),1),"")</f>
@@ -5938,7 +5929,7 @@
       </c>
       <c r="BF5" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE5),AND(BE$4:BE4))),($J5*$G5-LN(1+Jumpoverwrite12*BG$2))/$G5,_xll.qlInterpolationInterpolate(BE$3,$F5,TRUE))</f>
-        <v>-1.3754366190552641E-4</v>
+        <v>-9.0000078749044983E-5</v>
       </c>
       <c r="BG5" s="107" t="str">
         <f>IF(AND(NOT(BE5),AND(BE$4:BE4)),MIN(EXP((BF5-$J5)*$G5),1),"")</f>
@@ -5950,7 +5941,7 @@
       </c>
       <c r="BJ5" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI5),AND(BI$4:BI4))),($J5*$G5-LN(1+jumpoverwrite13*BK$2))/$G5,_xll.qlInterpolationInterpolate(BI$3,$F5,TRUE))</f>
-        <v>-1.3754366190552641E-4</v>
+        <v>-9.0000078749044983E-5</v>
       </c>
       <c r="BK5" s="107" t="str">
         <f>IF(AND(NOT(BI5),AND(BI$4:BI4)),MIN(EXP((BJ5-$J5)*$G5),1),"")</f>
@@ -5959,15 +5950,15 @@
     </row>
     <row r="6" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A6" s="94" t="str">
-        <v>WEUREON1M</v>
+        <v>WEUREON2W</v>
       </c>
       <c r="B6" s="27">
         <f>_xll.qlRateHelperRate($A6,InterestRatesTrigger)</f>
-        <v>-2.9999999999999974E-5</v>
+        <v>-2.5000000000000001E-4</v>
       </c>
       <c r="C6" s="30">
         <f>_xll.qlRateHelperEarliestDate($A6)</f>
-        <v>41968</v>
+        <v>41984</v>
       </c>
       <c r="D6" s="31">
         <f>_xll.qlRateHelperLatestDate($A6)</f>
@@ -5975,11 +5966,11 @@
       </c>
       <c r="F6" s="120">
         <f t="shared" si="0"/>
-        <v>41988.5</v>
+        <v>41996.5</v>
       </c>
       <c r="G6" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D5,D6)</f>
-        <v>7.4999999999999997E-2</v>
+        <v>3.0555555555555555E-2</v>
       </c>
       <c r="H6" s="28"/>
       <c r="I6" s="138" t="b">
@@ -5987,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="137">
-        <v>-1.2851826326967889E-4</v>
+        <v>-3.5182068854429041E-4</v>
       </c>
       <c r="K6" s="111">
         <f t="shared" ref="K6:K69" si="3">D6</f>
@@ -6000,7 +5991,7 @@
       </c>
       <c r="N6" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M6),AND(M$4:M5))),($J6*$G6-LN(1+Jumpoverwrite1*O$2))/$G6,_xll.qlInterpolationInterpolate(M$3,$F6,TRUE))</f>
-        <v>-1.2851826326967889E-4</v>
+        <v>-3.5182068854429041E-4</v>
       </c>
       <c r="O6" s="107" t="str">
         <f>IF(AND(NOT(M6),AND(M$4:M5)),MIN(EXP((N6-$J6)*$G6),1),"")</f>
@@ -6013,7 +6004,7 @@
       </c>
       <c r="R6" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q6),AND(Q$4:Q5))),($J6*$G6-LN(1+Jumpoverwrite2*S$2))/$G6,_xll.qlInterpolationInterpolate(Q$3,$F6,TRUE))</f>
-        <v>-1.2851826326967889E-4</v>
+        <v>-3.5182068854429041E-4</v>
       </c>
       <c r="S6" s="107" t="str">
         <f>IF(AND(NOT(Q6),AND(Q$4:Q5)),MIN(EXP((R6-$J6)*$G6),1),"")</f>
@@ -6026,7 +6017,7 @@
       </c>
       <c r="V6" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U6),AND(U$4:U5))),($J6*$G6-LN(1+Jumpoverwrite3*W$2))/$G6,_xll.qlInterpolationInterpolate(U$3,$F6,TRUE))</f>
-        <v>-1.2851826326967889E-4</v>
+        <v>-3.5182068854429041E-4</v>
       </c>
       <c r="W6" s="107" t="str">
         <f>IF(AND(NOT(U6),AND(U$4:U5)),MIN(EXP((V6-$J6)*$G6),1),"")</f>
@@ -6039,7 +6030,7 @@
       </c>
       <c r="Z6" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y6),AND(Y$4:Y5))),($J6*$G6-LN(1+Jumpoverwrite4*AA$2))/$G6,_xll.qlInterpolationInterpolate(Y$3,$F6,TRUE))</f>
-        <v>-1.2851826326967889E-4</v>
+        <v>-3.5182068854429041E-4</v>
       </c>
       <c r="AA6" s="107" t="str">
         <f>IF(AND(NOT(Y6),AND(Y$4:Y5)),MIN(EXP((Z6-$J6)*$G6),1),"")</f>
@@ -6052,7 +6043,7 @@
       </c>
       <c r="AD6" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC6),AND(AC$4:AC5))),($J6*$G6-LN(1+Jumpoverwrite5*AE$2))/$G6,_xll.qlInterpolationInterpolate(AC$3,$F6,TRUE))</f>
-        <v>-1.2851826326967889E-4</v>
+        <v>-3.5182068854429041E-4</v>
       </c>
       <c r="AE6" s="107" t="str">
         <f>IF(AND(NOT(AC6),AND(AC$4:AC5)),MIN(EXP((AD6-$J6)*$G6),1),"")</f>
@@ -6065,7 +6056,7 @@
       </c>
       <c r="AH6" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG6),AND(AG$4:AG5))),($J6*$G6-LN(1+Jumpoverwrite6*AI$2))/$G6,_xll.qlInterpolationInterpolate(AG$3,$F6,TRUE))</f>
-        <v>-1.2851826326967889E-4</v>
+        <v>-3.5182068854429041E-4</v>
       </c>
       <c r="AI6" s="107" t="str">
         <f>IF(AND(NOT(AG6),AND(AG$4:AG5)),MIN(EXP((AH6-$J6)*$G6),1),"")</f>
@@ -6078,7 +6069,7 @@
       </c>
       <c r="AL6" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK6),AND(AK$4:AK5))),($J6*$G6-LN(1+Jumpoverwrite7*AM$2))/$G6,_xll.qlInterpolationInterpolate(AK$3,$F6,TRUE))</f>
-        <v>-1.2851826326967889E-4</v>
+        <v>-3.5182068854429041E-4</v>
       </c>
       <c r="AM6" s="107" t="str">
         <f>IF(AND(NOT(AK6),AND(AK$4:AK5)),MIN(EXP((AL6-$J6)*$G6),1),"")</f>
@@ -6090,7 +6081,7 @@
       </c>
       <c r="AP6" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO6),AND(AO$4:AO5))),($J6*$G6-LN(1+Jumpoverwrite8*AQ$2))/$G6,_xll.qlInterpolationInterpolate(AO$3,$F6,TRUE))</f>
-        <v>-1.2851826326967889E-4</v>
+        <v>-3.5182068854429041E-4</v>
       </c>
       <c r="AQ6" s="107" t="str">
         <f>IF(AND(NOT(AO6),AND(AO$4:AO5)),MIN(EXP((AP6-$J6)*$G6),1),"")</f>
@@ -6102,7 +6093,7 @@
       </c>
       <c r="AT6" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS6),AND(AS$4:AS5))),($J6*$G6-LN(1+Jumpoverwrite9*AU$2))/$G6,_xll.qlInterpolationInterpolate(AS$3,$F6,TRUE))</f>
-        <v>-1.2851826326967889E-4</v>
+        <v>-3.5182068854429041E-4</v>
       </c>
       <c r="AU6" s="107" t="str">
         <f>IF(AND(NOT(AS6),AND(AS$4:AS5)),MIN(EXP((AT6-$J6)*$G6),1),"")</f>
@@ -6114,7 +6105,7 @@
       </c>
       <c r="AX6" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW6),AND(AW$4:AW5))),($J6*$G6-LN(1+Jumpoverwrite10*AY$2))/$G6,_xll.qlInterpolationInterpolate(AW$3,$F6,TRUE))</f>
-        <v>-1.2851826326967889E-4</v>
+        <v>-3.5182068854429041E-4</v>
       </c>
       <c r="AY6" s="107" t="str">
         <f>IF(AND(NOT(AW6),AND(AW$4:AW5)),MIN(EXP((AX6-$J6)*$G6),1),"")</f>
@@ -6126,7 +6117,7 @@
       </c>
       <c r="BB6" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA6),AND(BA$4:BA5))),($J6*$G6-LN(1+Jumpoverwrite11*BC$2))/$G6,_xll.qlInterpolationInterpolate(BA$3,$F6,TRUE))</f>
-        <v>-1.2851826326967889E-4</v>
+        <v>-3.5182068854429041E-4</v>
       </c>
       <c r="BC6" s="107" t="str">
         <f>IF(AND(NOT(BA6),AND(BA$4:BA5)),MIN(EXP((BB6-$J6)*$G6),1),"")</f>
@@ -6138,7 +6129,7 @@
       </c>
       <c r="BF6" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE6),AND(BE$4:BE5))),($J6*$G6-LN(1+Jumpoverwrite12*BG$2))/$G6,_xll.qlInterpolationInterpolate(BE$3,$F6,TRUE))</f>
-        <v>-1.2851826326967889E-4</v>
+        <v>-3.5182068854429041E-4</v>
       </c>
       <c r="BG6" s="107" t="str">
         <f>IF(AND(NOT(BE6),AND(BE$4:BE5)),MIN(EXP((BF6-$J6)*$G6),1),"")</f>
@@ -6150,7 +6141,7 @@
       </c>
       <c r="BJ6" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI6),AND(BI$4:BI5))),($J6*$G6-LN(1+jumpoverwrite13*BK$2))/$G6,_xll.qlInterpolationInterpolate(BI$3,$F6,TRUE))</f>
-        <v>-1.2851826326967889E-4</v>
+        <v>-3.5182068854429041E-4</v>
       </c>
       <c r="BK6" s="107" t="str">
         <f>IF(AND(NOT(BI6),AND(BI$4:BI5)),MIN(EXP((BJ6-$J6)*$G6),1),"")</f>
@@ -6159,38 +6150,38 @@
     </row>
     <row r="7" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A7" s="94" t="str">
-        <v>WEURECBOISDEC14</v>
+        <v>WEUREON3W</v>
       </c>
       <c r="B7" s="27">
         <f>_xll.qlRateHelperRate($A7,InterestRatesTrigger)</f>
-        <v>-1.9000000000000004E-4</v>
+        <v>2.0000000000000019E-5</v>
       </c>
       <c r="C7" s="30">
         <f>_xll.qlRateHelperEarliestDate($A7)</f>
-        <v>41983</v>
+        <v>41984</v>
       </c>
       <c r="D7" s="31">
         <f>_xll.qlRateHelperLatestDate($A7)</f>
-        <v>42032</v>
+        <v>42006</v>
       </c>
       <c r="F7" s="120">
         <f t="shared" si="0"/>
-        <v>42017</v>
+        <v>42004</v>
       </c>
       <c r="G7" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D6,D7)</f>
-        <v>8.3333333333333329E-2</v>
+        <v>1.1111111111111112E-2</v>
       </c>
       <c r="I7" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J7" s="137">
-        <v>-2.2894244611445722E-4</v>
+        <v>1.2350069640746E-3</v>
       </c>
       <c r="K7" s="111">
         <f t="shared" si="3"/>
-        <v>42032</v>
+        <v>42006</v>
       </c>
       <c r="L7" s="100"/>
       <c r="M7" s="106" t="b">
@@ -6199,24 +6190,24 @@
       </c>
       <c r="N7" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M7),AND(M$4:M6))),($J7*$G7-LN(1+Jumpoverwrite1*O$2))/$G7,_xll.qlInterpolationInterpolate(M$3,$F7,TRUE))</f>
-        <v>-1.1338744790958157E-4</v>
-      </c>
-      <c r="O7" s="107" t="str">
+        <v>-3.415691902159972E-4</v>
+      </c>
+      <c r="O7" s="107">
         <f>IF(AND(NOT(M7),AND(M$4:M6)),MIN(EXP((N7-$J7)*$G7),1),"")</f>
-        <v/>
+        <v>0.9999824826406053</v>
       </c>
       <c r="P7" s="85"/>
       <c r="Q7" s="106" t="b">
         <f>IF(AND(NOT(M7),AND(M$4:M6)),TRUE,M7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q7),AND(Q$4:Q6))),($J7*$G7-LN(1+Jumpoverwrite2*S$2))/$G7,_xll.qlInterpolationInterpolate(Q$3,$F7,TRUE))</f>
-        <v>-1.1338744790958157E-4</v>
-      </c>
-      <c r="S7" s="107">
+        <v>-3.415691902159972E-4</v>
+      </c>
+      <c r="S7" s="107" t="str">
         <f>IF(AND(NOT(Q7),AND(Q$4:Q6)),MIN(EXP((R7-$J7)*$G7),1),"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="T7" s="109"/>
       <c r="U7" s="106" t="b">
@@ -6225,7 +6216,7 @@
       </c>
       <c r="V7" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U7),AND(U$4:U6))),($J7*$G7-LN(1+Jumpoverwrite3*W$2))/$G7,_xll.qlInterpolationInterpolate(U$3,$F7,TRUE))</f>
-        <v>-1.1338744790958157E-4</v>
+        <v>-3.415691902159972E-4</v>
       </c>
       <c r="W7" s="107" t="str">
         <f>IF(AND(NOT(U7),AND(U$4:U6)),MIN(EXP((V7-$J7)*$G7),1),"")</f>
@@ -6238,7 +6229,7 @@
       </c>
       <c r="Z7" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y7),AND(Y$4:Y6))),($J7*$G7-LN(1+Jumpoverwrite4*AA$2))/$G7,_xll.qlInterpolationInterpolate(Y$3,$F7,TRUE))</f>
-        <v>-1.1338744790958157E-4</v>
+        <v>-3.415691902159972E-4</v>
       </c>
       <c r="AA7" s="107" t="str">
         <f>IF(AND(NOT(Y7),AND(Y$4:Y6)),MIN(EXP((Z7-$J7)*$G7),1),"")</f>
@@ -6251,7 +6242,7 @@
       </c>
       <c r="AD7" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC7),AND(AC$4:AC6))),($J7*$G7-LN(1+Jumpoverwrite5*AE$2))/$G7,_xll.qlInterpolationInterpolate(AC$3,$F7,TRUE))</f>
-        <v>-1.1338744790958157E-4</v>
+        <v>-3.415691902159972E-4</v>
       </c>
       <c r="AE7" s="107" t="str">
         <f>IF(AND(NOT(AC7),AND(AC$4:AC6)),MIN(EXP((AD7-$J7)*$G7),1),"")</f>
@@ -6264,7 +6255,7 @@
       </c>
       <c r="AH7" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG7),AND(AG$4:AG6))),($J7*$G7-LN(1+Jumpoverwrite6*AI$2))/$G7,_xll.qlInterpolationInterpolate(AG$3,$F7,TRUE))</f>
-        <v>-1.1338744790958157E-4</v>
+        <v>-3.415691902159972E-4</v>
       </c>
       <c r="AI7" s="107" t="str">
         <f>IF(AND(NOT(AG7),AND(AG$4:AG6)),MIN(EXP((AH7-$J7)*$G7),1),"")</f>
@@ -6277,7 +6268,7 @@
       </c>
       <c r="AL7" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK7),AND(AK$4:AK6))),($J7*$G7-LN(1+Jumpoverwrite7*AM$2))/$G7,_xll.qlInterpolationInterpolate(AK$3,$F7,TRUE))</f>
-        <v>-1.1338744790958157E-4</v>
+        <v>-3.415691902159972E-4</v>
       </c>
       <c r="AM7" s="107" t="str">
         <f>IF(AND(NOT(AK7),AND(AK$4:AK6)),MIN(EXP((AL7-$J7)*$G7),1),"")</f>
@@ -6289,7 +6280,7 @@
       </c>
       <c r="AP7" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO7),AND(AO$4:AO6))),($J7*$G7-LN(1+Jumpoverwrite8*AQ$2))/$G7,_xll.qlInterpolationInterpolate(AO$3,$F7,TRUE))</f>
-        <v>-1.1338744790958157E-4</v>
+        <v>-3.415691902159972E-4</v>
       </c>
       <c r="AQ7" s="107" t="str">
         <f>IF(AND(NOT(AO7),AND(AO$4:AO6)),MIN(EXP((AP7-$J7)*$G7),1),"")</f>
@@ -6301,7 +6292,7 @@
       </c>
       <c r="AT7" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS7),AND(AS$4:AS6))),($J7*$G7-LN(1+Jumpoverwrite9*AU$2))/$G7,_xll.qlInterpolationInterpolate(AS$3,$F7,TRUE))</f>
-        <v>-1.1338744790958157E-4</v>
+        <v>-3.415691902159972E-4</v>
       </c>
       <c r="AU7" s="107" t="str">
         <f>IF(AND(NOT(AS7),AND(AS$4:AS6)),MIN(EXP((AT7-$J7)*$G7),1),"")</f>
@@ -6313,7 +6304,7 @@
       </c>
       <c r="AX7" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW7),AND(AW$4:AW6))),($J7*$G7-LN(1+Jumpoverwrite10*AY$2))/$G7,_xll.qlInterpolationInterpolate(AW$3,$F7,TRUE))</f>
-        <v>-1.1338744790958157E-4</v>
+        <v>-3.415691902159972E-4</v>
       </c>
       <c r="AY7" s="107" t="str">
         <f>IF(AND(NOT(AW7),AND(AW$4:AW6)),MIN(EXP((AX7-$J7)*$G7),1),"")</f>
@@ -6325,7 +6316,7 @@
       </c>
       <c r="BB7" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA7),AND(BA$4:BA6))),($J7*$G7-LN(1+Jumpoverwrite11*BC$2))/$G7,_xll.qlInterpolationInterpolate(BA$3,$F7,TRUE))</f>
-        <v>-1.1338744790958157E-4</v>
+        <v>-3.415691902159972E-4</v>
       </c>
       <c r="BC7" s="107" t="str">
         <f>IF(AND(NOT(BA7),AND(BA$4:BA6)),MIN(EXP((BB7-$J7)*$G7),1),"")</f>
@@ -6337,7 +6328,7 @@
       </c>
       <c r="BF7" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE7),AND(BE$4:BE6))),($J7*$G7-LN(1+Jumpoverwrite12*BG$2))/$G7,_xll.qlInterpolationInterpolate(BE$3,$F7,TRUE))</f>
-        <v>-1.1338744790958157E-4</v>
+        <v>-3.415691902159972E-4</v>
       </c>
       <c r="BG7" s="107" t="str">
         <f>IF(AND(NOT(BE7),AND(BE$4:BE6)),MIN(EXP((BF7-$J7)*$G7),1),"")</f>
@@ -6349,7 +6340,7 @@
       </c>
       <c r="BJ7" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI7),AND(BI$4:BI6))),($J7*$G7-LN(1+jumpoverwrite13*BK$2))/$G7,_xll.qlInterpolationInterpolate(BI$3,$F7,TRUE))</f>
-        <v>-1.1338744790958157E-4</v>
+        <v>-3.415691902159972E-4</v>
       </c>
       <c r="BK7" s="107" t="str">
         <f>IF(AND(NOT(BI7),AND(BI$4:BI6)),MIN(EXP((BJ7-$J7)*$G7),1),"")</f>
@@ -6358,47 +6349,47 @@
     </row>
     <row r="8" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A8" s="94" t="str">
-        <v>WEUREON3M</v>
+        <v>WEUREON1M</v>
       </c>
       <c r="B8" s="27">
         <f>_xll.qlRateHelperRate($A8,InterestRatesTrigger)</f>
-        <v>-7.9999999999999979E-5</v>
+        <v>-8.9999999999999979E-5</v>
       </c>
       <c r="C8" s="30">
         <f>_xll.qlRateHelperEarliestDate($A8)</f>
-        <v>41968</v>
+        <v>41984</v>
       </c>
       <c r="D8" s="31">
         <f>_xll.qlRateHelperLatestDate($A8)</f>
-        <v>42060</v>
+        <v>42016</v>
       </c>
       <c r="F8" s="120">
         <f t="shared" si="0"/>
-        <v>42046</v>
+        <v>42011</v>
       </c>
       <c r="G8" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D7,D8)</f>
-        <v>7.7777777777777779E-2</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="I8" s="138" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="137">
-        <v>1.886427113780424E-5</v>
+        <v>-3.3200112510959018E-4</v>
       </c>
       <c r="K8" s="111">
         <f t="shared" si="3"/>
-        <v>42060</v>
+        <v>42016</v>
       </c>
       <c r="L8" s="100"/>
       <c r="M8" s="106" t="b">
         <f>IF(AND(NOT(I8),AND(I$4:I7)),TRUE,I8)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M8),AND(M$4:M7))),($J8*$G8-LN(1+Jumpoverwrite1*O$2))/$G8,_xll.qlInterpolationInterpolate(M$3,$F8,TRUE))</f>
-        <v>-9.7991179648429885E-5</v>
+        <v>-3.3200112510959018E-4</v>
       </c>
       <c r="O8" s="107" t="str">
         <f>IF(AND(NOT(M8),AND(M$4:M7)),MIN(EXP((N8-$J8)*$G8),1),"")</f>
@@ -6407,11 +6398,11 @@
       <c r="P8" s="109"/>
       <c r="Q8" s="106" t="b">
         <f>IF(AND(NOT(M8),AND(M$4:M7)),TRUE,M8)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q8),AND(Q$4:Q7))),($J8*$G8-LN(1+Jumpoverwrite2*S$2))/$G8,_xll.qlInterpolationInterpolate(Q$3,$F8,TRUE))</f>
-        <v>-9.7991179648429885E-5</v>
+        <v>-3.3200112510959018E-4</v>
       </c>
       <c r="S8" s="107" t="str">
         <f>IF(AND(NOT(Q8),AND(Q$4:Q7)),MIN(EXP((R8-$J8)*$G8),1),"")</f>
@@ -6420,15 +6411,15 @@
       <c r="T8" s="109"/>
       <c r="U8" s="106" t="b">
         <f>IF(AND(NOT(Q8),AND(Q$4:Q7)),TRUE,Q8)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U8),AND(U$4:U7))),($J8*$G8-LN(1+Jumpoverwrite3*W$2))/$G8,_xll.qlInterpolationInterpolate(U$3,$F8,TRUE))</f>
-        <v>-9.7991179648429898E-5</v>
-      </c>
-      <c r="W8" s="107">
+        <v>-3.3200112510959018E-4</v>
+      </c>
+      <c r="W8" s="107" t="str">
         <f>IF(AND(NOT(U8),AND(U$4:U7)),MIN(EXP((V8-$J8)*$G8),1),"")</f>
-        <v>0.99999091128401929</v>
+        <v/>
       </c>
       <c r="X8" s="109"/>
       <c r="Y8" s="106" t="b">
@@ -6437,7 +6428,7 @@
       </c>
       <c r="Z8" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y8),AND(Y$4:Y7))),($J8*$G8-LN(1+Jumpoverwrite4*AA$2))/$G8,_xll.qlInterpolationInterpolate(Y$3,$F8,TRUE))</f>
-        <v>-9.7991179648429898E-5</v>
+        <v>-3.3200112510959018E-4</v>
       </c>
       <c r="AA8" s="107" t="str">
         <f>IF(AND(NOT(Y8),AND(Y$4:Y7)),MIN(EXP((Z8-$J8)*$G8),1),"")</f>
@@ -6450,7 +6441,7 @@
       </c>
       <c r="AD8" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC8),AND(AC$4:AC7))),($J8*$G8-LN(1+Jumpoverwrite5*AE$2))/$G8,_xll.qlInterpolationInterpolate(AC$3,$F8,TRUE))</f>
-        <v>-9.7991179648429898E-5</v>
+        <v>-3.3200112510959018E-4</v>
       </c>
       <c r="AE8" s="107" t="str">
         <f>IF(AND(NOT(AC8),AND(AC$4:AC7)),MIN(EXP((AD8-$J8)*$G8),1),"")</f>
@@ -6463,7 +6454,7 @@
       </c>
       <c r="AH8" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG8),AND(AG$4:AG7))),($J8*$G8-LN(1+Jumpoverwrite6*AI$2))/$G8,_xll.qlInterpolationInterpolate(AG$3,$F8,TRUE))</f>
-        <v>-9.7991179648429898E-5</v>
+        <v>-3.3200112510959018E-4</v>
       </c>
       <c r="AI8" s="107" t="str">
         <f>IF(AND(NOT(AG8),AND(AG$4:AG7)),MIN(EXP((AH8-$J8)*$G8),1),"")</f>
@@ -6476,7 +6467,7 @@
       </c>
       <c r="AL8" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK8),AND(AK$4:AK7))),($J8*$G8-LN(1+Jumpoverwrite7*AM$2))/$G8,_xll.qlInterpolationInterpolate(AK$3,$F8,TRUE))</f>
-        <v>-9.7991179648429898E-5</v>
+        <v>-3.3200112510959018E-4</v>
       </c>
       <c r="AM8" s="107" t="str">
         <f>IF(AND(NOT(AK8),AND(AK$4:AK7)),MIN(EXP((AL8-$J8)*$G8),1),"")</f>
@@ -6488,7 +6479,7 @@
       </c>
       <c r="AP8" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO8),AND(AO$4:AO7))),($J8*$G8-LN(1+Jumpoverwrite8*AQ$2))/$G8,_xll.qlInterpolationInterpolate(AO$3,$F8,TRUE))</f>
-        <v>-9.7991179648429898E-5</v>
+        <v>-3.3200112510959018E-4</v>
       </c>
       <c r="AQ8" s="107" t="str">
         <f>IF(AND(NOT(AO8),AND(AO$4:AO7)),MIN(EXP((AP8-$J8)*$G8),1),"")</f>
@@ -6500,7 +6491,7 @@
       </c>
       <c r="AT8" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS8),AND(AS$4:AS7))),($J8*$G8-LN(1+Jumpoverwrite9*AU$2))/$G8,_xll.qlInterpolationInterpolate(AS$3,$F8,TRUE))</f>
-        <v>-9.7991179648429898E-5</v>
+        <v>-3.3200112510959018E-4</v>
       </c>
       <c r="AU8" s="107" t="str">
         <f>IF(AND(NOT(AS8),AND(AS$4:AS7)),MIN(EXP((AT8-$J8)*$G8),1),"")</f>
@@ -6512,7 +6503,7 @@
       </c>
       <c r="AX8" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW8),AND(AW$4:AW7))),($J8*$G8-LN(1+Jumpoverwrite10*AY$2))/$G8,_xll.qlInterpolationInterpolate(AW$3,$F8,TRUE))</f>
-        <v>-9.7991179648429898E-5</v>
+        <v>-3.3200112510959018E-4</v>
       </c>
       <c r="AY8" s="107" t="str">
         <f>IF(AND(NOT(AW8),AND(AW$4:AW7)),MIN(EXP((AX8-$J8)*$G8),1),"")</f>
@@ -6524,7 +6515,7 @@
       </c>
       <c r="BB8" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA8),AND(BA$4:BA7))),($J8*$G8-LN(1+Jumpoverwrite11*BC$2))/$G8,_xll.qlInterpolationInterpolate(BA$3,$F8,TRUE))</f>
-        <v>-9.7991179648429898E-5</v>
+        <v>-3.3200112510959018E-4</v>
       </c>
       <c r="BC8" s="107" t="str">
         <f>IF(AND(NOT(BA8),AND(BA$4:BA7)),MIN(EXP((BB8-$J8)*$G8),1),"")</f>
@@ -6536,7 +6527,7 @@
       </c>
       <c r="BF8" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE8),AND(BE$4:BE7))),($J8*$G8-LN(1+Jumpoverwrite12*BG$2))/$G8,_xll.qlInterpolationInterpolate(BE$3,$F8,TRUE))</f>
-        <v>-9.7991179648429898E-5</v>
+        <v>-3.3200112510959018E-4</v>
       </c>
       <c r="BG8" s="107" t="str">
         <f>IF(AND(NOT(BE8),AND(BE$4:BE7)),MIN(EXP((BF8-$J8)*$G8),1),"")</f>
@@ -6548,7 +6539,7 @@
       </c>
       <c r="BJ8" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI8),AND(BI$4:BI7))),($J8*$G8-LN(1+jumpoverwrite13*BK$2))/$G8,_xll.qlInterpolationInterpolate(BI$3,$F8,TRUE))</f>
-        <v>-9.7991179648429898E-5</v>
+        <v>-3.3200112510959018E-4</v>
       </c>
       <c r="BK8" s="107" t="str">
         <f>IF(AND(NOT(BI8),AND(BI$4:BI7)),MIN(EXP((BJ8-$J8)*$G8),1),"")</f>
@@ -6557,38 +6548,38 @@
     </row>
     <row r="9" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A9" s="94" t="str">
-        <v>WEURECBOISJAN15</v>
+        <v>WEUREON2M</v>
       </c>
       <c r="B9" s="27">
         <f>_xll.qlRateHelperRate($A9,InterestRatesTrigger)</f>
-        <v>9.9999999999999991E-5</v>
+        <v>-1.2999999999999999E-4</v>
       </c>
       <c r="C9" s="30">
         <f>_xll.qlRateHelperEarliestDate($A9)</f>
-        <v>42032</v>
+        <v>41984</v>
       </c>
       <c r="D9" s="31">
         <f>_xll.qlRateHelperLatestDate($A9)</f>
-        <v>42074</v>
+        <v>42046</v>
       </c>
       <c r="F9" s="120">
         <f t="shared" si="0"/>
-        <v>42067</v>
+        <v>42031</v>
       </c>
       <c r="G9" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D8,D9)</f>
-        <v>3.888888888888889E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="I9" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J9" s="137">
-        <v>2.6226970773815978E-4</v>
+        <v>-1.7266929028359151E-4</v>
       </c>
       <c r="K9" s="111">
         <f t="shared" si="3"/>
-        <v>42074</v>
+        <v>42046</v>
       </c>
       <c r="L9" s="100"/>
       <c r="M9" s="106" t="b">
@@ -6597,7 +6588,7 @@
       </c>
       <c r="N9" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M9),AND(M$4:M8))),($J9*$G9-LN(1+Jumpoverwrite1*O$2))/$G9,_xll.qlInterpolationInterpolate(M$3,$F9,TRUE))</f>
-        <v>-8.6842157804147658E-5</v>
+        <v>-2.7925527463658524E-4</v>
       </c>
       <c r="O9" s="107" t="str">
         <f>IF(AND(NOT(M9),AND(M$4:M8)),MIN(EXP((N9-$J9)*$G9),1),"")</f>
@@ -6610,20 +6601,20 @@
       </c>
       <c r="R9" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q9),AND(Q$4:Q8))),($J9*$G9-LN(1+Jumpoverwrite2*S$2))/$G9,_xll.qlInterpolationInterpolate(Q$3,$F9,TRUE))</f>
-        <v>-8.6842157804147658E-5</v>
-      </c>
-      <c r="S9" s="107" t="str">
+        <v>-2.7925527463658524E-4</v>
+      </c>
+      <c r="S9" s="107">
         <f>IF(AND(NOT(Q9),AND(Q$4:Q8)),MIN(EXP((R9-$J9)*$G9),1),"")</f>
-        <v/>
+        <v>0.99999111787408357</v>
       </c>
       <c r="T9" s="109"/>
       <c r="U9" s="106" t="b">
         <f>IF(AND(NOT(Q9),AND(Q$4:Q8)),TRUE,Q9)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U9),AND(U$4:U8))),($J9*$G9-LN(1+Jumpoverwrite3*W$2))/$G9,_xll.qlInterpolationInterpolate(U$3,$F9,TRUE))</f>
-        <v>-8.6842157804147658E-5</v>
+        <v>-2.7925527463658524E-4</v>
       </c>
       <c r="W9" s="107" t="str">
         <f>IF(AND(NOT(U9),AND(U$4:U8)),MIN(EXP((V9-$J9)*$G9),1),"")</f>
@@ -6632,15 +6623,15 @@
       <c r="X9" s="109"/>
       <c r="Y9" s="106" t="b">
         <f>IF(AND(NOT(U9),AND(U$4:U8)),TRUE,U9)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y9),AND(Y$4:Y8))),($J9*$G9-LN(1+Jumpoverwrite4*AA$2))/$G9,_xll.qlInterpolationInterpolate(Y$3,$F9,TRUE))</f>
-        <v>-8.6842157804147658E-5</v>
-      </c>
-      <c r="AA9" s="107">
+        <v>-2.7925527463658524E-4</v>
+      </c>
+      <c r="AA9" s="107" t="str">
         <f>IF(AND(NOT(Y9),AND(Y$4:Y8)),MIN(EXP((Z9-$J9)*$G9),1),"")</f>
-        <v>0.99998642351961242</v>
+        <v/>
       </c>
       <c r="AB9" s="109"/>
       <c r="AC9" s="106" t="b">
@@ -6649,7 +6640,7 @@
       </c>
       <c r="AD9" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC9),AND(AC$4:AC8))),($J9*$G9-LN(1+Jumpoverwrite5*AE$2))/$G9,_xll.qlInterpolationInterpolate(AC$3,$F9,TRUE))</f>
-        <v>-8.6842157804147658E-5</v>
+        <v>-2.7925527463658524E-4</v>
       </c>
       <c r="AE9" s="107" t="str">
         <f>IF(AND(NOT(AC9),AND(AC$4:AC8)),MIN(EXP((AD9-$J9)*$G9),1),"")</f>
@@ -6662,7 +6653,7 @@
       </c>
       <c r="AH9" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG9),AND(AG$4:AG8))),($J9*$G9-LN(1+Jumpoverwrite6*AI$2))/$G9,_xll.qlInterpolationInterpolate(AG$3,$F9,TRUE))</f>
-        <v>-8.6842157804147658E-5</v>
+        <v>-2.7925527463658524E-4</v>
       </c>
       <c r="AI9" s="107" t="str">
         <f>IF(AND(NOT(AG9),AND(AG$4:AG8)),MIN(EXP((AH9-$J9)*$G9),1),"")</f>
@@ -6675,7 +6666,7 @@
       </c>
       <c r="AL9" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK9),AND(AK$4:AK8))),($J9*$G9-LN(1+Jumpoverwrite7*AM$2))/$G9,_xll.qlInterpolationInterpolate(AK$3,$F9,TRUE))</f>
-        <v>-8.6842157804147658E-5</v>
+        <v>-2.7925527463658524E-4</v>
       </c>
       <c r="AM9" s="107" t="str">
         <f>IF(AND(NOT(AK9),AND(AK$4:AK8)),MIN(EXP((AL9-$J9)*$G9),1),"")</f>
@@ -6687,7 +6678,7 @@
       </c>
       <c r="AP9" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO9),AND(AO$4:AO8))),($J9*$G9-LN(1+Jumpoverwrite8*AQ$2))/$G9,_xll.qlInterpolationInterpolate(AO$3,$F9,TRUE))</f>
-        <v>-8.6842157804147658E-5</v>
+        <v>-2.7925527463658524E-4</v>
       </c>
       <c r="AQ9" s="107" t="str">
         <f>IF(AND(NOT(AO9),AND(AO$4:AO8)),MIN(EXP((AP9-$J9)*$G9),1),"")</f>
@@ -6699,7 +6690,7 @@
       </c>
       <c r="AT9" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS9),AND(AS$4:AS8))),($J9*$G9-LN(1+Jumpoverwrite9*AU$2))/$G9,_xll.qlInterpolationInterpolate(AS$3,$F9,TRUE))</f>
-        <v>-8.6842157804147658E-5</v>
+        <v>-2.7925527463658524E-4</v>
       </c>
       <c r="AU9" s="107" t="str">
         <f>IF(AND(NOT(AS9),AND(AS$4:AS8)),MIN(EXP((AT9-$J9)*$G9),1),"")</f>
@@ -6711,7 +6702,7 @@
       </c>
       <c r="AX9" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW9),AND(AW$4:AW8))),($J9*$G9-LN(1+Jumpoverwrite10*AY$2))/$G9,_xll.qlInterpolationInterpolate(AW$3,$F9,TRUE))</f>
-        <v>-8.6842157804147658E-5</v>
+        <v>-2.7925527463658524E-4</v>
       </c>
       <c r="AY9" s="107" t="str">
         <f>IF(AND(NOT(AW9),AND(AW$4:AW8)),MIN(EXP((AX9-$J9)*$G9),1),"")</f>
@@ -6723,7 +6714,7 @@
       </c>
       <c r="BB9" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA9),AND(BA$4:BA8))),($J9*$G9-LN(1+Jumpoverwrite11*BC$2))/$G9,_xll.qlInterpolationInterpolate(BA$3,$F9,TRUE))</f>
-        <v>-8.6842157804147658E-5</v>
+        <v>-2.7925527463658524E-4</v>
       </c>
       <c r="BC9" s="107" t="str">
         <f>IF(AND(NOT(BA9),AND(BA$4:BA8)),MIN(EXP((BB9-$J9)*$G9),1),"")</f>
@@ -6735,7 +6726,7 @@
       </c>
       <c r="BF9" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE9),AND(BE$4:BE8))),($J9*$G9-LN(1+Jumpoverwrite12*BG$2))/$G9,_xll.qlInterpolationInterpolate(BE$3,$F9,TRUE))</f>
-        <v>-8.6842157804147658E-5</v>
+        <v>-2.7925527463658524E-4</v>
       </c>
       <c r="BG9" s="107" t="str">
         <f>IF(AND(NOT(BE9),AND(BE$4:BE8)),MIN(EXP((BF9-$J9)*$G9),1),"")</f>
@@ -6747,7 +6738,7 @@
       </c>
       <c r="BJ9" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI9),AND(BI$4:BI8))),($J9*$G9-LN(1+jumpoverwrite13*BK$2))/$G9,_xll.qlInterpolationInterpolate(BI$3,$F9,TRUE))</f>
-        <v>-8.6842157804147658E-5</v>
+        <v>-2.7925527463658524E-4</v>
       </c>
       <c r="BK9" s="107" t="str">
         <f>IF(AND(NOT(BI9),AND(BI$4:BI8)),MIN(EXP((BJ9-$J9)*$G9),1),"")</f>
@@ -6756,47 +6747,47 @@
     </row>
     <row r="10" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A10" s="94" t="str">
-        <v>WEUREON4M</v>
+        <v>WEURECBOISJAN15</v>
       </c>
       <c r="B10" s="27">
         <f>_xll.qlRateHelperRate($A10,InterestRatesTrigger)</f>
-        <v>-3.9999999999999983E-5</v>
+        <v>3.9999999999999983E-5</v>
       </c>
       <c r="C10" s="30">
         <f>_xll.qlRateHelperEarliestDate($A10)</f>
-        <v>41968</v>
+        <v>42032</v>
       </c>
       <c r="D10" s="31">
         <f>_xll.qlRateHelperLatestDate($A10)</f>
-        <v>42088</v>
+        <v>42074</v>
       </c>
       <c r="F10" s="120">
         <f t="shared" si="0"/>
-        <v>42081</v>
+        <v>42060</v>
       </c>
       <c r="G10" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D9,D10)</f>
-        <v>3.888888888888889E-2</v>
+        <v>7.7777777777777779E-2</v>
       </c>
       <c r="I10" s="138" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="137">
-        <v>-7.9409476574626156E-5</v>
+        <v>1.4633450514053853E-4</v>
       </c>
       <c r="K10" s="111">
         <f t="shared" si="3"/>
-        <v>42088</v>
+        <v>42074</v>
       </c>
       <c r="L10" s="100"/>
       <c r="M10" s="106" t="b">
         <f>IF(AND(NOT(I10),AND(I$4:I9)),TRUE,I10)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M10),AND(M$4:M9))),($J10*$G10-LN(1+Jumpoverwrite1*O$2))/$G10,_xll.qlInterpolationInterpolate(M$3,$F10,TRUE))</f>
-        <v>-7.9409476574626156E-5</v>
+        <v>-2.0277379145072804E-4</v>
       </c>
       <c r="O10" s="107" t="str">
         <f>IF(AND(NOT(M10),AND(M$4:M9)),MIN(EXP((N10-$J10)*$G10),1),"")</f>
@@ -6805,11 +6796,11 @@
       <c r="P10" s="109"/>
       <c r="Q10" s="106" t="b">
         <f>IF(AND(NOT(M10),AND(M$4:M9)),TRUE,M10)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q10),AND(Q$4:Q9))),($J10*$G10-LN(1+Jumpoverwrite2*S$2))/$G10,_xll.qlInterpolationInterpolate(Q$3,$F10,TRUE))</f>
-        <v>-7.9409476574626156E-5</v>
+        <v>-2.0277379145072804E-4</v>
       </c>
       <c r="S10" s="107" t="str">
         <f>IF(AND(NOT(Q10),AND(Q$4:Q9)),MIN(EXP((R10-$J10)*$G10),1),"")</f>
@@ -6818,15 +6809,15 @@
       <c r="T10" s="109"/>
       <c r="U10" s="106" t="b">
         <f>IF(AND(NOT(Q10),AND(Q$4:Q9)),TRUE,Q10)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U10),AND(U$4:U9))),($J10*$G10-LN(1+Jumpoverwrite3*W$2))/$G10,_xll.qlInterpolationInterpolate(U$3,$F10,TRUE))</f>
-        <v>-7.9409476574626156E-5</v>
-      </c>
-      <c r="W10" s="107" t="str">
+        <v>-2.0277379145072807E-4</v>
+      </c>
+      <c r="W10" s="107">
         <f>IF(AND(NOT(U10),AND(U$4:U9)),MIN(EXP((V10-$J10)*$G10),1),"")</f>
-        <v/>
+        <v>0.99997284750112314</v>
       </c>
       <c r="X10" s="109"/>
       <c r="Y10" s="106" t="b">
@@ -6835,7 +6826,7 @@
       </c>
       <c r="Z10" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y10),AND(Y$4:Y9))),($J10*$G10-LN(1+Jumpoverwrite4*AA$2))/$G10,_xll.qlInterpolationInterpolate(Y$3,$F10,TRUE))</f>
-        <v>-7.9409476574626156E-5</v>
+        <v>-2.0277379145072807E-4</v>
       </c>
       <c r="AA10" s="107" t="str">
         <f>IF(AND(NOT(Y10),AND(Y$4:Y9)),MIN(EXP((Z10-$J10)*$G10),1),"")</f>
@@ -6848,7 +6839,7 @@
       </c>
       <c r="AD10" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC10),AND(AC$4:AC9))),($J10*$G10-LN(1+Jumpoverwrite5*AE$2))/$G10,_xll.qlInterpolationInterpolate(AC$3,$F10,TRUE))</f>
-        <v>-7.9409476574626156E-5</v>
+        <v>-2.0277379145072807E-4</v>
       </c>
       <c r="AE10" s="107" t="str">
         <f>IF(AND(NOT(AC10),AND(AC$4:AC9)),MIN(EXP((AD10-$J10)*$G10),1),"")</f>
@@ -6861,7 +6852,7 @@
       </c>
       <c r="AH10" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG10),AND(AG$4:AG9))),($J10*$G10-LN(1+Jumpoverwrite6*AI$2))/$G10,_xll.qlInterpolationInterpolate(AG$3,$F10,TRUE))</f>
-        <v>-7.9409476574626156E-5</v>
+        <v>-2.0277379145072807E-4</v>
       </c>
       <c r="AI10" s="107" t="str">
         <f>IF(AND(NOT(AG10),AND(AG$4:AG9)),MIN(EXP((AH10-$J10)*$G10),1),"")</f>
@@ -6874,7 +6865,7 @@
       </c>
       <c r="AL10" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK10),AND(AK$4:AK9))),($J10*$G10-LN(1+Jumpoverwrite7*AM$2))/$G10,_xll.qlInterpolationInterpolate(AK$3,$F10,TRUE))</f>
-        <v>-7.9409476574626156E-5</v>
+        <v>-2.0277379145072807E-4</v>
       </c>
       <c r="AM10" s="107" t="str">
         <f>IF(AND(NOT(AK10),AND(AK$4:AK9)),MIN(EXP((AL10-$J10)*$G10),1),"")</f>
@@ -6886,7 +6877,7 @@
       </c>
       <c r="AP10" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO10),AND(AO$4:AO9))),($J10*$G10-LN(1+Jumpoverwrite8*AQ$2))/$G10,_xll.qlInterpolationInterpolate(AO$3,$F10,TRUE))</f>
-        <v>-7.9409476574626156E-5</v>
+        <v>-2.0277379145072807E-4</v>
       </c>
       <c r="AQ10" s="107" t="str">
         <f>IF(AND(NOT(AO10),AND(AO$4:AO9)),MIN(EXP((AP10-$J10)*$G10),1),"")</f>
@@ -6898,7 +6889,7 @@
       </c>
       <c r="AT10" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS10),AND(AS$4:AS9))),($J10*$G10-LN(1+Jumpoverwrite9*AU$2))/$G10,_xll.qlInterpolationInterpolate(AS$3,$F10,TRUE))</f>
-        <v>-7.9409476574626156E-5</v>
+        <v>-2.0277379145072807E-4</v>
       </c>
       <c r="AU10" s="107" t="str">
         <f>IF(AND(NOT(AS10),AND(AS$4:AS9)),MIN(EXP((AT10-$J10)*$G10),1),"")</f>
@@ -6910,7 +6901,7 @@
       </c>
       <c r="AX10" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW10),AND(AW$4:AW9))),($J10*$G10-LN(1+Jumpoverwrite10*AY$2))/$G10,_xll.qlInterpolationInterpolate(AW$3,$F10,TRUE))</f>
-        <v>-7.9409476574626156E-5</v>
+        <v>-2.0277379145072807E-4</v>
       </c>
       <c r="AY10" s="107" t="str">
         <f>IF(AND(NOT(AW10),AND(AW$4:AW9)),MIN(EXP((AX10-$J10)*$G10),1),"")</f>
@@ -6922,7 +6913,7 @@
       </c>
       <c r="BB10" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA10),AND(BA$4:BA9))),($J10*$G10-LN(1+Jumpoverwrite11*BC$2))/$G10,_xll.qlInterpolationInterpolate(BA$3,$F10,TRUE))</f>
-        <v>-7.9409476574626156E-5</v>
+        <v>-2.0277379145072807E-4</v>
       </c>
       <c r="BC10" s="107" t="str">
         <f>IF(AND(NOT(BA10),AND(BA$4:BA9)),MIN(EXP((BB10-$J10)*$G10),1),"")</f>
@@ -6934,7 +6925,7 @@
       </c>
       <c r="BF10" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE10),AND(BE$4:BE9))),($J10*$G10-LN(1+Jumpoverwrite12*BG$2))/$G10,_xll.qlInterpolationInterpolate(BE$3,$F10,TRUE))</f>
-        <v>-7.9409476574626156E-5</v>
+        <v>-2.0277379145072807E-4</v>
       </c>
       <c r="BG10" s="107" t="str">
         <f>IF(AND(NOT(BE10),AND(BE$4:BE9)),MIN(EXP((BF10-$J10)*$G10),1),"")</f>
@@ -6946,7 +6937,7 @@
       </c>
       <c r="BJ10" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI10),AND(BI$4:BI9))),($J10*$G10-LN(1+jumpoverwrite13*BK$2))/$G10,_xll.qlInterpolationInterpolate(BI$3,$F10,TRUE))</f>
-        <v>-7.9409476574626156E-5</v>
+        <v>-2.0277379145072807E-4</v>
       </c>
       <c r="BK10" s="107" t="str">
         <f>IF(AND(NOT(BI10),AND(BI$4:BI9)),MIN(EXP((BJ10-$J10)*$G10),1),"")</f>
@@ -6955,38 +6946,38 @@
     </row>
     <row r="11" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A11" s="94" t="str">
-        <v>WEURECBOISMAR15</v>
+        <v>WEUREON4M</v>
       </c>
       <c r="B11" s="27">
         <f>_xll.qlRateHelperRate($A11,InterestRatesTrigger)</f>
-        <v>-1.5999999999999996E-4</v>
+        <v>-1.3999999999999999E-4</v>
       </c>
       <c r="C11" s="30">
         <f>_xll.qlRateHelperEarliestDate($A11)</f>
-        <v>42074</v>
+        <v>41984</v>
       </c>
       <c r="D11" s="31">
         <f>_xll.qlRateHelperLatestDate($A11)</f>
-        <v>42116</v>
+        <v>42107</v>
       </c>
       <c r="F11" s="120">
         <f t="shared" si="0"/>
-        <v>42102</v>
+        <v>42090.5</v>
       </c>
       <c r="G11" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D10,D11)</f>
-        <v>7.7777777777777779E-2</v>
+        <v>9.166666666666666E-2</v>
       </c>
       <c r="I11" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J11" s="137">
-        <v>-2.0029750173916809E-4</v>
+        <v>-4.0174811434920963E-4</v>
       </c>
       <c r="K11" s="111">
         <f t="shared" si="3"/>
-        <v>42116</v>
+        <v>42107</v>
       </c>
       <c r="L11" s="100"/>
       <c r="M11" s="106" t="b">
@@ -6995,7 +6986,7 @@
       </c>
       <c r="N11" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M11),AND(M$4:M10))),($J11*$G11-LN(1+Jumpoverwrite1*O$2))/$G11,_xll.qlInterpolationInterpolate(M$3,$F11,TRUE))</f>
-        <v>-2.401069256934925E-4</v>
+        <v>-1.223363694793955E-4</v>
       </c>
       <c r="O11" s="107" t="str">
         <f>IF(AND(NOT(M11),AND(M$4:M10)),MIN(EXP((N11-$J11)*$G11),1),"")</f>
@@ -7008,7 +6999,7 @@
       </c>
       <c r="R11" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q11),AND(Q$4:Q10))),($J11*$G11-LN(1+Jumpoverwrite2*S$2))/$G11,_xll.qlInterpolationInterpolate(Q$3,$F11,TRUE))</f>
-        <v>-2.401069256934925E-4</v>
+        <v>-1.223363694793955E-4</v>
       </c>
       <c r="S11" s="107" t="str">
         <f>IF(AND(NOT(Q11),AND(Q$4:Q10)),MIN(EXP((R11-$J11)*$G11),1),"")</f>
@@ -7021,7 +7012,7 @@
       </c>
       <c r="V11" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U11),AND(U$4:U10))),($J11*$G11-LN(1+Jumpoverwrite3*W$2))/$G11,_xll.qlInterpolationInterpolate(U$3,$F11,TRUE))</f>
-        <v>-2.401069256934925E-4</v>
+        <v>-1.223363694793955E-4</v>
       </c>
       <c r="W11" s="107" t="str">
         <f>IF(AND(NOT(U11),AND(U$4:U10)),MIN(EXP((V11-$J11)*$G11),1),"")</f>
@@ -7034,24 +7025,24 @@
       </c>
       <c r="Z11" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y11),AND(Y$4:Y10))),($J11*$G11-LN(1+Jumpoverwrite4*AA$2))/$G11,_xll.qlInterpolationInterpolate(Y$3,$F11,TRUE))</f>
-        <v>-2.401069256934925E-4</v>
-      </c>
-      <c r="AA11" s="107" t="str">
+        <v>-1.223363694793955E-4</v>
+      </c>
+      <c r="AA11" s="107">
         <f>IF(AND(NOT(Y11),AND(Y$4:Y10)),MIN(EXP((Z11-$J11)*$G11),1),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AB11" s="109"/>
       <c r="AC11" s="106" t="b">
         <f>IF(AND(NOT(Y11),AND(Y$4:Y10)),TRUE,Y11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD11" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC11),AND(AC$4:AC10))),($J11*$G11-LN(1+Jumpoverwrite5*AE$2))/$G11,_xll.qlInterpolationInterpolate(AC$3,$F11,TRUE))</f>
-        <v>-2.401069256934925E-4</v>
-      </c>
-      <c r="AE11" s="107">
+        <v>-1.223363694793955E-4</v>
+      </c>
+      <c r="AE11" s="107" t="str">
         <f>IF(AND(NOT(AC11),AND(AC$4:AC10)),MIN(EXP((AD11-$J11)*$G11),1),"")</f>
-        <v>0.99999690371626371</v>
+        <v/>
       </c>
       <c r="AF11" s="109"/>
       <c r="AG11" s="106" t="b">
@@ -7060,7 +7051,7 @@
       </c>
       <c r="AH11" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG11),AND(AG$4:AG10))),($J11*$G11-LN(1+Jumpoverwrite6*AI$2))/$G11,_xll.qlInterpolationInterpolate(AG$3,$F11,TRUE))</f>
-        <v>-2.401069256934925E-4</v>
+        <v>-1.223363694793955E-4</v>
       </c>
       <c r="AI11" s="107" t="str">
         <f>IF(AND(NOT(AG11),AND(AG$4:AG10)),MIN(EXP((AH11-$J11)*$G11),1),"")</f>
@@ -7073,7 +7064,7 @@
       </c>
       <c r="AL11" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK11),AND(AK$4:AK10))),($J11*$G11-LN(1+Jumpoverwrite7*AM$2))/$G11,_xll.qlInterpolationInterpolate(AK$3,$F11,TRUE))</f>
-        <v>-2.401069256934925E-4</v>
+        <v>-1.223363694793955E-4</v>
       </c>
       <c r="AM11" s="107" t="str">
         <f>IF(AND(NOT(AK11),AND(AK$4:AK10)),MIN(EXP((AL11-$J11)*$G11),1),"")</f>
@@ -7085,7 +7076,7 @@
       </c>
       <c r="AP11" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO11),AND(AO$4:AO10))),($J11*$G11-LN(1+Jumpoverwrite8*AQ$2))/$G11,_xll.qlInterpolationInterpolate(AO$3,$F11,TRUE))</f>
-        <v>-2.401069256934925E-4</v>
+        <v>-1.223363694793955E-4</v>
       </c>
       <c r="AQ11" s="107" t="str">
         <f>IF(AND(NOT(AO11),AND(AO$4:AO10)),MIN(EXP((AP11-$J11)*$G11),1),"")</f>
@@ -7097,7 +7088,7 @@
       </c>
       <c r="AT11" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS11),AND(AS$4:AS10))),($J11*$G11-LN(1+Jumpoverwrite9*AU$2))/$G11,_xll.qlInterpolationInterpolate(AS$3,$F11,TRUE))</f>
-        <v>-2.401069256934925E-4</v>
+        <v>-1.223363694793955E-4</v>
       </c>
       <c r="AU11" s="107" t="str">
         <f>IF(AND(NOT(AS11),AND(AS$4:AS10)),MIN(EXP((AT11-$J11)*$G11),1),"")</f>
@@ -7109,7 +7100,7 @@
       </c>
       <c r="AX11" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW11),AND(AW$4:AW10))),($J11*$G11-LN(1+Jumpoverwrite10*AY$2))/$G11,_xll.qlInterpolationInterpolate(AW$3,$F11,TRUE))</f>
-        <v>-2.401069256934925E-4</v>
+        <v>-1.223363694793955E-4</v>
       </c>
       <c r="AY11" s="107" t="str">
         <f>IF(AND(NOT(AW11),AND(AW$4:AW10)),MIN(EXP((AX11-$J11)*$G11),1),"")</f>
@@ -7121,7 +7112,7 @@
       </c>
       <c r="BB11" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA11),AND(BA$4:BA10))),($J11*$G11-LN(1+Jumpoverwrite11*BC$2))/$G11,_xll.qlInterpolationInterpolate(BA$3,$F11,TRUE))</f>
-        <v>-2.401069256934925E-4</v>
+        <v>-1.223363694793955E-4</v>
       </c>
       <c r="BC11" s="107" t="str">
         <f>IF(AND(NOT(BA11),AND(BA$4:BA10)),MIN(EXP((BB11-$J11)*$G11),1),"")</f>
@@ -7133,7 +7124,7 @@
       </c>
       <c r="BF11" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE11),AND(BE$4:BE10))),($J11*$G11-LN(1+Jumpoverwrite12*BG$2))/$G11,_xll.qlInterpolationInterpolate(BE$3,$F11,TRUE))</f>
-        <v>-2.401069256934925E-4</v>
+        <v>-1.223363694793955E-4</v>
       </c>
       <c r="BG11" s="107" t="str">
         <f>IF(AND(NOT(BE11),AND(BE$4:BE10)),MIN(EXP((BF11-$J11)*$G11),1),"")</f>
@@ -7145,7 +7136,7 @@
       </c>
       <c r="BJ11" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI11),AND(BI$4:BI10))),($J11*$G11-LN(1+jumpoverwrite13*BK$2))/$G11,_xll.qlInterpolationInterpolate(BI$3,$F11,TRUE))</f>
-        <v>-2.401069256934925E-4</v>
+        <v>-1.223363694793955E-4</v>
       </c>
       <c r="BK11" s="107" t="str">
         <f>IF(AND(NOT(BI11),AND(BI$4:BI10)),MIN(EXP((BJ11-$J11)*$G11),1),"")</f>
@@ -7154,38 +7145,38 @@
     </row>
     <row r="12" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A12" s="94" t="str">
-        <v>WEUREON5M</v>
+        <v>WEURECBOISMAR15</v>
       </c>
       <c r="B12" s="27">
         <f>_xll.qlRateHelperRate($A12,InterestRatesTrigger)</f>
-        <v>-7.9999999999999979E-5</v>
+        <v>-3.3E-4</v>
       </c>
       <c r="C12" s="30">
         <f>_xll.qlRateHelperEarliestDate($A12)</f>
-        <v>41968</v>
+        <v>42074</v>
       </c>
       <c r="D12" s="31">
         <f>_xll.qlRateHelperLatestDate($A12)</f>
-        <v>42121</v>
+        <v>42116</v>
       </c>
       <c r="F12" s="120">
         <f t="shared" si="0"/>
-        <v>42118.5</v>
+        <v>42111.5</v>
       </c>
       <c r="G12" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D11,D12)</f>
-        <v>1.3888888888888888E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="I12" s="138" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J12" s="137">
-        <v>-3.6636920714403035E-4</v>
+        <v>-6.6953226482740285E-5</v>
       </c>
       <c r="K12" s="111">
         <f t="shared" si="3"/>
-        <v>42121</v>
+        <v>42116</v>
       </c>
       <c r="L12" s="100"/>
       <c r="M12" s="106" t="b">
@@ -7194,7 +7185,7 @@
       </c>
       <c r="N12" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M12),AND(M$4:M11))),($J12*$G12-LN(1+Jumpoverwrite1*O$2))/$G12,_xll.qlInterpolationInterpolate(M$3,$F12,TRUE))</f>
-        <v>-3.6636920714403035E-4</v>
+        <v>-6.6953226482740285E-5</v>
       </c>
       <c r="O12" s="107" t="str">
         <f>IF(AND(NOT(M12),AND(M$4:M11)),MIN(EXP((N12-$J12)*$G12),1),"")</f>
@@ -7207,7 +7198,7 @@
       </c>
       <c r="R12" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q12),AND(Q$4:Q11))),($J12*$G12-LN(1+Jumpoverwrite2*S$2))/$G12,_xll.qlInterpolationInterpolate(Q$3,$F12,TRUE))</f>
-        <v>-3.6636920714403035E-4</v>
+        <v>-6.6953226482740285E-5</v>
       </c>
       <c r="S12" s="107" t="str">
         <f>IF(AND(NOT(Q12),AND(Q$4:Q11)),MIN(EXP((R12-$J12)*$G12),1),"")</f>
@@ -7220,7 +7211,7 @@
       </c>
       <c r="V12" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U12),AND(U$4:U11))),($J12*$G12-LN(1+Jumpoverwrite3*W$2))/$G12,_xll.qlInterpolationInterpolate(U$3,$F12,TRUE))</f>
-        <v>-3.6636920714403035E-4</v>
+        <v>-6.6953226482740285E-5</v>
       </c>
       <c r="W12" s="107" t="str">
         <f>IF(AND(NOT(U12),AND(U$4:U11)),MIN(EXP((V12-$J12)*$G12),1),"")</f>
@@ -7233,7 +7224,7 @@
       </c>
       <c r="Z12" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y12),AND(Y$4:Y11))),($J12*$G12-LN(1+Jumpoverwrite4*AA$2))/$G12,_xll.qlInterpolationInterpolate(Y$3,$F12,TRUE))</f>
-        <v>-3.6636920714403035E-4</v>
+        <v>-6.6953226482740285E-5</v>
       </c>
       <c r="AA12" s="107" t="str">
         <f>IF(AND(NOT(Y12),AND(Y$4:Y11)),MIN(EXP((Z12-$J12)*$G12),1),"")</f>
@@ -7246,7 +7237,7 @@
       </c>
       <c r="AD12" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC12),AND(AC$4:AC11))),($J12*$G12-LN(1+Jumpoverwrite5*AE$2))/$G12,_xll.qlInterpolationInterpolate(AC$3,$F12,TRUE))</f>
-        <v>-3.6636920714403035E-4</v>
+        <v>-6.6953226482740285E-5</v>
       </c>
       <c r="AE12" s="107" t="str">
         <f>IF(AND(NOT(AC12),AND(AC$4:AC11)),MIN(EXP((AD12-$J12)*$G12),1),"")</f>
@@ -7259,7 +7250,7 @@
       </c>
       <c r="AH12" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG12),AND(AG$4:AG11))),($J12*$G12-LN(1+Jumpoverwrite6*AI$2))/$G12,_xll.qlInterpolationInterpolate(AG$3,$F12,TRUE))</f>
-        <v>-3.6636920714403035E-4</v>
+        <v>-6.6953226482740285E-5</v>
       </c>
       <c r="AI12" s="107" t="str">
         <f>IF(AND(NOT(AG12),AND(AG$4:AG11)),MIN(EXP((AH12-$J12)*$G12),1),"")</f>
@@ -7272,7 +7263,7 @@
       </c>
       <c r="AL12" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK12),AND(AK$4:AK11))),($J12*$G12-LN(1+Jumpoverwrite7*AM$2))/$G12,_xll.qlInterpolationInterpolate(AK$3,$F12,TRUE))</f>
-        <v>-3.6636920714403035E-4</v>
+        <v>-6.6953226482740285E-5</v>
       </c>
       <c r="AM12" s="107" t="str">
         <f>IF(AND(NOT(AK12),AND(AK$4:AK11)),MIN(EXP((AL12-$J12)*$G12),1),"")</f>
@@ -7284,7 +7275,7 @@
       </c>
       <c r="AP12" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO12),AND(AO$4:AO11))),($J12*$G12-LN(1+Jumpoverwrite8*AQ$2))/$G12,_xll.qlInterpolationInterpolate(AO$3,$F12,TRUE))</f>
-        <v>-3.6636920714403035E-4</v>
+        <v>-6.6953226482740285E-5</v>
       </c>
       <c r="AQ12" s="107" t="str">
         <f>IF(AND(NOT(AO12),AND(AO$4:AO11)),MIN(EXP((AP12-$J12)*$G12),1),"")</f>
@@ -7296,7 +7287,7 @@
       </c>
       <c r="AT12" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS12),AND(AS$4:AS11))),($J12*$G12-LN(1+Jumpoverwrite9*AU$2))/$G12,_xll.qlInterpolationInterpolate(AS$3,$F12,TRUE))</f>
-        <v>-3.6636920714403035E-4</v>
+        <v>-6.6953226482740285E-5</v>
       </c>
       <c r="AU12" s="107" t="str">
         <f>IF(AND(NOT(AS12),AND(AS$4:AS11)),MIN(EXP((AT12-$J12)*$G12),1),"")</f>
@@ -7308,7 +7299,7 @@
       </c>
       <c r="AX12" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW12),AND(AW$4:AW11))),($J12*$G12-LN(1+Jumpoverwrite10*AY$2))/$G12,_xll.qlInterpolationInterpolate(AW$3,$F12,TRUE))</f>
-        <v>-3.6636920714403035E-4</v>
+        <v>-6.6953226482740285E-5</v>
       </c>
       <c r="AY12" s="107" t="str">
         <f>IF(AND(NOT(AW12),AND(AW$4:AW11)),MIN(EXP((AX12-$J12)*$G12),1),"")</f>
@@ -7320,7 +7311,7 @@
       </c>
       <c r="BB12" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA12),AND(BA$4:BA11))),($J12*$G12-LN(1+Jumpoverwrite11*BC$2))/$G12,_xll.qlInterpolationInterpolate(BA$3,$F12,TRUE))</f>
-        <v>-3.6636920714403035E-4</v>
+        <v>-6.6953226482740285E-5</v>
       </c>
       <c r="BC12" s="107" t="str">
         <f>IF(AND(NOT(BA12),AND(BA$4:BA11)),MIN(EXP((BB12-$J12)*$G12),1),"")</f>
@@ -7332,7 +7323,7 @@
       </c>
       <c r="BF12" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE12),AND(BE$4:BE11))),($J12*$G12-LN(1+Jumpoverwrite12*BG$2))/$G12,_xll.qlInterpolationInterpolate(BE$3,$F12,TRUE))</f>
-        <v>-3.6636920714403035E-4</v>
+        <v>-6.6953226482740285E-5</v>
       </c>
       <c r="BG12" s="107" t="str">
         <f>IF(AND(NOT(BE12),AND(BE$4:BE11)),MIN(EXP((BF12-$J12)*$G12),1),"")</f>
@@ -7344,7 +7335,7 @@
       </c>
       <c r="BJ12" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI12),AND(BI$4:BI11))),($J12*$G12-LN(1+jumpoverwrite13*BK$2))/$G12,_xll.qlInterpolationInterpolate(BI$3,$F12,TRUE))</f>
-        <v>-3.6636920714403035E-4</v>
+        <v>-6.6953226482740285E-5</v>
       </c>
       <c r="BK12" s="107" t="str">
         <f>IF(AND(NOT(BI12),AND(BI$4:BI11)),MIN(EXP((BJ12-$J12)*$G12),1),"")</f>
@@ -7353,38 +7344,38 @@
     </row>
     <row r="13" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A13" s="94" t="str">
-        <v>WEUREON6M</v>
+        <v>WEUREON5M</v>
       </c>
       <c r="B13" s="27">
         <f>_xll.qlRateHelperRate($A13,InterestRatesTrigger)</f>
-        <v>-1.2999999999999999E-4</v>
+        <v>-1.9000000000000004E-4</v>
       </c>
       <c r="C13" s="30">
         <f>_xll.qlRateHelperEarliestDate($A13)</f>
-        <v>41968</v>
+        <v>41984</v>
       </c>
       <c r="D13" s="31">
         <f>_xll.qlRateHelperLatestDate($A13)</f>
-        <v>42149</v>
+        <v>42135</v>
       </c>
       <c r="F13" s="120">
         <f t="shared" si="0"/>
-        <v>42135</v>
+        <v>42125.5</v>
       </c>
       <c r="G13" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D12,D13)</f>
-        <v>7.7777777777777779E-2</v>
+        <v>5.2777777777777778E-2</v>
       </c>
       <c r="I13" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J13" s="137">
-        <v>-4.0323431865265253E-4</v>
+        <v>-5.7200802005880199E-4</v>
       </c>
       <c r="K13" s="111">
         <f t="shared" si="3"/>
-        <v>42149</v>
+        <v>42135</v>
       </c>
       <c r="L13" s="100"/>
       <c r="M13" s="106" t="b">
@@ -7393,7 +7384,7 @@
       </c>
       <c r="N13" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M13),AND(M$4:M12))),($J13*$G13-LN(1+Jumpoverwrite1*O$2))/$G13,_xll.qlInterpolationInterpolate(M$3,$F13,TRUE))</f>
-        <v>-4.304872953212932E-4</v>
+        <v>-7.629093132636831E-5</v>
       </c>
       <c r="O13" s="107" t="str">
         <f>IF(AND(NOT(M13),AND(M$4:M12)),MIN(EXP((N13-$J13)*$G13),1),"")</f>
@@ -7406,7 +7397,7 @@
       </c>
       <c r="R13" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q13),AND(Q$4:Q12))),($J13*$G13-LN(1+Jumpoverwrite2*S$2))/$G13,_xll.qlInterpolationInterpolate(Q$3,$F13,TRUE))</f>
-        <v>-4.304872953212932E-4</v>
+        <v>-7.629093132636831E-5</v>
       </c>
       <c r="S13" s="107" t="str">
         <f>IF(AND(NOT(Q13),AND(Q$4:Q12)),MIN(EXP((R13-$J13)*$G13),1),"")</f>
@@ -7419,7 +7410,7 @@
       </c>
       <c r="V13" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U13),AND(U$4:U12))),($J13*$G13-LN(1+Jumpoverwrite3*W$2))/$G13,_xll.qlInterpolationInterpolate(U$3,$F13,TRUE))</f>
-        <v>-4.304872953212932E-4</v>
+        <v>-7.629093132636831E-5</v>
       </c>
       <c r="W13" s="107" t="str">
         <f>IF(AND(NOT(U13),AND(U$4:U12)),MIN(EXP((V13-$J13)*$G13),1),"")</f>
@@ -7432,7 +7423,7 @@
       </c>
       <c r="Z13" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y13),AND(Y$4:Y12))),($J13*$G13-LN(1+Jumpoverwrite4*AA$2))/$G13,_xll.qlInterpolationInterpolate(Y$3,$F13,TRUE))</f>
-        <v>-4.304872953212932E-4</v>
+        <v>-7.629093132636831E-5</v>
       </c>
       <c r="AA13" s="107" t="str">
         <f>IF(AND(NOT(Y13),AND(Y$4:Y12)),MIN(EXP((Z13-$J13)*$G13),1),"")</f>
@@ -7445,24 +7436,24 @@
       </c>
       <c r="AD13" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC13),AND(AC$4:AC12))),($J13*$G13-LN(1+Jumpoverwrite5*AE$2))/$G13,_xll.qlInterpolationInterpolate(AC$3,$F13,TRUE))</f>
-        <v>-4.304872953212932E-4</v>
-      </c>
-      <c r="AE13" s="107" t="str">
+        <v>-7.629093132636831E-5</v>
+      </c>
+      <c r="AE13" s="107">
         <f>IF(AND(NOT(AC13),AND(AC$4:AC12)),MIN(EXP((AD13-$J13)*$G13),1),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AF13" s="109"/>
       <c r="AG13" s="106" t="b">
         <f>IF(AND(NOT(AC13),AND(AC$4:AC12)),TRUE,AC13)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH13" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG13),AND(AG$4:AG12))),($J13*$G13-LN(1+Jumpoverwrite6*AI$2))/$G13,_xll.qlInterpolationInterpolate(AG$3,$F13,TRUE))</f>
-        <v>-4.304872953212932E-4</v>
-      </c>
-      <c r="AI13" s="107">
+        <v>-7.629093132636831E-5</v>
+      </c>
+      <c r="AI13" s="107" t="str">
         <f>IF(AND(NOT(AG13),AND(AG$4:AG12)),MIN(EXP((AH13-$J13)*$G13),1),"")</f>
-        <v>0.99999788032628345</v>
+        <v/>
       </c>
       <c r="AJ13" s="109"/>
       <c r="AK13" s="106" t="b">
@@ -7471,7 +7462,7 @@
       </c>
       <c r="AL13" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK13),AND(AK$4:AK12))),($J13*$G13-LN(1+Jumpoverwrite7*AM$2))/$G13,_xll.qlInterpolationInterpolate(AK$3,$F13,TRUE))</f>
-        <v>-4.304872953212932E-4</v>
+        <v>-7.629093132636831E-5</v>
       </c>
       <c r="AM13" s="107" t="str">
         <f>IF(AND(NOT(AK13),AND(AK$4:AK12)),MIN(EXP((AL13-$J13)*$G13),1),"")</f>
@@ -7483,7 +7474,7 @@
       </c>
       <c r="AP13" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO13),AND(AO$4:AO12))),($J13*$G13-LN(1+Jumpoverwrite8*AQ$2))/$G13,_xll.qlInterpolationInterpolate(AO$3,$F13,TRUE))</f>
-        <v>-4.304872953212932E-4</v>
+        <v>-7.629093132636831E-5</v>
       </c>
       <c r="AQ13" s="107" t="str">
         <f>IF(AND(NOT(AO13),AND(AO$4:AO12)),MIN(EXP((AP13-$J13)*$G13),1),"")</f>
@@ -7495,7 +7486,7 @@
       </c>
       <c r="AT13" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS13),AND(AS$4:AS12))),($J13*$G13-LN(1+Jumpoverwrite9*AU$2))/$G13,_xll.qlInterpolationInterpolate(AS$3,$F13,TRUE))</f>
-        <v>-4.304872953212932E-4</v>
+        <v>-7.629093132636831E-5</v>
       </c>
       <c r="AU13" s="107" t="str">
         <f>IF(AND(NOT(AS13),AND(AS$4:AS12)),MIN(EXP((AT13-$J13)*$G13),1),"")</f>
@@ -7507,7 +7498,7 @@
       </c>
       <c r="AX13" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW13),AND(AW$4:AW12))),($J13*$G13-LN(1+Jumpoverwrite10*AY$2))/$G13,_xll.qlInterpolationInterpolate(AW$3,$F13,TRUE))</f>
-        <v>-4.304872953212932E-4</v>
+        <v>-7.629093132636831E-5</v>
       </c>
       <c r="AY13" s="107" t="str">
         <f>IF(AND(NOT(AW13),AND(AW$4:AW12)),MIN(EXP((AX13-$J13)*$G13),1),"")</f>
@@ -7519,7 +7510,7 @@
       </c>
       <c r="BB13" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA13),AND(BA$4:BA12))),($J13*$G13-LN(1+Jumpoverwrite11*BC$2))/$G13,_xll.qlInterpolationInterpolate(BA$3,$F13,TRUE))</f>
-        <v>-4.304872953212932E-4</v>
+        <v>-7.629093132636831E-5</v>
       </c>
       <c r="BC13" s="107" t="str">
         <f>IF(AND(NOT(BA13),AND(BA$4:BA12)),MIN(EXP((BB13-$J13)*$G13),1),"")</f>
@@ -7531,7 +7522,7 @@
       </c>
       <c r="BF13" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE13),AND(BE$4:BE12))),($J13*$G13-LN(1+Jumpoverwrite12*BG$2))/$G13,_xll.qlInterpolationInterpolate(BE$3,$F13,TRUE))</f>
-        <v>-4.304872953212932E-4</v>
+        <v>-7.629093132636831E-5</v>
       </c>
       <c r="BG13" s="107" t="str">
         <f>IF(AND(NOT(BE13),AND(BE$4:BE12)),MIN(EXP((BF13-$J13)*$G13),1),"")</f>
@@ -7543,7 +7534,7 @@
       </c>
       <c r="BJ13" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI13),AND(BI$4:BI12))),($J13*$G13-LN(1+jumpoverwrite13*BK$2))/$G13,_xll.qlInterpolationInterpolate(BI$3,$F13,TRUE))</f>
-        <v>-4.304872953212932E-4</v>
+        <v>-7.629093132636831E-5</v>
       </c>
       <c r="BK13" s="107" t="str">
         <f>IF(AND(NOT(BI13),AND(BI$4:BI12)),MIN(EXP((BJ13-$J13)*$G13),1),"")</f>
@@ -7556,7 +7547,7 @@
       </c>
       <c r="B14" s="27">
         <f>_xll.qlRateHelperRate($A14,InterestRatesTrigger)</f>
-        <v>-3.8999999999999999E-4</v>
+        <v>-4.8999999999999998E-4</v>
       </c>
       <c r="C14" s="30">
         <f>_xll.qlRateHelperEarliestDate($A14)</f>
@@ -7568,18 +7559,18 @@
       </c>
       <c r="F14" s="120">
         <f t="shared" si="0"/>
-        <v>42157</v>
+        <v>42150</v>
       </c>
       <c r="G14" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D13,D14)</f>
-        <v>4.4444444444444446E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="I14" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J14" s="137">
-        <v>-3.7425626693834242E-4</v>
+        <v>-4.3808827737791696E-4</v>
       </c>
       <c r="K14" s="111">
         <f t="shared" si="3"/>
@@ -7592,7 +7583,7 @@
       </c>
       <c r="N14" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M14),AND(M$4:M13))),($J14*$G14-LN(1+Jumpoverwrite1*O$2))/$G14,_xll.qlInterpolationInterpolate(M$3,$F14,TRUE))</f>
-        <v>-5.1597807955764373E-4</v>
+        <v>-9.2631914802717371E-5</v>
       </c>
       <c r="O14" s="107" t="str">
         <f>IF(AND(NOT(M14),AND(M$4:M13)),MIN(EXP((N14-$J14)*$G14),1),"")</f>
@@ -7605,7 +7596,7 @@
       </c>
       <c r="R14" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q14),AND(Q$4:Q13))),($J14*$G14-LN(1+Jumpoverwrite2*S$2))/$G14,_xll.qlInterpolationInterpolate(Q$3,$F14,TRUE))</f>
-        <v>-5.1597807955764373E-4</v>
+        <v>-9.2631914802717371E-5</v>
       </c>
       <c r="S14" s="107" t="str">
         <f>IF(AND(NOT(Q14),AND(Q$4:Q13)),MIN(EXP((R14-$J14)*$G14),1),"")</f>
@@ -7618,7 +7609,7 @@
       </c>
       <c r="V14" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U14),AND(U$4:U13))),($J14*$G14-LN(1+Jumpoverwrite3*W$2))/$G14,_xll.qlInterpolationInterpolate(U$3,$F14,TRUE))</f>
-        <v>-5.1597807955764373E-4</v>
+        <v>-9.2631914802717371E-5</v>
       </c>
       <c r="W14" s="107" t="str">
         <f>IF(AND(NOT(U14),AND(U$4:U13)),MIN(EXP((V14-$J14)*$G14),1),"")</f>
@@ -7631,7 +7622,7 @@
       </c>
       <c r="Z14" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y14),AND(Y$4:Y13))),($J14*$G14-LN(1+Jumpoverwrite4*AA$2))/$G14,_xll.qlInterpolationInterpolate(Y$3,$F14,TRUE))</f>
-        <v>-5.1597807955764373E-4</v>
+        <v>-9.2631914802717371E-5</v>
       </c>
       <c r="AA14" s="107" t="str">
         <f>IF(AND(NOT(Y14),AND(Y$4:Y13)),MIN(EXP((Z14-$J14)*$G14),1),"")</f>
@@ -7644,7 +7635,7 @@
       </c>
       <c r="AD14" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC14),AND(AC$4:AC13))),($J14*$G14-LN(1+Jumpoverwrite5*AE$2))/$G14,_xll.qlInterpolationInterpolate(AC$3,$F14,TRUE))</f>
-        <v>-5.1597807955764373E-4</v>
+        <v>-9.2631914802717371E-5</v>
       </c>
       <c r="AE14" s="107" t="str">
         <f>IF(AND(NOT(AC14),AND(AC$4:AC13)),MIN(EXP((AD14-$J14)*$G14),1),"")</f>
@@ -7657,24 +7648,24 @@
       </c>
       <c r="AH14" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG14),AND(AG$4:AG13))),($J14*$G14-LN(1+Jumpoverwrite6*AI$2))/$G14,_xll.qlInterpolationInterpolate(AG$3,$F14,TRUE))</f>
-        <v>-5.1597807955764373E-4</v>
-      </c>
-      <c r="AI14" s="107" t="str">
+        <v>-9.2631914802717357E-5</v>
+      </c>
+      <c r="AI14" s="107">
         <f>IF(AND(NOT(AG14),AND(AG$4:AG13)),MIN(EXP((AH14-$J14)*$G14),1),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AJ14" s="109"/>
       <c r="AK14" s="106" t="b">
         <f>IF(AND(NOT(AG14),AND(AG$4:AG13)),TRUE,AG14)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL14" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK14),AND(AK$4:AK13))),($J14*$G14-LN(1+Jumpoverwrite7*AM$2))/$G14,_xll.qlInterpolationInterpolate(AK$3,$F14,TRUE))</f>
-        <v>-5.1597807955764373E-4</v>
-      </c>
-      <c r="AM14" s="107">
+        <v>-9.2631914802717357E-5</v>
+      </c>
+      <c r="AM14" s="107" t="str">
         <f>IF(AND(NOT(AK14),AND(AK$4:AK13)),MIN(EXP((AL14-$J14)*$G14),1),"")</f>
-        <v>0.99999370127260956</v>
+        <v/>
       </c>
       <c r="AO14" s="106" t="b">
         <f>IF(AND(NOT(AK14),AND(AK$4:AK13)),TRUE,AK14)</f>
@@ -7682,7 +7673,7 @@
       </c>
       <c r="AP14" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO14),AND(AO$4:AO13))),($J14*$G14-LN(1+Jumpoverwrite8*AQ$2))/$G14,_xll.qlInterpolationInterpolate(AO$3,$F14,TRUE))</f>
-        <v>-5.1597807955764373E-4</v>
+        <v>-9.2631914802717357E-5</v>
       </c>
       <c r="AQ14" s="107" t="str">
         <f>IF(AND(NOT(AO14),AND(AO$4:AO13)),MIN(EXP((AP14-$J14)*$G14),1),"")</f>
@@ -7694,7 +7685,7 @@
       </c>
       <c r="AT14" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS14),AND(AS$4:AS13))),($J14*$G14-LN(1+Jumpoverwrite9*AU$2))/$G14,_xll.qlInterpolationInterpolate(AS$3,$F14,TRUE))</f>
-        <v>-5.1597807955764373E-4</v>
+        <v>-9.2631914802717357E-5</v>
       </c>
       <c r="AU14" s="107" t="str">
         <f>IF(AND(NOT(AS14),AND(AS$4:AS13)),MIN(EXP((AT14-$J14)*$G14),1),"")</f>
@@ -7706,7 +7697,7 @@
       </c>
       <c r="AX14" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW14),AND(AW$4:AW13))),($J14*$G14-LN(1+Jumpoverwrite10*AY$2))/$G14,_xll.qlInterpolationInterpolate(AW$3,$F14,TRUE))</f>
-        <v>-5.1597807955764373E-4</v>
+        <v>-9.2631914802717357E-5</v>
       </c>
       <c r="AY14" s="107" t="str">
         <f>IF(AND(NOT(AW14),AND(AW$4:AW13)),MIN(EXP((AX14-$J14)*$G14),1),"")</f>
@@ -7718,7 +7709,7 @@
       </c>
       <c r="BB14" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA14),AND(BA$4:BA13))),($J14*$G14-LN(1+Jumpoverwrite11*BC$2))/$G14,_xll.qlInterpolationInterpolate(BA$3,$F14,TRUE))</f>
-        <v>-5.1597807955764373E-4</v>
+        <v>-9.2631914802717357E-5</v>
       </c>
       <c r="BC14" s="107" t="str">
         <f>IF(AND(NOT(BA14),AND(BA$4:BA13)),MIN(EXP((BB14-$J14)*$G14),1),"")</f>
@@ -7730,7 +7721,7 @@
       </c>
       <c r="BF14" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE14),AND(BE$4:BE13))),($J14*$G14-LN(1+Jumpoverwrite12*BG$2))/$G14,_xll.qlInterpolationInterpolate(BE$3,$F14,TRUE))</f>
-        <v>-5.1597807955764373E-4</v>
+        <v>-9.2631914802717357E-5</v>
       </c>
       <c r="BG14" s="107" t="str">
         <f>IF(AND(NOT(BE14),AND(BE$4:BE13)),MIN(EXP((BF14-$J14)*$G14),1),"")</f>
@@ -7742,7 +7733,7 @@
       </c>
       <c r="BJ14" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI14),AND(BI$4:BI13))),($J14*$G14-LN(1+jumpoverwrite13*BK$2))/$G14,_xll.qlInterpolationInterpolate(BI$3,$F14,TRUE))</f>
-        <v>-5.1597807955764373E-4</v>
+        <v>-9.2631914802717357E-5</v>
       </c>
       <c r="BK14" s="107" t="str">
         <f>IF(AND(NOT(BI14),AND(BI$4:BI13)),MIN(EXP((BJ14-$J14)*$G14),1),"")</f>
@@ -7755,43 +7746,43 @@
       </c>
       <c r="B15" s="27">
         <f>_xll.qlRateHelperRate($A15,InterestRatesTrigger)</f>
-        <v>-1.7999999999999998E-4</v>
+        <v>-3.0000000000000003E-4</v>
       </c>
       <c r="C15" s="30">
         <f>_xll.qlRateHelperEarliestDate($A15)</f>
-        <v>41968</v>
+        <v>41984</v>
       </c>
       <c r="D15" s="31">
         <f>_xll.qlRateHelperLatestDate($A15)</f>
-        <v>42180</v>
+        <v>42198</v>
       </c>
       <c r="F15" s="120">
         <f t="shared" si="0"/>
-        <v>42172.5</v>
+        <v>42181.5</v>
       </c>
       <c r="G15" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D14,D15)</f>
-        <v>4.1666666666666664E-2</v>
+        <v>9.166666666666666E-2</v>
       </c>
       <c r="I15" s="138" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" s="137">
-        <v>-5.7621022299689066E-4</v>
+        <v>-6.7793738126583215E-4</v>
       </c>
       <c r="K15" s="111">
         <f t="shared" si="3"/>
-        <v>42180</v>
+        <v>42198</v>
       </c>
       <c r="L15" s="100"/>
       <c r="M15" s="106" t="b">
         <f>IF(AND(NOT(I15),AND(I$4:I14)),TRUE,I15)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M15),AND(M$4:M14))),($J15*$G15-LN(1+Jumpoverwrite1*O$2))/$G15,_xll.qlInterpolationInterpolate(M$3,$F15,TRUE))</f>
-        <v>-5.7621022299689066E-4</v>
+        <v>-1.1364175070088044E-4</v>
       </c>
       <c r="O15" s="107" t="str">
         <f>IF(AND(NOT(M15),AND(M$4:M14)),MIN(EXP((N15-$J15)*$G15),1),"")</f>
@@ -7800,11 +7791,11 @@
       <c r="P15" s="109"/>
       <c r="Q15" s="106" t="b">
         <f>IF(AND(NOT(M15),AND(M$4:M14)),TRUE,M15)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q15),AND(Q$4:Q14))),($J15*$G15-LN(1+Jumpoverwrite2*S$2))/$G15,_xll.qlInterpolationInterpolate(Q$3,$F15,TRUE))</f>
-        <v>-5.7621022299689066E-4</v>
+        <v>-1.1364175070088044E-4</v>
       </c>
       <c r="S15" s="107" t="str">
         <f>IF(AND(NOT(Q15),AND(Q$4:Q14)),MIN(EXP((R15-$J15)*$G15),1),"")</f>
@@ -7813,11 +7804,11 @@
       <c r="T15" s="109"/>
       <c r="U15" s="106" t="b">
         <f>IF(AND(NOT(Q15),AND(Q$4:Q14)),TRUE,Q15)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U15),AND(U$4:U14))),($J15*$G15-LN(1+Jumpoverwrite3*W$2))/$G15,_xll.qlInterpolationInterpolate(U$3,$F15,TRUE))</f>
-        <v>-5.7621022299689066E-4</v>
+        <v>-1.1364175070088044E-4</v>
       </c>
       <c r="W15" s="107" t="str">
         <f>IF(AND(NOT(U15),AND(U$4:U14)),MIN(EXP((V15-$J15)*$G15),1),"")</f>
@@ -7826,11 +7817,11 @@
       <c r="X15" s="109"/>
       <c r="Y15" s="106" t="b">
         <f>IF(AND(NOT(U15),AND(U$4:U14)),TRUE,U15)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y15),AND(Y$4:Y14))),($J15*$G15-LN(1+Jumpoverwrite4*AA$2))/$G15,_xll.qlInterpolationInterpolate(Y$3,$F15,TRUE))</f>
-        <v>-5.7621022299689066E-4</v>
+        <v>-1.1364175070088044E-4</v>
       </c>
       <c r="AA15" s="107" t="str">
         <f>IF(AND(NOT(Y15),AND(Y$4:Y14)),MIN(EXP((Z15-$J15)*$G15),1),"")</f>
@@ -7839,11 +7830,11 @@
       <c r="AB15" s="109"/>
       <c r="AC15" s="106" t="b">
         <f>IF(AND(NOT(Y15),AND(Y$4:Y14)),TRUE,Y15)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD15" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC15),AND(AC$4:AC14))),($J15*$G15-LN(1+Jumpoverwrite5*AE$2))/$G15,_xll.qlInterpolationInterpolate(AC$3,$F15,TRUE))</f>
-        <v>-5.7621022299689066E-4</v>
+        <v>-1.1364175070088044E-4</v>
       </c>
       <c r="AE15" s="107" t="str">
         <f>IF(AND(NOT(AC15),AND(AC$4:AC14)),MIN(EXP((AD15-$J15)*$G15),1),"")</f>
@@ -7852,11 +7843,11 @@
       <c r="AF15" s="109"/>
       <c r="AG15" s="106" t="b">
         <f>IF(AND(NOT(AC15),AND(AC$4:AC14)),TRUE,AC15)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH15" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG15),AND(AG$4:AG14))),($J15*$G15-LN(1+Jumpoverwrite6*AI$2))/$G15,_xll.qlInterpolationInterpolate(AG$3,$F15,TRUE))</f>
-        <v>-5.7621022299689066E-4</v>
+        <v>-1.1364175070088044E-4</v>
       </c>
       <c r="AI15" s="107" t="str">
         <f>IF(AND(NOT(AG15),AND(AG$4:AG14)),MIN(EXP((AH15-$J15)*$G15),1),"")</f>
@@ -7865,15 +7856,15 @@
       <c r="AJ15" s="109"/>
       <c r="AK15" s="106" t="b">
         <f>IF(AND(NOT(AG15),AND(AG$4:AG14)),TRUE,AG15)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL15" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK15),AND(AK$4:AK14))),($J15*$G15-LN(1+Jumpoverwrite7*AM$2))/$G15,_xll.qlInterpolationInterpolate(AK$3,$F15,TRUE))</f>
-        <v>-5.7621022299689066E-4</v>
-      </c>
-      <c r="AM15" s="107" t="str">
+        <v>-1.1364175070088044E-4</v>
+      </c>
+      <c r="AM15" s="107">
         <f>IF(AND(NOT(AK15),AND(AK$4:AK14)),MIN(EXP((AL15-$J15)*$G15),1),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AO15" s="106" t="b">
         <f>IF(AND(NOT(AK15),AND(AK$4:AK14)),TRUE,AK15)</f>
@@ -7881,7 +7872,7 @@
       </c>
       <c r="AP15" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO15),AND(AO$4:AO14))),($J15*$G15-LN(1+Jumpoverwrite8*AQ$2))/$G15,_xll.qlInterpolationInterpolate(AO$3,$F15,TRUE))</f>
-        <v>-5.7621022299689066E-4</v>
+        <v>-1.1364175070088044E-4</v>
       </c>
       <c r="AQ15" s="107" t="str">
         <f>IF(AND(NOT(AO15),AND(AO$4:AO14)),MIN(EXP((AP15-$J15)*$G15),1),"")</f>
@@ -7893,7 +7884,7 @@
       </c>
       <c r="AT15" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS15),AND(AS$4:AS14))),($J15*$G15-LN(1+Jumpoverwrite9*AU$2))/$G15,_xll.qlInterpolationInterpolate(AS$3,$F15,TRUE))</f>
-        <v>-5.7621022299689066E-4</v>
+        <v>-1.1364175070088044E-4</v>
       </c>
       <c r="AU15" s="107" t="str">
         <f>IF(AND(NOT(AS15),AND(AS$4:AS14)),MIN(EXP((AT15-$J15)*$G15),1),"")</f>
@@ -7905,7 +7896,7 @@
       </c>
       <c r="AX15" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW15),AND(AW$4:AW14))),($J15*$G15-LN(1+Jumpoverwrite10*AY$2))/$G15,_xll.qlInterpolationInterpolate(AW$3,$F15,TRUE))</f>
-        <v>-5.7621022299689066E-4</v>
+        <v>-1.1364175070088044E-4</v>
       </c>
       <c r="AY15" s="107" t="str">
         <f>IF(AND(NOT(AW15),AND(AW$4:AW14)),MIN(EXP((AX15-$J15)*$G15),1),"")</f>
@@ -7917,7 +7908,7 @@
       </c>
       <c r="BB15" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA15),AND(BA$4:BA14))),($J15*$G15-LN(1+Jumpoverwrite11*BC$2))/$G15,_xll.qlInterpolationInterpolate(BA$3,$F15,TRUE))</f>
-        <v>-5.7621022299689066E-4</v>
+        <v>-1.1364175070088044E-4</v>
       </c>
       <c r="BC15" s="107" t="str">
         <f>IF(AND(NOT(BA15),AND(BA$4:BA14)),MIN(EXP((BB15-$J15)*$G15),1),"")</f>
@@ -7929,7 +7920,7 @@
       </c>
       <c r="BF15" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE15),AND(BE$4:BE14))),($J15*$G15-LN(1+Jumpoverwrite12*BG$2))/$G15,_xll.qlInterpolationInterpolate(BE$3,$F15,TRUE))</f>
-        <v>-5.7621022299689066E-4</v>
+        <v>-1.1364175070088044E-4</v>
       </c>
       <c r="BG15" s="107" t="str">
         <f>IF(AND(NOT(BE15),AND(BE$4:BE14)),MIN(EXP((BF15-$J15)*$G15),1),"")</f>
@@ -7941,7 +7932,7 @@
       </c>
       <c r="BJ15" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI15),AND(BI$4:BI14))),($J15*$G15-LN(1+jumpoverwrite13*BK$2))/$G15,_xll.qlInterpolationInterpolate(BI$3,$F15,TRUE))</f>
-        <v>-5.7621022299689066E-4</v>
+        <v>-1.1364175070088044E-4</v>
       </c>
       <c r="BK15" s="107" t="str">
         <f>IF(AND(NOT(BI15),AND(BI$4:BI14)),MIN(EXP((BJ15-$J15)*$G15),1),"")</f>
@@ -7954,7 +7945,7 @@
       </c>
       <c r="B16" s="27">
         <f>_xll.qlRateHelperRate($A16,InterestRatesTrigger)</f>
-        <v>-5.2999999999999998E-4</v>
+        <v>-5.5999999999999995E-4</v>
       </c>
       <c r="C16" s="30">
         <f>_xll.qlRateHelperEarliestDate($A16)</f>
@@ -7966,18 +7957,18 @@
       </c>
       <c r="F16" s="120">
         <f t="shared" si="0"/>
-        <v>42193.5</v>
+        <v>42202.5</v>
       </c>
       <c r="G16" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D15,D16)</f>
-        <v>7.4999999999999997E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="I16" s="138" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="137">
-        <v>-5.0435314416301228E-4</v>
+        <v>-1.2764830796632248E-4</v>
       </c>
       <c r="K16" s="111">
         <f t="shared" si="3"/>
@@ -7986,11 +7977,11 @@
       <c r="L16" s="100"/>
       <c r="M16" s="106" t="b">
         <f>IF(AND(NOT(I16),AND(I$4:I15)),TRUE,I16)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M16),AND(M$4:M15))),($J16*$G16-LN(1+Jumpoverwrite1*O$2))/$G16,_xll.qlInterpolationInterpolate(M$3,$F16,TRUE))</f>
-        <v>-4.6535223437429345E-4</v>
+        <v>-1.2764830796632248E-4</v>
       </c>
       <c r="O16" s="107" t="str">
         <f>IF(AND(NOT(M16),AND(M$4:M15)),MIN(EXP((N16-$J16)*$G16),1),"")</f>
@@ -7999,11 +7990,11 @@
       <c r="P16" s="109"/>
       <c r="Q16" s="106" t="b">
         <f>IF(AND(NOT(M16),AND(M$4:M15)),TRUE,M16)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q16),AND(Q$4:Q15))),($J16*$G16-LN(1+Jumpoverwrite2*S$2))/$G16,_xll.qlInterpolationInterpolate(Q$3,$F16,TRUE))</f>
-        <v>-4.6535223437429345E-4</v>
+        <v>-1.2764830796632248E-4</v>
       </c>
       <c r="S16" s="107" t="str">
         <f>IF(AND(NOT(Q16),AND(Q$4:Q15)),MIN(EXP((R16-$J16)*$G16),1),"")</f>
@@ -8012,11 +8003,11 @@
       <c r="T16" s="109"/>
       <c r="U16" s="106" t="b">
         <f>IF(AND(NOT(Q16),AND(Q$4:Q15)),TRUE,Q16)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U16),AND(U$4:U15))),($J16*$G16-LN(1+Jumpoverwrite3*W$2))/$G16,_xll.qlInterpolationInterpolate(U$3,$F16,TRUE))</f>
-        <v>-4.6535223437429345E-4</v>
+        <v>-1.2764830796632248E-4</v>
       </c>
       <c r="W16" s="107" t="str">
         <f>IF(AND(NOT(U16),AND(U$4:U15)),MIN(EXP((V16-$J16)*$G16),1),"")</f>
@@ -8025,11 +8016,11 @@
       <c r="X16" s="109"/>
       <c r="Y16" s="106" t="b">
         <f>IF(AND(NOT(U16),AND(U$4:U15)),TRUE,U16)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z16" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y16),AND(Y$4:Y15))),($J16*$G16-LN(1+Jumpoverwrite4*AA$2))/$G16,_xll.qlInterpolationInterpolate(Y$3,$F16,TRUE))</f>
-        <v>-4.6535223437429345E-4</v>
+        <v>-1.2764830796632248E-4</v>
       </c>
       <c r="AA16" s="107" t="str">
         <f>IF(AND(NOT(Y16),AND(Y$4:Y15)),MIN(EXP((Z16-$J16)*$G16),1),"")</f>
@@ -8038,11 +8029,11 @@
       <c r="AB16" s="109"/>
       <c r="AC16" s="106" t="b">
         <f>IF(AND(NOT(Y16),AND(Y$4:Y15)),TRUE,Y16)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD16" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC16),AND(AC$4:AC15))),($J16*$G16-LN(1+Jumpoverwrite5*AE$2))/$G16,_xll.qlInterpolationInterpolate(AC$3,$F16,TRUE))</f>
-        <v>-4.6535223437429345E-4</v>
+        <v>-1.2764830796632248E-4</v>
       </c>
       <c r="AE16" s="107" t="str">
         <f>IF(AND(NOT(AC16),AND(AC$4:AC15)),MIN(EXP((AD16-$J16)*$G16),1),"")</f>
@@ -8051,11 +8042,11 @@
       <c r="AF16" s="109"/>
       <c r="AG16" s="106" t="b">
         <f>IF(AND(NOT(AC16),AND(AC$4:AC15)),TRUE,AC16)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH16" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG16),AND(AG$4:AG15))),($J16*$G16-LN(1+Jumpoverwrite6*AI$2))/$G16,_xll.qlInterpolationInterpolate(AG$3,$F16,TRUE))</f>
-        <v>-4.6535223437429345E-4</v>
+        <v>-1.2764830796632248E-4</v>
       </c>
       <c r="AI16" s="107" t="str">
         <f>IF(AND(NOT(AG16),AND(AG$4:AG15)),MIN(EXP((AH16-$J16)*$G16),1),"")</f>
@@ -8064,11 +8055,11 @@
       <c r="AJ16" s="109"/>
       <c r="AK16" s="106" t="b">
         <f>IF(AND(NOT(AG16),AND(AG$4:AG15)),TRUE,AG16)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL16" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK16),AND(AK$4:AK15))),($J16*$G16-LN(1+Jumpoverwrite7*AM$2))/$G16,_xll.qlInterpolationInterpolate(AK$3,$F16,TRUE))</f>
-        <v>-4.6535223437429345E-4</v>
+        <v>-1.2764830796632248E-4</v>
       </c>
       <c r="AM16" s="107" t="str">
         <f>IF(AND(NOT(AK16),AND(AK$4:AK15)),MIN(EXP((AL16-$J16)*$G16),1),"")</f>
@@ -8076,15 +8067,15 @@
       </c>
       <c r="AO16" s="106" t="b">
         <f>IF(AND(NOT(AK16),AND(AK$4:AK15)),TRUE,AK16)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP16" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO16),AND(AO$4:AO15))),($J16*$G16-LN(1+Jumpoverwrite8*AQ$2))/$G16,_xll.qlInterpolationInterpolate(AO$3,$F16,TRUE))</f>
-        <v>-4.6535223437429345E-4</v>
-      </c>
-      <c r="AQ16" s="107">
+        <v>-1.2764830796632248E-4</v>
+      </c>
+      <c r="AQ16" s="107" t="str">
         <f>IF(AND(NOT(AO16),AND(AO$4:AO15)),MIN(EXP((AP16-$J16)*$G16),1),"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="AS16" s="106" t="b">
         <f>IF(AND(NOT(AO16),AND(AO$4:AO15)),TRUE,AO16)</f>
@@ -8092,7 +8083,7 @@
       </c>
       <c r="AT16" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS16),AND(AS$4:AS15))),($J16*$G16-LN(1+Jumpoverwrite9*AU$2))/$G16,_xll.qlInterpolationInterpolate(AS$3,$F16,TRUE))</f>
-        <v>-4.6535223437429345E-4</v>
+        <v>-1.2764830796632248E-4</v>
       </c>
       <c r="AU16" s="107" t="str">
         <f>IF(AND(NOT(AS16),AND(AS$4:AS15)),MIN(EXP((AT16-$J16)*$G16),1),"")</f>
@@ -8104,7 +8095,7 @@
       </c>
       <c r="AX16" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW16),AND(AW$4:AW15))),($J16*$G16-LN(1+Jumpoverwrite10*AY$2))/$G16,_xll.qlInterpolationInterpolate(AW$3,$F16,TRUE))</f>
-        <v>-4.6535223437429345E-4</v>
+        <v>-1.2764830796632248E-4</v>
       </c>
       <c r="AY16" s="107" t="str">
         <f>IF(AND(NOT(AW16),AND(AW$4:AW15)),MIN(EXP((AX16-$J16)*$G16),1),"")</f>
@@ -8116,7 +8107,7 @@
       </c>
       <c r="BB16" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA16),AND(BA$4:BA15))),($J16*$G16-LN(1+Jumpoverwrite11*BC$2))/$G16,_xll.qlInterpolationInterpolate(BA$3,$F16,TRUE))</f>
-        <v>-4.6535223437429345E-4</v>
+        <v>-1.2764830796632248E-4</v>
       </c>
       <c r="BC16" s="107" t="str">
         <f>IF(AND(NOT(BA16),AND(BA$4:BA15)),MIN(EXP((BB16-$J16)*$G16),1),"")</f>
@@ -8128,7 +8119,7 @@
       </c>
       <c r="BF16" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE16),AND(BE$4:BE15))),($J16*$G16-LN(1+Jumpoverwrite12*BG$2))/$G16,_xll.qlInterpolationInterpolate(BE$3,$F16,TRUE))</f>
-        <v>-4.6535223437429345E-4</v>
+        <v>-1.2764830796632248E-4</v>
       </c>
       <c r="BG16" s="107" t="str">
         <f>IF(AND(NOT(BE16),AND(BE$4:BE15)),MIN(EXP((BF16-$J16)*$G16),1),"")</f>
@@ -8140,7 +8131,7 @@
       </c>
       <c r="BJ16" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI16),AND(BI$4:BI15))),($J16*$G16-LN(1+jumpoverwrite13*BK$2))/$G16,_xll.qlInterpolationInterpolate(BI$3,$F16,TRUE))</f>
-        <v>-4.6535223437429345E-4</v>
+        <v>-1.2764830796632248E-4</v>
       </c>
       <c r="BK16" s="107" t="str">
         <f>IF(AND(NOT(BI16),AND(BI$4:BI15)),MIN(EXP((BJ16-$J16)*$G16),1),"")</f>
@@ -8153,43 +8144,43 @@
       </c>
       <c r="B17" s="27">
         <f>_xll.qlRateHelperRate($A17,InterestRatesTrigger)</f>
-        <v>-2.1999999999999998E-4</v>
+        <v>-3.3E-4</v>
       </c>
       <c r="C17" s="30">
         <f>_xll.qlRateHelperEarliestDate($A17)</f>
-        <v>41968</v>
+        <v>41984</v>
       </c>
       <c r="D17" s="31">
         <f>_xll.qlRateHelperLatestDate($A17)</f>
-        <v>42212</v>
+        <v>42227</v>
       </c>
       <c r="F17" s="120">
         <f t="shared" si="0"/>
-        <v>42209.5</v>
+        <v>42217</v>
       </c>
       <c r="G17" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D16,D17)</f>
-        <v>1.3888888888888888E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="I17" s="138" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" s="137">
-        <v>-3.8088900494755271E-4</v>
+        <v>-7.4221862676989185E-4</v>
       </c>
       <c r="K17" s="111">
         <f t="shared" si="3"/>
-        <v>42212</v>
+        <v>42227</v>
       </c>
       <c r="L17" s="100"/>
       <c r="M17" s="106" t="b">
         <f>IF(AND(NOT(I17),AND(I$4:I16)),TRUE,I17)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M17),AND(M$4:M16))),($J17*$G17-LN(1+Jumpoverwrite1*O$2))/$G17,_xll.qlInterpolationInterpolate(M$3,$F17,TRUE))</f>
-        <v>-3.8088900494755271E-4</v>
+        <v>-1.5310862599032769E-4</v>
       </c>
       <c r="O17" s="107" t="str">
         <f>IF(AND(NOT(M17),AND(M$4:M16)),MIN(EXP((N17-$J17)*$G17),1),"")</f>
@@ -8198,11 +8189,11 @@
       <c r="P17" s="109"/>
       <c r="Q17" s="106" t="b">
         <f>IF(AND(NOT(M17),AND(M$4:M16)),TRUE,M17)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q17),AND(Q$4:Q16))),($J17*$G17-LN(1+Jumpoverwrite2*S$2))/$G17,_xll.qlInterpolationInterpolate(Q$3,$F17,TRUE))</f>
-        <v>-3.8088900494755271E-4</v>
+        <v>-1.5310862599032769E-4</v>
       </c>
       <c r="S17" s="107" t="str">
         <f>IF(AND(NOT(Q17),AND(Q$4:Q16)),MIN(EXP((R17-$J17)*$G17),1),"")</f>
@@ -8211,11 +8202,11 @@
       <c r="T17" s="109"/>
       <c r="U17" s="106" t="b">
         <f>IF(AND(NOT(Q17),AND(Q$4:Q16)),TRUE,Q17)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U17),AND(U$4:U16))),($J17*$G17-LN(1+Jumpoverwrite3*W$2))/$G17,_xll.qlInterpolationInterpolate(U$3,$F17,TRUE))</f>
-        <v>-3.8088900494755271E-4</v>
+        <v>-1.5310862599032769E-4</v>
       </c>
       <c r="W17" s="107" t="str">
         <f>IF(AND(NOT(U17),AND(U$4:U16)),MIN(EXP((V17-$J17)*$G17),1),"")</f>
@@ -8224,11 +8215,11 @@
       <c r="X17" s="109"/>
       <c r="Y17" s="106" t="b">
         <f>IF(AND(NOT(U17),AND(U$4:U16)),TRUE,U17)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y17),AND(Y$4:Y16))),($J17*$G17-LN(1+Jumpoverwrite4*AA$2))/$G17,_xll.qlInterpolationInterpolate(Y$3,$F17,TRUE))</f>
-        <v>-3.8088900494755271E-4</v>
+        <v>-1.5310862599032769E-4</v>
       </c>
       <c r="AA17" s="107" t="str">
         <f>IF(AND(NOT(Y17),AND(Y$4:Y16)),MIN(EXP((Z17-$J17)*$G17),1),"")</f>
@@ -8237,11 +8228,11 @@
       <c r="AB17" s="109"/>
       <c r="AC17" s="106" t="b">
         <f>IF(AND(NOT(Y17),AND(Y$4:Y16)),TRUE,Y17)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD17" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC17),AND(AC$4:AC16))),($J17*$G17-LN(1+Jumpoverwrite5*AE$2))/$G17,_xll.qlInterpolationInterpolate(AC$3,$F17,TRUE))</f>
-        <v>-3.8088900494755271E-4</v>
+        <v>-1.5310862599032769E-4</v>
       </c>
       <c r="AE17" s="107" t="str">
         <f>IF(AND(NOT(AC17),AND(AC$4:AC16)),MIN(EXP((AD17-$J17)*$G17),1),"")</f>
@@ -8250,11 +8241,11 @@
       <c r="AF17" s="109"/>
       <c r="AG17" s="106" t="b">
         <f>IF(AND(NOT(AC17),AND(AC$4:AC16)),TRUE,AC17)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH17" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG17),AND(AG$4:AG16))),($J17*$G17-LN(1+Jumpoverwrite6*AI$2))/$G17,_xll.qlInterpolationInterpolate(AG$3,$F17,TRUE))</f>
-        <v>-3.8088900494755271E-4</v>
+        <v>-1.5310862599032769E-4</v>
       </c>
       <c r="AI17" s="107" t="str">
         <f>IF(AND(NOT(AG17),AND(AG$4:AG16)),MIN(EXP((AH17-$J17)*$G17),1),"")</f>
@@ -8263,11 +8254,11 @@
       <c r="AJ17" s="109"/>
       <c r="AK17" s="106" t="b">
         <f>IF(AND(NOT(AG17),AND(AG$4:AG16)),TRUE,AG17)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL17" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK17),AND(AK$4:AK16))),($J17*$G17-LN(1+Jumpoverwrite7*AM$2))/$G17,_xll.qlInterpolationInterpolate(AK$3,$F17,TRUE))</f>
-        <v>-3.8088900494755271E-4</v>
+        <v>-1.5310862599032769E-4</v>
       </c>
       <c r="AM17" s="107" t="str">
         <f>IF(AND(NOT(AK17),AND(AK$4:AK16)),MIN(EXP((AL17-$J17)*$G17),1),"")</f>
@@ -8275,15 +8266,15 @@
       </c>
       <c r="AO17" s="106" t="b">
         <f>IF(AND(NOT(AK17),AND(AK$4:AK16)),TRUE,AK17)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP17" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO17),AND(AO$4:AO16))),($J17*$G17-LN(1+Jumpoverwrite8*AQ$2))/$G17,_xll.qlInterpolationInterpolate(AO$3,$F17,TRUE))</f>
-        <v>-3.8088900494755271E-4</v>
-      </c>
-      <c r="AQ17" s="107" t="str">
+        <v>-1.5310862599032769E-4</v>
+      </c>
+      <c r="AQ17" s="107">
         <f>IF(AND(NOT(AO17),AND(AO$4:AO16)),MIN(EXP((AP17-$J17)*$G17),1),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AS17" s="106" t="b">
         <f>IF(AND(NOT(AO17),AND(AO$4:AO16)),TRUE,AO17)</f>
@@ -8291,7 +8282,7 @@
       </c>
       <c r="AT17" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS17),AND(AS$4:AS16))),($J17*$G17-LN(1+Jumpoverwrite9*AU$2))/$G17,_xll.qlInterpolationInterpolate(AS$3,$F17,TRUE))</f>
-        <v>-3.8088900494755271E-4</v>
+        <v>-1.5310862599032769E-4</v>
       </c>
       <c r="AU17" s="107" t="str">
         <f>IF(AND(NOT(AS17),AND(AS$4:AS16)),MIN(EXP((AT17-$J17)*$G17),1),"")</f>
@@ -8303,7 +8294,7 @@
       </c>
       <c r="AX17" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW17),AND(AW$4:AW16))),($J17*$G17-LN(1+Jumpoverwrite10*AY$2))/$G17,_xll.qlInterpolationInterpolate(AW$3,$F17,TRUE))</f>
-        <v>-3.8088900494755271E-4</v>
+        <v>-1.5310862599032769E-4</v>
       </c>
       <c r="AY17" s="107" t="str">
         <f>IF(AND(NOT(AW17),AND(AW$4:AW16)),MIN(EXP((AX17-$J17)*$G17),1),"")</f>
@@ -8315,7 +8306,7 @@
       </c>
       <c r="BB17" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA17),AND(BA$4:BA16))),($J17*$G17-LN(1+Jumpoverwrite11*BC$2))/$G17,_xll.qlInterpolationInterpolate(BA$3,$F17,TRUE))</f>
-        <v>-3.8088900494755271E-4</v>
+        <v>-1.5310862599032769E-4</v>
       </c>
       <c r="BC17" s="107" t="str">
         <f>IF(AND(NOT(BA17),AND(BA$4:BA16)),MIN(EXP((BB17-$J17)*$G17),1),"")</f>
@@ -8327,7 +8318,7 @@
       </c>
       <c r="BF17" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE17),AND(BE$4:BE16))),($J17*$G17-LN(1+Jumpoverwrite12*BG$2))/$G17,_xll.qlInterpolationInterpolate(BE$3,$F17,TRUE))</f>
-        <v>-3.8088900494755271E-4</v>
+        <v>-1.5310862599032769E-4</v>
       </c>
       <c r="BG17" s="107" t="str">
         <f>IF(AND(NOT(BE17),AND(BE$4:BE16)),MIN(EXP((BF17-$J17)*$G17),1),"")</f>
@@ -8339,7 +8330,7 @@
       </c>
       <c r="BJ17" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI17),AND(BI$4:BI16))),($J17*$G17-LN(1+jumpoverwrite13*BK$2))/$G17,_xll.qlInterpolationInterpolate(BI$3,$F17,TRUE))</f>
-        <v>-3.8088900494755271E-4</v>
+        <v>-1.5310862599032769E-4</v>
       </c>
       <c r="BK17" s="107" t="str">
         <f>IF(AND(NOT(BI17),AND(BI$4:BI16)),MIN(EXP((BJ17-$J17)*$G17),1),"")</f>
@@ -8348,23 +8339,23 @@
     </row>
     <row r="18" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A18" s="94" t="str">
-        <v>WEUREON9M</v>
+        <v>WEURECBOISJUL15</v>
       </c>
       <c r="B18" s="27">
         <f>_xll.qlRateHelperRate($A18,InterestRatesTrigger)</f>
-        <v>-2.6000000000000003E-4</v>
+        <v>-5.6999999999999998E-4</v>
       </c>
       <c r="C18" s="30">
         <f>_xll.qlRateHelperEarliestDate($A18)</f>
-        <v>41968</v>
+        <v>42207</v>
       </c>
       <c r="D18" s="31">
         <f>_xll.qlRateHelperLatestDate($A18)</f>
-        <v>42241</v>
+        <v>42256</v>
       </c>
       <c r="F18" s="120">
         <f t="shared" si="0"/>
-        <v>42226.5</v>
+        <v>42241.5</v>
       </c>
       <c r="G18" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D17,D18)</f>
@@ -8375,11 +8366,11 @@
         <v>0</v>
       </c>
       <c r="J18" s="137">
-        <v>-5.9665502844219963E-4</v>
+        <v>-4.5126589558630603E-4</v>
       </c>
       <c r="K18" s="111">
         <f t="shared" si="3"/>
-        <v>42241</v>
+        <v>42256</v>
       </c>
       <c r="L18" s="100"/>
       <c r="M18" s="106" t="b">
@@ -8388,7 +8379,7 @@
       </c>
       <c r="N18" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M18),AND(M$4:M17))),($J18*$G18-LN(1+Jumpoverwrite1*O$2))/$G18,_xll.qlInterpolationInterpolate(M$3,$F18,TRUE))</f>
-        <v>-4.8825476446525339E-4</v>
+        <v>-1.9612778403088821E-4</v>
       </c>
       <c r="O18" s="107" t="str">
         <f>IF(AND(NOT(M18),AND(M$4:M17)),MIN(EXP((N18-$J18)*$G18),1),"")</f>
@@ -8401,7 +8392,7 @@
       </c>
       <c r="R18" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q18),AND(Q$4:Q17))),($J18*$G18-LN(1+Jumpoverwrite2*S$2))/$G18,_xll.qlInterpolationInterpolate(Q$3,$F18,TRUE))</f>
-        <v>-4.8825476446525339E-4</v>
+        <v>-1.9612778403088821E-4</v>
       </c>
       <c r="S18" s="107" t="str">
         <f>IF(AND(NOT(Q18),AND(Q$4:Q17)),MIN(EXP((R18-$J18)*$G18),1),"")</f>
@@ -8414,7 +8405,7 @@
       </c>
       <c r="V18" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U18),AND(U$4:U17))),($J18*$G18-LN(1+Jumpoverwrite3*W$2))/$G18,_xll.qlInterpolationInterpolate(U$3,$F18,TRUE))</f>
-        <v>-4.8825476446525339E-4</v>
+        <v>-1.9612778403088821E-4</v>
       </c>
       <c r="W18" s="107" t="str">
         <f>IF(AND(NOT(U18),AND(U$4:U17)),MIN(EXP((V18-$J18)*$G18),1),"")</f>
@@ -8427,7 +8418,7 @@
       </c>
       <c r="Z18" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y18),AND(Y$4:Y17))),($J18*$G18-LN(1+Jumpoverwrite4*AA$2))/$G18,_xll.qlInterpolationInterpolate(Y$3,$F18,TRUE))</f>
-        <v>-4.8825476446525339E-4</v>
+        <v>-1.9612778403088821E-4</v>
       </c>
       <c r="AA18" s="107" t="str">
         <f>IF(AND(NOT(Y18),AND(Y$4:Y17)),MIN(EXP((Z18-$J18)*$G18),1),"")</f>
@@ -8440,7 +8431,7 @@
       </c>
       <c r="AD18" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC18),AND(AC$4:AC17))),($J18*$G18-LN(1+Jumpoverwrite5*AE$2))/$G18,_xll.qlInterpolationInterpolate(AC$3,$F18,TRUE))</f>
-        <v>-4.8825476446525339E-4</v>
+        <v>-1.9612778403088821E-4</v>
       </c>
       <c r="AE18" s="107" t="str">
         <f>IF(AND(NOT(AC18),AND(AC$4:AC17)),MIN(EXP((AD18-$J18)*$G18),1),"")</f>
@@ -8453,7 +8444,7 @@
       </c>
       <c r="AH18" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG18),AND(AG$4:AG17))),($J18*$G18-LN(1+Jumpoverwrite6*AI$2))/$G18,_xll.qlInterpolationInterpolate(AG$3,$F18,TRUE))</f>
-        <v>-4.8825476446525339E-4</v>
+        <v>-1.9612778403088821E-4</v>
       </c>
       <c r="AI18" s="107" t="str">
         <f>IF(AND(NOT(AG18),AND(AG$4:AG17)),MIN(EXP((AH18-$J18)*$G18),1),"")</f>
@@ -8466,7 +8457,7 @@
       </c>
       <c r="AL18" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK18),AND(AK$4:AK17))),($J18*$G18-LN(1+Jumpoverwrite7*AM$2))/$G18,_xll.qlInterpolationInterpolate(AK$3,$F18,TRUE))</f>
-        <v>-4.8825476446525339E-4</v>
+        <v>-1.9612778403088821E-4</v>
       </c>
       <c r="AM18" s="107" t="str">
         <f>IF(AND(NOT(AK18),AND(AK$4:AK17)),MIN(EXP((AL18-$J18)*$G18),1),"")</f>
@@ -8478,7 +8469,7 @@
       </c>
       <c r="AP18" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO18),AND(AO$4:AO17))),($J18*$G18-LN(1+Jumpoverwrite8*AQ$2))/$G18,_xll.qlInterpolationInterpolate(AO$3,$F18,TRUE))</f>
-        <v>-4.8825476446525339E-4</v>
+        <v>-1.9612778403088821E-4</v>
       </c>
       <c r="AQ18" s="107" t="str">
         <f>IF(AND(NOT(AO18),AND(AO$4:AO17)),MIN(EXP((AP18-$J18)*$G18),1),"")</f>
@@ -8490,7 +8481,7 @@
       </c>
       <c r="AT18" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS18),AND(AS$4:AS17))),($J18*$G18-LN(1+Jumpoverwrite9*AU$2))/$G18,_xll.qlInterpolationInterpolate(AS$3,$F18,TRUE))</f>
-        <v>-4.8825476446525339E-4</v>
+        <v>-1.9612778403088821E-4</v>
       </c>
       <c r="AU18" s="107">
         <f>IF(AND(NOT(AS18),AND(AS$4:AS17)),MIN(EXP((AT18-$J18)*$G18),1),"")</f>
@@ -8502,7 +8493,7 @@
       </c>
       <c r="AX18" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW18),AND(AW$4:AW17))),($J18*$G18-LN(1+Jumpoverwrite10*AY$2))/$G18,_xll.qlInterpolationInterpolate(AW$3,$F18,TRUE))</f>
-        <v>-4.8825476446525339E-4</v>
+        <v>-1.9612778403088821E-4</v>
       </c>
       <c r="AY18" s="107" t="str">
         <f>IF(AND(NOT(AW18),AND(AW$4:AW17)),MIN(EXP((AX18-$J18)*$G18),1),"")</f>
@@ -8514,7 +8505,7 @@
       </c>
       <c r="BB18" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA18),AND(BA$4:BA17))),($J18*$G18-LN(1+Jumpoverwrite11*BC$2))/$G18,_xll.qlInterpolationInterpolate(BA$3,$F18,TRUE))</f>
-        <v>-4.8825476446525339E-4</v>
+        <v>-1.9612778403088821E-4</v>
       </c>
       <c r="BC18" s="107" t="str">
         <f>IF(AND(NOT(BA18),AND(BA$4:BA17)),MIN(EXP((BB18-$J18)*$G18),1),"")</f>
@@ -8526,7 +8517,7 @@
       </c>
       <c r="BF18" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE18),AND(BE$4:BE17))),($J18*$G18-LN(1+Jumpoverwrite12*BG$2))/$G18,_xll.qlInterpolationInterpolate(BE$3,$F18,TRUE))</f>
-        <v>-4.8825476446525339E-4</v>
+        <v>-1.9612778403088821E-4</v>
       </c>
       <c r="BG18" s="107" t="str">
         <f>IF(AND(NOT(BE18),AND(BE$4:BE17)),MIN(EXP((BF18-$J18)*$G18),1),"")</f>
@@ -8538,7 +8529,7 @@
       </c>
       <c r="BJ18" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI18),AND(BI$4:BI17))),($J18*$G18-LN(1+jumpoverwrite13*BK$2))/$G18,_xll.qlInterpolationInterpolate(BI$3,$F18,TRUE))</f>
-        <v>-4.8825476446525339E-4</v>
+        <v>-1.9612778403088821E-4</v>
       </c>
       <c r="BK18" s="107" t="str">
         <f>IF(AND(NOT(BI18),AND(BI$4:BI17)),MIN(EXP((BJ18-$J18)*$G18),1),"")</f>
@@ -8547,38 +8538,38 @@
     </row>
     <row r="19" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A19" s="94" t="str">
-        <v>WEURECBOISJUL15</v>
+        <v>WEUREON10M</v>
       </c>
       <c r="B19" s="27">
         <f>_xll.qlRateHelperRate($A19,InterestRatesTrigger)</f>
-        <v>-6.3000000000000003E-4</v>
+        <v>-3.8999999999999999E-4</v>
       </c>
       <c r="C19" s="30">
         <f>_xll.qlRateHelperEarliestDate($A19)</f>
-        <v>42207</v>
+        <v>41984</v>
       </c>
       <c r="D19" s="31">
         <f>_xll.qlRateHelperLatestDate($A19)</f>
-        <v>42256</v>
+        <v>42289</v>
       </c>
       <c r="F19" s="120">
         <f t="shared" si="0"/>
-        <v>42248.5</v>
+        <v>42272.5</v>
       </c>
       <c r="G19" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D18,D19)</f>
-        <v>4.1666666666666664E-2</v>
+        <v>9.166666666666666E-2</v>
       </c>
       <c r="I19" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J19" s="137">
-        <v>-7.7759218515284999E-4</v>
+        <v>-7.7830340610369456E-4</v>
       </c>
       <c r="K19" s="111">
         <f t="shared" si="3"/>
-        <v>42256</v>
+        <v>42289</v>
       </c>
       <c r="L19" s="100"/>
       <c r="M19" s="106" t="b">
@@ -8587,7 +8578,7 @@
       </c>
       <c r="N19" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M19),AND(M$4:M18))),($J19*$G19-LN(1+Jumpoverwrite1*O$2))/$G19,_xll.qlInterpolationInterpolate(M$3,$F19,TRUE))</f>
-        <v>-6.2719868854698379E-4</v>
+        <v>-2.5056018808220968E-4</v>
       </c>
       <c r="O19" s="107" t="str">
         <f>IF(AND(NOT(M19),AND(M$4:M18)),MIN(EXP((N19-$J19)*$G19),1),"")</f>
@@ -8600,7 +8591,7 @@
       </c>
       <c r="R19" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q19),AND(Q$4:Q18))),($J19*$G19-LN(1+Jumpoverwrite2*S$2))/$G19,_xll.qlInterpolationInterpolate(Q$3,$F19,TRUE))</f>
-        <v>-6.2719868854698379E-4</v>
+        <v>-2.5056018808220968E-4</v>
       </c>
       <c r="S19" s="107" t="str">
         <f>IF(AND(NOT(Q19),AND(Q$4:Q18)),MIN(EXP((R19-$J19)*$G19),1),"")</f>
@@ -8613,7 +8604,7 @@
       </c>
       <c r="V19" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U19),AND(U$4:U18))),($J19*$G19-LN(1+Jumpoverwrite3*W$2))/$G19,_xll.qlInterpolationInterpolate(U$3,$F19,TRUE))</f>
-        <v>-6.2719868854698379E-4</v>
+        <v>-2.5056018808220968E-4</v>
       </c>
       <c r="W19" s="107" t="str">
         <f>IF(AND(NOT(U19),AND(U$4:U18)),MIN(EXP((V19-$J19)*$G19),1),"")</f>
@@ -8626,7 +8617,7 @@
       </c>
       <c r="Z19" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y19),AND(Y$4:Y18))),($J19*$G19-LN(1+Jumpoverwrite4*AA$2))/$G19,_xll.qlInterpolationInterpolate(Y$3,$F19,TRUE))</f>
-        <v>-6.2719868854698379E-4</v>
+        <v>-2.5056018808220968E-4</v>
       </c>
       <c r="AA19" s="107" t="str">
         <f>IF(AND(NOT(Y19),AND(Y$4:Y18)),MIN(EXP((Z19-$J19)*$G19),1),"")</f>
@@ -8639,7 +8630,7 @@
       </c>
       <c r="AD19" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC19),AND(AC$4:AC18))),($J19*$G19-LN(1+Jumpoverwrite5*AE$2))/$G19,_xll.qlInterpolationInterpolate(AC$3,$F19,TRUE))</f>
-        <v>-6.2719868854698379E-4</v>
+        <v>-2.5056018808220968E-4</v>
       </c>
       <c r="AE19" s="107" t="str">
         <f>IF(AND(NOT(AC19),AND(AC$4:AC18)),MIN(EXP((AD19-$J19)*$G19),1),"")</f>
@@ -8652,7 +8643,7 @@
       </c>
       <c r="AH19" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG19),AND(AG$4:AG18))),($J19*$G19-LN(1+Jumpoverwrite6*AI$2))/$G19,_xll.qlInterpolationInterpolate(AG$3,$F19,TRUE))</f>
-        <v>-6.2719868854698379E-4</v>
+        <v>-2.5056018808220968E-4</v>
       </c>
       <c r="AI19" s="107" t="str">
         <f>IF(AND(NOT(AG19),AND(AG$4:AG18)),MIN(EXP((AH19-$J19)*$G19),1),"")</f>
@@ -8665,7 +8656,7 @@
       </c>
       <c r="AL19" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK19),AND(AK$4:AK18))),($J19*$G19-LN(1+Jumpoverwrite7*AM$2))/$G19,_xll.qlInterpolationInterpolate(AK$3,$F19,TRUE))</f>
-        <v>-6.2719868854698379E-4</v>
+        <v>-2.5056018808220968E-4</v>
       </c>
       <c r="AM19" s="107" t="str">
         <f>IF(AND(NOT(AK19),AND(AK$4:AK18)),MIN(EXP((AL19-$J19)*$G19),1),"")</f>
@@ -8677,7 +8668,7 @@
       </c>
       <c r="AP19" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO19),AND(AO$4:AO18))),($J19*$G19-LN(1+Jumpoverwrite8*AQ$2))/$G19,_xll.qlInterpolationInterpolate(AO$3,$F19,TRUE))</f>
-        <v>-6.2719868854698379E-4</v>
+        <v>-2.5056018808220968E-4</v>
       </c>
       <c r="AQ19" s="107" t="str">
         <f>IF(AND(NOT(AO19),AND(AO$4:AO18)),MIN(EXP((AP19-$J19)*$G19),1),"")</f>
@@ -8689,7 +8680,7 @@
       </c>
       <c r="AT19" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS19),AND(AS$4:AS18))),($J19*$G19-LN(1+Jumpoverwrite9*AU$2))/$G19,_xll.qlInterpolationInterpolate(AS$3,$F19,TRUE))</f>
-        <v>-6.2719868854698379E-4</v>
+        <v>-2.5056018808220968E-4</v>
       </c>
       <c r="AU19" s="107" t="str">
         <f>IF(AND(NOT(AS19),AND(AS$4:AS18)),MIN(EXP((AT19-$J19)*$G19),1),"")</f>
@@ -8701,7 +8692,7 @@
       </c>
       <c r="AX19" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW19),AND(AW$4:AW18))),($J19*$G19-LN(1+Jumpoverwrite10*AY$2))/$G19,_xll.qlInterpolationInterpolate(AW$3,$F19,TRUE))</f>
-        <v>-6.2719868854698379E-4</v>
+        <v>-2.5056018808220968E-4</v>
       </c>
       <c r="AY19" s="107">
         <f>IF(AND(NOT(AW19),AND(AW$4:AW18)),MIN(EXP((AX19-$J19)*$G19),1),"")</f>
@@ -8713,7 +8704,7 @@
       </c>
       <c r="BB19" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA19),AND(BA$4:BA18))),($J19*$G19-LN(1+Jumpoverwrite11*BC$2))/$G19,_xll.qlInterpolationInterpolate(BA$3,$F19,TRUE))</f>
-        <v>-6.2719868854698379E-4</v>
+        <v>-2.5056018808220968E-4</v>
       </c>
       <c r="BC19" s="107" t="str">
         <f>IF(AND(NOT(BA19),AND(BA$4:BA18)),MIN(EXP((BB19-$J19)*$G19),1),"")</f>
@@ -8725,7 +8716,7 @@
       </c>
       <c r="BF19" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE19),AND(BE$4:BE18))),($J19*$G19-LN(1+Jumpoverwrite12*BG$2))/$G19,_xll.qlInterpolationInterpolate(BE$3,$F19,TRUE))</f>
-        <v>-6.2719868854698379E-4</v>
+        <v>-2.5056018808220968E-4</v>
       </c>
       <c r="BG19" s="107" t="str">
         <f>IF(AND(NOT(BE19),AND(BE$4:BE18)),MIN(EXP((BF19-$J19)*$G19),1),"")</f>
@@ -8737,7 +8728,7 @@
       </c>
       <c r="BJ19" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI19),AND(BI$4:BI18))),($J19*$G19-LN(1+jumpoverwrite13*BK$2))/$G19,_xll.qlInterpolationInterpolate(BI$3,$F19,TRUE))</f>
-        <v>-6.2719868854698379E-4</v>
+        <v>-2.5056018808220968E-4</v>
       </c>
       <c r="BK19" s="107" t="str">
         <f>IF(AND(NOT(BI19),AND(BI$4:BI18)),MIN(EXP((BJ19-$J19)*$G19),1),"")</f>
@@ -8746,23 +8737,23 @@
     </row>
     <row r="20" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A20" s="94" t="str">
-        <v>WEUREON10M</v>
+        <v>WEURECBOISSEP15</v>
       </c>
       <c r="B20" s="27">
         <f>_xll.qlRateHelperRate($A20,InterestRatesTrigger)</f>
-        <v>-3.0999999999999995E-4</v>
+        <v>-6.2E-4</v>
       </c>
       <c r="C20" s="30">
         <f>_xll.qlRateHelperEarliestDate($A20)</f>
-        <v>41968</v>
+        <v>42256</v>
       </c>
       <c r="D20" s="31">
         <f>_xll.qlRateHelperLatestDate($A20)</f>
-        <v>42272</v>
+        <v>42305</v>
       </c>
       <c r="F20" s="120">
         <f t="shared" si="0"/>
-        <v>42264</v>
+        <v>42297</v>
       </c>
       <c r="G20" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D19,D20)</f>
@@ -8773,11 +8764,11 @@
         <v>1</v>
       </c>
       <c r="J20" s="137">
-        <v>-7.2509099869547556E-4</v>
+        <v>-2.9357934612277023E-4</v>
       </c>
       <c r="K20" s="111">
         <f t="shared" si="3"/>
-        <v>42272</v>
+        <v>42305</v>
       </c>
       <c r="L20" s="100"/>
       <c r="M20" s="106" t="b">
@@ -8786,7 +8777,7 @@
       </c>
       <c r="N20" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M20),AND(M$4:M19))),($J20*$G20-LN(1+Jumpoverwrite1*O$2))/$G20,_xll.qlInterpolationInterpolate(M$3,$F20,TRUE))</f>
-        <v>-7.2509099869547556E-4</v>
+        <v>-2.9357934612277023E-4</v>
       </c>
       <c r="O20" s="107" t="str">
         <f>IF(AND(NOT(M20),AND(M$4:M19)),MIN(EXP((N20-$J20)*$G20),1),"")</f>
@@ -8799,7 +8790,7 @@
       </c>
       <c r="R20" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q20),AND(Q$4:Q19))),($J20*$G20-LN(1+Jumpoverwrite2*S$2))/$G20,_xll.qlInterpolationInterpolate(Q$3,$F20,TRUE))</f>
-        <v>-7.2509099869547556E-4</v>
+        <v>-2.9357934612277023E-4</v>
       </c>
       <c r="S20" s="107" t="str">
         <f>IF(AND(NOT(Q20),AND(Q$4:Q19)),MIN(EXP((R20-$J20)*$G20),1),"")</f>
@@ -8812,7 +8803,7 @@
       </c>
       <c r="V20" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U20),AND(U$4:U19))),($J20*$G20-LN(1+Jumpoverwrite3*W$2))/$G20,_xll.qlInterpolationInterpolate(U$3,$F20,TRUE))</f>
-        <v>-7.2509099869547556E-4</v>
+        <v>-2.9357934612277023E-4</v>
       </c>
       <c r="W20" s="107" t="str">
         <f>IF(AND(NOT(U20),AND(U$4:U19)),MIN(EXP((V20-$J20)*$G20),1),"")</f>
@@ -8825,7 +8816,7 @@
       </c>
       <c r="Z20" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y20),AND(Y$4:Y19))),($J20*$G20-LN(1+Jumpoverwrite4*AA$2))/$G20,_xll.qlInterpolationInterpolate(Y$3,$F20,TRUE))</f>
-        <v>-7.2509099869547556E-4</v>
+        <v>-2.9357934612277023E-4</v>
       </c>
       <c r="AA20" s="107" t="str">
         <f>IF(AND(NOT(Y20),AND(Y$4:Y19)),MIN(EXP((Z20-$J20)*$G20),1),"")</f>
@@ -8838,7 +8829,7 @@
       </c>
       <c r="AD20" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC20),AND(AC$4:AC19))),($J20*$G20-LN(1+Jumpoverwrite5*AE$2))/$G20,_xll.qlInterpolationInterpolate(AC$3,$F20,TRUE))</f>
-        <v>-7.2509099869547556E-4</v>
+        <v>-2.9357934612277023E-4</v>
       </c>
       <c r="AE20" s="107" t="str">
         <f>IF(AND(NOT(AC20),AND(AC$4:AC19)),MIN(EXP((AD20-$J20)*$G20),1),"")</f>
@@ -8851,7 +8842,7 @@
       </c>
       <c r="AH20" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG20),AND(AG$4:AG19))),($J20*$G20-LN(1+Jumpoverwrite6*AI$2))/$G20,_xll.qlInterpolationInterpolate(AG$3,$F20,TRUE))</f>
-        <v>-7.2509099869547556E-4</v>
+        <v>-2.9357934612277023E-4</v>
       </c>
       <c r="AI20" s="107" t="str">
         <f>IF(AND(NOT(AG20),AND(AG$4:AG19)),MIN(EXP((AH20-$J20)*$G20),1),"")</f>
@@ -8864,7 +8855,7 @@
       </c>
       <c r="AL20" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK20),AND(AK$4:AK19))),($J20*$G20-LN(1+Jumpoverwrite7*AM$2))/$G20,_xll.qlInterpolationInterpolate(AK$3,$F20,TRUE))</f>
-        <v>-7.2509099869547556E-4</v>
+        <v>-2.9357934612277023E-4</v>
       </c>
       <c r="AM20" s="107" t="str">
         <f>IF(AND(NOT(AK20),AND(AK$4:AK19)),MIN(EXP((AL20-$J20)*$G20),1),"")</f>
@@ -8876,7 +8867,7 @@
       </c>
       <c r="AP20" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO20),AND(AO$4:AO19))),($J20*$G20-LN(1+Jumpoverwrite8*AQ$2))/$G20,_xll.qlInterpolationInterpolate(AO$3,$F20,TRUE))</f>
-        <v>-7.2509099869547556E-4</v>
+        <v>-2.9357934612277023E-4</v>
       </c>
       <c r="AQ20" s="107" t="str">
         <f>IF(AND(NOT(AO20),AND(AO$4:AO19)),MIN(EXP((AP20-$J20)*$G20),1),"")</f>
@@ -8888,7 +8879,7 @@
       </c>
       <c r="AT20" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS20),AND(AS$4:AS19))),($J20*$G20-LN(1+Jumpoverwrite9*AU$2))/$G20,_xll.qlInterpolationInterpolate(AS$3,$F20,TRUE))</f>
-        <v>-7.2509099869547556E-4</v>
+        <v>-2.9357934612277023E-4</v>
       </c>
       <c r="AU20" s="107" t="str">
         <f>IF(AND(NOT(AS20),AND(AS$4:AS19)),MIN(EXP((AT20-$J20)*$G20),1),"")</f>
@@ -8900,7 +8891,7 @@
       </c>
       <c r="AX20" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW20),AND(AW$4:AW19))),($J20*$G20-LN(1+Jumpoverwrite10*AY$2))/$G20,_xll.qlInterpolationInterpolate(AW$3,$F20,TRUE))</f>
-        <v>-7.2509099869547556E-4</v>
+        <v>-2.9357934612277023E-4</v>
       </c>
       <c r="AY20" s="107" t="str">
         <f>IF(AND(NOT(AW20),AND(AW$4:AW19)),MIN(EXP((AX20-$J20)*$G20),1),"")</f>
@@ -8912,7 +8903,7 @@
       </c>
       <c r="BB20" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA20),AND(BA$4:BA19))),($J20*$G20-LN(1+Jumpoverwrite11*BC$2))/$G20,_xll.qlInterpolationInterpolate(BA$3,$F20,TRUE))</f>
-        <v>-7.2509099869547556E-4</v>
+        <v>-2.9357934612277023E-4</v>
       </c>
       <c r="BC20" s="107" t="str">
         <f>IF(AND(NOT(BA20),AND(BA$4:BA19)),MIN(EXP((BB20-$J20)*$G20),1),"")</f>
@@ -8924,7 +8915,7 @@
       </c>
       <c r="BF20" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE20),AND(BE$4:BE19))),($J20*$G20-LN(1+Jumpoverwrite12*BG$2))/$G20,_xll.qlInterpolationInterpolate(BE$3,$F20,TRUE))</f>
-        <v>-7.2509099869547556E-4</v>
+        <v>-2.9357934612277023E-4</v>
       </c>
       <c r="BG20" s="107" t="str">
         <f>IF(AND(NOT(BE20),AND(BE$4:BE19)),MIN(EXP((BF20-$J20)*$G20),1),"")</f>
@@ -8936,7 +8927,7 @@
       </c>
       <c r="BJ20" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI20),AND(BI$4:BI19))),($J20*$G20-LN(1+jumpoverwrite13*BK$2))/$G20,_xll.qlInterpolationInterpolate(BI$3,$F20,TRUE))</f>
-        <v>-7.2509099869547556E-4</v>
+        <v>-2.9357934612277023E-4</v>
       </c>
       <c r="BK20" s="107" t="str">
         <f>IF(AND(NOT(BI20),AND(BI$4:BI19)),MIN(EXP((BJ20-$J20)*$G20),1),"")</f>
@@ -8945,38 +8936,38 @@
     </row>
     <row r="21" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A21" s="94" t="str">
-        <v>WEURECBOISSEP15</v>
+        <v>WEUREON11M</v>
       </c>
       <c r="B21" s="27">
         <f>_xll.qlRateHelperRate($A21,InterestRatesTrigger)</f>
-        <v>-6.6E-4</v>
+        <v>-4.0999999999999994E-4</v>
       </c>
       <c r="C21" s="30">
         <f>_xll.qlRateHelperEarliestDate($A21)</f>
-        <v>42256</v>
+        <v>41984</v>
       </c>
       <c r="D21" s="31">
         <f>_xll.qlRateHelperLatestDate($A21)</f>
-        <v>42305</v>
+        <v>42319</v>
       </c>
       <c r="F21" s="120">
         <f t="shared" si="0"/>
-        <v>42288.5</v>
+        <v>42312</v>
       </c>
       <c r="G21" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D20,D21)</f>
-        <v>9.166666666666666E-2</v>
+        <v>3.888888888888889E-2</v>
       </c>
       <c r="I21" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J21" s="137">
-        <v>-6.2848474887398616E-4</v>
+        <v>-9.7923447766210805E-4</v>
       </c>
       <c r="K21" s="111">
         <f t="shared" si="3"/>
-        <v>42305</v>
+        <v>42319</v>
       </c>
       <c r="L21" s="100"/>
       <c r="M21" s="106" t="b">
@@ -8985,7 +8976,7 @@
       </c>
       <c r="N21" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M21),AND(M$4:M20))),($J21*$G21-LN(1+Jumpoverwrite1*O$2))/$G21,_xll.qlInterpolationInterpolate(M$3,$F21,TRUE))</f>
-        <v>-7.008918644820036E-4</v>
+        <v>-3.4606453644499318E-4</v>
       </c>
       <c r="O21" s="107" t="str">
         <f>IF(AND(NOT(M21),AND(M$4:M20)),MIN(EXP((N21-$J21)*$G21),1),"")</f>
@@ -8998,7 +8989,7 @@
       </c>
       <c r="R21" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q21),AND(Q$4:Q20))),($J21*$G21-LN(1+Jumpoverwrite2*S$2))/$G21,_xll.qlInterpolationInterpolate(Q$3,$F21,TRUE))</f>
-        <v>-7.008918644820036E-4</v>
+        <v>-3.4606453644499318E-4</v>
       </c>
       <c r="S21" s="107" t="str">
         <f>IF(AND(NOT(Q21),AND(Q$4:Q20)),MIN(EXP((R21-$J21)*$G21),1),"")</f>
@@ -9011,7 +9002,7 @@
       </c>
       <c r="V21" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U21),AND(U$4:U20))),($J21*$G21-LN(1+Jumpoverwrite3*W$2))/$G21,_xll.qlInterpolationInterpolate(U$3,$F21,TRUE))</f>
-        <v>-7.008918644820036E-4</v>
+        <v>-3.4606453644499318E-4</v>
       </c>
       <c r="W21" s="107" t="str">
         <f>IF(AND(NOT(U21),AND(U$4:U20)),MIN(EXP((V21-$J21)*$G21),1),"")</f>
@@ -9024,7 +9015,7 @@
       </c>
       <c r="Z21" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y21),AND(Y$4:Y20))),($J21*$G21-LN(1+Jumpoverwrite4*AA$2))/$G21,_xll.qlInterpolationInterpolate(Y$3,$F21,TRUE))</f>
-        <v>-7.008918644820036E-4</v>
+        <v>-3.4606453644499318E-4</v>
       </c>
       <c r="AA21" s="107" t="str">
         <f>IF(AND(NOT(Y21),AND(Y$4:Y20)),MIN(EXP((Z21-$J21)*$G21),1),"")</f>
@@ -9037,7 +9028,7 @@
       </c>
       <c r="AD21" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC21),AND(AC$4:AC20))),($J21*$G21-LN(1+Jumpoverwrite5*AE$2))/$G21,_xll.qlInterpolationInterpolate(AC$3,$F21,TRUE))</f>
-        <v>-7.008918644820036E-4</v>
+        <v>-3.4606453644499318E-4</v>
       </c>
       <c r="AE21" s="107" t="str">
         <f>IF(AND(NOT(AC21),AND(AC$4:AC20)),MIN(EXP((AD21-$J21)*$G21),1),"")</f>
@@ -9050,7 +9041,7 @@
       </c>
       <c r="AH21" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG21),AND(AG$4:AG20))),($J21*$G21-LN(1+Jumpoverwrite6*AI$2))/$G21,_xll.qlInterpolationInterpolate(AG$3,$F21,TRUE))</f>
-        <v>-7.008918644820036E-4</v>
+        <v>-3.4606453644499318E-4</v>
       </c>
       <c r="AI21" s="107" t="str">
         <f>IF(AND(NOT(AG21),AND(AG$4:AG20)),MIN(EXP((AH21-$J21)*$G21),1),"")</f>
@@ -9063,7 +9054,7 @@
       </c>
       <c r="AL21" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK21),AND(AK$4:AK20))),($J21*$G21-LN(1+Jumpoverwrite7*AM$2))/$G21,_xll.qlInterpolationInterpolate(AK$3,$F21,TRUE))</f>
-        <v>-7.008918644820036E-4</v>
+        <v>-3.4606453644499318E-4</v>
       </c>
       <c r="AM21" s="107" t="str">
         <f>IF(AND(NOT(AK21),AND(AK$4:AK20)),MIN(EXP((AL21-$J21)*$G21),1),"")</f>
@@ -9075,7 +9066,7 @@
       </c>
       <c r="AP21" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO21),AND(AO$4:AO20))),($J21*$G21-LN(1+Jumpoverwrite8*AQ$2))/$G21,_xll.qlInterpolationInterpolate(AO$3,$F21,TRUE))</f>
-        <v>-7.008918644820036E-4</v>
+        <v>-3.4606453644499318E-4</v>
       </c>
       <c r="AQ21" s="107" t="str">
         <f>IF(AND(NOT(AO21),AND(AO$4:AO20)),MIN(EXP((AP21-$J21)*$G21),1),"")</f>
@@ -9087,7 +9078,7 @@
       </c>
       <c r="AT21" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS21),AND(AS$4:AS20))),($J21*$G21-LN(1+Jumpoverwrite9*AU$2))/$G21,_xll.qlInterpolationInterpolate(AS$3,$F21,TRUE))</f>
-        <v>-7.008918644820036E-4</v>
+        <v>-3.4606453644499318E-4</v>
       </c>
       <c r="AU21" s="107" t="str">
         <f>IF(AND(NOT(AS21),AND(AS$4:AS20)),MIN(EXP((AT21-$J21)*$G21),1),"")</f>
@@ -9099,7 +9090,7 @@
       </c>
       <c r="AX21" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW21),AND(AW$4:AW20))),($J21*$G21-LN(1+Jumpoverwrite10*AY$2))/$G21,_xll.qlInterpolationInterpolate(AW$3,$F21,TRUE))</f>
-        <v>-7.008918644820036E-4</v>
+        <v>-3.4606453644499318E-4</v>
       </c>
       <c r="AY21" s="107" t="str">
         <f>IF(AND(NOT(AW21),AND(AW$4:AW20)),MIN(EXP((AX21-$J21)*$G21),1),"")</f>
@@ -9111,11 +9102,11 @@
       </c>
       <c r="BB21" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA21),AND(BA$4:BA20))),($J21*$G21-LN(1+Jumpoverwrite11*BC$2))/$G21,_xll.qlInterpolationInterpolate(BA$3,$F21,TRUE))</f>
-        <v>-7.008918644820036E-4</v>
+        <v>-3.4606453644499318E-4</v>
       </c>
       <c r="BC21" s="107">
         <f>IF(AND(NOT(BA21),AND(BA$4:BA20)),MIN(EXP((BB21-$J21)*$G21),1),"")</f>
-        <v>0.99999336270309624</v>
+        <v>1</v>
       </c>
       <c r="BE21" s="106" t="b">
         <f>IF(AND(NOT(BA21),AND(BA$4:BA20)),TRUE,BA21)</f>
@@ -9123,7 +9114,7 @@
       </c>
       <c r="BF21" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE21),AND(BE$4:BE20))),($J21*$G21-LN(1+Jumpoverwrite12*BG$2))/$G21,_xll.qlInterpolationInterpolate(BE$3,$F21,TRUE))</f>
-        <v>-7.008918644820036E-4</v>
+        <v>-3.4606453644499318E-4</v>
       </c>
       <c r="BG21" s="107" t="str">
         <f>IF(AND(NOT(BE21),AND(BE$4:BE20)),MIN(EXP((BF21-$J21)*$G21),1),"")</f>
@@ -9135,7 +9126,7 @@
       </c>
       <c r="BJ21" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI21),AND(BI$4:BI20))),($J21*$G21-LN(1+jumpoverwrite13*BK$2))/$G21,_xll.qlInterpolationInterpolate(BI$3,$F21,TRUE))</f>
-        <v>-7.008918644820036E-4</v>
+        <v>-3.4606453644499318E-4</v>
       </c>
       <c r="BK21" s="107" t="str">
         <f>IF(AND(NOT(BI21),AND(BI$4:BI20)),MIN(EXP((BJ21-$J21)*$G21),1),"")</f>
@@ -9144,23 +9135,23 @@
     </row>
     <row r="22" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A22" s="94" t="str">
-        <v>WEUREON1Y</v>
+        <v>WEURECBOISOCT15</v>
       </c>
       <c r="B22" s="27">
         <f>_xll.qlRateHelperRate($A22,InterestRatesTrigger)</f>
-        <v>-3.5999999999999997E-4</v>
+        <v>-5.6999999999999998E-4</v>
       </c>
       <c r="C22" s="30">
         <f>_xll.qlRateHelperEarliestDate($A22)</f>
-        <v>41968</v>
+        <v>42305</v>
       </c>
       <c r="D22" s="31">
         <f>_xll.qlRateHelperLatestDate($A22)</f>
-        <v>42333</v>
+        <v>42347</v>
       </c>
       <c r="F22" s="120">
         <f t="shared" si="0"/>
-        <v>42319</v>
+        <v>42333</v>
       </c>
       <c r="G22" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D21,D22)</f>
@@ -9171,11 +9162,11 @@
         <v>0</v>
       </c>
       <c r="J22" s="137">
-        <v>-5.8684473210764013E-4</v>
+        <v>-3.6541119118195162E-4</v>
       </c>
       <c r="K22" s="111">
         <f t="shared" si="3"/>
-        <v>42333</v>
+        <v>42347</v>
       </c>
       <c r="L22" s="100"/>
       <c r="M22" s="106" t="b">
@@ -9184,7 +9175,7 @@
       </c>
       <c r="N22" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M22),AND(M$4:M21))),($J22*$G22-LN(1+Jumpoverwrite1*O$2))/$G22,_xll.qlInterpolationInterpolate(M$3,$F22,TRUE))</f>
-        <v>-6.707664116856406E-4</v>
+        <v>-4.1954380289610532E-4</v>
       </c>
       <c r="O22" s="107" t="str">
         <f>IF(AND(NOT(M22),AND(M$4:M21)),MIN(EXP((N22-$J22)*$G22),1),"")</f>
@@ -9197,7 +9188,7 @@
       </c>
       <c r="R22" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q22),AND(Q$4:Q21))),($J22*$G22-LN(1+Jumpoverwrite2*S$2))/$G22,_xll.qlInterpolationInterpolate(Q$3,$F22,TRUE))</f>
-        <v>-6.707664116856406E-4</v>
+        <v>-4.1954380289610532E-4</v>
       </c>
       <c r="S22" s="107" t="str">
         <f>IF(AND(NOT(Q22),AND(Q$4:Q21)),MIN(EXP((R22-$J22)*$G22),1),"")</f>
@@ -9210,7 +9201,7 @@
       </c>
       <c r="V22" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U22),AND(U$4:U21))),($J22*$G22-LN(1+Jumpoverwrite3*W$2))/$G22,_xll.qlInterpolationInterpolate(U$3,$F22,TRUE))</f>
-        <v>-6.707664116856406E-4</v>
+        <v>-4.1954380289610532E-4</v>
       </c>
       <c r="W22" s="107" t="str">
         <f>IF(AND(NOT(U22),AND(U$4:U21)),MIN(EXP((V22-$J22)*$G22),1),"")</f>
@@ -9223,7 +9214,7 @@
       </c>
       <c r="Z22" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y22),AND(Y$4:Y21))),($J22*$G22-LN(1+Jumpoverwrite4*AA$2))/$G22,_xll.qlInterpolationInterpolate(Y$3,$F22,TRUE))</f>
-        <v>-6.707664116856406E-4</v>
+        <v>-4.1954380289610532E-4</v>
       </c>
       <c r="AA22" s="107" t="str">
         <f>IF(AND(NOT(Y22),AND(Y$4:Y21)),MIN(EXP((Z22-$J22)*$G22),1),"")</f>
@@ -9236,7 +9227,7 @@
       </c>
       <c r="AD22" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC22),AND(AC$4:AC21))),($J22*$G22-LN(1+Jumpoverwrite5*AE$2))/$G22,_xll.qlInterpolationInterpolate(AC$3,$F22,TRUE))</f>
-        <v>-6.707664116856406E-4</v>
+        <v>-4.1954380289610532E-4</v>
       </c>
       <c r="AE22" s="107" t="str">
         <f>IF(AND(NOT(AC22),AND(AC$4:AC21)),MIN(EXP((AD22-$J22)*$G22),1),"")</f>
@@ -9249,7 +9240,7 @@
       </c>
       <c r="AH22" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG22),AND(AG$4:AG21))),($J22*$G22-LN(1+Jumpoverwrite6*AI$2))/$G22,_xll.qlInterpolationInterpolate(AG$3,$F22,TRUE))</f>
-        <v>-6.707664116856406E-4</v>
+        <v>-4.1954380289610532E-4</v>
       </c>
       <c r="AI22" s="107" t="str">
         <f>IF(AND(NOT(AG22),AND(AG$4:AG21)),MIN(EXP((AH22-$J22)*$G22),1),"")</f>
@@ -9262,7 +9253,7 @@
       </c>
       <c r="AL22" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK22),AND(AK$4:AK21))),($J22*$G22-LN(1+Jumpoverwrite7*AM$2))/$G22,_xll.qlInterpolationInterpolate(AK$3,$F22,TRUE))</f>
-        <v>-6.707664116856406E-4</v>
+        <v>-4.1954380289610532E-4</v>
       </c>
       <c r="AM22" s="107" t="str">
         <f>IF(AND(NOT(AK22),AND(AK$4:AK21)),MIN(EXP((AL22-$J22)*$G22),1),"")</f>
@@ -9274,7 +9265,7 @@
       </c>
       <c r="AP22" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO22),AND(AO$4:AO21))),($J22*$G22-LN(1+Jumpoverwrite8*AQ$2))/$G22,_xll.qlInterpolationInterpolate(AO$3,$F22,TRUE))</f>
-        <v>-6.707664116856406E-4</v>
+        <v>-4.1954380289610532E-4</v>
       </c>
       <c r="AQ22" s="107" t="str">
         <f>IF(AND(NOT(AO22),AND(AO$4:AO21)),MIN(EXP((AP22-$J22)*$G22),1),"")</f>
@@ -9286,7 +9277,7 @@
       </c>
       <c r="AT22" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS22),AND(AS$4:AS21))),($J22*$G22-LN(1+Jumpoverwrite9*AU$2))/$G22,_xll.qlInterpolationInterpolate(AS$3,$F22,TRUE))</f>
-        <v>-6.707664116856406E-4</v>
+        <v>-4.1954380289610532E-4</v>
       </c>
       <c r="AU22" s="107" t="str">
         <f>IF(AND(NOT(AS22),AND(AS$4:AS21)),MIN(EXP((AT22-$J22)*$G22),1),"")</f>
@@ -9298,7 +9289,7 @@
       </c>
       <c r="AX22" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW22),AND(AW$4:AW21))),($J22*$G22-LN(1+Jumpoverwrite10*AY$2))/$G22,_xll.qlInterpolationInterpolate(AW$3,$F22,TRUE))</f>
-        <v>-6.707664116856406E-4</v>
+        <v>-4.1954380289610532E-4</v>
       </c>
       <c r="AY22" s="107" t="str">
         <f>IF(AND(NOT(AW22),AND(AW$4:AW21)),MIN(EXP((AX22-$J22)*$G22),1),"")</f>
@@ -9310,7 +9301,7 @@
       </c>
       <c r="BB22" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA22),AND(BA$4:BA21))),($J22*$G22-LN(1+Jumpoverwrite11*BC$2))/$G22,_xll.qlInterpolationInterpolate(BA$3,$F22,TRUE))</f>
-        <v>-6.707664116856406E-4</v>
+        <v>-4.1954380289610532E-4</v>
       </c>
       <c r="BC22" s="107" t="str">
         <f>IF(AND(NOT(BA22),AND(BA$4:BA21)),MIN(EXP((BB22-$J22)*$G22),1),"")</f>
@@ -9322,11 +9313,11 @@
       </c>
       <c r="BF22" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE22),AND(BE$4:BE21))),($J22*$G22-LN(1+Jumpoverwrite12*BG$2))/$G22,_xll.qlInterpolationInterpolate(BE$3,$F22,TRUE))</f>
-        <v>-6.9398714282510794E-4</v>
+        <v>-4.1954380289610532E-4</v>
       </c>
       <c r="BG22" s="107">
         <f>IF(AND(NOT(BE22),AND(BE$4:BE21)),MIN(EXP((BF22-$J22)*$G22),1),"")</f>
-        <v>0.99999166673611051</v>
+        <v>0.99999578969461889</v>
       </c>
       <c r="BI22" s="106" t="b">
         <f t="shared" si="1"/>
@@ -9334,7 +9325,7 @@
       </c>
       <c r="BJ22" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI22),AND(BI$4:BI21))),($J22*$G22-LN(1+jumpoverwrite13*BK$2))/$G22,_xll.qlInterpolationInterpolate(BI$3,$F22,TRUE))</f>
-        <v>-6.9398714282510794E-4</v>
+        <v>-4.1954380289610532E-4</v>
       </c>
       <c r="BK22" s="107" t="str">
         <f>IF(AND(NOT(BI22),AND(BI$4:BI21)),MIN(EXP((BJ22-$J22)*$G22),1),"")</f>
@@ -9343,38 +9334,38 @@
     </row>
     <row r="23" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A23" s="94" t="str">
-        <v>WEURECBOISOCT15</v>
+        <v>WEURECBOISDEC15</v>
       </c>
       <c r="B23" s="27">
         <f>_xll.qlRateHelperRate($A23,InterestRatesTrigger)</f>
-        <v>-6.4999999999999997E-4</v>
+        <v>-3.4000000000000002E-4</v>
       </c>
       <c r="C23" s="30">
         <f>_xll.qlRateHelperEarliestDate($A23)</f>
-        <v>42305</v>
+        <v>42347</v>
       </c>
       <c r="D23" s="31">
         <f>_xll.qlRateHelperLatestDate($A23)</f>
-        <v>42347</v>
+        <v>42395</v>
       </c>
       <c r="F23" s="120">
         <f t="shared" si="0"/>
-        <v>42340</v>
+        <v>42371</v>
       </c>
       <c r="G23" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D22,D23)</f>
-        <v>3.888888888888889E-2</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="I23" s="138" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J23" s="137">
-        <v>-7.7638447702389984E-4</v>
+        <v>-3.4000770689959076E-4</v>
       </c>
       <c r="K23" s="111">
         <f t="shared" si="3"/>
-        <v>42347</v>
+        <v>42395</v>
       </c>
       <c r="L23" s="100"/>
       <c r="M23" s="106" t="b">
@@ -9383,7 +9374,7 @@
       </c>
       <c r="N23" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M23),AND(M$4:M22))),($J23*$G23-LN(1+Jumpoverwrite1*O$2))/$G23,_xll.qlInterpolationInterpolate(M$3,$F23,TRUE))</f>
-        <v>-6.5002429664552175E-4</v>
+        <v>-5.5250628504573671E-4</v>
       </c>
       <c r="O23" s="107" t="str">
         <f>IF(AND(NOT(M23),AND(M$4:M22)),MIN(EXP((N23-$J23)*$G23),1),"")</f>
@@ -9396,7 +9387,7 @@
       </c>
       <c r="R23" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q23),AND(Q$4:Q22))),($J23*$G23-LN(1+Jumpoverwrite2*S$2))/$G23,_xll.qlInterpolationInterpolate(Q$3,$F23,TRUE))</f>
-        <v>-6.5002429664552175E-4</v>
+        <v>-5.5250628504573671E-4</v>
       </c>
       <c r="S23" s="107" t="str">
         <f>IF(AND(NOT(Q23),AND(Q$4:Q22)),MIN(EXP((R23-$J23)*$G23),1),"")</f>
@@ -9409,7 +9400,7 @@
       </c>
       <c r="V23" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U23),AND(U$4:U22))),($J23*$G23-LN(1+Jumpoverwrite3*W$2))/$G23,_xll.qlInterpolationInterpolate(U$3,$F23,TRUE))</f>
-        <v>-6.5002429664552175E-4</v>
+        <v>-5.5250628504573671E-4</v>
       </c>
       <c r="W23" s="107" t="str">
         <f>IF(AND(NOT(U23),AND(U$4:U22)),MIN(EXP((V23-$J23)*$G23),1),"")</f>
@@ -9422,7 +9413,7 @@
       </c>
       <c r="Z23" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y23),AND(Y$4:Y22))),($J23*$G23-LN(1+Jumpoverwrite4*AA$2))/$G23,_xll.qlInterpolationInterpolate(Y$3,$F23,TRUE))</f>
-        <v>-6.5002429664552175E-4</v>
+        <v>-5.5250628504573671E-4</v>
       </c>
       <c r="AA23" s="107" t="str">
         <f>IF(AND(NOT(Y23),AND(Y$4:Y22)),MIN(EXP((Z23-$J23)*$G23),1),"")</f>
@@ -9435,7 +9426,7 @@
       </c>
       <c r="AD23" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC23),AND(AC$4:AC22))),($J23*$G23-LN(1+Jumpoverwrite5*AE$2))/$G23,_xll.qlInterpolationInterpolate(AC$3,$F23,TRUE))</f>
-        <v>-6.5002429664552175E-4</v>
+        <v>-5.5250628504573671E-4</v>
       </c>
       <c r="AE23" s="107" t="str">
         <f>IF(AND(NOT(AC23),AND(AC$4:AC22)),MIN(EXP((AD23-$J23)*$G23),1),"")</f>
@@ -9448,7 +9439,7 @@
       </c>
       <c r="AH23" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG23),AND(AG$4:AG22))),($J23*$G23-LN(1+Jumpoverwrite6*AI$2))/$G23,_xll.qlInterpolationInterpolate(AG$3,$F23,TRUE))</f>
-        <v>-6.5002429664552175E-4</v>
+        <v>-5.5250628504573671E-4</v>
       </c>
       <c r="AI23" s="107" t="str">
         <f>IF(AND(NOT(AG23),AND(AG$4:AG22)),MIN(EXP((AH23-$J23)*$G23),1),"")</f>
@@ -9461,7 +9452,7 @@
       </c>
       <c r="AL23" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK23),AND(AK$4:AK22))),($J23*$G23-LN(1+Jumpoverwrite7*AM$2))/$G23,_xll.qlInterpolationInterpolate(AK$3,$F23,TRUE))</f>
-        <v>-6.5002429664552175E-4</v>
+        <v>-5.5250628504573671E-4</v>
       </c>
       <c r="AM23" s="107" t="str">
         <f>IF(AND(NOT(AK23),AND(AK$4:AK22)),MIN(EXP((AL23-$J23)*$G23),1),"")</f>
@@ -9473,7 +9464,7 @@
       </c>
       <c r="AP23" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO23),AND(AO$4:AO22))),($J23*$G23-LN(1+Jumpoverwrite8*AQ$2))/$G23,_xll.qlInterpolationInterpolate(AO$3,$F23,TRUE))</f>
-        <v>-6.5002429664552175E-4</v>
+        <v>-5.5250628504573671E-4</v>
       </c>
       <c r="AQ23" s="107" t="str">
         <f>IF(AND(NOT(AO23),AND(AO$4:AO22)),MIN(EXP((AP23-$J23)*$G23),1),"")</f>
@@ -9485,7 +9476,7 @@
       </c>
       <c r="AT23" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS23),AND(AS$4:AS22))),($J23*$G23-LN(1+Jumpoverwrite9*AU$2))/$G23,_xll.qlInterpolationInterpolate(AS$3,$F23,TRUE))</f>
-        <v>-6.5002429664552175E-4</v>
+        <v>-5.5250628504573671E-4</v>
       </c>
       <c r="AU23" s="107" t="str">
         <f>IF(AND(NOT(AS23),AND(AS$4:AS22)),MIN(EXP((AT23-$J23)*$G23),1),"")</f>
@@ -9497,7 +9488,7 @@
       </c>
       <c r="AX23" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW23),AND(AW$4:AW22))),($J23*$G23-LN(1+Jumpoverwrite10*AY$2))/$G23,_xll.qlInterpolationInterpolate(AW$3,$F23,TRUE))</f>
-        <v>-6.5002429664552175E-4</v>
+        <v>-5.5250628504573671E-4</v>
       </c>
       <c r="AY23" s="107" t="str">
         <f>IF(AND(NOT(AW23),AND(AW$4:AW22)),MIN(EXP((AX23-$J23)*$G23),1),"")</f>
@@ -9509,7 +9500,7 @@
       </c>
       <c r="BB23" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA23),AND(BA$4:BA22))),($J23*$G23-LN(1+Jumpoverwrite11*BC$2))/$G23,_xll.qlInterpolationInterpolate(BA$3,$F23,TRUE))</f>
-        <v>-6.5002429664552175E-4</v>
+        <v>-5.5250628504573671E-4</v>
       </c>
       <c r="BC23" s="107" t="str">
         <f>IF(AND(NOT(BA23),AND(BA$4:BA22)),MIN(EXP((BB23-$J23)*$G23),1),"")</f>
@@ -9521,7 +9512,7 @@
       </c>
       <c r="BF23" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE23),AND(BE$4:BE22))),($J23*$G23-LN(1+Jumpoverwrite12*BG$2))/$G23,_xll.qlInterpolationInterpolate(BE$3,$F23,TRUE))</f>
-        <v>-6.5002429664552175E-4</v>
+        <v>-5.5250628504573671E-4</v>
       </c>
       <c r="BG23" s="107" t="str">
         <f>IF(AND(NOT(BE23),AND(BE$4:BE22)),MIN(EXP((BF23-$J23)*$G23),1),"")</f>
@@ -9529,60 +9520,60 @@
       </c>
       <c r="BI23" s="106" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ23" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI23),AND(BI$4:BI22))),($J23*$G23-LN(1+jumpoverwrite13*BK$2))/$G23,_xll.qlInterpolationInterpolate(BI$3,$F23,TRUE))</f>
-        <v>-6.5002429664552175E-4</v>
-      </c>
-      <c r="BK23" s="107" t="str">
+        <v>-5.5250628504573682E-4</v>
+      </c>
+      <c r="BK23" s="107">
         <f>IF(AND(NOT(BI23),AND(BI$4:BI22)),MIN(EXP((BJ23-$J23)*$G23),1),"")</f>
-        <v/>
+        <v>0.99997166725762687</v>
       </c>
     </row>
     <row r="24" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A24" s="94" t="str">
-        <v>WEURECBOISDEC15</v>
+        <v>WEUREON15M</v>
       </c>
       <c r="B24" s="27">
         <f>_xll.qlRateHelperRate($A24,InterestRatesTrigger)</f>
-        <v>-3.4000000000000002E-4</v>
+        <v>-4.2999999999999999E-4</v>
       </c>
       <c r="C24" s="30">
         <f>_xll.qlRateHelperEarliestDate($A24)</f>
-        <v>42347</v>
+        <v>41984</v>
       </c>
       <c r="D24" s="31">
         <f>_xll.qlRateHelperLatestDate($A24)</f>
-        <v>42395</v>
+        <v>42440</v>
       </c>
       <c r="F24" s="120">
         <f t="shared" si="0"/>
-        <v>42371</v>
+        <v>42417.5</v>
       </c>
       <c r="G24" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D23,D24)</f>
-        <v>0.13333333333333333</v>
+        <v>0.125</v>
       </c>
       <c r="I24" s="138" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" s="137">
-        <v>-3.4000770690004645E-4</v>
+        <v>-7.1521037504462793E-4</v>
       </c>
       <c r="K24" s="111">
         <f t="shared" si="3"/>
-        <v>42395</v>
+        <v>42440</v>
       </c>
       <c r="L24" s="100"/>
       <c r="M24" s="106" t="b">
         <f>IF(AND(NOT(I24),AND(I$4:I23)),TRUE,I24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M24),AND(M$4:M23))),($J24*$G24-LN(1+Jumpoverwrite1*O$2))/$G24,_xll.qlInterpolationInterpolate(M$3,$F24,TRUE))</f>
-        <v>-6.1940498396725115E-4</v>
+        <v>-7.1521037504462793E-4</v>
       </c>
       <c r="O24" s="107" t="str">
         <f>IF(AND(NOT(M24),AND(M$4:M23)),MIN(EXP((N24-$J24)*$G24),1),"")</f>
@@ -9591,11 +9582,11 @@
       <c r="P24" s="109"/>
       <c r="Q24" s="106" t="b">
         <f>IF(AND(NOT(M24),AND(M$4:M23)),TRUE,M24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q24),AND(Q$4:Q23))),($J24*$G24-LN(1+Jumpoverwrite2*S$2))/$G24,_xll.qlInterpolationInterpolate(Q$3,$F24,TRUE))</f>
-        <v>-6.1940498396725115E-4</v>
+        <v>-7.1521037504462793E-4</v>
       </c>
       <c r="S24" s="107" t="str">
         <f>IF(AND(NOT(Q24),AND(Q$4:Q23)),MIN(EXP((R24-$J24)*$G24),1),"")</f>
@@ -9604,11 +9595,11 @@
       <c r="T24" s="109"/>
       <c r="U24" s="106" t="b">
         <f>IF(AND(NOT(Q24),AND(Q$4:Q23)),TRUE,Q24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U24),AND(U$4:U23))),($J24*$G24-LN(1+Jumpoverwrite3*W$2))/$G24,_xll.qlInterpolationInterpolate(U$3,$F24,TRUE))</f>
-        <v>-6.1940498396725115E-4</v>
+        <v>-7.1521037504462793E-4</v>
       </c>
       <c r="W24" s="107" t="str">
         <f>IF(AND(NOT(U24),AND(U$4:U23)),MIN(EXP((V24-$J24)*$G24),1),"")</f>
@@ -9617,11 +9608,11 @@
       <c r="X24" s="109"/>
       <c r="Y24" s="106" t="b">
         <f>IF(AND(NOT(U24),AND(U$4:U23)),TRUE,U24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z24" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y24),AND(Y$4:Y23))),($J24*$G24-LN(1+Jumpoverwrite4*AA$2))/$G24,_xll.qlInterpolationInterpolate(Y$3,$F24,TRUE))</f>
-        <v>-6.1940498396725115E-4</v>
+        <v>-7.1521037504462793E-4</v>
       </c>
       <c r="AA24" s="107" t="str">
         <f>IF(AND(NOT(Y24),AND(Y$4:Y23)),MIN(EXP((Z24-$J24)*$G24),1),"")</f>
@@ -9630,11 +9621,11 @@
       <c r="AB24" s="109"/>
       <c r="AC24" s="106" t="b">
         <f>IF(AND(NOT(Y24),AND(Y$4:Y23)),TRUE,Y24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD24" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC24),AND(AC$4:AC23))),($J24*$G24-LN(1+Jumpoverwrite5*AE$2))/$G24,_xll.qlInterpolationInterpolate(AC$3,$F24,TRUE))</f>
-        <v>-6.1940498396725115E-4</v>
+        <v>-7.1521037504462793E-4</v>
       </c>
       <c r="AE24" s="107" t="str">
         <f>IF(AND(NOT(AC24),AND(AC$4:AC23)),MIN(EXP((AD24-$J24)*$G24),1),"")</f>
@@ -9643,11 +9634,11 @@
       <c r="AF24" s="109"/>
       <c r="AG24" s="106" t="b">
         <f>IF(AND(NOT(AC24),AND(AC$4:AC23)),TRUE,AC24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH24" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG24),AND(AG$4:AG23))),($J24*$G24-LN(1+Jumpoverwrite6*AI$2))/$G24,_xll.qlInterpolationInterpolate(AG$3,$F24,TRUE))</f>
-        <v>-6.1940498396725115E-4</v>
+        <v>-7.1521037504462793E-4</v>
       </c>
       <c r="AI24" s="107" t="str">
         <f>IF(AND(NOT(AG24),AND(AG$4:AG23)),MIN(EXP((AH24-$J24)*$G24),1),"")</f>
@@ -9656,11 +9647,11 @@
       <c r="AJ24" s="109"/>
       <c r="AK24" s="106" t="b">
         <f>IF(AND(NOT(AG24),AND(AG$4:AG23)),TRUE,AG24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL24" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK24),AND(AK$4:AK23))),($J24*$G24-LN(1+Jumpoverwrite7*AM$2))/$G24,_xll.qlInterpolationInterpolate(AK$3,$F24,TRUE))</f>
-        <v>-6.1940498396725115E-4</v>
+        <v>-7.1521037504462793E-4</v>
       </c>
       <c r="AM24" s="107" t="str">
         <f>IF(AND(NOT(AK24),AND(AK$4:AK23)),MIN(EXP((AL24-$J24)*$G24),1),"")</f>
@@ -9668,11 +9659,11 @@
       </c>
       <c r="AO24" s="106" t="b">
         <f>IF(AND(NOT(AK24),AND(AK$4:AK23)),TRUE,AK24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP24" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO24),AND(AO$4:AO23))),($J24*$G24-LN(1+Jumpoverwrite8*AQ$2))/$G24,_xll.qlInterpolationInterpolate(AO$3,$F24,TRUE))</f>
-        <v>-6.1940498396725115E-4</v>
+        <v>-7.1521037504462793E-4</v>
       </c>
       <c r="AQ24" s="107" t="str">
         <f>IF(AND(NOT(AO24),AND(AO$4:AO23)),MIN(EXP((AP24-$J24)*$G24),1),"")</f>
@@ -9680,11 +9671,11 @@
       </c>
       <c r="AS24" s="106" t="b">
         <f>IF(AND(NOT(AO24),AND(AO$4:AO23)),TRUE,AO24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT24" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS24),AND(AS$4:AS23))),($J24*$G24-LN(1+Jumpoverwrite9*AU$2))/$G24,_xll.qlInterpolationInterpolate(AS$3,$F24,TRUE))</f>
-        <v>-6.1940498396725115E-4</v>
+        <v>-7.1521037504462793E-4</v>
       </c>
       <c r="AU24" s="107" t="str">
         <f>IF(AND(NOT(AS24),AND(AS$4:AS23)),MIN(EXP((AT24-$J24)*$G24),1),"")</f>
@@ -9692,11 +9683,11 @@
       </c>
       <c r="AW24" s="106" t="b">
         <f>IF(AND(NOT(AS24),AND(AS$4:AS23)),TRUE,AS24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX24" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW24),AND(AW$4:AW23))),($J24*$G24-LN(1+Jumpoverwrite10*AY$2))/$G24,_xll.qlInterpolationInterpolate(AW$3,$F24,TRUE))</f>
-        <v>-6.1940498396725115E-4</v>
+        <v>-7.1521037504462793E-4</v>
       </c>
       <c r="AY24" s="107" t="str">
         <f>IF(AND(NOT(AW24),AND(AW$4:AW23)),MIN(EXP((AX24-$J24)*$G24),1),"")</f>
@@ -9704,11 +9695,11 @@
       </c>
       <c r="BA24" s="106" t="b">
         <f>IF(AND(NOT(AW24),AND(AW$4:AW23)),TRUE,AW24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB24" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA24),AND(BA$4:BA23))),($J24*$G24-LN(1+Jumpoverwrite11*BC$2))/$G24,_xll.qlInterpolationInterpolate(BA$3,$F24,TRUE))</f>
-        <v>-6.1940498396725115E-4</v>
+        <v>-7.1521037504462793E-4</v>
       </c>
       <c r="BC24" s="107" t="str">
         <f>IF(AND(NOT(BA24),AND(BA$4:BA23)),MIN(EXP((BB24-$J24)*$G24),1),"")</f>
@@ -9716,11 +9707,11 @@
       </c>
       <c r="BE24" s="106" t="b">
         <f>IF(AND(NOT(BA24),AND(BA$4:BA23)),TRUE,BA24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF24" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE24),AND(BE$4:BE23))),($J24*$G24-LN(1+Jumpoverwrite12*BG$2))/$G24,_xll.qlInterpolationInterpolate(BE$3,$F24,TRUE))</f>
-        <v>-6.1940498396725115E-4</v>
+        <v>-7.1521037504462793E-4</v>
       </c>
       <c r="BG24" s="107" t="str">
         <f>IF(AND(NOT(BE24),AND(BE$4:BE23)),MIN(EXP((BF24-$J24)*$G24),1),"")</f>
@@ -9732,56 +9723,56 @@
       </c>
       <c r="BJ24" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI24),AND(BI$4:BI23))),($J24*$G24-LN(1+jumpoverwrite13*BK$2))/$G24,_xll.qlInterpolationInterpolate(BI$3,$F24,TRUE))</f>
-        <v>-7.5666279992068965E-4</v>
-      </c>
-      <c r="BK24" s="107">
+        <v>-7.1521037504462793E-4</v>
+      </c>
+      <c r="BK24" s="107" t="str">
         <f>IF(AND(NOT(BI24),AND(BI$4:BI23)),MIN(EXP((BJ24-$J24)*$G24),1),"")</f>
-        <v>0.99994444753069278</v>
+        <v/>
       </c>
     </row>
     <row r="25" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A25" s="94" t="str">
-        <v>WEUREON15M</v>
+        <v>WEUREON18M</v>
       </c>
       <c r="B25" s="27">
         <f>_xll.qlRateHelperRate($A25,InterestRatesTrigger)</f>
-        <v>-4.0000000000000002E-4</v>
+        <v>-4.0999999999999994E-4</v>
       </c>
       <c r="C25" s="30">
         <f>_xll.qlRateHelperEarliestDate($A25)</f>
-        <v>41968</v>
+        <v>41984</v>
       </c>
       <c r="D25" s="31">
         <f>_xll.qlRateHelperLatestDate($A25)</f>
-        <v>42425</v>
+        <v>42534</v>
       </c>
       <c r="F25" s="120">
         <f t="shared" si="0"/>
-        <v>42410</v>
+        <v>42487</v>
       </c>
       <c r="G25" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D24,D25)</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.26111111111111113</v>
       </c>
       <c r="I25" s="138" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" s="137">
-        <v>-8.0706107878875382E-4</v>
+        <v>-3.1304220427862313E-4</v>
       </c>
       <c r="K25" s="111">
         <f t="shared" si="3"/>
-        <v>42425</v>
+        <v>42534</v>
       </c>
       <c r="L25" s="100"/>
       <c r="M25" s="106" t="b">
         <f>IF(AND(NOT(I25),AND(I$4:I24)),TRUE,I25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M25),AND(M$4:M24))),($J25*$G25-LN(1+Jumpoverwrite1*O$2))/$G25,_xll.qlInterpolationInterpolate(M$3,$F25,TRUE))</f>
-        <v>-5.8088391317845909E-4</v>
+        <v>-3.1304220427862313E-4</v>
       </c>
       <c r="O25" s="107" t="str">
         <f>IF(AND(NOT(M25),AND(M$4:M24)),MIN(EXP((N25-$J25)*$G25),1),"")</f>
@@ -9790,11 +9781,11 @@
       <c r="P25" s="109"/>
       <c r="Q25" s="106" t="b">
         <f>IF(AND(NOT(M25),AND(M$4:M24)),TRUE,M25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q25),AND(Q$4:Q24))),($J25*$G25-LN(1+Jumpoverwrite2*S$2))/$G25,_xll.qlInterpolationInterpolate(Q$3,$F25,TRUE))</f>
-        <v>-5.8088391317845909E-4</v>
+        <v>-3.1304220427862313E-4</v>
       </c>
       <c r="S25" s="107" t="str">
         <f>IF(AND(NOT(Q25),AND(Q$4:Q24)),MIN(EXP((R25-$J25)*$G25),1),"")</f>
@@ -9803,11 +9794,11 @@
       <c r="T25" s="109"/>
       <c r="U25" s="106" t="b">
         <f>IF(AND(NOT(Q25),AND(Q$4:Q24)),TRUE,Q25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U25),AND(U$4:U24))),($J25*$G25-LN(1+Jumpoverwrite3*W$2))/$G25,_xll.qlInterpolationInterpolate(U$3,$F25,TRUE))</f>
-        <v>-5.8088391317845909E-4</v>
+        <v>-3.1304220427862313E-4</v>
       </c>
       <c r="W25" s="107" t="str">
         <f>IF(AND(NOT(U25),AND(U$4:U24)),MIN(EXP((V25-$J25)*$G25),1),"")</f>
@@ -9816,11 +9807,11 @@
       <c r="X25" s="109"/>
       <c r="Y25" s="106" t="b">
         <f>IF(AND(NOT(U25),AND(U$4:U24)),TRUE,U25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z25" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y25),AND(Y$4:Y24))),($J25*$G25-LN(1+Jumpoverwrite4*AA$2))/$G25,_xll.qlInterpolationInterpolate(Y$3,$F25,TRUE))</f>
-        <v>-5.8088391317845909E-4</v>
+        <v>-3.1304220427862313E-4</v>
       </c>
       <c r="AA25" s="107" t="str">
         <f>IF(AND(NOT(Y25),AND(Y$4:Y24)),MIN(EXP((Z25-$J25)*$G25),1),"")</f>
@@ -9829,11 +9820,11 @@
       <c r="AB25" s="109"/>
       <c r="AC25" s="106" t="b">
         <f>IF(AND(NOT(Y25),AND(Y$4:Y24)),TRUE,Y25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD25" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC25),AND(AC$4:AC24))),($J25*$G25-LN(1+Jumpoverwrite5*AE$2))/$G25,_xll.qlInterpolationInterpolate(AC$3,$F25,TRUE))</f>
-        <v>-5.8088391317845909E-4</v>
+        <v>-3.1304220427862313E-4</v>
       </c>
       <c r="AE25" s="107" t="str">
         <f>IF(AND(NOT(AC25),AND(AC$4:AC24)),MIN(EXP((AD25-$J25)*$G25),1),"")</f>
@@ -9842,11 +9833,11 @@
       <c r="AF25" s="109"/>
       <c r="AG25" s="106" t="b">
         <f>IF(AND(NOT(AC25),AND(AC$4:AC24)),TRUE,AC25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH25" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG25),AND(AG$4:AG24))),($J25*$G25-LN(1+Jumpoverwrite6*AI$2))/$G25,_xll.qlInterpolationInterpolate(AG$3,$F25,TRUE))</f>
-        <v>-5.8088391317845909E-4</v>
+        <v>-3.1304220427862313E-4</v>
       </c>
       <c r="AI25" s="107" t="str">
         <f>IF(AND(NOT(AG25),AND(AG$4:AG24)),MIN(EXP((AH25-$J25)*$G25),1),"")</f>
@@ -9855,11 +9846,11 @@
       <c r="AJ25" s="109"/>
       <c r="AK25" s="106" t="b">
         <f>IF(AND(NOT(AG25),AND(AG$4:AG24)),TRUE,AG25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL25" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK25),AND(AK$4:AK24))),($J25*$G25-LN(1+Jumpoverwrite7*AM$2))/$G25,_xll.qlInterpolationInterpolate(AK$3,$F25,TRUE))</f>
-        <v>-5.8088391317845909E-4</v>
+        <v>-3.1304220427862313E-4</v>
       </c>
       <c r="AM25" s="107" t="str">
         <f>IF(AND(NOT(AK25),AND(AK$4:AK24)),MIN(EXP((AL25-$J25)*$G25),1),"")</f>
@@ -9867,11 +9858,11 @@
       </c>
       <c r="AO25" s="106" t="b">
         <f>IF(AND(NOT(AK25),AND(AK$4:AK24)),TRUE,AK25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP25" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO25),AND(AO$4:AO24))),($J25*$G25-LN(1+Jumpoverwrite8*AQ$2))/$G25,_xll.qlInterpolationInterpolate(AO$3,$F25,TRUE))</f>
-        <v>-5.8088391317845909E-4</v>
+        <v>-3.1304220427862313E-4</v>
       </c>
       <c r="AQ25" s="107" t="str">
         <f>IF(AND(NOT(AO25),AND(AO$4:AO24)),MIN(EXP((AP25-$J25)*$G25),1),"")</f>
@@ -9879,11 +9870,11 @@
       </c>
       <c r="AS25" s="106" t="b">
         <f>IF(AND(NOT(AO25),AND(AO$4:AO24)),TRUE,AO25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT25" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS25),AND(AS$4:AS24))),($J25*$G25-LN(1+Jumpoverwrite9*AU$2))/$G25,_xll.qlInterpolationInterpolate(AS$3,$F25,TRUE))</f>
-        <v>-5.8088391317845909E-4</v>
+        <v>-3.1304220427862313E-4</v>
       </c>
       <c r="AU25" s="107" t="str">
         <f>IF(AND(NOT(AS25),AND(AS$4:AS24)),MIN(EXP((AT25-$J25)*$G25),1),"")</f>
@@ -9891,11 +9882,11 @@
       </c>
       <c r="AW25" s="106" t="b">
         <f>IF(AND(NOT(AS25),AND(AS$4:AS24)),TRUE,AS25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX25" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW25),AND(AW$4:AW24))),($J25*$G25-LN(1+Jumpoverwrite10*AY$2))/$G25,_xll.qlInterpolationInterpolate(AW$3,$F25,TRUE))</f>
-        <v>-5.8088391317845909E-4</v>
+        <v>-3.1304220427862313E-4</v>
       </c>
       <c r="AY25" s="107" t="str">
         <f>IF(AND(NOT(AW25),AND(AW$4:AW24)),MIN(EXP((AX25-$J25)*$G25),1),"")</f>
@@ -9903,11 +9894,11 @@
       </c>
       <c r="BA25" s="106" t="b">
         <f>IF(AND(NOT(AW25),AND(AW$4:AW24)),TRUE,AW25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB25" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA25),AND(BA$4:BA24))),($J25*$G25-LN(1+Jumpoverwrite11*BC$2))/$G25,_xll.qlInterpolationInterpolate(BA$3,$F25,TRUE))</f>
-        <v>-5.8088391317845909E-4</v>
+        <v>-3.1304220427862313E-4</v>
       </c>
       <c r="BC25" s="107" t="str">
         <f>IF(AND(NOT(BA25),AND(BA$4:BA24)),MIN(EXP((BB25-$J25)*$G25),1),"")</f>
@@ -9915,11 +9906,11 @@
       </c>
       <c r="BE25" s="106" t="b">
         <f>IF(AND(NOT(BA25),AND(BA$4:BA24)),TRUE,BA25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF25" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE25),AND(BE$4:BE24))),($J25*$G25-LN(1+Jumpoverwrite12*BG$2))/$G25,_xll.qlInterpolationInterpolate(BE$3,$F25,TRUE))</f>
-        <v>-5.8088391317845909E-4</v>
+        <v>-3.1304220427862313E-4</v>
       </c>
       <c r="BG25" s="107" t="str">
         <f>IF(AND(NOT(BE25),AND(BE$4:BE24)),MIN(EXP((BF25-$J25)*$G25),1),"")</f>
@@ -9931,7 +9922,7 @@
       </c>
       <c r="BJ25" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI25),AND(BI$4:BI24))),($J25*$G25-LN(1+jumpoverwrite13*BK$2))/$G25,_xll.qlInterpolationInterpolate(BI$3,$F25,TRUE))</f>
-        <v>-5.0348147604690119E-4</v>
+        <v>-9.5839175687092775E-4</v>
       </c>
       <c r="BK25" s="107" t="str">
         <f>IF(AND(NOT(BI25),AND(BI$4:BI24)),MIN(EXP((BJ25-$J25)*$G25),1),"")</f>
@@ -9940,38 +9931,38 @@
     </row>
     <row r="26" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A26" s="94" t="str">
-        <v>WEUREON18M</v>
+        <v>WEUREON21M</v>
       </c>
       <c r="B26" s="27">
         <f>_xll.qlRateHelperRate($A26,InterestRatesTrigger)</f>
-        <v>-4.2000000000000002E-4</v>
+        <v>-3.7999999999999997E-4</v>
       </c>
       <c r="C26" s="30">
         <f>_xll.qlRateHelperEarliestDate($A26)</f>
-        <v>41968</v>
+        <v>41984</v>
       </c>
       <c r="D26" s="31">
         <f>_xll.qlRateHelperLatestDate($A26)</f>
-        <v>42515</v>
+        <v>42625</v>
       </c>
       <c r="F26" s="120">
         <f t="shared" si="0"/>
-        <v>42470</v>
+        <v>42579.5</v>
       </c>
       <c r="G26" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D25,D26)</f>
-        <v>0.25</v>
+        <v>0.25277777777777777</v>
       </c>
       <c r="I26" s="138" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J26" s="137">
-        <v>-5.216207273495482E-4</v>
+        <v>-1.9876005065665034E-4</v>
       </c>
       <c r="K26" s="111">
         <f t="shared" si="3"/>
-        <v>42515</v>
+        <v>42625</v>
       </c>
       <c r="L26" s="100"/>
       <c r="M26" s="106" t="b">
@@ -9980,7 +9971,7 @@
       </c>
       <c r="N26" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M26),AND(M$4:M25))),($J26*$G26-LN(1+Jumpoverwrite1*O$2))/$G26,_xll.qlInterpolationInterpolate(M$3,$F26,TRUE))</f>
-        <v>-5.216207273495482E-4</v>
+        <v>-1.9876005065665034E-4</v>
       </c>
       <c r="O26" s="107" t="str">
         <f>IF(AND(NOT(M26),AND(M$4:M25)),MIN(EXP((N26-$J26)*$G26),1),"")</f>
@@ -9993,7 +9984,7 @@
       </c>
       <c r="R26" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q26),AND(Q$4:Q25))),($J26*$G26-LN(1+Jumpoverwrite2*S$2))/$G26,_xll.qlInterpolationInterpolate(Q$3,$F26,TRUE))</f>
-        <v>-5.216207273495482E-4</v>
+        <v>-1.9876005065665034E-4</v>
       </c>
       <c r="S26" s="107" t="str">
         <f>IF(AND(NOT(Q26),AND(Q$4:Q25)),MIN(EXP((R26-$J26)*$G26),1),"")</f>
@@ -10006,7 +9997,7 @@
       </c>
       <c r="V26" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U26),AND(U$4:U25))),($J26*$G26-LN(1+Jumpoverwrite3*W$2))/$G26,_xll.qlInterpolationInterpolate(U$3,$F26,TRUE))</f>
-        <v>-5.216207273495482E-4</v>
+        <v>-1.9876005065665034E-4</v>
       </c>
       <c r="W26" s="107" t="str">
         <f>IF(AND(NOT(U26),AND(U$4:U25)),MIN(EXP((V26-$J26)*$G26),1),"")</f>
@@ -10019,7 +10010,7 @@
       </c>
       <c r="Z26" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y26),AND(Y$4:Y25))),($J26*$G26-LN(1+Jumpoverwrite4*AA$2))/$G26,_xll.qlInterpolationInterpolate(Y$3,$F26,TRUE))</f>
-        <v>-5.216207273495482E-4</v>
+        <v>-1.9876005065665034E-4</v>
       </c>
       <c r="AA26" s="107" t="str">
         <f>IF(AND(NOT(Y26),AND(Y$4:Y25)),MIN(EXP((Z26-$J26)*$G26),1),"")</f>
@@ -10032,7 +10023,7 @@
       </c>
       <c r="AD26" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC26),AND(AC$4:AC25))),($J26*$G26-LN(1+Jumpoverwrite5*AE$2))/$G26,_xll.qlInterpolationInterpolate(AC$3,$F26,TRUE))</f>
-        <v>-5.216207273495482E-4</v>
+        <v>-1.9876005065665034E-4</v>
       </c>
       <c r="AE26" s="107" t="str">
         <f>IF(AND(NOT(AC26),AND(AC$4:AC25)),MIN(EXP((AD26-$J26)*$G26),1),"")</f>
@@ -10045,7 +10036,7 @@
       </c>
       <c r="AH26" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG26),AND(AG$4:AG25))),($J26*$G26-LN(1+Jumpoverwrite6*AI$2))/$G26,_xll.qlInterpolationInterpolate(AG$3,$F26,TRUE))</f>
-        <v>-5.216207273495482E-4</v>
+        <v>-1.9876005065665034E-4</v>
       </c>
       <c r="AI26" s="107" t="str">
         <f>IF(AND(NOT(AG26),AND(AG$4:AG25)),MIN(EXP((AH26-$J26)*$G26),1),"")</f>
@@ -10058,7 +10049,7 @@
       </c>
       <c r="AL26" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK26),AND(AK$4:AK25))),($J26*$G26-LN(1+Jumpoverwrite7*AM$2))/$G26,_xll.qlInterpolationInterpolate(AK$3,$F26,TRUE))</f>
-        <v>-5.216207273495482E-4</v>
+        <v>-1.9876005065665034E-4</v>
       </c>
       <c r="AM26" s="107" t="str">
         <f>IF(AND(NOT(AK26),AND(AK$4:AK25)),MIN(EXP((AL26-$J26)*$G26),1),"")</f>
@@ -10070,7 +10061,7 @@
       </c>
       <c r="AP26" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO26),AND(AO$4:AO25))),($J26*$G26-LN(1+Jumpoverwrite8*AQ$2))/$G26,_xll.qlInterpolationInterpolate(AO$3,$F26,TRUE))</f>
-        <v>-5.216207273495482E-4</v>
+        <v>-1.9876005065665034E-4</v>
       </c>
       <c r="AQ26" s="107" t="str">
         <f>IF(AND(NOT(AO26),AND(AO$4:AO25)),MIN(EXP((AP26-$J26)*$G26),1),"")</f>
@@ -10082,7 +10073,7 @@
       </c>
       <c r="AT26" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS26),AND(AS$4:AS25))),($J26*$G26-LN(1+Jumpoverwrite9*AU$2))/$G26,_xll.qlInterpolationInterpolate(AS$3,$F26,TRUE))</f>
-        <v>-5.216207273495482E-4</v>
+        <v>-1.9876005065665034E-4</v>
       </c>
       <c r="AU26" s="107" t="str">
         <f>IF(AND(NOT(AS26),AND(AS$4:AS25)),MIN(EXP((AT26-$J26)*$G26),1),"")</f>
@@ -10094,7 +10085,7 @@
       </c>
       <c r="AX26" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW26),AND(AW$4:AW25))),($J26*$G26-LN(1+Jumpoverwrite10*AY$2))/$G26,_xll.qlInterpolationInterpolate(AW$3,$F26,TRUE))</f>
-        <v>-5.216207273495482E-4</v>
+        <v>-1.9876005065665034E-4</v>
       </c>
       <c r="AY26" s="107" t="str">
         <f>IF(AND(NOT(AW26),AND(AW$4:AW25)),MIN(EXP((AX26-$J26)*$G26),1),"")</f>
@@ -10106,7 +10097,7 @@
       </c>
       <c r="BB26" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA26),AND(BA$4:BA25))),($J26*$G26-LN(1+Jumpoverwrite11*BC$2))/$G26,_xll.qlInterpolationInterpolate(BA$3,$F26,TRUE))</f>
-        <v>-5.216207273495482E-4</v>
+        <v>-1.9876005065665034E-4</v>
       </c>
       <c r="BC26" s="107" t="str">
         <f>IF(AND(NOT(BA26),AND(BA$4:BA25)),MIN(EXP((BB26-$J26)*$G26),1),"")</f>
@@ -10118,7 +10109,7 @@
       </c>
       <c r="BF26" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE26),AND(BE$4:BE25))),($J26*$G26-LN(1+Jumpoverwrite12*BG$2))/$G26,_xll.qlInterpolationInterpolate(BE$3,$F26,TRUE))</f>
-        <v>-5.216207273495482E-4</v>
+        <v>-1.9876005065665034E-4</v>
       </c>
       <c r="BG26" s="107" t="str">
         <f>IF(AND(NOT(BE26),AND(BE$4:BE25)),MIN(EXP((BF26-$J26)*$G26),1),"")</f>
@@ -10130,7 +10121,7 @@
       </c>
       <c r="BJ26" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI26),AND(BI$4:BI25))),($J26*$G26-LN(1+jumpoverwrite13*BK$2))/$G26,_xll.qlInterpolationInterpolate(BI$3,$F26,TRUE))</f>
-        <v>-3.7787334410522633E-4</v>
+        <v>-1.282050430524636E-3</v>
       </c>
       <c r="BK26" s="107" t="str">
         <f>IF(AND(NOT(BI26),AND(BI$4:BI25)),MIN(EXP((BJ26-$J26)*$G26),1),"")</f>
@@ -10139,38 +10130,38 @@
     </row>
     <row r="27" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A27" s="94" t="str">
-        <v>WEUREON21M</v>
+        <v>WEUREON2Y</v>
       </c>
       <c r="B27" s="27">
         <f>_xll.qlRateHelperRate($A27,InterestRatesTrigger)</f>
-        <v>-4.0000000000000002E-4</v>
+        <v>-3.2000000000000003E-4</v>
       </c>
       <c r="C27" s="30">
         <f>_xll.qlRateHelperEarliestDate($A27)</f>
-        <v>41968</v>
+        <v>41984</v>
       </c>
       <c r="D27" s="31">
         <f>_xll.qlRateHelperLatestDate($A27)</f>
-        <v>42607</v>
+        <v>42716</v>
       </c>
       <c r="F27" s="120">
         <f t="shared" si="0"/>
-        <v>42561</v>
+        <v>42670.5</v>
       </c>
       <c r="G27" s="121">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D26,D27)</f>
-        <v>0.25555555555555554</v>
+        <v>0.25277777777777777</v>
       </c>
       <c r="I27" s="138" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J27" s="137">
-        <v>-2.8118413547708758E-4</v>
+        <v>1.0260844121153788E-4</v>
       </c>
       <c r="K27" s="111">
         <f t="shared" si="3"/>
-        <v>42607</v>
+        <v>42716</v>
       </c>
       <c r="L27" s="100"/>
       <c r="M27" s="106" t="b">
@@ -10179,7 +10170,7 @@
       </c>
       <c r="N27" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M27),AND(M$4:M26))),($J27*$G27-LN(1+Jumpoverwrite1*O$2))/$G27,_xll.qlInterpolationInterpolate(M$3,$F27,TRUE))</f>
-        <v>-2.8118413547708758E-4</v>
+        <v>1.0260844121153786E-4</v>
       </c>
       <c r="O27" s="107" t="str">
         <f>IF(AND(NOT(M27),AND(M$4:M26)),MIN(EXP((N27-$J27)*$G27),1),"")</f>
@@ -10192,7 +10183,7 @@
       </c>
       <c r="R27" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q27),AND(Q$4:Q26))),($J27*$G27-LN(1+Jumpoverwrite2*S$2))/$G27,_xll.qlInterpolationInterpolate(Q$3,$F27,TRUE))</f>
-        <v>-2.8118413547708758E-4</v>
+        <v>1.0260844121153786E-4</v>
       </c>
       <c r="S27" s="107" t="str">
         <f>IF(AND(NOT(Q27),AND(Q$4:Q26)),MIN(EXP((R27-$J27)*$G27),1),"")</f>
@@ -10205,7 +10196,7 @@
       </c>
       <c r="V27" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U27),AND(U$4:U26))),($J27*$G27-LN(1+Jumpoverwrite3*W$2))/$G27,_xll.qlInterpolationInterpolate(U$3,$F27,TRUE))</f>
-        <v>-2.8118413547708758E-4</v>
+        <v>1.0260844121153786E-4</v>
       </c>
       <c r="W27" s="107" t="str">
         <f>IF(AND(NOT(U27),AND(U$4:U26)),MIN(EXP((V27-$J27)*$G27),1),"")</f>
@@ -10218,7 +10209,7 @@
       </c>
       <c r="Z27" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y27),AND(Y$4:Y26))),($J27*$G27-LN(1+Jumpoverwrite4*AA$2))/$G27,_xll.qlInterpolationInterpolate(Y$3,$F27,TRUE))</f>
-        <v>-2.8118413547708758E-4</v>
+        <v>1.0260844121153786E-4</v>
       </c>
       <c r="AA27" s="107" t="str">
         <f>IF(AND(NOT(Y27),AND(Y$4:Y26)),MIN(EXP((Z27-$J27)*$G27),1),"")</f>
@@ -10231,7 +10222,7 @@
       </c>
       <c r="AD27" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC27),AND(AC$4:AC26))),($J27*$G27-LN(1+Jumpoverwrite5*AE$2))/$G27,_xll.qlInterpolationInterpolate(AC$3,$F27,TRUE))</f>
-        <v>-2.8118413547708758E-4</v>
+        <v>1.0260844121153786E-4</v>
       </c>
       <c r="AE27" s="107" t="str">
         <f>IF(AND(NOT(AC27),AND(AC$4:AC26)),MIN(EXP((AD27-$J27)*$G27),1),"")</f>
@@ -10244,7 +10235,7 @@
       </c>
       <c r="AH27" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG27),AND(AG$4:AG26))),($J27*$G27-LN(1+Jumpoverwrite6*AI$2))/$G27,_xll.qlInterpolationInterpolate(AG$3,$F27,TRUE))</f>
-        <v>-2.8118413547708758E-4</v>
+        <v>1.0260844121153786E-4</v>
       </c>
       <c r="AI27" s="107" t="str">
         <f>IF(AND(NOT(AG27),AND(AG$4:AG26)),MIN(EXP((AH27-$J27)*$G27),1),"")</f>
@@ -10257,7 +10248,7 @@
       </c>
       <c r="AL27" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK27),AND(AK$4:AK26))),($J27*$G27-LN(1+Jumpoverwrite7*AM$2))/$G27,_xll.qlInterpolationInterpolate(AK$3,$F27,TRUE))</f>
-        <v>-2.8118413547708758E-4</v>
+        <v>1.0260844121153786E-4</v>
       </c>
       <c r="AM27" s="107" t="str">
         <f>IF(AND(NOT(AK27),AND(AK$4:AK26)),MIN(EXP((AL27-$J27)*$G27),1),"")</f>
@@ -10269,7 +10260,7 @@
       </c>
       <c r="AP27" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO27),AND(AO$4:AO26))),($J27*$G27-LN(1+Jumpoverwrite8*AQ$2))/$G27,_xll.qlInterpolationInterpolate(AO$3,$F27,TRUE))</f>
-        <v>-2.8118413547708758E-4</v>
+        <v>1.0260844121153786E-4</v>
       </c>
       <c r="AQ27" s="107" t="str">
         <f>IF(AND(NOT(AO27),AND(AO$4:AO26)),MIN(EXP((AP27-$J27)*$G27),1),"")</f>
@@ -10281,7 +10272,7 @@
       </c>
       <c r="AT27" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS27),AND(AS$4:AS26))),($J27*$G27-LN(1+Jumpoverwrite9*AU$2))/$G27,_xll.qlInterpolationInterpolate(AS$3,$F27,TRUE))</f>
-        <v>-2.8118413547708758E-4</v>
+        <v>1.0260844121153786E-4</v>
       </c>
       <c r="AU27" s="107" t="str">
         <f>IF(AND(NOT(AS27),AND(AS$4:AS26)),MIN(EXP((AT27-$J27)*$G27),1),"")</f>
@@ -10293,7 +10284,7 @@
       </c>
       <c r="AX27" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW27),AND(AW$4:AW26))),($J27*$G27-LN(1+Jumpoverwrite10*AY$2))/$G27,_xll.qlInterpolationInterpolate(AW$3,$F27,TRUE))</f>
-        <v>-2.8118413547708758E-4</v>
+        <v>1.0260844121153786E-4</v>
       </c>
       <c r="AY27" s="107" t="str">
         <f>IF(AND(NOT(AW27),AND(AW$4:AW26)),MIN(EXP((AX27-$J27)*$G27),1),"")</f>
@@ -10305,7 +10296,7 @@
       </c>
       <c r="BB27" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA27),AND(BA$4:BA26))),($J27*$G27-LN(1+Jumpoverwrite11*BC$2))/$G27,_xll.qlInterpolationInterpolate(BA$3,$F27,TRUE))</f>
-        <v>-2.8118413547708758E-4</v>
+        <v>1.0260844121153786E-4</v>
       </c>
       <c r="BC27" s="107" t="str">
         <f>IF(AND(NOT(BA27),AND(BA$4:BA26)),MIN(EXP((BB27-$J27)*$G27),1),"")</f>
@@ -10317,7 +10308,7 @@
       </c>
       <c r="BF27" s="102">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE27),AND(BE$4:BE26))),($J27*$G27-LN(1+Jumpoverwrite12*BG$2))/$G27,_xll.qlInterpolationInterpolate(BE$3,$F27,TRUE))</f>
-        <v>-2.8118413547708758E-4</v>
+        <v>1.0260844121153786E-4</v>
       </c>
       <c r="BG27" s="107" t="str">
         <f>IF(AND(NOT(BE27),AND(BE$4:BE26)),MIN(EXP((BF27-$J27)*$G27),1),"")</f>
@@ -10329,7 +10320,7 @@
       </c>
       <c r="BJ27" s="102">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI27),AND(BI$4:BI26))),($J27*$G27-LN(1+jumpoverwrite13*BK$2))/$G27,_xll.qlInterpolationInterpolate(BI$3,$F27,TRUE))</f>
-        <v>-1.8736767732701958E-4</v>
+        <v>-1.6004605851461218E-3</v>
       </c>
       <c r="BK27" s="107" t="str">
         <f>IF(AND(NOT(BI27),AND(BI$4:BI26)),MIN(EXP((BJ27-$J27)*$G27),1),"")</f>
@@ -10337,48 +10328,48 @@
       </c>
     </row>
     <row r="28" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A28" s="94" t="str">
-        <v>WEUREON2Y</v>
-      </c>
-      <c r="B28" s="27">
+      <c r="A28" s="94" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B28" s="27" t="e">
         <f>_xll.qlRateHelperRate($A28,InterestRatesTrigger)</f>
-        <v>-3.5999999999999997E-4</v>
-      </c>
-      <c r="C28" s="30">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C28" s="30" t="e">
         <f>_xll.qlRateHelperEarliestDate($A28)</f>
-        <v>41968</v>
-      </c>
-      <c r="D28" s="31">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D28" s="31" t="e">
         <f>_xll.qlRateHelperLatestDate($A28)</f>
-        <v>42699</v>
-      </c>
-      <c r="F28" s="120">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F28" s="120" t="e">
         <f t="shared" si="0"/>
-        <v>42653</v>
-      </c>
-      <c r="G28" s="121">
+        <v>#N/A</v>
+      </c>
+      <c r="G28" s="121" t="e">
         <f>_xll.qlDayCounterYearFraction(DayCounter,D27,D28)</f>
-        <v>0.25555555555555554</v>
+        <v>#NUM!</v>
       </c>
       <c r="I28" s="138" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J28" s="137">
-        <v>-8.22579029353554E-5</v>
-      </c>
-      <c r="K28" s="111">
+        <v>0</v>
+      </c>
+      <c r="J28" s="137" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K28" s="111" t="e">
         <f t="shared" si="3"/>
-        <v>42699</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L28" s="100"/>
       <c r="M28" s="106" t="b">
         <f>IF(AND(NOT(I28),AND(I$4:I27)),TRUE,I28)</f>
-        <v>1</v>
-      </c>
-      <c r="N28" s="102">
+        <v>0</v>
+      </c>
+      <c r="N28" s="102" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M28),AND(M$4:M27))),($J28*$G28-LN(1+Jumpoverwrite1*O$2))/$G28,_xll.qlInterpolationInterpolate(M$3,$F28,TRUE))</f>
-        <v>-8.225790293535544E-5</v>
+        <v>#NUM!</v>
       </c>
       <c r="O28" s="107" t="str">
         <f>IF(AND(NOT(M28),AND(M$4:M27)),MIN(EXP((N28-$J28)*$G28),1),"")</f>
@@ -10387,11 +10378,11 @@
       <c r="P28" s="109"/>
       <c r="Q28" s="106" t="b">
         <f>IF(AND(NOT(M28),AND(M$4:M27)),TRUE,M28)</f>
-        <v>1</v>
-      </c>
-      <c r="R28" s="102">
+        <v>0</v>
+      </c>
+      <c r="R28" s="102" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q28),AND(Q$4:Q27))),($J28*$G28-LN(1+Jumpoverwrite2*S$2))/$G28,_xll.qlInterpolationInterpolate(Q$3,$F28,TRUE))</f>
-        <v>-8.225790293535544E-5</v>
+        <v>#NUM!</v>
       </c>
       <c r="S28" s="107" t="str">
         <f>IF(AND(NOT(Q28),AND(Q$4:Q27)),MIN(EXP((R28-$J28)*$G28),1),"")</f>
@@ -10400,11 +10391,11 @@
       <c r="T28" s="109"/>
       <c r="U28" s="106" t="b">
         <f>IF(AND(NOT(Q28),AND(Q$4:Q27)),TRUE,Q28)</f>
-        <v>1</v>
-      </c>
-      <c r="V28" s="102">
+        <v>0</v>
+      </c>
+      <c r="V28" s="102" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U28),AND(U$4:U27))),($J28*$G28-LN(1+Jumpoverwrite3*W$2))/$G28,_xll.qlInterpolationInterpolate(U$3,$F28,TRUE))</f>
-        <v>-8.225790293535544E-5</v>
+        <v>#NUM!</v>
       </c>
       <c r="W28" s="107" t="str">
         <f>IF(AND(NOT(U28),AND(U$4:U27)),MIN(EXP((V28-$J28)*$G28),1),"")</f>
@@ -10413,11 +10404,11 @@
       <c r="X28" s="109"/>
       <c r="Y28" s="106" t="b">
         <f>IF(AND(NOT(U28),AND(U$4:U27)),TRUE,U28)</f>
-        <v>1</v>
-      </c>
-      <c r="Z28" s="102">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="102" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y28),AND(Y$4:Y27))),($J28*$G28-LN(1+Jumpoverwrite4*AA$2))/$G28,_xll.qlInterpolationInterpolate(Y$3,$F28,TRUE))</f>
-        <v>-8.225790293535544E-5</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA28" s="107" t="str">
         <f>IF(AND(NOT(Y28),AND(Y$4:Y27)),MIN(EXP((Z28-$J28)*$G28),1),"")</f>
@@ -10426,11 +10417,11 @@
       <c r="AB28" s="109"/>
       <c r="AC28" s="106" t="b">
         <f>IF(AND(NOT(Y28),AND(Y$4:Y27)),TRUE,Y28)</f>
-        <v>1</v>
-      </c>
-      <c r="AD28" s="102">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="102" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC28),AND(AC$4:AC27))),($J28*$G28-LN(1+Jumpoverwrite5*AE$2))/$G28,_xll.qlInterpolationInterpolate(AC$3,$F28,TRUE))</f>
-        <v>-8.225790293535544E-5</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE28" s="107" t="str">
         <f>IF(AND(NOT(AC28),AND(AC$4:AC27)),MIN(EXP((AD28-$J28)*$G28),1),"")</f>
@@ -10439,11 +10430,11 @@
       <c r="AF28" s="109"/>
       <c r="AG28" s="106" t="b">
         <f>IF(AND(NOT(AC28),AND(AC$4:AC27)),TRUE,AC28)</f>
-        <v>1</v>
-      </c>
-      <c r="AH28" s="102">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="102" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG28),AND(AG$4:AG27))),($J28*$G28-LN(1+Jumpoverwrite6*AI$2))/$G28,_xll.qlInterpolationInterpolate(AG$3,$F28,TRUE))</f>
-        <v>-8.225790293535544E-5</v>
+        <v>#NUM!</v>
       </c>
       <c r="AI28" s="107" t="str">
         <f>IF(AND(NOT(AG28),AND(AG$4:AG27)),MIN(EXP((AH28-$J28)*$G28),1),"")</f>
@@ -10452,11 +10443,11 @@
       <c r="AJ28" s="109"/>
       <c r="AK28" s="106" t="b">
         <f>IF(AND(NOT(AG28),AND(AG$4:AG27)),TRUE,AG28)</f>
-        <v>1</v>
-      </c>
-      <c r="AL28" s="102">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="102" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK28),AND(AK$4:AK27))),($J28*$G28-LN(1+Jumpoverwrite7*AM$2))/$G28,_xll.qlInterpolationInterpolate(AK$3,$F28,TRUE))</f>
-        <v>-8.225790293535544E-5</v>
+        <v>#NUM!</v>
       </c>
       <c r="AM28" s="107" t="str">
         <f>IF(AND(NOT(AK28),AND(AK$4:AK27)),MIN(EXP((AL28-$J28)*$G28),1),"")</f>
@@ -10464,11 +10455,11 @@
       </c>
       <c r="AO28" s="106" t="b">
         <f>IF(AND(NOT(AK28),AND(AK$4:AK27)),TRUE,AK28)</f>
-        <v>1</v>
-      </c>
-      <c r="AP28" s="102">
+        <v>0</v>
+      </c>
+      <c r="AP28" s="102" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO28),AND(AO$4:AO27))),($J28*$G28-LN(1+Jumpoverwrite8*AQ$2))/$G28,_xll.qlInterpolationInterpolate(AO$3,$F28,TRUE))</f>
-        <v>-8.225790293535544E-5</v>
+        <v>#NUM!</v>
       </c>
       <c r="AQ28" s="107" t="str">
         <f>IF(AND(NOT(AO28),AND(AO$4:AO27)),MIN(EXP((AP28-$J28)*$G28),1),"")</f>
@@ -10476,11 +10467,11 @@
       </c>
       <c r="AS28" s="106" t="b">
         <f>IF(AND(NOT(AO28),AND(AO$4:AO27)),TRUE,AO28)</f>
-        <v>1</v>
-      </c>
-      <c r="AT28" s="102">
+        <v>0</v>
+      </c>
+      <c r="AT28" s="102" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS28),AND(AS$4:AS27))),($J28*$G28-LN(1+Jumpoverwrite9*AU$2))/$G28,_xll.qlInterpolationInterpolate(AS$3,$F28,TRUE))</f>
-        <v>-8.225790293535544E-5</v>
+        <v>#NUM!</v>
       </c>
       <c r="AU28" s="107" t="str">
         <f>IF(AND(NOT(AS28),AND(AS$4:AS27)),MIN(EXP((AT28-$J28)*$G28),1),"")</f>
@@ -10488,11 +10479,11 @@
       </c>
       <c r="AW28" s="106" t="b">
         <f>IF(AND(NOT(AS28),AND(AS$4:AS27)),TRUE,AS28)</f>
-        <v>1</v>
-      </c>
-      <c r="AX28" s="102">
+        <v>0</v>
+      </c>
+      <c r="AX28" s="102" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW28),AND(AW$4:AW27))),($J28*$G28-LN(1+Jumpoverwrite10*AY$2))/$G28,_xll.qlInterpolationInterpolate(AW$3,$F28,TRUE))</f>
-        <v>-8.225790293535544E-5</v>
+        <v>#NUM!</v>
       </c>
       <c r="AY28" s="107" t="str">
         <f>IF(AND(NOT(AW28),AND(AW$4:AW27)),MIN(EXP((AX28-$J28)*$G28),1),"")</f>
@@ -10500,11 +10491,11 @@
       </c>
       <c r="BA28" s="106" t="b">
         <f>IF(AND(NOT(AW28),AND(AW$4:AW27)),TRUE,AW28)</f>
-        <v>1</v>
-      </c>
-      <c r="BB28" s="102">
+        <v>0</v>
+      </c>
+      <c r="BB28" s="102" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA28),AND(BA$4:BA27))),($J28*$G28-LN(1+Jumpoverwrite11*BC$2))/$G28,_xll.qlInterpolationInterpolate(BA$3,$F28,TRUE))</f>
-        <v>-8.225790293535544E-5</v>
+        <v>#NUM!</v>
       </c>
       <c r="BC28" s="107" t="str">
         <f>IF(AND(NOT(BA28),AND(BA$4:BA27)),MIN(EXP((BB28-$J28)*$G28),1),"")</f>
@@ -10512,11 +10503,11 @@
       </c>
       <c r="BE28" s="106" t="b">
         <f>IF(AND(NOT(BA28),AND(BA$4:BA27)),TRUE,BA28)</f>
-        <v>1</v>
-      </c>
-      <c r="BF28" s="102">
+        <v>0</v>
+      </c>
+      <c r="BF28" s="102" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE28),AND(BE$4:BE27))),($J28*$G28-LN(1+Jumpoverwrite12*BG$2))/$G28,_xll.qlInterpolationInterpolate(BE$3,$F28,TRUE))</f>
-        <v>-8.225790293535544E-5</v>
+        <v>#NUM!</v>
       </c>
       <c r="BG28" s="107" t="str">
         <f>IF(AND(NOT(BE28),AND(BE$4:BE27)),MIN(EXP((BF28-$J28)*$G28),1),"")</f>
@@ -10526,9 +10517,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BJ28" s="102">
+      <c r="BJ28" s="102" t="e">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI28),AND(BI$4:BI27))),($J28*$G28-LN(1+jumpoverwrite13*BK$2))/$G28,_xll.qlInterpolationInterpolate(BI$3,$F28,TRUE))</f>
-        <v>5.231458316881806E-6</v>
+        <v>#NUM!</v>
       </c>
       <c r="BK28" s="107" t="str">
         <f>IF(AND(NOT(BI28),AND(BI$4:BI27)),MIN(EXP((BJ28-$J28)*$G28),1),"")</f>
@@ -30653,9 +30644,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -30731,7 +30720,7 @@
       <c r="M3" s="43"/>
       <c r="N3" s="44">
         <f>_xll.ohTrigger(N5:N6)</f>
-        <v>33</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -30743,10 +30732,10 @@
       <c r="D4" s="155" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="172" t="s">
+      <c r="E4" s="169" t="s">
         <v>91</v>
       </c>
-      <c r="F4" s="172" t="s">
+      <c r="F4" s="169" t="s">
         <v>92</v>
       </c>
       <c r="G4" s="156" t="s">
@@ -30774,18 +30763,18 @@
       </c>
       <c r="C5" s="131">
         <f>JumpDate1</f>
-        <v>41971</v>
-      </c>
-      <c r="D5" s="173">
+        <v>42004</v>
+      </c>
+      <c r="D5" s="170">
         <f>JumpValue1</f>
-        <v>0.99999052005244438</v>
-      </c>
-      <c r="E5" s="165">
+        <v>0.9999824826406053</v>
+      </c>
+      <c r="E5" s="162">
         <f>JumpSize1</f>
-        <v>1.1375990988732956E-3</v>
-      </c>
-      <c r="F5" s="166"/>
-      <c r="G5" s="167">
+        <v>3.1531523085782998E-3</v>
+      </c>
+      <c r="F5" s="163"/>
+      <c r="G5" s="164">
         <v>8.9999662501155588E-4</v>
       </c>
       <c r="I5" s="132">
@@ -30798,11 +30787,11 @@
       </c>
       <c r="L5" s="135" t="str">
         <f>_xll.qlSimpleQuote(K5,,,TRUE,Trigger)</f>
-        <v>EURJump1_SYNTHON_Quote#0002</v>
+        <v>EURJump1_SYNTHON_Quote#0000</v>
       </c>
       <c r="M5" s="135">
         <f t="array" ref="M5:M17">QuoteLive</f>
-        <v>0.99999052005244438</v>
+        <v>0.9999824826406053</v>
       </c>
       <c r="N5" s="135">
         <f>_xll.qlSimpleQuoteSetValue($L5,ROUND($M5,7),EvaluationDate)</f>
@@ -30816,17 +30805,17 @@
       </c>
       <c r="C6" s="126">
         <f>JumpDate2</f>
-        <v>42004</v>
-      </c>
-      <c r="D6" s="163">
+        <v>42034</v>
+      </c>
+      <c r="D6" s="160">
         <f>JumpValue2</f>
-        <v>1</v>
-      </c>
-      <c r="E6" s="168">
+        <v>0.99999111787408357</v>
+      </c>
+      <c r="E6" s="165">
         <f>JumpSize2</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="169"/>
+        <v>1.065859843529491E-3</v>
+      </c>
+      <c r="F6" s="166"/>
       <c r="G6" s="152">
         <v>0</v>
       </c>
@@ -30840,10 +30829,10 @@
       </c>
       <c r="L6" s="135" t="str">
         <f>_xll.qlSimpleQuote(K6,,,TRUE,Trigger)</f>
-        <v>EURJump2_SYNTHON_Quote#0002</v>
+        <v>EURJump2_SYNTHON_Quote#0000</v>
       </c>
       <c r="M6" s="135">
-        <v>1</v>
+        <v>0.99999111787408357</v>
       </c>
       <c r="N6" s="135">
         <f>_xll.qlSimpleQuoteSetValue($L6,ROUND($M6,7),EvaluationDate)</f>
@@ -30857,17 +30846,17 @@
       </c>
       <c r="C7" s="126">
         <f>JumpDate3</f>
-        <v>42034</v>
-      </c>
-      <c r="D7" s="163">
+        <v>42062</v>
+      </c>
+      <c r="D7" s="160">
         <f>JumpValue3</f>
-        <v>0.99999091128401929</v>
-      </c>
-      <c r="E7" s="168">
+        <v>0.99997284750112314</v>
+      </c>
+      <c r="E7" s="165">
         <f>JumpSize3</f>
-        <v>1.0906508740006731E-3</v>
-      </c>
-      <c r="F7" s="169"/>
+        <v>3.258344101515548E-3</v>
+      </c>
+      <c r="F7" s="166"/>
       <c r="G7" s="152">
         <v>2.1999798335708806E-3</v>
       </c>
@@ -30880,10 +30869,10 @@
       </c>
       <c r="L7" s="135" t="str">
         <f>_xll.qlSimpleQuote(K7,,,TRUE,Trigger)</f>
-        <v>EURJump3_SYNTHON_Quote#0002</v>
+        <v>EURJump3_SYNTHON_Quote#0000</v>
       </c>
       <c r="M7" s="135">
-        <v>0.99999091128401929</v>
+        <v>0.99997284750112314</v>
       </c>
       <c r="N7" s="135">
         <f>_xll.qlSimpleQuoteSetValue($L7,ROUND($M7,7),EvaluationDate)</f>
@@ -30897,17 +30886,17 @@
       </c>
       <c r="C8" s="126">
         <f>JumpDate4</f>
-        <v>42062</v>
-      </c>
-      <c r="D8" s="163">
+        <v>42094</v>
+      </c>
+      <c r="D8" s="160">
         <f>JumpValue4</f>
-        <v>0.99998642351961242</v>
-      </c>
-      <c r="E8" s="168">
+        <v>1</v>
+      </c>
+      <c r="E8" s="165">
         <f>JumpSize4</f>
-        <v>1.6291887058586644E-3</v>
-      </c>
-      <c r="F8" s="169"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="166"/>
       <c r="G8" s="152">
         <v>2.3999760003043527E-3</v>
       </c>
@@ -30920,10 +30909,10 @@
       </c>
       <c r="L8" s="135" t="str">
         <f>_xll.qlSimpleQuote(K8,,,TRUE,Trigger)</f>
-        <v>EURJump4_SYNTHON_Quote#0002</v>
+        <v>EURJump4_SYNTHON_Quote#0000</v>
       </c>
       <c r="M8" s="135">
-        <v>0.99998642351961242</v>
+        <v>1</v>
       </c>
       <c r="N8" s="135">
         <f>_xll.qlSimpleQuoteSetValue($L8,ROUND($M8,7),EvaluationDate)</f>
@@ -30937,17 +30926,17 @@
       </c>
       <c r="C9" s="126">
         <f>JumpDate5</f>
-        <v>42094</v>
-      </c>
-      <c r="D9" s="163">
+        <v>42124</v>
+      </c>
+      <c r="D9" s="160">
         <f>JumpValue5</f>
-        <v>0.99999690371626371</v>
-      </c>
-      <c r="E9" s="168">
+        <v>1</v>
+      </c>
+      <c r="E9" s="165">
         <f>JumpSize5</f>
-        <v>1.1146638707239791E-3</v>
-      </c>
-      <c r="F9" s="169"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="166"/>
       <c r="G9" s="152">
         <v>2.9999875000785376E-3</v>
       </c>
@@ -30960,10 +30949,10 @@
       </c>
       <c r="L9" s="135" t="str">
         <f>_xll.qlSimpleQuote(K9,,,TRUE,Trigger)</f>
-        <v>EURJump5_SYNTHON_Quote#0002</v>
+        <v>EURJump5_SYNTHON_Quote#0000</v>
       </c>
       <c r="M9" s="135">
-        <v>0.99999690371626371</v>
+        <v>1</v>
       </c>
       <c r="N9" s="135">
         <f>_xll.qlSimpleQuoteSetValue($L9,ROUND($M9,7),EvaluationDate)</f>
@@ -30977,17 +30966,17 @@
       </c>
       <c r="C10" s="126">
         <f>JumpDate6</f>
-        <v>42124</v>
-      </c>
-      <c r="D10" s="163">
+        <v>42153</v>
+      </c>
+      <c r="D10" s="160">
         <f>JumpValue6</f>
-        <v>0.99999788032628345</v>
-      </c>
-      <c r="E10" s="168">
+        <v>1</v>
+      </c>
+      <c r="E10" s="165">
         <f>JumpSize6</f>
-        <v>1.9077083667550337E-4</v>
-      </c>
-      <c r="F10" s="169"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="166"/>
       <c r="G10" s="152">
         <v>0</v>
       </c>
@@ -31000,10 +30989,10 @@
       </c>
       <c r="L10" s="135" t="str">
         <f>_xll.qlSimpleQuote(K10,,,TRUE,Trigger)</f>
-        <v>EURJump6_SYNTHON_Quote#0002</v>
+        <v>EURJump6_SYNTHON_Quote#0000</v>
       </c>
       <c r="M10" s="135">
-        <v>0.99999788032628345</v>
+        <v>1</v>
       </c>
       <c r="N10" s="135">
         <f>_xll.qlSimpleQuoteSetValue($L10,ROUND($M10,7),EvaluationDate)</f>
@@ -31017,17 +31006,17 @@
       </c>
       <c r="C11" s="126">
         <f>JumpDate7</f>
-        <v>42153</v>
-      </c>
-      <c r="D11" s="163">
+        <v>42185</v>
+      </c>
+      <c r="D11" s="160">
         <f>JumpValue7</f>
-        <v>0.99999370127260956</v>
-      </c>
-      <c r="E11" s="168">
+        <v>1</v>
+      </c>
+      <c r="E11" s="165">
         <f>JumpSize7</f>
-        <v>7.5584966730096216E-4</v>
-      </c>
-      <c r="F11" s="169"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="166"/>
       <c r="G11" s="152">
         <v>6.9577199429309239E-4</v>
       </c>
@@ -31040,10 +31029,10 @@
       </c>
       <c r="L11" s="135" t="str">
         <f>_xll.qlSimpleQuote(K11,,,TRUE,Trigger)</f>
-        <v>EURJump7_SYNTHON_Quote#0002</v>
+        <v>EURJump7_SYNTHON_Quote#0000</v>
       </c>
       <c r="M11" s="135">
-        <v>0.99999370127260956</v>
+        <v>1</v>
       </c>
       <c r="N11" s="135">
         <f>_xll.qlSimpleQuoteSetValue($L11,ROUND($M11,7),EvaluationDate)</f>
@@ -31057,17 +31046,17 @@
       </c>
       <c r="C12" s="126">
         <f>JumpDate8</f>
-        <v>42185</v>
-      </c>
-      <c r="D12" s="163">
+        <v>42216</v>
+      </c>
+      <c r="D12" s="160">
         <f>JumpValue8</f>
         <v>1</v>
       </c>
-      <c r="E12" s="168">
+      <c r="E12" s="165">
         <f>JumpSize8</f>
         <v>0</v>
       </c>
-      <c r="F12" s="169"/>
+      <c r="F12" s="166"/>
       <c r="G12" s="152">
         <v>0</v>
       </c>
@@ -31080,7 +31069,7 @@
       </c>
       <c r="L12" s="135" t="str">
         <f>_xll.qlSimpleQuote(K12,,,TRUE,Trigger)</f>
-        <v>EURJump8_SYNTHON_Quote#0002</v>
+        <v>EURJump8_SYNTHON_Quote#0000</v>
       </c>
       <c r="M12" s="135">
         <v>1</v>
@@ -31097,17 +31086,17 @@
       </c>
       <c r="C13" s="126">
         <f>JumpDate9</f>
-        <v>42216</v>
-      </c>
-      <c r="D13" s="163">
+        <v>42247</v>
+      </c>
+      <c r="D13" s="160">
         <f>JumpValue9</f>
         <v>1</v>
       </c>
-      <c r="E13" s="168">
+      <c r="E13" s="165">
         <f>JumpSize9</f>
         <v>0</v>
       </c>
-      <c r="F13" s="169"/>
+      <c r="F13" s="166"/>
       <c r="G13" s="152">
         <v>0</v>
       </c>
@@ -31120,7 +31109,7 @@
       </c>
       <c r="L13" s="135" t="str">
         <f>_xll.qlSimpleQuote(K13,,,TRUE,Trigger)</f>
-        <v>EURJump9_SYNTHON_Quote#0002</v>
+        <v>EURJump9_SYNTHON_Quote#0000</v>
       </c>
       <c r="M13" s="135">
         <v>1</v>
@@ -31137,17 +31126,17 @@
       </c>
       <c r="C14" s="126">
         <f>JumpDate10</f>
-        <v>42247</v>
-      </c>
-      <c r="D14" s="163">
+        <v>42277</v>
+      </c>
+      <c r="D14" s="160">
         <f>JumpValue10</f>
         <v>1</v>
       </c>
-      <c r="E14" s="168">
+      <c r="E14" s="165">
         <f>JumpSize10</f>
         <v>0</v>
       </c>
-      <c r="F14" s="169"/>
+      <c r="F14" s="166"/>
       <c r="G14" s="152">
         <v>0</v>
       </c>
@@ -31160,7 +31149,7 @@
       </c>
       <c r="L14" s="135" t="str">
         <f>_xll.qlSimpleQuote(K14,,,TRUE,Trigger)</f>
-        <v>EURJump10_SYNTHON_Quote#0002</v>
+        <v>EURJump10_SYNTHON_Quote#0000</v>
       </c>
       <c r="M14" s="135">
         <v>1</v>
@@ -31177,17 +31166,17 @@
       </c>
       <c r="C15" s="126">
         <f>JumpDate11</f>
-        <v>42277</v>
-      </c>
-      <c r="D15" s="163">
+        <v>42307</v>
+      </c>
+      <c r="D15" s="160">
         <f>JumpValue11</f>
-        <v>0.99999336270309624</v>
-      </c>
-      <c r="E15" s="168">
+        <v>1</v>
+      </c>
+      <c r="E15" s="165">
         <f>JumpSize11</f>
-        <v>2.3894348150548523E-3</v>
-      </c>
-      <c r="F15" s="169"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="166"/>
       <c r="G15" s="152">
         <v>2.3894348150548523E-3</v>
       </c>
@@ -31200,10 +31189,10 @@
       </c>
       <c r="L15" s="135" t="str">
         <f>_xll.qlSimpleQuote(K15,,,TRUE,Trigger)</f>
-        <v>EURJump11_SYNTHON_Quote#0002</v>
+        <v>EURJump11_SYNTHON_Quote#0000</v>
       </c>
       <c r="M15" s="135">
-        <v>0.99999336270309624</v>
+        <v>1</v>
       </c>
       <c r="N15" s="135">
         <f>_xll.qlSimpleQuoteSetValue($L15,ROUND($M15,7),EvaluationDate)</f>
@@ -31217,19 +31206,17 @@
       </c>
       <c r="C16" s="126">
         <f>JumpDate12</f>
-        <v>42307</v>
-      </c>
-      <c r="D16" s="163">
+        <v>42338</v>
+      </c>
+      <c r="D16" s="160">
         <f>JumpValue12</f>
-        <v>0.99999166673611051</v>
-      </c>
-      <c r="E16" s="168">
+        <v>0.99999578969461889</v>
+      </c>
+      <c r="E16" s="165">
         <f>JumpSize12</f>
-        <v>9.9999583335951274E-4</v>
-      </c>
-      <c r="F16" s="169">
-        <v>1E-3</v>
-      </c>
+        <v>1.5157131280107681E-3</v>
+      </c>
+      <c r="F16" s="166"/>
       <c r="G16" s="152">
         <v>7.832690093979688E-4</v>
       </c>
@@ -31242,14 +31229,14 @@
       </c>
       <c r="L16" s="135" t="str">
         <f>_xll.qlSimpleQuote(K16,,,TRUE,Trigger)</f>
-        <v>EURJump12_SYNTHON_Quote#0002</v>
+        <v>EURJump12_SYNTHON_Quote#0000</v>
       </c>
       <c r="M16" s="135">
-        <v>0.99999166673611051</v>
+        <v>0.99999578969461889</v>
       </c>
       <c r="N16" s="135">
         <f>_xll.qlSimpleQuoteSetValue($L16,ROUND($M16,7),EvaluationDate)</f>
-        <v>0</v>
+        <v>-1.4000000000402579E-6</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -31261,17 +31248,15 @@
         <f>JumpDate13</f>
         <v>42369</v>
       </c>
-      <c r="D17" s="164">
+      <c r="D17" s="161">
         <f>JumpValue13</f>
-        <v>0.99994444753069278</v>
-      </c>
-      <c r="E17" s="170">
+        <v>0.99997166725762687</v>
+      </c>
+      <c r="E17" s="167">
         <f>JumpSize13</f>
-        <v>4.9998611162511272E-3</v>
-      </c>
-      <c r="F17" s="171">
-        <v>5.0000000000000001E-3</v>
-      </c>
+        <v>2.5499829377568493E-3</v>
+      </c>
+      <c r="F17" s="168"/>
       <c r="G17" s="153">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -31284,14 +31269,14 @@
       </c>
       <c r="L17" s="136" t="str">
         <f>_xll.qlSimpleQuote(K17,,,TRUE,Trigger)</f>
-        <v>EURJump13_SYNTHON_Quote#0002</v>
+        <v>EURJump13_SYNTHON_Quote#0000</v>
       </c>
       <c r="M17" s="136">
-        <v>0.99994444753069278</v>
+        <v>0.99997166725762687</v>
       </c>
       <c r="N17" s="136">
         <f>_xll.qlSimpleQuoteSetValue($L17,ROUND($M17,7),EvaluationDate)</f>
-        <v>0</v>
+        <v>2.7300000000063385E-5</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="13.5" x14ac:dyDescent="0.25">
